--- a/api/assets/adm322.xlsx
+++ b/api/assets/adm322.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="831">
   <si>
     <t>COURT INTERPRETER REQUEST AND RECORD</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>BAIK10JUN21</t>
   </si>
   <si>
     <t>YYYY - MM - DD</t>
@@ -2644,7 +2650,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2842,6 +2848,18 @@
     <font>
       <sz val="4"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3266,7 +3284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4436,6 +4454,15 @@
     </xf>
     <xf numFmtId="170" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4834,8 +4861,8 @@
   </sheetPr>
   <dimension ref="A1:BI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112:M112"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="210" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4845,11 +4872,11 @@
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
     <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="1.5" customWidth="1"/>
     <col min="12" max="13" width="2.83203125" customWidth="1"/>
     <col min="14" max="14" width="2.33203125" customWidth="1"/>
@@ -4866,7 +4893,9 @@
     <col min="25" max="26" width="1.6640625" customWidth="1"/>
     <col min="27" max="27" width="2.1640625" customWidth="1"/>
     <col min="28" max="29" width="1.6640625" customWidth="1"/>
-    <col min="30" max="32" width="1.33203125" customWidth="1"/>
+    <col min="30" max="30" width="0.5" customWidth="1"/>
+    <col min="31" max="31" width="0.83203125" customWidth="1"/>
+    <col min="32" max="32" width="0.6640625" customWidth="1"/>
     <col min="33" max="33" width="1.6640625" customWidth="1"/>
     <col min="34" max="39" width="1.33203125" customWidth="1"/>
     <col min="40" max="40" width="2.1640625" customWidth="1"/>
@@ -5010,7 +5039,7 @@
       <c r="AG4" s="189"/>
       <c r="AH4" s="190"/>
       <c r="AI4" s="191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ4" s="192"/>
       <c r="AK4" s="192"/>
@@ -5091,7 +5120,7 @@
     </row>
     <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5142,7 +5171,7 @@
     </row>
     <row r="8" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -5154,10 +5183,10 @@
       <c r="J8" s="14"/>
       <c r="P8" s="14"/>
       <c r="R8" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -5237,7 +5266,7 @@
     </row>
     <row r="10" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="200" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="201"/>
       <c r="D10" s="201"/>
@@ -5258,7 +5287,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="20"/>
@@ -5384,7 +5413,7 @@
     </row>
     <row r="13" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5435,7 +5464,7 @@
     </row>
     <row r="14" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -5447,7 +5476,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="1"/>
       <c r="L14" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5534,7 +5563,7 @@
     <row r="16" spans="1:60" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -5546,7 +5575,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
       <c r="L16" s="29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -5649,7 +5678,7 @@
     </row>
     <row r="18" spans="1:61" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -5661,7 +5690,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
       <c r="L18" s="210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M18" s="210"/>
       <c r="N18" s="210"/>
@@ -5777,7 +5806,7 @@
     </row>
     <row r="20" spans="1:61" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -5788,7 +5817,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="13"/>
       <c r="L20" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
@@ -5843,7 +5872,7 @@
     </row>
     <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="216" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="217"/>
       <c r="D22" s="217"/>
@@ -5889,7 +5918,7 @@
     </row>
     <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="220" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="221"/>
       <c r="D23" s="221"/>
@@ -5979,7 +6008,7 @@
     </row>
     <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6025,40 +6054,40 @@
     </row>
     <row r="26" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="224" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="224"/>
       <c r="F26" s="224"/>
       <c r="G26" s="42"/>
       <c r="H26" s="225" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I26" s="225"/>
       <c r="J26" s="225"/>
       <c r="K26" s="225"/>
       <c r="L26" s="40"/>
       <c r="M26" s="225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N26" s="225"/>
       <c r="O26" s="225"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="225" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R26" s="225"/>
       <c r="S26" s="40"/>
       <c r="T26" s="225" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U26" s="225"/>
       <c r="V26" s="1"/>
       <c r="W26" s="224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X26" s="224"/>
       <c r="Y26" s="224"/>
@@ -6066,7 +6095,7 @@
       <c r="AA26" s="224"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="224" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD26" s="224"/>
       <c r="AE26" s="224"/>
@@ -6074,7 +6103,7 @@
       <c r="AG26" s="224"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="224" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ26" s="224"/>
       <c r="AK26" s="224"/>
@@ -6082,14 +6111,14 @@
       <c r="AM26" s="224"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AP26" s="224"/>
       <c r="AQ26" s="226"/>
     </row>
-    <row r="27" spans="1:61" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47"/>
@@ -6133,7 +6162,7 @@
       <c r="AP27" s="51"/>
       <c r="AQ27" s="52"/>
     </row>
-    <row r="28" spans="1:61" s="5" customFormat="1" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="227"/>
@@ -6181,12 +6210,14 @@
       <c r="B29" s="57"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
-      <c r="H29" s="230"/>
+      <c r="H29" s="230" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="230"/>
       <c r="J29" s="230"/>
       <c r="K29" s="230"/>
@@ -6312,13 +6343,13 @@
       <c r="B32" s="57"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
       <c r="H32" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I32" s="230"/>
       <c r="J32" s="230"/>
@@ -6445,13 +6476,13 @@
       <c r="B35" s="57"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
       <c r="H35" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="230"/>
       <c r="J35" s="230"/>
@@ -6578,13 +6609,13 @@
       <c r="B38" s="57"/>
       <c r="C38" s="58"/>
       <c r="D38" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
       <c r="H38" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" s="230"/>
       <c r="J38" s="230"/>
@@ -6680,7 +6711,7 @@
       <c r="O40" s="227"/>
       <c r="P40" s="54"/>
       <c r="Q40" s="227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R40" s="227"/>
       <c r="S40" s="54"/>
@@ -6713,13 +6744,13 @@
       <c r="B41" s="57"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
       <c r="H41" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I41" s="230"/>
       <c r="J41" s="230"/>
@@ -6815,7 +6846,7 @@
       <c r="O43" s="227"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R43" s="227"/>
       <c r="S43" s="54"/>
@@ -6848,13 +6879,13 @@
       <c r="B44" s="57"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
       <c r="G44" s="58"/>
       <c r="H44" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I44" s="230"/>
       <c r="J44" s="230"/>
@@ -6950,7 +6981,7 @@
       <c r="O46" s="227"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R46" s="227"/>
       <c r="S46" s="54"/>
@@ -6983,13 +7014,13 @@
       <c r="B47" s="57"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47" s="58"/>
       <c r="H47" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" s="230"/>
       <c r="J47" s="230"/>
@@ -7085,7 +7116,7 @@
       <c r="O49" s="227"/>
       <c r="P49" s="54"/>
       <c r="Q49" s="227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R49" s="227"/>
       <c r="S49" s="54"/>
@@ -7118,13 +7149,13 @@
       <c r="B50" s="57"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
       <c r="H50" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="230"/>
       <c r="J50" s="230"/>
@@ -7220,7 +7251,7 @@
       <c r="O52" s="227"/>
       <c r="P52" s="54"/>
       <c r="Q52" s="227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R52" s="227"/>
       <c r="S52" s="54"/>
@@ -7253,13 +7284,13 @@
       <c r="B53" s="57"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="230" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" s="230"/>
       <c r="J53" s="230"/>
@@ -7374,7 +7405,7 @@
     <row r="56" spans="1:43" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C56" s="74"/>
       <c r="D56" s="75"/>
@@ -7420,7 +7451,7 @@
     </row>
     <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="233" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C57" s="234"/>
       <c r="D57" s="234"/>
@@ -7431,17 +7462,17 @@
       <c r="I57" s="234"/>
       <c r="J57" s="234"/>
       <c r="K57" s="230" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L57" s="230"/>
       <c r="M57" s="230" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N57" s="230"/>
       <c r="O57" s="230"/>
       <c r="P57" s="230"/>
       <c r="Q57" s="234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R57" s="234"/>
       <c r="S57" s="234"/>
@@ -7454,7 +7485,7 @@
       <c r="Z57" s="234"/>
       <c r="AA57" s="234"/>
       <c r="AB57" s="234" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC57" s="234"/>
       <c r="AD57" s="234"/>
@@ -7562,7 +7593,7 @@
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C60" s="243"/>
       <c r="D60" s="243"/>
@@ -7890,12 +7921,16 @@
       <c r="O68" s="175"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="182"/>
+      <c r="R68" s="182" t="s">
+        <v>5</v>
+      </c>
       <c r="S68" s="183"/>
       <c r="T68" s="183"/>
       <c r="U68" s="183"/>
       <c r="V68" s="184"/>
-      <c r="W68" s="188"/>
+      <c r="W68" s="188" t="s">
+        <v>6</v>
+      </c>
       <c r="X68" s="189"/>
       <c r="Y68" s="189"/>
       <c r="Z68" s="189"/>
@@ -7908,7 +7943,7 @@
       <c r="AG68" s="189"/>
       <c r="AH68" s="190"/>
       <c r="AI68" s="191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ68" s="192"/>
       <c r="AK68" s="192"/>
@@ -8006,7 +8041,7 @@
     <row r="71" spans="1:43" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="90"/>
@@ -8099,19 +8134,19 @@
       <c r="A73" s="1"/>
       <c r="B73" s="93"/>
       <c r="C73" s="98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="100"/>
       <c r="F73" s="100"/>
       <c r="G73" s="224" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H73" s="224"/>
       <c r="I73" s="224"/>
       <c r="J73" s="41"/>
       <c r="K73" s="225" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L73" s="225"/>
       <c r="M73" s="225"/>
@@ -8137,7 +8172,7 @@
       <c r="AG73" s="101"/>
       <c r="AH73" s="101"/>
       <c r="AI73" s="248" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ73" s="248"/>
       <c r="AK73" s="248"/>
@@ -8152,18 +8187,18 @@
       <c r="A74" s="1"/>
       <c r="B74" s="93"/>
       <c r="C74" s="58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D74" s="95"/>
       <c r="E74" s="58"/>
       <c r="F74" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G74" s="249"/>
       <c r="H74" s="249"/>
       <c r="I74" s="249"/>
       <c r="J74" s="103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74" s="250"/>
       <c r="L74" s="250"/>
@@ -8171,15 +8206,12 @@
       <c r="N74" s="250"/>
       <c r="O74" s="250"/>
       <c r="P74" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q74" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="Q74" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="R74" s="251">
-        <f>+K74*G74</f>
-        <v>0</v>
-      </c>
+      <c r="R74" s="251"/>
       <c r="S74" s="251"/>
       <c r="T74" s="251"/>
       <c r="U74" s="251"/>
@@ -8196,10 +8228,10 @@
       <c r="AF74" s="95"/>
       <c r="AG74" s="95"/>
       <c r="AH74" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI74" s="95" t="s">
         <v>50</v>
-      </c>
-      <c r="AI74" s="95" t="s">
-        <v>48</v>
       </c>
       <c r="AJ74" s="252">
         <f>+R74</f>
@@ -8221,13 +8253,13 @@
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
       <c r="G75" s="253" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75" s="253"/>
       <c r="I75" s="253"/>
       <c r="J75" s="103"/>
       <c r="K75" s="254" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L75" s="254"/>
       <c r="M75" s="254"/>
@@ -8266,18 +8298,18 @@
       <c r="A76" s="1"/>
       <c r="B76" s="93"/>
       <c r="C76" s="58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D76" s="58"/>
       <c r="E76" s="58"/>
       <c r="F76" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G76" s="255"/>
       <c r="H76" s="255"/>
       <c r="I76" s="255"/>
       <c r="J76" s="105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K76" s="256"/>
       <c r="L76" s="256"/>
@@ -8285,15 +8317,12 @@
       <c r="N76" s="256"/>
       <c r="O76" s="256"/>
       <c r="P76" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="Q76" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="R76" s="251">
-        <f>+K76*G76</f>
-        <v>0</v>
-      </c>
+      <c r="R76" s="251"/>
       <c r="S76" s="251"/>
       <c r="T76" s="251"/>
       <c r="U76" s="251"/>
@@ -8310,10 +8339,10 @@
       <c r="AF76" s="95"/>
       <c r="AG76" s="95"/>
       <c r="AH76" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI76" s="95" t="s">
         <v>50</v>
-      </c>
-      <c r="AI76" s="95" t="s">
-        <v>48</v>
       </c>
       <c r="AJ76" s="252">
         <f>+R76</f>
@@ -8402,17 +8431,17 @@
       <c r="AA78" s="96"/>
       <c r="AB78" s="101"/>
       <c r="AC78" s="100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD78" s="100"/>
       <c r="AE78" s="100"/>
       <c r="AF78" s="101"/>
       <c r="AG78" s="95"/>
       <c r="AH78" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI78" s="95" t="s">
         <v>50</v>
-      </c>
-      <c r="AI78" s="95" t="s">
-        <v>48</v>
       </c>
       <c r="AJ78" s="252">
         <f>+AJ74+AJ76</f>
@@ -8436,11 +8465,11 @@
       <c r="G79" s="95"/>
       <c r="H79" s="95"/>
       <c r="I79" s="58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J79" s="95"/>
       <c r="K79" s="257" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L79" s="257"/>
       <c r="M79" s="257"/>
@@ -8449,7 +8478,9 @@
       <c r="P79" s="257"/>
       <c r="Q79" s="257"/>
       <c r="R79" s="257"/>
-      <c r="S79" s="56"/>
+      <c r="S79" s="393">
+        <v>0.05</v>
+      </c>
       <c r="T79" s="56"/>
       <c r="U79" s="95"/>
       <c r="V79" s="95"/>
@@ -8463,16 +8494,19 @@
       <c r="AD79" s="96"/>
       <c r="AE79" s="96"/>
       <c r="AF79" s="100" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG79" s="95"/>
       <c r="AH79" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI79" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AI79" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ79" s="258"/>
+      <c r="AJ79" s="258">
+        <f>AJ78*S79</f>
+        <v>0</v>
+      </c>
       <c r="AK79" s="258"/>
       <c r="AL79" s="258"/>
       <c r="AM79" s="258"/>
@@ -8511,20 +8545,20 @@
       <c r="AA80" s="96"/>
       <c r="AB80" s="101"/>
       <c r="AC80" s="100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AD80" s="100"/>
       <c r="AE80" s="100"/>
       <c r="AF80" s="101"/>
       <c r="AG80" s="95"/>
       <c r="AH80" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI80" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AI80" s="95" t="s">
-        <v>48</v>
-      </c>
       <c r="AJ80" s="258">
-        <f>+AJ78+AJ79</f>
+        <f>+AJ78+(AJ79*S79)</f>
         <v>0</v>
       </c>
       <c r="AK80" s="258"/>
@@ -8539,7 +8573,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="106"/>
       <c r="C81" s="98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D81" s="95"/>
       <c r="E81" s="58"/>
@@ -8590,17 +8624,17 @@
       <c r="E82" s="40"/>
       <c r="F82" s="40"/>
       <c r="G82" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H82" s="43"/>
       <c r="I82" s="43"/>
       <c r="J82" s="43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
       <c r="M82" s="225" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N82" s="225"/>
       <c r="O82" s="225"/>
@@ -8613,7 +8647,7 @@
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
       <c r="X82" s="225" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y82" s="225"/>
       <c r="Z82" s="225"/>
@@ -8627,7 +8661,7 @@
       <c r="AH82" s="40"/>
       <c r="AI82" s="110"/>
       <c r="AJ82" s="40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK82" s="109"/>
       <c r="AL82" s="109"/>
@@ -8641,24 +8675,24 @@
       <c r="A83" s="14"/>
       <c r="B83" s="12"/>
       <c r="C83" s="259" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D83" s="259"/>
       <c r="E83" s="259"/>
       <c r="F83" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G83" s="102"/>
+        <v>50</v>
+      </c>
+      <c r="G83" s="391"/>
       <c r="H83" s="113"/>
       <c r="I83" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="J83" s="115"/>
+        <v>51</v>
+      </c>
+      <c r="J83" s="392"/>
       <c r="K83" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L83" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L83" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M83" s="252">
         <f>+J83*G83</f>
@@ -8673,10 +8707,10 @@
       <c r="T83" s="260"/>
       <c r="U83" s="260"/>
       <c r="V83" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W83" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W83" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X83" s="252">
         <f>+M83+R83</f>
@@ -8693,7 +8727,7 @@
       <c r="AG83" s="13"/>
       <c r="AH83" s="13"/>
       <c r="AI83" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ83" s="252">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
@@ -8715,17 +8749,17 @@
       <c r="E84" s="40"/>
       <c r="F84" s="40"/>
       <c r="G84" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
       <c r="J84" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K84" s="43"/>
       <c r="L84" s="43"/>
       <c r="M84" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N84" s="254"/>
       <c r="O84" s="254"/>
@@ -8738,7 +8772,7 @@
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
       <c r="X84" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y84" s="254"/>
       <c r="Z84" s="254"/>
@@ -8763,24 +8797,24 @@
     <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
       <c r="C85" s="259" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D85" s="259"/>
       <c r="E85" s="259"/>
       <c r="F85" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G85" s="102"/>
       <c r="H85" s="113"/>
       <c r="I85" s="114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J85" s="115"/>
       <c r="K85" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L85" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M85" s="252">
         <f>+J85*G85</f>
@@ -8795,10 +8829,10 @@
       <c r="T85" s="260"/>
       <c r="U85" s="260"/>
       <c r="V85" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W85" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W85" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X85" s="252">
         <f>+M85+R85</f>
@@ -8832,17 +8866,17 @@
       <c r="E86" s="40"/>
       <c r="F86" s="40"/>
       <c r="G86" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="43"/>
       <c r="J86" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K86" s="43"/>
       <c r="L86" s="43"/>
       <c r="M86" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N86" s="254"/>
       <c r="O86" s="254"/>
@@ -8855,7 +8889,7 @@
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
       <c r="X86" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y86" s="254"/>
       <c r="Z86" s="254"/>
@@ -8869,7 +8903,7 @@
       <c r="AH86" s="40"/>
       <c r="AI86" s="110"/>
       <c r="AJ86" s="40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AK86" s="110"/>
       <c r="AL86" s="110"/>
@@ -8883,24 +8917,24 @@
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
       <c r="C87" s="259" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D87" s="259"/>
       <c r="E87" s="259"/>
       <c r="F87" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G87" s="102"/>
       <c r="H87" s="113"/>
       <c r="I87" s="114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J87" s="115"/>
       <c r="K87" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L87" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L87" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M87" s="252">
         <f>+J87*G87</f>
@@ -8915,10 +8949,10 @@
       <c r="T87" s="260"/>
       <c r="U87" s="260"/>
       <c r="V87" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W87" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W87" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X87" s="252">
         <f>+M87+R87</f>
@@ -8935,7 +8969,7 @@
       <c r="AG87" s="13"/>
       <c r="AH87" s="13"/>
       <c r="AI87" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ87" s="252">
         <f>+R91+R93+R95+R89</f>
@@ -8957,17 +8991,17 @@
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
       <c r="G88" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
       <c r="J88" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K88" s="43"/>
       <c r="L88" s="43"/>
       <c r="M88" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N88" s="254"/>
       <c r="O88" s="254"/>
@@ -8980,7 +9014,7 @@
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
       <c r="X88" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y88" s="254"/>
       <c r="Z88" s="254"/>
@@ -9006,24 +9040,24 @@
       <c r="A89" s="14"/>
       <c r="B89" s="121"/>
       <c r="C89" s="259" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D89" s="259"/>
       <c r="E89" s="259"/>
       <c r="F89" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G89" s="102"/>
       <c r="H89" s="113"/>
       <c r="I89" s="114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J89" s="115"/>
       <c r="K89" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L89" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L89" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M89" s="252">
         <f>+J89*G89</f>
@@ -9038,10 +9072,10 @@
       <c r="T89" s="252"/>
       <c r="U89" s="252"/>
       <c r="V89" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W89" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W89" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X89" s="252">
         <f>+M89+R89</f>
@@ -9075,24 +9109,24 @@
       <c r="E90" s="40"/>
       <c r="F90" s="40"/>
       <c r="G90" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
       <c r="J90" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K90" s="43"/>
       <c r="L90" s="43"/>
       <c r="M90" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N90" s="254"/>
       <c r="O90" s="254"/>
       <c r="P90" s="254"/>
       <c r="Q90" s="43"/>
       <c r="R90" s="254" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S90" s="254"/>
       <c r="T90" s="254"/>
@@ -9100,7 +9134,7 @@
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
       <c r="X90" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y90" s="254"/>
       <c r="Z90" s="254"/>
@@ -9114,7 +9148,7 @@
       <c r="AH90" s="40"/>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AK90" s="13"/>
       <c r="AL90" s="13"/>
@@ -9128,31 +9162,31 @@
       <c r="A91" s="14"/>
       <c r="B91" s="121"/>
       <c r="C91" s="259" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D91" s="259"/>
       <c r="E91" s="259"/>
       <c r="F91" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G91" s="125"/>
       <c r="H91" s="126"/>
       <c r="I91" s="114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J91" s="115"/>
       <c r="K91" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L91" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L91" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M91" s="252"/>
       <c r="N91" s="252"/>
       <c r="O91" s="252"/>
       <c r="P91" s="252"/>
       <c r="Q91" s="116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R91" s="252">
         <v>0</v>
@@ -9161,10 +9195,10 @@
       <c r="T91" s="252"/>
       <c r="U91" s="252"/>
       <c r="V91" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W91" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W91" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X91" s="252">
         <f>+M91+R91</f>
@@ -9181,7 +9215,7 @@
       <c r="AG91" s="13"/>
       <c r="AH91" s="13"/>
       <c r="AI91" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ91" s="252">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
@@ -9209,14 +9243,14 @@
       <c r="K92" s="43"/>
       <c r="L92" s="43"/>
       <c r="M92" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N92" s="254"/>
       <c r="O92" s="254"/>
       <c r="P92" s="254"/>
       <c r="Q92" s="43"/>
       <c r="R92" s="254" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S92" s="254"/>
       <c r="T92" s="254"/>
@@ -9224,7 +9258,7 @@
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
       <c r="X92" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y92" s="254"/>
       <c r="Z92" s="254"/>
@@ -9250,22 +9284,22 @@
       <c r="A93" s="14"/>
       <c r="B93" s="121"/>
       <c r="C93" s="259" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D93" s="259"/>
       <c r="E93" s="259"/>
       <c r="F93" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G93" s="249"/>
       <c r="H93" s="249"/>
       <c r="I93" s="249"/>
       <c r="J93" s="249"/>
       <c r="K93" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L93" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M93" s="252">
         <f>+G93</f>
@@ -9275,7 +9309,7 @@
       <c r="O93" s="252"/>
       <c r="P93" s="252"/>
       <c r="Q93" s="116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R93" s="252">
         <v>0</v>
@@ -9284,10 +9318,10 @@
       <c r="T93" s="252"/>
       <c r="U93" s="252"/>
       <c r="V93" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W93" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W93" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X93" s="252">
         <f>+M93+R93</f>
@@ -9327,14 +9361,14 @@
       <c r="K94" s="43"/>
       <c r="L94" s="43"/>
       <c r="M94" s="254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N94" s="254"/>
       <c r="O94" s="254"/>
       <c r="P94" s="254"/>
       <c r="Q94" s="43"/>
       <c r="R94" s="254" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S94" s="254"/>
       <c r="T94" s="254"/>
@@ -9342,7 +9376,7 @@
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
       <c r="X94" s="254" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y94" s="254"/>
       <c r="Z94" s="254"/>
@@ -9356,7 +9390,7 @@
       <c r="AH94" s="40"/>
       <c r="AI94" s="40"/>
       <c r="AJ94" s="131" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK94" s="40"/>
       <c r="AL94" s="40"/>
@@ -9370,22 +9404,22 @@
       <c r="A95" s="14"/>
       <c r="B95" s="121"/>
       <c r="C95" s="259" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D95" s="259"/>
       <c r="E95" s="259"/>
       <c r="F95" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G95" s="249"/>
       <c r="H95" s="249"/>
       <c r="I95" s="249"/>
       <c r="J95" s="249"/>
       <c r="K95" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="L95" s="116" t="s">
         <v>50</v>
-      </c>
-      <c r="L95" s="116" t="s">
-        <v>48</v>
       </c>
       <c r="M95" s="252">
         <f>+G95</f>
@@ -9395,7 +9429,7 @@
       <c r="O95" s="252"/>
       <c r="P95" s="252"/>
       <c r="Q95" s="116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R95" s="252">
         <v>0</v>
@@ -9404,10 +9438,10 @@
       <c r="T95" s="252"/>
       <c r="U95" s="252"/>
       <c r="V95" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="W95" s="114" t="s">
         <v>50</v>
-      </c>
-      <c r="W95" s="114" t="s">
-        <v>48</v>
       </c>
       <c r="X95" s="252">
         <f>+M95+R95</f>
@@ -9424,7 +9458,7 @@
       <c r="AG95" s="13"/>
       <c r="AH95" s="13"/>
       <c r="AI95" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ95" s="261">
         <f>AJ80+AJ91</f>
@@ -9496,14 +9530,14 @@
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
       <c r="M97" s="224" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N97" s="224"/>
       <c r="O97" s="224"/>
       <c r="P97" s="224"/>
       <c r="Q97" s="43"/>
       <c r="R97" s="224" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S97" s="224"/>
       <c r="T97" s="224"/>
@@ -9511,7 +9545,7 @@
       <c r="V97" s="43"/>
       <c r="W97" s="43"/>
       <c r="X97" s="224" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y97" s="224"/>
       <c r="Z97" s="224"/>
@@ -9543,7 +9577,7 @@
       <c r="H98" s="58"/>
       <c r="I98" s="58"/>
       <c r="J98" s="262" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K98" s="262"/>
       <c r="L98" s="262"/>
@@ -9555,7 +9589,7 @@
       <c r="O98" s="252"/>
       <c r="P98" s="252"/>
       <c r="Q98" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R98" s="252">
         <f>+R91+R93+R95+R89</f>
@@ -9658,7 +9692,7 @@
       <c r="V100" s="58"/>
       <c r="W100" s="58"/>
       <c r="X100" s="58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y100" s="58"/>
       <c r="Z100" s="58"/>
@@ -9671,7 +9705,7 @@
       <c r="AG100" s="58"/>
       <c r="AH100" s="58"/>
       <c r="AI100" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ100" s="252"/>
       <c r="AK100" s="252"/>
@@ -9696,7 +9730,7 @@
       <c r="L101" s="58"/>
       <c r="M101" s="58"/>
       <c r="N101" s="58" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O101" s="58"/>
       <c r="P101" s="58"/>
@@ -9708,7 +9742,7 @@
       <c r="V101" s="58"/>
       <c r="W101" s="58"/>
       <c r="X101" s="58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y101" s="58"/>
       <c r="Z101" s="58"/>
@@ -9721,7 +9755,7 @@
       <c r="AG101" s="58"/>
       <c r="AH101" s="58"/>
       <c r="AI101" s="58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ101" s="258"/>
       <c r="AK101" s="258"/>
@@ -9778,7 +9812,7 @@
     </row>
     <row r="103" spans="2:43" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -9835,15 +9869,15 @@
       <c r="K104" s="264"/>
       <c r="L104" s="265"/>
       <c r="M104" s="191" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N104" s="192"/>
       <c r="O104" s="192" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P104" s="192"/>
       <c r="Q104" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R104" s="141"/>
       <c r="S104" s="269"/>
@@ -9867,15 +9901,15 @@
       <c r="AK104" s="192"/>
       <c r="AL104" s="193"/>
       <c r="AM104" s="191" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN104" s="192"/>
       <c r="AO104" s="192" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP104" s="192"/>
       <c r="AQ104" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9924,7 +9958,7 @@
     </row>
     <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="279" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C106" s="280"/>
       <c r="D106" s="280"/>
@@ -9943,7 +9977,7 @@
       <c r="Q106" s="298"/>
       <c r="R106" s="145"/>
       <c r="S106" s="291" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T106" s="291"/>
       <c r="U106" s="291"/>
@@ -10032,7 +10066,7 @@
       <c r="Q108" s="300"/>
       <c r="R108" s="67"/>
       <c r="S108" s="307" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T108" s="307"/>
       <c r="U108" s="307"/>
@@ -10105,7 +10139,7 @@
     </row>
     <row r="110" spans="2:43" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="155" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C110" s="156"/>
       <c r="D110" s="156"/>
@@ -10151,7 +10185,7 @@
     </row>
     <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="308" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C111" s="309"/>
       <c r="D111" s="309"/>
@@ -10168,7 +10202,7 @@
       <c r="L111" s="158"/>
       <c r="M111" s="159"/>
       <c r="N111" s="313" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O111" s="314"/>
       <c r="P111" s="314"/>
@@ -10202,7 +10236,7 @@
     </row>
     <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="308" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C112" s="309"/>
       <c r="D112" s="309"/>
@@ -10216,7 +10250,7 @@
       <c r="L112" s="319"/>
       <c r="M112" s="320"/>
       <c r="N112" s="321" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O112" s="322"/>
       <c r="P112" s="322"/>
@@ -10225,15 +10259,15 @@
       <c r="S112" s="322"/>
       <c r="T112" s="323"/>
       <c r="U112" s="324" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V112" s="325"/>
       <c r="W112" s="324" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="X112" s="325"/>
       <c r="Y112" s="326" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z112" s="327"/>
       <c r="AA112" s="327"/>
@@ -10256,7 +10290,7 @@
     </row>
     <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="308" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C113" s="309"/>
       <c r="D113" s="309"/>
@@ -10270,7 +10304,7 @@
       <c r="L113" s="312"/>
       <c r="M113" s="329"/>
       <c r="N113" s="308" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O113" s="309"/>
       <c r="P113" s="309"/>
@@ -10304,7 +10338,7 @@
     </row>
     <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="333" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C114" s="334"/>
       <c r="D114" s="334"/>
@@ -10318,7 +10352,7 @@
       <c r="L114" s="337"/>
       <c r="M114" s="338"/>
       <c r="N114" s="308" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O114" s="309"/>
       <c r="P114" s="309"/>
@@ -10354,7 +10388,7 @@
     </row>
     <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="308" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C115" s="309"/>
       <c r="D115" s="309"/>
@@ -10368,7 +10402,7 @@
       <c r="L115" s="344"/>
       <c r="M115" s="345"/>
       <c r="N115" s="346" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O115" s="347"/>
       <c r="P115" s="347"/>
@@ -10402,36 +10436,36 @@
     </row>
     <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="352" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C116" s="353"/>
       <c r="D116" s="356" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E116" s="357"/>
       <c r="F116" s="356" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G116" s="357"/>
       <c r="H116" s="369" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I116" s="360" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J116" s="361"/>
       <c r="K116" s="356" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L116" s="161"/>
       <c r="M116" s="356" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N116" s="364"/>
       <c r="O116" s="364"/>
       <c r="P116" s="357"/>
       <c r="Q116" s="356" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R116" s="364"/>
       <c r="S116" s="364"/>
@@ -10439,7 +10473,7 @@
       <c r="U116" s="364"/>
       <c r="V116" s="357"/>
       <c r="W116" s="366" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X116" s="367"/>
       <c r="Y116" s="367"/>
@@ -10485,7 +10519,7 @@
       <c r="U117" s="365"/>
       <c r="V117" s="359"/>
       <c r="W117" s="163" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X117" s="164"/>
       <c r="Y117" s="164"/>
@@ -10520,7 +10554,7 @@
       </c>
       <c r="E118" s="372"/>
       <c r="F118" s="371" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G118" s="372"/>
       <c r="H118" s="168"/>
@@ -10572,7 +10606,7 @@
       </c>
       <c r="E119" s="372"/>
       <c r="F119" s="371" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G119" s="372"/>
       <c r="H119" s="172"/>
@@ -10614,7 +10648,7 @@
     </row>
     <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="379" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C120" s="380"/>
       <c r="D120" s="380"/>
@@ -10706,15 +10740,6 @@
   <mergeCells count="340">
     <mergeCell ref="B120:E121"/>
     <mergeCell ref="F120:AQ121"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H52:J52"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="F118:G118"/>
@@ -10868,6 +10893,11 @@
     <mergeCell ref="AJ74:AO74"/>
     <mergeCell ref="G75:I75"/>
     <mergeCell ref="K75:O75"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:AA58"/>
+    <mergeCell ref="AB58:AQ58"/>
     <mergeCell ref="C59:AQ59"/>
     <mergeCell ref="C60:AQ60"/>
     <mergeCell ref="F66:O69"/>
@@ -10879,30 +10909,38 @@
     <mergeCell ref="W68:AH69"/>
     <mergeCell ref="AI68:AQ68"/>
     <mergeCell ref="AI69:AQ69"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="AC53:AE53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:P57"/>
     <mergeCell ref="Q57:AA57"/>
     <mergeCell ref="AB57:AQ57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:AA58"/>
-    <mergeCell ref="AB58:AQ58"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AL50:AM50"/>
     <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="Q52:R52"/>
     <mergeCell ref="T52:U52"/>
     <mergeCell ref="W52:AA52"/>
     <mergeCell ref="AC52:AG52"/>
     <mergeCell ref="AI52:AM52"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="AC53:AE53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AI53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="H47:R47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
     <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="L49:O49"/>
     <mergeCell ref="Q49:R49"/>
     <mergeCell ref="T49:U49"/>
@@ -10910,25 +10948,27 @@
     <mergeCell ref="AC49:AG49"/>
     <mergeCell ref="AI49:AM49"/>
     <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="H44:R44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="AL44:AM44"/>
     <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="L46:O46"/>
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="T46:U46"/>
     <mergeCell ref="W46:AA46"/>
     <mergeCell ref="AC46:AG46"/>
     <mergeCell ref="AI46:AM46"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="H41:R41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
     <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="L43:O43"/>
     <mergeCell ref="Q43:R43"/>
     <mergeCell ref="T43:U43"/>
@@ -10936,25 +10976,27 @@
     <mergeCell ref="AC43:AG43"/>
     <mergeCell ref="AI43:AM43"/>
     <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="H44:R44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="H38:R38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
     <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="L40:O40"/>
     <mergeCell ref="Q40:R40"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="W40:AA40"/>
     <mergeCell ref="AC40:AG40"/>
     <mergeCell ref="AI40:AM40"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="H41:R41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="H35:R35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
     <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="L37:O37"/>
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="T37:U37"/>
@@ -10962,25 +11004,21 @@
     <mergeCell ref="AC37:AG37"/>
     <mergeCell ref="AI37:AM37"/>
     <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="H32:R32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
     <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="L34:O34"/>
     <mergeCell ref="Q34:R34"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="W34:AA34"/>
     <mergeCell ref="AC34:AG34"/>
     <mergeCell ref="AI34:AM34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="H35:R35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="L31:O31"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="T31:U31"/>
@@ -10988,12 +11026,8 @@
     <mergeCell ref="AC31:AG31"/>
     <mergeCell ref="AI31:AM31"/>
     <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="H32:R32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AM32"/>
     <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="W28:AA28"/>
@@ -11045,6 +11079,7 @@
     <mergeCell ref="AI4:AQ4"/>
     <mergeCell ref="AI5:AQ5"/>
   </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup scale="98" fitToWidth="2" fitToHeight="2" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -11077,28 +11112,28 @@
   <sheetData>
     <row r="5" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H5" s="174" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J5" s="174" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N5" s="174" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -11112,16 +11147,16 @@
     </row>
     <row r="7" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="174" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I7">
         <v>4801</v>
       </c>
       <c r="J7" s="174" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -11129,28 +11164,28 @@
     </row>
     <row r="8" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="174" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I8">
         <v>3581</v>
       </c>
       <c r="J8" s="174" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -11158,25 +11193,25 @@
     </row>
     <row r="9" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H9" s="174" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>2025</v>
       </c>
       <c r="J9" s="174" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -11184,19 +11219,19 @@
     </row>
     <row r="10" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H10" s="174" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I10">
         <v>2045</v>
@@ -11207,19 +11242,19 @@
     </row>
     <row r="11" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H11" s="174" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I11">
         <v>2040</v>
@@ -11227,3236 +11262,3236 @@
     </row>
     <row r="12" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" t="s">
         <v>200</v>
-      </c>
-      <c r="D31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" t="s">
         <v>256</v>
-      </c>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C73" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C74" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" t="s">
         <v>327</v>
-      </c>
-      <c r="D74" t="s">
-        <v>328</v>
-      </c>
-      <c r="E74" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C84" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C88" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C90" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C92" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C93" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C97" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E98" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C99" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C101" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C102" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D102" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C103" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D103" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E104" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D105" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D106" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C108" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C113" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C116" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C117" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C118" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C120" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C121" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D121" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C122" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D122" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C123" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C124" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C125" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C126" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C127" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D127" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C128" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C129" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C130" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C132" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D132" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C133" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D133" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C134" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D134" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E134" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C135" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C136" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C137" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C138" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C139" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D139" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C140" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D140" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E140" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C141" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D141" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E141" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C142" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D142" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C143" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D143" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E143" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C144" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D144" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E144" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C145" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D145" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E145" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C146" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E146" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C147" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D147" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E147" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C148" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D148" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E148" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C149" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E149" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C150" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D150" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E150" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D151" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C152" t="s">
+        <v>564</v>
+      </c>
+      <c r="D152" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" t="s">
         <v>562</v>
-      </c>
-      <c r="D152" t="s">
-        <v>143</v>
-      </c>
-      <c r="E152" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D153" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E153" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C154" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D154" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C155" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D155" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E155" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C156" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D156" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E156" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D157" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E157" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C158" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E158" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D159" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E159" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C160" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E160" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C161" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D161" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E161" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C162" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D162" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E162" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C163" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D163" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E163" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C164" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D164" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E164" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C165" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D165" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E165" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C166" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D166" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E166" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C167" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D167" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E167" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C168" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D168" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E168" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C169" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D169" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E169" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C170" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D170" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E170" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C171" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D171" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E171" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C172" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D172" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E172" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C173" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D173" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E173" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C174" t="s">
+        <v>628</v>
+      </c>
+      <c r="D174" t="s">
+        <v>125</v>
+      </c>
+      <c r="E174" t="s">
         <v>626</v>
-      </c>
-      <c r="D174" t="s">
-        <v>123</v>
-      </c>
-      <c r="E174" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C175" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D175" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E175" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C176" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D176" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E176" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C177" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D177" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E177" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C178" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D178" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E178" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C179" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D179" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E179" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C180" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D180" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E180" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C181" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D181" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E181" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C182" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D182" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E182" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C183" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D183" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E183" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C184" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D184" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E184" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C185" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D185" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E185" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C186" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D186" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E186" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C187" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D187" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E187" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C188" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D188" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E188" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C189" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D189" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E189" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="190" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C190" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D190" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E190" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C191" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D191" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E191" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="192" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C192" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D192" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E192" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="193" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C193" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D193" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E193" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C194" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D194" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E194" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C195" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E195" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C196" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D196" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E196" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="197" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C197" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E197" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C198" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D198" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E198" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C199" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D199" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E199" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C200" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D200" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E200" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C201" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D201" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E201" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C202" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D202" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E202" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="203" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C203" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D203" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E203" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C204" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D204" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E204" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="205" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C205" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D205" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E205" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="206" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C206" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E206" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="207" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C207" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D207" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E207" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="208" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C208" t="s">
+        <v>729</v>
+      </c>
+      <c r="D208" t="s">
+        <v>145</v>
+      </c>
+      <c r="E208" t="s">
         <v>727</v>
-      </c>
-      <c r="D208" t="s">
-        <v>143</v>
-      </c>
-      <c r="E208" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="209" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C209" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D209" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E209" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="210" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C210" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D210" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E210" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="211" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C211" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D211" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E211" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="174" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C212" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D212" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E212" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="213" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C213" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D213" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E213" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C214" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D214" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E214" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="215" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C215" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D215" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E215" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="216" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C216" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D216" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E216" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="217" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C217" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D217" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E217" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C218" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D218" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E218" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="219" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C219" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D219" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E219" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="220" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C220" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D220" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E220" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="221" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C221" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D221" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E221" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C222" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D222" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E222" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="223" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C223" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D223" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E223" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="224" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C224" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D224" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E224" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C225" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D225" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E225" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C226" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D226" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E226" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C227" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D227" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E227" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="228" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C228" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D228" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E228" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="229" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C229" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D229" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E229" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C230" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D230" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E230" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C231" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D231" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E231" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="232" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C232" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D232" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E232" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C233" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D233" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E233" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C234" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D234" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E234" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C235" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D235" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E235" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C236" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D236" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E236" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C237" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D237" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E237" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="238" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C238" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D238" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E238" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="239" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C239" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D239" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E239" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="240" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C240" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D240" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E240" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="241" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C241" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D241" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E241" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="242" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C242" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D242" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E242" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/api/assets/adm322.xlsx
+++ b/api/assets/adm322.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B1B81131587BA4C17D34EAC67366B621FDFD7704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9D2820A-FD2F-4A7D-B1BA-53D65F7C87A0}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$B1:$AQ121</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
   <si>
     <t>COURT INTERPRETER REQUEST AND RECORD</t>
   </si>
@@ -42,12 +45,6 @@
   </si>
   <si>
     <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>BAIK10JUN21</t>
   </si>
   <si>
     <t>YYYY - MM - DD</t>
@@ -133,40 +130,40 @@
     <t>Additional Comments</t>
   </si>
   <si>
+    <t>3 Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Required </t>
+  </si>
+  <si>
+    <t>Court File Number</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Fed.</t>
+  </si>
+  <si>
+    <t>Court Room</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Finish Time</t>
+  </si>
+  <si>
+    <t>Approver's Initials</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>3 Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Required </t>
-  </si>
-  <si>
-    <t>Court File Number</t>
-  </si>
-  <si>
-    <t>Case Name</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Fed.</t>
-  </si>
-  <si>
-    <t>Court Room</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>Finish Time</t>
-  </si>
-  <si>
-    <t>Approver's Initials</t>
   </si>
   <si>
     <t>Federal Prosecutor's Name:</t>
@@ -474,11 +471,14 @@
   <si>
     <t>Additional Instructions:</t>
   </si>
+  <si>
+    <t>% (rate)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyy/mmm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -690,8 +690,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="0"/>
+      <sz val="6"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1116,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1421,9 +1421,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1454,29 +1451,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1617,371 +1620,53 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1989,200 +1674,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2199,103 +1783,516 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2330,7 +2327,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2366,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,245 +2681,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="210" workbookViewId="0">
-      <selection activeCell="S79" sqref="S79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScale="178" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76:O76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
-    <col min="18" max="18" width="1.85546875" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="1.5" customWidth="1"/>
+    <col min="12" max="13" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.33203125" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="1.83203125" customWidth="1"/>
+    <col min="19" max="19" width="1.6640625" customWidth="1"/>
     <col min="20" max="20" width="2" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="21" max="21" width="1.6640625" customWidth="1"/>
     <col min="22" max="22" width="2" customWidth="1"/>
-    <col min="23" max="23" width="1.28515625" customWidth="1"/>
-    <col min="24" max="24" width="1.85546875" customWidth="1"/>
-    <col min="25" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="27" width="2.140625" customWidth="1"/>
-    <col min="28" max="29" width="1.7109375" customWidth="1"/>
-    <col min="30" max="30" width="0.42578125" customWidth="1"/>
-    <col min="31" max="31" width="0.85546875" customWidth="1"/>
-    <col min="32" max="32" width="0.7109375" customWidth="1"/>
-    <col min="33" max="33" width="1.7109375" customWidth="1"/>
-    <col min="34" max="39" width="1.28515625" customWidth="1"/>
-    <col min="40" max="40" width="2.140625" customWidth="1"/>
-    <col min="41" max="41" width="2.7109375" customWidth="1"/>
-    <col min="42" max="42" width="1.140625" customWidth="1"/>
-    <col min="43" max="43" width="1.42578125" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" customWidth="1"/>
+    <col min="24" max="24" width="1.83203125" customWidth="1"/>
+    <col min="25" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="27" width="2.1640625" customWidth="1"/>
+    <col min="28" max="29" width="1.6640625" customWidth="1"/>
+    <col min="30" max="30" width="0.5" customWidth="1"/>
+    <col min="31" max="31" width="0.83203125" customWidth="1"/>
+    <col min="32" max="32" width="0.6640625" customWidth="1"/>
+    <col min="33" max="33" width="1.6640625" customWidth="1"/>
+    <col min="34" max="39" width="1.33203125" customWidth="1"/>
+    <col min="40" max="40" width="1.83203125" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
+    <col min="42" max="42" width="1.1640625" customWidth="1"/>
+    <col min="43" max="43" width="1.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="334" t="s">
+      <c r="F2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="335" t="s">
+      <c r="R2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="336"/>
-      <c r="AH2" s="336"/>
-      <c r="AI2" s="336"/>
-      <c r="AJ2" s="336"/>
-      <c r="AK2" s="336"/>
-      <c r="AL2" s="336"/>
-      <c r="AM2" s="336"/>
-      <c r="AN2" s="336"/>
-      <c r="AO2" s="336"/>
-      <c r="AP2" s="336"/>
-      <c r="AQ2" s="337"/>
-    </row>
-    <row r="3" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="177"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="178"/>
+    </row>
+    <row r="3" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="338" t="s">
+      <c r="R3" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="339"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="339"/>
-      <c r="V3" s="340"/>
-      <c r="W3" s="338" t="s">
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="339"/>
-      <c r="AA3" s="339"/>
-      <c r="AB3" s="339"/>
-      <c r="AC3" s="339"/>
-      <c r="AD3" s="339"/>
-      <c r="AE3" s="339"/>
-      <c r="AF3" s="339"/>
-      <c r="AG3" s="339"/>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="338" t="s">
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="180"/>
+      <c r="AB3" s="180"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
+      <c r="AH3" s="181"/>
+      <c r="AI3" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="339"/>
-      <c r="AK3" s="339"/>
-      <c r="AL3" s="339"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="339"/>
-      <c r="AO3" s="339"/>
-      <c r="AP3" s="339"/>
-      <c r="AQ3" s="340"/>
+      <c r="AJ3" s="180"/>
+      <c r="AK3" s="180"/>
+      <c r="AL3" s="180"/>
+      <c r="AM3" s="180"/>
+      <c r="AN3" s="180"/>
+      <c r="AO3" s="180"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="181"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:60" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="334"/>
-      <c r="O4" s="334"/>
-      <c r="P4" s="334"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="341"/>
-      <c r="S4" s="342"/>
-      <c r="T4" s="342"/>
-      <c r="U4" s="342"/>
-      <c r="V4" s="343"/>
-      <c r="W4" s="347"/>
-      <c r="X4" s="348"/>
-      <c r="Y4" s="348"/>
-      <c r="Z4" s="348"/>
-      <c r="AA4" s="348"/>
-      <c r="AB4" s="348"/>
-      <c r="AC4" s="348"/>
-      <c r="AD4" s="348"/>
-      <c r="AE4" s="348"/>
-      <c r="AF4" s="348"/>
-      <c r="AG4" s="348"/>
-      <c r="AH4" s="349"/>
-      <c r="AI4" s="295" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ4" s="296"/>
-      <c r="AK4" s="296"/>
-      <c r="AL4" s="296"/>
-      <c r="AM4" s="296"/>
-      <c r="AN4" s="296"/>
-      <c r="AO4" s="296"/>
-      <c r="AP4" s="296"/>
-      <c r="AQ4" s="299"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="189"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="189"/>
+      <c r="AE4" s="189"/>
+      <c r="AF4" s="189"/>
+      <c r="AG4" s="189"/>
+      <c r="AH4" s="190"/>
+      <c r="AI4" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="192"/>
+      <c r="AK4" s="192"/>
+      <c r="AL4" s="192"/>
+      <c r="AM4" s="192"/>
+      <c r="AN4" s="192"/>
+      <c r="AO4" s="192"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="193"/>
       <c r="AR4" s="1"/>
     </row>
-    <row r="5" spans="1:60" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
-      <c r="M5" s="334"/>
-      <c r="N5" s="334"/>
-      <c r="O5" s="334"/>
-      <c r="P5" s="334"/>
+    <row r="5" spans="1:60" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="345"/>
-      <c r="T5" s="345"/>
-      <c r="U5" s="345"/>
-      <c r="V5" s="346"/>
-      <c r="W5" s="344"/>
-      <c r="X5" s="345"/>
-      <c r="Y5" s="345"/>
-      <c r="Z5" s="345"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="345"/>
-      <c r="AC5" s="345"/>
-      <c r="AD5" s="345"/>
-      <c r="AE5" s="345"/>
-      <c r="AF5" s="345"/>
-      <c r="AG5" s="345"/>
-      <c r="AH5" s="346"/>
-      <c r="AI5" s="390"/>
-      <c r="AJ5" s="391"/>
-      <c r="AK5" s="391"/>
-      <c r="AL5" s="391"/>
-      <c r="AM5" s="391"/>
-      <c r="AN5" s="391"/>
-      <c r="AO5" s="391"/>
-      <c r="AP5" s="391"/>
-      <c r="AQ5" s="392"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="186"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186"/>
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="186"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
+      <c r="AL5" s="195"/>
+      <c r="AM5" s="195"/>
+      <c r="AN5" s="195"/>
+      <c r="AO5" s="195"/>
+      <c r="AP5" s="195"/>
+      <c r="AQ5" s="196"/>
       <c r="AR5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
-    <row r="6" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
@@ -2947,9 +2944,9 @@
       <c r="AR6" s="1"/>
       <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2998,9 +2995,9 @@
       <c r="AU7" s="1"/>
       <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3012,10 +3009,10 @@
       <c r="J8" s="14"/>
       <c r="P8" s="14"/>
       <c r="R8" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -3045,47 +3042,47 @@
       <c r="AU8" s="1"/>
       <c r="BH8" s="1"/>
     </row>
-    <row r="9" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="380"/>
-      <c r="C9" s="381"/>
-      <c r="D9" s="381"/>
-      <c r="E9" s="381"/>
-      <c r="F9" s="381"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="381"/>
-      <c r="I9" s="381"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="381"/>
-      <c r="L9" s="381"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="381"/>
-      <c r="O9" s="381"/>
+    <row r="9" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
       <c r="P9" s="14"/>
       <c r="R9" s="18"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="382"/>
-      <c r="V9" s="382"/>
-      <c r="W9" s="382"/>
-      <c r="X9" s="382"/>
-      <c r="Y9" s="382"/>
-      <c r="Z9" s="382"/>
-      <c r="AA9" s="382"/>
-      <c r="AB9" s="382"/>
-      <c r="AC9" s="382"/>
-      <c r="AD9" s="382"/>
-      <c r="AE9" s="382"/>
-      <c r="AF9" s="382"/>
-      <c r="AG9" s="382"/>
-      <c r="AH9" s="382"/>
-      <c r="AI9" s="382"/>
-      <c r="AJ9" s="382"/>
-      <c r="AK9" s="382"/>
-      <c r="AL9" s="382"/>
-      <c r="AM9" s="382"/>
-      <c r="AN9" s="382"/>
-      <c r="AO9" s="382"/>
-      <c r="AP9" s="382"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="199"/>
+      <c r="W9" s="199"/>
+      <c r="X9" s="199"/>
+      <c r="Y9" s="199"/>
+      <c r="Z9" s="199"/>
+      <c r="AA9" s="199"/>
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="199"/>
+      <c r="AD9" s="199"/>
+      <c r="AE9" s="199"/>
+      <c r="AF9" s="199"/>
+      <c r="AG9" s="199"/>
+      <c r="AH9" s="199"/>
+      <c r="AI9" s="199"/>
+      <c r="AJ9" s="199"/>
+      <c r="AK9" s="199"/>
+      <c r="AL9" s="199"/>
+      <c r="AM9" s="199"/>
+      <c r="AN9" s="199"/>
+      <c r="AO9" s="199"/>
+      <c r="AP9" s="199"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3093,30 +3090,30 @@
       <c r="AU9" s="1"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="383" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="384"/>
-      <c r="D10" s="384"/>
-      <c r="E10" s="385"/>
-      <c r="F10" s="385"/>
-      <c r="G10" s="385"/>
-      <c r="H10" s="386"/>
-      <c r="I10" s="386"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="386"/>
-      <c r="L10" s="386"/>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="386"/>
+    <row r="10" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="20"/>
@@ -3142,48 +3139,48 @@
       <c r="AU10" s="1"/>
       <c r="BH10" s="1"/>
     </row>
-    <row r="11" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="387"/>
-      <c r="C11" s="388"/>
-      <c r="D11" s="388"/>
-      <c r="E11" s="388"/>
-      <c r="F11" s="388"/>
-      <c r="G11" s="388"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="388"/>
-      <c r="L11" s="388"/>
-      <c r="M11" s="388"/>
-      <c r="N11" s="388"/>
-      <c r="O11" s="388"/>
+    <row r="11" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="204"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="382"/>
-      <c r="V11" s="382"/>
-      <c r="W11" s="382"/>
-      <c r="X11" s="382"/>
-      <c r="Y11" s="382"/>
-      <c r="Z11" s="382"/>
-      <c r="AA11" s="382"/>
-      <c r="AB11" s="382"/>
-      <c r="AC11" s="382"/>
-      <c r="AD11" s="382"/>
-      <c r="AE11" s="382"/>
-      <c r="AF11" s="382"/>
-      <c r="AG11" s="382"/>
-      <c r="AH11" s="382"/>
-      <c r="AI11" s="382"/>
-      <c r="AJ11" s="382"/>
-      <c r="AK11" s="382"/>
-      <c r="AL11" s="382"/>
-      <c r="AM11" s="382"/>
-      <c r="AN11" s="382"/>
-      <c r="AO11" s="382"/>
-      <c r="AP11" s="382"/>
+      <c r="U11" s="199"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="199"/>
+      <c r="X11" s="199"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="199"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="199"/>
+      <c r="AC11" s="199"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="199"/>
+      <c r="AF11" s="199"/>
+      <c r="AG11" s="199"/>
+      <c r="AH11" s="199"/>
+      <c r="AI11" s="199"/>
+      <c r="AJ11" s="199"/>
+      <c r="AK11" s="199"/>
+      <c r="AL11" s="199"/>
+      <c r="AM11" s="199"/>
+      <c r="AN11" s="199"/>
+      <c r="AO11" s="199"/>
+      <c r="AP11" s="199"/>
       <c r="AQ11" s="23"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3191,7 +3188,7 @@
       <c r="AU11" s="1"/>
       <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="1:60" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3240,9 +3237,9 @@
       <c r="AU12" s="1"/>
       <c r="BH12" s="1"/>
     </row>
-    <row r="13" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3291,9 +3288,9 @@
       <c r="AU13" s="1"/>
       <c r="BH13" s="1"/>
     </row>
-    <row r="14" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3305,7 +3302,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="1"/>
       <c r="L14" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -3328,34 +3325,34 @@
       <c r="AR14" s="1"/>
       <c r="AW14" s="1"/>
     </row>
-    <row r="15" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="389"/>
-      <c r="C15" s="369"/>
-      <c r="D15" s="369"/>
-      <c r="E15" s="369"/>
-      <c r="F15" s="369"/>
-      <c r="G15" s="369"/>
-      <c r="H15" s="369"/>
-      <c r="I15" s="369"/>
-      <c r="J15" s="369"/>
+    <row r="15" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="206"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="369"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="369"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="369"/>
-      <c r="U15" s="369"/>
-      <c r="V15" s="369"/>
-      <c r="W15" s="369"/>
-      <c r="X15" s="369"/>
-      <c r="Y15" s="369"/>
-      <c r="Z15" s="369"/>
-      <c r="AA15" s="369"/>
-      <c r="AB15" s="369"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="207"/>
+      <c r="T15" s="207"/>
+      <c r="U15" s="207"/>
+      <c r="V15" s="207"/>
+      <c r="W15" s="207"/>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="207"/>
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="207"/>
+      <c r="AB15" s="207"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="1"/>
@@ -3389,10 +3386,10 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
     </row>
-    <row r="16" spans="1:60" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3404,7 +3401,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
       <c r="L16" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -3443,35 +3440,35 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
     </row>
-    <row r="17" spans="1:61" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="367"/>
-      <c r="C17" s="368"/>
-      <c r="D17" s="368"/>
-      <c r="E17" s="368"/>
-      <c r="F17" s="368"/>
-      <c r="G17" s="368"/>
-      <c r="H17" s="368"/>
-      <c r="I17" s="368"/>
-      <c r="J17" s="368"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="369"/>
-      <c r="M17" s="369"/>
-      <c r="N17" s="369"/>
-      <c r="O17" s="369"/>
-      <c r="P17" s="369"/>
-      <c r="Q17" s="369"/>
-      <c r="R17" s="369"/>
-      <c r="S17" s="369"/>
-      <c r="T17" s="369"/>
-      <c r="U17" s="369"/>
-      <c r="V17" s="369"/>
-      <c r="W17" s="369"/>
-      <c r="X17" s="369"/>
-      <c r="Y17" s="369"/>
-      <c r="Z17" s="369"/>
-      <c r="AA17" s="369"/>
-      <c r="AB17" s="369"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="207"/>
+      <c r="P17" s="207"/>
+      <c r="Q17" s="207"/>
+      <c r="R17" s="207"/>
+      <c r="S17" s="207"/>
+      <c r="T17" s="207"/>
+      <c r="U17" s="207"/>
+      <c r="V17" s="207"/>
+      <c r="W17" s="207"/>
+      <c r="X17" s="207"/>
+      <c r="Y17" s="207"/>
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="207"/>
+      <c r="AB17" s="207"/>
       <c r="AC17" s="28"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="1"/>
@@ -3505,9 +3502,9 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
     </row>
-    <row r="18" spans="1:61" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3518,24 +3515,24 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="370" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="370"/>
-      <c r="N18" s="370"/>
-      <c r="O18" s="370"/>
-      <c r="P18" s="370"/>
-      <c r="Q18" s="370"/>
-      <c r="R18" s="370"/>
-      <c r="S18" s="370"/>
-      <c r="T18" s="370"/>
-      <c r="U18" s="370"/>
-      <c r="V18" s="370"/>
-      <c r="W18" s="370"/>
-      <c r="X18" s="370"/>
-      <c r="Y18" s="370"/>
-      <c r="Z18" s="370"/>
-      <c r="AA18" s="370"/>
+      <c r="L18" s="210" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="210"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="210"/>
+      <c r="P18" s="210"/>
+      <c r="Q18" s="210"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
+      <c r="T18" s="210"/>
+      <c r="U18" s="210"/>
+      <c r="V18" s="210"/>
+      <c r="W18" s="210"/>
+      <c r="X18" s="210"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -3571,34 +3568,34 @@
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
     </row>
-    <row r="19" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="371"/>
-      <c r="C19" s="372"/>
-      <c r="D19" s="372"/>
-      <c r="E19" s="372"/>
-      <c r="F19" s="372"/>
-      <c r="G19" s="372"/>
-      <c r="H19" s="372"/>
-      <c r="I19" s="372"/>
-      <c r="J19" s="372"/>
+    <row r="19" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="369"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="369"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="369"/>
-      <c r="U19" s="369"/>
-      <c r="V19" s="369"/>
-      <c r="W19" s="369"/>
-      <c r="X19" s="369"/>
-      <c r="Y19" s="369"/>
-      <c r="Z19" s="369"/>
-      <c r="AA19" s="369"/>
-      <c r="AB19" s="369"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="207"/>
+      <c r="T19" s="207"/>
+      <c r="U19" s="207"/>
+      <c r="V19" s="207"/>
+      <c r="W19" s="207"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="207"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -3633,9 +3630,9 @@
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
     </row>
-    <row r="20" spans="1:61" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -3646,41 +3643,41 @@
       <c r="I20" s="31"/>
       <c r="J20" s="13"/>
       <c r="L20" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="AP20" s="13"/>
       <c r="AQ20" s="17"/>
     </row>
-    <row r="21" spans="1:61" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="373"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-      <c r="J21" s="374"/>
+    <row r="21" spans="1:61" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="375"/>
-      <c r="M21" s="375"/>
-      <c r="N21" s="375"/>
-      <c r="O21" s="375"/>
-      <c r="P21" s="375"/>
-      <c r="Q21" s="375"/>
-      <c r="R21" s="375"/>
-      <c r="S21" s="375"/>
-      <c r="T21" s="375"/>
-      <c r="U21" s="375"/>
-      <c r="V21" s="375"/>
-      <c r="W21" s="375"/>
-      <c r="X21" s="375"/>
-      <c r="Y21" s="375"/>
-      <c r="Z21" s="375"/>
-      <c r="AA21" s="375"/>
-      <c r="AB21" s="375"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="215"/>
+      <c r="AA21" s="215"/>
+      <c r="AB21" s="215"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
@@ -3699,145 +3696,143 @@
       <c r="AR21" s="1"/>
       <c r="AW21" s="36"/>
     </row>
-    <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="376" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="377"/>
-      <c r="D22" s="377"/>
-      <c r="E22" s="377"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="378"/>
-      <c r="H22" s="378"/>
-      <c r="I22" s="378"/>
-      <c r="J22" s="378"/>
-      <c r="K22" s="378"/>
-      <c r="L22" s="378"/>
-      <c r="M22" s="378"/>
-      <c r="N22" s="378"/>
-      <c r="O22" s="378"/>
-      <c r="P22" s="378"/>
-      <c r="Q22" s="378"/>
-      <c r="R22" s="378"/>
-      <c r="S22" s="378"/>
-      <c r="T22" s="378"/>
-      <c r="U22" s="378"/>
-      <c r="V22" s="378"/>
-      <c r="W22" s="378"/>
-      <c r="X22" s="378"/>
-      <c r="Y22" s="378"/>
-      <c r="Z22" s="378"/>
-      <c r="AA22" s="378"/>
-      <c r="AB22" s="378"/>
-      <c r="AC22" s="378"/>
-      <c r="AD22" s="378"/>
-      <c r="AE22" s="378"/>
-      <c r="AF22" s="378"/>
-      <c r="AG22" s="378"/>
-      <c r="AH22" s="378"/>
-      <c r="AI22" s="378"/>
-      <c r="AJ22" s="378"/>
-      <c r="AK22" s="378"/>
-      <c r="AL22" s="378"/>
-      <c r="AM22" s="378"/>
-      <c r="AN22" s="378"/>
-      <c r="AO22" s="378"/>
-      <c r="AP22" s="378"/>
-      <c r="AQ22" s="379"/>
-    </row>
-    <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="362" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="363"/>
-      <c r="D23" s="363"/>
-      <c r="E23" s="363"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="363"/>
-      <c r="H23" s="363"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="363"/>
-      <c r="K23" s="363"/>
-      <c r="L23" s="363"/>
-      <c r="M23" s="363"/>
-      <c r="N23" s="363"/>
-      <c r="O23" s="363"/>
-      <c r="P23" s="363"/>
-      <c r="Q23" s="363"/>
-      <c r="R23" s="363"/>
-      <c r="S23" s="363"/>
-      <c r="T23" s="363"/>
-      <c r="U23" s="363"/>
-      <c r="V23" s="363"/>
-      <c r="W23" s="363"/>
-      <c r="X23" s="363"/>
-      <c r="Y23" s="363"/>
-      <c r="Z23" s="363"/>
-      <c r="AA23" s="363"/>
-      <c r="AB23" s="363"/>
-      <c r="AC23" s="363"/>
-      <c r="AD23" s="363"/>
-      <c r="AE23" s="363"/>
-      <c r="AF23" s="363"/>
-      <c r="AG23" s="363"/>
-      <c r="AH23" s="363"/>
-      <c r="AI23" s="363"/>
-      <c r="AJ23" s="363"/>
-      <c r="AK23" s="363"/>
-      <c r="AL23" s="363"/>
-      <c r="AM23" s="363"/>
-      <c r="AN23" s="363"/>
-      <c r="AO23" s="363"/>
-      <c r="AP23" s="363"/>
-      <c r="AQ23" s="364"/>
-    </row>
-    <row r="24" spans="1:61" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="365"/>
-      <c r="C24" s="365"/>
-      <c r="D24" s="365"/>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="365"/>
-      <c r="K24" s="365"/>
-      <c r="L24" s="365"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="365"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="365"/>
-      <c r="U24" s="365"/>
-      <c r="V24" s="365"/>
-      <c r="W24" s="365"/>
-      <c r="X24" s="365"/>
-      <c r="Y24" s="365"/>
-      <c r="Z24" s="365"/>
-      <c r="AA24" s="365"/>
-      <c r="AB24" s="365"/>
-      <c r="AC24" s="365"/>
-      <c r="AD24" s="365"/>
-      <c r="AE24" s="365"/>
-      <c r="AF24" s="365"/>
-      <c r="AG24" s="365"/>
-      <c r="AH24" s="365"/>
-      <c r="AI24" s="365"/>
-      <c r="AJ24" s="365"/>
-      <c r="AK24" s="365"/>
-      <c r="AL24" s="365"/>
-      <c r="AM24" s="365"/>
-      <c r="AN24" s="365"/>
-      <c r="AO24" s="365"/>
-      <c r="AP24" s="365"/>
-      <c r="AQ24" s="365"/>
-    </row>
-    <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="218"/>
+      <c r="R22" s="218"/>
+      <c r="S22" s="218"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
+      <c r="W22" s="218"/>
+      <c r="X22" s="218"/>
+      <c r="Y22" s="218"/>
+      <c r="Z22" s="218"/>
+      <c r="AA22" s="218"/>
+      <c r="AB22" s="218"/>
+      <c r="AC22" s="218"/>
+      <c r="AD22" s="218"/>
+      <c r="AE22" s="218"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="218"/>
+      <c r="AH22" s="218"/>
+      <c r="AI22" s="218"/>
+      <c r="AJ22" s="218"/>
+      <c r="AK22" s="218"/>
+      <c r="AL22" s="218"/>
+      <c r="AM22" s="218"/>
+      <c r="AN22" s="218"/>
+      <c r="AO22" s="218"/>
+      <c r="AP22" s="218"/>
+      <c r="AQ22" s="219"/>
+    </row>
+    <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="220"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="221"/>
+      <c r="N23" s="221"/>
+      <c r="O23" s="221"/>
+      <c r="P23" s="221"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="221"/>
+      <c r="AF23" s="221"/>
+      <c r="AG23" s="221"/>
+      <c r="AH23" s="221"/>
+      <c r="AI23" s="221"/>
+      <c r="AJ23" s="221"/>
+      <c r="AK23" s="221"/>
+      <c r="AL23" s="221"/>
+      <c r="AM23" s="221"/>
+      <c r="AN23" s="221"/>
+      <c r="AO23" s="221"/>
+      <c r="AP23" s="221"/>
+      <c r="AQ23" s="222"/>
+    </row>
+    <row r="24" spans="1:61" s="6" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="223"/>
+      <c r="C24" s="223"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="223"/>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="223"/>
+      <c r="T24" s="223"/>
+      <c r="U24" s="223"/>
+      <c r="V24" s="223"/>
+      <c r="W24" s="223"/>
+      <c r="X24" s="223"/>
+      <c r="Y24" s="223"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="223"/>
+      <c r="AB24" s="223"/>
+      <c r="AC24" s="223"/>
+      <c r="AD24" s="223"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="223"/>
+      <c r="AH24" s="223"/>
+      <c r="AI24" s="223"/>
+      <c r="AJ24" s="223"/>
+      <c r="AK24" s="223"/>
+      <c r="AL24" s="223"/>
+      <c r="AM24" s="223"/>
+      <c r="AN24" s="223"/>
+      <c r="AO24" s="223"/>
+      <c r="AP24" s="223"/>
+      <c r="AQ24" s="223"/>
+    </row>
+    <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3881,73 +3876,73 @@
       <c r="AP25" s="10"/>
       <c r="AQ25" s="11"/>
     </row>
-    <row r="26" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="224" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="225" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="225"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="225"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="308" t="s">
+      <c r="N26" s="225"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="308"/>
-      <c r="F26" s="308"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="316" t="s">
+      <c r="R26" s="225"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="225" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="316"/>
-      <c r="J26" s="316"/>
-      <c r="K26" s="316"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="316" t="s">
+      <c r="U26" s="225"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="316"/>
-      <c r="O26" s="316"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="316" t="s">
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="224"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="316"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="316" t="s">
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="224"/>
+      <c r="AF26" s="224"/>
+      <c r="AG26" s="224"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="316"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="308" t="s">
+      <c r="AJ26" s="224"/>
+      <c r="AK26" s="224"/>
+      <c r="AL26" s="224"/>
+      <c r="AM26" s="224"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="X26" s="308"/>
-      <c r="Y26" s="308"/>
-      <c r="Z26" s="308"/>
-      <c r="AA26" s="308"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="308" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD26" s="308"/>
-      <c r="AE26" s="308"/>
-      <c r="AF26" s="308"/>
-      <c r="AG26" s="308"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="308" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ26" s="308"/>
-      <c r="AK26" s="308"/>
-      <c r="AL26" s="308"/>
-      <c r="AM26" s="308"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="308" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP26" s="308"/>
-      <c r="AQ26" s="366"/>
-    </row>
-    <row r="27" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP26" s="224"/>
+      <c r="AQ26" s="226"/>
+    </row>
+    <row r="27" spans="1:61" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47"/>
@@ -3991,72 +3986,72 @@
       <c r="AP27" s="51"/>
       <c r="AQ27" s="52"/>
     </row>
-    <row r="28" spans="1:61" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="360"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="360"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="360"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="360"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="360"/>
-      <c r="M28" s="360"/>
-      <c r="N28" s="360"/>
-      <c r="O28" s="360"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="227"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="227"/>
       <c r="P28" s="54"/>
-      <c r="Q28" s="360"/>
-      <c r="R28" s="360"/>
+      <c r="Q28" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="227"/>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="360"/>
-      <c r="X28" s="360"/>
-      <c r="Y28" s="360"/>
-      <c r="Z28" s="360"/>
-      <c r="AA28" s="360"/>
+      <c r="W28" s="227"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="227"/>
+      <c r="AA28" s="227"/>
       <c r="AB28" s="54"/>
-      <c r="AC28" s="360"/>
-      <c r="AD28" s="360"/>
-      <c r="AE28" s="360"/>
-      <c r="AF28" s="360"/>
-      <c r="AG28" s="360"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="227"/>
+      <c r="AF28" s="227"/>
+      <c r="AG28" s="227"/>
       <c r="AH28" s="56"/>
-      <c r="AI28" s="360"/>
-      <c r="AJ28" s="360"/>
-      <c r="AK28" s="360"/>
-      <c r="AL28" s="360"/>
-      <c r="AM28" s="360"/>
+      <c r="AI28" s="227"/>
+      <c r="AJ28" s="227"/>
+      <c r="AK28" s="227"/>
+      <c r="AL28" s="227"/>
+      <c r="AM28" s="227"/>
       <c r="AN28" s="56"/>
-      <c r="AO28" s="353"/>
-      <c r="AP28" s="353"/>
-      <c r="AQ28" s="354"/>
-    </row>
-    <row r="29" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO28" s="228"/>
+      <c r="AP28" s="228"/>
+      <c r="AQ28" s="229"/>
+    </row>
+    <row r="29" spans="1:61" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="57"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
-      <c r="H29" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="355"/>
-      <c r="J29" s="355"/>
-      <c r="K29" s="355"/>
-      <c r="L29" s="355"/>
-      <c r="M29" s="355"/>
-      <c r="N29" s="355"/>
-      <c r="O29" s="355"/>
-      <c r="P29" s="355"/>
-      <c r="Q29" s="355"/>
-      <c r="R29" s="355"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
+      <c r="R29" s="230"/>
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -4066,21 +4061,21 @@
       <c r="Z29" s="58"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
-      <c r="AC29" s="356"/>
-      <c r="AD29" s="356"/>
-      <c r="AE29" s="356"/>
-      <c r="AF29" s="356"/>
-      <c r="AG29" s="356"/>
-      <c r="AI29" s="356"/>
-      <c r="AJ29" s="356"/>
-      <c r="AK29" s="356"/>
-      <c r="AL29" s="356"/>
-      <c r="AM29" s="356"/>
+      <c r="AC29" s="231"/>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="231"/>
+      <c r="AF29" s="231"/>
+      <c r="AG29" s="231"/>
+      <c r="AI29" s="231"/>
+      <c r="AJ29" s="231"/>
+      <c r="AK29" s="231"/>
+      <c r="AL29" s="231"/>
+      <c r="AM29" s="231"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="60"/>
     </row>
-    <row r="30" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
       <c r="D30" s="62"/>
@@ -4124,72 +4119,72 @@
       <c r="AP30" s="65"/>
       <c r="AQ30" s="66"/>
     </row>
-    <row r="31" spans="1:61" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="360"/>
-      <c r="F31" s="360"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
       <c r="G31" s="54"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="360"/>
-      <c r="J31" s="360"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="227"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="360"/>
-      <c r="M31" s="360"/>
-      <c r="N31" s="360"/>
-      <c r="O31" s="360"/>
+      <c r="L31" s="227"/>
+      <c r="M31" s="227"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="227"/>
       <c r="P31" s="54"/>
-      <c r="Q31" s="360"/>
-      <c r="R31" s="360"/>
+      <c r="Q31" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="227"/>
       <c r="S31" s="54"/>
-      <c r="T31" s="361"/>
-      <c r="U31" s="361"/>
+      <c r="T31" s="232"/>
+      <c r="U31" s="232"/>
       <c r="V31" s="54"/>
-      <c r="W31" s="360"/>
-      <c r="X31" s="360"/>
-      <c r="Y31" s="360"/>
-      <c r="Z31" s="360"/>
-      <c r="AA31" s="360"/>
+      <c r="W31" s="227"/>
+      <c r="X31" s="227"/>
+      <c r="Y31" s="227"/>
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
       <c r="AB31" s="54"/>
-      <c r="AC31" s="360"/>
-      <c r="AD31" s="360"/>
-      <c r="AE31" s="360"/>
-      <c r="AF31" s="360"/>
-      <c r="AG31" s="360"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="227"/>
+      <c r="AE31" s="227"/>
+      <c r="AF31" s="227"/>
+      <c r="AG31" s="227"/>
       <c r="AH31" s="56"/>
-      <c r="AI31" s="360"/>
-      <c r="AJ31" s="360"/>
-      <c r="AK31" s="360"/>
-      <c r="AL31" s="360"/>
-      <c r="AM31" s="360"/>
+      <c r="AI31" s="227"/>
+      <c r="AJ31" s="227"/>
+      <c r="AK31" s="227"/>
+      <c r="AL31" s="227"/>
+      <c r="AM31" s="227"/>
       <c r="AN31" s="56"/>
-      <c r="AO31" s="353"/>
-      <c r="AP31" s="353"/>
-      <c r="AQ31" s="354"/>
-    </row>
-    <row r="32" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO31" s="228"/>
+      <c r="AP31" s="228"/>
+      <c r="AQ31" s="229"/>
+    </row>
+    <row r="32" spans="1:61" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="57"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="355"/>
-      <c r="J32" s="355"/>
-      <c r="K32" s="355"/>
-      <c r="L32" s="355"/>
-      <c r="M32" s="355"/>
-      <c r="N32" s="355"/>
-      <c r="O32" s="355"/>
-      <c r="P32" s="355"/>
-      <c r="Q32" s="355"/>
-      <c r="R32" s="355"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="230"/>
+      <c r="J32" s="230"/>
+      <c r="K32" s="230"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
+      <c r="R32" s="230"/>
       <c r="S32" s="54"/>
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
@@ -4199,21 +4194,21 @@
       <c r="Z32" s="58"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
-      <c r="AC32" s="356"/>
-      <c r="AD32" s="356"/>
-      <c r="AE32" s="356"/>
-      <c r="AF32" s="356"/>
-      <c r="AG32" s="356"/>
-      <c r="AI32" s="356"/>
-      <c r="AJ32" s="356"/>
-      <c r="AK32" s="356"/>
-      <c r="AL32" s="356"/>
-      <c r="AM32" s="356"/>
+      <c r="AC32" s="231"/>
+      <c r="AD32" s="231"/>
+      <c r="AE32" s="231"/>
+      <c r="AF32" s="231"/>
+      <c r="AG32" s="231"/>
+      <c r="AI32" s="231"/>
+      <c r="AJ32" s="231"/>
+      <c r="AK32" s="231"/>
+      <c r="AL32" s="231"/>
+      <c r="AM32" s="231"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="60"/>
     </row>
-    <row r="33" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
@@ -4257,72 +4252,72 @@
       <c r="AP33" s="65"/>
       <c r="AQ33" s="66"/>
     </row>
-    <row r="34" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:43" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="360"/>
-      <c r="E34" s="360"/>
-      <c r="F34" s="360"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="227"/>
       <c r="G34" s="54"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="360"/>
+      <c r="H34" s="227"/>
+      <c r="I34" s="227"/>
+      <c r="J34" s="227"/>
       <c r="K34" s="54"/>
-      <c r="L34" s="360"/>
-      <c r="M34" s="360"/>
-      <c r="N34" s="360"/>
-      <c r="O34" s="360"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="227"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="227"/>
       <c r="P34" s="54"/>
-      <c r="Q34" s="360"/>
-      <c r="R34" s="360"/>
+      <c r="Q34" s="227"/>
+      <c r="R34" s="227"/>
       <c r="S34" s="54"/>
-      <c r="T34" s="361"/>
-      <c r="U34" s="361"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
       <c r="V34" s="54"/>
-      <c r="W34" s="360"/>
-      <c r="X34" s="360"/>
-      <c r="Y34" s="360"/>
-      <c r="Z34" s="360"/>
-      <c r="AA34" s="360"/>
+      <c r="W34" s="227"/>
+      <c r="X34" s="227"/>
+      <c r="Y34" s="227"/>
+      <c r="Z34" s="227"/>
+      <c r="AA34" s="227"/>
       <c r="AB34" s="54"/>
-      <c r="AC34" s="360"/>
-      <c r="AD34" s="360"/>
-      <c r="AE34" s="360"/>
-      <c r="AF34" s="360"/>
-      <c r="AG34" s="360"/>
+      <c r="AC34" s="227"/>
+      <c r="AD34" s="227"/>
+      <c r="AE34" s="227"/>
+      <c r="AF34" s="227"/>
+      <c r="AG34" s="227"/>
       <c r="AH34" s="56"/>
-      <c r="AI34" s="360"/>
-      <c r="AJ34" s="360"/>
-      <c r="AK34" s="360"/>
-      <c r="AL34" s="360"/>
-      <c r="AM34" s="360"/>
+      <c r="AI34" s="227"/>
+      <c r="AJ34" s="227"/>
+      <c r="AK34" s="227"/>
+      <c r="AL34" s="227"/>
+      <c r="AM34" s="227"/>
       <c r="AN34" s="56"/>
-      <c r="AO34" s="353"/>
-      <c r="AP34" s="353"/>
-      <c r="AQ34" s="354"/>
-    </row>
-    <row r="35" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO34" s="228"/>
+      <c r="AP34" s="228"/>
+      <c r="AQ34" s="229"/>
+    </row>
+    <row r="35" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="57"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
-      <c r="H35" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="355"/>
-      <c r="J35" s="355"/>
-      <c r="K35" s="355"/>
-      <c r="L35" s="355"/>
-      <c r="M35" s="355"/>
-      <c r="N35" s="355"/>
-      <c r="O35" s="355"/>
-      <c r="P35" s="355"/>
-      <c r="Q35" s="355"/>
-      <c r="R35" s="355"/>
+      <c r="H35" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="230"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="230"/>
+      <c r="Q35" s="230"/>
+      <c r="R35" s="230"/>
       <c r="S35" s="54"/>
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
@@ -4332,21 +4327,21 @@
       <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
-      <c r="AC35" s="356"/>
-      <c r="AD35" s="356"/>
-      <c r="AE35" s="356"/>
-      <c r="AF35" s="356"/>
-      <c r="AG35" s="356"/>
-      <c r="AI35" s="356"/>
-      <c r="AJ35" s="356"/>
-      <c r="AK35" s="356"/>
-      <c r="AL35" s="356"/>
-      <c r="AM35" s="356"/>
+      <c r="AC35" s="231"/>
+      <c r="AD35" s="231"/>
+      <c r="AE35" s="231"/>
+      <c r="AF35" s="231"/>
+      <c r="AG35" s="231"/>
+      <c r="AI35" s="231"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="60"/>
     </row>
-    <row r="36" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
@@ -4390,72 +4385,72 @@
       <c r="AP36" s="65"/>
       <c r="AQ36" s="66"/>
     </row>
-    <row r="37" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:43" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="360"/>
-      <c r="E37" s="360"/>
-      <c r="F37" s="360"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="227"/>
       <c r="G37" s="54"/>
-      <c r="H37" s="360"/>
-      <c r="I37" s="360"/>
-      <c r="J37" s="360"/>
+      <c r="H37" s="227"/>
+      <c r="I37" s="227"/>
+      <c r="J37" s="227"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="360"/>
-      <c r="M37" s="360"/>
-      <c r="N37" s="360"/>
-      <c r="O37" s="360"/>
+      <c r="L37" s="227"/>
+      <c r="M37" s="227"/>
+      <c r="N37" s="227"/>
+      <c r="O37" s="227"/>
       <c r="P37" s="54"/>
-      <c r="Q37" s="360"/>
-      <c r="R37" s="360"/>
+      <c r="Q37" s="227"/>
+      <c r="R37" s="227"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="361"/>
-      <c r="U37" s="361"/>
+      <c r="T37" s="232"/>
+      <c r="U37" s="232"/>
       <c r="V37" s="54"/>
-      <c r="W37" s="360"/>
-      <c r="X37" s="360"/>
-      <c r="Y37" s="360"/>
-      <c r="Z37" s="360"/>
-      <c r="AA37" s="360"/>
+      <c r="W37" s="227"/>
+      <c r="X37" s="227"/>
+      <c r="Y37" s="227"/>
+      <c r="Z37" s="227"/>
+      <c r="AA37" s="227"/>
       <c r="AB37" s="54"/>
-      <c r="AC37" s="360"/>
-      <c r="AD37" s="360"/>
-      <c r="AE37" s="360"/>
-      <c r="AF37" s="360"/>
-      <c r="AG37" s="360"/>
+      <c r="AC37" s="227"/>
+      <c r="AD37" s="227"/>
+      <c r="AE37" s="227"/>
+      <c r="AF37" s="227"/>
+      <c r="AG37" s="227"/>
       <c r="AH37" s="56"/>
-      <c r="AI37" s="360"/>
-      <c r="AJ37" s="360"/>
-      <c r="AK37" s="360"/>
-      <c r="AL37" s="360"/>
-      <c r="AM37" s="360"/>
+      <c r="AI37" s="227"/>
+      <c r="AJ37" s="227"/>
+      <c r="AK37" s="227"/>
+      <c r="AL37" s="227"/>
+      <c r="AM37" s="227"/>
       <c r="AN37" s="56"/>
-      <c r="AO37" s="353"/>
-      <c r="AP37" s="353"/>
-      <c r="AQ37" s="354"/>
-    </row>
-    <row r="38" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO37" s="228"/>
+      <c r="AP37" s="228"/>
+      <c r="AQ37" s="229"/>
+    </row>
+    <row r="38" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="57"/>
       <c r="C38" s="58"/>
       <c r="D38" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="355"/>
-      <c r="J38" s="355"/>
-      <c r="K38" s="355"/>
-      <c r="L38" s="355"/>
-      <c r="M38" s="355"/>
-      <c r="N38" s="355"/>
-      <c r="O38" s="355"/>
-      <c r="P38" s="355"/>
-      <c r="Q38" s="355"/>
-      <c r="R38" s="355"/>
+      <c r="H38" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="230"/>
+      <c r="J38" s="230"/>
+      <c r="K38" s="230"/>
+      <c r="L38" s="230"/>
+      <c r="M38" s="230"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="230"/>
+      <c r="P38" s="230"/>
+      <c r="Q38" s="230"/>
+      <c r="R38" s="230"/>
       <c r="S38" s="54"/>
       <c r="T38" s="54"/>
       <c r="U38" s="54"/>
@@ -4465,21 +4460,21 @@
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
-      <c r="AC38" s="356"/>
-      <c r="AD38" s="356"/>
-      <c r="AE38" s="356"/>
-      <c r="AF38" s="356"/>
-      <c r="AG38" s="356"/>
-      <c r="AI38" s="356"/>
-      <c r="AJ38" s="356"/>
-      <c r="AK38" s="356"/>
-      <c r="AL38" s="356"/>
-      <c r="AM38" s="356"/>
+      <c r="AC38" s="231"/>
+      <c r="AD38" s="231"/>
+      <c r="AE38" s="231"/>
+      <c r="AF38" s="231"/>
+      <c r="AG38" s="231"/>
+      <c r="AI38" s="231"/>
+      <c r="AJ38" s="231"/>
+      <c r="AK38" s="231"/>
+      <c r="AL38" s="231"/>
+      <c r="AM38" s="231"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="60"/>
     </row>
-    <row r="39" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="61"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
@@ -4523,74 +4518,74 @@
       <c r="AP39" s="65"/>
       <c r="AQ39" s="66"/>
     </row>
-    <row r="40" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="360"/>
-      <c r="E40" s="360"/>
-      <c r="F40" s="360"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="227"/>
       <c r="G40" s="54"/>
-      <c r="H40" s="360"/>
-      <c r="I40" s="360"/>
-      <c r="J40" s="360"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="227"/>
+      <c r="J40" s="227"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="360"/>
-      <c r="M40" s="360"/>
-      <c r="N40" s="360"/>
-      <c r="O40" s="360"/>
+      <c r="L40" s="227"/>
+      <c r="M40" s="227"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="227"/>
       <c r="P40" s="54"/>
-      <c r="Q40" s="360" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="360"/>
+      <c r="Q40" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="227"/>
       <c r="S40" s="54"/>
-      <c r="T40" s="361"/>
-      <c r="U40" s="361"/>
+      <c r="T40" s="232"/>
+      <c r="U40" s="232"/>
       <c r="V40" s="54"/>
-      <c r="W40" s="360"/>
-      <c r="X40" s="360"/>
-      <c r="Y40" s="360"/>
-      <c r="Z40" s="360"/>
-      <c r="AA40" s="360"/>
+      <c r="W40" s="227"/>
+      <c r="X40" s="227"/>
+      <c r="Y40" s="227"/>
+      <c r="Z40" s="227"/>
+      <c r="AA40" s="227"/>
       <c r="AB40" s="54"/>
-      <c r="AC40" s="360"/>
-      <c r="AD40" s="360"/>
-      <c r="AE40" s="360"/>
-      <c r="AF40" s="360"/>
-      <c r="AG40" s="360"/>
+      <c r="AC40" s="227"/>
+      <c r="AD40" s="227"/>
+      <c r="AE40" s="227"/>
+      <c r="AF40" s="227"/>
+      <c r="AG40" s="227"/>
       <c r="AH40" s="56"/>
-      <c r="AI40" s="360"/>
-      <c r="AJ40" s="360"/>
-      <c r="AK40" s="360"/>
-      <c r="AL40" s="360"/>
-      <c r="AM40" s="360"/>
+      <c r="AI40" s="227"/>
+      <c r="AJ40" s="227"/>
+      <c r="AK40" s="227"/>
+      <c r="AL40" s="227"/>
+      <c r="AM40" s="227"/>
       <c r="AN40" s="56"/>
-      <c r="AO40" s="353"/>
-      <c r="AP40" s="353"/>
-      <c r="AQ40" s="354"/>
-    </row>
-    <row r="41" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO40" s="228"/>
+      <c r="AP40" s="228"/>
+      <c r="AQ40" s="229"/>
+    </row>
+    <row r="41" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="57"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
-      <c r="H41" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="355"/>
-      <c r="J41" s="355"/>
-      <c r="K41" s="355"/>
-      <c r="L41" s="355"/>
-      <c r="M41" s="355"/>
-      <c r="N41" s="355"/>
-      <c r="O41" s="355"/>
-      <c r="P41" s="355"/>
-      <c r="Q41" s="355"/>
-      <c r="R41" s="355"/>
+      <c r="H41" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="230"/>
+      <c r="J41" s="230"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="230"/>
+      <c r="M41" s="230"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="230"/>
+      <c r="P41" s="230"/>
+      <c r="Q41" s="230"/>
+      <c r="R41" s="230"/>
       <c r="S41" s="54"/>
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
@@ -4600,21 +4595,21 @@
       <c r="Z41" s="58"/>
       <c r="AA41" s="58"/>
       <c r="AB41" s="58"/>
-      <c r="AC41" s="356"/>
-      <c r="AD41" s="356"/>
-      <c r="AE41" s="356"/>
-      <c r="AF41" s="356"/>
-      <c r="AG41" s="356"/>
-      <c r="AI41" s="356"/>
-      <c r="AJ41" s="356"/>
-      <c r="AK41" s="356"/>
-      <c r="AL41" s="356"/>
-      <c r="AM41" s="356"/>
+      <c r="AC41" s="231"/>
+      <c r="AD41" s="231"/>
+      <c r="AE41" s="231"/>
+      <c r="AF41" s="231"/>
+      <c r="AG41" s="231"/>
+      <c r="AI41" s="231"/>
+      <c r="AJ41" s="231"/>
+      <c r="AK41" s="231"/>
+      <c r="AL41" s="231"/>
+      <c r="AM41" s="231"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="60"/>
     </row>
-    <row r="42" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="61"/>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -4658,74 +4653,74 @@
       <c r="AP42" s="65"/>
       <c r="AQ42" s="66"/>
     </row>
-    <row r="43" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="53"/>
       <c r="C43" s="54"/>
-      <c r="D43" s="360"/>
-      <c r="E43" s="360"/>
-      <c r="F43" s="360"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227"/>
       <c r="G43" s="54"/>
-      <c r="H43" s="360"/>
-      <c r="I43" s="360"/>
-      <c r="J43" s="360"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="227"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="360"/>
-      <c r="M43" s="360"/>
-      <c r="N43" s="360"/>
-      <c r="O43" s="360"/>
+      <c r="L43" s="227"/>
+      <c r="M43" s="227"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="227"/>
       <c r="P43" s="54"/>
-      <c r="Q43" s="360" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="360"/>
+      <c r="Q43" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="227"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="361"/>
-      <c r="U43" s="361"/>
+      <c r="T43" s="232"/>
+      <c r="U43" s="232"/>
       <c r="V43" s="54"/>
-      <c r="W43" s="360"/>
-      <c r="X43" s="360"/>
-      <c r="Y43" s="360"/>
-      <c r="Z43" s="360"/>
-      <c r="AA43" s="360"/>
+      <c r="W43" s="227"/>
+      <c r="X43" s="227"/>
+      <c r="Y43" s="227"/>
+      <c r="Z43" s="227"/>
+      <c r="AA43" s="227"/>
       <c r="AB43" s="54"/>
-      <c r="AC43" s="360"/>
-      <c r="AD43" s="360"/>
-      <c r="AE43" s="360"/>
-      <c r="AF43" s="360"/>
-      <c r="AG43" s="360"/>
+      <c r="AC43" s="227"/>
+      <c r="AD43" s="227"/>
+      <c r="AE43" s="227"/>
+      <c r="AF43" s="227"/>
+      <c r="AG43" s="227"/>
       <c r="AH43" s="56"/>
-      <c r="AI43" s="360"/>
-      <c r="AJ43" s="360"/>
-      <c r="AK43" s="360"/>
-      <c r="AL43" s="360"/>
-      <c r="AM43" s="360"/>
+      <c r="AI43" s="227"/>
+      <c r="AJ43" s="227"/>
+      <c r="AK43" s="227"/>
+      <c r="AL43" s="227"/>
+      <c r="AM43" s="227"/>
       <c r="AN43" s="56"/>
-      <c r="AO43" s="353"/>
-      <c r="AP43" s="353"/>
-      <c r="AQ43" s="354"/>
-    </row>
-    <row r="44" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO43" s="228"/>
+      <c r="AP43" s="228"/>
+      <c r="AQ43" s="229"/>
+    </row>
+    <row r="44" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="57"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="355"/>
-      <c r="J44" s="355"/>
-      <c r="K44" s="355"/>
-      <c r="L44" s="355"/>
-      <c r="M44" s="355"/>
-      <c r="N44" s="355"/>
-      <c r="O44" s="355"/>
-      <c r="P44" s="355"/>
-      <c r="Q44" s="355"/>
-      <c r="R44" s="355"/>
+      <c r="H44" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="230"/>
+      <c r="J44" s="230"/>
+      <c r="K44" s="230"/>
+      <c r="L44" s="230"/>
+      <c r="M44" s="230"/>
+      <c r="N44" s="230"/>
+      <c r="O44" s="230"/>
+      <c r="P44" s="230"/>
+      <c r="Q44" s="230"/>
+      <c r="R44" s="230"/>
       <c r="S44" s="54"/>
       <c r="T44" s="54"/>
       <c r="U44" s="54"/>
@@ -4735,21 +4730,21 @@
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58"/>
-      <c r="AC44" s="356"/>
-      <c r="AD44" s="356"/>
-      <c r="AE44" s="356"/>
-      <c r="AF44" s="356"/>
-      <c r="AG44" s="356"/>
-      <c r="AI44" s="356"/>
-      <c r="AJ44" s="356"/>
-      <c r="AK44" s="356"/>
-      <c r="AL44" s="356"/>
-      <c r="AM44" s="356"/>
+      <c r="AC44" s="231"/>
+      <c r="AD44" s="231"/>
+      <c r="AE44" s="231"/>
+      <c r="AF44" s="231"/>
+      <c r="AG44" s="231"/>
+      <c r="AI44" s="231"/>
+      <c r="AJ44" s="231"/>
+      <c r="AK44" s="231"/>
+      <c r="AL44" s="231"/>
+      <c r="AM44" s="231"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="60"/>
     </row>
-    <row r="45" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="61"/>
       <c r="C45" s="62"/>
       <c r="D45" s="62"/>
@@ -4793,74 +4788,74 @@
       <c r="AP45" s="65"/>
       <c r="AQ45" s="66"/>
     </row>
-    <row r="46" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="53"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="360"/>
-      <c r="E46" s="360"/>
-      <c r="F46" s="360"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="227"/>
       <c r="G46" s="54"/>
-      <c r="H46" s="360"/>
-      <c r="I46" s="360"/>
-      <c r="J46" s="360"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="227"/>
       <c r="K46" s="54"/>
-      <c r="L46" s="360"/>
-      <c r="M46" s="360"/>
-      <c r="N46" s="360"/>
-      <c r="O46" s="360"/>
+      <c r="L46" s="227"/>
+      <c r="M46" s="227"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="227"/>
       <c r="P46" s="54"/>
-      <c r="Q46" s="360" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="360"/>
+      <c r="Q46" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="227"/>
       <c r="S46" s="54"/>
-      <c r="T46" s="361"/>
-      <c r="U46" s="361"/>
+      <c r="T46" s="232"/>
+      <c r="U46" s="232"/>
       <c r="V46" s="54"/>
-      <c r="W46" s="360"/>
-      <c r="X46" s="360"/>
-      <c r="Y46" s="360"/>
-      <c r="Z46" s="360"/>
-      <c r="AA46" s="360"/>
+      <c r="W46" s="227"/>
+      <c r="X46" s="227"/>
+      <c r="Y46" s="227"/>
+      <c r="Z46" s="227"/>
+      <c r="AA46" s="227"/>
       <c r="AB46" s="54"/>
-      <c r="AC46" s="360"/>
-      <c r="AD46" s="360"/>
-      <c r="AE46" s="360"/>
-      <c r="AF46" s="360"/>
-      <c r="AG46" s="360"/>
+      <c r="AC46" s="227"/>
+      <c r="AD46" s="227"/>
+      <c r="AE46" s="227"/>
+      <c r="AF46" s="227"/>
+      <c r="AG46" s="227"/>
       <c r="AH46" s="56"/>
-      <c r="AI46" s="360"/>
-      <c r="AJ46" s="360"/>
-      <c r="AK46" s="360"/>
-      <c r="AL46" s="360"/>
-      <c r="AM46" s="360"/>
+      <c r="AI46" s="227"/>
+      <c r="AJ46" s="227"/>
+      <c r="AK46" s="227"/>
+      <c r="AL46" s="227"/>
+      <c r="AM46" s="227"/>
       <c r="AN46" s="56"/>
-      <c r="AO46" s="353"/>
-      <c r="AP46" s="353"/>
-      <c r="AQ46" s="354"/>
-    </row>
-    <row r="47" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO46" s="228"/>
+      <c r="AP46" s="228"/>
+      <c r="AQ46" s="229"/>
+    </row>
+    <row r="47" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="57"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47" s="58"/>
-      <c r="H47" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="355"/>
-      <c r="J47" s="355"/>
-      <c r="K47" s="355"/>
-      <c r="L47" s="355"/>
-      <c r="M47" s="355"/>
-      <c r="N47" s="355"/>
-      <c r="O47" s="355"/>
-      <c r="P47" s="355"/>
-      <c r="Q47" s="355"/>
-      <c r="R47" s="355"/>
+      <c r="H47" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="230"/>
+      <c r="J47" s="230"/>
+      <c r="K47" s="230"/>
+      <c r="L47" s="230"/>
+      <c r="M47" s="230"/>
+      <c r="N47" s="230"/>
+      <c r="O47" s="230"/>
+      <c r="P47" s="230"/>
+      <c r="Q47" s="230"/>
+      <c r="R47" s="230"/>
       <c r="S47" s="54"/>
       <c r="T47" s="54"/>
       <c r="U47" s="54"/>
@@ -4870,21 +4865,21 @@
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58"/>
-      <c r="AC47" s="356"/>
-      <c r="AD47" s="356"/>
-      <c r="AE47" s="356"/>
-      <c r="AF47" s="356"/>
-      <c r="AG47" s="356"/>
-      <c r="AI47" s="356"/>
-      <c r="AJ47" s="356"/>
-      <c r="AK47" s="356"/>
-      <c r="AL47" s="356"/>
-      <c r="AM47" s="356"/>
+      <c r="AC47" s="231"/>
+      <c r="AD47" s="231"/>
+      <c r="AE47" s="231"/>
+      <c r="AF47" s="231"/>
+      <c r="AG47" s="231"/>
+      <c r="AI47" s="231"/>
+      <c r="AJ47" s="231"/>
+      <c r="AK47" s="231"/>
+      <c r="AL47" s="231"/>
+      <c r="AM47" s="231"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="60"/>
     </row>
-    <row r="48" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="61"/>
       <c r="C48" s="62"/>
       <c r="D48" s="62"/>
@@ -4928,74 +4923,74 @@
       <c r="AP48" s="65"/>
       <c r="AQ48" s="66"/>
     </row>
-    <row r="49" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="53"/>
       <c r="C49" s="54"/>
-      <c r="D49" s="360"/>
-      <c r="E49" s="360"/>
-      <c r="F49" s="360"/>
+      <c r="D49" s="227"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="227"/>
       <c r="G49" s="54"/>
-      <c r="H49" s="360"/>
-      <c r="I49" s="360"/>
-      <c r="J49" s="360"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="227"/>
+      <c r="J49" s="227"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="360"/>
-      <c r="M49" s="360"/>
-      <c r="N49" s="360"/>
-      <c r="O49" s="360"/>
+      <c r="L49" s="227"/>
+      <c r="M49" s="227"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
       <c r="P49" s="54"/>
-      <c r="Q49" s="360" t="s">
-        <v>24</v>
-      </c>
-      <c r="R49" s="360"/>
+      <c r="Q49" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="227"/>
       <c r="S49" s="54"/>
-      <c r="T49" s="361"/>
-      <c r="U49" s="361"/>
+      <c r="T49" s="232"/>
+      <c r="U49" s="232"/>
       <c r="V49" s="54"/>
-      <c r="W49" s="360"/>
-      <c r="X49" s="360"/>
-      <c r="Y49" s="360"/>
-      <c r="Z49" s="360"/>
-      <c r="AA49" s="360"/>
+      <c r="W49" s="227"/>
+      <c r="X49" s="227"/>
+      <c r="Y49" s="227"/>
+      <c r="Z49" s="227"/>
+      <c r="AA49" s="227"/>
       <c r="AB49" s="54"/>
-      <c r="AC49" s="360"/>
-      <c r="AD49" s="360"/>
-      <c r="AE49" s="360"/>
-      <c r="AF49" s="360"/>
-      <c r="AG49" s="360"/>
+      <c r="AC49" s="227"/>
+      <c r="AD49" s="227"/>
+      <c r="AE49" s="227"/>
+      <c r="AF49" s="227"/>
+      <c r="AG49" s="227"/>
       <c r="AH49" s="56"/>
-      <c r="AI49" s="360"/>
-      <c r="AJ49" s="360"/>
-      <c r="AK49" s="360"/>
-      <c r="AL49" s="360"/>
-      <c r="AM49" s="360"/>
+      <c r="AI49" s="227"/>
+      <c r="AJ49" s="227"/>
+      <c r="AK49" s="227"/>
+      <c r="AL49" s="227"/>
+      <c r="AM49" s="227"/>
       <c r="AN49" s="56"/>
-      <c r="AO49" s="353"/>
-      <c r="AP49" s="353"/>
-      <c r="AQ49" s="354"/>
-    </row>
-    <row r="50" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO49" s="228"/>
+      <c r="AP49" s="228"/>
+      <c r="AQ49" s="229"/>
+    </row>
+    <row r="50" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="57"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="355"/>
-      <c r="J50" s="355"/>
-      <c r="K50" s="355"/>
-      <c r="L50" s="355"/>
-      <c r="M50" s="355"/>
-      <c r="N50" s="355"/>
-      <c r="O50" s="355"/>
-      <c r="P50" s="355"/>
-      <c r="Q50" s="355"/>
-      <c r="R50" s="355"/>
+      <c r="H50" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="230"/>
+      <c r="J50" s="230"/>
+      <c r="K50" s="230"/>
+      <c r="L50" s="230"/>
+      <c r="M50" s="230"/>
+      <c r="N50" s="230"/>
+      <c r="O50" s="230"/>
+      <c r="P50" s="230"/>
+      <c r="Q50" s="230"/>
+      <c r="R50" s="230"/>
       <c r="S50" s="54"/>
       <c r="T50" s="54"/>
       <c r="U50" s="54"/>
@@ -5005,21 +5000,21 @@
       <c r="Z50" s="58"/>
       <c r="AA50" s="58"/>
       <c r="AB50" s="58"/>
-      <c r="AC50" s="356"/>
-      <c r="AD50" s="356"/>
-      <c r="AE50" s="356"/>
-      <c r="AF50" s="356"/>
-      <c r="AG50" s="356"/>
-      <c r="AI50" s="356"/>
-      <c r="AJ50" s="356"/>
-      <c r="AK50" s="356"/>
-      <c r="AL50" s="356"/>
-      <c r="AM50" s="356"/>
+      <c r="AC50" s="231"/>
+      <c r="AD50" s="231"/>
+      <c r="AE50" s="231"/>
+      <c r="AF50" s="231"/>
+      <c r="AG50" s="231"/>
+      <c r="AI50" s="231"/>
+      <c r="AJ50" s="231"/>
+      <c r="AK50" s="231"/>
+      <c r="AL50" s="231"/>
+      <c r="AM50" s="231"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="60"/>
     </row>
-    <row r="51" spans="1:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="61"/>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -5063,74 +5058,74 @@
       <c r="AP51" s="65"/>
       <c r="AQ51" s="66"/>
     </row>
-    <row r="52" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="53"/>
       <c r="C52" s="54"/>
-      <c r="D52" s="360"/>
-      <c r="E52" s="360"/>
-      <c r="F52" s="360"/>
+      <c r="D52" s="227"/>
+      <c r="E52" s="227"/>
+      <c r="F52" s="227"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="360"/>
-      <c r="I52" s="360"/>
-      <c r="J52" s="360"/>
+      <c r="H52" s="227"/>
+      <c r="I52" s="227"/>
+      <c r="J52" s="227"/>
       <c r="K52" s="54"/>
       <c r="L52" s="55"/>
-      <c r="M52" s="360"/>
-      <c r="N52" s="360"/>
-      <c r="O52" s="360"/>
+      <c r="M52" s="227"/>
+      <c r="N52" s="227"/>
+      <c r="O52" s="227"/>
       <c r="P52" s="54"/>
-      <c r="Q52" s="360" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="360"/>
+      <c r="Q52" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="227"/>
       <c r="S52" s="54"/>
-      <c r="T52" s="361"/>
-      <c r="U52" s="361"/>
+      <c r="T52" s="232"/>
+      <c r="U52" s="232"/>
       <c r="V52" s="54"/>
-      <c r="W52" s="360"/>
-      <c r="X52" s="360"/>
-      <c r="Y52" s="360"/>
-      <c r="Z52" s="360"/>
-      <c r="AA52" s="360"/>
+      <c r="W52" s="227"/>
+      <c r="X52" s="227"/>
+      <c r="Y52" s="227"/>
+      <c r="Z52" s="227"/>
+      <c r="AA52" s="227"/>
       <c r="AB52" s="54"/>
-      <c r="AC52" s="360"/>
-      <c r="AD52" s="360"/>
-      <c r="AE52" s="360"/>
-      <c r="AF52" s="360"/>
-      <c r="AG52" s="360"/>
+      <c r="AC52" s="227"/>
+      <c r="AD52" s="227"/>
+      <c r="AE52" s="227"/>
+      <c r="AF52" s="227"/>
+      <c r="AG52" s="227"/>
       <c r="AH52" s="56"/>
-      <c r="AI52" s="360"/>
-      <c r="AJ52" s="360"/>
-      <c r="AK52" s="360"/>
-      <c r="AL52" s="360"/>
-      <c r="AM52" s="360"/>
+      <c r="AI52" s="227"/>
+      <c r="AJ52" s="227"/>
+      <c r="AK52" s="227"/>
+      <c r="AL52" s="227"/>
+      <c r="AM52" s="227"/>
       <c r="AN52" s="56"/>
-      <c r="AO52" s="353"/>
-      <c r="AP52" s="353"/>
-      <c r="AQ52" s="354"/>
-    </row>
-    <row r="53" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO52" s="228"/>
+      <c r="AP52" s="228"/>
+      <c r="AQ52" s="229"/>
+    </row>
+    <row r="53" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="57"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="355" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="355"/>
-      <c r="J53" s="355"/>
-      <c r="K53" s="355"/>
-      <c r="L53" s="355"/>
-      <c r="M53" s="355"/>
-      <c r="N53" s="355"/>
-      <c r="O53" s="355"/>
-      <c r="P53" s="355"/>
-      <c r="Q53" s="355"/>
-      <c r="R53" s="355"/>
+      <c r="H53" s="230" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="230"/>
+      <c r="J53" s="230"/>
+      <c r="K53" s="230"/>
+      <c r="L53" s="230"/>
+      <c r="M53" s="230"/>
+      <c r="N53" s="230"/>
+      <c r="O53" s="230"/>
+      <c r="P53" s="230"/>
+      <c r="Q53" s="230"/>
+      <c r="R53" s="230"/>
       <c r="S53" s="54"/>
       <c r="T53" s="54"/>
       <c r="U53" s="54"/>
@@ -5140,21 +5135,21 @@
       <c r="Z53" s="58"/>
       <c r="AA53" s="58"/>
       <c r="AB53" s="58"/>
-      <c r="AC53" s="356"/>
-      <c r="AD53" s="356"/>
-      <c r="AE53" s="356"/>
-      <c r="AF53" s="356"/>
-      <c r="AG53" s="356"/>
-      <c r="AI53" s="356"/>
-      <c r="AJ53" s="356"/>
-      <c r="AK53" s="356"/>
-      <c r="AL53" s="356"/>
-      <c r="AM53" s="356"/>
+      <c r="AC53" s="231"/>
+      <c r="AD53" s="231"/>
+      <c r="AE53" s="231"/>
+      <c r="AF53" s="231"/>
+      <c r="AG53" s="231"/>
+      <c r="AI53" s="231"/>
+      <c r="AJ53" s="231"/>
+      <c r="AK53" s="231"/>
+      <c r="AL53" s="231"/>
+      <c r="AM53" s="231"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="60"/>
     </row>
-    <row r="54" spans="1:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="67"/>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
@@ -5198,7 +5193,7 @@
       <c r="AP54" s="71"/>
       <c r="AQ54" s="72"/>
     </row>
-    <row r="55" spans="1:43" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" s="6" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
@@ -5231,10 +5226,10 @@
       <c r="AF55" s="58"/>
       <c r="AG55" s="58"/>
     </row>
-    <row r="56" spans="1:43" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="74"/>
       <c r="D56" s="75"/>
@@ -5278,195 +5273,195 @@
       <c r="AP56" s="75"/>
       <c r="AQ56" s="76"/>
     </row>
-    <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="357" t="s">
+    <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="233" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="234"/>
+      <c r="D57" s="234"/>
+      <c r="E57" s="234"/>
+      <c r="F57" s="234"/>
+      <c r="G57" s="234"/>
+      <c r="H57" s="234"/>
+      <c r="I57" s="234"/>
+      <c r="J57" s="234"/>
+      <c r="K57" s="230" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="230"/>
+      <c r="M57" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="358"/>
-      <c r="D57" s="358"/>
-      <c r="E57" s="358"/>
-      <c r="F57" s="358"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="358"/>
-      <c r="I57" s="358"/>
-      <c r="J57" s="358"/>
-      <c r="K57" s="355" t="s">
+      <c r="N57" s="230"/>
+      <c r="O57" s="230"/>
+      <c r="P57" s="230"/>
+      <c r="Q57" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="L57" s="355"/>
-      <c r="M57" s="355" t="s">
+      <c r="R57" s="234"/>
+      <c r="S57" s="234"/>
+      <c r="T57" s="234"/>
+      <c r="U57" s="234"/>
+      <c r="V57" s="234"/>
+      <c r="W57" s="234"/>
+      <c r="X57" s="234"/>
+      <c r="Y57" s="234"/>
+      <c r="Z57" s="234"/>
+      <c r="AA57" s="234"/>
+      <c r="AB57" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="N57" s="355"/>
-      <c r="O57" s="355"/>
-      <c r="P57" s="355"/>
-      <c r="Q57" s="358" t="s">
+      <c r="AC57" s="234"/>
+      <c r="AD57" s="234"/>
+      <c r="AE57" s="234"/>
+      <c r="AF57" s="234"/>
+      <c r="AG57" s="234"/>
+      <c r="AH57" s="234"/>
+      <c r="AI57" s="234"/>
+      <c r="AJ57" s="234"/>
+      <c r="AK57" s="234"/>
+      <c r="AL57" s="234"/>
+      <c r="AM57" s="234"/>
+      <c r="AN57" s="234"/>
+      <c r="AO57" s="234"/>
+      <c r="AP57" s="234"/>
+      <c r="AQ57" s="235"/>
+    </row>
+    <row r="58" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="236"/>
+      <c r="C58" s="237"/>
+      <c r="D58" s="237"/>
+      <c r="E58" s="237"/>
+      <c r="F58" s="237"/>
+      <c r="G58" s="237"/>
+      <c r="H58" s="237"/>
+      <c r="I58" s="237"/>
+      <c r="J58" s="238"/>
+      <c r="K58" s="239"/>
+      <c r="L58" s="240"/>
+      <c r="M58" s="239"/>
+      <c r="N58" s="241"/>
+      <c r="O58" s="241"/>
+      <c r="P58" s="240"/>
+      <c r="Q58" s="239"/>
+      <c r="R58" s="241"/>
+      <c r="S58" s="241"/>
+      <c r="T58" s="241"/>
+      <c r="U58" s="241"/>
+      <c r="V58" s="241"/>
+      <c r="W58" s="241"/>
+      <c r="X58" s="241"/>
+      <c r="Y58" s="241"/>
+      <c r="Z58" s="241"/>
+      <c r="AA58" s="240"/>
+      <c r="AB58" s="239"/>
+      <c r="AC58" s="241"/>
+      <c r="AD58" s="241"/>
+      <c r="AE58" s="241"/>
+      <c r="AF58" s="241"/>
+      <c r="AG58" s="241"/>
+      <c r="AH58" s="241"/>
+      <c r="AI58" s="241"/>
+      <c r="AJ58" s="241"/>
+      <c r="AK58" s="241"/>
+      <c r="AL58" s="241"/>
+      <c r="AM58" s="241"/>
+      <c r="AN58" s="241"/>
+      <c r="AO58" s="241"/>
+      <c r="AP58" s="241"/>
+      <c r="AQ58" s="240"/>
+    </row>
+    <row r="59" spans="1:43" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="79"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="242"/>
+      <c r="G59" s="242"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="242"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="242"/>
+      <c r="L59" s="242"/>
+      <c r="M59" s="242"/>
+      <c r="N59" s="242"/>
+      <c r="O59" s="242"/>
+      <c r="P59" s="242"/>
+      <c r="Q59" s="242"/>
+      <c r="R59" s="242"/>
+      <c r="S59" s="242"/>
+      <c r="T59" s="242"/>
+      <c r="U59" s="242"/>
+      <c r="V59" s="242"/>
+      <c r="W59" s="242"/>
+      <c r="X59" s="242"/>
+      <c r="Y59" s="242"/>
+      <c r="Z59" s="242"/>
+      <c r="AA59" s="242"/>
+      <c r="AB59" s="242"/>
+      <c r="AC59" s="242"/>
+      <c r="AD59" s="242"/>
+      <c r="AE59" s="242"/>
+      <c r="AF59" s="242"/>
+      <c r="AG59" s="242"/>
+      <c r="AH59" s="242"/>
+      <c r="AI59" s="242"/>
+      <c r="AJ59" s="242"/>
+      <c r="AK59" s="242"/>
+      <c r="AL59" s="242"/>
+      <c r="AM59" s="242"/>
+      <c r="AN59" s="242"/>
+      <c r="AO59" s="242"/>
+      <c r="AP59" s="242"/>
+      <c r="AQ59" s="242"/>
+    </row>
+    <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="R57" s="358"/>
-      <c r="S57" s="358"/>
-      <c r="T57" s="358"/>
-      <c r="U57" s="358"/>
-      <c r="V57" s="358"/>
-      <c r="W57" s="358"/>
-      <c r="X57" s="358"/>
-      <c r="Y57" s="358"/>
-      <c r="Z57" s="358"/>
-      <c r="AA57" s="358"/>
-      <c r="AB57" s="358" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC57" s="358"/>
-      <c r="AD57" s="358"/>
-      <c r="AE57" s="358"/>
-      <c r="AF57" s="358"/>
-      <c r="AG57" s="358"/>
-      <c r="AH57" s="358"/>
-      <c r="AI57" s="358"/>
-      <c r="AJ57" s="358"/>
-      <c r="AK57" s="358"/>
-      <c r="AL57" s="358"/>
-      <c r="AM57" s="358"/>
-      <c r="AN57" s="358"/>
-      <c r="AO57" s="358"/>
-      <c r="AP57" s="358"/>
-      <c r="AQ57" s="359"/>
-    </row>
-    <row r="58" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="325"/>
-      <c r="C58" s="326"/>
-      <c r="D58" s="326"/>
-      <c r="E58" s="326"/>
-      <c r="F58" s="326"/>
-      <c r="G58" s="326"/>
-      <c r="H58" s="326"/>
-      <c r="I58" s="326"/>
-      <c r="J58" s="327"/>
-      <c r="K58" s="328"/>
-      <c r="L58" s="329"/>
-      <c r="M58" s="328"/>
-      <c r="N58" s="330"/>
-      <c r="O58" s="330"/>
-      <c r="P58" s="329"/>
-      <c r="Q58" s="328"/>
-      <c r="R58" s="330"/>
-      <c r="S58" s="330"/>
-      <c r="T58" s="330"/>
-      <c r="U58" s="330"/>
-      <c r="V58" s="330"/>
-      <c r="W58" s="330"/>
-      <c r="X58" s="330"/>
-      <c r="Y58" s="330"/>
-      <c r="Z58" s="330"/>
-      <c r="AA58" s="329"/>
-      <c r="AB58" s="328"/>
-      <c r="AC58" s="330"/>
-      <c r="AD58" s="330"/>
-      <c r="AE58" s="330"/>
-      <c r="AF58" s="330"/>
-      <c r="AG58" s="330"/>
-      <c r="AH58" s="330"/>
-      <c r="AI58" s="330"/>
-      <c r="AJ58" s="330"/>
-      <c r="AK58" s="330"/>
-      <c r="AL58" s="330"/>
-      <c r="AM58" s="330"/>
-      <c r="AN58" s="330"/>
-      <c r="AO58" s="330"/>
-      <c r="AP58" s="330"/>
-      <c r="AQ58" s="329"/>
-    </row>
-    <row r="59" spans="1:43" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="79"/>
-      <c r="C59" s="331"/>
-      <c r="D59" s="331"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="331"/>
-      <c r="G59" s="331"/>
-      <c r="H59" s="331"/>
-      <c r="I59" s="331"/>
-      <c r="J59" s="331"/>
-      <c r="K59" s="331"/>
-      <c r="L59" s="331"/>
-      <c r="M59" s="331"/>
-      <c r="N59" s="331"/>
-      <c r="O59" s="331"/>
-      <c r="P59" s="331"/>
-      <c r="Q59" s="331"/>
-      <c r="R59" s="331"/>
-      <c r="S59" s="331"/>
-      <c r="T59" s="331"/>
-      <c r="U59" s="331"/>
-      <c r="V59" s="331"/>
-      <c r="W59" s="331"/>
-      <c r="X59" s="331"/>
-      <c r="Y59" s="331"/>
-      <c r="Z59" s="331"/>
-      <c r="AA59" s="331"/>
-      <c r="AB59" s="331"/>
-      <c r="AC59" s="331"/>
-      <c r="AD59" s="331"/>
-      <c r="AE59" s="331"/>
-      <c r="AF59" s="331"/>
-      <c r="AG59" s="331"/>
-      <c r="AH59" s="331"/>
-      <c r="AI59" s="331"/>
-      <c r="AJ59" s="331"/>
-      <c r="AK59" s="331"/>
-      <c r="AL59" s="331"/>
-      <c r="AM59" s="331"/>
-      <c r="AN59" s="331"/>
-      <c r="AO59" s="331"/>
-      <c r="AP59" s="331"/>
-      <c r="AQ59" s="331"/>
-    </row>
-    <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="332"/>
-      <c r="D60" s="332"/>
-      <c r="E60" s="332"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="332"/>
-      <c r="J60" s="332"/>
-      <c r="K60" s="332"/>
-      <c r="L60" s="332"/>
-      <c r="M60" s="332"/>
-      <c r="N60" s="332"/>
-      <c r="O60" s="332"/>
-      <c r="P60" s="332"/>
-      <c r="Q60" s="332"/>
-      <c r="R60" s="332"/>
-      <c r="S60" s="332"/>
-      <c r="T60" s="332"/>
-      <c r="U60" s="332"/>
-      <c r="V60" s="332"/>
-      <c r="W60" s="332"/>
-      <c r="X60" s="332"/>
-      <c r="Y60" s="332"/>
-      <c r="Z60" s="332"/>
-      <c r="AA60" s="332"/>
-      <c r="AB60" s="332"/>
-      <c r="AC60" s="332"/>
-      <c r="AD60" s="332"/>
-      <c r="AE60" s="332"/>
-      <c r="AF60" s="332"/>
-      <c r="AG60" s="332"/>
-      <c r="AH60" s="332"/>
-      <c r="AI60" s="332"/>
-      <c r="AJ60" s="332"/>
-      <c r="AK60" s="332"/>
-      <c r="AL60" s="332"/>
-      <c r="AM60" s="332"/>
-      <c r="AN60" s="332"/>
-      <c r="AO60" s="332"/>
-      <c r="AP60" s="332"/>
-      <c r="AQ60" s="333"/>
-    </row>
-    <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="243"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="243"/>
+      <c r="H60" s="243"/>
+      <c r="I60" s="243"/>
+      <c r="J60" s="243"/>
+      <c r="K60" s="243"/>
+      <c r="L60" s="243"/>
+      <c r="M60" s="243"/>
+      <c r="N60" s="243"/>
+      <c r="O60" s="243"/>
+      <c r="P60" s="243"/>
+      <c r="Q60" s="243"/>
+      <c r="R60" s="243"/>
+      <c r="S60" s="243"/>
+      <c r="T60" s="243"/>
+      <c r="U60" s="243"/>
+      <c r="V60" s="243"/>
+      <c r="W60" s="243"/>
+      <c r="X60" s="243"/>
+      <c r="Y60" s="243"/>
+      <c r="Z60" s="243"/>
+      <c r="AA60" s="243"/>
+      <c r="AB60" s="243"/>
+      <c r="AC60" s="243"/>
+      <c r="AD60" s="243"/>
+      <c r="AE60" s="243"/>
+      <c r="AF60" s="243"/>
+      <c r="AG60" s="243"/>
+      <c r="AH60" s="243"/>
+      <c r="AI60" s="243"/>
+      <c r="AJ60" s="243"/>
+      <c r="AK60" s="243"/>
+      <c r="AL60" s="243"/>
+      <c r="AM60" s="243"/>
+      <c r="AN60" s="243"/>
+      <c r="AO60" s="243"/>
+      <c r="AP60" s="243"/>
+      <c r="AQ60" s="244"/>
+    </row>
+    <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="81"/>
       <c r="C61" s="82"/>
       <c r="D61" s="82"/>
@@ -5510,7 +5505,7 @@
       <c r="AP61" s="82"/>
       <c r="AQ61" s="83"/>
     </row>
-    <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="84"/>
       <c r="C62" s="82"/>
       <c r="D62" s="82"/>
@@ -5554,7 +5549,7 @@
       <c r="AP62" s="82"/>
       <c r="AQ62" s="83"/>
     </row>
-    <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="85"/>
       <c r="C63" s="86"/>
       <c r="D63" s="86"/>
@@ -5598,7 +5593,7 @@
       <c r="AP63" s="86"/>
       <c r="AQ63" s="87"/>
     </row>
-    <row r="64" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5617,7 +5612,7 @@
       <c r="T64" s="2"/>
       <c r="AI64" s="89"/>
     </row>
-    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5635,195 +5630,191 @@
       <c r="S65" s="88"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="334" t="s">
+      <c r="F66" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="334"/>
-      <c r="H66" s="334"/>
-      <c r="I66" s="334"/>
-      <c r="J66" s="334"/>
-      <c r="K66" s="334"/>
-      <c r="L66" s="334"/>
-      <c r="M66" s="334"/>
-      <c r="N66" s="334"/>
-      <c r="O66" s="334"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
+      <c r="L66" s="175"/>
+      <c r="M66" s="175"/>
+      <c r="N66" s="175"/>
+      <c r="O66" s="175"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="335" t="s">
+      <c r="R66" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="S66" s="336"/>
-      <c r="T66" s="336"/>
-      <c r="U66" s="336"/>
-      <c r="V66" s="336"/>
-      <c r="W66" s="336"/>
-      <c r="X66" s="336"/>
-      <c r="Y66" s="336"/>
-      <c r="Z66" s="336"/>
-      <c r="AA66" s="336"/>
-      <c r="AB66" s="336"/>
-      <c r="AC66" s="336"/>
-      <c r="AD66" s="336"/>
-      <c r="AE66" s="336"/>
-      <c r="AF66" s="336"/>
-      <c r="AG66" s="336"/>
-      <c r="AH66" s="336"/>
-      <c r="AI66" s="336"/>
-      <c r="AJ66" s="336"/>
-      <c r="AK66" s="336"/>
-      <c r="AL66" s="336"/>
-      <c r="AM66" s="336"/>
-      <c r="AN66" s="336"/>
-      <c r="AO66" s="336"/>
-      <c r="AP66" s="336"/>
-      <c r="AQ66" s="337"/>
-    </row>
-    <row r="67" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="177"/>
+      <c r="T66" s="177"/>
+      <c r="U66" s="177"/>
+      <c r="V66" s="177"/>
+      <c r="W66" s="177"/>
+      <c r="X66" s="177"/>
+      <c r="Y66" s="177"/>
+      <c r="Z66" s="177"/>
+      <c r="AA66" s="177"/>
+      <c r="AB66" s="177"/>
+      <c r="AC66" s="177"/>
+      <c r="AD66" s="177"/>
+      <c r="AE66" s="177"/>
+      <c r="AF66" s="177"/>
+      <c r="AG66" s="177"/>
+      <c r="AH66" s="177"/>
+      <c r="AI66" s="177"/>
+      <c r="AJ66" s="177"/>
+      <c r="AK66" s="177"/>
+      <c r="AL66" s="177"/>
+      <c r="AM66" s="177"/>
+      <c r="AN66" s="177"/>
+      <c r="AO66" s="177"/>
+      <c r="AP66" s="177"/>
+      <c r="AQ66" s="178"/>
+    </row>
+    <row r="67" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="334"/>
-      <c r="G67" s="334"/>
-      <c r="H67" s="334"/>
-      <c r="I67" s="334"/>
-      <c r="J67" s="334"/>
-      <c r="K67" s="334"/>
-      <c r="L67" s="334"/>
-      <c r="M67" s="334"/>
-      <c r="N67" s="334"/>
-      <c r="O67" s="334"/>
+      <c r="F67" s="175"/>
+      <c r="G67" s="175"/>
+      <c r="H67" s="175"/>
+      <c r="I67" s="175"/>
+      <c r="J67" s="175"/>
+      <c r="K67" s="175"/>
+      <c r="L67" s="175"/>
+      <c r="M67" s="175"/>
+      <c r="N67" s="175"/>
+      <c r="O67" s="175"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="338" t="s">
+      <c r="R67" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="339"/>
-      <c r="T67" s="339"/>
-      <c r="U67" s="339"/>
-      <c r="V67" s="340"/>
-      <c r="W67" s="338" t="s">
+      <c r="S67" s="180"/>
+      <c r="T67" s="180"/>
+      <c r="U67" s="180"/>
+      <c r="V67" s="181"/>
+      <c r="W67" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="X67" s="339"/>
-      <c r="Y67" s="339"/>
-      <c r="Z67" s="339"/>
-      <c r="AA67" s="339"/>
-      <c r="AB67" s="339"/>
-      <c r="AC67" s="339"/>
-      <c r="AD67" s="339"/>
-      <c r="AE67" s="339"/>
-      <c r="AF67" s="339"/>
-      <c r="AG67" s="339"/>
-      <c r="AH67" s="340"/>
-      <c r="AI67" s="338" t="s">
+      <c r="X67" s="180"/>
+      <c r="Y67" s="180"/>
+      <c r="Z67" s="180"/>
+      <c r="AA67" s="180"/>
+      <c r="AB67" s="180"/>
+      <c r="AC67" s="180"/>
+      <c r="AD67" s="180"/>
+      <c r="AE67" s="180"/>
+      <c r="AF67" s="180"/>
+      <c r="AG67" s="180"/>
+      <c r="AH67" s="181"/>
+      <c r="AI67" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="AJ67" s="339"/>
-      <c r="AK67" s="339"/>
-      <c r="AL67" s="339"/>
-      <c r="AM67" s="339"/>
-      <c r="AN67" s="339"/>
-      <c r="AO67" s="339"/>
-      <c r="AP67" s="339"/>
-      <c r="AQ67" s="340"/>
-    </row>
-    <row r="68" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="180"/>
+      <c r="AK67" s="180"/>
+      <c r="AL67" s="180"/>
+      <c r="AM67" s="180"/>
+      <c r="AN67" s="180"/>
+      <c r="AO67" s="180"/>
+      <c r="AP67" s="180"/>
+      <c r="AQ67" s="181"/>
+    </row>
+    <row r="68" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="334"/>
-      <c r="G68" s="334"/>
-      <c r="H68" s="334"/>
-      <c r="I68" s="334"/>
-      <c r="J68" s="334"/>
-      <c r="K68" s="334"/>
-      <c r="L68" s="334"/>
-      <c r="M68" s="334"/>
-      <c r="N68" s="334"/>
-      <c r="O68" s="334"/>
+      <c r="F68" s="175"/>
+      <c r="G68" s="175"/>
+      <c r="H68" s="175"/>
+      <c r="I68" s="175"/>
+      <c r="J68" s="175"/>
+      <c r="K68" s="175"/>
+      <c r="L68" s="175"/>
+      <c r="M68" s="175"/>
+      <c r="N68" s="175"/>
+      <c r="O68" s="175"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="341" t="s">
+      <c r="R68" s="182"/>
+      <c r="S68" s="183"/>
+      <c r="T68" s="183"/>
+      <c r="U68" s="183"/>
+      <c r="V68" s="184"/>
+      <c r="W68" s="188"/>
+      <c r="X68" s="189"/>
+      <c r="Y68" s="189"/>
+      <c r="Z68" s="189"/>
+      <c r="AA68" s="189"/>
+      <c r="AB68" s="189"/>
+      <c r="AC68" s="189"/>
+      <c r="AD68" s="189"/>
+      <c r="AE68" s="189"/>
+      <c r="AF68" s="189"/>
+      <c r="AG68" s="189"/>
+      <c r="AH68" s="190"/>
+      <c r="AI68" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="342"/>
-      <c r="T68" s="342"/>
-      <c r="U68" s="342"/>
-      <c r="V68" s="343"/>
-      <c r="W68" s="347" t="s">
-        <v>6</v>
-      </c>
-      <c r="X68" s="348"/>
-      <c r="Y68" s="348"/>
-      <c r="Z68" s="348"/>
-      <c r="AA68" s="348"/>
-      <c r="AB68" s="348"/>
-      <c r="AC68" s="348"/>
-      <c r="AD68" s="348"/>
-      <c r="AE68" s="348"/>
-      <c r="AF68" s="348"/>
-      <c r="AG68" s="348"/>
-      <c r="AH68" s="349"/>
-      <c r="AI68" s="295" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ68" s="296"/>
-      <c r="AK68" s="296"/>
-      <c r="AL68" s="296"/>
-      <c r="AM68" s="296"/>
-      <c r="AN68" s="296"/>
-      <c r="AO68" s="296"/>
-      <c r="AP68" s="296"/>
-      <c r="AQ68" s="299"/>
-    </row>
-    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="334"/>
-      <c r="G69" s="334"/>
-      <c r="H69" s="334"/>
-      <c r="I69" s="334"/>
-      <c r="J69" s="334"/>
-      <c r="K69" s="334"/>
-      <c r="L69" s="334"/>
-      <c r="M69" s="334"/>
-      <c r="N69" s="334"/>
-      <c r="O69" s="334"/>
+      <c r="AJ68" s="192"/>
+      <c r="AK68" s="192"/>
+      <c r="AL68" s="192"/>
+      <c r="AM68" s="192"/>
+      <c r="AN68" s="192"/>
+      <c r="AO68" s="192"/>
+      <c r="AP68" s="192"/>
+      <c r="AQ68" s="193"/>
+    </row>
+    <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="175"/>
+      <c r="G69" s="175"/>
+      <c r="H69" s="175"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="175"/>
+      <c r="K69" s="175"/>
+      <c r="L69" s="175"/>
+      <c r="M69" s="175"/>
+      <c r="N69" s="175"/>
+      <c r="O69" s="175"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="344"/>
-      <c r="S69" s="345"/>
-      <c r="T69" s="345"/>
-      <c r="U69" s="345"/>
-      <c r="V69" s="346"/>
-      <c r="W69" s="344"/>
-      <c r="X69" s="345"/>
-      <c r="Y69" s="345"/>
-      <c r="Z69" s="345"/>
-      <c r="AA69" s="345"/>
-      <c r="AB69" s="345"/>
-      <c r="AC69" s="345"/>
-      <c r="AD69" s="345"/>
-      <c r="AE69" s="345"/>
-      <c r="AF69" s="345"/>
-      <c r="AG69" s="345"/>
-      <c r="AH69" s="346"/>
-      <c r="AI69" s="350"/>
-      <c r="AJ69" s="351"/>
-      <c r="AK69" s="351"/>
-      <c r="AL69" s="351"/>
-      <c r="AM69" s="351"/>
-      <c r="AN69" s="351"/>
-      <c r="AO69" s="351"/>
-      <c r="AP69" s="351"/>
-      <c r="AQ69" s="352"/>
-    </row>
-    <row r="70" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="185"/>
+      <c r="S69" s="186"/>
+      <c r="T69" s="186"/>
+      <c r="U69" s="186"/>
+      <c r="V69" s="187"/>
+      <c r="W69" s="185"/>
+      <c r="X69" s="186"/>
+      <c r="Y69" s="186"/>
+      <c r="Z69" s="186"/>
+      <c r="AA69" s="186"/>
+      <c r="AB69" s="186"/>
+      <c r="AC69" s="186"/>
+      <c r="AD69" s="186"/>
+      <c r="AE69" s="186"/>
+      <c r="AF69" s="186"/>
+      <c r="AG69" s="186"/>
+      <c r="AH69" s="187"/>
+      <c r="AI69" s="245"/>
+      <c r="AJ69" s="246"/>
+      <c r="AK69" s="246"/>
+      <c r="AL69" s="246"/>
+      <c r="AM69" s="246"/>
+      <c r="AN69" s="246"/>
+      <c r="AO69" s="246"/>
+      <c r="AP69" s="246"/>
+      <c r="AQ69" s="247"/>
+    </row>
+    <row r="70" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -5867,10 +5858,10 @@
       <c r="AP70" s="59"/>
       <c r="AQ70" s="59"/>
     </row>
-    <row r="71" spans="1:43" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="90"/>
@@ -5914,7 +5905,7 @@
       <c r="AP71" s="91"/>
       <c r="AQ71" s="92"/>
     </row>
-    <row r="72" spans="1:43" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="93"/>
       <c r="C72" s="94"/>
@@ -5959,28 +5950,28 @@
       <c r="AP72" s="95"/>
       <c r="AQ72" s="97"/>
     </row>
-    <row r="73" spans="1:43" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="93"/>
       <c r="C73" s="98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D73" s="99"/>
       <c r="E73" s="100"/>
       <c r="F73" s="100"/>
-      <c r="G73" s="308" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" s="308"/>
-      <c r="I73" s="308"/>
+      <c r="G73" s="224" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="224"/>
+      <c r="I73" s="224"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="316" t="s">
-        <v>47</v>
-      </c>
-      <c r="L73" s="316"/>
-      <c r="M73" s="316"/>
-      <c r="N73" s="316"/>
-      <c r="O73" s="316"/>
+      <c r="K73" s="225" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" s="225"/>
+      <c r="M73" s="225"/>
+      <c r="N73" s="225"/>
+      <c r="O73" s="225"/>
       <c r="P73" s="99"/>
       <c r="Q73" s="99"/>
       <c r="R73" s="99"/>
@@ -6000,52 +5991,55 @@
       <c r="AF73" s="99"/>
       <c r="AG73" s="101"/>
       <c r="AH73" s="101"/>
-      <c r="AI73" s="322" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ73" s="322"/>
-      <c r="AK73" s="322"/>
-      <c r="AL73" s="322"/>
-      <c r="AM73" s="322"/>
-      <c r="AN73" s="322"/>
-      <c r="AO73" s="322"/>
+      <c r="AI73" s="248" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ73" s="248"/>
+      <c r="AK73" s="248"/>
+      <c r="AL73" s="248"/>
+      <c r="AM73" s="248"/>
+      <c r="AN73" s="248"/>
+      <c r="AO73" s="248"/>
       <c r="AP73" s="95"/>
       <c r="AQ73" s="97"/>
     </row>
-    <row r="74" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="93"/>
       <c r="C74" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D74" s="95"/>
       <c r="E74" s="58"/>
       <c r="F74" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="249"/>
+      <c r="H74" s="249"/>
+      <c r="I74" s="249"/>
+      <c r="J74" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="250"/>
+      <c r="L74" s="250"/>
+      <c r="M74" s="250"/>
+      <c r="N74" s="250"/>
+      <c r="O74" s="250"/>
+      <c r="P74" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="G74" s="314"/>
-      <c r="H74" s="314"/>
-      <c r="I74" s="314"/>
-      <c r="J74" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="K74" s="323"/>
-      <c r="L74" s="323"/>
-      <c r="M74" s="323"/>
-      <c r="N74" s="323"/>
-      <c r="O74" s="323"/>
-      <c r="P74" s="95" t="s">
-        <v>52</v>
-      </c>
       <c r="Q74" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="R74" s="320"/>
-      <c r="S74" s="320"/>
-      <c r="T74" s="320"/>
-      <c r="U74" s="320"/>
-      <c r="V74" s="320"/>
-      <c r="W74" s="320"/>
+        <v>48</v>
+      </c>
+      <c r="R74" s="251">
+        <f>PRODUCT(G74,K74)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="251"/>
+      <c r="T74" s="251"/>
+      <c r="U74" s="251"/>
+      <c r="V74" s="251"/>
+      <c r="W74" s="251"/>
       <c r="X74" s="95"/>
       <c r="Y74" s="95"/>
       <c r="Z74" s="95"/>
@@ -6057,43 +6051,43 @@
       <c r="AF74" s="95"/>
       <c r="AG74" s="95"/>
       <c r="AH74" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI74" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ74" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ74" s="252">
         <f>+R74</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="310"/>
-      <c r="AL74" s="310"/>
-      <c r="AM74" s="310"/>
-      <c r="AN74" s="310"/>
-      <c r="AO74" s="310"/>
+      <c r="AK74" s="252"/>
+      <c r="AL74" s="252"/>
+      <c r="AM74" s="252"/>
+      <c r="AN74" s="252"/>
+      <c r="AO74" s="252"/>
       <c r="AP74" s="96"/>
       <c r="AQ74" s="97"/>
     </row>
-    <row r="75" spans="1:43" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="93"/>
       <c r="C75" s="58"/>
       <c r="D75" s="95"/>
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
-      <c r="G75" s="324" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="324"/>
-      <c r="I75" s="324"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="312" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="312"/>
-      <c r="M75" s="312"/>
-      <c r="N75" s="312"/>
-      <c r="O75" s="312"/>
+      <c r="G75" s="253" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="253"/>
+      <c r="I75" s="253"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="254" t="s">
+        <v>45</v>
+      </c>
+      <c r="L75" s="254"/>
+      <c r="M75" s="254"/>
+      <c r="N75" s="254"/>
+      <c r="O75" s="254"/>
       <c r="P75" s="95"/>
       <c r="Q75" s="95"/>
       <c r="R75" s="95"/>
@@ -6114,49 +6108,52 @@
       <c r="AG75" s="95"/>
       <c r="AH75" s="95"/>
       <c r="AI75" s="95"/>
-      <c r="AJ75" s="105"/>
-      <c r="AK75" s="105"/>
-      <c r="AL75" s="105"/>
+      <c r="AJ75" s="104"/>
+      <c r="AK75" s="104"/>
+      <c r="AL75" s="104"/>
       <c r="AM75" s="95"/>
       <c r="AN75" s="96"/>
       <c r="AO75" s="96"/>
       <c r="AP75" s="96"/>
       <c r="AQ75" s="97"/>
     </row>
-    <row r="76" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="93"/>
       <c r="C76" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D76" s="58"/>
       <c r="E76" s="58"/>
       <c r="F76" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="255"/>
+      <c r="H76" s="255"/>
+      <c r="I76" s="255"/>
+      <c r="J76" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="256"/>
+      <c r="L76" s="256"/>
+      <c r="M76" s="256"/>
+      <c r="N76" s="256"/>
+      <c r="O76" s="256"/>
+      <c r="P76" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="G76" s="318"/>
-      <c r="H76" s="318"/>
-      <c r="I76" s="318"/>
-      <c r="J76" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="K76" s="319"/>
-      <c r="L76" s="319"/>
-      <c r="M76" s="319"/>
-      <c r="N76" s="319"/>
-      <c r="O76" s="319"/>
-      <c r="P76" s="95" t="s">
-        <v>52</v>
-      </c>
       <c r="Q76" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="R76" s="320"/>
-      <c r="S76" s="320"/>
-      <c r="T76" s="320"/>
-      <c r="U76" s="320"/>
-      <c r="V76" s="320"/>
-      <c r="W76" s="320"/>
+        <v>48</v>
+      </c>
+      <c r="R76" s="251">
+        <f>PRODUCT(G76,K76)</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="251"/>
+      <c r="T76" s="251"/>
+      <c r="U76" s="251"/>
+      <c r="V76" s="251"/>
+      <c r="W76" s="251"/>
       <c r="X76" s="95"/>
       <c r="Y76" s="95"/>
       <c r="Z76" s="95"/>
@@ -6168,24 +6165,24 @@
       <c r="AF76" s="95"/>
       <c r="AG76" s="95"/>
       <c r="AH76" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI76" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ76" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ76" s="252">
         <f>+R76</f>
         <v>0</v>
       </c>
-      <c r="AK76" s="310"/>
-      <c r="AL76" s="310"/>
-      <c r="AM76" s="310"/>
-      <c r="AN76" s="310"/>
-      <c r="AO76" s="310"/>
+      <c r="AK76" s="252"/>
+      <c r="AL76" s="252"/>
+      <c r="AM76" s="252"/>
+      <c r="AN76" s="252"/>
+      <c r="AO76" s="252"/>
       <c r="AP76" s="96"/>
       <c r="AQ76" s="97"/>
     </row>
-    <row r="77" spans="1:43" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="93"/>
       <c r="C77" s="95"/>
@@ -6221,16 +6218,16 @@
       <c r="AG77" s="95"/>
       <c r="AH77" s="95"/>
       <c r="AI77" s="95"/>
-      <c r="AJ77" s="105"/>
-      <c r="AK77" s="105"/>
-      <c r="AL77" s="105"/>
+      <c r="AJ77" s="104"/>
+      <c r="AK77" s="104"/>
+      <c r="AL77" s="104"/>
       <c r="AM77" s="95"/>
       <c r="AN77" s="96"/>
       <c r="AO77" s="96"/>
       <c r="AP77" s="96"/>
       <c r="AQ77" s="97"/>
     </row>
-    <row r="78" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="93"/>
       <c r="C78" s="95"/>
@@ -6260,31 +6257,31 @@
       <c r="AA78" s="96"/>
       <c r="AB78" s="101"/>
       <c r="AC78" s="100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD78" s="100"/>
       <c r="AE78" s="100"/>
       <c r="AF78" s="101"/>
       <c r="AG78" s="95"/>
       <c r="AH78" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI78" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ78" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ78" s="252">
         <f>+AJ74+AJ76</f>
         <v>0</v>
       </c>
-      <c r="AK78" s="310"/>
-      <c r="AL78" s="310"/>
-      <c r="AM78" s="310"/>
-      <c r="AN78" s="310"/>
-      <c r="AO78" s="310"/>
+      <c r="AK78" s="252"/>
+      <c r="AL78" s="252"/>
+      <c r="AM78" s="252"/>
+      <c r="AN78" s="252"/>
+      <c r="AO78" s="252"/>
       <c r="AP78" s="96"/>
       <c r="AQ78" s="97"/>
     </row>
-    <row r="79" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="93"/>
       <c r="C79" s="95"/>
@@ -6294,26 +6291,26 @@
       <c r="G79" s="95"/>
       <c r="H79" s="95"/>
       <c r="I79" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J79" s="95"/>
-      <c r="K79" s="321" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" s="321"/>
-      <c r="M79" s="321"/>
-      <c r="N79" s="321"/>
-      <c r="O79" s="321"/>
-      <c r="P79" s="321"/>
-      <c r="Q79" s="321"/>
-      <c r="R79" s="321"/>
-      <c r="S79" s="176">
-        <v>0.05</v>
-      </c>
-      <c r="T79" s="56"/>
-      <c r="U79" s="95"/>
-      <c r="V79" s="95"/>
-      <c r="W79" s="95"/>
+      <c r="K79" s="257"/>
+      <c r="L79" s="257"/>
+      <c r="M79" s="257"/>
+      <c r="N79" s="257"/>
+      <c r="O79" s="257"/>
+      <c r="P79" s="257"/>
+      <c r="Q79" s="257"/>
+      <c r="R79" s="257"/>
+      <c r="S79" s="389">
+        <v>0</v>
+      </c>
+      <c r="T79" s="389"/>
+      <c r="U79" s="390" t="s">
+        <v>110</v>
+      </c>
+      <c r="V79" s="388"/>
+      <c r="W79" s="388"/>
       <c r="X79" s="95"/>
       <c r="Y79" s="95"/>
       <c r="Z79" s="95"/>
@@ -6323,28 +6320,28 @@
       <c r="AD79" s="96"/>
       <c r="AE79" s="96"/>
       <c r="AF79" s="100" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG79" s="95"/>
       <c r="AH79" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI79" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ79" s="311">
+        <v>48</v>
+      </c>
+      <c r="AJ79" s="258">
         <f>AJ78*S79</f>
         <v>0</v>
       </c>
-      <c r="AK79" s="311"/>
-      <c r="AL79" s="311"/>
-      <c r="AM79" s="311"/>
-      <c r="AN79" s="311"/>
-      <c r="AO79" s="311"/>
+      <c r="AK79" s="258"/>
+      <c r="AL79" s="258"/>
+      <c r="AM79" s="258"/>
+      <c r="AN79" s="258"/>
+      <c r="AO79" s="258"/>
       <c r="AP79" s="96"/>
       <c r="AQ79" s="97"/>
     </row>
-    <row r="80" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="93"/>
       <c r="C80" s="95"/>
@@ -6374,35 +6371,35 @@
       <c r="AA80" s="96"/>
       <c r="AB80" s="101"/>
       <c r="AC80" s="100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AD80" s="100"/>
       <c r="AE80" s="100"/>
       <c r="AF80" s="101"/>
       <c r="AG80" s="95"/>
       <c r="AH80" s="95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI80" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ80" s="311">
+        <v>48</v>
+      </c>
+      <c r="AJ80" s="258">
         <f>+AJ78+(AJ79*S79)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="311"/>
-      <c r="AL80" s="311"/>
-      <c r="AM80" s="311"/>
-      <c r="AN80" s="311"/>
-      <c r="AO80" s="311"/>
+      <c r="AK80" s="258"/>
+      <c r="AL80" s="258"/>
+      <c r="AM80" s="258"/>
+      <c r="AN80" s="258"/>
+      <c r="AO80" s="258"/>
       <c r="AP80" s="96"/>
       <c r="AQ80" s="97"/>
     </row>
-    <row r="81" spans="1:43" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
-      <c r="B81" s="106"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D81" s="95"/>
       <c r="E81" s="58"/>
@@ -6432,7 +6429,7 @@
       <c r="AC81" s="95"/>
       <c r="AD81" s="95"/>
       <c r="AE81" s="95"/>
-      <c r="AF81" s="107"/>
+      <c r="AF81" s="106"/>
       <c r="AG81" s="95"/>
       <c r="AH81" s="95"/>
       <c r="AI81" s="95"/>
@@ -6443,235 +6440,239 @@
       <c r="AN81" s="96"/>
       <c r="AO81" s="96"/>
       <c r="AP81" s="96"/>
-      <c r="AQ81" s="107"/>
-    </row>
-    <row r="82" spans="1:43" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ81" s="106"/>
+    </row>
+    <row r="82" spans="1:43" s="14" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="26"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
       <c r="E82" s="40"/>
       <c r="F82" s="40"/>
       <c r="G82" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H82" s="43"/>
       <c r="I82" s="43"/>
       <c r="J82" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="316" t="s">
-        <v>60</v>
-      </c>
-      <c r="N82" s="316"/>
-      <c r="O82" s="316"/>
-      <c r="P82" s="316"/>
+      <c r="M82" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82" s="225"/>
+      <c r="O82" s="225"/>
+      <c r="P82" s="225"/>
       <c r="Q82" s="43"/>
-      <c r="R82" s="316"/>
-      <c r="S82" s="316"/>
-      <c r="T82" s="316"/>
-      <c r="U82" s="316"/>
+      <c r="R82" s="225"/>
+      <c r="S82" s="225"/>
+      <c r="T82" s="225"/>
+      <c r="U82" s="225"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="316" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y82" s="316"/>
-      <c r="Z82" s="316"/>
-      <c r="AA82" s="316"/>
-      <c r="AB82" s="316"/>
-      <c r="AC82" s="316"/>
+      <c r="X82" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y82" s="225"/>
+      <c r="Z82" s="225"/>
+      <c r="AA82" s="225"/>
+      <c r="AB82" s="225"/>
+      <c r="AC82" s="225"/>
       <c r="AD82" s="43"/>
       <c r="AE82" s="43"/>
       <c r="AF82" s="44"/>
       <c r="AG82" s="40"/>
       <c r="AH82" s="40"/>
-      <c r="AI82" s="110"/>
+      <c r="AI82" s="109"/>
       <c r="AJ82" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK82" s="109"/>
-      <c r="AL82" s="109"/>
-      <c r="AM82" s="109"/>
-      <c r="AN82" s="111"/>
-      <c r="AO82" s="111"/>
-      <c r="AP82" s="111"/>
-      <c r="AQ82" s="112"/>
-    </row>
-    <row r="83" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="AK82" s="108"/>
+      <c r="AL82" s="108"/>
+      <c r="AM82" s="108"/>
+      <c r="AN82" s="110"/>
+      <c r="AO82" s="110"/>
+      <c r="AP82" s="110"/>
+      <c r="AQ82" s="111"/>
+    </row>
+    <row r="83" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="313" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="313"/>
-      <c r="E83" s="313"/>
+      <c r="C83" s="259" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="259"/>
+      <c r="E83" s="259"/>
       <c r="F83" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G83" s="174"/>
+        <v>48</v>
+      </c>
+      <c r="G83" s="112">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H83" s="113"/>
       <c r="I83" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="J83" s="175"/>
+        <v>49</v>
+      </c>
+      <c r="J83" s="115"/>
       <c r="K83" s="116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L83" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M83" s="310">
+        <v>48</v>
+      </c>
+      <c r="M83" s="252">
         <f>+J83*G83</f>
         <v>0</v>
       </c>
-      <c r="N83" s="310"/>
-      <c r="O83" s="310"/>
-      <c r="P83" s="310"/>
+      <c r="N83" s="252"/>
+      <c r="O83" s="252"/>
+      <c r="P83" s="252"/>
       <c r="Q83" s="116"/>
-      <c r="R83" s="317"/>
-      <c r="S83" s="317"/>
-      <c r="T83" s="317"/>
-      <c r="U83" s="317"/>
+      <c r="R83" s="260"/>
+      <c r="S83" s="260"/>
+      <c r="T83" s="260"/>
+      <c r="U83" s="260"/>
       <c r="V83" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W83" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X83" s="310">
+        <v>48</v>
+      </c>
+      <c r="X83" s="252">
         <f>+M83+R83</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="310"/>
-      <c r="Z83" s="310"/>
-      <c r="AA83" s="310"/>
-      <c r="AB83" s="310"/>
-      <c r="AC83" s="310"/>
+      <c r="Y83" s="252"/>
+      <c r="Z83" s="252"/>
+      <c r="AA83" s="252"/>
+      <c r="AB83" s="252"/>
+      <c r="AC83" s="252"/>
       <c r="AD83" s="117"/>
       <c r="AE83" s="117"/>
       <c r="AF83" s="118"/>
       <c r="AG83" s="13"/>
       <c r="AH83" s="13"/>
       <c r="AI83" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ83" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ83" s="252">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="AK83" s="310"/>
-      <c r="AL83" s="310"/>
-      <c r="AM83" s="310"/>
-      <c r="AN83" s="310"/>
-      <c r="AO83" s="310"/>
+      <c r="AK83" s="252"/>
+      <c r="AL83" s="252"/>
+      <c r="AM83" s="252"/>
+      <c r="AN83" s="252"/>
+      <c r="AO83" s="252"/>
       <c r="AP83" s="119"/>
       <c r="AQ83" s="120"/>
     </row>
-    <row r="84" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="26"/>
-      <c r="B84" s="108"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
       <c r="E84" s="40"/>
       <c r="F84" s="40"/>
       <c r="G84" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
       <c r="J84" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K84" s="43"/>
       <c r="L84" s="43"/>
-      <c r="M84" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N84" s="312"/>
-      <c r="O84" s="312"/>
-      <c r="P84" s="312"/>
+      <c r="M84" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N84" s="254"/>
+      <c r="O84" s="254"/>
+      <c r="P84" s="254"/>
       <c r="Q84" s="43"/>
-      <c r="R84" s="316"/>
-      <c r="S84" s="316"/>
-      <c r="T84" s="316"/>
-      <c r="U84" s="316"/>
+      <c r="R84" s="225"/>
+      <c r="S84" s="225"/>
+      <c r="T84" s="225"/>
+      <c r="U84" s="225"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y84" s="312"/>
-      <c r="Z84" s="312"/>
-      <c r="AA84" s="312"/>
-      <c r="AB84" s="312"/>
-      <c r="AC84" s="312"/>
+      <c r="X84" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y84" s="254"/>
+      <c r="Z84" s="254"/>
+      <c r="AA84" s="254"/>
+      <c r="AB84" s="254"/>
+      <c r="AC84" s="254"/>
       <c r="AD84" s="43"/>
       <c r="AE84" s="43"/>
       <c r="AF84" s="44"/>
       <c r="AG84" s="40"/>
       <c r="AH84" s="40"/>
-      <c r="AI84" s="111"/>
-      <c r="AJ84" s="111"/>
-      <c r="AK84" s="111"/>
-      <c r="AL84" s="111"/>
-      <c r="AM84" s="109"/>
-      <c r="AN84" s="111"/>
-      <c r="AO84" s="111"/>
-      <c r="AP84" s="111"/>
-      <c r="AQ84" s="112"/>
-    </row>
-    <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI84" s="110"/>
+      <c r="AJ84" s="110"/>
+      <c r="AK84" s="110"/>
+      <c r="AL84" s="110"/>
+      <c r="AM84" s="108"/>
+      <c r="AN84" s="110"/>
+      <c r="AO84" s="110"/>
+      <c r="AP84" s="110"/>
+      <c r="AQ84" s="111"/>
+    </row>
+    <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
-      <c r="C85" s="313" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="313"/>
-      <c r="E85" s="313"/>
+      <c r="C85" s="259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="259"/>
+      <c r="E85" s="259"/>
       <c r="F85" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="112">
+        <v>12.75</v>
+      </c>
+      <c r="H85" s="391"/>
+      <c r="I85" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="J85" s="121"/>
+      <c r="K85" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G85" s="102"/>
-      <c r="H85" s="113"/>
-      <c r="I85" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="J85" s="115"/>
-      <c r="K85" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L85" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M85" s="310">
+        <v>48</v>
+      </c>
+      <c r="M85" s="252">
         <f>+J85*G85</f>
         <v>0</v>
       </c>
-      <c r="N85" s="310"/>
-      <c r="O85" s="310"/>
-      <c r="P85" s="310"/>
+      <c r="N85" s="252"/>
+      <c r="O85" s="252"/>
+      <c r="P85" s="252"/>
       <c r="Q85" s="116"/>
-      <c r="R85" s="317"/>
-      <c r="S85" s="317"/>
-      <c r="T85" s="317"/>
-      <c r="U85" s="317"/>
+      <c r="R85" s="260"/>
+      <c r="S85" s="260"/>
+      <c r="T85" s="260"/>
+      <c r="U85" s="260"/>
       <c r="V85" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W85" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X85" s="310">
+        <v>48</v>
+      </c>
+      <c r="X85" s="252">
         <f>+M85+R85</f>
         <v>0</v>
       </c>
-      <c r="Y85" s="310"/>
-      <c r="Z85" s="310"/>
-      <c r="AA85" s="310"/>
-      <c r="AB85" s="310"/>
-      <c r="AC85" s="310"/>
+      <c r="Y85" s="252"/>
+      <c r="Z85" s="252"/>
+      <c r="AA85" s="252"/>
+      <c r="AB85" s="252"/>
+      <c r="AC85" s="252"/>
       <c r="AD85" s="117"/>
       <c r="AE85" s="117"/>
       <c r="AF85" s="118"/>
@@ -6687,234 +6688,241 @@
       <c r="AP85" s="119"/>
       <c r="AQ85" s="120"/>
     </row>
-    <row r="86" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
-      <c r="B86" s="108"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
       <c r="E86" s="40"/>
       <c r="F86" s="40"/>
       <c r="G86" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="43"/>
       <c r="J86" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K86" s="43"/>
       <c r="L86" s="43"/>
-      <c r="M86" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N86" s="312"/>
-      <c r="O86" s="312"/>
-      <c r="P86" s="312"/>
+      <c r="M86" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N86" s="254"/>
+      <c r="O86" s="254"/>
+      <c r="P86" s="254"/>
       <c r="Q86" s="43"/>
-      <c r="R86" s="316"/>
-      <c r="S86" s="316"/>
-      <c r="T86" s="316"/>
-      <c r="U86" s="316"/>
+      <c r="R86" s="225"/>
+      <c r="S86" s="225"/>
+      <c r="T86" s="225"/>
+      <c r="U86" s="225"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y86" s="312"/>
-      <c r="Z86" s="312"/>
-      <c r="AA86" s="312"/>
-      <c r="AB86" s="312"/>
-      <c r="AC86" s="312"/>
+      <c r="X86" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y86" s="254"/>
+      <c r="Z86" s="254"/>
+      <c r="AA86" s="254"/>
+      <c r="AB86" s="254"/>
+      <c r="AC86" s="254"/>
       <c r="AD86" s="43"/>
       <c r="AE86" s="43"/>
       <c r="AF86" s="44"/>
       <c r="AG86" s="40"/>
       <c r="AH86" s="40"/>
-      <c r="AI86" s="110"/>
+      <c r="AI86" s="109"/>
       <c r="AJ86" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK86" s="110"/>
-      <c r="AL86" s="110"/>
-      <c r="AM86" s="110"/>
-      <c r="AN86" s="111"/>
-      <c r="AO86" s="111"/>
-      <c r="AP86" s="111"/>
-      <c r="AQ86" s="112"/>
-    </row>
-    <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="AK86" s="109"/>
+      <c r="AL86" s="109"/>
+      <c r="AM86" s="109"/>
+      <c r="AN86" s="110"/>
+      <c r="AO86" s="110"/>
+      <c r="AP86" s="110"/>
+      <c r="AQ86" s="111"/>
+    </row>
+    <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="313" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="313"/>
-      <c r="E87" s="313"/>
+      <c r="C87" s="259" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="259"/>
+      <c r="E87" s="259"/>
       <c r="F87" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" s="112">
+        <v>14.75</v>
+      </c>
+      <c r="H87" s="391"/>
+      <c r="I87" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="J87" s="121"/>
+      <c r="K87" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G87" s="102"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="J87" s="115"/>
-      <c r="K87" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L87" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M87" s="310">
+        <v>48</v>
+      </c>
+      <c r="M87" s="252">
         <f>+J87*G87</f>
         <v>0</v>
       </c>
-      <c r="N87" s="310"/>
-      <c r="O87" s="310"/>
-      <c r="P87" s="310"/>
+      <c r="N87" s="252"/>
+      <c r="O87" s="252"/>
+      <c r="P87" s="252"/>
       <c r="Q87" s="116"/>
-      <c r="R87" s="317"/>
-      <c r="S87" s="317"/>
-      <c r="T87" s="317"/>
-      <c r="U87" s="317"/>
+      <c r="R87" s="260"/>
+      <c r="S87" s="260"/>
+      <c r="T87" s="260"/>
+      <c r="U87" s="260"/>
       <c r="V87" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W87" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X87" s="310">
+        <v>48</v>
+      </c>
+      <c r="X87" s="252">
         <f>+M87+R87</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="310"/>
-      <c r="Z87" s="310"/>
-      <c r="AA87" s="310"/>
-      <c r="AB87" s="310"/>
-      <c r="AC87" s="310"/>
+      <c r="Y87" s="252"/>
+      <c r="Z87" s="252"/>
+      <c r="AA87" s="252"/>
+      <c r="AB87" s="252"/>
+      <c r="AC87" s="252"/>
       <c r="AD87" s="117"/>
       <c r="AE87" s="117"/>
       <c r="AF87" s="118"/>
       <c r="AG87" s="13"/>
       <c r="AH87" s="13"/>
       <c r="AI87" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ87" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ87" s="252">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="AK87" s="310"/>
-      <c r="AL87" s="310"/>
-      <c r="AM87" s="310"/>
-      <c r="AN87" s="310"/>
-      <c r="AO87" s="310"/>
+      <c r="AK87" s="252"/>
+      <c r="AL87" s="252"/>
+      <c r="AM87" s="252"/>
+      <c r="AN87" s="252"/>
+      <c r="AO87" s="252"/>
       <c r="AP87" s="119"/>
       <c r="AQ87" s="120"/>
     </row>
-    <row r="88" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
-      <c r="B88" s="108"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="108"/>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
       <c r="G88" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
       <c r="J88" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K88" s="43"/>
       <c r="L88" s="43"/>
-      <c r="M88" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N88" s="312"/>
-      <c r="O88" s="312"/>
-      <c r="P88" s="312"/>
+      <c r="M88" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N88" s="254"/>
+      <c r="O88" s="254"/>
+      <c r="P88" s="254"/>
       <c r="Q88" s="43"/>
-      <c r="R88" s="316"/>
-      <c r="S88" s="316"/>
-      <c r="T88" s="316"/>
-      <c r="U88" s="316"/>
+      <c r="R88" s="225"/>
+      <c r="S88" s="225"/>
+      <c r="T88" s="225"/>
+      <c r="U88" s="225"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y88" s="312"/>
-      <c r="Z88" s="312"/>
-      <c r="AA88" s="312"/>
-      <c r="AB88" s="312"/>
-      <c r="AC88" s="312"/>
+      <c r="X88" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y88" s="254"/>
+      <c r="Z88" s="254"/>
+      <c r="AA88" s="254"/>
+      <c r="AB88" s="254"/>
+      <c r="AC88" s="254"/>
       <c r="AD88" s="43"/>
       <c r="AE88" s="43"/>
       <c r="AF88" s="44"/>
       <c r="AG88" s="40"/>
       <c r="AH88" s="40"/>
-      <c r="AI88" s="111"/>
-      <c r="AJ88" s="111"/>
-      <c r="AK88" s="111"/>
-      <c r="AL88" s="111"/>
+      <c r="AI88" s="110"/>
+      <c r="AJ88" s="110"/>
+      <c r="AK88" s="110"/>
+      <c r="AL88" s="110"/>
       <c r="AM88" s="40"/>
-      <c r="AN88" s="111"/>
-      <c r="AO88" s="111"/>
-      <c r="AP88" s="111"/>
-      <c r="AQ88" s="112"/>
-    </row>
-    <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN88" s="110"/>
+      <c r="AO88" s="110"/>
+      <c r="AP88" s="110"/>
+      <c r="AQ88" s="111"/>
+    </row>
+    <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
-      <c r="B89" s="121"/>
-      <c r="C89" s="313" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" s="313"/>
-      <c r="E89" s="313"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="259" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="259"/>
+      <c r="E89" s="259"/>
       <c r="F89" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" s="112">
+        <v>25.5</v>
+      </c>
+      <c r="H89" s="391"/>
+      <c r="I89" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="J89" s="121"/>
+      <c r="K89" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G89" s="102"/>
-      <c r="H89" s="113"/>
-      <c r="I89" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="J89" s="115"/>
-      <c r="K89" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L89" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M89" s="310">
+        <v>48</v>
+      </c>
+      <c r="M89" s="252">
         <f>+J89*G89</f>
         <v>0</v>
       </c>
-      <c r="N89" s="310"/>
-      <c r="O89" s="310"/>
-      <c r="P89" s="310"/>
+      <c r="N89" s="252"/>
+      <c r="O89" s="252"/>
+      <c r="P89" s="252"/>
       <c r="Q89" s="116"/>
-      <c r="R89" s="310"/>
-      <c r="S89" s="310"/>
-      <c r="T89" s="310"/>
-      <c r="U89" s="310"/>
+      <c r="R89" s="252">
+        <f>PRODUCT(M89, S79)</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="252"/>
+      <c r="T89" s="252"/>
+      <c r="U89" s="252"/>
       <c r="V89" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W89" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X89" s="310">
+        <v>48</v>
+      </c>
+      <c r="X89" s="252">
         <f>+M89+R89</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="310"/>
-      <c r="Z89" s="310"/>
-      <c r="AA89" s="310"/>
-      <c r="AB89" s="310"/>
-      <c r="AC89" s="310"/>
+      <c r="Y89" s="252"/>
+      <c r="Z89" s="252"/>
+      <c r="AA89" s="252"/>
+      <c r="AB89" s="252"/>
+      <c r="AC89" s="252"/>
       <c r="AD89" s="117"/>
       <c r="AE89" s="117"/>
       <c r="AF89" s="118"/>
@@ -6928,48 +6936,48 @@
       <c r="AN89" s="119"/>
       <c r="AO89" s="119"/>
       <c r="AP89" s="119"/>
-      <c r="AQ89" s="122"/>
-    </row>
-    <row r="90" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="123"/>
+    </row>
+    <row r="90" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
-      <c r="B90" s="123"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
       <c r="E90" s="40"/>
       <c r="F90" s="40"/>
       <c r="G90" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
       <c r="J90" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K90" s="43"/>
       <c r="L90" s="43"/>
-      <c r="M90" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N90" s="312"/>
-      <c r="O90" s="312"/>
-      <c r="P90" s="312"/>
+      <c r="M90" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N90" s="254"/>
+      <c r="O90" s="254"/>
+      <c r="P90" s="254"/>
       <c r="Q90" s="43"/>
-      <c r="R90" s="312" t="s">
-        <v>56</v>
-      </c>
-      <c r="S90" s="312"/>
-      <c r="T90" s="312"/>
-      <c r="U90" s="312"/>
+      <c r="R90" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="S90" s="254"/>
+      <c r="T90" s="254"/>
+      <c r="U90" s="254"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y90" s="312"/>
-      <c r="Z90" s="312"/>
-      <c r="AA90" s="312"/>
-      <c r="AB90" s="312"/>
-      <c r="AC90" s="312"/>
+      <c r="X90" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y90" s="254"/>
+      <c r="Z90" s="254"/>
+      <c r="AA90" s="254"/>
+      <c r="AB90" s="254"/>
+      <c r="AC90" s="254"/>
       <c r="AD90" s="43"/>
       <c r="AE90" s="43"/>
       <c r="AF90" s="44"/>
@@ -6977,92 +6985,96 @@
       <c r="AH90" s="40"/>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK90" s="13"/>
       <c r="AL90" s="13"/>
       <c r="AM90" s="40"/>
-      <c r="AN90" s="111"/>
-      <c r="AO90" s="111"/>
-      <c r="AP90" s="111"/>
-      <c r="AQ90" s="124"/>
-    </row>
-    <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN90" s="110"/>
+      <c r="AO90" s="110"/>
+      <c r="AP90" s="110"/>
+      <c r="AQ90" s="125"/>
+    </row>
+    <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
-      <c r="B91" s="121"/>
-      <c r="C91" s="313" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="313"/>
-      <c r="E91" s="313"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="259"/>
+      <c r="E91" s="259"/>
       <c r="F91" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="126"/>
+      <c r="H91" s="127"/>
+      <c r="I91" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91" s="121"/>
+      <c r="K91" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G91" s="125"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="J91" s="115"/>
-      <c r="K91" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L91" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="M91" s="252">
+        <f>+J91*G91</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="252"/>
+      <c r="O91" s="252"/>
+      <c r="P91" s="252"/>
+      <c r="Q91" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="R91" s="252">
+        <f>PRODUCT(M91, S79)</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="252"/>
+      <c r="T91" s="252"/>
+      <c r="U91" s="252"/>
+      <c r="V91" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="M91" s="310"/>
-      <c r="N91" s="310"/>
-      <c r="O91" s="310"/>
-      <c r="P91" s="310"/>
-      <c r="Q91" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="R91" s="310">
-        <v>0</v>
-      </c>
-      <c r="S91" s="310"/>
-      <c r="T91" s="310"/>
-      <c r="U91" s="310"/>
-      <c r="V91" s="114" t="s">
-        <v>52</v>
-      </c>
       <c r="W91" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X91" s="310">
+        <v>48</v>
+      </c>
+      <c r="X91" s="252">
         <f>+M91+R91</f>
         <v>0</v>
       </c>
-      <c r="Y91" s="310"/>
-      <c r="Z91" s="310"/>
-      <c r="AA91" s="310"/>
-      <c r="AB91" s="310"/>
-      <c r="AC91" s="310"/>
+      <c r="Y91" s="252"/>
+      <c r="Z91" s="252"/>
+      <c r="AA91" s="252"/>
+      <c r="AB91" s="252"/>
+      <c r="AC91" s="252"/>
       <c r="AD91" s="117"/>
       <c r="AE91" s="117"/>
       <c r="AF91" s="118"/>
       <c r="AG91" s="13"/>
       <c r="AH91" s="13"/>
       <c r="AI91" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ91" s="310">
+        <v>48</v>
+      </c>
+      <c r="AJ91" s="252">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="AK91" s="310"/>
-      <c r="AL91" s="310"/>
-      <c r="AM91" s="310"/>
-      <c r="AN91" s="310"/>
-      <c r="AO91" s="310"/>
+      <c r="AK91" s="252"/>
+      <c r="AL91" s="252"/>
+      <c r="AM91" s="252"/>
+      <c r="AN91" s="252"/>
+      <c r="AO91" s="252"/>
       <c r="AP91" s="119"/>
-      <c r="AQ91" s="122"/>
-    </row>
-    <row r="92" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="123"/>
+    </row>
+    <row r="92" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
-      <c r="B92" s="127"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
+      <c r="B92" s="128"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
       <c r="E92" s="40"/>
       <c r="F92" s="40"/>
       <c r="G92" s="43"/>
@@ -7071,96 +7083,97 @@
       <c r="J92" s="43"/>
       <c r="K92" s="43"/>
       <c r="L92" s="43"/>
-      <c r="M92" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N92" s="312"/>
-      <c r="O92" s="312"/>
-      <c r="P92" s="312"/>
+      <c r="M92" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N92" s="254"/>
+      <c r="O92" s="254"/>
+      <c r="P92" s="254"/>
       <c r="Q92" s="43"/>
-      <c r="R92" s="312" t="s">
-        <v>56</v>
-      </c>
-      <c r="S92" s="312"/>
-      <c r="T92" s="312"/>
-      <c r="U92" s="312"/>
+      <c r="R92" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="S92" s="254"/>
+      <c r="T92" s="254"/>
+      <c r="U92" s="254"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y92" s="312"/>
-      <c r="Z92" s="312"/>
-      <c r="AA92" s="312"/>
-      <c r="AB92" s="312"/>
-      <c r="AC92" s="312"/>
+      <c r="X92" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y92" s="254"/>
+      <c r="Z92" s="254"/>
+      <c r="AA92" s="254"/>
+      <c r="AB92" s="254"/>
+      <c r="AC92" s="254"/>
       <c r="AD92" s="43"/>
       <c r="AE92" s="43"/>
-      <c r="AF92" s="128"/>
+      <c r="AF92" s="129"/>
       <c r="AG92" s="40"/>
       <c r="AH92" s="40"/>
-      <c r="AI92" s="111"/>
-      <c r="AJ92" s="111"/>
-      <c r="AK92" s="111"/>
-      <c r="AL92" s="111"/>
+      <c r="AI92" s="110"/>
+      <c r="AJ92" s="110"/>
+      <c r="AK92" s="110"/>
+      <c r="AL92" s="110"/>
       <c r="AM92" s="40"/>
-      <c r="AN92" s="111"/>
-      <c r="AO92" s="111"/>
-      <c r="AP92" s="111"/>
-      <c r="AQ92" s="129"/>
-    </row>
-    <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN92" s="110"/>
+      <c r="AO92" s="110"/>
+      <c r="AP92" s="110"/>
+      <c r="AQ92" s="130"/>
+    </row>
+    <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
-      <c r="B93" s="121"/>
-      <c r="C93" s="313" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="313"/>
-      <c r="E93" s="313"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="259" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="259"/>
+      <c r="E93" s="259"/>
       <c r="F93" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G93" s="249"/>
+      <c r="H93" s="249"/>
+      <c r="I93" s="249"/>
+      <c r="J93" s="249"/>
+      <c r="K93" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G93" s="314"/>
-      <c r="H93" s="314"/>
-      <c r="I93" s="314"/>
-      <c r="J93" s="314"/>
-      <c r="K93" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L93" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M93" s="310">
+        <v>48</v>
+      </c>
+      <c r="M93" s="252">
         <f>+G93</f>
         <v>0</v>
       </c>
-      <c r="N93" s="310"/>
-      <c r="O93" s="310"/>
-      <c r="P93" s="310"/>
+      <c r="N93" s="252"/>
+      <c r="O93" s="252"/>
+      <c r="P93" s="252"/>
       <c r="Q93" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="R93" s="310">
+        <v>69</v>
+      </c>
+      <c r="R93" s="252">
+        <f>PRODUCT(M93, S83)</f>
         <v>0</v>
       </c>
-      <c r="S93" s="310"/>
-      <c r="T93" s="310"/>
-      <c r="U93" s="310"/>
+      <c r="S93" s="252"/>
+      <c r="T93" s="252"/>
+      <c r="U93" s="252"/>
       <c r="V93" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W93" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X93" s="310">
+        <v>48</v>
+      </c>
+      <c r="X93" s="252">
         <f>+M93+R93</f>
         <v>0</v>
       </c>
-      <c r="Y93" s="310"/>
-      <c r="Z93" s="310"/>
-      <c r="AA93" s="310"/>
-      <c r="AB93" s="310"/>
-      <c r="AC93" s="310"/>
+      <c r="Y93" s="252"/>
+      <c r="Z93" s="252"/>
+      <c r="AA93" s="252"/>
+      <c r="AB93" s="252"/>
+      <c r="AC93" s="252"/>
       <c r="AD93" s="117"/>
       <c r="AE93" s="117"/>
       <c r="AF93" s="27"/>
@@ -7174,13 +7187,13 @@
       <c r="AN93" s="119"/>
       <c r="AO93" s="119"/>
       <c r="AP93" s="119"/>
-      <c r="AQ93" s="122"/>
-    </row>
-    <row r="94" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="123"/>
+    </row>
+    <row r="94" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
-      <c r="B94" s="127"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="109"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
       <c r="E94" s="40"/>
       <c r="F94" s="40"/>
       <c r="G94" s="43"/>
@@ -7189,129 +7202,130 @@
       <c r="J94" s="43"/>
       <c r="K94" s="43"/>
       <c r="L94" s="43"/>
-      <c r="M94" s="312" t="s">
-        <v>60</v>
-      </c>
-      <c r="N94" s="312"/>
-      <c r="O94" s="312"/>
-      <c r="P94" s="312"/>
+      <c r="M94" s="254" t="s">
+        <v>58</v>
+      </c>
+      <c r="N94" s="254"/>
+      <c r="O94" s="254"/>
+      <c r="P94" s="254"/>
       <c r="Q94" s="43"/>
-      <c r="R94" s="312" t="s">
-        <v>56</v>
-      </c>
-      <c r="S94" s="312"/>
-      <c r="T94" s="312"/>
-      <c r="U94" s="312"/>
+      <c r="R94" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="S94" s="254"/>
+      <c r="T94" s="254"/>
+      <c r="U94" s="254"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="312" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y94" s="312"/>
-      <c r="Z94" s="312"/>
-      <c r="AA94" s="312"/>
-      <c r="AB94" s="312"/>
-      <c r="AC94" s="312"/>
+      <c r="X94" s="254" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y94" s="254"/>
+      <c r="Z94" s="254"/>
+      <c r="AA94" s="254"/>
+      <c r="AB94" s="254"/>
+      <c r="AC94" s="254"/>
       <c r="AD94" s="43"/>
       <c r="AE94" s="43"/>
-      <c r="AF94" s="130"/>
+      <c r="AF94" s="131"/>
       <c r="AG94" s="40"/>
       <c r="AH94" s="40"/>
       <c r="AI94" s="40"/>
-      <c r="AJ94" s="131" t="s">
-        <v>73</v>
+      <c r="AJ94" s="132" t="s">
+        <v>71</v>
       </c>
       <c r="AK94" s="40"/>
       <c r="AL94" s="40"/>
       <c r="AM94" s="40"/>
-      <c r="AN94" s="111"/>
-      <c r="AO94" s="111"/>
-      <c r="AP94" s="111"/>
-      <c r="AQ94" s="129"/>
-    </row>
-    <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN94" s="110"/>
+      <c r="AO94" s="110"/>
+      <c r="AP94" s="110"/>
+      <c r="AQ94" s="130"/>
+    </row>
+    <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
-      <c r="B95" s="121"/>
-      <c r="C95" s="313" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="313"/>
-      <c r="E95" s="313"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="259" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="259"/>
+      <c r="E95" s="259"/>
       <c r="F95" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="249"/>
+      <c r="H95" s="249"/>
+      <c r="I95" s="249"/>
+      <c r="J95" s="249"/>
+      <c r="K95" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="314"/>
-      <c r="H95" s="314"/>
-      <c r="I95" s="314"/>
-      <c r="J95" s="314"/>
-      <c r="K95" s="116" t="s">
-        <v>52</v>
-      </c>
       <c r="L95" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="M95" s="310">
+        <v>48</v>
+      </c>
+      <c r="M95" s="252">
         <f>+G95</f>
         <v>0</v>
       </c>
-      <c r="N95" s="310"/>
-      <c r="O95" s="310"/>
-      <c r="P95" s="310"/>
+      <c r="N95" s="252"/>
+      <c r="O95" s="252"/>
+      <c r="P95" s="252"/>
       <c r="Q95" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="R95" s="310">
+        <v>69</v>
+      </c>
+      <c r="R95" s="252">
+        <f>PRODUCT(M95, S79)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="310"/>
-      <c r="T95" s="310"/>
-      <c r="U95" s="310"/>
+      <c r="S95" s="252"/>
+      <c r="T95" s="252"/>
+      <c r="U95" s="252"/>
       <c r="V95" s="114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W95" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="X95" s="310">
+        <v>48</v>
+      </c>
+      <c r="X95" s="252">
         <f>+M95+R95</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="310"/>
-      <c r="Z95" s="310"/>
-      <c r="AA95" s="310"/>
-      <c r="AB95" s="310"/>
-      <c r="AC95" s="310"/>
+      <c r="Y95" s="252"/>
+      <c r="Z95" s="252"/>
+      <c r="AA95" s="252"/>
+      <c r="AB95" s="252"/>
+      <c r="AC95" s="252"/>
       <c r="AD95" s="117"/>
       <c r="AE95" s="117"/>
       <c r="AF95" s="27"/>
       <c r="AG95" s="13"/>
       <c r="AH95" s="13"/>
       <c r="AI95" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ95" s="315">
+        <v>48</v>
+      </c>
+      <c r="AJ95" s="261">
         <f>AJ80+AJ91</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="315"/>
-      <c r="AL95" s="315"/>
-      <c r="AM95" s="315"/>
-      <c r="AN95" s="315"/>
-      <c r="AO95" s="315"/>
+      <c r="AK95" s="261"/>
+      <c r="AL95" s="261"/>
+      <c r="AM95" s="261"/>
+      <c r="AN95" s="261"/>
+      <c r="AO95" s="261"/>
       <c r="AP95" s="119"/>
-      <c r="AQ95" s="122"/>
-    </row>
-    <row r="96" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="123"/>
+    </row>
+    <row r="96" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14"/>
-      <c r="B96" s="121"/>
-      <c r="C96" s="132"/>
-      <c r="D96" s="132"/>
-      <c r="E96" s="132"/>
+      <c r="B96" s="122"/>
+      <c r="C96" s="133"/>
+      <c r="D96" s="133"/>
+      <c r="E96" s="133"/>
       <c r="F96" s="13"/>
-      <c r="G96" s="133"/>
-      <c r="H96" s="133"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="133"/>
+      <c r="G96" s="134"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="134"/>
       <c r="K96" s="116"/>
       <c r="L96" s="116"/>
       <c r="M96" s="116"/>
@@ -7344,43 +7358,43 @@
       <c r="AN96" s="13"/>
       <c r="AO96" s="13"/>
       <c r="AP96" s="13"/>
-      <c r="AQ96" s="122"/>
+      <c r="AQ96" s="123"/>
     </row>
     <row r="97" spans="2:43" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="134"/>
-      <c r="C97" s="135"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="135"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="136"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="136"/>
       <c r="G97" s="58"/>
       <c r="H97" s="58"/>
       <c r="I97" s="58"/>
       <c r="J97" s="58"/>
       <c r="K97" s="58"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="308" t="s">
-        <v>75</v>
-      </c>
-      <c r="N97" s="308"/>
-      <c r="O97" s="308"/>
-      <c r="P97" s="308"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="308" t="s">
-        <v>76</v>
-      </c>
-      <c r="S97" s="308"/>
-      <c r="T97" s="308"/>
-      <c r="U97" s="308"/>
+      <c r="L97" s="224" t="s">
+        <v>73</v>
+      </c>
+      <c r="M97" s="224"/>
+      <c r="N97" s="224"/>
+      <c r="O97" s="224"/>
+      <c r="P97" s="224"/>
+      <c r="Q97" s="224"/>
+      <c r="R97" s="224" t="s">
+        <v>74</v>
+      </c>
+      <c r="S97" s="224"/>
+      <c r="T97" s="224"/>
+      <c r="U97" s="224"/>
       <c r="V97" s="43"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="308" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y97" s="308"/>
-      <c r="Z97" s="308"/>
-      <c r="AA97" s="308"/>
-      <c r="AB97" s="308"/>
-      <c r="AC97" s="308"/>
+      <c r="X97" s="224" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y97" s="224"/>
+      <c r="Z97" s="224"/>
+      <c r="AA97" s="224"/>
+      <c r="AB97" s="224"/>
+      <c r="AC97" s="224"/>
       <c r="AD97" s="41"/>
       <c r="AE97" s="41"/>
       <c r="AF97" s="58"/>
@@ -7394,50 +7408,50 @@
       <c r="AN97" s="58"/>
       <c r="AO97" s="58"/>
       <c r="AP97" s="58"/>
-      <c r="AQ97" s="136"/>
-    </row>
-    <row r="98" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="134"/>
-      <c r="C98" s="135"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="135"/>
-      <c r="F98" s="135"/>
+      <c r="AQ97" s="137"/>
+    </row>
+    <row r="98" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="135"/>
+      <c r="C98" s="136"/>
+      <c r="D98" s="136"/>
+      <c r="E98" s="136"/>
+      <c r="F98" s="136"/>
       <c r="G98" s="58"/>
       <c r="H98" s="58"/>
       <c r="I98" s="58"/>
-      <c r="J98" s="309" t="s">
-        <v>77</v>
-      </c>
-      <c r="K98" s="309"/>
-      <c r="L98" s="309"/>
-      <c r="M98" s="310">
+      <c r="J98" s="262" t="s">
+        <v>75</v>
+      </c>
+      <c r="K98" s="262"/>
+      <c r="L98" s="262"/>
+      <c r="M98" s="252">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="N98" s="310"/>
-      <c r="O98" s="310"/>
-      <c r="P98" s="310"/>
+      <c r="N98" s="252"/>
+      <c r="O98" s="252"/>
+      <c r="P98" s="252"/>
       <c r="Q98" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R98" s="310">
+        <v>69</v>
+      </c>
+      <c r="R98" s="252">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="S98" s="310"/>
-      <c r="T98" s="310"/>
-      <c r="U98" s="310"/>
+      <c r="S98" s="252"/>
+      <c r="T98" s="252"/>
+      <c r="U98" s="252"/>
       <c r="V98" s="13"/>
       <c r="W98" s="13"/>
-      <c r="X98" s="310">
+      <c r="X98" s="252">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="Y98" s="310"/>
-      <c r="Z98" s="310"/>
-      <c r="AA98" s="310"/>
-      <c r="AB98" s="310"/>
-      <c r="AC98" s="310"/>
+      <c r="Y98" s="252"/>
+      <c r="Z98" s="252"/>
+      <c r="AA98" s="252"/>
+      <c r="AB98" s="252"/>
+      <c r="AC98" s="252"/>
       <c r="AD98" s="114"/>
       <c r="AE98" s="114"/>
       <c r="AF98" s="58"/>
@@ -7451,10 +7465,10 @@
       <c r="AN98" s="58"/>
       <c r="AO98" s="58"/>
       <c r="AP98" s="58"/>
-      <c r="AQ98" s="136"/>
-    </row>
-    <row r="99" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="137"/>
+      <c r="AQ98" s="137"/>
+    </row>
+    <row r="99" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="138"/>
       <c r="C99" s="58"/>
       <c r="D99" s="58"/>
       <c r="E99" s="58"/>
@@ -7495,10 +7509,10 @@
       <c r="AN99" s="58"/>
       <c r="AO99" s="58"/>
       <c r="AP99" s="58"/>
-      <c r="AQ99" s="136"/>
-    </row>
-    <row r="100" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="137"/>
+      <c r="AQ99" s="137"/>
+    </row>
+    <row r="100" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="138"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
       <c r="E100" s="58"/>
@@ -7521,7 +7535,7 @@
       <c r="V100" s="58"/>
       <c r="W100" s="58"/>
       <c r="X100" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y100" s="58"/>
       <c r="Z100" s="58"/>
@@ -7534,19 +7548,19 @@
       <c r="AG100" s="58"/>
       <c r="AH100" s="58"/>
       <c r="AI100" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ100" s="310"/>
-      <c r="AK100" s="310"/>
-      <c r="AL100" s="310"/>
-      <c r="AM100" s="310"/>
-      <c r="AN100" s="310"/>
-      <c r="AO100" s="310"/>
+        <v>48</v>
+      </c>
+      <c r="AJ100" s="252"/>
+      <c r="AK100" s="252"/>
+      <c r="AL100" s="252"/>
+      <c r="AM100" s="252"/>
+      <c r="AN100" s="252"/>
+      <c r="AO100" s="252"/>
       <c r="AP100" s="96"/>
-      <c r="AQ100" s="136"/>
-    </row>
-    <row r="101" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="137"/>
+      <c r="AQ100" s="137"/>
+    </row>
+    <row r="101" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="138"/>
       <c r="C101" s="58"/>
       <c r="D101" s="58"/>
       <c r="E101" s="58"/>
@@ -7559,7 +7573,7 @@
       <c r="L101" s="58"/>
       <c r="M101" s="58"/>
       <c r="N101" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O101" s="58"/>
       <c r="P101" s="58"/>
@@ -7571,7 +7585,7 @@
       <c r="V101" s="58"/>
       <c r="W101" s="58"/>
       <c r="X101" s="58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y101" s="58"/>
       <c r="Z101" s="58"/>
@@ -7584,18 +7598,18 @@
       <c r="AG101" s="58"/>
       <c r="AH101" s="58"/>
       <c r="AI101" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ101" s="311"/>
-      <c r="AK101" s="311"/>
-      <c r="AL101" s="311"/>
-      <c r="AM101" s="311"/>
-      <c r="AN101" s="311"/>
-      <c r="AO101" s="311"/>
+        <v>48</v>
+      </c>
+      <c r="AJ101" s="258"/>
+      <c r="AK101" s="258"/>
+      <c r="AL101" s="258"/>
+      <c r="AM101" s="258"/>
+      <c r="AN101" s="258"/>
+      <c r="AO101" s="258"/>
       <c r="AP101" s="96"/>
-      <c r="AQ101" s="136"/>
-    </row>
-    <row r="102" spans="2:43" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ101" s="137"/>
+    </row>
+    <row r="102" spans="2:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="77"/>
       <c r="C102" s="68"/>
       <c r="D102" s="68"/>
@@ -7630,18 +7644,18 @@
       <c r="AG102" s="68"/>
       <c r="AH102" s="68"/>
       <c r="AI102" s="68"/>
-      <c r="AJ102" s="104"/>
-      <c r="AK102" s="104"/>
-      <c r="AL102" s="104"/>
-      <c r="AM102" s="104"/>
-      <c r="AN102" s="104"/>
-      <c r="AO102" s="104"/>
-      <c r="AP102" s="138"/>
+      <c r="AJ102" s="103"/>
+      <c r="AK102" s="103"/>
+      <c r="AL102" s="103"/>
+      <c r="AM102" s="103"/>
+      <c r="AN102" s="103"/>
+      <c r="AO102" s="103"/>
+      <c r="AP102" s="139"/>
       <c r="AQ102" s="78"/>
     </row>
-    <row r="103" spans="2:43" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:43" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -7658,7 +7672,7 @@
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
       <c r="Q103" s="9"/>
-      <c r="R103" s="139"/>
+      <c r="R103" s="140"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
@@ -7683,1059 +7697,1047 @@
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
       <c r="AP103" s="9"/>
-      <c r="AQ103" s="140"/>
-    </row>
-    <row r="104" spans="2:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="289"/>
-      <c r="C104" s="290"/>
-      <c r="D104" s="290"/>
-      <c r="E104" s="290"/>
-      <c r="F104" s="290"/>
-      <c r="G104" s="290"/>
-      <c r="H104" s="290"/>
-      <c r="I104" s="290"/>
-      <c r="J104" s="290"/>
-      <c r="K104" s="290"/>
-      <c r="L104" s="291"/>
-      <c r="M104" s="295" t="s">
+      <c r="AQ103" s="141"/>
+    </row>
+    <row r="104" spans="2:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="263"/>
+      <c r="C104" s="264"/>
+      <c r="D104" s="264"/>
+      <c r="E104" s="264"/>
+      <c r="F104" s="264"/>
+      <c r="G104" s="264"/>
+      <c r="H104" s="264"/>
+      <c r="I104" s="264"/>
+      <c r="J104" s="264"/>
+      <c r="K104" s="264"/>
+      <c r="L104" s="265"/>
+      <c r="M104" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="N104" s="192"/>
+      <c r="O104" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="P104" s="192"/>
+      <c r="Q104" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N104" s="296"/>
-      <c r="O104" s="296" t="s">
+      <c r="R104" s="142"/>
+      <c r="S104" s="269"/>
+      <c r="T104" s="269"/>
+      <c r="U104" s="269"/>
+      <c r="V104" s="269"/>
+      <c r="W104" s="269"/>
+      <c r="X104" s="269"/>
+      <c r="Y104" s="269"/>
+      <c r="Z104" s="269"/>
+      <c r="AA104" s="269"/>
+      <c r="AB104" s="269"/>
+      <c r="AC104" s="269"/>
+      <c r="AD104" s="269"/>
+      <c r="AE104" s="269"/>
+      <c r="AF104" s="269"/>
+      <c r="AG104" s="269"/>
+      <c r="AH104" s="269"/>
+      <c r="AI104" s="269"/>
+      <c r="AJ104" s="192"/>
+      <c r="AK104" s="192"/>
+      <c r="AL104" s="193"/>
+      <c r="AM104" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN104" s="192"/>
+      <c r="AO104" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP104" s="192"/>
+      <c r="AQ104" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="266"/>
+      <c r="C105" s="267"/>
+      <c r="D105" s="267"/>
+      <c r="E105" s="267"/>
+      <c r="F105" s="267"/>
+      <c r="G105" s="267"/>
+      <c r="H105" s="267"/>
+      <c r="I105" s="267"/>
+      <c r="J105" s="267"/>
+      <c r="K105" s="267"/>
+      <c r="L105" s="268"/>
+      <c r="M105" s="271"/>
+      <c r="N105" s="272"/>
+      <c r="O105" s="273"/>
+      <c r="P105" s="274"/>
+      <c r="Q105" s="143"/>
+      <c r="R105" s="144"/>
+      <c r="S105" s="270"/>
+      <c r="T105" s="270"/>
+      <c r="U105" s="270"/>
+      <c r="V105" s="270"/>
+      <c r="W105" s="270"/>
+      <c r="X105" s="270"/>
+      <c r="Y105" s="270"/>
+      <c r="Z105" s="270"/>
+      <c r="AA105" s="270"/>
+      <c r="AB105" s="270"/>
+      <c r="AC105" s="270"/>
+      <c r="AD105" s="270"/>
+      <c r="AE105" s="270"/>
+      <c r="AF105" s="270"/>
+      <c r="AG105" s="270"/>
+      <c r="AH105" s="270"/>
+      <c r="AI105" s="270"/>
+      <c r="AJ105" s="275"/>
+      <c r="AK105" s="275"/>
+      <c r="AL105" s="276"/>
+      <c r="AM105" s="271"/>
+      <c r="AN105" s="272"/>
+      <c r="AO105" s="277"/>
+      <c r="AP105" s="278"/>
+      <c r="AQ105" s="145"/>
+    </row>
+    <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="P104" s="296"/>
-      <c r="Q104" s="4" t="s">
+      <c r="C106" s="280"/>
+      <c r="D106" s="280"/>
+      <c r="E106" s="280"/>
+      <c r="F106" s="280"/>
+      <c r="G106" s="280"/>
+      <c r="H106" s="280"/>
+      <c r="I106" s="280"/>
+      <c r="J106" s="280"/>
+      <c r="K106" s="280"/>
+      <c r="L106" s="281"/>
+      <c r="M106" s="285"/>
+      <c r="N106" s="286"/>
+      <c r="O106" s="285"/>
+      <c r="P106" s="286"/>
+      <c r="Q106" s="298"/>
+      <c r="R106" s="146"/>
+      <c r="S106" s="291" t="s">
         <v>84</v>
       </c>
-      <c r="R104" s="141"/>
-      <c r="S104" s="297"/>
-      <c r="T104" s="297"/>
-      <c r="U104" s="297"/>
-      <c r="V104" s="297"/>
-      <c r="W104" s="297"/>
-      <c r="X104" s="297"/>
-      <c r="Y104" s="297"/>
-      <c r="Z104" s="297"/>
-      <c r="AA104" s="297"/>
-      <c r="AB104" s="297"/>
-      <c r="AC104" s="297"/>
-      <c r="AD104" s="297"/>
-      <c r="AE104" s="297"/>
-      <c r="AF104" s="297"/>
-      <c r="AG104" s="297"/>
-      <c r="AH104" s="297"/>
-      <c r="AI104" s="297"/>
-      <c r="AJ104" s="296"/>
-      <c r="AK104" s="296"/>
-      <c r="AL104" s="299"/>
-      <c r="AM104" s="295" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN104" s="296"/>
-      <c r="AO104" s="296" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP104" s="296"/>
-      <c r="AQ104" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="292"/>
-      <c r="C105" s="293"/>
-      <c r="D105" s="293"/>
-      <c r="E105" s="293"/>
-      <c r="F105" s="293"/>
-      <c r="G105" s="293"/>
-      <c r="H105" s="293"/>
-      <c r="I105" s="293"/>
-      <c r="J105" s="293"/>
-      <c r="K105" s="293"/>
-      <c r="L105" s="294"/>
-      <c r="M105" s="300"/>
-      <c r="N105" s="301"/>
-      <c r="O105" s="302"/>
-      <c r="P105" s="303"/>
-      <c r="Q105" s="142"/>
-      <c r="R105" s="143"/>
-      <c r="S105" s="298"/>
-      <c r="T105" s="298"/>
-      <c r="U105" s="298"/>
-      <c r="V105" s="298"/>
-      <c r="W105" s="298"/>
-      <c r="X105" s="298"/>
-      <c r="Y105" s="298"/>
-      <c r="Z105" s="298"/>
-      <c r="AA105" s="298"/>
-      <c r="AB105" s="298"/>
-      <c r="AC105" s="298"/>
-      <c r="AD105" s="298"/>
-      <c r="AE105" s="298"/>
-      <c r="AF105" s="298"/>
-      <c r="AG105" s="298"/>
-      <c r="AH105" s="298"/>
-      <c r="AI105" s="298"/>
-      <c r="AJ105" s="304"/>
-      <c r="AK105" s="304"/>
-      <c r="AL105" s="305"/>
-      <c r="AM105" s="300"/>
-      <c r="AN105" s="301"/>
-      <c r="AO105" s="306"/>
-      <c r="AP105" s="307"/>
-      <c r="AQ105" s="144"/>
-    </row>
-    <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="261" t="s">
+      <c r="T106" s="291"/>
+      <c r="U106" s="291"/>
+      <c r="V106" s="291"/>
+      <c r="W106" s="291"/>
+      <c r="X106" s="291"/>
+      <c r="Y106" s="291"/>
+      <c r="Z106" s="291"/>
+      <c r="AA106" s="291"/>
+      <c r="AB106" s="291"/>
+      <c r="AC106" s="291"/>
+      <c r="AD106" s="291"/>
+      <c r="AE106" s="291"/>
+      <c r="AF106" s="291"/>
+      <c r="AG106" s="291"/>
+      <c r="AH106" s="291"/>
+      <c r="AI106" s="291"/>
+      <c r="AJ106" s="147"/>
+      <c r="AK106" s="147"/>
+      <c r="AL106" s="148"/>
+      <c r="AM106" s="292"/>
+      <c r="AN106" s="293"/>
+      <c r="AO106" s="292"/>
+      <c r="AP106" s="293"/>
+      <c r="AQ106" s="302"/>
+    </row>
+    <row r="107" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="282"/>
+      <c r="C107" s="283"/>
+      <c r="D107" s="283"/>
+      <c r="E107" s="283"/>
+      <c r="F107" s="283"/>
+      <c r="G107" s="283"/>
+      <c r="H107" s="283"/>
+      <c r="I107" s="283"/>
+      <c r="J107" s="283"/>
+      <c r="K107" s="283"/>
+      <c r="L107" s="284"/>
+      <c r="M107" s="287"/>
+      <c r="N107" s="288"/>
+      <c r="O107" s="287"/>
+      <c r="P107" s="288"/>
+      <c r="Q107" s="299"/>
+      <c r="S107" s="301"/>
+      <c r="T107" s="301"/>
+      <c r="U107" s="301"/>
+      <c r="V107" s="301"/>
+      <c r="W107" s="301"/>
+      <c r="X107" s="301"/>
+      <c r="Y107" s="301"/>
+      <c r="Z107" s="301"/>
+      <c r="AA107" s="301"/>
+      <c r="AB107" s="301"/>
+      <c r="AC107" s="301"/>
+      <c r="AD107" s="301"/>
+      <c r="AE107" s="301"/>
+      <c r="AF107" s="301"/>
+      <c r="AG107" s="301"/>
+      <c r="AH107" s="301"/>
+      <c r="AI107" s="301"/>
+      <c r="AJ107" s="301"/>
+      <c r="AK107" s="301"/>
+      <c r="AL107" s="149"/>
+      <c r="AM107" s="294"/>
+      <c r="AN107" s="295"/>
+      <c r="AO107" s="294"/>
+      <c r="AP107" s="295"/>
+      <c r="AQ107" s="303"/>
+    </row>
+    <row r="108" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="305"/>
+      <c r="C108" s="306"/>
+      <c r="D108" s="306"/>
+      <c r="E108" s="306"/>
+      <c r="F108" s="306"/>
+      <c r="G108" s="306"/>
+      <c r="H108" s="306"/>
+      <c r="I108" s="306"/>
+      <c r="J108" s="306"/>
+      <c r="K108" s="306"/>
+      <c r="L108" s="150"/>
+      <c r="M108" s="289"/>
+      <c r="N108" s="290"/>
+      <c r="O108" s="289"/>
+      <c r="P108" s="290"/>
+      <c r="Q108" s="300"/>
+      <c r="R108" s="67"/>
+      <c r="S108" s="307" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="262"/>
-      <c r="D106" s="262"/>
-      <c r="E106" s="262"/>
-      <c r="F106" s="262"/>
-      <c r="G106" s="262"/>
-      <c r="H106" s="262"/>
-      <c r="I106" s="262"/>
-      <c r="J106" s="262"/>
-      <c r="K106" s="262"/>
-      <c r="L106" s="263"/>
-      <c r="M106" s="267"/>
-      <c r="N106" s="268"/>
-      <c r="O106" s="267"/>
-      <c r="P106" s="268"/>
-      <c r="Q106" s="280"/>
-      <c r="R106" s="145"/>
-      <c r="S106" s="273" t="s">
-        <v>86</v>
-      </c>
-      <c r="T106" s="273"/>
-      <c r="U106" s="273"/>
-      <c r="V106" s="273"/>
-      <c r="W106" s="273"/>
-      <c r="X106" s="273"/>
-      <c r="Y106" s="273"/>
-      <c r="Z106" s="273"/>
-      <c r="AA106" s="273"/>
-      <c r="AB106" s="273"/>
-      <c r="AC106" s="273"/>
-      <c r="AD106" s="273"/>
-      <c r="AE106" s="273"/>
-      <c r="AF106" s="273"/>
-      <c r="AG106" s="273"/>
-      <c r="AH106" s="273"/>
-      <c r="AI106" s="273"/>
-      <c r="AJ106" s="146"/>
-      <c r="AK106" s="146"/>
-      <c r="AL106" s="147"/>
-      <c r="AM106" s="274"/>
-      <c r="AN106" s="275"/>
-      <c r="AO106" s="274"/>
-      <c r="AP106" s="275"/>
-      <c r="AQ106" s="284"/>
-    </row>
-    <row r="107" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="264"/>
-      <c r="C107" s="265"/>
-      <c r="D107" s="265"/>
-      <c r="E107" s="265"/>
-      <c r="F107" s="265"/>
-      <c r="G107" s="265"/>
-      <c r="H107" s="265"/>
-      <c r="I107" s="265"/>
-      <c r="J107" s="265"/>
-      <c r="K107" s="265"/>
-      <c r="L107" s="266"/>
-      <c r="M107" s="269"/>
-      <c r="N107" s="270"/>
-      <c r="O107" s="269"/>
-      <c r="P107" s="270"/>
-      <c r="Q107" s="281"/>
-      <c r="S107" s="283"/>
-      <c r="T107" s="283"/>
-      <c r="U107" s="283"/>
-      <c r="V107" s="283"/>
-      <c r="W107" s="283"/>
-      <c r="X107" s="283"/>
-      <c r="Y107" s="283"/>
-      <c r="Z107" s="283"/>
-      <c r="AA107" s="283"/>
-      <c r="AB107" s="283"/>
-      <c r="AC107" s="283"/>
-      <c r="AD107" s="283"/>
-      <c r="AE107" s="283"/>
-      <c r="AF107" s="283"/>
-      <c r="AG107" s="283"/>
-      <c r="AH107" s="283"/>
-      <c r="AI107" s="283"/>
-      <c r="AJ107" s="283"/>
-      <c r="AK107" s="283"/>
-      <c r="AL107" s="148"/>
-      <c r="AM107" s="276"/>
-      <c r="AN107" s="277"/>
-      <c r="AO107" s="276"/>
-      <c r="AP107" s="277"/>
-      <c r="AQ107" s="285"/>
-    </row>
-    <row r="108" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="287"/>
-      <c r="C108" s="288"/>
-      <c r="D108" s="288"/>
-      <c r="E108" s="288"/>
-      <c r="F108" s="288"/>
-      <c r="G108" s="288"/>
-      <c r="H108" s="288"/>
-      <c r="I108" s="288"/>
-      <c r="J108" s="288"/>
-      <c r="K108" s="288"/>
-      <c r="L108" s="149"/>
-      <c r="M108" s="271"/>
-      <c r="N108" s="272"/>
-      <c r="O108" s="271"/>
-      <c r="P108" s="272"/>
-      <c r="Q108" s="282"/>
-      <c r="R108" s="67"/>
-      <c r="S108" s="244" t="s">
-        <v>87</v>
-      </c>
-      <c r="T108" s="244"/>
-      <c r="U108" s="244"/>
-      <c r="V108" s="244"/>
-      <c r="W108" s="244"/>
-      <c r="X108" s="244"/>
-      <c r="Y108" s="244"/>
-      <c r="Z108" s="244"/>
-      <c r="AA108" s="244"/>
-      <c r="AB108" s="244"/>
-      <c r="AC108" s="244"/>
-      <c r="AD108" s="244"/>
-      <c r="AE108" s="244"/>
-      <c r="AF108" s="244"/>
-      <c r="AG108" s="244"/>
-      <c r="AH108" s="244"/>
-      <c r="AI108" s="244"/>
-      <c r="AJ108" s="150"/>
-      <c r="AK108" s="150"/>
-      <c r="AL108" s="151"/>
-      <c r="AM108" s="278"/>
-      <c r="AN108" s="279"/>
-      <c r="AO108" s="278"/>
-      <c r="AP108" s="279"/>
-      <c r="AQ108" s="286"/>
-    </row>
-    <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="152"/>
-      <c r="C109" s="153"/>
-      <c r="D109" s="153"/>
-      <c r="E109" s="153"/>
-      <c r="F109" s="153"/>
-      <c r="G109" s="153"/>
-      <c r="H109" s="153"/>
-      <c r="I109" s="153"/>
-      <c r="J109" s="153"/>
-      <c r="K109" s="153"/>
-      <c r="L109" s="153"/>
-      <c r="M109" s="153"/>
-      <c r="N109" s="153"/>
-      <c r="O109" s="153"/>
-      <c r="P109" s="153"/>
-      <c r="Q109" s="153"/>
+      <c r="T108" s="307"/>
+      <c r="U108" s="307"/>
+      <c r="V108" s="307"/>
+      <c r="W108" s="307"/>
+      <c r="X108" s="307"/>
+      <c r="Y108" s="307"/>
+      <c r="Z108" s="307"/>
+      <c r="AA108" s="307"/>
+      <c r="AB108" s="307"/>
+      <c r="AC108" s="307"/>
+      <c r="AD108" s="307"/>
+      <c r="AE108" s="307"/>
+      <c r="AF108" s="307"/>
+      <c r="AG108" s="307"/>
+      <c r="AH108" s="307"/>
+      <c r="AI108" s="307"/>
+      <c r="AJ108" s="151"/>
+      <c r="AK108" s="151"/>
+      <c r="AL108" s="152"/>
+      <c r="AM108" s="296"/>
+      <c r="AN108" s="297"/>
+      <c r="AO108" s="296"/>
+      <c r="AP108" s="297"/>
+      <c r="AQ108" s="304"/>
+    </row>
+    <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="153"/>
+      <c r="C109" s="154"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="154"/>
+      <c r="F109" s="154"/>
+      <c r="G109" s="154"/>
+      <c r="H109" s="154"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="154"/>
+      <c r="K109" s="154"/>
+      <c r="L109" s="154"/>
+      <c r="M109" s="154"/>
+      <c r="N109" s="154"/>
+      <c r="O109" s="154"/>
+      <c r="P109" s="154"/>
+      <c r="Q109" s="154"/>
       <c r="R109" s="22"/>
-      <c r="S109" s="244"/>
-      <c r="T109" s="244"/>
-      <c r="U109" s="244"/>
-      <c r="V109" s="244"/>
-      <c r="W109" s="244"/>
-      <c r="X109" s="244"/>
-      <c r="Y109" s="244"/>
-      <c r="Z109" s="244"/>
-      <c r="AA109" s="244"/>
-      <c r="AB109" s="244"/>
-      <c r="AC109" s="244"/>
-      <c r="AD109" s="244"/>
-      <c r="AE109" s="244"/>
-      <c r="AF109" s="244"/>
-      <c r="AG109" s="244"/>
-      <c r="AH109" s="244"/>
-      <c r="AI109" s="244"/>
+      <c r="S109" s="307"/>
+      <c r="T109" s="307"/>
+      <c r="U109" s="307"/>
+      <c r="V109" s="307"/>
+      <c r="W109" s="307"/>
+      <c r="X109" s="307"/>
+      <c r="Y109" s="307"/>
+      <c r="Z109" s="307"/>
+      <c r="AA109" s="307"/>
+      <c r="AB109" s="307"/>
+      <c r="AC109" s="307"/>
+      <c r="AD109" s="307"/>
+      <c r="AE109" s="307"/>
+      <c r="AF109" s="307"/>
+      <c r="AG109" s="307"/>
+      <c r="AH109" s="307"/>
+      <c r="AI109" s="307"/>
       <c r="AJ109" s="22"/>
-      <c r="AK109" s="154"/>
-      <c r="AL109" s="154"/>
+      <c r="AK109" s="155"/>
+      <c r="AL109" s="155"/>
       <c r="AM109" s="22"/>
       <c r="AN109" s="22"/>
       <c r="AO109" s="22"/>
       <c r="AP109" s="22"/>
       <c r="AQ109" s="23"/>
     </row>
-    <row r="110" spans="2:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="155" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="156"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="156"/>
-      <c r="G110" s="156"/>
-      <c r="H110" s="156"/>
-      <c r="I110" s="156"/>
-      <c r="J110" s="156"/>
-      <c r="K110" s="156"/>
-      <c r="L110" s="156"/>
-      <c r="M110" s="156"/>
-      <c r="N110" s="156"/>
-      <c r="O110" s="156"/>
-      <c r="P110" s="156"/>
-      <c r="Q110" s="156"/>
-      <c r="R110" s="156"/>
-      <c r="S110" s="156"/>
-      <c r="T110" s="156"/>
-      <c r="U110" s="156"/>
-      <c r="V110" s="156"/>
-      <c r="W110" s="156"/>
-      <c r="X110" s="156"/>
-      <c r="Y110" s="156"/>
-      <c r="Z110" s="156"/>
-      <c r="AA110" s="156"/>
-      <c r="AB110" s="156"/>
-      <c r="AC110" s="156"/>
-      <c r="AD110" s="156"/>
-      <c r="AE110" s="156"/>
-      <c r="AF110" s="156"/>
-      <c r="AG110" s="156"/>
-      <c r="AH110" s="156"/>
-      <c r="AI110" s="156"/>
-      <c r="AJ110" s="156"/>
-      <c r="AK110" s="156"/>
-      <c r="AL110" s="156"/>
-      <c r="AM110" s="156"/>
-      <c r="AN110" s="156"/>
-      <c r="AO110" s="156"/>
-      <c r="AP110" s="156"/>
-      <c r="AQ110" s="157"/>
-    </row>
-    <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="197" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" s="198"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="199"/>
-      <c r="F111" s="228" t="str">
+    <row r="110" spans="2:43" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="157"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
+      <c r="I110" s="157"/>
+      <c r="J110" s="157"/>
+      <c r="K110" s="157"/>
+      <c r="L110" s="157"/>
+      <c r="M110" s="157"/>
+      <c r="N110" s="157"/>
+      <c r="O110" s="157"/>
+      <c r="P110" s="157"/>
+      <c r="Q110" s="157"/>
+      <c r="R110" s="157"/>
+      <c r="S110" s="157"/>
+      <c r="T110" s="157"/>
+      <c r="U110" s="157"/>
+      <c r="V110" s="157"/>
+      <c r="W110" s="157"/>
+      <c r="X110" s="157"/>
+      <c r="Y110" s="157"/>
+      <c r="Z110" s="157"/>
+      <c r="AA110" s="157"/>
+      <c r="AB110" s="157"/>
+      <c r="AC110" s="157"/>
+      <c r="AD110" s="157"/>
+      <c r="AE110" s="157"/>
+      <c r="AF110" s="157"/>
+      <c r="AG110" s="157"/>
+      <c r="AH110" s="157"/>
+      <c r="AI110" s="157"/>
+      <c r="AJ110" s="157"/>
+      <c r="AK110" s="157"/>
+      <c r="AL110" s="157"/>
+      <c r="AM110" s="157"/>
+      <c r="AN110" s="157"/>
+      <c r="AO110" s="157"/>
+      <c r="AP110" s="157"/>
+      <c r="AQ110" s="158"/>
+    </row>
+    <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="308" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="309"/>
+      <c r="D111" s="309"/>
+      <c r="E111" s="310"/>
+      <c r="F111" s="311" t="str">
         <f>IF(B9="","",B9)</f>
         <v/>
       </c>
-      <c r="G111" s="229"/>
-      <c r="H111" s="229"/>
-      <c r="I111" s="229"/>
-      <c r="J111" s="229"/>
-      <c r="K111" s="229"/>
-      <c r="L111" s="158"/>
-      <c r="M111" s="159"/>
-      <c r="N111" s="245" t="s">
+      <c r="G111" s="312"/>
+      <c r="H111" s="312"/>
+      <c r="I111" s="312"/>
+      <c r="J111" s="312"/>
+      <c r="K111" s="312"/>
+      <c r="L111" s="159"/>
+      <c r="M111" s="160"/>
+      <c r="N111" s="313" t="s">
+        <v>88</v>
+      </c>
+      <c r="O111" s="314"/>
+      <c r="P111" s="314"/>
+      <c r="Q111" s="314"/>
+      <c r="R111" s="314"/>
+      <c r="S111" s="314"/>
+      <c r="T111" s="315"/>
+      <c r="U111" s="161"/>
+      <c r="V111" s="316"/>
+      <c r="W111" s="316"/>
+      <c r="X111" s="316"/>
+      <c r="Y111" s="316"/>
+      <c r="Z111" s="316"/>
+      <c r="AA111" s="316"/>
+      <c r="AB111" s="316"/>
+      <c r="AC111" s="316"/>
+      <c r="AD111" s="316"/>
+      <c r="AE111" s="316"/>
+      <c r="AF111" s="316"/>
+      <c r="AG111" s="316"/>
+      <c r="AH111" s="316"/>
+      <c r="AI111" s="316"/>
+      <c r="AJ111" s="316"/>
+      <c r="AK111" s="316"/>
+      <c r="AL111" s="316"/>
+      <c r="AM111" s="316"/>
+      <c r="AN111" s="316"/>
+      <c r="AO111" s="316"/>
+      <c r="AP111" s="316"/>
+      <c r="AQ111" s="317"/>
+    </row>
+    <row r="112" spans="2:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="308" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="309"/>
+      <c r="D112" s="309"/>
+      <c r="E112" s="310"/>
+      <c r="F112" s="318"/>
+      <c r="G112" s="319"/>
+      <c r="H112" s="319"/>
+      <c r="I112" s="319"/>
+      <c r="J112" s="319"/>
+      <c r="K112" s="319"/>
+      <c r="L112" s="319"/>
+      <c r="M112" s="320"/>
+      <c r="N112" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="O111" s="246"/>
-      <c r="P111" s="246"/>
-      <c r="Q111" s="246"/>
-      <c r="R111" s="246"/>
-      <c r="S111" s="246"/>
-      <c r="T111" s="247"/>
-      <c r="U111" s="160"/>
-      <c r="V111" s="248"/>
-      <c r="W111" s="248"/>
-      <c r="X111" s="248"/>
-      <c r="Y111" s="248"/>
-      <c r="Z111" s="248"/>
-      <c r="AA111" s="248"/>
-      <c r="AB111" s="248"/>
-      <c r="AC111" s="248"/>
-      <c r="AD111" s="248"/>
-      <c r="AE111" s="248"/>
-      <c r="AF111" s="248"/>
-      <c r="AG111" s="248"/>
-      <c r="AH111" s="248"/>
-      <c r="AI111" s="248"/>
-      <c r="AJ111" s="248"/>
-      <c r="AK111" s="248"/>
-      <c r="AL111" s="248"/>
-      <c r="AM111" s="248"/>
-      <c r="AN111" s="248"/>
-      <c r="AO111" s="248"/>
-      <c r="AP111" s="248"/>
-      <c r="AQ111" s="249"/>
-    </row>
-    <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="197" t="s">
+      <c r="O112" s="309"/>
+      <c r="P112" s="309"/>
+      <c r="Q112" s="309"/>
+      <c r="R112" s="309"/>
+      <c r="S112" s="309"/>
+      <c r="T112" s="310"/>
+      <c r="U112" s="321" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="198"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="199"/>
-      <c r="F112" s="250"/>
-      <c r="G112" s="251"/>
-      <c r="H112" s="251"/>
-      <c r="I112" s="251"/>
-      <c r="J112" s="251"/>
-      <c r="K112" s="251"/>
-      <c r="L112" s="251"/>
-      <c r="M112" s="252"/>
-      <c r="N112" s="253" t="s">
+      <c r="V112" s="322"/>
+      <c r="W112" s="321" t="s">
         <v>92</v>
       </c>
-      <c r="O112" s="254"/>
-      <c r="P112" s="254"/>
-      <c r="Q112" s="254"/>
-      <c r="R112" s="254"/>
-      <c r="S112" s="254"/>
-      <c r="T112" s="255"/>
-      <c r="U112" s="256" t="s">
+      <c r="X112" s="322"/>
+      <c r="Y112" s="323" t="s">
         <v>93</v>
       </c>
-      <c r="V112" s="257"/>
-      <c r="W112" s="256" t="s">
+      <c r="Z112" s="324"/>
+      <c r="AA112" s="324"/>
+      <c r="AB112" s="324"/>
+      <c r="AC112" s="324"/>
+      <c r="AD112" s="324"/>
+      <c r="AE112" s="324"/>
+      <c r="AF112" s="324"/>
+      <c r="AG112" s="324"/>
+      <c r="AH112" s="324"/>
+      <c r="AI112" s="324"/>
+      <c r="AJ112" s="324"/>
+      <c r="AK112" s="324"/>
+      <c r="AL112" s="324"/>
+      <c r="AM112" s="324"/>
+      <c r="AN112" s="324"/>
+      <c r="AO112" s="324"/>
+      <c r="AP112" s="324"/>
+      <c r="AQ112" s="325"/>
+    </row>
+    <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="308" t="s">
         <v>94</v>
       </c>
-      <c r="X112" s="257"/>
-      <c r="Y112" s="258" t="s">
+      <c r="C113" s="309"/>
+      <c r="D113" s="309"/>
+      <c r="E113" s="310"/>
+      <c r="F113" s="311"/>
+      <c r="G113" s="312"/>
+      <c r="H113" s="312"/>
+      <c r="I113" s="312"/>
+      <c r="J113" s="312"/>
+      <c r="K113" s="312"/>
+      <c r="L113" s="312"/>
+      <c r="M113" s="326"/>
+      <c r="N113" s="308" t="s">
         <v>95</v>
       </c>
-      <c r="Z112" s="259"/>
-      <c r="AA112" s="259"/>
-      <c r="AB112" s="259"/>
-      <c r="AC112" s="259"/>
-      <c r="AD112" s="259"/>
-      <c r="AE112" s="259"/>
-      <c r="AF112" s="259"/>
-      <c r="AG112" s="259"/>
-      <c r="AH112" s="259"/>
-      <c r="AI112" s="259"/>
-      <c r="AJ112" s="259"/>
-      <c r="AK112" s="259"/>
-      <c r="AL112" s="259"/>
-      <c r="AM112" s="259"/>
-      <c r="AN112" s="259"/>
-      <c r="AO112" s="259"/>
-      <c r="AP112" s="259"/>
-      <c r="AQ112" s="260"/>
-    </row>
-    <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="197" t="s">
+      <c r="O113" s="309"/>
+      <c r="P113" s="309"/>
+      <c r="Q113" s="309"/>
+      <c r="R113" s="309"/>
+      <c r="S113" s="309"/>
+      <c r="T113" s="310"/>
+      <c r="U113" s="327"/>
+      <c r="V113" s="328"/>
+      <c r="W113" s="328"/>
+      <c r="X113" s="328"/>
+      <c r="Y113" s="328"/>
+      <c r="Z113" s="328"/>
+      <c r="AA113" s="328"/>
+      <c r="AB113" s="328"/>
+      <c r="AC113" s="328"/>
+      <c r="AD113" s="328"/>
+      <c r="AE113" s="328"/>
+      <c r="AF113" s="328"/>
+      <c r="AG113" s="328"/>
+      <c r="AH113" s="328"/>
+      <c r="AI113" s="328"/>
+      <c r="AJ113" s="328"/>
+      <c r="AK113" s="328"/>
+      <c r="AL113" s="328"/>
+      <c r="AM113" s="328"/>
+      <c r="AN113" s="328"/>
+      <c r="AO113" s="328"/>
+      <c r="AP113" s="328"/>
+      <c r="AQ113" s="329"/>
+    </row>
+    <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="330" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="198"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="199"/>
-      <c r="F113" s="228"/>
-      <c r="G113" s="229"/>
-      <c r="H113" s="229"/>
-      <c r="I113" s="229"/>
-      <c r="J113" s="229"/>
-      <c r="K113" s="229"/>
-      <c r="L113" s="229"/>
-      <c r="M113" s="230"/>
-      <c r="N113" s="197" t="s">
+      <c r="C114" s="331"/>
+      <c r="D114" s="331"/>
+      <c r="E114" s="332"/>
+      <c r="F114" s="333"/>
+      <c r="G114" s="334"/>
+      <c r="H114" s="334"/>
+      <c r="I114" s="334"/>
+      <c r="J114" s="334"/>
+      <c r="K114" s="334"/>
+      <c r="L114" s="334"/>
+      <c r="M114" s="335"/>
+      <c r="N114" s="308" t="s">
         <v>97</v>
       </c>
-      <c r="O113" s="198"/>
-      <c r="P113" s="198"/>
-      <c r="Q113" s="198"/>
-      <c r="R113" s="198"/>
-      <c r="S113" s="198"/>
-      <c r="T113" s="199"/>
-      <c r="U113" s="231"/>
-      <c r="V113" s="232"/>
-      <c r="W113" s="232"/>
-      <c r="X113" s="232"/>
-      <c r="Y113" s="232"/>
-      <c r="Z113" s="232"/>
-      <c r="AA113" s="232"/>
-      <c r="AB113" s="232"/>
-      <c r="AC113" s="232"/>
-      <c r="AD113" s="232"/>
-      <c r="AE113" s="232"/>
-      <c r="AF113" s="232"/>
-      <c r="AG113" s="232"/>
-      <c r="AH113" s="232"/>
-      <c r="AI113" s="232"/>
-      <c r="AJ113" s="232"/>
-      <c r="AK113" s="232"/>
-      <c r="AL113" s="232"/>
-      <c r="AM113" s="232"/>
-      <c r="AN113" s="232"/>
-      <c r="AO113" s="232"/>
-      <c r="AP113" s="232"/>
-      <c r="AQ113" s="233"/>
-    </row>
-    <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="234" t="s">
+      <c r="O114" s="309"/>
+      <c r="P114" s="309"/>
+      <c r="Q114" s="309"/>
+      <c r="R114" s="309"/>
+      <c r="S114" s="309"/>
+      <c r="T114" s="310"/>
+      <c r="U114" s="336">
+        <v>0</v>
+      </c>
+      <c r="V114" s="337"/>
+      <c r="W114" s="337"/>
+      <c r="X114" s="337"/>
+      <c r="Y114" s="337"/>
+      <c r="Z114" s="337"/>
+      <c r="AA114" s="337"/>
+      <c r="AB114" s="337"/>
+      <c r="AC114" s="337"/>
+      <c r="AD114" s="337"/>
+      <c r="AE114" s="337"/>
+      <c r="AF114" s="338"/>
+      <c r="AG114" s="338"/>
+      <c r="AH114" s="338"/>
+      <c r="AI114" s="338"/>
+      <c r="AJ114" s="338"/>
+      <c r="AK114" s="338"/>
+      <c r="AL114" s="338"/>
+      <c r="AM114" s="338"/>
+      <c r="AN114" s="338"/>
+      <c r="AO114" s="338"/>
+      <c r="AP114" s="338"/>
+      <c r="AQ114" s="339"/>
+    </row>
+    <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="308" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="235"/>
-      <c r="D114" s="235"/>
-      <c r="E114" s="236"/>
-      <c r="F114" s="237"/>
-      <c r="G114" s="238"/>
-      <c r="H114" s="238"/>
-      <c r="I114" s="238"/>
-      <c r="J114" s="238"/>
-      <c r="K114" s="238"/>
-      <c r="L114" s="238"/>
-      <c r="M114" s="239"/>
-      <c r="N114" s="197" t="s">
+      <c r="C115" s="309"/>
+      <c r="D115" s="309"/>
+      <c r="E115" s="310"/>
+      <c r="F115" s="340"/>
+      <c r="G115" s="341"/>
+      <c r="H115" s="341"/>
+      <c r="I115" s="341"/>
+      <c r="J115" s="341"/>
+      <c r="K115" s="341"/>
+      <c r="L115" s="341"/>
+      <c r="M115" s="342"/>
+      <c r="N115" s="343" t="s">
         <v>99</v>
       </c>
-      <c r="O114" s="198"/>
-      <c r="P114" s="198"/>
-      <c r="Q114" s="198"/>
-      <c r="R114" s="198"/>
-      <c r="S114" s="198"/>
-      <c r="T114" s="199"/>
-      <c r="U114" s="240">
-        <v>0</v>
-      </c>
-      <c r="V114" s="241"/>
-      <c r="W114" s="241"/>
-      <c r="X114" s="241"/>
-      <c r="Y114" s="241"/>
-      <c r="Z114" s="241"/>
-      <c r="AA114" s="241"/>
-      <c r="AB114" s="241"/>
-      <c r="AC114" s="241"/>
-      <c r="AD114" s="241"/>
-      <c r="AE114" s="241"/>
-      <c r="AF114" s="242"/>
-      <c r="AG114" s="242"/>
-      <c r="AH114" s="242"/>
-      <c r="AI114" s="242"/>
-      <c r="AJ114" s="242"/>
-      <c r="AK114" s="242"/>
-      <c r="AL114" s="242"/>
-      <c r="AM114" s="242"/>
-      <c r="AN114" s="242"/>
-      <c r="AO114" s="242"/>
-      <c r="AP114" s="242"/>
-      <c r="AQ114" s="243"/>
-    </row>
-    <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="197" t="s">
+      <c r="O115" s="344"/>
+      <c r="P115" s="344"/>
+      <c r="Q115" s="344"/>
+      <c r="R115" s="344"/>
+      <c r="S115" s="344"/>
+      <c r="T115" s="345"/>
+      <c r="U115" s="346"/>
+      <c r="V115" s="347"/>
+      <c r="W115" s="347"/>
+      <c r="X115" s="347"/>
+      <c r="Y115" s="347"/>
+      <c r="Z115" s="347"/>
+      <c r="AA115" s="347"/>
+      <c r="AB115" s="347"/>
+      <c r="AC115" s="347"/>
+      <c r="AD115" s="347"/>
+      <c r="AE115" s="347"/>
+      <c r="AF115" s="347"/>
+      <c r="AG115" s="347"/>
+      <c r="AH115" s="347"/>
+      <c r="AI115" s="347"/>
+      <c r="AJ115" s="347"/>
+      <c r="AK115" s="347"/>
+      <c r="AL115" s="347"/>
+      <c r="AM115" s="347"/>
+      <c r="AN115" s="347"/>
+      <c r="AO115" s="347"/>
+      <c r="AP115" s="347"/>
+      <c r="AQ115" s="348"/>
+    </row>
+    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="350"/>
+      <c r="D116" s="353" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" s="354"/>
+      <c r="F116" s="353" t="s">
         <v>100</v>
       </c>
-      <c r="C115" s="198"/>
-      <c r="D115" s="198"/>
-      <c r="E115" s="199"/>
-      <c r="F115" s="200"/>
-      <c r="G115" s="201"/>
-      <c r="H115" s="201"/>
-      <c r="I115" s="201"/>
-      <c r="J115" s="201"/>
-      <c r="K115" s="201"/>
-      <c r="L115" s="201"/>
-      <c r="M115" s="202"/>
-      <c r="N115" s="203" t="s">
+      <c r="G116" s="354"/>
+      <c r="H116" s="366" t="s">
         <v>101</v>
       </c>
-      <c r="O115" s="204"/>
-      <c r="P115" s="204"/>
-      <c r="Q115" s="204"/>
-      <c r="R115" s="204"/>
-      <c r="S115" s="204"/>
-      <c r="T115" s="205"/>
-      <c r="U115" s="206"/>
-      <c r="V115" s="207"/>
-      <c r="W115" s="207"/>
-      <c r="X115" s="207"/>
-      <c r="Y115" s="207"/>
-      <c r="Z115" s="207"/>
-      <c r="AA115" s="207"/>
-      <c r="AB115" s="207"/>
-      <c r="AC115" s="207"/>
-      <c r="AD115" s="207"/>
-      <c r="AE115" s="207"/>
-      <c r="AF115" s="207"/>
-      <c r="AG115" s="207"/>
-      <c r="AH115" s="207"/>
-      <c r="AI115" s="207"/>
-      <c r="AJ115" s="207"/>
-      <c r="AK115" s="207"/>
-      <c r="AL115" s="207"/>
-      <c r="AM115" s="207"/>
-      <c r="AN115" s="207"/>
-      <c r="AO115" s="207"/>
-      <c r="AP115" s="207"/>
-      <c r="AQ115" s="208"/>
-    </row>
-    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="209" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="210"/>
-      <c r="D116" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="E116" s="214"/>
-      <c r="F116" s="213" t="s">
+      <c r="I116" s="357" t="s">
         <v>102</v>
       </c>
-      <c r="G116" s="214"/>
-      <c r="H116" s="226" t="s">
+      <c r="J116" s="358"/>
+      <c r="K116" s="353" t="s">
         <v>103</v>
       </c>
-      <c r="I116" s="217" t="s">
+      <c r="L116" s="162"/>
+      <c r="M116" s="353" t="s">
         <v>104</v>
       </c>
-      <c r="J116" s="218"/>
-      <c r="K116" s="213" t="s">
+      <c r="N116" s="361"/>
+      <c r="O116" s="361"/>
+      <c r="P116" s="354"/>
+      <c r="Q116" s="353" t="s">
         <v>105</v>
       </c>
-      <c r="L116" s="161"/>
-      <c r="M116" s="213" t="s">
+      <c r="R116" s="361"/>
+      <c r="S116" s="361"/>
+      <c r="T116" s="361"/>
+      <c r="U116" s="361"/>
+      <c r="V116" s="354"/>
+      <c r="W116" s="363" t="s">
         <v>106</v>
       </c>
-      <c r="N116" s="221"/>
-      <c r="O116" s="221"/>
-      <c r="P116" s="214"/>
-      <c r="Q116" s="213" t="s">
+      <c r="X116" s="364"/>
+      <c r="Y116" s="364"/>
+      <c r="Z116" s="364"/>
+      <c r="AA116" s="364"/>
+      <c r="AB116" s="364"/>
+      <c r="AC116" s="364"/>
+      <c r="AD116" s="364"/>
+      <c r="AE116" s="364"/>
+      <c r="AF116" s="364"/>
+      <c r="AG116" s="364"/>
+      <c r="AH116" s="364"/>
+      <c r="AI116" s="364"/>
+      <c r="AJ116" s="364"/>
+      <c r="AK116" s="364"/>
+      <c r="AL116" s="364"/>
+      <c r="AM116" s="364"/>
+      <c r="AN116" s="364"/>
+      <c r="AO116" s="364"/>
+      <c r="AP116" s="364"/>
+      <c r="AQ116" s="365"/>
+    </row>
+    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="351"/>
+      <c r="C117" s="352"/>
+      <c r="D117" s="355"/>
+      <c r="E117" s="356"/>
+      <c r="F117" s="355"/>
+      <c r="G117" s="356"/>
+      <c r="H117" s="367"/>
+      <c r="I117" s="359"/>
+      <c r="J117" s="360"/>
+      <c r="K117" s="355"/>
+      <c r="L117" s="163"/>
+      <c r="M117" s="355"/>
+      <c r="N117" s="362"/>
+      <c r="O117" s="362"/>
+      <c r="P117" s="356"/>
+      <c r="Q117" s="355"/>
+      <c r="R117" s="362"/>
+      <c r="S117" s="362"/>
+      <c r="T117" s="362"/>
+      <c r="U117" s="362"/>
+      <c r="V117" s="356"/>
+      <c r="W117" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="R116" s="221"/>
-      <c r="S116" s="221"/>
-      <c r="T116" s="221"/>
-      <c r="U116" s="221"/>
-      <c r="V116" s="214"/>
-      <c r="W116" s="223" t="s">
-        <v>108</v>
-      </c>
-      <c r="X116" s="224"/>
-      <c r="Y116" s="224"/>
-      <c r="Z116" s="224"/>
-      <c r="AA116" s="224"/>
-      <c r="AB116" s="224"/>
-      <c r="AC116" s="224"/>
-      <c r="AD116" s="224"/>
-      <c r="AE116" s="224"/>
-      <c r="AF116" s="224"/>
-      <c r="AG116" s="224"/>
-      <c r="AH116" s="224"/>
-      <c r="AI116" s="224"/>
-      <c r="AJ116" s="224"/>
-      <c r="AK116" s="224"/>
-      <c r="AL116" s="224"/>
-      <c r="AM116" s="224"/>
-      <c r="AN116" s="224"/>
-      <c r="AO116" s="224"/>
-      <c r="AP116" s="224"/>
-      <c r="AQ116" s="225"/>
-    </row>
-    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="211"/>
-      <c r="C117" s="212"/>
-      <c r="D117" s="215"/>
-      <c r="E117" s="216"/>
-      <c r="F117" s="215"/>
-      <c r="G117" s="216"/>
-      <c r="H117" s="227"/>
-      <c r="I117" s="219"/>
-      <c r="J117" s="220"/>
-      <c r="K117" s="215"/>
-      <c r="L117" s="162"/>
-      <c r="M117" s="215"/>
-      <c r="N117" s="222"/>
-      <c r="O117" s="222"/>
-      <c r="P117" s="216"/>
-      <c r="Q117" s="215"/>
-      <c r="R117" s="222"/>
-      <c r="S117" s="222"/>
-      <c r="T117" s="222"/>
-      <c r="U117" s="222"/>
-      <c r="V117" s="216"/>
-      <c r="W117" s="163" t="s">
-        <v>109</v>
-      </c>
-      <c r="X117" s="164"/>
-      <c r="Y117" s="164"/>
-      <c r="Z117" s="164"/>
-      <c r="AA117" s="164"/>
-      <c r="AB117" s="164"/>
-      <c r="AC117" s="165"/>
-      <c r="AD117" s="165"/>
-      <c r="AE117" s="165"/>
-      <c r="AF117" s="165"/>
-      <c r="AG117" s="166"/>
-      <c r="AH117" s="165"/>
-      <c r="AI117" s="165"/>
-      <c r="AJ117" s="165"/>
-      <c r="AK117" s="165"/>
-      <c r="AL117" s="165"/>
-      <c r="AM117" s="165"/>
-      <c r="AN117" s="165"/>
-      <c r="AO117" s="165"/>
-      <c r="AP117" s="165"/>
-      <c r="AQ117" s="167"/>
-    </row>
-    <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="189">
+      <c r="X117" s="165"/>
+      <c r="Y117" s="165"/>
+      <c r="Z117" s="165"/>
+      <c r="AA117" s="165"/>
+      <c r="AB117" s="165"/>
+      <c r="AC117" s="166"/>
+      <c r="AD117" s="166"/>
+      <c r="AE117" s="166"/>
+      <c r="AF117" s="166"/>
+      <c r="AG117" s="167"/>
+      <c r="AH117" s="166"/>
+      <c r="AI117" s="166"/>
+      <c r="AJ117" s="166"/>
+      <c r="AK117" s="166"/>
+      <c r="AL117" s="166"/>
+      <c r="AM117" s="166"/>
+      <c r="AN117" s="166"/>
+      <c r="AO117" s="166"/>
+      <c r="AP117" s="166"/>
+      <c r="AQ117" s="168"/>
+    </row>
+    <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="368">
         <f>+AJ78</f>
         <v>0</v>
       </c>
-      <c r="C118" s="190"/>
-      <c r="D118" s="189">
+      <c r="C118" s="369"/>
+      <c r="D118" s="368">
         <f>+AJ79</f>
         <v>0</v>
       </c>
-      <c r="E118" s="190"/>
-      <c r="F118" s="189" t="s">
-        <v>110</v>
-      </c>
-      <c r="G118" s="190"/>
-      <c r="H118" s="168"/>
-      <c r="I118" s="191"/>
-      <c r="J118" s="192"/>
-      <c r="K118" s="191"/>
-      <c r="L118" s="192"/>
-      <c r="M118" s="170"/>
-      <c r="N118" s="171"/>
-      <c r="O118" s="171"/>
-      <c r="P118" s="171"/>
-      <c r="Q118" s="191"/>
-      <c r="R118" s="193"/>
-      <c r="S118" s="193"/>
-      <c r="T118" s="193"/>
-      <c r="U118" s="193"/>
-      <c r="V118" s="192"/>
-      <c r="W118" s="194"/>
-      <c r="X118" s="195"/>
-      <c r="Y118" s="195"/>
-      <c r="Z118" s="195"/>
-      <c r="AA118" s="195"/>
-      <c r="AB118" s="195"/>
-      <c r="AC118" s="195"/>
-      <c r="AD118" s="195"/>
-      <c r="AE118" s="195"/>
-      <c r="AF118" s="196"/>
-      <c r="AG118" s="194"/>
-      <c r="AH118" s="195"/>
-      <c r="AI118" s="195"/>
-      <c r="AJ118" s="195"/>
-      <c r="AK118" s="195"/>
-      <c r="AL118" s="195"/>
-      <c r="AM118" s="195"/>
-      <c r="AN118" s="195"/>
-      <c r="AO118" s="195"/>
-      <c r="AP118" s="195"/>
-      <c r="AQ118" s="196"/>
-    </row>
-    <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="189">
+      <c r="E118" s="369"/>
+      <c r="F118" s="368" t="s">
+        <v>108</v>
+      </c>
+      <c r="G118" s="369"/>
+      <c r="H118" s="169"/>
+      <c r="I118" s="370"/>
+      <c r="J118" s="371"/>
+      <c r="K118" s="370"/>
+      <c r="L118" s="371"/>
+      <c r="M118" s="171"/>
+      <c r="N118" s="172"/>
+      <c r="O118" s="172"/>
+      <c r="P118" s="172"/>
+      <c r="Q118" s="370"/>
+      <c r="R118" s="372"/>
+      <c r="S118" s="372"/>
+      <c r="T118" s="372"/>
+      <c r="U118" s="372"/>
+      <c r="V118" s="371"/>
+      <c r="W118" s="373"/>
+      <c r="X118" s="374"/>
+      <c r="Y118" s="374"/>
+      <c r="Z118" s="374"/>
+      <c r="AA118" s="374"/>
+      <c r="AB118" s="374"/>
+      <c r="AC118" s="374"/>
+      <c r="AD118" s="374"/>
+      <c r="AE118" s="374"/>
+      <c r="AF118" s="375"/>
+      <c r="AG118" s="373"/>
+      <c r="AH118" s="374"/>
+      <c r="AI118" s="374"/>
+      <c r="AJ118" s="374"/>
+      <c r="AK118" s="374"/>
+      <c r="AL118" s="374"/>
+      <c r="AM118" s="374"/>
+      <c r="AN118" s="374"/>
+      <c r="AO118" s="374"/>
+      <c r="AP118" s="374"/>
+      <c r="AQ118" s="375"/>
+    </row>
+    <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="368">
         <f>+AJ83</f>
         <v>0</v>
       </c>
-      <c r="C119" s="190"/>
-      <c r="D119" s="189">
+      <c r="C119" s="369"/>
+      <c r="D119" s="368">
         <f>+AJ87</f>
         <v>0</v>
       </c>
-      <c r="E119" s="190"/>
-      <c r="F119" s="189" t="s">
-        <v>110</v>
-      </c>
-      <c r="G119" s="190"/>
-      <c r="H119" s="172"/>
-      <c r="I119" s="191"/>
-      <c r="J119" s="192"/>
-      <c r="K119" s="169"/>
-      <c r="L119" s="173"/>
-      <c r="M119" s="170"/>
-      <c r="N119" s="171"/>
-      <c r="O119" s="171"/>
-      <c r="P119" s="171"/>
-      <c r="Q119" s="191"/>
-      <c r="R119" s="193"/>
-      <c r="S119" s="193"/>
-      <c r="T119" s="193"/>
-      <c r="U119" s="193"/>
-      <c r="V119" s="192"/>
-      <c r="W119" s="194"/>
-      <c r="X119" s="195"/>
-      <c r="Y119" s="195"/>
-      <c r="Z119" s="195"/>
-      <c r="AA119" s="195"/>
-      <c r="AB119" s="195"/>
-      <c r="AC119" s="195"/>
-      <c r="AD119" s="195"/>
-      <c r="AE119" s="195"/>
-      <c r="AF119" s="196"/>
-      <c r="AG119" s="194"/>
-      <c r="AH119" s="195"/>
-      <c r="AI119" s="195"/>
-      <c r="AJ119" s="195"/>
-      <c r="AK119" s="195"/>
-      <c r="AL119" s="195"/>
-      <c r="AM119" s="195"/>
-      <c r="AN119" s="195"/>
-      <c r="AO119" s="195"/>
-      <c r="AP119" s="195"/>
-      <c r="AQ119" s="196"/>
-    </row>
-    <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="C120" s="178"/>
-      <c r="D120" s="178"/>
-      <c r="E120" s="179"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="184"/>
-      <c r="H120" s="184"/>
-      <c r="I120" s="184"/>
-      <c r="J120" s="184"/>
-      <c r="K120" s="184"/>
-      <c r="L120" s="184"/>
-      <c r="M120" s="184"/>
-      <c r="N120" s="184"/>
-      <c r="O120" s="184"/>
-      <c r="P120" s="184"/>
-      <c r="Q120" s="184"/>
-      <c r="R120" s="184"/>
-      <c r="S120" s="184"/>
-      <c r="T120" s="184"/>
-      <c r="U120" s="184"/>
-      <c r="V120" s="184"/>
-      <c r="W120" s="184"/>
-      <c r="X120" s="184"/>
-      <c r="Y120" s="184"/>
-      <c r="Z120" s="184"/>
-      <c r="AA120" s="184"/>
-      <c r="AB120" s="184"/>
-      <c r="AC120" s="184"/>
-      <c r="AD120" s="184"/>
-      <c r="AE120" s="184"/>
-      <c r="AF120" s="184"/>
-      <c r="AG120" s="184"/>
-      <c r="AH120" s="184"/>
-      <c r="AI120" s="184"/>
-      <c r="AJ120" s="184"/>
-      <c r="AK120" s="184"/>
-      <c r="AL120" s="184"/>
-      <c r="AM120" s="184"/>
-      <c r="AN120" s="184"/>
-      <c r="AO120" s="184"/>
-      <c r="AP120" s="184"/>
-      <c r="AQ120" s="185"/>
-    </row>
-    <row r="121" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="180"/>
-      <c r="C121" s="181"/>
-      <c r="D121" s="181"/>
-      <c r="E121" s="182"/>
-      <c r="F121" s="186"/>
-      <c r="G121" s="187"/>
-      <c r="H121" s="187"/>
-      <c r="I121" s="187"/>
-      <c r="J121" s="187"/>
-      <c r="K121" s="187"/>
-      <c r="L121" s="187"/>
-      <c r="M121" s="187"/>
-      <c r="N121" s="187"/>
-      <c r="O121" s="187"/>
-      <c r="P121" s="187"/>
-      <c r="Q121" s="187"/>
-      <c r="R121" s="187"/>
-      <c r="S121" s="187"/>
-      <c r="T121" s="187"/>
-      <c r="U121" s="187"/>
-      <c r="V121" s="187"/>
-      <c r="W121" s="187"/>
-      <c r="X121" s="187"/>
-      <c r="Y121" s="187"/>
-      <c r="Z121" s="187"/>
-      <c r="AA121" s="187"/>
-      <c r="AB121" s="187"/>
-      <c r="AC121" s="187"/>
-      <c r="AD121" s="187"/>
-      <c r="AE121" s="187"/>
-      <c r="AF121" s="187"/>
-      <c r="AG121" s="187"/>
-      <c r="AH121" s="187"/>
-      <c r="AI121" s="187"/>
-      <c r="AJ121" s="187"/>
-      <c r="AK121" s="187"/>
-      <c r="AL121" s="187"/>
-      <c r="AM121" s="187"/>
-      <c r="AN121" s="187"/>
-      <c r="AO121" s="187"/>
-      <c r="AP121" s="187"/>
-      <c r="AQ121" s="188"/>
+      <c r="E119" s="369"/>
+      <c r="F119" s="368" t="s">
+        <v>108</v>
+      </c>
+      <c r="G119" s="369"/>
+      <c r="H119" s="173"/>
+      <c r="I119" s="370"/>
+      <c r="J119" s="371"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="174"/>
+      <c r="M119" s="171"/>
+      <c r="N119" s="172"/>
+      <c r="O119" s="172"/>
+      <c r="P119" s="172"/>
+      <c r="Q119" s="370"/>
+      <c r="R119" s="372"/>
+      <c r="S119" s="372"/>
+      <c r="T119" s="372"/>
+      <c r="U119" s="372"/>
+      <c r="V119" s="371"/>
+      <c r="W119" s="373"/>
+      <c r="X119" s="374"/>
+      <c r="Y119" s="374"/>
+      <c r="Z119" s="374"/>
+      <c r="AA119" s="374"/>
+      <c r="AB119" s="374"/>
+      <c r="AC119" s="374"/>
+      <c r="AD119" s="374"/>
+      <c r="AE119" s="374"/>
+      <c r="AF119" s="375"/>
+      <c r="AG119" s="373"/>
+      <c r="AH119" s="374"/>
+      <c r="AI119" s="374"/>
+      <c r="AJ119" s="374"/>
+      <c r="AK119" s="374"/>
+      <c r="AL119" s="374"/>
+      <c r="AM119" s="374"/>
+      <c r="AN119" s="374"/>
+      <c r="AO119" s="374"/>
+      <c r="AP119" s="374"/>
+      <c r="AQ119" s="375"/>
+    </row>
+    <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="376" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="377"/>
+      <c r="D120" s="377"/>
+      <c r="E120" s="378"/>
+      <c r="F120" s="382"/>
+      <c r="G120" s="383"/>
+      <c r="H120" s="383"/>
+      <c r="I120" s="383"/>
+      <c r="J120" s="383"/>
+      <c r="K120" s="383"/>
+      <c r="L120" s="383"/>
+      <c r="M120" s="383"/>
+      <c r="N120" s="383"/>
+      <c r="O120" s="383"/>
+      <c r="P120" s="383"/>
+      <c r="Q120" s="383"/>
+      <c r="R120" s="383"/>
+      <c r="S120" s="383"/>
+      <c r="T120" s="383"/>
+      <c r="U120" s="383"/>
+      <c r="V120" s="383"/>
+      <c r="W120" s="383"/>
+      <c r="X120" s="383"/>
+      <c r="Y120" s="383"/>
+      <c r="Z120" s="383"/>
+      <c r="AA120" s="383"/>
+      <c r="AB120" s="383"/>
+      <c r="AC120" s="383"/>
+      <c r="AD120" s="383"/>
+      <c r="AE120" s="383"/>
+      <c r="AF120" s="383"/>
+      <c r="AG120" s="383"/>
+      <c r="AH120" s="383"/>
+      <c r="AI120" s="383"/>
+      <c r="AJ120" s="383"/>
+      <c r="AK120" s="383"/>
+      <c r="AL120" s="383"/>
+      <c r="AM120" s="383"/>
+      <c r="AN120" s="383"/>
+      <c r="AO120" s="383"/>
+      <c r="AP120" s="383"/>
+      <c r="AQ120" s="384"/>
+    </row>
+    <row r="121" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="379"/>
+      <c r="C121" s="380"/>
+      <c r="D121" s="380"/>
+      <c r="E121" s="381"/>
+      <c r="F121" s="385"/>
+      <c r="G121" s="386"/>
+      <c r="H121" s="386"/>
+      <c r="I121" s="386"/>
+      <c r="J121" s="386"/>
+      <c r="K121" s="386"/>
+      <c r="L121" s="386"/>
+      <c r="M121" s="386"/>
+      <c r="N121" s="386"/>
+      <c r="O121" s="386"/>
+      <c r="P121" s="386"/>
+      <c r="Q121" s="386"/>
+      <c r="R121" s="386"/>
+      <c r="S121" s="386"/>
+      <c r="T121" s="386"/>
+      <c r="U121" s="386"/>
+      <c r="V121" s="386"/>
+      <c r="W121" s="386"/>
+      <c r="X121" s="386"/>
+      <c r="Y121" s="386"/>
+      <c r="Z121" s="386"/>
+      <c r="AA121" s="386"/>
+      <c r="AB121" s="386"/>
+      <c r="AC121" s="386"/>
+      <c r="AD121" s="386"/>
+      <c r="AE121" s="386"/>
+      <c r="AF121" s="386"/>
+      <c r="AG121" s="386"/>
+      <c r="AH121" s="386"/>
+      <c r="AI121" s="386"/>
+      <c r="AJ121" s="386"/>
+      <c r="AK121" s="386"/>
+      <c r="AL121" s="386"/>
+      <c r="AM121" s="386"/>
+      <c r="AN121" s="386"/>
+      <c r="AO121" s="386"/>
+      <c r="AP121" s="386"/>
+      <c r="AQ121" s="387"/>
     </row>
   </sheetData>
-  <mergeCells count="340">
-    <mergeCell ref="F2:P5"/>
-    <mergeCell ref="R2:AQ2"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AI3:AQ3"/>
-    <mergeCell ref="R4:V5"/>
-    <mergeCell ref="W4:AH5"/>
-    <mergeCell ref="AI4:AQ4"/>
-    <mergeCell ref="AI5:AQ5"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="U9:AP9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="U11:AP11"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="L15:AB15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="L18:AA18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:AQ22"/>
-    <mergeCell ref="B23:AQ23"/>
-    <mergeCell ref="B24:AQ24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="H29:R29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AK29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="H32:R32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="AI34:AM34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="H35:R35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AI37:AM37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="AI40:AM40"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="H41:R41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="AI43:AM43"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="H44:R44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="AL44:AM44"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:AA46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="AI46:AM46"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:AA49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AI49:AM49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AL50:AM50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:AA52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="AI52:AM52"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="AC53:AE53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AI53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q57:AA57"/>
-    <mergeCell ref="AB57:AQ57"/>
+  <mergeCells count="342">
+    <mergeCell ref="B120:E121"/>
+    <mergeCell ref="F120:AQ121"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="L97:Q97"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="Q118:V118"/>
+    <mergeCell ref="W118:AF118"/>
+    <mergeCell ref="AG118:AQ118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="Q119:V119"/>
+    <mergeCell ref="W119:AF119"/>
+    <mergeCell ref="AG119:AQ119"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:M115"/>
+    <mergeCell ref="N115:T115"/>
+    <mergeCell ref="U115:AQ115"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="I116:J117"/>
+    <mergeCell ref="M116:P117"/>
+    <mergeCell ref="Q116:V117"/>
+    <mergeCell ref="W116:AQ116"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="N113:T113"/>
+    <mergeCell ref="U113:AQ113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:M114"/>
+    <mergeCell ref="N114:T114"/>
+    <mergeCell ref="U114:AE114"/>
+    <mergeCell ref="AF114:AQ114"/>
+    <mergeCell ref="S109:AI109"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:K111"/>
+    <mergeCell ref="N111:T111"/>
+    <mergeCell ref="V111:AE111"/>
+    <mergeCell ref="AF111:AQ111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:M112"/>
+    <mergeCell ref="N112:T112"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:AQ112"/>
+    <mergeCell ref="B106:L107"/>
+    <mergeCell ref="M106:N108"/>
+    <mergeCell ref="O106:P108"/>
+    <mergeCell ref="S106:AI106"/>
+    <mergeCell ref="AM106:AN108"/>
+    <mergeCell ref="AO106:AP108"/>
+    <mergeCell ref="Q106:Q108"/>
+    <mergeCell ref="S107:AK107"/>
+    <mergeCell ref="AQ106:AQ108"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="S108:AI108"/>
+    <mergeCell ref="B104:L105"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="S104:AI105"/>
+    <mergeCell ref="AJ104:AL104"/>
+    <mergeCell ref="AM104:AN104"/>
+    <mergeCell ref="AO104:AP104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="AJ105:AL105"/>
+    <mergeCell ref="AM105:AN105"/>
+    <mergeCell ref="AO105:AP105"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="X97:AC97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="X98:AC98"/>
+    <mergeCell ref="AJ100:AO100"/>
+    <mergeCell ref="AJ101:AO101"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="X94:AC94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="X95:AC95"/>
+    <mergeCell ref="AJ95:AO95"/>
+    <mergeCell ref="AJ91:AO91"/>
+    <mergeCell ref="M92:P92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="X92:AC92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:P93"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="X93:AC93"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="X89:AC89"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="X90:AC90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="X91:AC91"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="X86:AC86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="X87:AC87"/>
+    <mergeCell ref="AJ87:AO87"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="X88:AC88"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="X83:AC83"/>
+    <mergeCell ref="AJ83:AO83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="X84:AC84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="X85:AC85"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="AJ76:AO76"/>
+    <mergeCell ref="AJ78:AO78"/>
+    <mergeCell ref="K79:R79"/>
+    <mergeCell ref="AJ79:AO79"/>
+    <mergeCell ref="AJ80:AO80"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="X82:AC82"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="AI73:AO73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="AJ74:AO74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:O75"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="M58:P58"/>
@@ -8752,161 +8754,175 @@
     <mergeCell ref="W68:AH69"/>
     <mergeCell ref="AI68:AQ68"/>
     <mergeCell ref="AI69:AQ69"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="AI73:AO73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="AJ74:AO74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="AJ76:AO76"/>
-    <mergeCell ref="AJ78:AO78"/>
-    <mergeCell ref="K79:R79"/>
-    <mergeCell ref="AJ79:AO79"/>
-    <mergeCell ref="AJ80:AO80"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="X82:AC82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="X83:AC83"/>
-    <mergeCell ref="AJ83:AO83"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="X84:AC84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="X85:AC85"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="X86:AC86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="X87:AC87"/>
-    <mergeCell ref="AJ87:AO87"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="X88:AC88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="X89:AC89"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="X90:AC90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="M91:P91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="X91:AC91"/>
-    <mergeCell ref="AJ91:AO91"/>
-    <mergeCell ref="M92:P92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="X92:AC92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:P93"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="X93:AC93"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="X94:AC94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="X95:AC95"/>
-    <mergeCell ref="AJ95:AO95"/>
-    <mergeCell ref="M97:P97"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="X97:AC97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="X98:AC98"/>
-    <mergeCell ref="AJ100:AO100"/>
-    <mergeCell ref="AJ101:AO101"/>
-    <mergeCell ref="B104:L105"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="S104:AI105"/>
-    <mergeCell ref="AJ104:AL104"/>
-    <mergeCell ref="AM104:AN104"/>
-    <mergeCell ref="AO104:AP104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="AJ105:AL105"/>
-    <mergeCell ref="AM105:AN105"/>
-    <mergeCell ref="AO105:AP105"/>
-    <mergeCell ref="B106:L107"/>
-    <mergeCell ref="M106:N108"/>
-    <mergeCell ref="O106:P108"/>
-    <mergeCell ref="S106:AI106"/>
-    <mergeCell ref="AM106:AN108"/>
-    <mergeCell ref="AO106:AP108"/>
-    <mergeCell ref="Q106:Q108"/>
-    <mergeCell ref="S107:AK107"/>
-    <mergeCell ref="AQ106:AQ108"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="S108:AI108"/>
-    <mergeCell ref="S109:AI109"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:K111"/>
-    <mergeCell ref="N111:T111"/>
-    <mergeCell ref="V111:AE111"/>
-    <mergeCell ref="AF111:AQ111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="F112:M112"/>
-    <mergeCell ref="N112:T112"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W112:X112"/>
-    <mergeCell ref="Y112:AQ112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:M113"/>
-    <mergeCell ref="N113:T113"/>
-    <mergeCell ref="U113:AQ113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="F114:M114"/>
-    <mergeCell ref="N114:T114"/>
-    <mergeCell ref="U114:AE114"/>
-    <mergeCell ref="AF114:AQ114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="F115:M115"/>
-    <mergeCell ref="N115:T115"/>
-    <mergeCell ref="U115:AQ115"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="I116:J117"/>
-    <mergeCell ref="M116:P117"/>
-    <mergeCell ref="Q116:V117"/>
-    <mergeCell ref="W116:AQ116"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="B120:E121"/>
-    <mergeCell ref="F120:AQ121"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="Q118:V118"/>
-    <mergeCell ref="W118:AF118"/>
-    <mergeCell ref="AG118:AQ118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="Q119:V119"/>
-    <mergeCell ref="W119:AF119"/>
-    <mergeCell ref="AG119:AQ119"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="AC53:AE53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q57:AA57"/>
+    <mergeCell ref="AB57:AQ57"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:AA52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AI52:AM52"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="H47:R47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AI49:AM49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="H44:R44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:AA46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="AI46:AM46"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="H41:R41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="AI43:AM43"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="H38:R38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="AI40:AM40"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="H35:R35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AI37:AM37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="H32:R32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="AI34:AM34"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="B23:AQ23"/>
+    <mergeCell ref="B24:AQ24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="L18:AA18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:AQ22"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="U9:AP9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="U11:AP11"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="L15:AB15"/>
+    <mergeCell ref="F2:P5"/>
+    <mergeCell ref="R2:AQ2"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AI3:AQ3"/>
+    <mergeCell ref="R4:V5"/>
+    <mergeCell ref="W4:AH5"/>
+    <mergeCell ref="AI4:AQ4"/>
+    <mergeCell ref="AI5:AQ5"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/api/assets/adm322.xlsx
+++ b/api/assets/adm322.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6A73AFD9E9B40C13B7490A1568F76A635B2C894B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5D0BCB3-465A-4F85-A085-6E7F5A57BAAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$B1:$AQ121</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -478,15 +488,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/mmm/dd"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="dd/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1116,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1620,6 +1630,483 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="27" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1668,14 +2155,138 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1689,606 +2300,11 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2327,7 +2343,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2382,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,53 +2697,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScale="178" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76:O76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="178" workbookViewId="0">
+      <selection activeCell="R89" sqref="R89:U89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="1.5" customWidth="1"/>
-    <col min="12" max="13" width="2.83203125" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
-    <col min="17" max="17" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="1.83203125" customWidth="1"/>
-    <col min="19" max="19" width="1.6640625" customWidth="1"/>
-    <col min="20" max="20" width="2" customWidth="1"/>
-    <col min="21" max="21" width="1.6640625" customWidth="1"/>
-    <col min="22" max="22" width="2" customWidth="1"/>
-    <col min="23" max="23" width="1.33203125" customWidth="1"/>
-    <col min="24" max="24" width="1.83203125" customWidth="1"/>
-    <col min="25" max="26" width="1.6640625" customWidth="1"/>
-    <col min="27" max="27" width="2.1640625" customWidth="1"/>
-    <col min="28" max="29" width="1.6640625" customWidth="1"/>
-    <col min="30" max="30" width="0.5" customWidth="1"/>
-    <col min="31" max="31" width="0.83203125" customWidth="1"/>
-    <col min="32" max="32" width="0.6640625" customWidth="1"/>
-    <col min="33" max="33" width="1.6640625" customWidth="1"/>
-    <col min="34" max="39" width="1.33203125" customWidth="1"/>
-    <col min="40" max="40" width="1.83203125" customWidth="1"/>
-    <col min="41" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="42" width="1.1640625" customWidth="1"/>
-    <col min="43" max="43" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.62890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.203125" customWidth="1"/>
+    <col min="3" max="3" width="2.015625" customWidth="1"/>
+    <col min="4" max="4" width="9.953125" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6875" customWidth="1"/>
+    <col min="7" max="7" width="3.359375" customWidth="1"/>
+    <col min="8" max="8" width="4.70703125" customWidth="1"/>
+    <col min="9" max="9" width="1.61328125" customWidth="1"/>
+    <col min="10" max="10" width="2.95703125" customWidth="1"/>
+    <col min="11" max="11" width="1.4765625" customWidth="1"/>
+    <col min="12" max="13" width="2.82421875" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="2.6875" customWidth="1"/>
+    <col min="16" max="16" width="1.34375" customWidth="1"/>
+    <col min="17" max="17" width="2.82421875" customWidth="1"/>
+    <col min="18" max="18" width="1.8828125" customWidth="1"/>
+    <col min="19" max="19" width="1.61328125" customWidth="1"/>
+    <col min="20" max="20" width="2.015625" customWidth="1"/>
+    <col min="21" max="21" width="1.61328125" customWidth="1"/>
+    <col min="22" max="22" width="2.015625" customWidth="1"/>
+    <col min="23" max="23" width="1.34375" customWidth="1"/>
+    <col min="24" max="24" width="1.8828125" customWidth="1"/>
+    <col min="25" max="26" width="1.61328125" customWidth="1"/>
+    <col min="27" max="27" width="2.15234375" customWidth="1"/>
+    <col min="28" max="29" width="1.61328125" customWidth="1"/>
+    <col min="30" max="30" width="0.53515625" customWidth="1"/>
+    <col min="31" max="31" width="0.8046875" customWidth="1"/>
+    <col min="32" max="32" width="0.671875" customWidth="1"/>
+    <col min="33" max="33" width="1.61328125" customWidth="1"/>
+    <col min="34" max="39" width="1.34375" customWidth="1"/>
+    <col min="40" max="40" width="1.8828125" customWidth="1"/>
+    <col min="41" max="41" width="2.5546875" customWidth="1"/>
+    <col min="42" max="42" width="1.20703125" customWidth="1"/>
+    <col min="43" max="43" width="1.8828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2736,98 +2752,98 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="333" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
+      <c r="G2" s="333"/>
+      <c r="H2" s="333"/>
+      <c r="I2" s="333"/>
+      <c r="J2" s="333"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
+      <c r="N2" s="333"/>
+      <c r="O2" s="333"/>
+      <c r="P2" s="333"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="176" t="s">
+      <c r="R2" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="177"/>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="178"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="335"/>
+      <c r="U2" s="335"/>
+      <c r="V2" s="335"/>
+      <c r="W2" s="335"/>
+      <c r="X2" s="335"/>
+      <c r="Y2" s="335"/>
+      <c r="Z2" s="335"/>
+      <c r="AA2" s="335"/>
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="335"/>
+      <c r="AG2" s="335"/>
+      <c r="AH2" s="335"/>
+      <c r="AI2" s="335"/>
+      <c r="AJ2" s="335"/>
+      <c r="AK2" s="335"/>
+      <c r="AL2" s="335"/>
+      <c r="AM2" s="335"/>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="336"/>
     </row>
     <row r="3" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="179" t="s">
+      <c r="R3" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="179" t="s">
+      <c r="S3" s="338"/>
+      <c r="T3" s="338"/>
+      <c r="U3" s="338"/>
+      <c r="V3" s="339"/>
+      <c r="W3" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="179" t="s">
+      <c r="X3" s="338"/>
+      <c r="Y3" s="338"/>
+      <c r="Z3" s="338"/>
+      <c r="AA3" s="338"/>
+      <c r="AB3" s="338"/>
+      <c r="AC3" s="338"/>
+      <c r="AD3" s="338"/>
+      <c r="AE3" s="338"/>
+      <c r="AF3" s="338"/>
+      <c r="AG3" s="338"/>
+      <c r="AH3" s="339"/>
+      <c r="AI3" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="180"/>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="180"/>
-      <c r="AP3" s="180"/>
-      <c r="AQ3" s="181"/>
+      <c r="AJ3" s="338"/>
+      <c r="AK3" s="338"/>
+      <c r="AL3" s="338"/>
+      <c r="AM3" s="338"/>
+      <c r="AN3" s="338"/>
+      <c r="AO3" s="338"/>
+      <c r="AP3" s="338"/>
+      <c r="AQ3" s="339"/>
       <c r="AR3" s="1"/>
     </row>
     <row r="4" spans="1:60" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2835,87 +2851,87 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+      <c r="O4" s="333"/>
+      <c r="P4" s="333"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="182"/>
-      <c r="S4" s="183"/>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="184"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="189"/>
-      <c r="Z4" s="189"/>
-      <c r="AA4" s="189"/>
-      <c r="AB4" s="189"/>
-      <c r="AC4" s="189"/>
-      <c r="AD4" s="189"/>
-      <c r="AE4" s="189"/>
-      <c r="AF4" s="189"/>
-      <c r="AG4" s="189"/>
-      <c r="AH4" s="190"/>
-      <c r="AI4" s="191" t="s">
+      <c r="R4" s="340"/>
+      <c r="S4" s="341"/>
+      <c r="T4" s="341"/>
+      <c r="U4" s="341"/>
+      <c r="V4" s="342"/>
+      <c r="W4" s="346"/>
+      <c r="X4" s="347"/>
+      <c r="Y4" s="347"/>
+      <c r="Z4" s="347"/>
+      <c r="AA4" s="347"/>
+      <c r="AB4" s="347"/>
+      <c r="AC4" s="347"/>
+      <c r="AD4" s="347"/>
+      <c r="AE4" s="347"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="347"/>
+      <c r="AH4" s="348"/>
+      <c r="AI4" s="295" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="192"/>
-      <c r="AK4" s="192"/>
-      <c r="AL4" s="192"/>
-      <c r="AM4" s="192"/>
-      <c r="AN4" s="192"/>
-      <c r="AO4" s="192"/>
-      <c r="AP4" s="192"/>
-      <c r="AQ4" s="193"/>
+      <c r="AJ4" s="296"/>
+      <c r="AK4" s="296"/>
+      <c r="AL4" s="296"/>
+      <c r="AM4" s="296"/>
+      <c r="AN4" s="296"/>
+      <c r="AO4" s="296"/>
+      <c r="AP4" s="296"/>
+      <c r="AQ4" s="299"/>
       <c r="AR4" s="1"/>
     </row>
     <row r="5" spans="1:60" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="333"/>
+      <c r="P5" s="333"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="187"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="186"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="194"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
-      <c r="AL5" s="195"/>
-      <c r="AM5" s="195"/>
-      <c r="AN5" s="195"/>
-      <c r="AO5" s="195"/>
-      <c r="AP5" s="195"/>
-      <c r="AQ5" s="196"/>
+      <c r="R5" s="343"/>
+      <c r="S5" s="344"/>
+      <c r="T5" s="344"/>
+      <c r="U5" s="344"/>
+      <c r="V5" s="345"/>
+      <c r="W5" s="343"/>
+      <c r="X5" s="344"/>
+      <c r="Y5" s="344"/>
+      <c r="Z5" s="344"/>
+      <c r="AA5" s="344"/>
+      <c r="AB5" s="344"/>
+      <c r="AC5" s="344"/>
+      <c r="AD5" s="344"/>
+      <c r="AE5" s="344"/>
+      <c r="AF5" s="344"/>
+      <c r="AG5" s="344"/>
+      <c r="AH5" s="345"/>
+      <c r="AI5" s="389"/>
+      <c r="AJ5" s="390"/>
+      <c r="AK5" s="390"/>
+      <c r="AL5" s="390"/>
+      <c r="AM5" s="390"/>
+      <c r="AN5" s="390"/>
+      <c r="AO5" s="390"/>
+      <c r="AP5" s="390"/>
+      <c r="AQ5" s="391"/>
       <c r="AR5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
@@ -2995,7 +3011,7 @@
       <c r="AU7" s="1"/>
       <c r="BH7" s="1"/>
     </row>
-    <row r="8" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3043,46 +3059,46 @@
       <c r="BH8" s="1"/>
     </row>
     <row r="9" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="197"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="380"/>
+      <c r="E9" s="380"/>
+      <c r="F9" s="380"/>
+      <c r="G9" s="380"/>
+      <c r="H9" s="380"/>
+      <c r="I9" s="380"/>
+      <c r="J9" s="380"/>
+      <c r="K9" s="380"/>
+      <c r="L9" s="380"/>
+      <c r="M9" s="380"/>
+      <c r="N9" s="380"/>
+      <c r="O9" s="380"/>
       <c r="P9" s="14"/>
       <c r="R9" s="18"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="199"/>
-      <c r="AA9" s="199"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="199"/>
-      <c r="AD9" s="199"/>
-      <c r="AE9" s="199"/>
-      <c r="AF9" s="199"/>
-      <c r="AG9" s="199"/>
-      <c r="AH9" s="199"/>
-      <c r="AI9" s="199"/>
-      <c r="AJ9" s="199"/>
-      <c r="AK9" s="199"/>
-      <c r="AL9" s="199"/>
-      <c r="AM9" s="199"/>
-      <c r="AN9" s="199"/>
-      <c r="AO9" s="199"/>
-      <c r="AP9" s="199"/>
+      <c r="U9" s="381"/>
+      <c r="V9" s="381"/>
+      <c r="W9" s="381"/>
+      <c r="X9" s="381"/>
+      <c r="Y9" s="381"/>
+      <c r="Z9" s="381"/>
+      <c r="AA9" s="381"/>
+      <c r="AB9" s="381"/>
+      <c r="AC9" s="381"/>
+      <c r="AD9" s="381"/>
+      <c r="AE9" s="381"/>
+      <c r="AF9" s="381"/>
+      <c r="AG9" s="381"/>
+      <c r="AH9" s="381"/>
+      <c r="AI9" s="381"/>
+      <c r="AJ9" s="381"/>
+      <c r="AK9" s="381"/>
+      <c r="AL9" s="381"/>
+      <c r="AM9" s="381"/>
+      <c r="AN9" s="381"/>
+      <c r="AO9" s="381"/>
+      <c r="AP9" s="381"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3090,23 +3106,23 @@
       <c r="AU9" s="1"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:60" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="200" t="s">
+    <row r="10" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="382" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="383"/>
+      <c r="E10" s="384"/>
+      <c r="F10" s="384"/>
+      <c r="G10" s="384"/>
+      <c r="H10" s="385"/>
+      <c r="I10" s="385"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="385"/>
+      <c r="L10" s="385"/>
+      <c r="M10" s="385"/>
+      <c r="N10" s="385"/>
+      <c r="O10" s="385"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3140,47 +3156,47 @@
       <c r="BH10" s="1"/>
     </row>
     <row r="11" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
+      <c r="B11" s="386"/>
+      <c r="C11" s="387"/>
+      <c r="D11" s="387"/>
+      <c r="E11" s="387"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="387"/>
+      <c r="J11" s="387"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="387"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="387"/>
+      <c r="O11" s="387"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="199"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="199"/>
-      <c r="Y11" s="199"/>
-      <c r="Z11" s="199"/>
-      <c r="AA11" s="199"/>
-      <c r="AB11" s="199"/>
-      <c r="AC11" s="199"/>
-      <c r="AD11" s="199"/>
-      <c r="AE11" s="199"/>
-      <c r="AF11" s="199"/>
-      <c r="AG11" s="199"/>
-      <c r="AH11" s="199"/>
-      <c r="AI11" s="199"/>
-      <c r="AJ11" s="199"/>
-      <c r="AK11" s="199"/>
-      <c r="AL11" s="199"/>
-      <c r="AM11" s="199"/>
-      <c r="AN11" s="199"/>
-      <c r="AO11" s="199"/>
-      <c r="AP11" s="199"/>
+      <c r="U11" s="381"/>
+      <c r="V11" s="381"/>
+      <c r="W11" s="381"/>
+      <c r="X11" s="381"/>
+      <c r="Y11" s="381"/>
+      <c r="Z11" s="381"/>
+      <c r="AA11" s="381"/>
+      <c r="AB11" s="381"/>
+      <c r="AC11" s="381"/>
+      <c r="AD11" s="381"/>
+      <c r="AE11" s="381"/>
+      <c r="AF11" s="381"/>
+      <c r="AG11" s="381"/>
+      <c r="AH11" s="381"/>
+      <c r="AI11" s="381"/>
+      <c r="AJ11" s="381"/>
+      <c r="AK11" s="381"/>
+      <c r="AL11" s="381"/>
+      <c r="AM11" s="381"/>
+      <c r="AN11" s="381"/>
+      <c r="AO11" s="381"/>
+      <c r="AP11" s="381"/>
       <c r="AQ11" s="23"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3188,7 +3204,7 @@
       <c r="AU11" s="1"/>
       <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="1:60" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3326,33 +3342,33 @@
       <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="206"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
+      <c r="B15" s="388"/>
+      <c r="C15" s="368"/>
+      <c r="D15" s="368"/>
+      <c r="E15" s="368"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="368"/>
+      <c r="H15" s="368"/>
+      <c r="I15" s="368"/>
+      <c r="J15" s="368"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="207"/>
-      <c r="R15" s="207"/>
-      <c r="S15" s="207"/>
-      <c r="T15" s="207"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="207"/>
-      <c r="W15" s="207"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="207"/>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="207"/>
-      <c r="AB15" s="207"/>
+      <c r="L15" s="368"/>
+      <c r="M15" s="368"/>
+      <c r="N15" s="368"/>
+      <c r="O15" s="368"/>
+      <c r="P15" s="368"/>
+      <c r="Q15" s="368"/>
+      <c r="R15" s="368"/>
+      <c r="S15" s="368"/>
+      <c r="T15" s="368"/>
+      <c r="U15" s="368"/>
+      <c r="V15" s="368"/>
+      <c r="W15" s="368"/>
+      <c r="X15" s="368"/>
+      <c r="Y15" s="368"/>
+      <c r="Z15" s="368"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="368"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="1"/>
@@ -3442,33 +3458,33 @@
     </row>
     <row r="17" spans="1:61" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="209"/>
-      <c r="G17" s="209"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
+      <c r="B17" s="366"/>
+      <c r="C17" s="367"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
+      <c r="F17" s="367"/>
+      <c r="G17" s="367"/>
+      <c r="H17" s="367"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="367"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="207"/>
-      <c r="R17" s="207"/>
-      <c r="S17" s="207"/>
-      <c r="T17" s="207"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="207"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="368"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="368"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="368"/>
+      <c r="U17" s="368"/>
+      <c r="V17" s="368"/>
+      <c r="W17" s="368"/>
+      <c r="X17" s="368"/>
+      <c r="Y17" s="368"/>
+      <c r="Z17" s="368"/>
+      <c r="AA17" s="368"/>
+      <c r="AB17" s="368"/>
       <c r="AC17" s="28"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="1"/>
@@ -3502,7 +3518,7 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
     </row>
-    <row r="18" spans="1:61" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
@@ -3515,24 +3531,24 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="210" t="s">
+      <c r="L18" s="369" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="210"/>
-      <c r="N18" s="210"/>
-      <c r="O18" s="210"/>
-      <c r="P18" s="210"/>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="210"/>
-      <c r="S18" s="210"/>
-      <c r="T18" s="210"/>
-      <c r="U18" s="210"/>
-      <c r="V18" s="210"/>
-      <c r="W18" s="210"/>
-      <c r="X18" s="210"/>
-      <c r="Y18" s="210"/>
-      <c r="Z18" s="210"/>
-      <c r="AA18" s="210"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="369"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="369"/>
+      <c r="Q18" s="369"/>
+      <c r="R18" s="369"/>
+      <c r="S18" s="369"/>
+      <c r="T18" s="369"/>
+      <c r="U18" s="369"/>
+      <c r="V18" s="369"/>
+      <c r="W18" s="369"/>
+      <c r="X18" s="369"/>
+      <c r="Y18" s="369"/>
+      <c r="Z18" s="369"/>
+      <c r="AA18" s="369"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -3569,33 +3585,33 @@
       <c r="BI18" s="1"/>
     </row>
     <row r="19" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="211"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
+      <c r="B19" s="370"/>
+      <c r="C19" s="371"/>
+      <c r="D19" s="371"/>
+      <c r="E19" s="371"/>
+      <c r="F19" s="371"/>
+      <c r="G19" s="371"/>
+      <c r="H19" s="371"/>
+      <c r="I19" s="371"/>
+      <c r="J19" s="371"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="207"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="207"/>
-      <c r="P19" s="207"/>
-      <c r="Q19" s="207"/>
-      <c r="R19" s="207"/>
-      <c r="S19" s="207"/>
-      <c r="T19" s="207"/>
-      <c r="U19" s="207"/>
-      <c r="V19" s="207"/>
-      <c r="W19" s="207"/>
-      <c r="X19" s="207"/>
-      <c r="Y19" s="207"/>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="207"/>
-      <c r="AB19" s="207"/>
+      <c r="L19" s="368"/>
+      <c r="M19" s="368"/>
+      <c r="N19" s="368"/>
+      <c r="O19" s="368"/>
+      <c r="P19" s="368"/>
+      <c r="Q19" s="368"/>
+      <c r="R19" s="368"/>
+      <c r="S19" s="368"/>
+      <c r="T19" s="368"/>
+      <c r="U19" s="368"/>
+      <c r="V19" s="368"/>
+      <c r="W19" s="368"/>
+      <c r="X19" s="368"/>
+      <c r="Y19" s="368"/>
+      <c r="Z19" s="368"/>
+      <c r="AA19" s="368"/>
+      <c r="AB19" s="368"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -3630,7 +3646,7 @@
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
     </row>
-    <row r="20" spans="1:61" s="6" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
         <v>19</v>
       </c>
@@ -3651,33 +3667,33 @@
       <c r="AQ20" s="17"/>
     </row>
     <row r="21" spans="1:61" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="213"/>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="214"/>
+      <c r="B21" s="372"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
+      <c r="G21" s="373"/>
+      <c r="H21" s="373"/>
+      <c r="I21" s="373"/>
+      <c r="J21" s="373"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="215"/>
-      <c r="R21" s="215"/>
-      <c r="S21" s="215"/>
-      <c r="T21" s="215"/>
-      <c r="U21" s="215"/>
-      <c r="V21" s="215"/>
-      <c r="W21" s="215"/>
-      <c r="X21" s="215"/>
-      <c r="Y21" s="215"/>
-      <c r="Z21" s="215"/>
-      <c r="AA21" s="215"/>
-      <c r="AB21" s="215"/>
+      <c r="L21" s="374"/>
+      <c r="M21" s="374"/>
+      <c r="N21" s="374"/>
+      <c r="O21" s="374"/>
+      <c r="P21" s="374"/>
+      <c r="Q21" s="374"/>
+      <c r="R21" s="374"/>
+      <c r="S21" s="374"/>
+      <c r="T21" s="374"/>
+      <c r="U21" s="374"/>
+      <c r="V21" s="374"/>
+      <c r="W21" s="374"/>
+      <c r="X21" s="374"/>
+      <c r="Y21" s="374"/>
+      <c r="Z21" s="374"/>
+      <c r="AA21" s="374"/>
+      <c r="AB21" s="374"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
@@ -3697,138 +3713,138 @@
       <c r="AW21" s="36"/>
     </row>
     <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="375" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="218"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="218"/>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="218"/>
-      <c r="AB22" s="218"/>
-      <c r="AC22" s="218"/>
-      <c r="AD22" s="218"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="218"/>
-      <c r="AG22" s="218"/>
-      <c r="AH22" s="218"/>
-      <c r="AI22" s="218"/>
-      <c r="AJ22" s="218"/>
-      <c r="AK22" s="218"/>
-      <c r="AL22" s="218"/>
-      <c r="AM22" s="218"/>
-      <c r="AN22" s="218"/>
-      <c r="AO22" s="218"/>
-      <c r="AP22" s="218"/>
-      <c r="AQ22" s="219"/>
+      <c r="C22" s="376"/>
+      <c r="D22" s="376"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="377"/>
+      <c r="G22" s="377"/>
+      <c r="H22" s="377"/>
+      <c r="I22" s="377"/>
+      <c r="J22" s="377"/>
+      <c r="K22" s="377"/>
+      <c r="L22" s="377"/>
+      <c r="M22" s="377"/>
+      <c r="N22" s="377"/>
+      <c r="O22" s="377"/>
+      <c r="P22" s="377"/>
+      <c r="Q22" s="377"/>
+      <c r="R22" s="377"/>
+      <c r="S22" s="377"/>
+      <c r="T22" s="377"/>
+      <c r="U22" s="377"/>
+      <c r="V22" s="377"/>
+      <c r="W22" s="377"/>
+      <c r="X22" s="377"/>
+      <c r="Y22" s="377"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="377"/>
+      <c r="AB22" s="377"/>
+      <c r="AC22" s="377"/>
+      <c r="AD22" s="377"/>
+      <c r="AE22" s="377"/>
+      <c r="AF22" s="377"/>
+      <c r="AG22" s="377"/>
+      <c r="AH22" s="377"/>
+      <c r="AI22" s="377"/>
+      <c r="AJ22" s="377"/>
+      <c r="AK22" s="377"/>
+      <c r="AL22" s="377"/>
+      <c r="AM22" s="377"/>
+      <c r="AN22" s="377"/>
+      <c r="AO22" s="377"/>
+      <c r="AP22" s="377"/>
+      <c r="AQ22" s="378"/>
     </row>
     <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="220"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="221"/>
-      <c r="P23" s="221"/>
-      <c r="Q23" s="221"/>
-      <c r="R23" s="221"/>
-      <c r="S23" s="221"/>
-      <c r="T23" s="221"/>
-      <c r="U23" s="221"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="221"/>
-      <c r="AD23" s="221"/>
-      <c r="AE23" s="221"/>
-      <c r="AF23" s="221"/>
-      <c r="AG23" s="221"/>
-      <c r="AH23" s="221"/>
-      <c r="AI23" s="221"/>
-      <c r="AJ23" s="221"/>
-      <c r="AK23" s="221"/>
-      <c r="AL23" s="221"/>
-      <c r="AM23" s="221"/>
-      <c r="AN23" s="221"/>
-      <c r="AO23" s="221"/>
-      <c r="AP23" s="221"/>
-      <c r="AQ23" s="222"/>
-    </row>
-    <row r="24" spans="1:61" s="6" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="223"/>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="223"/>
-      <c r="T24" s="223"/>
-      <c r="U24" s="223"/>
-      <c r="V24" s="223"/>
-      <c r="W24" s="223"/>
-      <c r="X24" s="223"/>
-      <c r="Y24" s="223"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="223"/>
-      <c r="AB24" s="223"/>
-      <c r="AC24" s="223"/>
-      <c r="AD24" s="223"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="223"/>
-      <c r="AH24" s="223"/>
-      <c r="AI24" s="223"/>
-      <c r="AJ24" s="223"/>
-      <c r="AK24" s="223"/>
-      <c r="AL24" s="223"/>
-      <c r="AM24" s="223"/>
-      <c r="AN24" s="223"/>
-      <c r="AO24" s="223"/>
-      <c r="AP24" s="223"/>
-      <c r="AQ24" s="223"/>
+      <c r="B23" s="361"/>
+      <c r="C23" s="362"/>
+      <c r="D23" s="362"/>
+      <c r="E23" s="362"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="362"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="362"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="362"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="362"/>
+      <c r="U23" s="362"/>
+      <c r="V23" s="362"/>
+      <c r="W23" s="362"/>
+      <c r="X23" s="362"/>
+      <c r="Y23" s="362"/>
+      <c r="Z23" s="362"/>
+      <c r="AA23" s="362"/>
+      <c r="AB23" s="362"/>
+      <c r="AC23" s="362"/>
+      <c r="AD23" s="362"/>
+      <c r="AE23" s="362"/>
+      <c r="AF23" s="362"/>
+      <c r="AG23" s="362"/>
+      <c r="AH23" s="362"/>
+      <c r="AI23" s="362"/>
+      <c r="AJ23" s="362"/>
+      <c r="AK23" s="362"/>
+      <c r="AL23" s="362"/>
+      <c r="AM23" s="362"/>
+      <c r="AN23" s="362"/>
+      <c r="AO23" s="362"/>
+      <c r="AP23" s="362"/>
+      <c r="AQ23" s="363"/>
+    </row>
+    <row r="24" spans="1:61" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="364"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="364"/>
+      <c r="E24" s="364"/>
+      <c r="F24" s="364"/>
+      <c r="G24" s="364"/>
+      <c r="H24" s="364"/>
+      <c r="I24" s="364"/>
+      <c r="J24" s="364"/>
+      <c r="K24" s="364"/>
+      <c r="L24" s="364"/>
+      <c r="M24" s="364"/>
+      <c r="N24" s="364"/>
+      <c r="O24" s="364"/>
+      <c r="P24" s="364"/>
+      <c r="Q24" s="364"/>
+      <c r="R24" s="364"/>
+      <c r="S24" s="364"/>
+      <c r="T24" s="364"/>
+      <c r="U24" s="364"/>
+      <c r="V24" s="364"/>
+      <c r="W24" s="364"/>
+      <c r="X24" s="364"/>
+      <c r="Y24" s="364"/>
+      <c r="Z24" s="364"/>
+      <c r="AA24" s="364"/>
+      <c r="AB24" s="364"/>
+      <c r="AC24" s="364"/>
+      <c r="AD24" s="364"/>
+      <c r="AE24" s="364"/>
+      <c r="AF24" s="364"/>
+      <c r="AG24" s="364"/>
+      <c r="AH24" s="364"/>
+      <c r="AI24" s="364"/>
+      <c r="AJ24" s="364"/>
+      <c r="AK24" s="364"/>
+      <c r="AL24" s="364"/>
+      <c r="AM24" s="364"/>
+      <c r="AN24" s="364"/>
+      <c r="AO24" s="364"/>
+      <c r="AP24" s="364"/>
+      <c r="AQ24" s="364"/>
     </row>
     <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
@@ -3881,66 +3897,66 @@
         <v>23</v>
       </c>
       <c r="C26" s="40"/>
-      <c r="D26" s="224" t="s">
+      <c r="D26" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="225" t="s">
+      <c r="H26" s="315" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="225"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
+      <c r="I26" s="315"/>
+      <c r="J26" s="315"/>
+      <c r="K26" s="315"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="225" t="s">
+      <c r="M26" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="225"/>
-      <c r="O26" s="225"/>
+      <c r="N26" s="315"/>
+      <c r="O26" s="315"/>
       <c r="P26" s="40"/>
-      <c r="Q26" s="225" t="s">
+      <c r="Q26" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="225"/>
+      <c r="R26" s="315"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="225" t="s">
+      <c r="T26" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="225"/>
+      <c r="U26" s="315"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="224" t="s">
+      <c r="W26" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="224"/>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="191"/>
+      <c r="Z26" s="191"/>
+      <c r="AA26" s="191"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="224" t="s">
+      <c r="AC26" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="AD26" s="224"/>
-      <c r="AE26" s="224"/>
-      <c r="AF26" s="224"/>
-      <c r="AG26" s="224"/>
+      <c r="AD26" s="191"/>
+      <c r="AE26" s="191"/>
+      <c r="AF26" s="191"/>
+      <c r="AG26" s="191"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="224" t="s">
+      <c r="AI26" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="AJ26" s="224"/>
-      <c r="AK26" s="224"/>
-      <c r="AL26" s="224"/>
-      <c r="AM26" s="224"/>
+      <c r="AJ26" s="191"/>
+      <c r="AK26" s="191"/>
+      <c r="AL26" s="191"/>
+      <c r="AM26" s="191"/>
       <c r="AN26" s="1"/>
-      <c r="AO26" s="224" t="s">
+      <c r="AO26" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="224"/>
-      <c r="AQ26" s="226"/>
-    </row>
-    <row r="27" spans="1:61" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP26" s="191"/>
+      <c r="AQ26" s="365"/>
+    </row>
+    <row r="27" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
         <v>5</v>
       </c>
@@ -3986,53 +4002,53 @@
       <c r="AP27" s="51"/>
       <c r="AQ27" s="52"/>
     </row>
-    <row r="28" spans="1:61" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="359"/>
       <c r="G28" s="54"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
+      <c r="H28" s="359"/>
+      <c r="I28" s="359"/>
+      <c r="J28" s="359"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
+      <c r="L28" s="359"/>
+      <c r="M28" s="359"/>
+      <c r="N28" s="359"/>
+      <c r="O28" s="359"/>
       <c r="P28" s="54"/>
-      <c r="Q28" s="227" t="s">
+      <c r="Q28" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="227"/>
+      <c r="R28" s="359"/>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
+      <c r="W28" s="359"/>
+      <c r="X28" s="359"/>
+      <c r="Y28" s="359"/>
+      <c r="Z28" s="359"/>
+      <c r="AA28" s="359"/>
       <c r="AB28" s="54"/>
-      <c r="AC28" s="227"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="227"/>
-      <c r="AF28" s="227"/>
-      <c r="AG28" s="227"/>
+      <c r="AC28" s="359"/>
+      <c r="AD28" s="359"/>
+      <c r="AE28" s="359"/>
+      <c r="AF28" s="359"/>
+      <c r="AG28" s="359"/>
       <c r="AH28" s="56"/>
-      <c r="AI28" s="227"/>
-      <c r="AJ28" s="227"/>
-      <c r="AK28" s="227"/>
-      <c r="AL28" s="227"/>
-      <c r="AM28" s="227"/>
+      <c r="AI28" s="359"/>
+      <c r="AJ28" s="359"/>
+      <c r="AK28" s="359"/>
+      <c r="AL28" s="359"/>
+      <c r="AM28" s="359"/>
       <c r="AN28" s="56"/>
-      <c r="AO28" s="228"/>
-      <c r="AP28" s="228"/>
-      <c r="AQ28" s="229"/>
-    </row>
-    <row r="29" spans="1:61" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO28" s="352"/>
+      <c r="AP28" s="352"/>
+      <c r="AQ28" s="353"/>
+    </row>
+    <row r="29" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B29" s="57"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58" t="s">
@@ -4041,17 +4057,17 @@
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="230"/>
+      <c r="H29" s="354"/>
+      <c r="I29" s="354"/>
+      <c r="J29" s="354"/>
+      <c r="K29" s="354"/>
+      <c r="L29" s="354"/>
+      <c r="M29" s="354"/>
+      <c r="N29" s="354"/>
+      <c r="O29" s="354"/>
+      <c r="P29" s="354"/>
+      <c r="Q29" s="354"/>
+      <c r="R29" s="354"/>
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
@@ -4061,21 +4077,21 @@
       <c r="Z29" s="58"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
-      <c r="AC29" s="231"/>
-      <c r="AD29" s="231"/>
-      <c r="AE29" s="231"/>
-      <c r="AF29" s="231"/>
-      <c r="AG29" s="231"/>
-      <c r="AI29" s="231"/>
-      <c r="AJ29" s="231"/>
-      <c r="AK29" s="231"/>
-      <c r="AL29" s="231"/>
-      <c r="AM29" s="231"/>
+      <c r="AC29" s="355"/>
+      <c r="AD29" s="355"/>
+      <c r="AE29" s="355"/>
+      <c r="AF29" s="355"/>
+      <c r="AG29" s="355"/>
+      <c r="AI29" s="355"/>
+      <c r="AJ29" s="355"/>
+      <c r="AK29" s="355"/>
+      <c r="AL29" s="355"/>
+      <c r="AM29" s="355"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="60"/>
     </row>
-    <row r="30" spans="1:61" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
       <c r="D30" s="62"/>
@@ -4119,53 +4135,53 @@
       <c r="AP30" s="65"/>
       <c r="AQ30" s="66"/>
     </row>
-    <row r="31" spans="1:61" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:61" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="53"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
       <c r="G31" s="54"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="227"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="359"/>
       <c r="K31" s="54"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
+      <c r="L31" s="359"/>
+      <c r="M31" s="359"/>
+      <c r="N31" s="359"/>
+      <c r="O31" s="359"/>
       <c r="P31" s="54"/>
-      <c r="Q31" s="227" t="s">
+      <c r="Q31" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="227"/>
+      <c r="R31" s="359"/>
       <c r="S31" s="54"/>
-      <c r="T31" s="232"/>
-      <c r="U31" s="232"/>
+      <c r="T31" s="360"/>
+      <c r="U31" s="360"/>
       <c r="V31" s="54"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
-      <c r="Y31" s="227"/>
-      <c r="Z31" s="227"/>
-      <c r="AA31" s="227"/>
+      <c r="W31" s="359"/>
+      <c r="X31" s="359"/>
+      <c r="Y31" s="359"/>
+      <c r="Z31" s="359"/>
+      <c r="AA31" s="359"/>
       <c r="AB31" s="54"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="227"/>
-      <c r="AF31" s="227"/>
-      <c r="AG31" s="227"/>
+      <c r="AC31" s="359"/>
+      <c r="AD31" s="359"/>
+      <c r="AE31" s="359"/>
+      <c r="AF31" s="359"/>
+      <c r="AG31" s="359"/>
       <c r="AH31" s="56"/>
-      <c r="AI31" s="227"/>
-      <c r="AJ31" s="227"/>
-      <c r="AK31" s="227"/>
-      <c r="AL31" s="227"/>
-      <c r="AM31" s="227"/>
+      <c r="AI31" s="359"/>
+      <c r="AJ31" s="359"/>
+      <c r="AK31" s="359"/>
+      <c r="AL31" s="359"/>
+      <c r="AM31" s="359"/>
       <c r="AN31" s="56"/>
-      <c r="AO31" s="228"/>
-      <c r="AP31" s="228"/>
-      <c r="AQ31" s="229"/>
-    </row>
-    <row r="32" spans="1:61" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO31" s="352"/>
+      <c r="AP31" s="352"/>
+      <c r="AQ31" s="353"/>
+    </row>
+    <row r="32" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B32" s="57"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58" t="s">
@@ -4174,17 +4190,17 @@
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="230"/>
-      <c r="K32" s="230"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="230"/>
-      <c r="P32" s="230"/>
-      <c r="Q32" s="230"/>
-      <c r="R32" s="230"/>
+      <c r="H32" s="354"/>
+      <c r="I32" s="354"/>
+      <c r="J32" s="354"/>
+      <c r="K32" s="354"/>
+      <c r="L32" s="354"/>
+      <c r="M32" s="354"/>
+      <c r="N32" s="354"/>
+      <c r="O32" s="354"/>
+      <c r="P32" s="354"/>
+      <c r="Q32" s="354"/>
+      <c r="R32" s="354"/>
       <c r="S32" s="54"/>
       <c r="T32" s="54"/>
       <c r="U32" s="54"/>
@@ -4194,21 +4210,21 @@
       <c r="Z32" s="58"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
-      <c r="AC32" s="231"/>
-      <c r="AD32" s="231"/>
-      <c r="AE32" s="231"/>
-      <c r="AF32" s="231"/>
-      <c r="AG32" s="231"/>
-      <c r="AI32" s="231"/>
-      <c r="AJ32" s="231"/>
-      <c r="AK32" s="231"/>
-      <c r="AL32" s="231"/>
-      <c r="AM32" s="231"/>
+      <c r="AC32" s="355"/>
+      <c r="AD32" s="355"/>
+      <c r="AE32" s="355"/>
+      <c r="AF32" s="355"/>
+      <c r="AG32" s="355"/>
+      <c r="AI32" s="355"/>
+      <c r="AJ32" s="355"/>
+      <c r="AK32" s="355"/>
+      <c r="AL32" s="355"/>
+      <c r="AM32" s="355"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="60"/>
     </row>
-    <row r="33" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
@@ -4252,51 +4268,51 @@
       <c r="AP33" s="65"/>
       <c r="AQ33" s="66"/>
     </row>
-    <row r="34" spans="2:43" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
       <c r="G34" s="54"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="359"/>
       <c r="K34" s="54"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="227"/>
+      <c r="L34" s="359"/>
+      <c r="M34" s="359"/>
+      <c r="N34" s="359"/>
+      <c r="O34" s="359"/>
       <c r="P34" s="54"/>
-      <c r="Q34" s="227"/>
-      <c r="R34" s="227"/>
+      <c r="Q34" s="359"/>
+      <c r="R34" s="359"/>
       <c r="S34" s="54"/>
-      <c r="T34" s="232"/>
-      <c r="U34" s="232"/>
+      <c r="T34" s="360"/>
+      <c r="U34" s="360"/>
       <c r="V34" s="54"/>
-      <c r="W34" s="227"/>
-      <c r="X34" s="227"/>
-      <c r="Y34" s="227"/>
-      <c r="Z34" s="227"/>
-      <c r="AA34" s="227"/>
+      <c r="W34" s="359"/>
+      <c r="X34" s="359"/>
+      <c r="Y34" s="359"/>
+      <c r="Z34" s="359"/>
+      <c r="AA34" s="359"/>
       <c r="AB34" s="54"/>
-      <c r="AC34" s="227"/>
-      <c r="AD34" s="227"/>
-      <c r="AE34" s="227"/>
-      <c r="AF34" s="227"/>
-      <c r="AG34" s="227"/>
+      <c r="AC34" s="359"/>
+      <c r="AD34" s="359"/>
+      <c r="AE34" s="359"/>
+      <c r="AF34" s="359"/>
+      <c r="AG34" s="359"/>
       <c r="AH34" s="56"/>
-      <c r="AI34" s="227"/>
-      <c r="AJ34" s="227"/>
-      <c r="AK34" s="227"/>
-      <c r="AL34" s="227"/>
-      <c r="AM34" s="227"/>
+      <c r="AI34" s="359"/>
+      <c r="AJ34" s="359"/>
+      <c r="AK34" s="359"/>
+      <c r="AL34" s="359"/>
+      <c r="AM34" s="359"/>
       <c r="AN34" s="56"/>
-      <c r="AO34" s="228"/>
-      <c r="AP34" s="228"/>
-      <c r="AQ34" s="229"/>
-    </row>
-    <row r="35" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO34" s="352"/>
+      <c r="AP34" s="352"/>
+      <c r="AQ34" s="353"/>
+    </row>
+    <row r="35" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B35" s="57"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58" t="s">
@@ -4305,19 +4321,19 @@
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
-      <c r="H35" s="230" t="s">
+      <c r="H35" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="230"/>
-      <c r="J35" s="230"/>
-      <c r="K35" s="230"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="230"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="230"/>
-      <c r="P35" s="230"/>
-      <c r="Q35" s="230"/>
-      <c r="R35" s="230"/>
+      <c r="I35" s="354"/>
+      <c r="J35" s="354"/>
+      <c r="K35" s="354"/>
+      <c r="L35" s="354"/>
+      <c r="M35" s="354"/>
+      <c r="N35" s="354"/>
+      <c r="O35" s="354"/>
+      <c r="P35" s="354"/>
+      <c r="Q35" s="354"/>
+      <c r="R35" s="354"/>
       <c r="S35" s="54"/>
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
@@ -4327,21 +4343,21 @@
       <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
-      <c r="AC35" s="231"/>
-      <c r="AD35" s="231"/>
-      <c r="AE35" s="231"/>
-      <c r="AF35" s="231"/>
-      <c r="AG35" s="231"/>
-      <c r="AI35" s="231"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
+      <c r="AC35" s="355"/>
+      <c r="AD35" s="355"/>
+      <c r="AE35" s="355"/>
+      <c r="AF35" s="355"/>
+      <c r="AG35" s="355"/>
+      <c r="AI35" s="355"/>
+      <c r="AJ35" s="355"/>
+      <c r="AK35" s="355"/>
+      <c r="AL35" s="355"/>
+      <c r="AM35" s="355"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="60"/>
     </row>
-    <row r="36" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
@@ -4385,51 +4401,51 @@
       <c r="AP36" s="65"/>
       <c r="AQ36" s="66"/>
     </row>
-    <row r="37" spans="2:43" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
+      <c r="F37" s="359"/>
       <c r="G37" s="54"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="227"/>
+      <c r="H37" s="359"/>
+      <c r="I37" s="359"/>
+      <c r="J37" s="359"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="227"/>
-      <c r="M37" s="227"/>
-      <c r="N37" s="227"/>
-      <c r="O37" s="227"/>
+      <c r="L37" s="359"/>
+      <c r="M37" s="359"/>
+      <c r="N37" s="359"/>
+      <c r="O37" s="359"/>
       <c r="P37" s="54"/>
-      <c r="Q37" s="227"/>
-      <c r="R37" s="227"/>
+      <c r="Q37" s="359"/>
+      <c r="R37" s="359"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="232"/>
-      <c r="U37" s="232"/>
+      <c r="T37" s="360"/>
+      <c r="U37" s="360"/>
       <c r="V37" s="54"/>
-      <c r="W37" s="227"/>
-      <c r="X37" s="227"/>
-      <c r="Y37" s="227"/>
-      <c r="Z37" s="227"/>
-      <c r="AA37" s="227"/>
+      <c r="W37" s="359"/>
+      <c r="X37" s="359"/>
+      <c r="Y37" s="359"/>
+      <c r="Z37" s="359"/>
+      <c r="AA37" s="359"/>
       <c r="AB37" s="54"/>
-      <c r="AC37" s="227"/>
-      <c r="AD37" s="227"/>
-      <c r="AE37" s="227"/>
-      <c r="AF37" s="227"/>
-      <c r="AG37" s="227"/>
+      <c r="AC37" s="359"/>
+      <c r="AD37" s="359"/>
+      <c r="AE37" s="359"/>
+      <c r="AF37" s="359"/>
+      <c r="AG37" s="359"/>
       <c r="AH37" s="56"/>
-      <c r="AI37" s="227"/>
-      <c r="AJ37" s="227"/>
-      <c r="AK37" s="227"/>
-      <c r="AL37" s="227"/>
-      <c r="AM37" s="227"/>
+      <c r="AI37" s="359"/>
+      <c r="AJ37" s="359"/>
+      <c r="AK37" s="359"/>
+      <c r="AL37" s="359"/>
+      <c r="AM37" s="359"/>
       <c r="AN37" s="56"/>
-      <c r="AO37" s="228"/>
-      <c r="AP37" s="228"/>
-      <c r="AQ37" s="229"/>
-    </row>
-    <row r="38" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO37" s="352"/>
+      <c r="AP37" s="352"/>
+      <c r="AQ37" s="353"/>
+    </row>
+    <row r="38" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B38" s="57"/>
       <c r="C38" s="58"/>
       <c r="D38" s="58" t="s">
@@ -4438,19 +4454,19 @@
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="230" t="s">
+      <c r="H38" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="230"/>
-      <c r="J38" s="230"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="230"/>
-      <c r="M38" s="230"/>
-      <c r="N38" s="230"/>
-      <c r="O38" s="230"/>
-      <c r="P38" s="230"/>
-      <c r="Q38" s="230"/>
-      <c r="R38" s="230"/>
+      <c r="I38" s="354"/>
+      <c r="J38" s="354"/>
+      <c r="K38" s="354"/>
+      <c r="L38" s="354"/>
+      <c r="M38" s="354"/>
+      <c r="N38" s="354"/>
+      <c r="O38" s="354"/>
+      <c r="P38" s="354"/>
+      <c r="Q38" s="354"/>
+      <c r="R38" s="354"/>
       <c r="S38" s="54"/>
       <c r="T38" s="54"/>
       <c r="U38" s="54"/>
@@ -4460,21 +4476,21 @@
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
-      <c r="AC38" s="231"/>
-      <c r="AD38" s="231"/>
-      <c r="AE38" s="231"/>
-      <c r="AF38" s="231"/>
-      <c r="AG38" s="231"/>
-      <c r="AI38" s="231"/>
-      <c r="AJ38" s="231"/>
-      <c r="AK38" s="231"/>
-      <c r="AL38" s="231"/>
-      <c r="AM38" s="231"/>
+      <c r="AC38" s="355"/>
+      <c r="AD38" s="355"/>
+      <c r="AE38" s="355"/>
+      <c r="AF38" s="355"/>
+      <c r="AG38" s="355"/>
+      <c r="AI38" s="355"/>
+      <c r="AJ38" s="355"/>
+      <c r="AK38" s="355"/>
+      <c r="AL38" s="355"/>
+      <c r="AM38" s="355"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="60"/>
     </row>
-    <row r="39" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="61"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
@@ -4518,53 +4534,53 @@
       <c r="AP39" s="65"/>
       <c r="AQ39" s="66"/>
     </row>
-    <row r="40" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
       <c r="G40" s="54"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359"/>
+      <c r="J40" s="359"/>
       <c r="K40" s="54"/>
-      <c r="L40" s="227"/>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="227"/>
+      <c r="L40" s="359"/>
+      <c r="M40" s="359"/>
+      <c r="N40" s="359"/>
+      <c r="O40" s="359"/>
       <c r="P40" s="54"/>
-      <c r="Q40" s="227" t="s">
+      <c r="Q40" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R40" s="227"/>
+      <c r="R40" s="359"/>
       <c r="S40" s="54"/>
-      <c r="T40" s="232"/>
-      <c r="U40" s="232"/>
+      <c r="T40" s="360"/>
+      <c r="U40" s="360"/>
       <c r="V40" s="54"/>
-      <c r="W40" s="227"/>
-      <c r="X40" s="227"/>
-      <c r="Y40" s="227"/>
-      <c r="Z40" s="227"/>
-      <c r="AA40" s="227"/>
+      <c r="W40" s="359"/>
+      <c r="X40" s="359"/>
+      <c r="Y40" s="359"/>
+      <c r="Z40" s="359"/>
+      <c r="AA40" s="359"/>
       <c r="AB40" s="54"/>
-      <c r="AC40" s="227"/>
-      <c r="AD40" s="227"/>
-      <c r="AE40" s="227"/>
-      <c r="AF40" s="227"/>
-      <c r="AG40" s="227"/>
+      <c r="AC40" s="359"/>
+      <c r="AD40" s="359"/>
+      <c r="AE40" s="359"/>
+      <c r="AF40" s="359"/>
+      <c r="AG40" s="359"/>
       <c r="AH40" s="56"/>
-      <c r="AI40" s="227"/>
-      <c r="AJ40" s="227"/>
-      <c r="AK40" s="227"/>
-      <c r="AL40" s="227"/>
-      <c r="AM40" s="227"/>
+      <c r="AI40" s="359"/>
+      <c r="AJ40" s="359"/>
+      <c r="AK40" s="359"/>
+      <c r="AL40" s="359"/>
+      <c r="AM40" s="359"/>
       <c r="AN40" s="56"/>
-      <c r="AO40" s="228"/>
-      <c r="AP40" s="228"/>
-      <c r="AQ40" s="229"/>
-    </row>
-    <row r="41" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO40" s="352"/>
+      <c r="AP40" s="352"/>
+      <c r="AQ40" s="353"/>
+    </row>
+    <row r="41" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B41" s="57"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58" t="s">
@@ -4573,19 +4589,19 @@
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
       <c r="G41" s="58"/>
-      <c r="H41" s="230" t="s">
+      <c r="H41" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="230"/>
-      <c r="J41" s="230"/>
-      <c r="K41" s="230"/>
-      <c r="L41" s="230"/>
-      <c r="M41" s="230"/>
-      <c r="N41" s="230"/>
-      <c r="O41" s="230"/>
-      <c r="P41" s="230"/>
-      <c r="Q41" s="230"/>
-      <c r="R41" s="230"/>
+      <c r="I41" s="354"/>
+      <c r="J41" s="354"/>
+      <c r="K41" s="354"/>
+      <c r="L41" s="354"/>
+      <c r="M41" s="354"/>
+      <c r="N41" s="354"/>
+      <c r="O41" s="354"/>
+      <c r="P41" s="354"/>
+      <c r="Q41" s="354"/>
+      <c r="R41" s="354"/>
       <c r="S41" s="54"/>
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
@@ -4595,21 +4611,21 @@
       <c r="Z41" s="58"/>
       <c r="AA41" s="58"/>
       <c r="AB41" s="58"/>
-      <c r="AC41" s="231"/>
-      <c r="AD41" s="231"/>
-      <c r="AE41" s="231"/>
-      <c r="AF41" s="231"/>
-      <c r="AG41" s="231"/>
-      <c r="AI41" s="231"/>
-      <c r="AJ41" s="231"/>
-      <c r="AK41" s="231"/>
-      <c r="AL41" s="231"/>
-      <c r="AM41" s="231"/>
+      <c r="AC41" s="355"/>
+      <c r="AD41" s="355"/>
+      <c r="AE41" s="355"/>
+      <c r="AF41" s="355"/>
+      <c r="AG41" s="355"/>
+      <c r="AI41" s="355"/>
+      <c r="AJ41" s="355"/>
+      <c r="AK41" s="355"/>
+      <c r="AL41" s="355"/>
+      <c r="AM41" s="355"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="60"/>
     </row>
-    <row r="42" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="61"/>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -4653,53 +4669,53 @@
       <c r="AP42" s="65"/>
       <c r="AQ42" s="66"/>
     </row>
-    <row r="43" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="53"/>
       <c r="C43" s="54"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
+      <c r="F43" s="359"/>
       <c r="G43" s="54"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="227"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="359"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="227"/>
-      <c r="M43" s="227"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="227"/>
+      <c r="L43" s="359"/>
+      <c r="M43" s="359"/>
+      <c r="N43" s="359"/>
+      <c r="O43" s="359"/>
       <c r="P43" s="54"/>
-      <c r="Q43" s="227" t="s">
+      <c r="Q43" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="227"/>
+      <c r="R43" s="359"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="232"/>
-      <c r="U43" s="232"/>
+      <c r="T43" s="360"/>
+      <c r="U43" s="360"/>
       <c r="V43" s="54"/>
-      <c r="W43" s="227"/>
-      <c r="X43" s="227"/>
-      <c r="Y43" s="227"/>
-      <c r="Z43" s="227"/>
-      <c r="AA43" s="227"/>
+      <c r="W43" s="359"/>
+      <c r="X43" s="359"/>
+      <c r="Y43" s="359"/>
+      <c r="Z43" s="359"/>
+      <c r="AA43" s="359"/>
       <c r="AB43" s="54"/>
-      <c r="AC43" s="227"/>
-      <c r="AD43" s="227"/>
-      <c r="AE43" s="227"/>
-      <c r="AF43" s="227"/>
-      <c r="AG43" s="227"/>
+      <c r="AC43" s="359"/>
+      <c r="AD43" s="359"/>
+      <c r="AE43" s="359"/>
+      <c r="AF43" s="359"/>
+      <c r="AG43" s="359"/>
       <c r="AH43" s="56"/>
-      <c r="AI43" s="227"/>
-      <c r="AJ43" s="227"/>
-      <c r="AK43" s="227"/>
-      <c r="AL43" s="227"/>
-      <c r="AM43" s="227"/>
+      <c r="AI43" s="359"/>
+      <c r="AJ43" s="359"/>
+      <c r="AK43" s="359"/>
+      <c r="AL43" s="359"/>
+      <c r="AM43" s="359"/>
       <c r="AN43" s="56"/>
-      <c r="AO43" s="228"/>
-      <c r="AP43" s="228"/>
-      <c r="AQ43" s="229"/>
-    </row>
-    <row r="44" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO43" s="352"/>
+      <c r="AP43" s="352"/>
+      <c r="AQ43" s="353"/>
+    </row>
+    <row r="44" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B44" s="57"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58" t="s">
@@ -4708,19 +4724,19 @@
       <c r="E44" s="58"/>
       <c r="F44" s="58"/>
       <c r="G44" s="58"/>
-      <c r="H44" s="230" t="s">
+      <c r="H44" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="230"/>
-      <c r="J44" s="230"/>
-      <c r="K44" s="230"/>
-      <c r="L44" s="230"/>
-      <c r="M44" s="230"/>
-      <c r="N44" s="230"/>
-      <c r="O44" s="230"/>
-      <c r="P44" s="230"/>
-      <c r="Q44" s="230"/>
-      <c r="R44" s="230"/>
+      <c r="I44" s="354"/>
+      <c r="J44" s="354"/>
+      <c r="K44" s="354"/>
+      <c r="L44" s="354"/>
+      <c r="M44" s="354"/>
+      <c r="N44" s="354"/>
+      <c r="O44" s="354"/>
+      <c r="P44" s="354"/>
+      <c r="Q44" s="354"/>
+      <c r="R44" s="354"/>
       <c r="S44" s="54"/>
       <c r="T44" s="54"/>
       <c r="U44" s="54"/>
@@ -4730,21 +4746,21 @@
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58"/>
-      <c r="AC44" s="231"/>
-      <c r="AD44" s="231"/>
-      <c r="AE44" s="231"/>
-      <c r="AF44" s="231"/>
-      <c r="AG44" s="231"/>
-      <c r="AI44" s="231"/>
-      <c r="AJ44" s="231"/>
-      <c r="AK44" s="231"/>
-      <c r="AL44" s="231"/>
-      <c r="AM44" s="231"/>
+      <c r="AC44" s="355"/>
+      <c r="AD44" s="355"/>
+      <c r="AE44" s="355"/>
+      <c r="AF44" s="355"/>
+      <c r="AG44" s="355"/>
+      <c r="AI44" s="355"/>
+      <c r="AJ44" s="355"/>
+      <c r="AK44" s="355"/>
+      <c r="AL44" s="355"/>
+      <c r="AM44" s="355"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="60"/>
     </row>
-    <row r="45" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="61"/>
       <c r="C45" s="62"/>
       <c r="D45" s="62"/>
@@ -4788,53 +4804,53 @@
       <c r="AP45" s="65"/>
       <c r="AQ45" s="66"/>
     </row>
-    <row r="46" spans="2:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="53"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
+      <c r="D46" s="359"/>
+      <c r="E46" s="359"/>
+      <c r="F46" s="359"/>
       <c r="G46" s="54"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
+      <c r="H46" s="359"/>
+      <c r="I46" s="359"/>
+      <c r="J46" s="359"/>
       <c r="K46" s="54"/>
-      <c r="L46" s="227"/>
-      <c r="M46" s="227"/>
-      <c r="N46" s="227"/>
-      <c r="O46" s="227"/>
+      <c r="L46" s="359"/>
+      <c r="M46" s="359"/>
+      <c r="N46" s="359"/>
+      <c r="O46" s="359"/>
       <c r="P46" s="54"/>
-      <c r="Q46" s="227" t="s">
+      <c r="Q46" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R46" s="227"/>
+      <c r="R46" s="359"/>
       <c r="S46" s="54"/>
-      <c r="T46" s="232"/>
-      <c r="U46" s="232"/>
+      <c r="T46" s="360"/>
+      <c r="U46" s="360"/>
       <c r="V46" s="54"/>
-      <c r="W46" s="227"/>
-      <c r="X46" s="227"/>
-      <c r="Y46" s="227"/>
-      <c r="Z46" s="227"/>
-      <c r="AA46" s="227"/>
+      <c r="W46" s="359"/>
+      <c r="X46" s="359"/>
+      <c r="Y46" s="359"/>
+      <c r="Z46" s="359"/>
+      <c r="AA46" s="359"/>
       <c r="AB46" s="54"/>
-      <c r="AC46" s="227"/>
-      <c r="AD46" s="227"/>
-      <c r="AE46" s="227"/>
-      <c r="AF46" s="227"/>
-      <c r="AG46" s="227"/>
+      <c r="AC46" s="359"/>
+      <c r="AD46" s="359"/>
+      <c r="AE46" s="359"/>
+      <c r="AF46" s="359"/>
+      <c r="AG46" s="359"/>
       <c r="AH46" s="56"/>
-      <c r="AI46" s="227"/>
-      <c r="AJ46" s="227"/>
-      <c r="AK46" s="227"/>
-      <c r="AL46" s="227"/>
-      <c r="AM46" s="227"/>
+      <c r="AI46" s="359"/>
+      <c r="AJ46" s="359"/>
+      <c r="AK46" s="359"/>
+      <c r="AL46" s="359"/>
+      <c r="AM46" s="359"/>
       <c r="AN46" s="56"/>
-      <c r="AO46" s="228"/>
-      <c r="AP46" s="228"/>
-      <c r="AQ46" s="229"/>
-    </row>
-    <row r="47" spans="2:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO46" s="352"/>
+      <c r="AP46" s="352"/>
+      <c r="AQ46" s="353"/>
+    </row>
+    <row r="47" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B47" s="57"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58" t="s">
@@ -4843,19 +4859,19 @@
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47" s="58"/>
-      <c r="H47" s="230" t="s">
+      <c r="H47" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="230"/>
-      <c r="J47" s="230"/>
-      <c r="K47" s="230"/>
-      <c r="L47" s="230"/>
-      <c r="M47" s="230"/>
-      <c r="N47" s="230"/>
-      <c r="O47" s="230"/>
-      <c r="P47" s="230"/>
-      <c r="Q47" s="230"/>
-      <c r="R47" s="230"/>
+      <c r="I47" s="354"/>
+      <c r="J47" s="354"/>
+      <c r="K47" s="354"/>
+      <c r="L47" s="354"/>
+      <c r="M47" s="354"/>
+      <c r="N47" s="354"/>
+      <c r="O47" s="354"/>
+      <c r="P47" s="354"/>
+      <c r="Q47" s="354"/>
+      <c r="R47" s="354"/>
       <c r="S47" s="54"/>
       <c r="T47" s="54"/>
       <c r="U47" s="54"/>
@@ -4865,21 +4881,21 @@
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58"/>
-      <c r="AC47" s="231"/>
-      <c r="AD47" s="231"/>
-      <c r="AE47" s="231"/>
-      <c r="AF47" s="231"/>
-      <c r="AG47" s="231"/>
-      <c r="AI47" s="231"/>
-      <c r="AJ47" s="231"/>
-      <c r="AK47" s="231"/>
-      <c r="AL47" s="231"/>
-      <c r="AM47" s="231"/>
+      <c r="AC47" s="355"/>
+      <c r="AD47" s="355"/>
+      <c r="AE47" s="355"/>
+      <c r="AF47" s="355"/>
+      <c r="AG47" s="355"/>
+      <c r="AI47" s="355"/>
+      <c r="AJ47" s="355"/>
+      <c r="AK47" s="355"/>
+      <c r="AL47" s="355"/>
+      <c r="AM47" s="355"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="60"/>
     </row>
-    <row r="48" spans="2:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="61"/>
       <c r="C48" s="62"/>
       <c r="D48" s="62"/>
@@ -4923,53 +4939,53 @@
       <c r="AP48" s="65"/>
       <c r="AQ48" s="66"/>
     </row>
-    <row r="49" spans="1:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="53"/>
       <c r="C49" s="54"/>
-      <c r="D49" s="227"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="227"/>
+      <c r="D49" s="359"/>
+      <c r="E49" s="359"/>
+      <c r="F49" s="359"/>
       <c r="G49" s="54"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="227"/>
-      <c r="J49" s="227"/>
+      <c r="H49" s="359"/>
+      <c r="I49" s="359"/>
+      <c r="J49" s="359"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="227"/>
-      <c r="M49" s="227"/>
-      <c r="N49" s="227"/>
-      <c r="O49" s="227"/>
+      <c r="L49" s="359"/>
+      <c r="M49" s="359"/>
+      <c r="N49" s="359"/>
+      <c r="O49" s="359"/>
       <c r="P49" s="54"/>
-      <c r="Q49" s="227" t="s">
+      <c r="Q49" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R49" s="227"/>
+      <c r="R49" s="359"/>
       <c r="S49" s="54"/>
-      <c r="T49" s="232"/>
-      <c r="U49" s="232"/>
+      <c r="T49" s="360"/>
+      <c r="U49" s="360"/>
       <c r="V49" s="54"/>
-      <c r="W49" s="227"/>
-      <c r="X49" s="227"/>
-      <c r="Y49" s="227"/>
-      <c r="Z49" s="227"/>
-      <c r="AA49" s="227"/>
+      <c r="W49" s="359"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
       <c r="AB49" s="54"/>
-      <c r="AC49" s="227"/>
-      <c r="AD49" s="227"/>
-      <c r="AE49" s="227"/>
-      <c r="AF49" s="227"/>
-      <c r="AG49" s="227"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="359"/>
       <c r="AH49" s="56"/>
-      <c r="AI49" s="227"/>
-      <c r="AJ49" s="227"/>
-      <c r="AK49" s="227"/>
-      <c r="AL49" s="227"/>
-      <c r="AM49" s="227"/>
+      <c r="AI49" s="359"/>
+      <c r="AJ49" s="359"/>
+      <c r="AK49" s="359"/>
+      <c r="AL49" s="359"/>
+      <c r="AM49" s="359"/>
       <c r="AN49" s="56"/>
-      <c r="AO49" s="228"/>
-      <c r="AP49" s="228"/>
-      <c r="AQ49" s="229"/>
-    </row>
-    <row r="50" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO49" s="352"/>
+      <c r="AP49" s="352"/>
+      <c r="AQ49" s="353"/>
+    </row>
+    <row r="50" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B50" s="57"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58" t="s">
@@ -4978,19 +4994,19 @@
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
-      <c r="H50" s="230" t="s">
+      <c r="H50" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="230"/>
-      <c r="J50" s="230"/>
-      <c r="K50" s="230"/>
-      <c r="L50" s="230"/>
-      <c r="M50" s="230"/>
-      <c r="N50" s="230"/>
-      <c r="O50" s="230"/>
-      <c r="P50" s="230"/>
-      <c r="Q50" s="230"/>
-      <c r="R50" s="230"/>
+      <c r="I50" s="354"/>
+      <c r="J50" s="354"/>
+      <c r="K50" s="354"/>
+      <c r="L50" s="354"/>
+      <c r="M50" s="354"/>
+      <c r="N50" s="354"/>
+      <c r="O50" s="354"/>
+      <c r="P50" s="354"/>
+      <c r="Q50" s="354"/>
+      <c r="R50" s="354"/>
       <c r="S50" s="54"/>
       <c r="T50" s="54"/>
       <c r="U50" s="54"/>
@@ -5000,21 +5016,21 @@
       <c r="Z50" s="58"/>
       <c r="AA50" s="58"/>
       <c r="AB50" s="58"/>
-      <c r="AC50" s="231"/>
-      <c r="AD50" s="231"/>
-      <c r="AE50" s="231"/>
-      <c r="AF50" s="231"/>
-      <c r="AG50" s="231"/>
-      <c r="AI50" s="231"/>
-      <c r="AJ50" s="231"/>
-      <c r="AK50" s="231"/>
-      <c r="AL50" s="231"/>
-      <c r="AM50" s="231"/>
+      <c r="AC50" s="355"/>
+      <c r="AD50" s="355"/>
+      <c r="AE50" s="355"/>
+      <c r="AF50" s="355"/>
+      <c r="AG50" s="355"/>
+      <c r="AI50" s="355"/>
+      <c r="AJ50" s="355"/>
+      <c r="AK50" s="355"/>
+      <c r="AL50" s="355"/>
+      <c r="AM50" s="355"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="60"/>
     </row>
-    <row r="51" spans="1:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="61"/>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -5058,53 +5074,53 @@
       <c r="AP51" s="65"/>
       <c r="AQ51" s="66"/>
     </row>
-    <row r="52" spans="1:43" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="53"/>
       <c r="C52" s="54"/>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
+      <c r="D52" s="359"/>
+      <c r="E52" s="359"/>
+      <c r="F52" s="359"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="227"/>
+      <c r="H52" s="359"/>
+      <c r="I52" s="359"/>
+      <c r="J52" s="359"/>
       <c r="K52" s="54"/>
       <c r="L52" s="55"/>
-      <c r="M52" s="227"/>
-      <c r="N52" s="227"/>
-      <c r="O52" s="227"/>
+      <c r="M52" s="359"/>
+      <c r="N52" s="359"/>
+      <c r="O52" s="359"/>
       <c r="P52" s="54"/>
-      <c r="Q52" s="227" t="s">
+      <c r="Q52" s="359" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="227"/>
+      <c r="R52" s="359"/>
       <c r="S52" s="54"/>
-      <c r="T52" s="232"/>
-      <c r="U52" s="232"/>
+      <c r="T52" s="360"/>
+      <c r="U52" s="360"/>
       <c r="V52" s="54"/>
-      <c r="W52" s="227"/>
-      <c r="X52" s="227"/>
-      <c r="Y52" s="227"/>
-      <c r="Z52" s="227"/>
-      <c r="AA52" s="227"/>
+      <c r="W52" s="359"/>
+      <c r="X52" s="359"/>
+      <c r="Y52" s="359"/>
+      <c r="Z52" s="359"/>
+      <c r="AA52" s="359"/>
       <c r="AB52" s="54"/>
-      <c r="AC52" s="227"/>
-      <c r="AD52" s="227"/>
-      <c r="AE52" s="227"/>
-      <c r="AF52" s="227"/>
-      <c r="AG52" s="227"/>
+      <c r="AC52" s="359"/>
+      <c r="AD52" s="359"/>
+      <c r="AE52" s="359"/>
+      <c r="AF52" s="359"/>
+      <c r="AG52" s="359"/>
       <c r="AH52" s="56"/>
-      <c r="AI52" s="227"/>
-      <c r="AJ52" s="227"/>
-      <c r="AK52" s="227"/>
-      <c r="AL52" s="227"/>
-      <c r="AM52" s="227"/>
+      <c r="AI52" s="359"/>
+      <c r="AJ52" s="359"/>
+      <c r="AK52" s="359"/>
+      <c r="AL52" s="359"/>
+      <c r="AM52" s="359"/>
       <c r="AN52" s="56"/>
-      <c r="AO52" s="228"/>
-      <c r="AP52" s="228"/>
-      <c r="AQ52" s="229"/>
-    </row>
-    <row r="53" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO52" s="352"/>
+      <c r="AP52" s="352"/>
+      <c r="AQ52" s="353"/>
+    </row>
+    <row r="53" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B53" s="57"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58" t="s">
@@ -5113,19 +5129,19 @@
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
-      <c r="H53" s="230" t="s">
+      <c r="H53" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="I53" s="230"/>
-      <c r="J53" s="230"/>
-      <c r="K53" s="230"/>
-      <c r="L53" s="230"/>
-      <c r="M53" s="230"/>
-      <c r="N53" s="230"/>
-      <c r="O53" s="230"/>
-      <c r="P53" s="230"/>
-      <c r="Q53" s="230"/>
-      <c r="R53" s="230"/>
+      <c r="I53" s="354"/>
+      <c r="J53" s="354"/>
+      <c r="K53" s="354"/>
+      <c r="L53" s="354"/>
+      <c r="M53" s="354"/>
+      <c r="N53" s="354"/>
+      <c r="O53" s="354"/>
+      <c r="P53" s="354"/>
+      <c r="Q53" s="354"/>
+      <c r="R53" s="354"/>
       <c r="S53" s="54"/>
       <c r="T53" s="54"/>
       <c r="U53" s="54"/>
@@ -5135,21 +5151,21 @@
       <c r="Z53" s="58"/>
       <c r="AA53" s="58"/>
       <c r="AB53" s="58"/>
-      <c r="AC53" s="231"/>
-      <c r="AD53" s="231"/>
-      <c r="AE53" s="231"/>
-      <c r="AF53" s="231"/>
-      <c r="AG53" s="231"/>
-      <c r="AI53" s="231"/>
-      <c r="AJ53" s="231"/>
-      <c r="AK53" s="231"/>
-      <c r="AL53" s="231"/>
-      <c r="AM53" s="231"/>
+      <c r="AC53" s="355"/>
+      <c r="AD53" s="355"/>
+      <c r="AE53" s="355"/>
+      <c r="AF53" s="355"/>
+      <c r="AG53" s="355"/>
+      <c r="AI53" s="355"/>
+      <c r="AJ53" s="355"/>
+      <c r="AK53" s="355"/>
+      <c r="AL53" s="355"/>
+      <c r="AM53" s="355"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="60"/>
     </row>
-    <row r="54" spans="1:43" s="6" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" s="6" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="67"/>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
@@ -5193,7 +5209,7 @@
       <c r="AP54" s="71"/>
       <c r="AQ54" s="72"/>
     </row>
-    <row r="55" spans="1:43" s="6" customFormat="1" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
@@ -5274,192 +5290,192 @@
       <c r="AQ56" s="76"/>
     </row>
     <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="233" t="s">
+      <c r="B57" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="234"/>
-      <c r="D57" s="234"/>
-      <c r="E57" s="234"/>
-      <c r="F57" s="234"/>
-      <c r="G57" s="234"/>
-      <c r="H57" s="234"/>
-      <c r="I57" s="234"/>
-      <c r="J57" s="234"/>
-      <c r="K57" s="230" t="s">
+      <c r="C57" s="357"/>
+      <c r="D57" s="357"/>
+      <c r="E57" s="357"/>
+      <c r="F57" s="357"/>
+      <c r="G57" s="357"/>
+      <c r="H57" s="357"/>
+      <c r="I57" s="357"/>
+      <c r="J57" s="357"/>
+      <c r="K57" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="L57" s="230"/>
-      <c r="M57" s="230" t="s">
+      <c r="L57" s="354"/>
+      <c r="M57" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="230"/>
-      <c r="O57" s="230"/>
-      <c r="P57" s="230"/>
-      <c r="Q57" s="234" t="s">
+      <c r="N57" s="354"/>
+      <c r="O57" s="354"/>
+      <c r="P57" s="354"/>
+      <c r="Q57" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="R57" s="234"/>
-      <c r="S57" s="234"/>
-      <c r="T57" s="234"/>
-      <c r="U57" s="234"/>
-      <c r="V57" s="234"/>
-      <c r="W57" s="234"/>
-      <c r="X57" s="234"/>
-      <c r="Y57" s="234"/>
-      <c r="Z57" s="234"/>
-      <c r="AA57" s="234"/>
-      <c r="AB57" s="234" t="s">
+      <c r="R57" s="357"/>
+      <c r="S57" s="357"/>
+      <c r="T57" s="357"/>
+      <c r="U57" s="357"/>
+      <c r="V57" s="357"/>
+      <c r="W57" s="357"/>
+      <c r="X57" s="357"/>
+      <c r="Y57" s="357"/>
+      <c r="Z57" s="357"/>
+      <c r="AA57" s="357"/>
+      <c r="AB57" s="357" t="s">
         <v>40</v>
       </c>
-      <c r="AC57" s="234"/>
-      <c r="AD57" s="234"/>
-      <c r="AE57" s="234"/>
-      <c r="AF57" s="234"/>
-      <c r="AG57" s="234"/>
-      <c r="AH57" s="234"/>
-      <c r="AI57" s="234"/>
-      <c r="AJ57" s="234"/>
-      <c r="AK57" s="234"/>
-      <c r="AL57" s="234"/>
-      <c r="AM57" s="234"/>
-      <c r="AN57" s="234"/>
-      <c r="AO57" s="234"/>
-      <c r="AP57" s="234"/>
-      <c r="AQ57" s="235"/>
-    </row>
-    <row r="58" spans="1:43" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="236"/>
-      <c r="C58" s="237"/>
-      <c r="D58" s="237"/>
-      <c r="E58" s="237"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="238"/>
-      <c r="K58" s="239"/>
-      <c r="L58" s="240"/>
-      <c r="M58" s="239"/>
-      <c r="N58" s="241"/>
-      <c r="O58" s="241"/>
-      <c r="P58" s="240"/>
-      <c r="Q58" s="239"/>
-      <c r="R58" s="241"/>
-      <c r="S58" s="241"/>
-      <c r="T58" s="241"/>
-      <c r="U58" s="241"/>
-      <c r="V58" s="241"/>
-      <c r="W58" s="241"/>
-      <c r="X58" s="241"/>
-      <c r="Y58" s="241"/>
-      <c r="Z58" s="241"/>
-      <c r="AA58" s="240"/>
-      <c r="AB58" s="239"/>
-      <c r="AC58" s="241"/>
-      <c r="AD58" s="241"/>
-      <c r="AE58" s="241"/>
-      <c r="AF58" s="241"/>
-      <c r="AG58" s="241"/>
-      <c r="AH58" s="241"/>
-      <c r="AI58" s="241"/>
-      <c r="AJ58" s="241"/>
-      <c r="AK58" s="241"/>
-      <c r="AL58" s="241"/>
-      <c r="AM58" s="241"/>
-      <c r="AN58" s="241"/>
-      <c r="AO58" s="241"/>
-      <c r="AP58" s="241"/>
-      <c r="AQ58" s="240"/>
-    </row>
-    <row r="59" spans="1:43" ht="6.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC57" s="357"/>
+      <c r="AD57" s="357"/>
+      <c r="AE57" s="357"/>
+      <c r="AF57" s="357"/>
+      <c r="AG57" s="357"/>
+      <c r="AH57" s="357"/>
+      <c r="AI57" s="357"/>
+      <c r="AJ57" s="357"/>
+      <c r="AK57" s="357"/>
+      <c r="AL57" s="357"/>
+      <c r="AM57" s="357"/>
+      <c r="AN57" s="357"/>
+      <c r="AO57" s="357"/>
+      <c r="AP57" s="357"/>
+      <c r="AQ57" s="358"/>
+    </row>
+    <row r="58" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="324"/>
+      <c r="C58" s="325"/>
+      <c r="D58" s="325"/>
+      <c r="E58" s="325"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="325"/>
+      <c r="H58" s="325"/>
+      <c r="I58" s="325"/>
+      <c r="J58" s="326"/>
+      <c r="K58" s="327"/>
+      <c r="L58" s="328"/>
+      <c r="M58" s="327"/>
+      <c r="N58" s="329"/>
+      <c r="O58" s="329"/>
+      <c r="P58" s="328"/>
+      <c r="Q58" s="327"/>
+      <c r="R58" s="329"/>
+      <c r="S58" s="329"/>
+      <c r="T58" s="329"/>
+      <c r="U58" s="329"/>
+      <c r="V58" s="329"/>
+      <c r="W58" s="329"/>
+      <c r="X58" s="329"/>
+      <c r="Y58" s="329"/>
+      <c r="Z58" s="329"/>
+      <c r="AA58" s="328"/>
+      <c r="AB58" s="327"/>
+      <c r="AC58" s="329"/>
+      <c r="AD58" s="329"/>
+      <c r="AE58" s="329"/>
+      <c r="AF58" s="329"/>
+      <c r="AG58" s="329"/>
+      <c r="AH58" s="329"/>
+      <c r="AI58" s="329"/>
+      <c r="AJ58" s="329"/>
+      <c r="AK58" s="329"/>
+      <c r="AL58" s="329"/>
+      <c r="AM58" s="329"/>
+      <c r="AN58" s="329"/>
+      <c r="AO58" s="329"/>
+      <c r="AP58" s="329"/>
+      <c r="AQ58" s="328"/>
+    </row>
+    <row r="59" spans="1:43" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="79"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="242"/>
-      <c r="G59" s="242"/>
-      <c r="H59" s="242"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
-      <c r="K59" s="242"/>
-      <c r="L59" s="242"/>
-      <c r="M59" s="242"/>
-      <c r="N59" s="242"/>
-      <c r="O59" s="242"/>
-      <c r="P59" s="242"/>
-      <c r="Q59" s="242"/>
-      <c r="R59" s="242"/>
-      <c r="S59" s="242"/>
-      <c r="T59" s="242"/>
-      <c r="U59" s="242"/>
-      <c r="V59" s="242"/>
-      <c r="W59" s="242"/>
-      <c r="X59" s="242"/>
-      <c r="Y59" s="242"/>
-      <c r="Z59" s="242"/>
-      <c r="AA59" s="242"/>
-      <c r="AB59" s="242"/>
-      <c r="AC59" s="242"/>
-      <c r="AD59" s="242"/>
-      <c r="AE59" s="242"/>
-      <c r="AF59" s="242"/>
-      <c r="AG59" s="242"/>
-      <c r="AH59" s="242"/>
-      <c r="AI59" s="242"/>
-      <c r="AJ59" s="242"/>
-      <c r="AK59" s="242"/>
-      <c r="AL59" s="242"/>
-      <c r="AM59" s="242"/>
-      <c r="AN59" s="242"/>
-      <c r="AO59" s="242"/>
-      <c r="AP59" s="242"/>
-      <c r="AQ59" s="242"/>
+      <c r="C59" s="330"/>
+      <c r="D59" s="330"/>
+      <c r="E59" s="330"/>
+      <c r="F59" s="330"/>
+      <c r="G59" s="330"/>
+      <c r="H59" s="330"/>
+      <c r="I59" s="330"/>
+      <c r="J59" s="330"/>
+      <c r="K59" s="330"/>
+      <c r="L59" s="330"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="330"/>
+      <c r="O59" s="330"/>
+      <c r="P59" s="330"/>
+      <c r="Q59" s="330"/>
+      <c r="R59" s="330"/>
+      <c r="S59" s="330"/>
+      <c r="T59" s="330"/>
+      <c r="U59" s="330"/>
+      <c r="V59" s="330"/>
+      <c r="W59" s="330"/>
+      <c r="X59" s="330"/>
+      <c r="Y59" s="330"/>
+      <c r="Z59" s="330"/>
+      <c r="AA59" s="330"/>
+      <c r="AB59" s="330"/>
+      <c r="AC59" s="330"/>
+      <c r="AD59" s="330"/>
+      <c r="AE59" s="330"/>
+      <c r="AF59" s="330"/>
+      <c r="AG59" s="330"/>
+      <c r="AH59" s="330"/>
+      <c r="AI59" s="330"/>
+      <c r="AJ59" s="330"/>
+      <c r="AK59" s="330"/>
+      <c r="AL59" s="330"/>
+      <c r="AM59" s="330"/>
+      <c r="AN59" s="330"/>
+      <c r="AO59" s="330"/>
+      <c r="AP59" s="330"/>
+      <c r="AQ59" s="330"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="243"/>
-      <c r="D60" s="243"/>
-      <c r="E60" s="243"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="243"/>
-      <c r="J60" s="243"/>
-      <c r="K60" s="243"/>
-      <c r="L60" s="243"/>
-      <c r="M60" s="243"/>
-      <c r="N60" s="243"/>
-      <c r="O60" s="243"/>
-      <c r="P60" s="243"/>
-      <c r="Q60" s="243"/>
-      <c r="R60" s="243"/>
-      <c r="S60" s="243"/>
-      <c r="T60" s="243"/>
-      <c r="U60" s="243"/>
-      <c r="V60" s="243"/>
-      <c r="W60" s="243"/>
-      <c r="X60" s="243"/>
-      <c r="Y60" s="243"/>
-      <c r="Z60" s="243"/>
-      <c r="AA60" s="243"/>
-      <c r="AB60" s="243"/>
-      <c r="AC60" s="243"/>
-      <c r="AD60" s="243"/>
-      <c r="AE60" s="243"/>
-      <c r="AF60" s="243"/>
-      <c r="AG60" s="243"/>
-      <c r="AH60" s="243"/>
-      <c r="AI60" s="243"/>
-      <c r="AJ60" s="243"/>
-      <c r="AK60" s="243"/>
-      <c r="AL60" s="243"/>
-      <c r="AM60" s="243"/>
-      <c r="AN60" s="243"/>
-      <c r="AO60" s="243"/>
-      <c r="AP60" s="243"/>
-      <c r="AQ60" s="244"/>
+      <c r="C60" s="331"/>
+      <c r="D60" s="331"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="331"/>
+      <c r="G60" s="331"/>
+      <c r="H60" s="331"/>
+      <c r="I60" s="331"/>
+      <c r="J60" s="331"/>
+      <c r="K60" s="331"/>
+      <c r="L60" s="331"/>
+      <c r="M60" s="331"/>
+      <c r="N60" s="331"/>
+      <c r="O60" s="331"/>
+      <c r="P60" s="331"/>
+      <c r="Q60" s="331"/>
+      <c r="R60" s="331"/>
+      <c r="S60" s="331"/>
+      <c r="T60" s="331"/>
+      <c r="U60" s="331"/>
+      <c r="V60" s="331"/>
+      <c r="W60" s="331"/>
+      <c r="X60" s="331"/>
+      <c r="Y60" s="331"/>
+      <c r="Z60" s="331"/>
+      <c r="AA60" s="331"/>
+      <c r="AB60" s="331"/>
+      <c r="AC60" s="331"/>
+      <c r="AD60" s="331"/>
+      <c r="AE60" s="331"/>
+      <c r="AF60" s="331"/>
+      <c r="AG60" s="331"/>
+      <c r="AH60" s="331"/>
+      <c r="AI60" s="331"/>
+      <c r="AJ60" s="331"/>
+      <c r="AK60" s="331"/>
+      <c r="AL60" s="331"/>
+      <c r="AM60" s="331"/>
+      <c r="AN60" s="331"/>
+      <c r="AO60" s="331"/>
+      <c r="AP60" s="331"/>
+      <c r="AQ60" s="332"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="81"/>
@@ -5635,184 +5651,184 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="175" t="s">
+      <c r="F66" s="333" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="175"/>
-      <c r="H66" s="175"/>
-      <c r="I66" s="175"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="175"/>
-      <c r="L66" s="175"/>
-      <c r="M66" s="175"/>
-      <c r="N66" s="175"/>
-      <c r="O66" s="175"/>
+      <c r="G66" s="333"/>
+      <c r="H66" s="333"/>
+      <c r="I66" s="333"/>
+      <c r="J66" s="333"/>
+      <c r="K66" s="333"/>
+      <c r="L66" s="333"/>
+      <c r="M66" s="333"/>
+      <c r="N66" s="333"/>
+      <c r="O66" s="333"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="176" t="s">
+      <c r="R66" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="S66" s="177"/>
-      <c r="T66" s="177"/>
-      <c r="U66" s="177"/>
-      <c r="V66" s="177"/>
-      <c r="W66" s="177"/>
-      <c r="X66" s="177"/>
-      <c r="Y66" s="177"/>
-      <c r="Z66" s="177"/>
-      <c r="AA66" s="177"/>
-      <c r="AB66" s="177"/>
-      <c r="AC66" s="177"/>
-      <c r="AD66" s="177"/>
-      <c r="AE66" s="177"/>
-      <c r="AF66" s="177"/>
-      <c r="AG66" s="177"/>
-      <c r="AH66" s="177"/>
-      <c r="AI66" s="177"/>
-      <c r="AJ66" s="177"/>
-      <c r="AK66" s="177"/>
-      <c r="AL66" s="177"/>
-      <c r="AM66" s="177"/>
-      <c r="AN66" s="177"/>
-      <c r="AO66" s="177"/>
-      <c r="AP66" s="177"/>
-      <c r="AQ66" s="178"/>
+      <c r="S66" s="335"/>
+      <c r="T66" s="335"/>
+      <c r="U66" s="335"/>
+      <c r="V66" s="335"/>
+      <c r="W66" s="335"/>
+      <c r="X66" s="335"/>
+      <c r="Y66" s="335"/>
+      <c r="Z66" s="335"/>
+      <c r="AA66" s="335"/>
+      <c r="AB66" s="335"/>
+      <c r="AC66" s="335"/>
+      <c r="AD66" s="335"/>
+      <c r="AE66" s="335"/>
+      <c r="AF66" s="335"/>
+      <c r="AG66" s="335"/>
+      <c r="AH66" s="335"/>
+      <c r="AI66" s="335"/>
+      <c r="AJ66" s="335"/>
+      <c r="AK66" s="335"/>
+      <c r="AL66" s="335"/>
+      <c r="AM66" s="335"/>
+      <c r="AN66" s="335"/>
+      <c r="AO66" s="335"/>
+      <c r="AP66" s="335"/>
+      <c r="AQ66" s="336"/>
     </row>
     <row r="67" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="175"/>
-      <c r="G67" s="175"/>
-      <c r="H67" s="175"/>
-      <c r="I67" s="175"/>
-      <c r="J67" s="175"/>
-      <c r="K67" s="175"/>
-      <c r="L67" s="175"/>
-      <c r="M67" s="175"/>
-      <c r="N67" s="175"/>
-      <c r="O67" s="175"/>
+      <c r="F67" s="333"/>
+      <c r="G67" s="333"/>
+      <c r="H67" s="333"/>
+      <c r="I67" s="333"/>
+      <c r="J67" s="333"/>
+      <c r="K67" s="333"/>
+      <c r="L67" s="333"/>
+      <c r="M67" s="333"/>
+      <c r="N67" s="333"/>
+      <c r="O67" s="333"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="179" t="s">
+      <c r="R67" s="337" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="180"/>
-      <c r="T67" s="180"/>
-      <c r="U67" s="180"/>
-      <c r="V67" s="181"/>
-      <c r="W67" s="179" t="s">
+      <c r="S67" s="338"/>
+      <c r="T67" s="338"/>
+      <c r="U67" s="338"/>
+      <c r="V67" s="339"/>
+      <c r="W67" s="337" t="s">
         <v>3</v>
       </c>
-      <c r="X67" s="180"/>
-      <c r="Y67" s="180"/>
-      <c r="Z67" s="180"/>
-      <c r="AA67" s="180"/>
-      <c r="AB67" s="180"/>
-      <c r="AC67" s="180"/>
-      <c r="AD67" s="180"/>
-      <c r="AE67" s="180"/>
-      <c r="AF67" s="180"/>
-      <c r="AG67" s="180"/>
-      <c r="AH67" s="181"/>
-      <c r="AI67" s="179" t="s">
+      <c r="X67" s="338"/>
+      <c r="Y67" s="338"/>
+      <c r="Z67" s="338"/>
+      <c r="AA67" s="338"/>
+      <c r="AB67" s="338"/>
+      <c r="AC67" s="338"/>
+      <c r="AD67" s="338"/>
+      <c r="AE67" s="338"/>
+      <c r="AF67" s="338"/>
+      <c r="AG67" s="338"/>
+      <c r="AH67" s="339"/>
+      <c r="AI67" s="337" t="s">
         <v>4</v>
       </c>
-      <c r="AJ67" s="180"/>
-      <c r="AK67" s="180"/>
-      <c r="AL67" s="180"/>
-      <c r="AM67" s="180"/>
-      <c r="AN67" s="180"/>
-      <c r="AO67" s="180"/>
-      <c r="AP67" s="180"/>
-      <c r="AQ67" s="181"/>
+      <c r="AJ67" s="338"/>
+      <c r="AK67" s="338"/>
+      <c r="AL67" s="338"/>
+      <c r="AM67" s="338"/>
+      <c r="AN67" s="338"/>
+      <c r="AO67" s="338"/>
+      <c r="AP67" s="338"/>
+      <c r="AQ67" s="339"/>
     </row>
     <row r="68" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="175"/>
-      <c r="H68" s="175"/>
-      <c r="I68" s="175"/>
-      <c r="J68" s="175"/>
-      <c r="K68" s="175"/>
-      <c r="L68" s="175"/>
-      <c r="M68" s="175"/>
-      <c r="N68" s="175"/>
-      <c r="O68" s="175"/>
+      <c r="F68" s="333"/>
+      <c r="G68" s="333"/>
+      <c r="H68" s="333"/>
+      <c r="I68" s="333"/>
+      <c r="J68" s="333"/>
+      <c r="K68" s="333"/>
+      <c r="L68" s="333"/>
+      <c r="M68" s="333"/>
+      <c r="N68" s="333"/>
+      <c r="O68" s="333"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="182"/>
-      <c r="S68" s="183"/>
-      <c r="T68" s="183"/>
-      <c r="U68" s="183"/>
-      <c r="V68" s="184"/>
-      <c r="W68" s="188"/>
-      <c r="X68" s="189"/>
-      <c r="Y68" s="189"/>
-      <c r="Z68" s="189"/>
-      <c r="AA68" s="189"/>
-      <c r="AB68" s="189"/>
-      <c r="AC68" s="189"/>
-      <c r="AD68" s="189"/>
-      <c r="AE68" s="189"/>
-      <c r="AF68" s="189"/>
-      <c r="AG68" s="189"/>
-      <c r="AH68" s="190"/>
-      <c r="AI68" s="191" t="s">
+      <c r="R68" s="340"/>
+      <c r="S68" s="341"/>
+      <c r="T68" s="341"/>
+      <c r="U68" s="341"/>
+      <c r="V68" s="342"/>
+      <c r="W68" s="346"/>
+      <c r="X68" s="347"/>
+      <c r="Y68" s="347"/>
+      <c r="Z68" s="347"/>
+      <c r="AA68" s="347"/>
+      <c r="AB68" s="347"/>
+      <c r="AC68" s="347"/>
+      <c r="AD68" s="347"/>
+      <c r="AE68" s="347"/>
+      <c r="AF68" s="347"/>
+      <c r="AG68" s="347"/>
+      <c r="AH68" s="348"/>
+      <c r="AI68" s="295" t="s">
         <v>5</v>
       </c>
-      <c r="AJ68" s="192"/>
-      <c r="AK68" s="192"/>
-      <c r="AL68" s="192"/>
-      <c r="AM68" s="192"/>
-      <c r="AN68" s="192"/>
-      <c r="AO68" s="192"/>
-      <c r="AP68" s="192"/>
-      <c r="AQ68" s="193"/>
+      <c r="AJ68" s="296"/>
+      <c r="AK68" s="296"/>
+      <c r="AL68" s="296"/>
+      <c r="AM68" s="296"/>
+      <c r="AN68" s="296"/>
+      <c r="AO68" s="296"/>
+      <c r="AP68" s="296"/>
+      <c r="AQ68" s="299"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="175"/>
-      <c r="G69" s="175"/>
-      <c r="H69" s="175"/>
-      <c r="I69" s="175"/>
-      <c r="J69" s="175"/>
-      <c r="K69" s="175"/>
-      <c r="L69" s="175"/>
-      <c r="M69" s="175"/>
-      <c r="N69" s="175"/>
-      <c r="O69" s="175"/>
+      <c r="F69" s="333"/>
+      <c r="G69" s="333"/>
+      <c r="H69" s="333"/>
+      <c r="I69" s="333"/>
+      <c r="J69" s="333"/>
+      <c r="K69" s="333"/>
+      <c r="L69" s="333"/>
+      <c r="M69" s="333"/>
+      <c r="N69" s="333"/>
+      <c r="O69" s="333"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="185"/>
-      <c r="S69" s="186"/>
-      <c r="T69" s="186"/>
-      <c r="U69" s="186"/>
-      <c r="V69" s="187"/>
-      <c r="W69" s="185"/>
-      <c r="X69" s="186"/>
-      <c r="Y69" s="186"/>
-      <c r="Z69" s="186"/>
-      <c r="AA69" s="186"/>
-      <c r="AB69" s="186"/>
-      <c r="AC69" s="186"/>
-      <c r="AD69" s="186"/>
-      <c r="AE69" s="186"/>
-      <c r="AF69" s="186"/>
-      <c r="AG69" s="186"/>
-      <c r="AH69" s="187"/>
-      <c r="AI69" s="245"/>
-      <c r="AJ69" s="246"/>
-      <c r="AK69" s="246"/>
-      <c r="AL69" s="246"/>
-      <c r="AM69" s="246"/>
-      <c r="AN69" s="246"/>
-      <c r="AO69" s="246"/>
-      <c r="AP69" s="246"/>
-      <c r="AQ69" s="247"/>
+      <c r="R69" s="343"/>
+      <c r="S69" s="344"/>
+      <c r="T69" s="344"/>
+      <c r="U69" s="344"/>
+      <c r="V69" s="345"/>
+      <c r="W69" s="343"/>
+      <c r="X69" s="344"/>
+      <c r="Y69" s="344"/>
+      <c r="Z69" s="344"/>
+      <c r="AA69" s="344"/>
+      <c r="AB69" s="344"/>
+      <c r="AC69" s="344"/>
+      <c r="AD69" s="344"/>
+      <c r="AE69" s="344"/>
+      <c r="AF69" s="344"/>
+      <c r="AG69" s="344"/>
+      <c r="AH69" s="345"/>
+      <c r="AI69" s="349"/>
+      <c r="AJ69" s="350"/>
+      <c r="AK69" s="350"/>
+      <c r="AL69" s="350"/>
+      <c r="AM69" s="350"/>
+      <c r="AN69" s="350"/>
+      <c r="AO69" s="350"/>
+      <c r="AP69" s="350"/>
+      <c r="AQ69" s="351"/>
     </row>
     <row r="70" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="59"/>
@@ -5858,7 +5874,7 @@
       <c r="AP70" s="59"/>
       <c r="AQ70" s="59"/>
     </row>
-    <row r="71" spans="1:43" s="26" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:43" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="7" t="s">
         <v>42</v>
@@ -5950,7 +5966,7 @@
       <c r="AP72" s="95"/>
       <c r="AQ72" s="97"/>
     </row>
-    <row r="73" spans="1:43" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:43" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="93"/>
       <c r="C73" s="98" t="s">
@@ -5959,19 +5975,19 @@
       <c r="D73" s="99"/>
       <c r="E73" s="100"/>
       <c r="F73" s="100"/>
-      <c r="G73" s="224" t="s">
+      <c r="G73" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="224"/>
-      <c r="I73" s="224"/>
+      <c r="H73" s="191"/>
+      <c r="I73" s="191"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="225" t="s">
+      <c r="K73" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="225"/>
-      <c r="M73" s="225"/>
-      <c r="N73" s="225"/>
-      <c r="O73" s="225"/>
+      <c r="L73" s="315"/>
+      <c r="M73" s="315"/>
+      <c r="N73" s="315"/>
+      <c r="O73" s="315"/>
       <c r="P73" s="99"/>
       <c r="Q73" s="99"/>
       <c r="R73" s="99"/>
@@ -5991,15 +6007,15 @@
       <c r="AF73" s="99"/>
       <c r="AG73" s="101"/>
       <c r="AH73" s="101"/>
-      <c r="AI73" s="248" t="s">
+      <c r="AI73" s="321" t="s">
         <v>46</v>
       </c>
-      <c r="AJ73" s="248"/>
-      <c r="AK73" s="248"/>
-      <c r="AL73" s="248"/>
-      <c r="AM73" s="248"/>
-      <c r="AN73" s="248"/>
-      <c r="AO73" s="248"/>
+      <c r="AJ73" s="321"/>
+      <c r="AK73" s="321"/>
+      <c r="AL73" s="321"/>
+      <c r="AM73" s="321"/>
+      <c r="AN73" s="321"/>
+      <c r="AO73" s="321"/>
       <c r="AP73" s="95"/>
       <c r="AQ73" s="97"/>
     </row>
@@ -6014,32 +6030,32 @@
       <c r="F74" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="249"/>
-      <c r="H74" s="249"/>
-      <c r="I74" s="249"/>
+      <c r="G74" s="313"/>
+      <c r="H74" s="313"/>
+      <c r="I74" s="313"/>
       <c r="J74" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="K74" s="250"/>
-      <c r="L74" s="250"/>
-      <c r="M74" s="250"/>
-      <c r="N74" s="250"/>
-      <c r="O74" s="250"/>
+      <c r="K74" s="322"/>
+      <c r="L74" s="322"/>
+      <c r="M74" s="322"/>
+      <c r="N74" s="322"/>
+      <c r="O74" s="322"/>
       <c r="P74" s="95" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="R74" s="251">
+      <c r="R74" s="319">
         <f>PRODUCT(G74,K74)</f>
         <v>0</v>
       </c>
-      <c r="S74" s="251"/>
-      <c r="T74" s="251"/>
-      <c r="U74" s="251"/>
-      <c r="V74" s="251"/>
-      <c r="W74" s="251"/>
+      <c r="S74" s="319"/>
+      <c r="T74" s="319"/>
+      <c r="U74" s="319"/>
+      <c r="V74" s="319"/>
+      <c r="W74" s="319"/>
       <c r="X74" s="95"/>
       <c r="Y74" s="95"/>
       <c r="Z74" s="95"/>
@@ -6056,15 +6072,15 @@
       <c r="AI74" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ74" s="252">
+      <c r="AJ74" s="309">
         <f>+R74</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="252"/>
-      <c r="AL74" s="252"/>
-      <c r="AM74" s="252"/>
-      <c r="AN74" s="252"/>
-      <c r="AO74" s="252"/>
+      <c r="AK74" s="309"/>
+      <c r="AL74" s="309"/>
+      <c r="AM74" s="309"/>
+      <c r="AN74" s="309"/>
+      <c r="AO74" s="309"/>
       <c r="AP74" s="96"/>
       <c r="AQ74" s="97"/>
     </row>
@@ -6075,19 +6091,19 @@
       <c r="D75" s="95"/>
       <c r="E75" s="58"/>
       <c r="F75" s="58"/>
-      <c r="G75" s="253" t="s">
+      <c r="G75" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="253"/>
-      <c r="I75" s="253"/>
+      <c r="H75" s="323"/>
+      <c r="I75" s="323"/>
       <c r="J75" s="102"/>
-      <c r="K75" s="254" t="s">
+      <c r="K75" s="311" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="254"/>
-      <c r="M75" s="254"/>
-      <c r="N75" s="254"/>
-      <c r="O75" s="254"/>
+      <c r="L75" s="311"/>
+      <c r="M75" s="311"/>
+      <c r="N75" s="311"/>
+      <c r="O75" s="311"/>
       <c r="P75" s="95"/>
       <c r="Q75" s="95"/>
       <c r="R75" s="95"/>
@@ -6128,32 +6144,32 @@
       <c r="F76" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="255"/>
-      <c r="H76" s="255"/>
-      <c r="I76" s="255"/>
+      <c r="G76" s="317"/>
+      <c r="H76" s="317"/>
+      <c r="I76" s="317"/>
       <c r="J76" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="256"/>
-      <c r="L76" s="256"/>
-      <c r="M76" s="256"/>
-      <c r="N76" s="256"/>
-      <c r="O76" s="256"/>
+      <c r="K76" s="318"/>
+      <c r="L76" s="318"/>
+      <c r="M76" s="318"/>
+      <c r="N76" s="318"/>
+      <c r="O76" s="318"/>
       <c r="P76" s="95" t="s">
         <v>50</v>
       </c>
       <c r="Q76" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="251">
+      <c r="R76" s="319">
         <f>PRODUCT(G76,K76)</f>
         <v>0</v>
       </c>
-      <c r="S76" s="251"/>
-      <c r="T76" s="251"/>
-      <c r="U76" s="251"/>
-      <c r="V76" s="251"/>
-      <c r="W76" s="251"/>
+      <c r="S76" s="319"/>
+      <c r="T76" s="319"/>
+      <c r="U76" s="319"/>
+      <c r="V76" s="319"/>
+      <c r="W76" s="319"/>
       <c r="X76" s="95"/>
       <c r="Y76" s="95"/>
       <c r="Z76" s="95"/>
@@ -6170,15 +6186,15 @@
       <c r="AI76" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ76" s="252">
+      <c r="AJ76" s="309">
         <f>+R76</f>
         <v>0</v>
       </c>
-      <c r="AK76" s="252"/>
-      <c r="AL76" s="252"/>
-      <c r="AM76" s="252"/>
-      <c r="AN76" s="252"/>
-      <c r="AO76" s="252"/>
+      <c r="AK76" s="309"/>
+      <c r="AL76" s="309"/>
+      <c r="AM76" s="309"/>
+      <c r="AN76" s="309"/>
+      <c r="AO76" s="309"/>
       <c r="AP76" s="96"/>
       <c r="AQ76" s="97"/>
     </row>
@@ -6269,15 +6285,15 @@
       <c r="AI78" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ78" s="252">
+      <c r="AJ78" s="309">
         <f>+AJ74+AJ76</f>
         <v>0</v>
       </c>
-      <c r="AK78" s="252"/>
-      <c r="AL78" s="252"/>
-      <c r="AM78" s="252"/>
-      <c r="AN78" s="252"/>
-      <c r="AO78" s="252"/>
+      <c r="AK78" s="309"/>
+      <c r="AL78" s="309"/>
+      <c r="AM78" s="309"/>
+      <c r="AN78" s="309"/>
+      <c r="AO78" s="309"/>
       <c r="AP78" s="96"/>
       <c r="AQ78" s="97"/>
     </row>
@@ -6294,23 +6310,23 @@
         <v>53</v>
       </c>
       <c r="J79" s="95"/>
-      <c r="K79" s="257"/>
-      <c r="L79" s="257"/>
-      <c r="M79" s="257"/>
-      <c r="N79" s="257"/>
-      <c r="O79" s="257"/>
-      <c r="P79" s="257"/>
-      <c r="Q79" s="257"/>
-      <c r="R79" s="257"/>
-      <c r="S79" s="389">
+      <c r="K79" s="320"/>
+      <c r="L79" s="320"/>
+      <c r="M79" s="320"/>
+      <c r="N79" s="320"/>
+      <c r="O79" s="320"/>
+      <c r="P79" s="320"/>
+      <c r="Q79" s="320"/>
+      <c r="R79" s="320"/>
+      <c r="S79" s="188">
         <v>0</v>
       </c>
-      <c r="T79" s="389"/>
-      <c r="U79" s="390" t="s">
+      <c r="T79" s="188"/>
+      <c r="U79" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="V79" s="388"/>
-      <c r="W79" s="388"/>
+      <c r="V79" s="190"/>
+      <c r="W79" s="190"/>
       <c r="X79" s="95"/>
       <c r="Y79" s="95"/>
       <c r="Z79" s="95"/>
@@ -6329,15 +6345,15 @@
       <c r="AI79" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ79" s="258">
+      <c r="AJ79" s="310">
         <f>AJ78*S79</f>
         <v>0</v>
       </c>
-      <c r="AK79" s="258"/>
-      <c r="AL79" s="258"/>
-      <c r="AM79" s="258"/>
-      <c r="AN79" s="258"/>
-      <c r="AO79" s="258"/>
+      <c r="AK79" s="310"/>
+      <c r="AL79" s="310"/>
+      <c r="AM79" s="310"/>
+      <c r="AN79" s="310"/>
+      <c r="AO79" s="310"/>
       <c r="AP79" s="96"/>
       <c r="AQ79" s="97"/>
     </row>
@@ -6383,19 +6399,19 @@
       <c r="AI80" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ80" s="258">
+      <c r="AJ80" s="310">
         <f>+AJ78+(AJ79*S79)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="258"/>
-      <c r="AL80" s="258"/>
-      <c r="AM80" s="258"/>
-      <c r="AN80" s="258"/>
-      <c r="AO80" s="258"/>
+      <c r="AK80" s="310"/>
+      <c r="AL80" s="310"/>
+      <c r="AM80" s="310"/>
+      <c r="AN80" s="310"/>
+      <c r="AO80" s="310"/>
       <c r="AP80" s="96"/>
       <c r="AQ80" s="97"/>
     </row>
-    <row r="81" spans="1:43" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:43" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="105"/>
       <c r="C81" s="98" t="s">
@@ -6459,27 +6475,27 @@
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="225" t="s">
+      <c r="M82" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="N82" s="225"/>
-      <c r="O82" s="225"/>
-      <c r="P82" s="225"/>
+      <c r="N82" s="315"/>
+      <c r="O82" s="315"/>
+      <c r="P82" s="315"/>
       <c r="Q82" s="43"/>
-      <c r="R82" s="225"/>
-      <c r="S82" s="225"/>
-      <c r="T82" s="225"/>
-      <c r="U82" s="225"/>
+      <c r="R82" s="315"/>
+      <c r="S82" s="315"/>
+      <c r="T82" s="315"/>
+      <c r="U82" s="315"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="225" t="s">
+      <c r="X82" s="315" t="s">
         <v>59</v>
       </c>
-      <c r="Y82" s="225"/>
-      <c r="Z82" s="225"/>
-      <c r="AA82" s="225"/>
-      <c r="AB82" s="225"/>
-      <c r="AC82" s="225"/>
+      <c r="Y82" s="315"/>
+      <c r="Z82" s="315"/>
+      <c r="AA82" s="315"/>
+      <c r="AB82" s="315"/>
+      <c r="AC82" s="315"/>
       <c r="AD82" s="43"/>
       <c r="AE82" s="43"/>
       <c r="AF82" s="44"/>
@@ -6500,11 +6516,11 @@
     <row r="83" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="259" t="s">
+      <c r="C83" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="259"/>
-      <c r="E83" s="259"/>
+      <c r="D83" s="312"/>
+      <c r="E83" s="312"/>
       <c r="F83" s="13" t="s">
         <v>48</v>
       </c>
@@ -6522,33 +6538,33 @@
       <c r="L83" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M83" s="252">
+      <c r="M83" s="309">
         <f>+J83*G83</f>
         <v>0</v>
       </c>
-      <c r="N83" s="252"/>
-      <c r="O83" s="252"/>
-      <c r="P83" s="252"/>
+      <c r="N83" s="309"/>
+      <c r="O83" s="309"/>
+      <c r="P83" s="309"/>
       <c r="Q83" s="116"/>
-      <c r="R83" s="260"/>
-      <c r="S83" s="260"/>
-      <c r="T83" s="260"/>
-      <c r="U83" s="260"/>
+      <c r="R83" s="316"/>
+      <c r="S83" s="316"/>
+      <c r="T83" s="316"/>
+      <c r="U83" s="316"/>
       <c r="V83" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W83" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X83" s="252">
+      <c r="X83" s="309">
         <f>+M83+R83</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="252"/>
-      <c r="Z83" s="252"/>
-      <c r="AA83" s="252"/>
-      <c r="AB83" s="252"/>
-      <c r="AC83" s="252"/>
+      <c r="Y83" s="309"/>
+      <c r="Z83" s="309"/>
+      <c r="AA83" s="309"/>
+      <c r="AB83" s="309"/>
+      <c r="AC83" s="309"/>
       <c r="AD83" s="117"/>
       <c r="AE83" s="117"/>
       <c r="AF83" s="118"/>
@@ -6557,15 +6573,15 @@
       <c r="AI83" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ83" s="252">
+      <c r="AJ83" s="309">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="AK83" s="252"/>
-      <c r="AL83" s="252"/>
-      <c r="AM83" s="252"/>
-      <c r="AN83" s="252"/>
-      <c r="AO83" s="252"/>
+      <c r="AK83" s="309"/>
+      <c r="AL83" s="309"/>
+      <c r="AM83" s="309"/>
+      <c r="AN83" s="309"/>
+      <c r="AO83" s="309"/>
       <c r="AP83" s="119"/>
       <c r="AQ83" s="120"/>
     </row>
@@ -6586,27 +6602,27 @@
       </c>
       <c r="K84" s="43"/>
       <c r="L84" s="43"/>
-      <c r="M84" s="254" t="s">
+      <c r="M84" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N84" s="254"/>
-      <c r="O84" s="254"/>
-      <c r="P84" s="254"/>
+      <c r="N84" s="311"/>
+      <c r="O84" s="311"/>
+      <c r="P84" s="311"/>
       <c r="Q84" s="43"/>
-      <c r="R84" s="225"/>
-      <c r="S84" s="225"/>
-      <c r="T84" s="225"/>
-      <c r="U84" s="225"/>
+      <c r="R84" s="315"/>
+      <c r="S84" s="315"/>
+      <c r="T84" s="315"/>
+      <c r="U84" s="315"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="254" t="s">
+      <c r="X84" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y84" s="254"/>
-      <c r="Z84" s="254"/>
-      <c r="AA84" s="254"/>
-      <c r="AB84" s="254"/>
-      <c r="AC84" s="254"/>
+      <c r="Y84" s="311"/>
+      <c r="Z84" s="311"/>
+      <c r="AA84" s="311"/>
+      <c r="AB84" s="311"/>
+      <c r="AC84" s="311"/>
       <c r="AD84" s="43"/>
       <c r="AE84" s="43"/>
       <c r="AF84" s="44"/>
@@ -6624,18 +6640,18 @@
     </row>
     <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
-      <c r="C85" s="259" t="s">
+      <c r="C85" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="259"/>
-      <c r="E85" s="259"/>
+      <c r="D85" s="312"/>
+      <c r="E85" s="312"/>
       <c r="F85" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G85" s="112">
         <v>12.75</v>
       </c>
-      <c r="H85" s="391"/>
+      <c r="H85" s="175"/>
       <c r="I85" s="114" t="s">
         <v>49</v>
       </c>
@@ -6646,33 +6662,33 @@
       <c r="L85" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M85" s="252">
+      <c r="M85" s="309">
         <f>+J85*G85</f>
         <v>0</v>
       </c>
-      <c r="N85" s="252"/>
-      <c r="O85" s="252"/>
-      <c r="P85" s="252"/>
+      <c r="N85" s="309"/>
+      <c r="O85" s="309"/>
+      <c r="P85" s="309"/>
       <c r="Q85" s="116"/>
-      <c r="R85" s="260"/>
-      <c r="S85" s="260"/>
-      <c r="T85" s="260"/>
-      <c r="U85" s="260"/>
+      <c r="R85" s="316"/>
+      <c r="S85" s="316"/>
+      <c r="T85" s="316"/>
+      <c r="U85" s="316"/>
       <c r="V85" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W85" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X85" s="252">
+      <c r="X85" s="309">
         <f>+M85+R85</f>
         <v>0</v>
       </c>
-      <c r="Y85" s="252"/>
-      <c r="Z85" s="252"/>
-      <c r="AA85" s="252"/>
-      <c r="AB85" s="252"/>
-      <c r="AC85" s="252"/>
+      <c r="Y85" s="309"/>
+      <c r="Z85" s="309"/>
+      <c r="AA85" s="309"/>
+      <c r="AB85" s="309"/>
+      <c r="AC85" s="309"/>
       <c r="AD85" s="117"/>
       <c r="AE85" s="117"/>
       <c r="AF85" s="118"/>
@@ -6705,27 +6721,27 @@
       </c>
       <c r="K86" s="43"/>
       <c r="L86" s="43"/>
-      <c r="M86" s="254" t="s">
+      <c r="M86" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N86" s="254"/>
-      <c r="O86" s="254"/>
-      <c r="P86" s="254"/>
+      <c r="N86" s="311"/>
+      <c r="O86" s="311"/>
+      <c r="P86" s="311"/>
       <c r="Q86" s="43"/>
-      <c r="R86" s="225"/>
-      <c r="S86" s="225"/>
-      <c r="T86" s="225"/>
-      <c r="U86" s="225"/>
+      <c r="R86" s="315"/>
+      <c r="S86" s="315"/>
+      <c r="T86" s="315"/>
+      <c r="U86" s="315"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="254" t="s">
+      <c r="X86" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y86" s="254"/>
-      <c r="Z86" s="254"/>
-      <c r="AA86" s="254"/>
-      <c r="AB86" s="254"/>
-      <c r="AC86" s="254"/>
+      <c r="Y86" s="311"/>
+      <c r="Z86" s="311"/>
+      <c r="AA86" s="311"/>
+      <c r="AB86" s="311"/>
+      <c r="AC86" s="311"/>
       <c r="AD86" s="43"/>
       <c r="AE86" s="43"/>
       <c r="AF86" s="44"/>
@@ -6746,18 +6762,18 @@
     <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="259" t="s">
+      <c r="C87" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="259"/>
-      <c r="E87" s="259"/>
+      <c r="D87" s="312"/>
+      <c r="E87" s="312"/>
       <c r="F87" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G87" s="112">
         <v>14.75</v>
       </c>
-      <c r="H87" s="391"/>
+      <c r="H87" s="175"/>
       <c r="I87" s="114" t="s">
         <v>49</v>
       </c>
@@ -6768,33 +6784,33 @@
       <c r="L87" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M87" s="252">
+      <c r="M87" s="309">
         <f>+J87*G87</f>
         <v>0</v>
       </c>
-      <c r="N87" s="252"/>
-      <c r="O87" s="252"/>
-      <c r="P87" s="252"/>
+      <c r="N87" s="309"/>
+      <c r="O87" s="309"/>
+      <c r="P87" s="309"/>
       <c r="Q87" s="116"/>
-      <c r="R87" s="260"/>
-      <c r="S87" s="260"/>
-      <c r="T87" s="260"/>
-      <c r="U87" s="260"/>
+      <c r="R87" s="316"/>
+      <c r="S87" s="316"/>
+      <c r="T87" s="316"/>
+      <c r="U87" s="316"/>
       <c r="V87" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W87" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X87" s="252">
+      <c r="X87" s="309">
         <f>+M87+R87</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="252"/>
-      <c r="Z87" s="252"/>
-      <c r="AA87" s="252"/>
-      <c r="AB87" s="252"/>
-      <c r="AC87" s="252"/>
+      <c r="Y87" s="309"/>
+      <c r="Z87" s="309"/>
+      <c r="AA87" s="309"/>
+      <c r="AB87" s="309"/>
+      <c r="AC87" s="309"/>
       <c r="AD87" s="117"/>
       <c r="AE87" s="117"/>
       <c r="AF87" s="118"/>
@@ -6803,15 +6819,15 @@
       <c r="AI87" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ87" s="252">
+      <c r="AJ87" s="309">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="AK87" s="252"/>
-      <c r="AL87" s="252"/>
-      <c r="AM87" s="252"/>
-      <c r="AN87" s="252"/>
-      <c r="AO87" s="252"/>
+      <c r="AK87" s="309"/>
+      <c r="AL87" s="309"/>
+      <c r="AM87" s="309"/>
+      <c r="AN87" s="309"/>
+      <c r="AO87" s="309"/>
       <c r="AP87" s="119"/>
       <c r="AQ87" s="120"/>
     </row>
@@ -6832,27 +6848,27 @@
       </c>
       <c r="K88" s="43"/>
       <c r="L88" s="43"/>
-      <c r="M88" s="254" t="s">
+      <c r="M88" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N88" s="254"/>
-      <c r="O88" s="254"/>
-      <c r="P88" s="254"/>
+      <c r="N88" s="311"/>
+      <c r="O88" s="311"/>
+      <c r="P88" s="311"/>
       <c r="Q88" s="43"/>
-      <c r="R88" s="225"/>
-      <c r="S88" s="225"/>
-      <c r="T88" s="225"/>
-      <c r="U88" s="225"/>
+      <c r="R88" s="315"/>
+      <c r="S88" s="315"/>
+      <c r="T88" s="315"/>
+      <c r="U88" s="315"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="254" t="s">
+      <c r="X88" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y88" s="254"/>
-      <c r="Z88" s="254"/>
-      <c r="AA88" s="254"/>
-      <c r="AB88" s="254"/>
-      <c r="AC88" s="254"/>
+      <c r="Y88" s="311"/>
+      <c r="Z88" s="311"/>
+      <c r="AA88" s="311"/>
+      <c r="AB88" s="311"/>
+      <c r="AC88" s="311"/>
       <c r="AD88" s="43"/>
       <c r="AE88" s="43"/>
       <c r="AF88" s="44"/>
@@ -6871,18 +6887,18 @@
     <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="122"/>
-      <c r="C89" s="259" t="s">
+      <c r="C89" s="312" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="259"/>
-      <c r="E89" s="259"/>
+      <c r="D89" s="312"/>
+      <c r="E89" s="312"/>
       <c r="F89" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G89" s="112">
         <v>25.5</v>
       </c>
-      <c r="H89" s="391"/>
+      <c r="H89" s="175"/>
       <c r="I89" s="114" t="s">
         <v>49</v>
       </c>
@@ -6893,36 +6909,33 @@
       <c r="L89" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M89" s="252">
+      <c r="M89" s="309">
         <f>+J89*G89</f>
         <v>0</v>
       </c>
-      <c r="N89" s="252"/>
-      <c r="O89" s="252"/>
-      <c r="P89" s="252"/>
+      <c r="N89" s="309"/>
+      <c r="O89" s="309"/>
+      <c r="P89" s="309"/>
       <c r="Q89" s="116"/>
-      <c r="R89" s="252">
-        <f>PRODUCT(M89, S79)</f>
-        <v>0</v>
-      </c>
-      <c r="S89" s="252"/>
-      <c r="T89" s="252"/>
-      <c r="U89" s="252"/>
+      <c r="R89" s="392"/>
+      <c r="S89" s="392"/>
+      <c r="T89" s="392"/>
+      <c r="U89" s="392"/>
       <c r="V89" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X89" s="252">
+      <c r="X89" s="309">
         <f>+M89+R89</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="252"/>
-      <c r="Z89" s="252"/>
-      <c r="AA89" s="252"/>
-      <c r="AB89" s="252"/>
-      <c r="AC89" s="252"/>
+      <c r="Y89" s="309"/>
+      <c r="Z89" s="309"/>
+      <c r="AA89" s="309"/>
+      <c r="AB89" s="309"/>
+      <c r="AC89" s="309"/>
       <c r="AD89" s="117"/>
       <c r="AE89" s="117"/>
       <c r="AF89" s="118"/>
@@ -6955,29 +6968,29 @@
       </c>
       <c r="K90" s="43"/>
       <c r="L90" s="43"/>
-      <c r="M90" s="254" t="s">
+      <c r="M90" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N90" s="254"/>
-      <c r="O90" s="254"/>
-      <c r="P90" s="254"/>
+      <c r="N90" s="311"/>
+      <c r="O90" s="311"/>
+      <c r="P90" s="311"/>
       <c r="Q90" s="43"/>
-      <c r="R90" s="254" t="s">
+      <c r="R90" s="393" t="s">
         <v>54</v>
       </c>
-      <c r="S90" s="254"/>
-      <c r="T90" s="254"/>
-      <c r="U90" s="254"/>
+      <c r="S90" s="393"/>
+      <c r="T90" s="393"/>
+      <c r="U90" s="393"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="254" t="s">
+      <c r="X90" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y90" s="254"/>
-      <c r="Z90" s="254"/>
-      <c r="AA90" s="254"/>
-      <c r="AB90" s="254"/>
-      <c r="AC90" s="254"/>
+      <c r="Y90" s="311"/>
+      <c r="Z90" s="311"/>
+      <c r="AA90" s="311"/>
+      <c r="AB90" s="311"/>
+      <c r="AC90" s="311"/>
       <c r="AD90" s="43"/>
       <c r="AE90" s="43"/>
       <c r="AF90" s="44"/>
@@ -6998,11 +7011,11 @@
     <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="122"/>
-      <c r="C91" s="259" t="s">
+      <c r="C91" s="312" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="259"/>
-      <c r="E91" s="259"/>
+      <c r="D91" s="312"/>
+      <c r="E91" s="312"/>
       <c r="F91" s="13" t="s">
         <v>48</v>
       </c>
@@ -7018,38 +7031,38 @@
       <c r="L91" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M91" s="252">
+      <c r="M91" s="309">
         <f>+J91*G91</f>
         <v>0</v>
       </c>
-      <c r="N91" s="252"/>
-      <c r="O91" s="252"/>
-      <c r="P91" s="252"/>
+      <c r="N91" s="309"/>
+      <c r="O91" s="309"/>
+      <c r="P91" s="309"/>
       <c r="Q91" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="R91" s="252">
+      <c r="R91" s="309">
         <f>PRODUCT(M91, S79)</f>
         <v>0</v>
       </c>
-      <c r="S91" s="252"/>
-      <c r="T91" s="252"/>
-      <c r="U91" s="252"/>
+      <c r="S91" s="309"/>
+      <c r="T91" s="309"/>
+      <c r="U91" s="309"/>
       <c r="V91" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W91" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X91" s="252">
+      <c r="X91" s="309">
         <f>+M91+R91</f>
         <v>0</v>
       </c>
-      <c r="Y91" s="252"/>
-      <c r="Z91" s="252"/>
-      <c r="AA91" s="252"/>
-      <c r="AB91" s="252"/>
-      <c r="AC91" s="252"/>
+      <c r="Y91" s="309"/>
+      <c r="Z91" s="309"/>
+      <c r="AA91" s="309"/>
+      <c r="AB91" s="309"/>
+      <c r="AC91" s="309"/>
       <c r="AD91" s="117"/>
       <c r="AE91" s="117"/>
       <c r="AF91" s="118"/>
@@ -7058,15 +7071,15 @@
       <c r="AI91" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ91" s="252">
+      <c r="AJ91" s="309">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="AK91" s="252"/>
-      <c r="AL91" s="252"/>
-      <c r="AM91" s="252"/>
-      <c r="AN91" s="252"/>
-      <c r="AO91" s="252"/>
+      <c r="AK91" s="309"/>
+      <c r="AL91" s="309"/>
+      <c r="AM91" s="309"/>
+      <c r="AN91" s="309"/>
+      <c r="AO91" s="309"/>
       <c r="AP91" s="119"/>
       <c r="AQ91" s="123"/>
     </row>
@@ -7083,29 +7096,29 @@
       <c r="J92" s="43"/>
       <c r="K92" s="43"/>
       <c r="L92" s="43"/>
-      <c r="M92" s="254" t="s">
+      <c r="M92" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N92" s="254"/>
-      <c r="O92" s="254"/>
-      <c r="P92" s="254"/>
+      <c r="N92" s="311"/>
+      <c r="O92" s="311"/>
+      <c r="P92" s="311"/>
       <c r="Q92" s="43"/>
-      <c r="R92" s="254" t="s">
+      <c r="R92" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="S92" s="254"/>
-      <c r="T92" s="254"/>
-      <c r="U92" s="254"/>
+      <c r="S92" s="311"/>
+      <c r="T92" s="311"/>
+      <c r="U92" s="311"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="254" t="s">
+      <c r="X92" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y92" s="254"/>
-      <c r="Z92" s="254"/>
-      <c r="AA92" s="254"/>
-      <c r="AB92" s="254"/>
-      <c r="AC92" s="254"/>
+      <c r="Y92" s="311"/>
+      <c r="Z92" s="311"/>
+      <c r="AA92" s="311"/>
+      <c r="AB92" s="311"/>
+      <c r="AC92" s="311"/>
       <c r="AD92" s="43"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="129"/>
@@ -7124,56 +7137,56 @@
     <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="122"/>
-      <c r="C93" s="259" t="s">
+      <c r="C93" s="312" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="259"/>
-      <c r="E93" s="259"/>
+      <c r="D93" s="312"/>
+      <c r="E93" s="312"/>
       <c r="F93" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="249"/>
-      <c r="H93" s="249"/>
-      <c r="I93" s="249"/>
-      <c r="J93" s="249"/>
+      <c r="G93" s="313"/>
+      <c r="H93" s="313"/>
+      <c r="I93" s="313"/>
+      <c r="J93" s="313"/>
       <c r="K93" s="116" t="s">
         <v>50</v>
       </c>
       <c r="L93" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M93" s="252">
+      <c r="M93" s="309">
         <f>+G93</f>
         <v>0</v>
       </c>
-      <c r="N93" s="252"/>
-      <c r="O93" s="252"/>
-      <c r="P93" s="252"/>
+      <c r="N93" s="309"/>
+      <c r="O93" s="309"/>
+      <c r="P93" s="309"/>
       <c r="Q93" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="R93" s="252">
+      <c r="R93" s="309">
         <f>PRODUCT(M93, S83)</f>
         <v>0</v>
       </c>
-      <c r="S93" s="252"/>
-      <c r="T93" s="252"/>
-      <c r="U93" s="252"/>
+      <c r="S93" s="309"/>
+      <c r="T93" s="309"/>
+      <c r="U93" s="309"/>
       <c r="V93" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W93" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X93" s="252">
+      <c r="X93" s="309">
         <f>+M93+R93</f>
         <v>0</v>
       </c>
-      <c r="Y93" s="252"/>
-      <c r="Z93" s="252"/>
-      <c r="AA93" s="252"/>
-      <c r="AB93" s="252"/>
-      <c r="AC93" s="252"/>
+      <c r="Y93" s="309"/>
+      <c r="Z93" s="309"/>
+      <c r="AA93" s="309"/>
+      <c r="AB93" s="309"/>
+      <c r="AC93" s="309"/>
       <c r="AD93" s="117"/>
       <c r="AE93" s="117"/>
       <c r="AF93" s="27"/>
@@ -7202,29 +7215,29 @@
       <c r="J94" s="43"/>
       <c r="K94" s="43"/>
       <c r="L94" s="43"/>
-      <c r="M94" s="254" t="s">
+      <c r="M94" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="N94" s="254"/>
-      <c r="O94" s="254"/>
-      <c r="P94" s="254"/>
+      <c r="N94" s="311"/>
+      <c r="O94" s="311"/>
+      <c r="P94" s="311"/>
       <c r="Q94" s="43"/>
-      <c r="R94" s="254" t="s">
+      <c r="R94" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="S94" s="254"/>
-      <c r="T94" s="254"/>
-      <c r="U94" s="254"/>
+      <c r="S94" s="311"/>
+      <c r="T94" s="311"/>
+      <c r="U94" s="311"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="254" t="s">
+      <c r="X94" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="Y94" s="254"/>
-      <c r="Z94" s="254"/>
-      <c r="AA94" s="254"/>
-      <c r="AB94" s="254"/>
-      <c r="AC94" s="254"/>
+      <c r="Y94" s="311"/>
+      <c r="Z94" s="311"/>
+      <c r="AA94" s="311"/>
+      <c r="AB94" s="311"/>
+      <c r="AC94" s="311"/>
       <c r="AD94" s="43"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="131"/>
@@ -7245,56 +7258,56 @@
     <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="122"/>
-      <c r="C95" s="259" t="s">
+      <c r="C95" s="312" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="259"/>
-      <c r="E95" s="259"/>
+      <c r="D95" s="312"/>
+      <c r="E95" s="312"/>
       <c r="F95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="249"/>
-      <c r="H95" s="249"/>
-      <c r="I95" s="249"/>
-      <c r="J95" s="249"/>
+      <c r="G95" s="313"/>
+      <c r="H95" s="313"/>
+      <c r="I95" s="313"/>
+      <c r="J95" s="313"/>
       <c r="K95" s="116" t="s">
         <v>50</v>
       </c>
       <c r="L95" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="M95" s="252">
+      <c r="M95" s="309">
         <f>+G95</f>
         <v>0</v>
       </c>
-      <c r="N95" s="252"/>
-      <c r="O95" s="252"/>
-      <c r="P95" s="252"/>
+      <c r="N95" s="309"/>
+      <c r="O95" s="309"/>
+      <c r="P95" s="309"/>
       <c r="Q95" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="R95" s="252">
+      <c r="R95" s="309">
         <f>PRODUCT(M95, S79)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="252"/>
-      <c r="T95" s="252"/>
-      <c r="U95" s="252"/>
+      <c r="S95" s="309"/>
+      <c r="T95" s="309"/>
+      <c r="U95" s="309"/>
       <c r="V95" s="114" t="s">
         <v>50</v>
       </c>
       <c r="W95" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="X95" s="252">
+      <c r="X95" s="309">
         <f>+M95+R95</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="252"/>
-      <c r="Z95" s="252"/>
-      <c r="AA95" s="252"/>
-      <c r="AB95" s="252"/>
-      <c r="AC95" s="252"/>
+      <c r="Y95" s="309"/>
+      <c r="Z95" s="309"/>
+      <c r="AA95" s="309"/>
+      <c r="AB95" s="309"/>
+      <c r="AC95" s="309"/>
       <c r="AD95" s="117"/>
       <c r="AE95" s="117"/>
       <c r="AF95" s="27"/>
@@ -7303,15 +7316,15 @@
       <c r="AI95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ95" s="261">
+      <c r="AJ95" s="314">
         <f>AJ80+AJ91</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="261"/>
-      <c r="AL95" s="261"/>
-      <c r="AM95" s="261"/>
-      <c r="AN95" s="261"/>
-      <c r="AO95" s="261"/>
+      <c r="AK95" s="314"/>
+      <c r="AL95" s="314"/>
+      <c r="AM95" s="314"/>
+      <c r="AN95" s="314"/>
+      <c r="AO95" s="314"/>
       <c r="AP95" s="119"/>
       <c r="AQ95" s="123"/>
     </row>
@@ -7360,7 +7373,7 @@
       <c r="AP96" s="13"/>
       <c r="AQ96" s="123"/>
     </row>
-    <row r="97" spans="2:43" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:43" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B97" s="135"/>
       <c r="C97" s="136"/>
       <c r="D97" s="136"/>
@@ -7371,30 +7384,30 @@
       <c r="I97" s="58"/>
       <c r="J97" s="58"/>
       <c r="K97" s="58"/>
-      <c r="L97" s="224" t="s">
+      <c r="L97" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="M97" s="224"/>
-      <c r="N97" s="224"/>
-      <c r="O97" s="224"/>
-      <c r="P97" s="224"/>
-      <c r="Q97" s="224"/>
-      <c r="R97" s="224" t="s">
+      <c r="M97" s="191"/>
+      <c r="N97" s="191"/>
+      <c r="O97" s="191"/>
+      <c r="P97" s="191"/>
+      <c r="Q97" s="191"/>
+      <c r="R97" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="S97" s="224"/>
-      <c r="T97" s="224"/>
-      <c r="U97" s="224"/>
+      <c r="S97" s="191"/>
+      <c r="T97" s="191"/>
+      <c r="U97" s="191"/>
       <c r="V97" s="43"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="224" t="s">
+      <c r="X97" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="Y97" s="224"/>
-      <c r="Z97" s="224"/>
-      <c r="AA97" s="224"/>
-      <c r="AB97" s="224"/>
-      <c r="AC97" s="224"/>
+      <c r="Y97" s="191"/>
+      <c r="Z97" s="191"/>
+      <c r="AA97" s="191"/>
+      <c r="AB97" s="191"/>
+      <c r="AC97" s="191"/>
       <c r="AD97" s="41"/>
       <c r="AE97" s="41"/>
       <c r="AF97" s="58"/>
@@ -7419,39 +7432,39 @@
       <c r="G98" s="58"/>
       <c r="H98" s="58"/>
       <c r="I98" s="58"/>
-      <c r="J98" s="262" t="s">
+      <c r="J98" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="K98" s="262"/>
-      <c r="L98" s="262"/>
-      <c r="M98" s="252">
+      <c r="K98" s="308"/>
+      <c r="L98" s="308"/>
+      <c r="M98" s="309">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="N98" s="252"/>
-      <c r="O98" s="252"/>
-      <c r="P98" s="252"/>
+      <c r="N98" s="309"/>
+      <c r="O98" s="309"/>
+      <c r="P98" s="309"/>
       <c r="Q98" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R98" s="252">
+      <c r="R98" s="309">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="S98" s="252"/>
-      <c r="T98" s="252"/>
-      <c r="U98" s="252"/>
+      <c r="S98" s="309"/>
+      <c r="T98" s="309"/>
+      <c r="U98" s="309"/>
       <c r="V98" s="13"/>
       <c r="W98" s="13"/>
-      <c r="X98" s="252">
+      <c r="X98" s="309">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="Y98" s="252"/>
-      <c r="Z98" s="252"/>
-      <c r="AA98" s="252"/>
-      <c r="AB98" s="252"/>
-      <c r="AC98" s="252"/>
+      <c r="Y98" s="309"/>
+      <c r="Z98" s="309"/>
+      <c r="AA98" s="309"/>
+      <c r="AB98" s="309"/>
+      <c r="AC98" s="309"/>
       <c r="AD98" s="114"/>
       <c r="AE98" s="114"/>
       <c r="AF98" s="58"/>
@@ -7550,12 +7563,12 @@
       <c r="AI100" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AJ100" s="252"/>
-      <c r="AK100" s="252"/>
-      <c r="AL100" s="252"/>
-      <c r="AM100" s="252"/>
-      <c r="AN100" s="252"/>
-      <c r="AO100" s="252"/>
+      <c r="AJ100" s="309"/>
+      <c r="AK100" s="309"/>
+      <c r="AL100" s="309"/>
+      <c r="AM100" s="309"/>
+      <c r="AN100" s="309"/>
+      <c r="AO100" s="309"/>
       <c r="AP100" s="96"/>
       <c r="AQ100" s="137"/>
     </row>
@@ -7600,12 +7613,12 @@
       <c r="AI101" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AJ101" s="258"/>
-      <c r="AK101" s="258"/>
-      <c r="AL101" s="258"/>
-      <c r="AM101" s="258"/>
-      <c r="AN101" s="258"/>
-      <c r="AO101" s="258"/>
+      <c r="AJ101" s="310"/>
+      <c r="AK101" s="310"/>
+      <c r="AL101" s="310"/>
+      <c r="AM101" s="310"/>
+      <c r="AN101" s="310"/>
+      <c r="AO101" s="310"/>
       <c r="AP101" s="96"/>
       <c r="AQ101" s="137"/>
     </row>
@@ -7653,7 +7666,7 @@
       <c r="AP102" s="139"/>
       <c r="AQ102" s="78"/>
     </row>
-    <row r="103" spans="2:43" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:43" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>79</v>
       </c>
@@ -7700,241 +7713,241 @@
       <c r="AQ103" s="141"/>
     </row>
     <row r="104" spans="2:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="263"/>
-      <c r="C104" s="264"/>
-      <c r="D104" s="264"/>
-      <c r="E104" s="264"/>
-      <c r="F104" s="264"/>
-      <c r="G104" s="264"/>
-      <c r="H104" s="264"/>
-      <c r="I104" s="264"/>
-      <c r="J104" s="264"/>
-      <c r="K104" s="264"/>
-      <c r="L104" s="265"/>
-      <c r="M104" s="191" t="s">
+      <c r="B104" s="289"/>
+      <c r="C104" s="290"/>
+      <c r="D104" s="290"/>
+      <c r="E104" s="290"/>
+      <c r="F104" s="290"/>
+      <c r="G104" s="290"/>
+      <c r="H104" s="290"/>
+      <c r="I104" s="290"/>
+      <c r="J104" s="290"/>
+      <c r="K104" s="290"/>
+      <c r="L104" s="291"/>
+      <c r="M104" s="295" t="s">
         <v>80</v>
       </c>
-      <c r="N104" s="192"/>
-      <c r="O104" s="192" t="s">
+      <c r="N104" s="296"/>
+      <c r="O104" s="296" t="s">
         <v>81</v>
       </c>
-      <c r="P104" s="192"/>
+      <c r="P104" s="296"/>
       <c r="Q104" s="4" t="s">
         <v>82</v>
       </c>
       <c r="R104" s="142"/>
-      <c r="S104" s="269"/>
-      <c r="T104" s="269"/>
-      <c r="U104" s="269"/>
-      <c r="V104" s="269"/>
-      <c r="W104" s="269"/>
-      <c r="X104" s="269"/>
-      <c r="Y104" s="269"/>
-      <c r="Z104" s="269"/>
-      <c r="AA104" s="269"/>
-      <c r="AB104" s="269"/>
-      <c r="AC104" s="269"/>
-      <c r="AD104" s="269"/>
-      <c r="AE104" s="269"/>
-      <c r="AF104" s="269"/>
-      <c r="AG104" s="269"/>
-      <c r="AH104" s="269"/>
-      <c r="AI104" s="269"/>
-      <c r="AJ104" s="192"/>
-      <c r="AK104" s="192"/>
-      <c r="AL104" s="193"/>
-      <c r="AM104" s="191" t="s">
+      <c r="S104" s="297"/>
+      <c r="T104" s="297"/>
+      <c r="U104" s="297"/>
+      <c r="V104" s="297"/>
+      <c r="W104" s="297"/>
+      <c r="X104" s="297"/>
+      <c r="Y104" s="297"/>
+      <c r="Z104" s="297"/>
+      <c r="AA104" s="297"/>
+      <c r="AB104" s="297"/>
+      <c r="AC104" s="297"/>
+      <c r="AD104" s="297"/>
+      <c r="AE104" s="297"/>
+      <c r="AF104" s="297"/>
+      <c r="AG104" s="297"/>
+      <c r="AH104" s="297"/>
+      <c r="AI104" s="297"/>
+      <c r="AJ104" s="296"/>
+      <c r="AK104" s="296"/>
+      <c r="AL104" s="299"/>
+      <c r="AM104" s="295" t="s">
         <v>80</v>
       </c>
-      <c r="AN104" s="192"/>
-      <c r="AO104" s="192" t="s">
+      <c r="AN104" s="296"/>
+      <c r="AO104" s="296" t="s">
         <v>81</v>
       </c>
-      <c r="AP104" s="192"/>
+      <c r="AP104" s="296"/>
       <c r="AQ104" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="266"/>
-      <c r="C105" s="267"/>
-      <c r="D105" s="267"/>
-      <c r="E105" s="267"/>
-      <c r="F105" s="267"/>
-      <c r="G105" s="267"/>
-      <c r="H105" s="267"/>
-      <c r="I105" s="267"/>
-      <c r="J105" s="267"/>
-      <c r="K105" s="267"/>
-      <c r="L105" s="268"/>
-      <c r="M105" s="271"/>
-      <c r="N105" s="272"/>
-      <c r="O105" s="273"/>
-      <c r="P105" s="274"/>
+      <c r="B105" s="292"/>
+      <c r="C105" s="293"/>
+      <c r="D105" s="293"/>
+      <c r="E105" s="293"/>
+      <c r="F105" s="293"/>
+      <c r="G105" s="293"/>
+      <c r="H105" s="293"/>
+      <c r="I105" s="293"/>
+      <c r="J105" s="293"/>
+      <c r="K105" s="293"/>
+      <c r="L105" s="294"/>
+      <c r="M105" s="300"/>
+      <c r="N105" s="301"/>
+      <c r="O105" s="302"/>
+      <c r="P105" s="303"/>
       <c r="Q105" s="143"/>
       <c r="R105" s="144"/>
-      <c r="S105" s="270"/>
-      <c r="T105" s="270"/>
-      <c r="U105" s="270"/>
-      <c r="V105" s="270"/>
-      <c r="W105" s="270"/>
-      <c r="X105" s="270"/>
-      <c r="Y105" s="270"/>
-      <c r="Z105" s="270"/>
-      <c r="AA105" s="270"/>
-      <c r="AB105" s="270"/>
-      <c r="AC105" s="270"/>
-      <c r="AD105" s="270"/>
-      <c r="AE105" s="270"/>
-      <c r="AF105" s="270"/>
-      <c r="AG105" s="270"/>
-      <c r="AH105" s="270"/>
-      <c r="AI105" s="270"/>
-      <c r="AJ105" s="275"/>
-      <c r="AK105" s="275"/>
-      <c r="AL105" s="276"/>
-      <c r="AM105" s="271"/>
-      <c r="AN105" s="272"/>
-      <c r="AO105" s="277"/>
-      <c r="AP105" s="278"/>
+      <c r="S105" s="298"/>
+      <c r="T105" s="298"/>
+      <c r="U105" s="298"/>
+      <c r="V105" s="298"/>
+      <c r="W105" s="298"/>
+      <c r="X105" s="298"/>
+      <c r="Y105" s="298"/>
+      <c r="Z105" s="298"/>
+      <c r="AA105" s="298"/>
+      <c r="AB105" s="298"/>
+      <c r="AC105" s="298"/>
+      <c r="AD105" s="298"/>
+      <c r="AE105" s="298"/>
+      <c r="AF105" s="298"/>
+      <c r="AG105" s="298"/>
+      <c r="AH105" s="298"/>
+      <c r="AI105" s="298"/>
+      <c r="AJ105" s="304"/>
+      <c r="AK105" s="304"/>
+      <c r="AL105" s="305"/>
+      <c r="AM105" s="300"/>
+      <c r="AN105" s="301"/>
+      <c r="AO105" s="306"/>
+      <c r="AP105" s="307"/>
       <c r="AQ105" s="145"/>
     </row>
     <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="279" t="s">
+      <c r="B106" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="C106" s="280"/>
-      <c r="D106" s="280"/>
-      <c r="E106" s="280"/>
-      <c r="F106" s="280"/>
-      <c r="G106" s="280"/>
-      <c r="H106" s="280"/>
-      <c r="I106" s="280"/>
-      <c r="J106" s="280"/>
-      <c r="K106" s="280"/>
-      <c r="L106" s="281"/>
-      <c r="M106" s="285"/>
-      <c r="N106" s="286"/>
-      <c r="O106" s="285"/>
-      <c r="P106" s="286"/>
-      <c r="Q106" s="298"/>
+      <c r="C106" s="262"/>
+      <c r="D106" s="262"/>
+      <c r="E106" s="262"/>
+      <c r="F106" s="262"/>
+      <c r="G106" s="262"/>
+      <c r="H106" s="262"/>
+      <c r="I106" s="262"/>
+      <c r="J106" s="262"/>
+      <c r="K106" s="262"/>
+      <c r="L106" s="263"/>
+      <c r="M106" s="267"/>
+      <c r="N106" s="268"/>
+      <c r="O106" s="267"/>
+      <c r="P106" s="268"/>
+      <c r="Q106" s="280"/>
       <c r="R106" s="146"/>
-      <c r="S106" s="291" t="s">
+      <c r="S106" s="273" t="s">
         <v>84</v>
       </c>
-      <c r="T106" s="291"/>
-      <c r="U106" s="291"/>
-      <c r="V106" s="291"/>
-      <c r="W106" s="291"/>
-      <c r="X106" s="291"/>
-      <c r="Y106" s="291"/>
-      <c r="Z106" s="291"/>
-      <c r="AA106" s="291"/>
-      <c r="AB106" s="291"/>
-      <c r="AC106" s="291"/>
-      <c r="AD106" s="291"/>
-      <c r="AE106" s="291"/>
-      <c r="AF106" s="291"/>
-      <c r="AG106" s="291"/>
-      <c r="AH106" s="291"/>
-      <c r="AI106" s="291"/>
+      <c r="T106" s="273"/>
+      <c r="U106" s="273"/>
+      <c r="V106" s="273"/>
+      <c r="W106" s="273"/>
+      <c r="X106" s="273"/>
+      <c r="Y106" s="273"/>
+      <c r="Z106" s="273"/>
+      <c r="AA106" s="273"/>
+      <c r="AB106" s="273"/>
+      <c r="AC106" s="273"/>
+      <c r="AD106" s="273"/>
+      <c r="AE106" s="273"/>
+      <c r="AF106" s="273"/>
+      <c r="AG106" s="273"/>
+      <c r="AH106" s="273"/>
+      <c r="AI106" s="273"/>
       <c r="AJ106" s="147"/>
       <c r="AK106" s="147"/>
       <c r="AL106" s="148"/>
-      <c r="AM106" s="292"/>
-      <c r="AN106" s="293"/>
-      <c r="AO106" s="292"/>
-      <c r="AP106" s="293"/>
-      <c r="AQ106" s="302"/>
+      <c r="AM106" s="274"/>
+      <c r="AN106" s="275"/>
+      <c r="AO106" s="274"/>
+      <c r="AP106" s="275"/>
+      <c r="AQ106" s="284"/>
     </row>
     <row r="107" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="282"/>
-      <c r="C107" s="283"/>
-      <c r="D107" s="283"/>
-      <c r="E107" s="283"/>
-      <c r="F107" s="283"/>
-      <c r="G107" s="283"/>
-      <c r="H107" s="283"/>
-      <c r="I107" s="283"/>
-      <c r="J107" s="283"/>
-      <c r="K107" s="283"/>
-      <c r="L107" s="284"/>
-      <c r="M107" s="287"/>
-      <c r="N107" s="288"/>
-      <c r="O107" s="287"/>
-      <c r="P107" s="288"/>
-      <c r="Q107" s="299"/>
-      <c r="S107" s="301"/>
-      <c r="T107" s="301"/>
-      <c r="U107" s="301"/>
-      <c r="V107" s="301"/>
-      <c r="W107" s="301"/>
-      <c r="X107" s="301"/>
-      <c r="Y107" s="301"/>
-      <c r="Z107" s="301"/>
-      <c r="AA107" s="301"/>
-      <c r="AB107" s="301"/>
-      <c r="AC107" s="301"/>
-      <c r="AD107" s="301"/>
-      <c r="AE107" s="301"/>
-      <c r="AF107" s="301"/>
-      <c r="AG107" s="301"/>
-      <c r="AH107" s="301"/>
-      <c r="AI107" s="301"/>
-      <c r="AJ107" s="301"/>
-      <c r="AK107" s="301"/>
+      <c r="B107" s="264"/>
+      <c r="C107" s="265"/>
+      <c r="D107" s="265"/>
+      <c r="E107" s="265"/>
+      <c r="F107" s="265"/>
+      <c r="G107" s="265"/>
+      <c r="H107" s="265"/>
+      <c r="I107" s="265"/>
+      <c r="J107" s="265"/>
+      <c r="K107" s="265"/>
+      <c r="L107" s="266"/>
+      <c r="M107" s="269"/>
+      <c r="N107" s="270"/>
+      <c r="O107" s="269"/>
+      <c r="P107" s="270"/>
+      <c r="Q107" s="281"/>
+      <c r="S107" s="283"/>
+      <c r="T107" s="283"/>
+      <c r="U107" s="283"/>
+      <c r="V107" s="283"/>
+      <c r="W107" s="283"/>
+      <c r="X107" s="283"/>
+      <c r="Y107" s="283"/>
+      <c r="Z107" s="283"/>
+      <c r="AA107" s="283"/>
+      <c r="AB107" s="283"/>
+      <c r="AC107" s="283"/>
+      <c r="AD107" s="283"/>
+      <c r="AE107" s="283"/>
+      <c r="AF107" s="283"/>
+      <c r="AG107" s="283"/>
+      <c r="AH107" s="283"/>
+      <c r="AI107" s="283"/>
+      <c r="AJ107" s="283"/>
+      <c r="AK107" s="283"/>
       <c r="AL107" s="149"/>
-      <c r="AM107" s="294"/>
-      <c r="AN107" s="295"/>
-      <c r="AO107" s="294"/>
-      <c r="AP107" s="295"/>
-      <c r="AQ107" s="303"/>
+      <c r="AM107" s="276"/>
+      <c r="AN107" s="277"/>
+      <c r="AO107" s="276"/>
+      <c r="AP107" s="277"/>
+      <c r="AQ107" s="285"/>
     </row>
     <row r="108" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="305"/>
-      <c r="C108" s="306"/>
-      <c r="D108" s="306"/>
-      <c r="E108" s="306"/>
-      <c r="F108" s="306"/>
-      <c r="G108" s="306"/>
-      <c r="H108" s="306"/>
-      <c r="I108" s="306"/>
-      <c r="J108" s="306"/>
-      <c r="K108" s="306"/>
+      <c r="B108" s="287"/>
+      <c r="C108" s="288"/>
+      <c r="D108" s="288"/>
+      <c r="E108" s="288"/>
+      <c r="F108" s="288"/>
+      <c r="G108" s="288"/>
+      <c r="H108" s="288"/>
+      <c r="I108" s="288"/>
+      <c r="J108" s="288"/>
+      <c r="K108" s="288"/>
       <c r="L108" s="150"/>
-      <c r="M108" s="289"/>
-      <c r="N108" s="290"/>
-      <c r="O108" s="289"/>
-      <c r="P108" s="290"/>
-      <c r="Q108" s="300"/>
+      <c r="M108" s="271"/>
+      <c r="N108" s="272"/>
+      <c r="O108" s="271"/>
+      <c r="P108" s="272"/>
+      <c r="Q108" s="282"/>
       <c r="R108" s="67"/>
-      <c r="S108" s="307" t="s">
+      <c r="S108" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="T108" s="307"/>
-      <c r="U108" s="307"/>
-      <c r="V108" s="307"/>
-      <c r="W108" s="307"/>
-      <c r="X108" s="307"/>
-      <c r="Y108" s="307"/>
-      <c r="Z108" s="307"/>
-      <c r="AA108" s="307"/>
-      <c r="AB108" s="307"/>
-      <c r="AC108" s="307"/>
-      <c r="AD108" s="307"/>
-      <c r="AE108" s="307"/>
-      <c r="AF108" s="307"/>
-      <c r="AG108" s="307"/>
-      <c r="AH108" s="307"/>
-      <c r="AI108" s="307"/>
+      <c r="T108" s="247"/>
+      <c r="U108" s="247"/>
+      <c r="V108" s="247"/>
+      <c r="W108" s="247"/>
+      <c r="X108" s="247"/>
+      <c r="Y108" s="247"/>
+      <c r="Z108" s="247"/>
+      <c r="AA108" s="247"/>
+      <c r="AB108" s="247"/>
+      <c r="AC108" s="247"/>
+      <c r="AD108" s="247"/>
+      <c r="AE108" s="247"/>
+      <c r="AF108" s="247"/>
+      <c r="AG108" s="247"/>
+      <c r="AH108" s="247"/>
+      <c r="AI108" s="247"/>
       <c r="AJ108" s="151"/>
       <c r="AK108" s="151"/>
       <c r="AL108" s="152"/>
-      <c r="AM108" s="296"/>
-      <c r="AN108" s="297"/>
-      <c r="AO108" s="296"/>
-      <c r="AP108" s="297"/>
-      <c r="AQ108" s="304"/>
+      <c r="AM108" s="278"/>
+      <c r="AN108" s="279"/>
+      <c r="AO108" s="278"/>
+      <c r="AP108" s="279"/>
+      <c r="AQ108" s="286"/>
     </row>
     <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="153"/>
@@ -7954,23 +7967,23 @@
       <c r="P109" s="154"/>
       <c r="Q109" s="154"/>
       <c r="R109" s="22"/>
-      <c r="S109" s="307"/>
-      <c r="T109" s="307"/>
-      <c r="U109" s="307"/>
-      <c r="V109" s="307"/>
-      <c r="W109" s="307"/>
-      <c r="X109" s="307"/>
-      <c r="Y109" s="307"/>
-      <c r="Z109" s="307"/>
-      <c r="AA109" s="307"/>
-      <c r="AB109" s="307"/>
-      <c r="AC109" s="307"/>
-      <c r="AD109" s="307"/>
-      <c r="AE109" s="307"/>
-      <c r="AF109" s="307"/>
-      <c r="AG109" s="307"/>
-      <c r="AH109" s="307"/>
-      <c r="AI109" s="307"/>
+      <c r="S109" s="247"/>
+      <c r="T109" s="247"/>
+      <c r="U109" s="247"/>
+      <c r="V109" s="247"/>
+      <c r="W109" s="247"/>
+      <c r="X109" s="247"/>
+      <c r="Y109" s="247"/>
+      <c r="Z109" s="247"/>
+      <c r="AA109" s="247"/>
+      <c r="AB109" s="247"/>
+      <c r="AC109" s="247"/>
+      <c r="AD109" s="247"/>
+      <c r="AE109" s="247"/>
+      <c r="AF109" s="247"/>
+      <c r="AG109" s="247"/>
+      <c r="AH109" s="247"/>
+      <c r="AI109" s="247"/>
       <c r="AJ109" s="22"/>
       <c r="AK109" s="155"/>
       <c r="AL109" s="155"/>
@@ -7980,7 +7993,7 @@
       <c r="AP109" s="22"/>
       <c r="AQ109" s="23"/>
     </row>
-    <row r="110" spans="2:43" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="156" t="s">
         <v>86</v>
       </c>
@@ -8027,340 +8040,340 @@
       <c r="AQ110" s="158"/>
     </row>
     <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="308" t="s">
+      <c r="B111" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="309"/>
-      <c r="D111" s="309"/>
-      <c r="E111" s="310"/>
-      <c r="F111" s="311" t="str">
+      <c r="C111" s="201"/>
+      <c r="D111" s="201"/>
+      <c r="E111" s="202"/>
+      <c r="F111" s="231" t="str">
         <f>IF(B9="","",B9)</f>
         <v/>
       </c>
-      <c r="G111" s="312"/>
-      <c r="H111" s="312"/>
-      <c r="I111" s="312"/>
-      <c r="J111" s="312"/>
-      <c r="K111" s="312"/>
+      <c r="G111" s="232"/>
+      <c r="H111" s="232"/>
+      <c r="I111" s="232"/>
+      <c r="J111" s="232"/>
+      <c r="K111" s="232"/>
       <c r="L111" s="159"/>
       <c r="M111" s="160"/>
-      <c r="N111" s="313" t="s">
+      <c r="N111" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="O111" s="314"/>
-      <c r="P111" s="314"/>
-      <c r="Q111" s="314"/>
-      <c r="R111" s="314"/>
-      <c r="S111" s="314"/>
-      <c r="T111" s="315"/>
+      <c r="O111" s="249"/>
+      <c r="P111" s="249"/>
+      <c r="Q111" s="249"/>
+      <c r="R111" s="249"/>
+      <c r="S111" s="249"/>
+      <c r="T111" s="250"/>
       <c r="U111" s="161"/>
-      <c r="V111" s="316"/>
-      <c r="W111" s="316"/>
-      <c r="X111" s="316"/>
-      <c r="Y111" s="316"/>
-      <c r="Z111" s="316"/>
-      <c r="AA111" s="316"/>
-      <c r="AB111" s="316"/>
-      <c r="AC111" s="316"/>
-      <c r="AD111" s="316"/>
-      <c r="AE111" s="316"/>
-      <c r="AF111" s="316"/>
-      <c r="AG111" s="316"/>
-      <c r="AH111" s="316"/>
-      <c r="AI111" s="316"/>
-      <c r="AJ111" s="316"/>
-      <c r="AK111" s="316"/>
-      <c r="AL111" s="316"/>
-      <c r="AM111" s="316"/>
-      <c r="AN111" s="316"/>
-      <c r="AO111" s="316"/>
-      <c r="AP111" s="316"/>
-      <c r="AQ111" s="317"/>
+      <c r="V111" s="251"/>
+      <c r="W111" s="251"/>
+      <c r="X111" s="251"/>
+      <c r="Y111" s="251"/>
+      <c r="Z111" s="251"/>
+      <c r="AA111" s="251"/>
+      <c r="AB111" s="251"/>
+      <c r="AC111" s="251"/>
+      <c r="AD111" s="251"/>
+      <c r="AE111" s="251"/>
+      <c r="AF111" s="251"/>
+      <c r="AG111" s="251"/>
+      <c r="AH111" s="251"/>
+      <c r="AI111" s="251"/>
+      <c r="AJ111" s="251"/>
+      <c r="AK111" s="251"/>
+      <c r="AL111" s="251"/>
+      <c r="AM111" s="251"/>
+      <c r="AN111" s="251"/>
+      <c r="AO111" s="251"/>
+      <c r="AP111" s="251"/>
+      <c r="AQ111" s="252"/>
     </row>
     <row r="112" spans="2:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="308" t="s">
+      <c r="B112" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="C112" s="309"/>
-      <c r="D112" s="309"/>
-      <c r="E112" s="310"/>
-      <c r="F112" s="318"/>
-      <c r="G112" s="319"/>
-      <c r="H112" s="319"/>
-      <c r="I112" s="319"/>
-      <c r="J112" s="319"/>
-      <c r="K112" s="319"/>
-      <c r="L112" s="319"/>
-      <c r="M112" s="320"/>
-      <c r="N112" s="308" t="s">
+      <c r="C112" s="201"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="202"/>
+      <c r="F112" s="253"/>
+      <c r="G112" s="254"/>
+      <c r="H112" s="254"/>
+      <c r="I112" s="254"/>
+      <c r="J112" s="254"/>
+      <c r="K112" s="254"/>
+      <c r="L112" s="254"/>
+      <c r="M112" s="255"/>
+      <c r="N112" s="200" t="s">
         <v>90</v>
       </c>
-      <c r="O112" s="309"/>
-      <c r="P112" s="309"/>
-      <c r="Q112" s="309"/>
-      <c r="R112" s="309"/>
-      <c r="S112" s="309"/>
-      <c r="T112" s="310"/>
-      <c r="U112" s="321" t="s">
+      <c r="O112" s="201"/>
+      <c r="P112" s="201"/>
+      <c r="Q112" s="201"/>
+      <c r="R112" s="201"/>
+      <c r="S112" s="201"/>
+      <c r="T112" s="202"/>
+      <c r="U112" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="V112" s="322"/>
-      <c r="W112" s="321" t="s">
+      <c r="V112" s="257"/>
+      <c r="W112" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="X112" s="322"/>
-      <c r="Y112" s="323" t="s">
+      <c r="X112" s="257"/>
+      <c r="Y112" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="Z112" s="324"/>
-      <c r="AA112" s="324"/>
-      <c r="AB112" s="324"/>
-      <c r="AC112" s="324"/>
-      <c r="AD112" s="324"/>
-      <c r="AE112" s="324"/>
-      <c r="AF112" s="324"/>
-      <c r="AG112" s="324"/>
-      <c r="AH112" s="324"/>
-      <c r="AI112" s="324"/>
-      <c r="AJ112" s="324"/>
-      <c r="AK112" s="324"/>
-      <c r="AL112" s="324"/>
-      <c r="AM112" s="324"/>
-      <c r="AN112" s="324"/>
-      <c r="AO112" s="324"/>
-      <c r="AP112" s="324"/>
-      <c r="AQ112" s="325"/>
+      <c r="Z112" s="259"/>
+      <c r="AA112" s="259"/>
+      <c r="AB112" s="259"/>
+      <c r="AC112" s="259"/>
+      <c r="AD112" s="259"/>
+      <c r="AE112" s="259"/>
+      <c r="AF112" s="259"/>
+      <c r="AG112" s="259"/>
+      <c r="AH112" s="259"/>
+      <c r="AI112" s="259"/>
+      <c r="AJ112" s="259"/>
+      <c r="AK112" s="259"/>
+      <c r="AL112" s="259"/>
+      <c r="AM112" s="259"/>
+      <c r="AN112" s="259"/>
+      <c r="AO112" s="259"/>
+      <c r="AP112" s="259"/>
+      <c r="AQ112" s="260"/>
     </row>
     <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="308" t="s">
+      <c r="B113" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="309"/>
-      <c r="D113" s="309"/>
-      <c r="E113" s="310"/>
-      <c r="F113" s="311"/>
-      <c r="G113" s="312"/>
-      <c r="H113" s="312"/>
-      <c r="I113" s="312"/>
-      <c r="J113" s="312"/>
-      <c r="K113" s="312"/>
-      <c r="L113" s="312"/>
-      <c r="M113" s="326"/>
-      <c r="N113" s="308" t="s">
+      <c r="C113" s="201"/>
+      <c r="D113" s="201"/>
+      <c r="E113" s="202"/>
+      <c r="F113" s="231"/>
+      <c r="G113" s="232"/>
+      <c r="H113" s="232"/>
+      <c r="I113" s="232"/>
+      <c r="J113" s="232"/>
+      <c r="K113" s="232"/>
+      <c r="L113" s="232"/>
+      <c r="M113" s="233"/>
+      <c r="N113" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="O113" s="309"/>
-      <c r="P113" s="309"/>
-      <c r="Q113" s="309"/>
-      <c r="R113" s="309"/>
-      <c r="S113" s="309"/>
-      <c r="T113" s="310"/>
-      <c r="U113" s="327"/>
-      <c r="V113" s="328"/>
-      <c r="W113" s="328"/>
-      <c r="X113" s="328"/>
-      <c r="Y113" s="328"/>
-      <c r="Z113" s="328"/>
-      <c r="AA113" s="328"/>
-      <c r="AB113" s="328"/>
-      <c r="AC113" s="328"/>
-      <c r="AD113" s="328"/>
-      <c r="AE113" s="328"/>
-      <c r="AF113" s="328"/>
-      <c r="AG113" s="328"/>
-      <c r="AH113" s="328"/>
-      <c r="AI113" s="328"/>
-      <c r="AJ113" s="328"/>
-      <c r="AK113" s="328"/>
-      <c r="AL113" s="328"/>
-      <c r="AM113" s="328"/>
-      <c r="AN113" s="328"/>
-      <c r="AO113" s="328"/>
-      <c r="AP113" s="328"/>
-      <c r="AQ113" s="329"/>
+      <c r="O113" s="201"/>
+      <c r="P113" s="201"/>
+      <c r="Q113" s="201"/>
+      <c r="R113" s="201"/>
+      <c r="S113" s="201"/>
+      <c r="T113" s="202"/>
+      <c r="U113" s="234"/>
+      <c r="V113" s="235"/>
+      <c r="W113" s="235"/>
+      <c r="X113" s="235"/>
+      <c r="Y113" s="235"/>
+      <c r="Z113" s="235"/>
+      <c r="AA113" s="235"/>
+      <c r="AB113" s="235"/>
+      <c r="AC113" s="235"/>
+      <c r="AD113" s="235"/>
+      <c r="AE113" s="235"/>
+      <c r="AF113" s="235"/>
+      <c r="AG113" s="235"/>
+      <c r="AH113" s="235"/>
+      <c r="AI113" s="235"/>
+      <c r="AJ113" s="235"/>
+      <c r="AK113" s="235"/>
+      <c r="AL113" s="235"/>
+      <c r="AM113" s="235"/>
+      <c r="AN113" s="235"/>
+      <c r="AO113" s="235"/>
+      <c r="AP113" s="235"/>
+      <c r="AQ113" s="236"/>
     </row>
     <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="330" t="s">
+      <c r="B114" s="237" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="331"/>
-      <c r="D114" s="331"/>
-      <c r="E114" s="332"/>
-      <c r="F114" s="333"/>
-      <c r="G114" s="334"/>
-      <c r="H114" s="334"/>
-      <c r="I114" s="334"/>
-      <c r="J114" s="334"/>
-      <c r="K114" s="334"/>
-      <c r="L114" s="334"/>
-      <c r="M114" s="335"/>
-      <c r="N114" s="308" t="s">
+      <c r="C114" s="238"/>
+      <c r="D114" s="238"/>
+      <c r="E114" s="239"/>
+      <c r="F114" s="240"/>
+      <c r="G114" s="241"/>
+      <c r="H114" s="241"/>
+      <c r="I114" s="241"/>
+      <c r="J114" s="241"/>
+      <c r="K114" s="241"/>
+      <c r="L114" s="241"/>
+      <c r="M114" s="242"/>
+      <c r="N114" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="O114" s="309"/>
-      <c r="P114" s="309"/>
-      <c r="Q114" s="309"/>
-      <c r="R114" s="309"/>
-      <c r="S114" s="309"/>
-      <c r="T114" s="310"/>
-      <c r="U114" s="336">
+      <c r="O114" s="201"/>
+      <c r="P114" s="201"/>
+      <c r="Q114" s="201"/>
+      <c r="R114" s="201"/>
+      <c r="S114" s="201"/>
+      <c r="T114" s="202"/>
+      <c r="U114" s="243">
         <v>0</v>
       </c>
-      <c r="V114" s="337"/>
-      <c r="W114" s="337"/>
-      <c r="X114" s="337"/>
-      <c r="Y114" s="337"/>
-      <c r="Z114" s="337"/>
-      <c r="AA114" s="337"/>
-      <c r="AB114" s="337"/>
-      <c r="AC114" s="337"/>
-      <c r="AD114" s="337"/>
-      <c r="AE114" s="337"/>
-      <c r="AF114" s="338"/>
-      <c r="AG114" s="338"/>
-      <c r="AH114" s="338"/>
-      <c r="AI114" s="338"/>
-      <c r="AJ114" s="338"/>
-      <c r="AK114" s="338"/>
-      <c r="AL114" s="338"/>
-      <c r="AM114" s="338"/>
-      <c r="AN114" s="338"/>
-      <c r="AO114" s="338"/>
-      <c r="AP114" s="338"/>
-      <c r="AQ114" s="339"/>
+      <c r="V114" s="244"/>
+      <c r="W114" s="244"/>
+      <c r="X114" s="244"/>
+      <c r="Y114" s="244"/>
+      <c r="Z114" s="244"/>
+      <c r="AA114" s="244"/>
+      <c r="AB114" s="244"/>
+      <c r="AC114" s="244"/>
+      <c r="AD114" s="244"/>
+      <c r="AE114" s="244"/>
+      <c r="AF114" s="245"/>
+      <c r="AG114" s="245"/>
+      <c r="AH114" s="245"/>
+      <c r="AI114" s="245"/>
+      <c r="AJ114" s="245"/>
+      <c r="AK114" s="245"/>
+      <c r="AL114" s="245"/>
+      <c r="AM114" s="245"/>
+      <c r="AN114" s="245"/>
+      <c r="AO114" s="245"/>
+      <c r="AP114" s="245"/>
+      <c r="AQ114" s="246"/>
     </row>
     <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="308" t="s">
+      <c r="B115" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="309"/>
-      <c r="D115" s="309"/>
-      <c r="E115" s="310"/>
-      <c r="F115" s="340"/>
-      <c r="G115" s="341"/>
-      <c r="H115" s="341"/>
-      <c r="I115" s="341"/>
-      <c r="J115" s="341"/>
-      <c r="K115" s="341"/>
-      <c r="L115" s="341"/>
-      <c r="M115" s="342"/>
-      <c r="N115" s="343" t="s">
+      <c r="C115" s="201"/>
+      <c r="D115" s="201"/>
+      <c r="E115" s="202"/>
+      <c r="F115" s="203"/>
+      <c r="G115" s="204"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="204"/>
+      <c r="J115" s="204"/>
+      <c r="K115" s="204"/>
+      <c r="L115" s="204"/>
+      <c r="M115" s="205"/>
+      <c r="N115" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="O115" s="344"/>
-      <c r="P115" s="344"/>
-      <c r="Q115" s="344"/>
-      <c r="R115" s="344"/>
-      <c r="S115" s="344"/>
-      <c r="T115" s="345"/>
-      <c r="U115" s="346"/>
-      <c r="V115" s="347"/>
-      <c r="W115" s="347"/>
-      <c r="X115" s="347"/>
-      <c r="Y115" s="347"/>
-      <c r="Z115" s="347"/>
-      <c r="AA115" s="347"/>
-      <c r="AB115" s="347"/>
-      <c r="AC115" s="347"/>
-      <c r="AD115" s="347"/>
-      <c r="AE115" s="347"/>
-      <c r="AF115" s="347"/>
-      <c r="AG115" s="347"/>
-      <c r="AH115" s="347"/>
-      <c r="AI115" s="347"/>
-      <c r="AJ115" s="347"/>
-      <c r="AK115" s="347"/>
-      <c r="AL115" s="347"/>
-      <c r="AM115" s="347"/>
-      <c r="AN115" s="347"/>
-      <c r="AO115" s="347"/>
-      <c r="AP115" s="347"/>
-      <c r="AQ115" s="348"/>
+      <c r="O115" s="207"/>
+      <c r="P115" s="207"/>
+      <c r="Q115" s="207"/>
+      <c r="R115" s="207"/>
+      <c r="S115" s="207"/>
+      <c r="T115" s="208"/>
+      <c r="U115" s="209"/>
+      <c r="V115" s="210"/>
+      <c r="W115" s="210"/>
+      <c r="X115" s="210"/>
+      <c r="Y115" s="210"/>
+      <c r="Z115" s="210"/>
+      <c r="AA115" s="210"/>
+      <c r="AB115" s="210"/>
+      <c r="AC115" s="210"/>
+      <c r="AD115" s="210"/>
+      <c r="AE115" s="210"/>
+      <c r="AF115" s="210"/>
+      <c r="AG115" s="210"/>
+      <c r="AH115" s="210"/>
+      <c r="AI115" s="210"/>
+      <c r="AJ115" s="210"/>
+      <c r="AK115" s="210"/>
+      <c r="AL115" s="210"/>
+      <c r="AM115" s="210"/>
+      <c r="AN115" s="210"/>
+      <c r="AO115" s="210"/>
+      <c r="AP115" s="210"/>
+      <c r="AQ115" s="211"/>
     </row>
     <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="349" t="s">
+      <c r="B116" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="C116" s="350"/>
-      <c r="D116" s="353" t="s">
+      <c r="C116" s="213"/>
+      <c r="D116" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="354"/>
-      <c r="F116" s="353" t="s">
+      <c r="E116" s="217"/>
+      <c r="F116" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="354"/>
-      <c r="H116" s="366" t="s">
+      <c r="G116" s="217"/>
+      <c r="H116" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="I116" s="357" t="s">
+      <c r="I116" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="J116" s="358"/>
-      <c r="K116" s="353" t="s">
+      <c r="J116" s="221"/>
+      <c r="K116" s="216" t="s">
         <v>103</v>
       </c>
       <c r="L116" s="162"/>
-      <c r="M116" s="353" t="s">
+      <c r="M116" s="216" t="s">
         <v>104</v>
       </c>
-      <c r="N116" s="361"/>
-      <c r="O116" s="361"/>
-      <c r="P116" s="354"/>
-      <c r="Q116" s="353" t="s">
+      <c r="N116" s="224"/>
+      <c r="O116" s="224"/>
+      <c r="P116" s="217"/>
+      <c r="Q116" s="216" t="s">
         <v>105</v>
       </c>
-      <c r="R116" s="361"/>
-      <c r="S116" s="361"/>
-      <c r="T116" s="361"/>
-      <c r="U116" s="361"/>
-      <c r="V116" s="354"/>
-      <c r="W116" s="363" t="s">
+      <c r="R116" s="224"/>
+      <c r="S116" s="224"/>
+      <c r="T116" s="224"/>
+      <c r="U116" s="224"/>
+      <c r="V116" s="217"/>
+      <c r="W116" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="X116" s="364"/>
-      <c r="Y116" s="364"/>
-      <c r="Z116" s="364"/>
-      <c r="AA116" s="364"/>
-      <c r="AB116" s="364"/>
-      <c r="AC116" s="364"/>
-      <c r="AD116" s="364"/>
-      <c r="AE116" s="364"/>
-      <c r="AF116" s="364"/>
-      <c r="AG116" s="364"/>
-      <c r="AH116" s="364"/>
-      <c r="AI116" s="364"/>
-      <c r="AJ116" s="364"/>
-      <c r="AK116" s="364"/>
-      <c r="AL116" s="364"/>
-      <c r="AM116" s="364"/>
-      <c r="AN116" s="364"/>
-      <c r="AO116" s="364"/>
-      <c r="AP116" s="364"/>
-      <c r="AQ116" s="365"/>
+      <c r="X116" s="227"/>
+      <c r="Y116" s="227"/>
+      <c r="Z116" s="227"/>
+      <c r="AA116" s="227"/>
+      <c r="AB116" s="227"/>
+      <c r="AC116" s="227"/>
+      <c r="AD116" s="227"/>
+      <c r="AE116" s="227"/>
+      <c r="AF116" s="227"/>
+      <c r="AG116" s="227"/>
+      <c r="AH116" s="227"/>
+      <c r="AI116" s="227"/>
+      <c r="AJ116" s="227"/>
+      <c r="AK116" s="227"/>
+      <c r="AL116" s="227"/>
+      <c r="AM116" s="227"/>
+      <c r="AN116" s="227"/>
+      <c r="AO116" s="227"/>
+      <c r="AP116" s="227"/>
+      <c r="AQ116" s="228"/>
     </row>
     <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="351"/>
-      <c r="C117" s="352"/>
-      <c r="D117" s="355"/>
-      <c r="E117" s="356"/>
-      <c r="F117" s="355"/>
-      <c r="G117" s="356"/>
-      <c r="H117" s="367"/>
-      <c r="I117" s="359"/>
-      <c r="J117" s="360"/>
-      <c r="K117" s="355"/>
+      <c r="B117" s="214"/>
+      <c r="C117" s="215"/>
+      <c r="D117" s="218"/>
+      <c r="E117" s="219"/>
+      <c r="F117" s="218"/>
+      <c r="G117" s="219"/>
+      <c r="H117" s="230"/>
+      <c r="I117" s="222"/>
+      <c r="J117" s="223"/>
+      <c r="K117" s="218"/>
       <c r="L117" s="163"/>
-      <c r="M117" s="355"/>
-      <c r="N117" s="362"/>
-      <c r="O117" s="362"/>
-      <c r="P117" s="356"/>
-      <c r="Q117" s="355"/>
-      <c r="R117" s="362"/>
-      <c r="S117" s="362"/>
-      <c r="T117" s="362"/>
-      <c r="U117" s="362"/>
-      <c r="V117" s="356"/>
+      <c r="M117" s="218"/>
+      <c r="N117" s="225"/>
+      <c r="O117" s="225"/>
+      <c r="P117" s="219"/>
+      <c r="Q117" s="218"/>
+      <c r="R117" s="225"/>
+      <c r="S117" s="225"/>
+      <c r="T117" s="225"/>
+      <c r="U117" s="225"/>
+      <c r="V117" s="219"/>
       <c r="W117" s="164" t="s">
         <v>107</v>
       </c>
@@ -8386,201 +8399,519 @@
       <c r="AQ117" s="168"/>
     </row>
     <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="368">
+      <c r="B118" s="192">
         <f>+AJ78</f>
         <v>0</v>
       </c>
-      <c r="C118" s="369"/>
-      <c r="D118" s="368">
+      <c r="C118" s="193"/>
+      <c r="D118" s="192">
         <f>+AJ79</f>
         <v>0</v>
       </c>
-      <c r="E118" s="369"/>
-      <c r="F118" s="368" t="s">
+      <c r="E118" s="193"/>
+      <c r="F118" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="G118" s="369"/>
+      <c r="G118" s="193"/>
       <c r="H118" s="169"/>
-      <c r="I118" s="370"/>
-      <c r="J118" s="371"/>
-      <c r="K118" s="370"/>
-      <c r="L118" s="371"/>
+      <c r="I118" s="194"/>
+      <c r="J118" s="195"/>
+      <c r="K118" s="194"/>
+      <c r="L118" s="195"/>
       <c r="M118" s="171"/>
       <c r="N118" s="172"/>
       <c r="O118" s="172"/>
       <c r="P118" s="172"/>
-      <c r="Q118" s="370"/>
-      <c r="R118" s="372"/>
-      <c r="S118" s="372"/>
-      <c r="T118" s="372"/>
-      <c r="U118" s="372"/>
-      <c r="V118" s="371"/>
-      <c r="W118" s="373"/>
-      <c r="X118" s="374"/>
-      <c r="Y118" s="374"/>
-      <c r="Z118" s="374"/>
-      <c r="AA118" s="374"/>
-      <c r="AB118" s="374"/>
-      <c r="AC118" s="374"/>
-      <c r="AD118" s="374"/>
-      <c r="AE118" s="374"/>
-      <c r="AF118" s="375"/>
-      <c r="AG118" s="373"/>
-      <c r="AH118" s="374"/>
-      <c r="AI118" s="374"/>
-      <c r="AJ118" s="374"/>
-      <c r="AK118" s="374"/>
-      <c r="AL118" s="374"/>
-      <c r="AM118" s="374"/>
-      <c r="AN118" s="374"/>
-      <c r="AO118" s="374"/>
-      <c r="AP118" s="374"/>
-      <c r="AQ118" s="375"/>
+      <c r="Q118" s="194"/>
+      <c r="R118" s="196"/>
+      <c r="S118" s="196"/>
+      <c r="T118" s="196"/>
+      <c r="U118" s="196"/>
+      <c r="V118" s="195"/>
+      <c r="W118" s="197"/>
+      <c r="X118" s="198"/>
+      <c r="Y118" s="198"/>
+      <c r="Z118" s="198"/>
+      <c r="AA118" s="198"/>
+      <c r="AB118" s="198"/>
+      <c r="AC118" s="198"/>
+      <c r="AD118" s="198"/>
+      <c r="AE118" s="198"/>
+      <c r="AF118" s="199"/>
+      <c r="AG118" s="197"/>
+      <c r="AH118" s="198"/>
+      <c r="AI118" s="198"/>
+      <c r="AJ118" s="198"/>
+      <c r="AK118" s="198"/>
+      <c r="AL118" s="198"/>
+      <c r="AM118" s="198"/>
+      <c r="AN118" s="198"/>
+      <c r="AO118" s="198"/>
+      <c r="AP118" s="198"/>
+      <c r="AQ118" s="199"/>
     </row>
     <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="368">
+      <c r="B119" s="192">
         <f>+AJ83</f>
         <v>0</v>
       </c>
-      <c r="C119" s="369"/>
-      <c r="D119" s="368">
+      <c r="C119" s="193"/>
+      <c r="D119" s="192">
         <f>+AJ87</f>
         <v>0</v>
       </c>
-      <c r="E119" s="369"/>
-      <c r="F119" s="368" t="s">
+      <c r="E119" s="193"/>
+      <c r="F119" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="G119" s="369"/>
+      <c r="G119" s="193"/>
       <c r="H119" s="173"/>
-      <c r="I119" s="370"/>
-      <c r="J119" s="371"/>
+      <c r="I119" s="194"/>
+      <c r="J119" s="195"/>
       <c r="K119" s="170"/>
       <c r="L119" s="174"/>
       <c r="M119" s="171"/>
       <c r="N119" s="172"/>
       <c r="O119" s="172"/>
       <c r="P119" s="172"/>
-      <c r="Q119" s="370"/>
-      <c r="R119" s="372"/>
-      <c r="S119" s="372"/>
-      <c r="T119" s="372"/>
-      <c r="U119" s="372"/>
-      <c r="V119" s="371"/>
-      <c r="W119" s="373"/>
-      <c r="X119" s="374"/>
-      <c r="Y119" s="374"/>
-      <c r="Z119" s="374"/>
-      <c r="AA119" s="374"/>
-      <c r="AB119" s="374"/>
-      <c r="AC119" s="374"/>
-      <c r="AD119" s="374"/>
-      <c r="AE119" s="374"/>
-      <c r="AF119" s="375"/>
-      <c r="AG119" s="373"/>
-      <c r="AH119" s="374"/>
-      <c r="AI119" s="374"/>
-      <c r="AJ119" s="374"/>
-      <c r="AK119" s="374"/>
-      <c r="AL119" s="374"/>
-      <c r="AM119" s="374"/>
-      <c r="AN119" s="374"/>
-      <c r="AO119" s="374"/>
-      <c r="AP119" s="374"/>
-      <c r="AQ119" s="375"/>
+      <c r="Q119" s="194"/>
+      <c r="R119" s="196"/>
+      <c r="S119" s="196"/>
+      <c r="T119" s="196"/>
+      <c r="U119" s="196"/>
+      <c r="V119" s="195"/>
+      <c r="W119" s="197"/>
+      <c r="X119" s="198"/>
+      <c r="Y119" s="198"/>
+      <c r="Z119" s="198"/>
+      <c r="AA119" s="198"/>
+      <c r="AB119" s="198"/>
+      <c r="AC119" s="198"/>
+      <c r="AD119" s="198"/>
+      <c r="AE119" s="198"/>
+      <c r="AF119" s="199"/>
+      <c r="AG119" s="197"/>
+      <c r="AH119" s="198"/>
+      <c r="AI119" s="198"/>
+      <c r="AJ119" s="198"/>
+      <c r="AK119" s="198"/>
+      <c r="AL119" s="198"/>
+      <c r="AM119" s="198"/>
+      <c r="AN119" s="198"/>
+      <c r="AO119" s="198"/>
+      <c r="AP119" s="198"/>
+      <c r="AQ119" s="199"/>
     </row>
     <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="376" t="s">
+      <c r="B120" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="377"/>
-      <c r="D120" s="377"/>
-      <c r="E120" s="378"/>
-      <c r="F120" s="382"/>
-      <c r="G120" s="383"/>
-      <c r="H120" s="383"/>
-      <c r="I120" s="383"/>
-      <c r="J120" s="383"/>
-      <c r="K120" s="383"/>
-      <c r="L120" s="383"/>
-      <c r="M120" s="383"/>
-      <c r="N120" s="383"/>
-      <c r="O120" s="383"/>
-      <c r="P120" s="383"/>
-      <c r="Q120" s="383"/>
-      <c r="R120" s="383"/>
-      <c r="S120" s="383"/>
-      <c r="T120" s="383"/>
-      <c r="U120" s="383"/>
-      <c r="V120" s="383"/>
-      <c r="W120" s="383"/>
-      <c r="X120" s="383"/>
-      <c r="Y120" s="383"/>
-      <c r="Z120" s="383"/>
-      <c r="AA120" s="383"/>
-      <c r="AB120" s="383"/>
-      <c r="AC120" s="383"/>
-      <c r="AD120" s="383"/>
-      <c r="AE120" s="383"/>
-      <c r="AF120" s="383"/>
-      <c r="AG120" s="383"/>
-      <c r="AH120" s="383"/>
-      <c r="AI120" s="383"/>
-      <c r="AJ120" s="383"/>
-      <c r="AK120" s="383"/>
-      <c r="AL120" s="383"/>
-      <c r="AM120" s="383"/>
-      <c r="AN120" s="383"/>
-      <c r="AO120" s="383"/>
-      <c r="AP120" s="383"/>
-      <c r="AQ120" s="384"/>
+      <c r="C120" s="177"/>
+      <c r="D120" s="177"/>
+      <c r="E120" s="178"/>
+      <c r="F120" s="182"/>
+      <c r="G120" s="183"/>
+      <c r="H120" s="183"/>
+      <c r="I120" s="183"/>
+      <c r="J120" s="183"/>
+      <c r="K120" s="183"/>
+      <c r="L120" s="183"/>
+      <c r="M120" s="183"/>
+      <c r="N120" s="183"/>
+      <c r="O120" s="183"/>
+      <c r="P120" s="183"/>
+      <c r="Q120" s="183"/>
+      <c r="R120" s="183"/>
+      <c r="S120" s="183"/>
+      <c r="T120" s="183"/>
+      <c r="U120" s="183"/>
+      <c r="V120" s="183"/>
+      <c r="W120" s="183"/>
+      <c r="X120" s="183"/>
+      <c r="Y120" s="183"/>
+      <c r="Z120" s="183"/>
+      <c r="AA120" s="183"/>
+      <c r="AB120" s="183"/>
+      <c r="AC120" s="183"/>
+      <c r="AD120" s="183"/>
+      <c r="AE120" s="183"/>
+      <c r="AF120" s="183"/>
+      <c r="AG120" s="183"/>
+      <c r="AH120" s="183"/>
+      <c r="AI120" s="183"/>
+      <c r="AJ120" s="183"/>
+      <c r="AK120" s="183"/>
+      <c r="AL120" s="183"/>
+      <c r="AM120" s="183"/>
+      <c r="AN120" s="183"/>
+      <c r="AO120" s="183"/>
+      <c r="AP120" s="183"/>
+      <c r="AQ120" s="184"/>
     </row>
     <row r="121" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="379"/>
-      <c r="C121" s="380"/>
-      <c r="D121" s="380"/>
-      <c r="E121" s="381"/>
-      <c r="F121" s="385"/>
-      <c r="G121" s="386"/>
-      <c r="H121" s="386"/>
-      <c r="I121" s="386"/>
-      <c r="J121" s="386"/>
-      <c r="K121" s="386"/>
-      <c r="L121" s="386"/>
-      <c r="M121" s="386"/>
-      <c r="N121" s="386"/>
-      <c r="O121" s="386"/>
-      <c r="P121" s="386"/>
-      <c r="Q121" s="386"/>
-      <c r="R121" s="386"/>
-      <c r="S121" s="386"/>
-      <c r="T121" s="386"/>
-      <c r="U121" s="386"/>
-      <c r="V121" s="386"/>
-      <c r="W121" s="386"/>
-      <c r="X121" s="386"/>
-      <c r="Y121" s="386"/>
-      <c r="Z121" s="386"/>
-      <c r="AA121" s="386"/>
-      <c r="AB121" s="386"/>
-      <c r="AC121" s="386"/>
-      <c r="AD121" s="386"/>
-      <c r="AE121" s="386"/>
-      <c r="AF121" s="386"/>
-      <c r="AG121" s="386"/>
-      <c r="AH121" s="386"/>
-      <c r="AI121" s="386"/>
-      <c r="AJ121" s="386"/>
-      <c r="AK121" s="386"/>
-      <c r="AL121" s="386"/>
-      <c r="AM121" s="386"/>
-      <c r="AN121" s="386"/>
-      <c r="AO121" s="386"/>
-      <c r="AP121" s="386"/>
-      <c r="AQ121" s="387"/>
+      <c r="B121" s="179"/>
+      <c r="C121" s="180"/>
+      <c r="D121" s="180"/>
+      <c r="E121" s="181"/>
+      <c r="F121" s="185"/>
+      <c r="G121" s="186"/>
+      <c r="H121" s="186"/>
+      <c r="I121" s="186"/>
+      <c r="J121" s="186"/>
+      <c r="K121" s="186"/>
+      <c r="L121" s="186"/>
+      <c r="M121" s="186"/>
+      <c r="N121" s="186"/>
+      <c r="O121" s="186"/>
+      <c r="P121" s="186"/>
+      <c r="Q121" s="186"/>
+      <c r="R121" s="186"/>
+      <c r="S121" s="186"/>
+      <c r="T121" s="186"/>
+      <c r="U121" s="186"/>
+      <c r="V121" s="186"/>
+      <c r="W121" s="186"/>
+      <c r="X121" s="186"/>
+      <c r="Y121" s="186"/>
+      <c r="Z121" s="186"/>
+      <c r="AA121" s="186"/>
+      <c r="AB121" s="186"/>
+      <c r="AC121" s="186"/>
+      <c r="AD121" s="186"/>
+      <c r="AE121" s="186"/>
+      <c r="AF121" s="186"/>
+      <c r="AG121" s="186"/>
+      <c r="AH121" s="186"/>
+      <c r="AI121" s="186"/>
+      <c r="AJ121" s="186"/>
+      <c r="AK121" s="186"/>
+      <c r="AL121" s="186"/>
+      <c r="AM121" s="186"/>
+      <c r="AN121" s="186"/>
+      <c r="AO121" s="186"/>
+      <c r="AP121" s="186"/>
+      <c r="AQ121" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="342">
+    <mergeCell ref="F2:P5"/>
+    <mergeCell ref="R2:AQ2"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AI3:AQ3"/>
+    <mergeCell ref="R4:V5"/>
+    <mergeCell ref="W4:AH5"/>
+    <mergeCell ref="AI4:AQ4"/>
+    <mergeCell ref="AI5:AQ5"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="U9:AP9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="U11:AP11"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="L15:AB15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="L18:AA18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:AQ22"/>
+    <mergeCell ref="B23:AQ23"/>
+    <mergeCell ref="B24:AQ24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="H32:R32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="AI34:AM34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="H35:R35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AI37:AM37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="H38:R38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="AI40:AM40"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="H41:R41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="AI43:AM43"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="H44:R44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:AA46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="AI46:AM46"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="H47:R47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AI49:AM49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:AA52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AI52:AM52"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="AC53:AE53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q57:AA57"/>
+    <mergeCell ref="AB57:AQ57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:AA58"/>
+    <mergeCell ref="AB58:AQ58"/>
+    <mergeCell ref="C59:AQ59"/>
+    <mergeCell ref="C60:AQ60"/>
+    <mergeCell ref="F66:O69"/>
+    <mergeCell ref="R66:AQ66"/>
+    <mergeCell ref="R67:V67"/>
+    <mergeCell ref="W67:AH67"/>
+    <mergeCell ref="AI67:AQ67"/>
+    <mergeCell ref="R68:V69"/>
+    <mergeCell ref="W68:AH69"/>
+    <mergeCell ref="AI68:AQ68"/>
+    <mergeCell ref="AI69:AQ69"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="AI73:AO73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="AJ74:AO74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="AJ76:AO76"/>
+    <mergeCell ref="AJ78:AO78"/>
+    <mergeCell ref="K79:R79"/>
+    <mergeCell ref="AJ79:AO79"/>
+    <mergeCell ref="AJ80:AO80"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="X82:AC82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="X83:AC83"/>
+    <mergeCell ref="AJ83:AO83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="X84:AC84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="X85:AC85"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="X86:AC86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="X87:AC87"/>
+    <mergeCell ref="AJ87:AO87"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="X88:AC88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="X89:AC89"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="X90:AC90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="X91:AC91"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="X95:AC95"/>
+    <mergeCell ref="AJ95:AO95"/>
+    <mergeCell ref="AJ91:AO91"/>
+    <mergeCell ref="M92:P92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="X92:AC92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:P93"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="X93:AC93"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="X97:AC97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="X98:AC98"/>
+    <mergeCell ref="AJ100:AO100"/>
+    <mergeCell ref="AJ101:AO101"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="X94:AC94"/>
+    <mergeCell ref="B104:L105"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="S104:AI105"/>
+    <mergeCell ref="AJ104:AL104"/>
+    <mergeCell ref="AM104:AN104"/>
+    <mergeCell ref="AO104:AP104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="AJ105:AL105"/>
+    <mergeCell ref="AM105:AN105"/>
+    <mergeCell ref="AO105:AP105"/>
+    <mergeCell ref="B106:L107"/>
+    <mergeCell ref="M106:N108"/>
+    <mergeCell ref="O106:P108"/>
+    <mergeCell ref="S106:AI106"/>
+    <mergeCell ref="AM106:AN108"/>
+    <mergeCell ref="AO106:AP108"/>
+    <mergeCell ref="Q106:Q108"/>
+    <mergeCell ref="S107:AK107"/>
+    <mergeCell ref="AQ106:AQ108"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="S108:AI108"/>
+    <mergeCell ref="S109:AI109"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F111:K111"/>
+    <mergeCell ref="N111:T111"/>
+    <mergeCell ref="V111:AE111"/>
+    <mergeCell ref="AF111:AQ111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:M112"/>
+    <mergeCell ref="N112:T112"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:AQ112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="N113:T113"/>
+    <mergeCell ref="U113:AQ113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:M114"/>
+    <mergeCell ref="N114:T114"/>
+    <mergeCell ref="U114:AE114"/>
+    <mergeCell ref="AF114:AQ114"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="I116:J117"/>
+    <mergeCell ref="M116:P117"/>
+    <mergeCell ref="Q116:V117"/>
+    <mergeCell ref="W116:AQ116"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K116:K117"/>
     <mergeCell ref="B120:E121"/>
     <mergeCell ref="F120:AQ121"/>
     <mergeCell ref="S79:T79"/>
@@ -8605,324 +8936,6 @@
     <mergeCell ref="F115:M115"/>
     <mergeCell ref="N115:T115"/>
     <mergeCell ref="U115:AQ115"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="I116:J117"/>
-    <mergeCell ref="M116:P117"/>
-    <mergeCell ref="Q116:V117"/>
-    <mergeCell ref="W116:AQ116"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:M113"/>
-    <mergeCell ref="N113:T113"/>
-    <mergeCell ref="U113:AQ113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="F114:M114"/>
-    <mergeCell ref="N114:T114"/>
-    <mergeCell ref="U114:AE114"/>
-    <mergeCell ref="AF114:AQ114"/>
-    <mergeCell ref="S109:AI109"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:K111"/>
-    <mergeCell ref="N111:T111"/>
-    <mergeCell ref="V111:AE111"/>
-    <mergeCell ref="AF111:AQ111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="F112:M112"/>
-    <mergeCell ref="N112:T112"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W112:X112"/>
-    <mergeCell ref="Y112:AQ112"/>
-    <mergeCell ref="B106:L107"/>
-    <mergeCell ref="M106:N108"/>
-    <mergeCell ref="O106:P108"/>
-    <mergeCell ref="S106:AI106"/>
-    <mergeCell ref="AM106:AN108"/>
-    <mergeCell ref="AO106:AP108"/>
-    <mergeCell ref="Q106:Q108"/>
-    <mergeCell ref="S107:AK107"/>
-    <mergeCell ref="AQ106:AQ108"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="S108:AI108"/>
-    <mergeCell ref="B104:L105"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="S104:AI105"/>
-    <mergeCell ref="AJ104:AL104"/>
-    <mergeCell ref="AM104:AN104"/>
-    <mergeCell ref="AO104:AP104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="AJ105:AL105"/>
-    <mergeCell ref="AM105:AN105"/>
-    <mergeCell ref="AO105:AP105"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="X97:AC97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="X98:AC98"/>
-    <mergeCell ref="AJ100:AO100"/>
-    <mergeCell ref="AJ101:AO101"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="X94:AC94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="X95:AC95"/>
-    <mergeCell ref="AJ95:AO95"/>
-    <mergeCell ref="AJ91:AO91"/>
-    <mergeCell ref="M92:P92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="X92:AC92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:P93"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="X93:AC93"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="X89:AC89"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="X90:AC90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="M91:P91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="X91:AC91"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="X86:AC86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="X87:AC87"/>
-    <mergeCell ref="AJ87:AO87"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="X88:AC88"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="X83:AC83"/>
-    <mergeCell ref="AJ83:AO83"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="X84:AC84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="X85:AC85"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="AJ76:AO76"/>
-    <mergeCell ref="AJ78:AO78"/>
-    <mergeCell ref="K79:R79"/>
-    <mergeCell ref="AJ79:AO79"/>
-    <mergeCell ref="AJ80:AO80"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="X82:AC82"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="AI73:AO73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="AJ74:AO74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:AA58"/>
-    <mergeCell ref="AB58:AQ58"/>
-    <mergeCell ref="C59:AQ59"/>
-    <mergeCell ref="C60:AQ60"/>
-    <mergeCell ref="F66:O69"/>
-    <mergeCell ref="R66:AQ66"/>
-    <mergeCell ref="R67:V67"/>
-    <mergeCell ref="W67:AH67"/>
-    <mergeCell ref="AI67:AQ67"/>
-    <mergeCell ref="R68:V69"/>
-    <mergeCell ref="W68:AH69"/>
-    <mergeCell ref="AI68:AQ68"/>
-    <mergeCell ref="AI69:AQ69"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="AC53:AE53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AI53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q57:AA57"/>
-    <mergeCell ref="AB57:AQ57"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AL50:AM50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:AA52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="AI52:AM52"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:AA49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AI49:AM49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="H44:R44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="AL44:AM44"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:AA46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="AI46:AM46"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="H41:R41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="AI43:AM43"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="AI40:AM40"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="H35:R35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AI37:AM37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="H32:R32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="AI34:AM34"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="H29:R29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AK29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="B23:AQ23"/>
-    <mergeCell ref="B24:AQ24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="L18:AA18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:AQ22"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="U9:AP9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="U11:AP11"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="L15:AB15"/>
-    <mergeCell ref="F2:P5"/>
-    <mergeCell ref="R2:AQ2"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AI3:AQ3"/>
-    <mergeCell ref="R4:V5"/>
-    <mergeCell ref="W4:AH5"/>
-    <mergeCell ref="AI4:AQ4"/>
-    <mergeCell ref="AI5:AQ5"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/api/assets/adm322.xlsx
+++ b/api/assets/adm322.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_6A73AFD9E9B40C13B7490A1568F76A635B2C894B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB2DAB7C-0405-452E-A9EF-7AB86994C270}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_6A73AFD9E9B40C13B7490A1568F76A635B2C894B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3653BF6-CB87-49FB-BC62-1CB1A1A96895}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,9 +446,6 @@
     <t xml:space="preserve">  Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">  Pay Stub Comment:</t>
-  </si>
-  <si>
     <t>PST</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>% (rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pay Stub Comment</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="374">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1533,6 +1533,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,6 +1611,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1572,14 +1644,32 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,6 +1728,33 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,6 +1764,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,13 +1780,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1671,6 +1809,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1794,6 +1944,12 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1803,12 +1959,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1821,15 +1989,36 @@
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1887,20 +2076,56 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1908,8 +2133,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1927,6 +2179,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,6 +2194,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1950,274 +2212,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2616,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:BI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="178" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116:J117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="178" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113:M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2665,98 +2659,98 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="250" t="s">
+      <c r="F2" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="251" t="s">
+      <c r="R2" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="252"/>
-      <c r="AA2" s="252"/>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="252"/>
-      <c r="AD2" s="252"/>
-      <c r="AE2" s="252"/>
-      <c r="AF2" s="252"/>
-      <c r="AG2" s="252"/>
-      <c r="AH2" s="252"/>
-      <c r="AI2" s="252"/>
-      <c r="AJ2" s="252"/>
-      <c r="AK2" s="252"/>
-      <c r="AL2" s="252"/>
-      <c r="AM2" s="252"/>
-      <c r="AN2" s="252"/>
-      <c r="AO2" s="252"/>
-      <c r="AP2" s="252"/>
-      <c r="AQ2" s="253"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="316"/>
+      <c r="AC2" s="316"/>
+      <c r="AD2" s="316"/>
+      <c r="AE2" s="316"/>
+      <c r="AF2" s="316"/>
+      <c r="AG2" s="316"/>
+      <c r="AH2" s="316"/>
+      <c r="AI2" s="316"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="316"/>
+      <c r="AL2" s="316"/>
+      <c r="AM2" s="316"/>
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="316"/>
+      <c r="AP2" s="316"/>
+      <c r="AQ2" s="317"/>
     </row>
     <row r="3" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="314"/>
+      <c r="N3" s="314"/>
+      <c r="O3" s="314"/>
+      <c r="P3" s="314"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="254" t="s">
+      <c r="R3" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="254" t="s">
+      <c r="S3" s="319"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
+      <c r="W3" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="255"/>
-      <c r="AB3" s="255"/>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="255"/>
-      <c r="AE3" s="255"/>
-      <c r="AF3" s="255"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="254" t="s">
+      <c r="X3" s="319"/>
+      <c r="Y3" s="319"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="319"/>
+      <c r="AD3" s="319"/>
+      <c r="AE3" s="319"/>
+      <c r="AF3" s="319"/>
+      <c r="AG3" s="319"/>
+      <c r="AH3" s="320"/>
+      <c r="AI3" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="255"/>
-      <c r="AK3" s="255"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="255"/>
-      <c r="AN3" s="255"/>
-      <c r="AO3" s="255"/>
-      <c r="AP3" s="255"/>
-      <c r="AQ3" s="256"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="319"/>
+      <c r="AL3" s="319"/>
+      <c r="AM3" s="319"/>
+      <c r="AN3" s="319"/>
+      <c r="AO3" s="319"/>
+      <c r="AP3" s="319"/>
+      <c r="AQ3" s="320"/>
       <c r="AR3" s="1"/>
     </row>
     <row r="4" spans="1:60" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,87 +2758,87 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="250"/>
-      <c r="N4" s="250"/>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
+      <c r="O4" s="314"/>
+      <c r="P4" s="314"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="257"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="258"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="263"/>
-      <c r="X4" s="264"/>
-      <c r="Y4" s="264"/>
-      <c r="Z4" s="264"/>
-      <c r="AA4" s="264"/>
-      <c r="AB4" s="264"/>
-      <c r="AC4" s="264"/>
-      <c r="AD4" s="264"/>
-      <c r="AE4" s="264"/>
-      <c r="AF4" s="264"/>
-      <c r="AG4" s="264"/>
-      <c r="AH4" s="265"/>
-      <c r="AI4" s="231" t="s">
+      <c r="R4" s="321"/>
+      <c r="S4" s="322"/>
+      <c r="T4" s="322"/>
+      <c r="U4" s="322"/>
+      <c r="V4" s="323"/>
+      <c r="W4" s="327"/>
+      <c r="X4" s="328"/>
+      <c r="Y4" s="328"/>
+      <c r="Z4" s="328"/>
+      <c r="AA4" s="328"/>
+      <c r="AB4" s="328"/>
+      <c r="AC4" s="328"/>
+      <c r="AD4" s="328"/>
+      <c r="AE4" s="328"/>
+      <c r="AF4" s="328"/>
+      <c r="AG4" s="328"/>
+      <c r="AH4" s="329"/>
+      <c r="AI4" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="232"/>
-      <c r="AK4" s="232"/>
-      <c r="AL4" s="232"/>
-      <c r="AM4" s="232"/>
-      <c r="AN4" s="232"/>
-      <c r="AO4" s="232"/>
-      <c r="AP4" s="232"/>
-      <c r="AQ4" s="235"/>
+      <c r="AJ4" s="283"/>
+      <c r="AK4" s="283"/>
+      <c r="AL4" s="283"/>
+      <c r="AM4" s="283"/>
+      <c r="AN4" s="283"/>
+      <c r="AO4" s="283"/>
+      <c r="AP4" s="283"/>
+      <c r="AQ4" s="286"/>
       <c r="AR4" s="1"/>
     </row>
     <row r="5" spans="1:60" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="250"/>
-      <c r="P5" s="250"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="314"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="260"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="261"/>
-      <c r="U5" s="261"/>
-      <c r="V5" s="262"/>
-      <c r="W5" s="260"/>
-      <c r="X5" s="261"/>
-      <c r="Y5" s="261"/>
-      <c r="Z5" s="261"/>
-      <c r="AA5" s="261"/>
-      <c r="AB5" s="261"/>
-      <c r="AC5" s="261"/>
-      <c r="AD5" s="261"/>
-      <c r="AE5" s="261"/>
-      <c r="AF5" s="261"/>
-      <c r="AG5" s="261"/>
-      <c r="AH5" s="262"/>
-      <c r="AI5" s="285"/>
-      <c r="AJ5" s="286"/>
-      <c r="AK5" s="286"/>
-      <c r="AL5" s="286"/>
-      <c r="AM5" s="286"/>
-      <c r="AN5" s="286"/>
-      <c r="AO5" s="286"/>
-      <c r="AP5" s="286"/>
-      <c r="AQ5" s="287"/>
+      <c r="R5" s="324"/>
+      <c r="S5" s="325"/>
+      <c r="T5" s="325"/>
+      <c r="U5" s="325"/>
+      <c r="V5" s="326"/>
+      <c r="W5" s="324"/>
+      <c r="X5" s="325"/>
+      <c r="Y5" s="325"/>
+      <c r="Z5" s="325"/>
+      <c r="AA5" s="325"/>
+      <c r="AB5" s="325"/>
+      <c r="AC5" s="325"/>
+      <c r="AD5" s="325"/>
+      <c r="AE5" s="325"/>
+      <c r="AF5" s="325"/>
+      <c r="AG5" s="325"/>
+      <c r="AH5" s="326"/>
+      <c r="AI5" s="371"/>
+      <c r="AJ5" s="372"/>
+      <c r="AK5" s="372"/>
+      <c r="AL5" s="372"/>
+      <c r="AM5" s="372"/>
+      <c r="AN5" s="372"/>
+      <c r="AO5" s="372"/>
+      <c r="AP5" s="372"/>
+      <c r="AQ5" s="373"/>
       <c r="AR5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
@@ -2972,46 +2966,46 @@
       <c r="BH8" s="1"/>
     </row>
     <row r="9" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="313"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="310"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="310"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
+      <c r="B9" s="364"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="353"/>
+      <c r="J9" s="353"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="353"/>
+      <c r="O9" s="353"/>
       <c r="P9" s="14"/>
       <c r="R9" s="18"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="315"/>
-      <c r="V9" s="315"/>
-      <c r="W9" s="315"/>
-      <c r="X9" s="315"/>
-      <c r="Y9" s="315"/>
-      <c r="Z9" s="315"/>
-      <c r="AA9" s="315"/>
-      <c r="AB9" s="315"/>
-      <c r="AC9" s="315"/>
-      <c r="AD9" s="315"/>
-      <c r="AE9" s="315"/>
-      <c r="AF9" s="315"/>
-      <c r="AG9" s="315"/>
-      <c r="AH9" s="315"/>
-      <c r="AI9" s="315"/>
-      <c r="AJ9" s="315"/>
-      <c r="AK9" s="315"/>
-      <c r="AL9" s="315"/>
-      <c r="AM9" s="315"/>
-      <c r="AN9" s="315"/>
-      <c r="AO9" s="315"/>
-      <c r="AP9" s="315"/>
+      <c r="U9" s="356"/>
+      <c r="V9" s="356"/>
+      <c r="W9" s="356"/>
+      <c r="X9" s="356"/>
+      <c r="Y9" s="356"/>
+      <c r="Z9" s="356"/>
+      <c r="AA9" s="356"/>
+      <c r="AB9" s="356"/>
+      <c r="AC9" s="356"/>
+      <c r="AD9" s="356"/>
+      <c r="AE9" s="356"/>
+      <c r="AF9" s="356"/>
+      <c r="AG9" s="356"/>
+      <c r="AH9" s="356"/>
+      <c r="AI9" s="356"/>
+      <c r="AJ9" s="356"/>
+      <c r="AK9" s="356"/>
+      <c r="AL9" s="356"/>
+      <c r="AM9" s="356"/>
+      <c r="AN9" s="356"/>
+      <c r="AO9" s="356"/>
+      <c r="AP9" s="356"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3020,22 +3014,22 @@
       <c r="BH9" s="1"/>
     </row>
     <row r="10" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="365" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="283"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="284"/>
-      <c r="I10" s="284"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="284"/>
-      <c r="L10" s="284"/>
-      <c r="M10" s="284"/>
-      <c r="N10" s="284"/>
-      <c r="O10" s="284"/>
+      <c r="C10" s="366"/>
+      <c r="D10" s="366"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="367"/>
+      <c r="G10" s="367"/>
+      <c r="H10" s="368"/>
+      <c r="I10" s="368"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="368"/>
+      <c r="N10" s="368"/>
+      <c r="O10" s="368"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3069,47 +3063,47 @@
       <c r="BH10" s="1"/>
     </row>
     <row r="11" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="319"/>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="320"/>
-      <c r="N11" s="320"/>
-      <c r="O11" s="320"/>
+      <c r="B11" s="369"/>
+      <c r="C11" s="370"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="370"/>
+      <c r="F11" s="370"/>
+      <c r="G11" s="370"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="370"/>
+      <c r="L11" s="370"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="370"/>
+      <c r="O11" s="370"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="315"/>
-      <c r="V11" s="315"/>
-      <c r="W11" s="315"/>
-      <c r="X11" s="315"/>
-      <c r="Y11" s="315"/>
-      <c r="Z11" s="315"/>
-      <c r="AA11" s="315"/>
-      <c r="AB11" s="315"/>
-      <c r="AC11" s="315"/>
-      <c r="AD11" s="315"/>
-      <c r="AE11" s="315"/>
-      <c r="AF11" s="315"/>
-      <c r="AG11" s="315"/>
-      <c r="AH11" s="315"/>
-      <c r="AI11" s="315"/>
-      <c r="AJ11" s="315"/>
-      <c r="AK11" s="315"/>
-      <c r="AL11" s="315"/>
-      <c r="AM11" s="315"/>
-      <c r="AN11" s="315"/>
-      <c r="AO11" s="315"/>
-      <c r="AP11" s="315"/>
+      <c r="U11" s="356"/>
+      <c r="V11" s="356"/>
+      <c r="W11" s="356"/>
+      <c r="X11" s="356"/>
+      <c r="Y11" s="356"/>
+      <c r="Z11" s="356"/>
+      <c r="AA11" s="356"/>
+      <c r="AB11" s="356"/>
+      <c r="AC11" s="356"/>
+      <c r="AD11" s="356"/>
+      <c r="AE11" s="356"/>
+      <c r="AF11" s="356"/>
+      <c r="AG11" s="356"/>
+      <c r="AH11" s="356"/>
+      <c r="AI11" s="356"/>
+      <c r="AJ11" s="356"/>
+      <c r="AK11" s="356"/>
+      <c r="AL11" s="356"/>
+      <c r="AM11" s="356"/>
+      <c r="AN11" s="356"/>
+      <c r="AO11" s="356"/>
+      <c r="AP11" s="356"/>
       <c r="AQ11" s="23"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3255,33 +3249,33 @@
       <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="313"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="310"/>
-      <c r="H15" s="310"/>
-      <c r="I15" s="310"/>
-      <c r="J15" s="310"/>
+      <c r="B15" s="364"/>
+      <c r="C15" s="353"/>
+      <c r="D15" s="353"/>
+      <c r="E15" s="353"/>
+      <c r="F15" s="353"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="353"/>
+      <c r="J15" s="353"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="310"/>
-      <c r="M15" s="310"/>
-      <c r="N15" s="310"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="310"/>
-      <c r="Q15" s="310"/>
-      <c r="R15" s="310"/>
-      <c r="S15" s="310"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="310"/>
-      <c r="V15" s="310"/>
-      <c r="W15" s="310"/>
-      <c r="X15" s="310"/>
-      <c r="Y15" s="310"/>
-      <c r="Z15" s="310"/>
-      <c r="AA15" s="310"/>
-      <c r="AB15" s="310"/>
+      <c r="L15" s="353"/>
+      <c r="M15" s="353"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="353"/>
+      <c r="P15" s="353"/>
+      <c r="Q15" s="353"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="353"/>
+      <c r="T15" s="353"/>
+      <c r="U15" s="353"/>
+      <c r="V15" s="353"/>
+      <c r="W15" s="353"/>
+      <c r="X15" s="353"/>
+      <c r="Y15" s="353"/>
+      <c r="Z15" s="353"/>
+      <c r="AA15" s="353"/>
+      <c r="AB15" s="353"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="1"/>
@@ -3371,33 +3365,33 @@
     </row>
     <row r="17" spans="1:61" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="311"/>
-      <c r="C17" s="312"/>
-      <c r="D17" s="312"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="312"/>
-      <c r="G17" s="312"/>
-      <c r="H17" s="312"/>
-      <c r="I17" s="312"/>
-      <c r="J17" s="312"/>
+      <c r="B17" s="351"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="352"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="352"/>
+      <c r="H17" s="352"/>
+      <c r="I17" s="352"/>
+      <c r="J17" s="352"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="310"/>
-      <c r="Q17" s="310"/>
-      <c r="R17" s="310"/>
-      <c r="S17" s="310"/>
-      <c r="T17" s="310"/>
-      <c r="U17" s="310"/>
-      <c r="V17" s="310"/>
-      <c r="W17" s="310"/>
-      <c r="X17" s="310"/>
-      <c r="Y17" s="310"/>
-      <c r="Z17" s="310"/>
-      <c r="AA17" s="310"/>
-      <c r="AB17" s="310"/>
+      <c r="L17" s="353"/>
+      <c r="M17" s="353"/>
+      <c r="N17" s="353"/>
+      <c r="O17" s="353"/>
+      <c r="P17" s="353"/>
+      <c r="Q17" s="353"/>
+      <c r="R17" s="353"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="353"/>
+      <c r="U17" s="353"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="353"/>
+      <c r="X17" s="353"/>
+      <c r="Y17" s="353"/>
+      <c r="Z17" s="353"/>
+      <c r="AA17" s="353"/>
+      <c r="AB17" s="353"/>
       <c r="AC17" s="28"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="1"/>
@@ -3444,24 +3438,24 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="276" t="s">
+      <c r="L18" s="354" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="276"/>
-      <c r="N18" s="276"/>
-      <c r="O18" s="276"/>
-      <c r="P18" s="276"/>
-      <c r="Q18" s="276"/>
-      <c r="R18" s="276"/>
-      <c r="S18" s="276"/>
-      <c r="T18" s="276"/>
-      <c r="U18" s="276"/>
-      <c r="V18" s="276"/>
-      <c r="W18" s="276"/>
-      <c r="X18" s="276"/>
-      <c r="Y18" s="276"/>
-      <c r="Z18" s="276"/>
-      <c r="AA18" s="276"/>
+      <c r="M18" s="354"/>
+      <c r="N18" s="354"/>
+      <c r="O18" s="354"/>
+      <c r="P18" s="354"/>
+      <c r="Q18" s="354"/>
+      <c r="R18" s="354"/>
+      <c r="S18" s="354"/>
+      <c r="T18" s="354"/>
+      <c r="U18" s="354"/>
+      <c r="V18" s="354"/>
+      <c r="W18" s="354"/>
+      <c r="X18" s="354"/>
+      <c r="Y18" s="354"/>
+      <c r="Z18" s="354"/>
+      <c r="AA18" s="354"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -3498,33 +3492,33 @@
       <c r="BI18" s="1"/>
     </row>
     <row r="19" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="314"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="315"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="315"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="356"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="356"/>
+      <c r="F19" s="356"/>
+      <c r="G19" s="356"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="356"/>
+      <c r="J19" s="356"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="310"/>
-      <c r="M19" s="310"/>
-      <c r="N19" s="310"/>
-      <c r="O19" s="310"/>
-      <c r="P19" s="310"/>
-      <c r="Q19" s="310"/>
-      <c r="R19" s="310"/>
-      <c r="S19" s="310"/>
-      <c r="T19" s="310"/>
-      <c r="U19" s="310"/>
-      <c r="V19" s="310"/>
-      <c r="W19" s="310"/>
-      <c r="X19" s="310"/>
-      <c r="Y19" s="310"/>
-      <c r="Z19" s="310"/>
-      <c r="AA19" s="310"/>
-      <c r="AB19" s="310"/>
+      <c r="L19" s="353"/>
+      <c r="M19" s="353"/>
+      <c r="N19" s="353"/>
+      <c r="O19" s="353"/>
+      <c r="P19" s="353"/>
+      <c r="Q19" s="353"/>
+      <c r="R19" s="353"/>
+      <c r="S19" s="353"/>
+      <c r="T19" s="353"/>
+      <c r="U19" s="353"/>
+      <c r="V19" s="353"/>
+      <c r="W19" s="353"/>
+      <c r="X19" s="353"/>
+      <c r="Y19" s="353"/>
+      <c r="Z19" s="353"/>
+      <c r="AA19" s="353"/>
+      <c r="AB19" s="353"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -3580,33 +3574,33 @@
       <c r="AQ20" s="17"/>
     </row>
     <row r="21" spans="1:61" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="316"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="317"/>
-      <c r="E21" s="317"/>
-      <c r="F21" s="317"/>
-      <c r="G21" s="317"/>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
+      <c r="B21" s="357"/>
+      <c r="C21" s="358"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="358"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="358"/>
+      <c r="H21" s="358"/>
+      <c r="I21" s="358"/>
+      <c r="J21" s="358"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="318"/>
-      <c r="M21" s="318"/>
-      <c r="N21" s="318"/>
-      <c r="O21" s="318"/>
-      <c r="P21" s="318"/>
-      <c r="Q21" s="318"/>
-      <c r="R21" s="318"/>
-      <c r="S21" s="318"/>
-      <c r="T21" s="318"/>
-      <c r="U21" s="318"/>
-      <c r="V21" s="318"/>
-      <c r="W21" s="318"/>
-      <c r="X21" s="318"/>
-      <c r="Y21" s="318"/>
-      <c r="Z21" s="318"/>
-      <c r="AA21" s="318"/>
-      <c r="AB21" s="318"/>
+      <c r="L21" s="359"/>
+      <c r="M21" s="359"/>
+      <c r="N21" s="359"/>
+      <c r="O21" s="359"/>
+      <c r="P21" s="359"/>
+      <c r="Q21" s="359"/>
+      <c r="R21" s="359"/>
+      <c r="S21" s="359"/>
+      <c r="T21" s="359"/>
+      <c r="U21" s="359"/>
+      <c r="V21" s="359"/>
+      <c r="W21" s="359"/>
+      <c r="X21" s="359"/>
+      <c r="Y21" s="359"/>
+      <c r="Z21" s="359"/>
+      <c r="AA21" s="359"/>
+      <c r="AB21" s="359"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
@@ -3626,138 +3620,138 @@
       <c r="AW21" s="36"/>
     </row>
     <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="277" t="s">
+      <c r="B22" s="360" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="278"/>
-      <c r="D22" s="278"/>
-      <c r="E22" s="278"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="279"/>
-      <c r="I22" s="279"/>
-      <c r="J22" s="279"/>
-      <c r="K22" s="279"/>
-      <c r="L22" s="279"/>
-      <c r="M22" s="279"/>
-      <c r="N22" s="279"/>
-      <c r="O22" s="279"/>
-      <c r="P22" s="279"/>
-      <c r="Q22" s="279"/>
-      <c r="R22" s="279"/>
-      <c r="S22" s="279"/>
-      <c r="T22" s="279"/>
-      <c r="U22" s="279"/>
-      <c r="V22" s="279"/>
-      <c r="W22" s="279"/>
-      <c r="X22" s="279"/>
-      <c r="Y22" s="279"/>
-      <c r="Z22" s="279"/>
-      <c r="AA22" s="279"/>
-      <c r="AB22" s="279"/>
-      <c r="AC22" s="279"/>
-      <c r="AD22" s="279"/>
-      <c r="AE22" s="279"/>
-      <c r="AF22" s="279"/>
-      <c r="AG22" s="279"/>
-      <c r="AH22" s="279"/>
-      <c r="AI22" s="279"/>
-      <c r="AJ22" s="279"/>
-      <c r="AK22" s="279"/>
-      <c r="AL22" s="279"/>
-      <c r="AM22" s="279"/>
-      <c r="AN22" s="279"/>
-      <c r="AO22" s="279"/>
-      <c r="AP22" s="279"/>
-      <c r="AQ22" s="280"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="361"/>
+      <c r="E22" s="361"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="362"/>
+      <c r="H22" s="362"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="362"/>
+      <c r="L22" s="362"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="362"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="362"/>
+      <c r="U22" s="362"/>
+      <c r="V22" s="362"/>
+      <c r="W22" s="362"/>
+      <c r="X22" s="362"/>
+      <c r="Y22" s="362"/>
+      <c r="Z22" s="362"/>
+      <c r="AA22" s="362"/>
+      <c r="AB22" s="362"/>
+      <c r="AC22" s="362"/>
+      <c r="AD22" s="362"/>
+      <c r="AE22" s="362"/>
+      <c r="AF22" s="362"/>
+      <c r="AG22" s="362"/>
+      <c r="AH22" s="362"/>
+      <c r="AI22" s="362"/>
+      <c r="AJ22" s="362"/>
+      <c r="AK22" s="362"/>
+      <c r="AL22" s="362"/>
+      <c r="AM22" s="362"/>
+      <c r="AN22" s="362"/>
+      <c r="AO22" s="362"/>
+      <c r="AP22" s="362"/>
+      <c r="AQ22" s="363"/>
     </row>
     <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="301"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="302"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="302"/>
-      <c r="H23" s="302"/>
-      <c r="I23" s="302"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="302"/>
-      <c r="L23" s="302"/>
-      <c r="M23" s="302"/>
-      <c r="N23" s="302"/>
-      <c r="O23" s="302"/>
-      <c r="P23" s="302"/>
-      <c r="Q23" s="302"/>
-      <c r="R23" s="302"/>
-      <c r="S23" s="302"/>
-      <c r="T23" s="302"/>
-      <c r="U23" s="302"/>
-      <c r="V23" s="302"/>
-      <c r="W23" s="302"/>
-      <c r="X23" s="302"/>
-      <c r="Y23" s="302"/>
-      <c r="Z23" s="302"/>
-      <c r="AA23" s="302"/>
-      <c r="AB23" s="302"/>
-      <c r="AC23" s="302"/>
-      <c r="AD23" s="302"/>
-      <c r="AE23" s="302"/>
-      <c r="AF23" s="302"/>
-      <c r="AG23" s="302"/>
-      <c r="AH23" s="302"/>
-      <c r="AI23" s="302"/>
-      <c r="AJ23" s="302"/>
-      <c r="AK23" s="302"/>
-      <c r="AL23" s="302"/>
-      <c r="AM23" s="302"/>
-      <c r="AN23" s="302"/>
-      <c r="AO23" s="302"/>
-      <c r="AP23" s="302"/>
-      <c r="AQ23" s="303"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="347"/>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="347"/>
+      <c r="H23" s="347"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
+      <c r="K23" s="347"/>
+      <c r="L23" s="347"/>
+      <c r="M23" s="347"/>
+      <c r="N23" s="347"/>
+      <c r="O23" s="347"/>
+      <c r="P23" s="347"/>
+      <c r="Q23" s="347"/>
+      <c r="R23" s="347"/>
+      <c r="S23" s="347"/>
+      <c r="T23" s="347"/>
+      <c r="U23" s="347"/>
+      <c r="V23" s="347"/>
+      <c r="W23" s="347"/>
+      <c r="X23" s="347"/>
+      <c r="Y23" s="347"/>
+      <c r="Z23" s="347"/>
+      <c r="AA23" s="347"/>
+      <c r="AB23" s="347"/>
+      <c r="AC23" s="347"/>
+      <c r="AD23" s="347"/>
+      <c r="AE23" s="347"/>
+      <c r="AF23" s="347"/>
+      <c r="AG23" s="347"/>
+      <c r="AH23" s="347"/>
+      <c r="AI23" s="347"/>
+      <c r="AJ23" s="347"/>
+      <c r="AK23" s="347"/>
+      <c r="AL23" s="347"/>
+      <c r="AM23" s="347"/>
+      <c r="AN23" s="347"/>
+      <c r="AO23" s="347"/>
+      <c r="AP23" s="347"/>
+      <c r="AQ23" s="348"/>
     </row>
     <row r="24" spans="1:61" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="274"/>
-      <c r="C24" s="274"/>
-      <c r="D24" s="274"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="274"/>
-      <c r="I24" s="274"/>
-      <c r="J24" s="274"/>
-      <c r="K24" s="274"/>
-      <c r="L24" s="274"/>
-      <c r="M24" s="274"/>
-      <c r="N24" s="274"/>
-      <c r="O24" s="274"/>
-      <c r="P24" s="274"/>
-      <c r="Q24" s="274"/>
-      <c r="R24" s="274"/>
-      <c r="S24" s="274"/>
-      <c r="T24" s="274"/>
-      <c r="U24" s="274"/>
-      <c r="V24" s="274"/>
-      <c r="W24" s="274"/>
-      <c r="X24" s="274"/>
-      <c r="Y24" s="274"/>
-      <c r="Z24" s="274"/>
-      <c r="AA24" s="274"/>
-      <c r="AB24" s="274"/>
-      <c r="AC24" s="274"/>
-      <c r="AD24" s="274"/>
-      <c r="AE24" s="274"/>
-      <c r="AF24" s="274"/>
-      <c r="AG24" s="274"/>
-      <c r="AH24" s="274"/>
-      <c r="AI24" s="274"/>
-      <c r="AJ24" s="274"/>
-      <c r="AK24" s="274"/>
-      <c r="AL24" s="274"/>
-      <c r="AM24" s="274"/>
-      <c r="AN24" s="274"/>
-      <c r="AO24" s="274"/>
-      <c r="AP24" s="274"/>
-      <c r="AQ24" s="274"/>
+      <c r="B24" s="349"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="349"/>
+      <c r="G24" s="349"/>
+      <c r="H24" s="349"/>
+      <c r="I24" s="349"/>
+      <c r="J24" s="349"/>
+      <c r="K24" s="349"/>
+      <c r="L24" s="349"/>
+      <c r="M24" s="349"/>
+      <c r="N24" s="349"/>
+      <c r="O24" s="349"/>
+      <c r="P24" s="349"/>
+      <c r="Q24" s="349"/>
+      <c r="R24" s="349"/>
+      <c r="S24" s="349"/>
+      <c r="T24" s="349"/>
+      <c r="U24" s="349"/>
+      <c r="V24" s="349"/>
+      <c r="W24" s="349"/>
+      <c r="X24" s="349"/>
+      <c r="Y24" s="349"/>
+      <c r="Z24" s="349"/>
+      <c r="AA24" s="349"/>
+      <c r="AB24" s="349"/>
+      <c r="AC24" s="349"/>
+      <c r="AD24" s="349"/>
+      <c r="AE24" s="349"/>
+      <c r="AF24" s="349"/>
+      <c r="AG24" s="349"/>
+      <c r="AH24" s="349"/>
+      <c r="AI24" s="349"/>
+      <c r="AJ24" s="349"/>
+      <c r="AK24" s="349"/>
+      <c r="AL24" s="349"/>
+      <c r="AM24" s="349"/>
+      <c r="AN24" s="349"/>
+      <c r="AO24" s="349"/>
+      <c r="AP24" s="349"/>
+      <c r="AQ24" s="349"/>
     </row>
     <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
@@ -3810,64 +3804,64 @@
         <v>23</v>
       </c>
       <c r="C26" s="40"/>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="245" t="s">
+      <c r="H26" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="245"/>
+      <c r="I26" s="302"/>
+      <c r="J26" s="302"/>
+      <c r="K26" s="302"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="245" t="s">
+      <c r="M26" s="302" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
+      <c r="N26" s="302"/>
+      <c r="O26" s="302"/>
       <c r="P26" s="40"/>
-      <c r="Q26" s="245" t="s">
+      <c r="Q26" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="245"/>
+      <c r="R26" s="302"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="245" t="s">
+      <c r="T26" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="245"/>
+      <c r="U26" s="302"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="160" t="s">
+      <c r="W26" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="160" t="s">
+      <c r="AC26" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="178"/>
+      <c r="AG26" s="178"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="160" t="s">
+      <c r="AI26" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
+      <c r="AJ26" s="178"/>
+      <c r="AK26" s="178"/>
+      <c r="AL26" s="178"/>
+      <c r="AM26" s="178"/>
       <c r="AN26" s="1"/>
-      <c r="AO26" s="160" t="s">
+      <c r="AO26" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="275"/>
+      <c r="AP26" s="178"/>
+      <c r="AQ26" s="350"/>
     </row>
     <row r="27" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
@@ -3916,50 +3910,50 @@
       <c r="AQ27" s="52"/>
     </row>
     <row r="28" spans="1:61" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="298"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="300"/>
-      <c r="H28" s="299"/>
-      <c r="I28" s="299"/>
-      <c r="J28" s="299"/>
-      <c r="K28" s="300"/>
-      <c r="L28" s="299"/>
-      <c r="M28" s="299"/>
-      <c r="N28" s="299"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="300"/>
-      <c r="Q28" s="299" t="s">
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="343"/>
+      <c r="E28" s="343"/>
+      <c r="F28" s="343"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="343"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="343"/>
+      <c r="M28" s="343"/>
+      <c r="N28" s="343"/>
+      <c r="O28" s="343"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="299"/>
-      <c r="S28" s="300"/>
-      <c r="T28" s="300"/>
-      <c r="U28" s="300"/>
-      <c r="V28" s="300"/>
-      <c r="W28" s="299"/>
-      <c r="X28" s="299"/>
-      <c r="Y28" s="299"/>
-      <c r="Z28" s="299"/>
-      <c r="AA28" s="299"/>
-      <c r="AB28" s="300"/>
-      <c r="AC28" s="299"/>
-      <c r="AD28" s="299"/>
-      <c r="AE28" s="299"/>
-      <c r="AF28" s="299"/>
-      <c r="AG28" s="299"/>
+      <c r="R28" s="343"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="343"/>
+      <c r="X28" s="343"/>
+      <c r="Y28" s="343"/>
+      <c r="Z28" s="343"/>
+      <c r="AA28" s="343"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="343"/>
+      <c r="AD28" s="343"/>
+      <c r="AE28" s="343"/>
+      <c r="AF28" s="343"/>
+      <c r="AG28" s="343"/>
       <c r="AH28" s="150"/>
-      <c r="AI28" s="299"/>
-      <c r="AJ28" s="299"/>
-      <c r="AK28" s="299"/>
-      <c r="AL28" s="299"/>
-      <c r="AM28" s="299"/>
+      <c r="AI28" s="343"/>
+      <c r="AJ28" s="343"/>
+      <c r="AK28" s="343"/>
+      <c r="AL28" s="343"/>
+      <c r="AM28" s="343"/>
       <c r="AN28" s="150"/>
-      <c r="AO28" s="299"/>
-      <c r="AP28" s="299"/>
-      <c r="AQ28" s="321"/>
+      <c r="AO28" s="343"/>
+      <c r="AP28" s="343"/>
+      <c r="AQ28" s="344"/>
     </row>
     <row r="29" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B29" s="54"/>
@@ -3970,17 +3964,17 @@
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
-      <c r="H29" s="272"/>
-      <c r="I29" s="272"/>
-      <c r="J29" s="272"/>
-      <c r="K29" s="272"/>
-      <c r="L29" s="272"/>
-      <c r="M29" s="272"/>
-      <c r="N29" s="272"/>
-      <c r="O29" s="272"/>
-      <c r="P29" s="272"/>
-      <c r="Q29" s="272"/>
-      <c r="R29" s="272"/>
+      <c r="H29" s="334"/>
+      <c r="I29" s="334"/>
+      <c r="J29" s="334"/>
+      <c r="K29" s="334"/>
+      <c r="L29" s="334"/>
+      <c r="M29" s="334"/>
+      <c r="N29" s="334"/>
+      <c r="O29" s="334"/>
+      <c r="P29" s="334"/>
+      <c r="Q29" s="334"/>
+      <c r="R29" s="334"/>
       <c r="S29" s="53"/>
       <c r="T29" s="53"/>
       <c r="U29" s="53"/>
@@ -3990,16 +3984,16 @@
       <c r="Z29" s="55"/>
       <c r="AA29" s="55"/>
       <c r="AB29" s="55"/>
-      <c r="AC29" s="270"/>
-      <c r="AD29" s="270"/>
-      <c r="AE29" s="270"/>
-      <c r="AF29" s="270"/>
-      <c r="AG29" s="270"/>
-      <c r="AI29" s="270"/>
-      <c r="AJ29" s="270"/>
-      <c r="AK29" s="270"/>
-      <c r="AL29" s="270"/>
-      <c r="AM29" s="270"/>
+      <c r="AC29" s="345"/>
+      <c r="AD29" s="345"/>
+      <c r="AE29" s="345"/>
+      <c r="AF29" s="345"/>
+      <c r="AG29" s="345"/>
+      <c r="AI29" s="345"/>
+      <c r="AJ29" s="345"/>
+      <c r="AK29" s="345"/>
+      <c r="AL29" s="345"/>
+      <c r="AM29" s="345"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="57"/>
@@ -4049,50 +4043,50 @@
       <c r="AQ30" s="63"/>
     </row>
     <row r="31" spans="1:61" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="298"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="300"/>
-      <c r="H31" s="299"/>
-      <c r="I31" s="299"/>
-      <c r="J31" s="299"/>
-      <c r="K31" s="300"/>
-      <c r="L31" s="299"/>
-      <c r="M31" s="299"/>
-      <c r="N31" s="299"/>
-      <c r="O31" s="299"/>
-      <c r="P31" s="300"/>
-      <c r="Q31" s="299" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="343"/>
+      <c r="E31" s="343"/>
+      <c r="F31" s="343"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="343"/>
+      <c r="I31" s="343"/>
+      <c r="J31" s="343"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="343"/>
+      <c r="M31" s="343"/>
+      <c r="N31" s="343"/>
+      <c r="O31" s="343"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="299"/>
-      <c r="S31" s="300"/>
-      <c r="T31" s="300"/>
-      <c r="U31" s="300"/>
-      <c r="V31" s="300"/>
-      <c r="W31" s="299"/>
-      <c r="X31" s="299"/>
-      <c r="Y31" s="299"/>
-      <c r="Z31" s="299"/>
-      <c r="AA31" s="299"/>
-      <c r="AB31" s="300"/>
-      <c r="AC31" s="299"/>
-      <c r="AD31" s="299"/>
-      <c r="AE31" s="299"/>
-      <c r="AF31" s="299"/>
-      <c r="AG31" s="299"/>
+      <c r="R31" s="343"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="343"/>
+      <c r="X31" s="343"/>
+      <c r="Y31" s="343"/>
+      <c r="Z31" s="343"/>
+      <c r="AA31" s="343"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="343"/>
+      <c r="AD31" s="343"/>
+      <c r="AE31" s="343"/>
+      <c r="AF31" s="343"/>
+      <c r="AG31" s="343"/>
       <c r="AH31" s="150"/>
-      <c r="AI31" s="299"/>
-      <c r="AJ31" s="299"/>
-      <c r="AK31" s="299"/>
-      <c r="AL31" s="299"/>
-      <c r="AM31" s="299"/>
+      <c r="AI31" s="343"/>
+      <c r="AJ31" s="343"/>
+      <c r="AK31" s="343"/>
+      <c r="AL31" s="343"/>
+      <c r="AM31" s="343"/>
       <c r="AN31" s="150"/>
-      <c r="AO31" s="299"/>
-      <c r="AP31" s="299"/>
-      <c r="AQ31" s="321"/>
+      <c r="AO31" s="343"/>
+      <c r="AP31" s="343"/>
+      <c r="AQ31" s="344"/>
     </row>
     <row r="32" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B32" s="54"/>
@@ -4103,17 +4097,17 @@
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="272"/>
-      <c r="I32" s="272"/>
-      <c r="J32" s="272"/>
-      <c r="K32" s="272"/>
-      <c r="L32" s="272"/>
-      <c r="M32" s="272"/>
-      <c r="N32" s="272"/>
-      <c r="O32" s="272"/>
-      <c r="P32" s="272"/>
-      <c r="Q32" s="272"/>
-      <c r="R32" s="272"/>
+      <c r="H32" s="334"/>
+      <c r="I32" s="334"/>
+      <c r="J32" s="334"/>
+      <c r="K32" s="334"/>
+      <c r="L32" s="334"/>
+      <c r="M32" s="334"/>
+      <c r="N32" s="334"/>
+      <c r="O32" s="334"/>
+      <c r="P32" s="334"/>
+      <c r="Q32" s="334"/>
+      <c r="R32" s="334"/>
       <c r="S32" s="53"/>
       <c r="T32" s="53"/>
       <c r="U32" s="53"/>
@@ -4123,16 +4117,16 @@
       <c r="Z32" s="55"/>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55"/>
-      <c r="AC32" s="270"/>
-      <c r="AD32" s="270"/>
-      <c r="AE32" s="270"/>
-      <c r="AF32" s="270"/>
-      <c r="AG32" s="270"/>
-      <c r="AI32" s="270"/>
-      <c r="AJ32" s="270"/>
-      <c r="AK32" s="270"/>
-      <c r="AL32" s="270"/>
-      <c r="AM32" s="270"/>
+      <c r="AC32" s="345"/>
+      <c r="AD32" s="345"/>
+      <c r="AE32" s="345"/>
+      <c r="AF32" s="345"/>
+      <c r="AG32" s="345"/>
+      <c r="AI32" s="345"/>
+      <c r="AJ32" s="345"/>
+      <c r="AK32" s="345"/>
+      <c r="AL32" s="345"/>
+      <c r="AM32" s="345"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="57"/>
@@ -4182,50 +4176,50 @@
       <c r="AQ33" s="63"/>
     </row>
     <row r="34" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="298"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="299"/>
-      <c r="I34" s="299"/>
-      <c r="J34" s="299"/>
-      <c r="K34" s="300"/>
-      <c r="L34" s="299"/>
-      <c r="M34" s="299"/>
-      <c r="N34" s="299"/>
-      <c r="O34" s="299"/>
-      <c r="P34" s="300"/>
-      <c r="Q34" s="299" t="s">
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="343"/>
+      <c r="E34" s="343"/>
+      <c r="F34" s="343"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="343"/>
+      <c r="I34" s="343"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="343"/>
+      <c r="M34" s="343"/>
+      <c r="N34" s="343"/>
+      <c r="O34" s="343"/>
+      <c r="P34" s="153"/>
+      <c r="Q34" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="299"/>
-      <c r="S34" s="300"/>
-      <c r="T34" s="300"/>
-      <c r="U34" s="300"/>
-      <c r="V34" s="300"/>
-      <c r="W34" s="299"/>
-      <c r="X34" s="299"/>
-      <c r="Y34" s="299"/>
-      <c r="Z34" s="299"/>
-      <c r="AA34" s="299"/>
-      <c r="AB34" s="300"/>
-      <c r="AC34" s="299"/>
-      <c r="AD34" s="299"/>
-      <c r="AE34" s="299"/>
-      <c r="AF34" s="299"/>
-      <c r="AG34" s="299"/>
+      <c r="R34" s="343"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="343"/>
+      <c r="X34" s="343"/>
+      <c r="Y34" s="343"/>
+      <c r="Z34" s="343"/>
+      <c r="AA34" s="343"/>
+      <c r="AB34" s="153"/>
+      <c r="AC34" s="343"/>
+      <c r="AD34" s="343"/>
+      <c r="AE34" s="343"/>
+      <c r="AF34" s="343"/>
+      <c r="AG34" s="343"/>
       <c r="AH34" s="150"/>
-      <c r="AI34" s="299"/>
-      <c r="AJ34" s="299"/>
-      <c r="AK34" s="299"/>
-      <c r="AL34" s="299"/>
-      <c r="AM34" s="299"/>
+      <c r="AI34" s="343"/>
+      <c r="AJ34" s="343"/>
+      <c r="AK34" s="343"/>
+      <c r="AL34" s="343"/>
+      <c r="AM34" s="343"/>
       <c r="AN34" s="150"/>
-      <c r="AO34" s="299"/>
-      <c r="AP34" s="299"/>
-      <c r="AQ34" s="321"/>
+      <c r="AO34" s="343"/>
+      <c r="AP34" s="343"/>
+      <c r="AQ34" s="344"/>
     </row>
     <row r="35" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B35" s="54"/>
@@ -4236,17 +4230,17 @@
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="272"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="272"/>
-      <c r="L35" s="272"/>
-      <c r="M35" s="272"/>
-      <c r="N35" s="272"/>
-      <c r="O35" s="272"/>
-      <c r="P35" s="272"/>
-      <c r="Q35" s="272"/>
-      <c r="R35" s="272"/>
+      <c r="H35" s="334"/>
+      <c r="I35" s="334"/>
+      <c r="J35" s="334"/>
+      <c r="K35" s="334"/>
+      <c r="L35" s="334"/>
+      <c r="M35" s="334"/>
+      <c r="N35" s="334"/>
+      <c r="O35" s="334"/>
+      <c r="P35" s="334"/>
+      <c r="Q35" s="334"/>
+      <c r="R35" s="334"/>
       <c r="S35" s="53"/>
       <c r="T35" s="53"/>
       <c r="U35" s="53"/>
@@ -4256,16 +4250,16 @@
       <c r="Z35" s="55"/>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55"/>
-      <c r="AC35" s="270"/>
-      <c r="AD35" s="270"/>
-      <c r="AE35" s="270"/>
-      <c r="AF35" s="270"/>
-      <c r="AG35" s="270"/>
-      <c r="AI35" s="270"/>
-      <c r="AJ35" s="270"/>
-      <c r="AK35" s="270"/>
-      <c r="AL35" s="270"/>
-      <c r="AM35" s="270"/>
+      <c r="AC35" s="345"/>
+      <c r="AD35" s="345"/>
+      <c r="AE35" s="345"/>
+      <c r="AF35" s="345"/>
+      <c r="AG35" s="345"/>
+      <c r="AI35" s="345"/>
+      <c r="AJ35" s="345"/>
+      <c r="AK35" s="345"/>
+      <c r="AL35" s="345"/>
+      <c r="AM35" s="345"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="57"/>
@@ -4315,50 +4309,50 @@
       <c r="AQ36" s="63"/>
     </row>
     <row r="37" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="298"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="300"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="299"/>
-      <c r="J37" s="299"/>
-      <c r="K37" s="300"/>
-      <c r="L37" s="299"/>
-      <c r="M37" s="299"/>
-      <c r="N37" s="299"/>
-      <c r="O37" s="299"/>
-      <c r="P37" s="300"/>
-      <c r="Q37" s="299" t="s">
+      <c r="B37" s="152"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="343"/>
+      <c r="E37" s="343"/>
+      <c r="F37" s="343"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="343"/>
+      <c r="I37" s="343"/>
+      <c r="J37" s="343"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="343"/>
+      <c r="M37" s="343"/>
+      <c r="N37" s="343"/>
+      <c r="O37" s="343"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R37" s="299"/>
-      <c r="S37" s="300"/>
-      <c r="T37" s="300"/>
-      <c r="U37" s="300"/>
-      <c r="V37" s="300"/>
-      <c r="W37" s="299"/>
-      <c r="X37" s="299"/>
-      <c r="Y37" s="299"/>
-      <c r="Z37" s="299"/>
-      <c r="AA37" s="299"/>
-      <c r="AB37" s="300"/>
-      <c r="AC37" s="299"/>
-      <c r="AD37" s="299"/>
-      <c r="AE37" s="299"/>
-      <c r="AF37" s="299"/>
-      <c r="AG37" s="299"/>
+      <c r="R37" s="343"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="153"/>
+      <c r="U37" s="153"/>
+      <c r="V37" s="153"/>
+      <c r="W37" s="343"/>
+      <c r="X37" s="343"/>
+      <c r="Y37" s="343"/>
+      <c r="Z37" s="343"/>
+      <c r="AA37" s="343"/>
+      <c r="AB37" s="153"/>
+      <c r="AC37" s="343"/>
+      <c r="AD37" s="343"/>
+      <c r="AE37" s="343"/>
+      <c r="AF37" s="343"/>
+      <c r="AG37" s="343"/>
       <c r="AH37" s="150"/>
-      <c r="AI37" s="299"/>
-      <c r="AJ37" s="299"/>
-      <c r="AK37" s="299"/>
-      <c r="AL37" s="299"/>
-      <c r="AM37" s="299"/>
+      <c r="AI37" s="343"/>
+      <c r="AJ37" s="343"/>
+      <c r="AK37" s="343"/>
+      <c r="AL37" s="343"/>
+      <c r="AM37" s="343"/>
       <c r="AN37" s="150"/>
-      <c r="AO37" s="299"/>
-      <c r="AP37" s="299"/>
-      <c r="AQ37" s="321"/>
+      <c r="AO37" s="343"/>
+      <c r="AP37" s="343"/>
+      <c r="AQ37" s="344"/>
     </row>
     <row r="38" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B38" s="54"/>
@@ -4369,17 +4363,17 @@
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
-      <c r="H38" s="272"/>
-      <c r="I38" s="272"/>
-      <c r="J38" s="272"/>
-      <c r="K38" s="272"/>
-      <c r="L38" s="272"/>
-      <c r="M38" s="272"/>
-      <c r="N38" s="272"/>
-      <c r="O38" s="272"/>
-      <c r="P38" s="272"/>
-      <c r="Q38" s="272"/>
-      <c r="R38" s="272"/>
+      <c r="H38" s="334"/>
+      <c r="I38" s="334"/>
+      <c r="J38" s="334"/>
+      <c r="K38" s="334"/>
+      <c r="L38" s="334"/>
+      <c r="M38" s="334"/>
+      <c r="N38" s="334"/>
+      <c r="O38" s="334"/>
+      <c r="P38" s="334"/>
+      <c r="Q38" s="334"/>
+      <c r="R38" s="334"/>
       <c r="S38" s="53"/>
       <c r="T38" s="53"/>
       <c r="U38" s="53"/>
@@ -4389,16 +4383,16 @@
       <c r="Z38" s="55"/>
       <c r="AA38" s="55"/>
       <c r="AB38" s="55"/>
-      <c r="AC38" s="270"/>
-      <c r="AD38" s="270"/>
-      <c r="AE38" s="270"/>
-      <c r="AF38" s="270"/>
-      <c r="AG38" s="270"/>
-      <c r="AI38" s="270"/>
-      <c r="AJ38" s="270"/>
-      <c r="AK38" s="270"/>
-      <c r="AL38" s="270"/>
-      <c r="AM38" s="270"/>
+      <c r="AC38" s="345"/>
+      <c r="AD38" s="345"/>
+      <c r="AE38" s="345"/>
+      <c r="AF38" s="345"/>
+      <c r="AG38" s="345"/>
+      <c r="AI38" s="345"/>
+      <c r="AJ38" s="345"/>
+      <c r="AK38" s="345"/>
+      <c r="AL38" s="345"/>
+      <c r="AM38" s="345"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="57"/>
@@ -4448,50 +4442,50 @@
       <c r="AQ39" s="63"/>
     </row>
     <row r="40" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
-      <c r="B40" s="298"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="300"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="299"/>
-      <c r="K40" s="300"/>
-      <c r="L40" s="299"/>
-      <c r="M40" s="299"/>
-      <c r="N40" s="299"/>
-      <c r="O40" s="299"/>
-      <c r="P40" s="300"/>
-      <c r="Q40" s="299" t="s">
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="343"/>
+      <c r="E40" s="343"/>
+      <c r="F40" s="343"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="343"/>
+      <c r="I40" s="343"/>
+      <c r="J40" s="343"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="343"/>
+      <c r="M40" s="343"/>
+      <c r="N40" s="343"/>
+      <c r="O40" s="343"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R40" s="299"/>
-      <c r="S40" s="300"/>
-      <c r="T40" s="300"/>
-      <c r="U40" s="300"/>
-      <c r="V40" s="300"/>
-      <c r="W40" s="299"/>
-      <c r="X40" s="299"/>
-      <c r="Y40" s="299"/>
-      <c r="Z40" s="299"/>
-      <c r="AA40" s="299"/>
-      <c r="AB40" s="300"/>
-      <c r="AC40" s="299"/>
-      <c r="AD40" s="299"/>
-      <c r="AE40" s="299"/>
-      <c r="AF40" s="299"/>
-      <c r="AG40" s="299"/>
+      <c r="R40" s="343"/>
+      <c r="S40" s="153"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="153"/>
+      <c r="V40" s="153"/>
+      <c r="W40" s="343"/>
+      <c r="X40" s="343"/>
+      <c r="Y40" s="343"/>
+      <c r="Z40" s="343"/>
+      <c r="AA40" s="343"/>
+      <c r="AB40" s="153"/>
+      <c r="AC40" s="343"/>
+      <c r="AD40" s="343"/>
+      <c r="AE40" s="343"/>
+      <c r="AF40" s="343"/>
+      <c r="AG40" s="343"/>
       <c r="AH40" s="150"/>
-      <c r="AI40" s="299"/>
-      <c r="AJ40" s="299"/>
-      <c r="AK40" s="299"/>
-      <c r="AL40" s="299"/>
-      <c r="AM40" s="299"/>
+      <c r="AI40" s="343"/>
+      <c r="AJ40" s="343"/>
+      <c r="AK40" s="343"/>
+      <c r="AL40" s="343"/>
+      <c r="AM40" s="343"/>
       <c r="AN40" s="150"/>
-      <c r="AO40" s="299"/>
-      <c r="AP40" s="299"/>
-      <c r="AQ40" s="321"/>
+      <c r="AO40" s="343"/>
+      <c r="AP40" s="343"/>
+      <c r="AQ40" s="344"/>
     </row>
     <row r="41" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B41" s="54"/>
@@ -4502,17 +4496,17 @@
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
-      <c r="H41" s="272"/>
-      <c r="I41" s="272"/>
-      <c r="J41" s="272"/>
-      <c r="K41" s="272"/>
-      <c r="L41" s="272"/>
-      <c r="M41" s="272"/>
-      <c r="N41" s="272"/>
-      <c r="O41" s="272"/>
-      <c r="P41" s="272"/>
-      <c r="Q41" s="272"/>
-      <c r="R41" s="272"/>
+      <c r="H41" s="334"/>
+      <c r="I41" s="334"/>
+      <c r="J41" s="334"/>
+      <c r="K41" s="334"/>
+      <c r="L41" s="334"/>
+      <c r="M41" s="334"/>
+      <c r="N41" s="334"/>
+      <c r="O41" s="334"/>
+      <c r="P41" s="334"/>
+      <c r="Q41" s="334"/>
+      <c r="R41" s="334"/>
       <c r="S41" s="53"/>
       <c r="T41" s="53"/>
       <c r="U41" s="53"/>
@@ -4522,16 +4516,16 @@
       <c r="Z41" s="55"/>
       <c r="AA41" s="55"/>
       <c r="AB41" s="55"/>
-      <c r="AC41" s="270"/>
-      <c r="AD41" s="270"/>
-      <c r="AE41" s="270"/>
-      <c r="AF41" s="270"/>
-      <c r="AG41" s="270"/>
-      <c r="AI41" s="270"/>
-      <c r="AJ41" s="270"/>
-      <c r="AK41" s="270"/>
-      <c r="AL41" s="270"/>
-      <c r="AM41" s="270"/>
+      <c r="AC41" s="345"/>
+      <c r="AD41" s="345"/>
+      <c r="AE41" s="345"/>
+      <c r="AF41" s="345"/>
+      <c r="AG41" s="345"/>
+      <c r="AI41" s="345"/>
+      <c r="AJ41" s="345"/>
+      <c r="AK41" s="345"/>
+      <c r="AL41" s="345"/>
+      <c r="AM41" s="345"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="57"/>
@@ -4581,50 +4575,50 @@
       <c r="AQ42" s="63"/>
     </row>
     <row r="43" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
-      <c r="B43" s="298"/>
-      <c r="C43" s="300"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
-      <c r="G43" s="300"/>
-      <c r="H43" s="299"/>
-      <c r="I43" s="299"/>
-      <c r="J43" s="299"/>
-      <c r="K43" s="300"/>
-      <c r="L43" s="299"/>
-      <c r="M43" s="299"/>
-      <c r="N43" s="299"/>
-      <c r="O43" s="299"/>
-      <c r="P43" s="300"/>
-      <c r="Q43" s="299" t="s">
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="343"/>
+      <c r="E43" s="343"/>
+      <c r="F43" s="343"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="343"/>
+      <c r="M43" s="343"/>
+      <c r="N43" s="343"/>
+      <c r="O43" s="343"/>
+      <c r="P43" s="153"/>
+      <c r="Q43" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="299"/>
-      <c r="S43" s="300"/>
-      <c r="T43" s="300"/>
-      <c r="U43" s="300"/>
-      <c r="V43" s="300"/>
-      <c r="W43" s="299"/>
-      <c r="X43" s="299"/>
-      <c r="Y43" s="299"/>
-      <c r="Z43" s="299"/>
-      <c r="AA43" s="299"/>
-      <c r="AB43" s="300"/>
-      <c r="AC43" s="299"/>
-      <c r="AD43" s="299"/>
-      <c r="AE43" s="299"/>
-      <c r="AF43" s="299"/>
-      <c r="AG43" s="299"/>
+      <c r="R43" s="343"/>
+      <c r="S43" s="153"/>
+      <c r="T43" s="153"/>
+      <c r="U43" s="153"/>
+      <c r="V43" s="153"/>
+      <c r="W43" s="343"/>
+      <c r="X43" s="343"/>
+      <c r="Y43" s="343"/>
+      <c r="Z43" s="343"/>
+      <c r="AA43" s="343"/>
+      <c r="AB43" s="153"/>
+      <c r="AC43" s="343"/>
+      <c r="AD43" s="343"/>
+      <c r="AE43" s="343"/>
+      <c r="AF43" s="343"/>
+      <c r="AG43" s="343"/>
       <c r="AH43" s="150"/>
-      <c r="AI43" s="299"/>
-      <c r="AJ43" s="299"/>
-      <c r="AK43" s="299"/>
-      <c r="AL43" s="299"/>
-      <c r="AM43" s="299"/>
+      <c r="AI43" s="343"/>
+      <c r="AJ43" s="343"/>
+      <c r="AK43" s="343"/>
+      <c r="AL43" s="343"/>
+      <c r="AM43" s="343"/>
       <c r="AN43" s="150"/>
-      <c r="AO43" s="299"/>
-      <c r="AP43" s="299"/>
-      <c r="AQ43" s="321"/>
+      <c r="AO43" s="343"/>
+      <c r="AP43" s="343"/>
+      <c r="AQ43" s="344"/>
     </row>
     <row r="44" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B44" s="54"/>
@@ -4635,17 +4629,17 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
-      <c r="H44" s="272"/>
-      <c r="I44" s="272"/>
-      <c r="J44" s="272"/>
-      <c r="K44" s="272"/>
-      <c r="L44" s="272"/>
-      <c r="M44" s="272"/>
-      <c r="N44" s="272"/>
-      <c r="O44" s="272"/>
-      <c r="P44" s="272"/>
-      <c r="Q44" s="272"/>
-      <c r="R44" s="272"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
+      <c r="N44" s="334"/>
+      <c r="O44" s="334"/>
+      <c r="P44" s="334"/>
+      <c r="Q44" s="334"/>
+      <c r="R44" s="334"/>
       <c r="S44" s="53"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -4655,16 +4649,16 @@
       <c r="Z44" s="55"/>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
-      <c r="AC44" s="270"/>
-      <c r="AD44" s="270"/>
-      <c r="AE44" s="270"/>
-      <c r="AF44" s="270"/>
-      <c r="AG44" s="270"/>
-      <c r="AI44" s="270"/>
-      <c r="AJ44" s="270"/>
-      <c r="AK44" s="270"/>
-      <c r="AL44" s="270"/>
-      <c r="AM44" s="270"/>
+      <c r="AC44" s="345"/>
+      <c r="AD44" s="345"/>
+      <c r="AE44" s="345"/>
+      <c r="AF44" s="345"/>
+      <c r="AG44" s="345"/>
+      <c r="AI44" s="345"/>
+      <c r="AJ44" s="345"/>
+      <c r="AK44" s="345"/>
+      <c r="AL44" s="345"/>
+      <c r="AM44" s="345"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="57"/>
@@ -4714,50 +4708,50 @@
       <c r="AQ45" s="63"/>
     </row>
     <row r="46" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
-      <c r="B46" s="298"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
-      <c r="G46" s="300"/>
-      <c r="H46" s="299"/>
-      <c r="I46" s="299"/>
-      <c r="J46" s="299"/>
-      <c r="K46" s="300"/>
-      <c r="L46" s="299"/>
-      <c r="M46" s="299"/>
-      <c r="N46" s="299"/>
-      <c r="O46" s="299"/>
-      <c r="P46" s="300"/>
-      <c r="Q46" s="299" t="s">
+      <c r="B46" s="152"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="343"/>
+      <c r="E46" s="343"/>
+      <c r="F46" s="343"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="343"/>
+      <c r="I46" s="343"/>
+      <c r="J46" s="343"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="343"/>
+      <c r="M46" s="343"/>
+      <c r="N46" s="343"/>
+      <c r="O46" s="343"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R46" s="299"/>
-      <c r="S46" s="300"/>
-      <c r="T46" s="300"/>
-      <c r="U46" s="300"/>
-      <c r="V46" s="300"/>
-      <c r="W46" s="299"/>
-      <c r="X46" s="299"/>
-      <c r="Y46" s="299"/>
-      <c r="Z46" s="299"/>
-      <c r="AA46" s="299"/>
-      <c r="AB46" s="300"/>
-      <c r="AC46" s="299"/>
-      <c r="AD46" s="299"/>
-      <c r="AE46" s="299"/>
-      <c r="AF46" s="299"/>
-      <c r="AG46" s="299"/>
+      <c r="R46" s="343"/>
+      <c r="S46" s="153"/>
+      <c r="T46" s="153"/>
+      <c r="U46" s="153"/>
+      <c r="V46" s="153"/>
+      <c r="W46" s="343"/>
+      <c r="X46" s="343"/>
+      <c r="Y46" s="343"/>
+      <c r="Z46" s="343"/>
+      <c r="AA46" s="343"/>
+      <c r="AB46" s="153"/>
+      <c r="AC46" s="343"/>
+      <c r="AD46" s="343"/>
+      <c r="AE46" s="343"/>
+      <c r="AF46" s="343"/>
+      <c r="AG46" s="343"/>
       <c r="AH46" s="150"/>
-      <c r="AI46" s="299"/>
-      <c r="AJ46" s="299"/>
-      <c r="AK46" s="299"/>
-      <c r="AL46" s="299"/>
-      <c r="AM46" s="299"/>
+      <c r="AI46" s="343"/>
+      <c r="AJ46" s="343"/>
+      <c r="AK46" s="343"/>
+      <c r="AL46" s="343"/>
+      <c r="AM46" s="343"/>
       <c r="AN46" s="150"/>
-      <c r="AO46" s="299"/>
-      <c r="AP46" s="299"/>
-      <c r="AQ46" s="321"/>
+      <c r="AO46" s="343"/>
+      <c r="AP46" s="343"/>
+      <c r="AQ46" s="344"/>
     </row>
     <row r="47" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B47" s="54"/>
@@ -4768,17 +4762,17 @@
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="55"/>
-      <c r="H47" s="272"/>
-      <c r="I47" s="272"/>
-      <c r="J47" s="272"/>
-      <c r="K47" s="272"/>
-      <c r="L47" s="272"/>
-      <c r="M47" s="272"/>
-      <c r="N47" s="272"/>
-      <c r="O47" s="272"/>
-      <c r="P47" s="272"/>
-      <c r="Q47" s="272"/>
-      <c r="R47" s="272"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="334"/>
+      <c r="M47" s="334"/>
+      <c r="N47" s="334"/>
+      <c r="O47" s="334"/>
+      <c r="P47" s="334"/>
+      <c r="Q47" s="334"/>
+      <c r="R47" s="334"/>
       <c r="S47" s="53"/>
       <c r="T47" s="53"/>
       <c r="U47" s="53"/>
@@ -4788,16 +4782,16 @@
       <c r="Z47" s="55"/>
       <c r="AA47" s="55"/>
       <c r="AB47" s="55"/>
-      <c r="AC47" s="270"/>
-      <c r="AD47" s="270"/>
-      <c r="AE47" s="270"/>
-      <c r="AF47" s="270"/>
-      <c r="AG47" s="270"/>
-      <c r="AI47" s="270"/>
-      <c r="AJ47" s="270"/>
-      <c r="AK47" s="270"/>
-      <c r="AL47" s="270"/>
-      <c r="AM47" s="270"/>
+      <c r="AC47" s="345"/>
+      <c r="AD47" s="345"/>
+      <c r="AE47" s="345"/>
+      <c r="AF47" s="345"/>
+      <c r="AG47" s="345"/>
+      <c r="AI47" s="345"/>
+      <c r="AJ47" s="345"/>
+      <c r="AK47" s="345"/>
+      <c r="AL47" s="345"/>
+      <c r="AM47" s="345"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="57"/>
@@ -4847,50 +4841,50 @@
       <c r="AQ48" s="63"/>
     </row>
     <row r="49" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
-      <c r="B49" s="298"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
-      <c r="G49" s="300"/>
-      <c r="H49" s="299"/>
-      <c r="I49" s="299"/>
-      <c r="J49" s="299"/>
-      <c r="K49" s="300"/>
-      <c r="L49" s="299"/>
-      <c r="M49" s="299"/>
-      <c r="N49" s="299"/>
-      <c r="O49" s="299"/>
-      <c r="P49" s="300"/>
-      <c r="Q49" s="299" t="s">
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="343"/>
+      <c r="E49" s="343"/>
+      <c r="F49" s="343"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="343"/>
+      <c r="I49" s="343"/>
+      <c r="J49" s="343"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="343"/>
+      <c r="M49" s="343"/>
+      <c r="N49" s="343"/>
+      <c r="O49" s="343"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R49" s="299"/>
-      <c r="S49" s="300"/>
-      <c r="T49" s="300"/>
-      <c r="U49" s="300"/>
-      <c r="V49" s="300"/>
-      <c r="W49" s="299"/>
-      <c r="X49" s="299"/>
-      <c r="Y49" s="299"/>
-      <c r="Z49" s="299"/>
-      <c r="AA49" s="299"/>
-      <c r="AB49" s="300"/>
-      <c r="AC49" s="299"/>
-      <c r="AD49" s="299"/>
-      <c r="AE49" s="299"/>
-      <c r="AF49" s="299"/>
-      <c r="AG49" s="299"/>
+      <c r="R49" s="343"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="153"/>
+      <c r="V49" s="153"/>
+      <c r="W49" s="343"/>
+      <c r="X49" s="343"/>
+      <c r="Y49" s="343"/>
+      <c r="Z49" s="343"/>
+      <c r="AA49" s="343"/>
+      <c r="AB49" s="153"/>
+      <c r="AC49" s="343"/>
+      <c r="AD49" s="343"/>
+      <c r="AE49" s="343"/>
+      <c r="AF49" s="343"/>
+      <c r="AG49" s="343"/>
       <c r="AH49" s="150"/>
-      <c r="AI49" s="299"/>
-      <c r="AJ49" s="299"/>
-      <c r="AK49" s="299"/>
-      <c r="AL49" s="299"/>
-      <c r="AM49" s="299"/>
+      <c r="AI49" s="343"/>
+      <c r="AJ49" s="343"/>
+      <c r="AK49" s="343"/>
+      <c r="AL49" s="343"/>
+      <c r="AM49" s="343"/>
       <c r="AN49" s="150"/>
-      <c r="AO49" s="299"/>
-      <c r="AP49" s="299"/>
-      <c r="AQ49" s="321"/>
+      <c r="AO49" s="343"/>
+      <c r="AP49" s="343"/>
+      <c r="AQ49" s="344"/>
     </row>
     <row r="50" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B50" s="54"/>
@@ -4901,17 +4895,17 @@
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="272"/>
-      <c r="I50" s="272"/>
-      <c r="J50" s="272"/>
-      <c r="K50" s="272"/>
-      <c r="L50" s="272"/>
-      <c r="M50" s="272"/>
-      <c r="N50" s="272"/>
-      <c r="O50" s="272"/>
-      <c r="P50" s="272"/>
-      <c r="Q50" s="272"/>
-      <c r="R50" s="272"/>
+      <c r="H50" s="334"/>
+      <c r="I50" s="334"/>
+      <c r="J50" s="334"/>
+      <c r="K50" s="334"/>
+      <c r="L50" s="334"/>
+      <c r="M50" s="334"/>
+      <c r="N50" s="334"/>
+      <c r="O50" s="334"/>
+      <c r="P50" s="334"/>
+      <c r="Q50" s="334"/>
+      <c r="R50" s="334"/>
       <c r="S50" s="53"/>
       <c r="T50" s="53"/>
       <c r="U50" s="53"/>
@@ -4921,16 +4915,16 @@
       <c r="Z50" s="55"/>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55"/>
-      <c r="AC50" s="270"/>
-      <c r="AD50" s="270"/>
-      <c r="AE50" s="270"/>
-      <c r="AF50" s="270"/>
-      <c r="AG50" s="270"/>
-      <c r="AI50" s="270"/>
-      <c r="AJ50" s="270"/>
-      <c r="AK50" s="270"/>
-      <c r="AL50" s="270"/>
-      <c r="AM50" s="270"/>
+      <c r="AC50" s="345"/>
+      <c r="AD50" s="345"/>
+      <c r="AE50" s="345"/>
+      <c r="AF50" s="345"/>
+      <c r="AG50" s="345"/>
+      <c r="AI50" s="345"/>
+      <c r="AJ50" s="345"/>
+      <c r="AK50" s="345"/>
+      <c r="AL50" s="345"/>
+      <c r="AM50" s="345"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="57"/>
@@ -4980,50 +4974,50 @@
       <c r="AQ51" s="63"/>
     </row>
     <row r="52" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
-      <c r="B52" s="298"/>
-      <c r="C52" s="300"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
-      <c r="G52" s="300"/>
-      <c r="H52" s="299"/>
-      <c r="I52" s="299"/>
-      <c r="J52" s="299"/>
-      <c r="K52" s="300"/>
-      <c r="L52" s="299"/>
-      <c r="M52" s="299"/>
-      <c r="N52" s="299"/>
-      <c r="O52" s="299"/>
-      <c r="P52" s="300"/>
-      <c r="Q52" s="299" t="s">
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="343"/>
+      <c r="E52" s="343"/>
+      <c r="F52" s="343"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="343"/>
+      <c r="I52" s="343"/>
+      <c r="J52" s="343"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="343"/>
+      <c r="M52" s="343"/>
+      <c r="N52" s="343"/>
+      <c r="O52" s="343"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="299"/>
-      <c r="S52" s="300"/>
-      <c r="T52" s="300"/>
-      <c r="U52" s="300"/>
-      <c r="V52" s="300"/>
-      <c r="W52" s="299"/>
-      <c r="X52" s="299"/>
-      <c r="Y52" s="299"/>
-      <c r="Z52" s="299"/>
-      <c r="AA52" s="299"/>
-      <c r="AB52" s="300"/>
-      <c r="AC52" s="299"/>
-      <c r="AD52" s="299"/>
-      <c r="AE52" s="299"/>
-      <c r="AF52" s="299"/>
-      <c r="AG52" s="299"/>
+      <c r="R52" s="343"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
+      <c r="W52" s="343"/>
+      <c r="X52" s="343"/>
+      <c r="Y52" s="343"/>
+      <c r="Z52" s="343"/>
+      <c r="AA52" s="343"/>
+      <c r="AB52" s="153"/>
+      <c r="AC52" s="343"/>
+      <c r="AD52" s="343"/>
+      <c r="AE52" s="343"/>
+      <c r="AF52" s="343"/>
+      <c r="AG52" s="343"/>
       <c r="AH52" s="150"/>
-      <c r="AI52" s="299"/>
-      <c r="AJ52" s="299"/>
-      <c r="AK52" s="299"/>
-      <c r="AL52" s="299"/>
-      <c r="AM52" s="299"/>
+      <c r="AI52" s="343"/>
+      <c r="AJ52" s="343"/>
+      <c r="AK52" s="343"/>
+      <c r="AL52" s="343"/>
+      <c r="AM52" s="343"/>
       <c r="AN52" s="150"/>
-      <c r="AO52" s="299"/>
-      <c r="AP52" s="299"/>
-      <c r="AQ52" s="321"/>
+      <c r="AO52" s="343"/>
+      <c r="AP52" s="343"/>
+      <c r="AQ52" s="344"/>
     </row>
     <row r="53" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B53" s="54"/>
@@ -5034,17 +5028,17 @@
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
-      <c r="H53" s="272"/>
-      <c r="I53" s="272"/>
-      <c r="J53" s="272"/>
-      <c r="K53" s="272"/>
-      <c r="L53" s="272"/>
-      <c r="M53" s="272"/>
-      <c r="N53" s="272"/>
-      <c r="O53" s="272"/>
-      <c r="P53" s="272"/>
-      <c r="Q53" s="272"/>
-      <c r="R53" s="272"/>
+      <c r="H53" s="334"/>
+      <c r="I53" s="334"/>
+      <c r="J53" s="334"/>
+      <c r="K53" s="334"/>
+      <c r="L53" s="334"/>
+      <c r="M53" s="334"/>
+      <c r="N53" s="334"/>
+      <c r="O53" s="334"/>
+      <c r="P53" s="334"/>
+      <c r="Q53" s="334"/>
+      <c r="R53" s="334"/>
       <c r="S53" s="53"/>
       <c r="T53" s="53"/>
       <c r="U53" s="53"/>
@@ -5054,16 +5048,16 @@
       <c r="Z53" s="55"/>
       <c r="AA53" s="55"/>
       <c r="AB53" s="55"/>
-      <c r="AC53" s="270"/>
-      <c r="AD53" s="270"/>
-      <c r="AE53" s="270"/>
-      <c r="AF53" s="270"/>
-      <c r="AG53" s="270"/>
-      <c r="AI53" s="270"/>
-      <c r="AJ53" s="270"/>
-      <c r="AK53" s="270"/>
-      <c r="AL53" s="270"/>
-      <c r="AM53" s="270"/>
+      <c r="AC53" s="345"/>
+      <c r="AD53" s="345"/>
+      <c r="AE53" s="345"/>
+      <c r="AF53" s="345"/>
+      <c r="AG53" s="345"/>
+      <c r="AI53" s="345"/>
+      <c r="AJ53" s="345"/>
+      <c r="AK53" s="345"/>
+      <c r="AL53" s="345"/>
+      <c r="AM53" s="345"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="57"/>
@@ -5193,283 +5187,283 @@
       <c r="AQ56" s="70"/>
     </row>
     <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="271" t="s">
+      <c r="B57" s="333" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="272"/>
-      <c r="G57" s="272"/>
-      <c r="H57" s="272"/>
-      <c r="I57" s="272"/>
-      <c r="J57" s="272"/>
-      <c r="K57" s="269" t="s">
+      <c r="C57" s="334"/>
+      <c r="D57" s="334"/>
+      <c r="E57" s="334"/>
+      <c r="F57" s="334"/>
+      <c r="G57" s="334"/>
+      <c r="H57" s="334"/>
+      <c r="I57" s="334"/>
+      <c r="J57" s="334"/>
+      <c r="K57" s="335" t="s">
         <v>37</v>
       </c>
-      <c r="L57" s="269"/>
-      <c r="M57" s="269" t="s">
+      <c r="L57" s="335"/>
+      <c r="M57" s="335" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="269"/>
-      <c r="O57" s="269"/>
-      <c r="P57" s="269"/>
-      <c r="Q57" s="272" t="s">
+      <c r="N57" s="335"/>
+      <c r="O57" s="335"/>
+      <c r="P57" s="335"/>
+      <c r="Q57" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="R57" s="272"/>
-      <c r="S57" s="272"/>
-      <c r="T57" s="272"/>
-      <c r="U57" s="272"/>
-      <c r="V57" s="272"/>
-      <c r="W57" s="272"/>
-      <c r="X57" s="272"/>
-      <c r="Y57" s="272"/>
-      <c r="Z57" s="272"/>
-      <c r="AA57" s="272"/>
-      <c r="AB57" s="272" t="s">
+      <c r="R57" s="334"/>
+      <c r="S57" s="334"/>
+      <c r="T57" s="334"/>
+      <c r="U57" s="334"/>
+      <c r="V57" s="334"/>
+      <c r="W57" s="334"/>
+      <c r="X57" s="334"/>
+      <c r="Y57" s="334"/>
+      <c r="Z57" s="334"/>
+      <c r="AA57" s="334"/>
+      <c r="AB57" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="AC57" s="272"/>
-      <c r="AD57" s="272"/>
-      <c r="AE57" s="272"/>
-      <c r="AF57" s="272"/>
-      <c r="AG57" s="272"/>
-      <c r="AH57" s="272"/>
-      <c r="AI57" s="272"/>
-      <c r="AJ57" s="272"/>
-      <c r="AK57" s="272"/>
-      <c r="AL57" s="272"/>
-      <c r="AM57" s="272"/>
-      <c r="AN57" s="272"/>
-      <c r="AO57" s="272"/>
-      <c r="AP57" s="272"/>
-      <c r="AQ57" s="273"/>
+      <c r="AC57" s="334"/>
+      <c r="AD57" s="334"/>
+      <c r="AE57" s="334"/>
+      <c r="AF57" s="334"/>
+      <c r="AG57" s="334"/>
+      <c r="AH57" s="334"/>
+      <c r="AI57" s="334"/>
+      <c r="AJ57" s="334"/>
+      <c r="AK57" s="334"/>
+      <c r="AL57" s="334"/>
+      <c r="AM57" s="334"/>
+      <c r="AN57" s="334"/>
+      <c r="AO57" s="334"/>
+      <c r="AP57" s="334"/>
+      <c r="AQ57" s="336"/>
     </row>
     <row r="58" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="304"/>
-      <c r="C58" s="305"/>
-      <c r="D58" s="305"/>
-      <c r="E58" s="305"/>
-      <c r="F58" s="305"/>
-      <c r="G58" s="305"/>
-      <c r="H58" s="305"/>
-      <c r="I58" s="305"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="307"/>
-      <c r="L58" s="308"/>
-      <c r="M58" s="307"/>
-      <c r="N58" s="309"/>
-      <c r="O58" s="309"/>
-      <c r="P58" s="308"/>
-      <c r="Q58" s="307"/>
-      <c r="R58" s="309"/>
-      <c r="S58" s="309"/>
-      <c r="T58" s="309"/>
-      <c r="U58" s="309"/>
-      <c r="V58" s="309"/>
-      <c r="W58" s="309"/>
-      <c r="X58" s="309"/>
-      <c r="Y58" s="309"/>
-      <c r="Z58" s="309"/>
-      <c r="AA58" s="308"/>
-      <c r="AB58" s="307"/>
-      <c r="AC58" s="309"/>
-      <c r="AD58" s="309"/>
-      <c r="AE58" s="309"/>
-      <c r="AF58" s="309"/>
-      <c r="AG58" s="309"/>
-      <c r="AH58" s="309"/>
-      <c r="AI58" s="309"/>
-      <c r="AJ58" s="309"/>
-      <c r="AK58" s="309"/>
-      <c r="AL58" s="309"/>
-      <c r="AM58" s="309"/>
-      <c r="AN58" s="309"/>
-      <c r="AO58" s="309"/>
-      <c r="AP58" s="309"/>
-      <c r="AQ58" s="308"/>
+      <c r="B58" s="337"/>
+      <c r="C58" s="338"/>
+      <c r="D58" s="338"/>
+      <c r="E58" s="338"/>
+      <c r="F58" s="338"/>
+      <c r="G58" s="338"/>
+      <c r="H58" s="338"/>
+      <c r="I58" s="338"/>
+      <c r="J58" s="339"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="341"/>
+      <c r="M58" s="340"/>
+      <c r="N58" s="342"/>
+      <c r="O58" s="342"/>
+      <c r="P58" s="341"/>
+      <c r="Q58" s="340"/>
+      <c r="R58" s="342"/>
+      <c r="S58" s="342"/>
+      <c r="T58" s="342"/>
+      <c r="U58" s="342"/>
+      <c r="V58" s="342"/>
+      <c r="W58" s="342"/>
+      <c r="X58" s="342"/>
+      <c r="Y58" s="342"/>
+      <c r="Z58" s="342"/>
+      <c r="AA58" s="341"/>
+      <c r="AB58" s="340"/>
+      <c r="AC58" s="342"/>
+      <c r="AD58" s="342"/>
+      <c r="AE58" s="342"/>
+      <c r="AF58" s="342"/>
+      <c r="AG58" s="342"/>
+      <c r="AH58" s="342"/>
+      <c r="AI58" s="342"/>
+      <c r="AJ58" s="342"/>
+      <c r="AK58" s="342"/>
+      <c r="AL58" s="342"/>
+      <c r="AM58" s="342"/>
+      <c r="AN58" s="342"/>
+      <c r="AO58" s="342"/>
+      <c r="AP58" s="342"/>
+      <c r="AQ58" s="341"/>
     </row>
     <row r="59" spans="1:43" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="249"/>
-      <c r="G59" s="249"/>
-      <c r="H59" s="249"/>
-      <c r="I59" s="249"/>
-      <c r="J59" s="249"/>
-      <c r="K59" s="249"/>
-      <c r="L59" s="249"/>
-      <c r="M59" s="249"/>
-      <c r="N59" s="249"/>
-      <c r="O59" s="249"/>
-      <c r="P59" s="249"/>
-      <c r="Q59" s="249"/>
-      <c r="R59" s="249"/>
-      <c r="S59" s="249"/>
-      <c r="T59" s="249"/>
-      <c r="U59" s="249"/>
-      <c r="V59" s="249"/>
-      <c r="W59" s="249"/>
-      <c r="X59" s="249"/>
-      <c r="Y59" s="249"/>
-      <c r="Z59" s="249"/>
-      <c r="AA59" s="249"/>
-      <c r="AB59" s="249"/>
-      <c r="AC59" s="249"/>
-      <c r="AD59" s="249"/>
-      <c r="AE59" s="249"/>
-      <c r="AF59" s="249"/>
-      <c r="AG59" s="249"/>
-      <c r="AH59" s="249"/>
-      <c r="AI59" s="249"/>
-      <c r="AJ59" s="249"/>
-      <c r="AK59" s="249"/>
-      <c r="AL59" s="249"/>
-      <c r="AM59" s="249"/>
-      <c r="AN59" s="249"/>
-      <c r="AO59" s="249"/>
-      <c r="AP59" s="249"/>
-      <c r="AQ59" s="249"/>
+      <c r="C59" s="311"/>
+      <c r="D59" s="311"/>
+      <c r="E59" s="311"/>
+      <c r="F59" s="311"/>
+      <c r="G59" s="311"/>
+      <c r="H59" s="311"/>
+      <c r="I59" s="311"/>
+      <c r="J59" s="311"/>
+      <c r="K59" s="311"/>
+      <c r="L59" s="311"/>
+      <c r="M59" s="311"/>
+      <c r="N59" s="311"/>
+      <c r="O59" s="311"/>
+      <c r="P59" s="311"/>
+      <c r="Q59" s="311"/>
+      <c r="R59" s="311"/>
+      <c r="S59" s="311"/>
+      <c r="T59" s="311"/>
+      <c r="U59" s="311"/>
+      <c r="V59" s="311"/>
+      <c r="W59" s="311"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="311"/>
+      <c r="Z59" s="311"/>
+      <c r="AA59" s="311"/>
+      <c r="AB59" s="311"/>
+      <c r="AC59" s="311"/>
+      <c r="AD59" s="311"/>
+      <c r="AE59" s="311"/>
+      <c r="AF59" s="311"/>
+      <c r="AG59" s="311"/>
+      <c r="AH59" s="311"/>
+      <c r="AI59" s="311"/>
+      <c r="AJ59" s="311"/>
+      <c r="AK59" s="311"/>
+      <c r="AL59" s="311"/>
+      <c r="AM59" s="311"/>
+      <c r="AN59" s="311"/>
+      <c r="AO59" s="311"/>
+      <c r="AP59" s="311"/>
+      <c r="AQ59" s="311"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="322"/>
-      <c r="D60" s="322"/>
-      <c r="E60" s="322"/>
-      <c r="F60" s="322"/>
-      <c r="G60" s="322"/>
-      <c r="H60" s="322"/>
-      <c r="I60" s="322"/>
-      <c r="J60" s="322"/>
-      <c r="K60" s="322"/>
-      <c r="L60" s="322"/>
-      <c r="M60" s="322"/>
-      <c r="N60" s="322"/>
-      <c r="O60" s="322"/>
-      <c r="P60" s="322"/>
-      <c r="Q60" s="322"/>
-      <c r="R60" s="322"/>
-      <c r="S60" s="322"/>
-      <c r="T60" s="322"/>
-      <c r="U60" s="322"/>
-      <c r="V60" s="322"/>
-      <c r="W60" s="322"/>
-      <c r="X60" s="322"/>
-      <c r="Y60" s="322"/>
-      <c r="Z60" s="322"/>
-      <c r="AA60" s="322"/>
-      <c r="AB60" s="322"/>
-      <c r="AC60" s="322"/>
-      <c r="AD60" s="322"/>
-      <c r="AE60" s="322"/>
-      <c r="AF60" s="322"/>
-      <c r="AG60" s="322"/>
-      <c r="AH60" s="322"/>
-      <c r="AI60" s="322"/>
-      <c r="AJ60" s="322"/>
-      <c r="AK60" s="322"/>
-      <c r="AL60" s="322"/>
-      <c r="AM60" s="322"/>
-      <c r="AN60" s="322"/>
-      <c r="AO60" s="322"/>
-      <c r="AP60" s="322"/>
-      <c r="AQ60" s="323"/>
+      <c r="C60" s="312"/>
+      <c r="D60" s="312"/>
+      <c r="E60" s="312"/>
+      <c r="F60" s="312"/>
+      <c r="G60" s="312"/>
+      <c r="H60" s="312"/>
+      <c r="I60" s="312"/>
+      <c r="J60" s="312"/>
+      <c r="K60" s="312"/>
+      <c r="L60" s="312"/>
+      <c r="M60" s="312"/>
+      <c r="N60" s="312"/>
+      <c r="O60" s="312"/>
+      <c r="P60" s="312"/>
+      <c r="Q60" s="312"/>
+      <c r="R60" s="312"/>
+      <c r="S60" s="312"/>
+      <c r="T60" s="312"/>
+      <c r="U60" s="312"/>
+      <c r="V60" s="312"/>
+      <c r="W60" s="312"/>
+      <c r="X60" s="312"/>
+      <c r="Y60" s="312"/>
+      <c r="Z60" s="312"/>
+      <c r="AA60" s="312"/>
+      <c r="AB60" s="312"/>
+      <c r="AC60" s="312"/>
+      <c r="AD60" s="312"/>
+      <c r="AE60" s="312"/>
+      <c r="AF60" s="312"/>
+      <c r="AG60" s="312"/>
+      <c r="AH60" s="312"/>
+      <c r="AI60" s="312"/>
+      <c r="AJ60" s="312"/>
+      <c r="AK60" s="312"/>
+      <c r="AL60" s="312"/>
+      <c r="AM60" s="312"/>
+      <c r="AN60" s="312"/>
+      <c r="AO60" s="312"/>
+      <c r="AP60" s="312"/>
+      <c r="AQ60" s="313"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="324"/>
-      <c r="C61" s="325"/>
-      <c r="D61" s="325"/>
-      <c r="E61" s="325"/>
-      <c r="F61" s="325"/>
-      <c r="G61" s="325"/>
-      <c r="H61" s="325"/>
-      <c r="I61" s="325"/>
-      <c r="J61" s="325"/>
-      <c r="K61" s="325"/>
-      <c r="L61" s="325"/>
-      <c r="M61" s="325"/>
-      <c r="N61" s="325"/>
-      <c r="O61" s="325"/>
-      <c r="P61" s="325"/>
-      <c r="Q61" s="325"/>
-      <c r="R61" s="325"/>
-      <c r="S61" s="325"/>
-      <c r="T61" s="325"/>
-      <c r="U61" s="325"/>
-      <c r="V61" s="325"/>
-      <c r="W61" s="325"/>
-      <c r="X61" s="325"/>
-      <c r="Y61" s="325"/>
-      <c r="Z61" s="325"/>
-      <c r="AA61" s="325"/>
-      <c r="AB61" s="325"/>
-      <c r="AC61" s="325"/>
-      <c r="AD61" s="325"/>
-      <c r="AE61" s="325"/>
-      <c r="AF61" s="325"/>
-      <c r="AG61" s="325"/>
-      <c r="AH61" s="325"/>
-      <c r="AI61" s="325"/>
-      <c r="AJ61" s="325"/>
-      <c r="AK61" s="325"/>
-      <c r="AL61" s="325"/>
-      <c r="AM61" s="325"/>
-      <c r="AN61" s="325"/>
-      <c r="AO61" s="325"/>
-      <c r="AP61" s="325"/>
-      <c r="AQ61" s="326"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="155"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="155"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="155"/>
+      <c r="Y61" s="155"/>
+      <c r="Z61" s="155"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="155"/>
+      <c r="AC61" s="155"/>
+      <c r="AD61" s="155"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="155"/>
+      <c r="AG61" s="155"/>
+      <c r="AH61" s="155"/>
+      <c r="AI61" s="155"/>
+      <c r="AJ61" s="155"/>
+      <c r="AK61" s="155"/>
+      <c r="AL61" s="155"/>
+      <c r="AM61" s="155"/>
+      <c r="AN61" s="155"/>
+      <c r="AO61" s="155"/>
+      <c r="AP61" s="155"/>
+      <c r="AQ61" s="156"/>
     </row>
     <row r="62" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="327"/>
-      <c r="C62" s="325"/>
-      <c r="D62" s="325"/>
-      <c r="E62" s="325"/>
-      <c r="F62" s="325"/>
-      <c r="G62" s="325"/>
-      <c r="H62" s="325"/>
-      <c r="I62" s="325"/>
-      <c r="J62" s="325"/>
-      <c r="K62" s="325"/>
-      <c r="L62" s="325"/>
-      <c r="M62" s="325"/>
-      <c r="N62" s="325"/>
-      <c r="O62" s="325"/>
-      <c r="P62" s="325"/>
-      <c r="Q62" s="325"/>
-      <c r="R62" s="325"/>
-      <c r="S62" s="325"/>
-      <c r="T62" s="325"/>
-      <c r="U62" s="325"/>
-      <c r="V62" s="325"/>
-      <c r="W62" s="325"/>
-      <c r="X62" s="325"/>
-      <c r="Y62" s="325"/>
-      <c r="Z62" s="325"/>
-      <c r="AA62" s="325"/>
-      <c r="AB62" s="325"/>
-      <c r="AC62" s="325"/>
-      <c r="AD62" s="325"/>
-      <c r="AE62" s="325"/>
-      <c r="AF62" s="325"/>
-      <c r="AG62" s="325"/>
-      <c r="AH62" s="325"/>
-      <c r="AI62" s="325"/>
-      <c r="AJ62" s="325"/>
-      <c r="AK62" s="325"/>
-      <c r="AL62" s="325"/>
-      <c r="AM62" s="325"/>
-      <c r="AN62" s="325"/>
-      <c r="AO62" s="325"/>
-      <c r="AP62" s="325"/>
-      <c r="AQ62" s="326"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
+      <c r="P62" s="155"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155"/>
+      <c r="S62" s="155"/>
+      <c r="T62" s="155"/>
+      <c r="U62" s="155"/>
+      <c r="V62" s="155"/>
+      <c r="W62" s="155"/>
+      <c r="X62" s="155"/>
+      <c r="Y62" s="155"/>
+      <c r="Z62" s="155"/>
+      <c r="AA62" s="155"/>
+      <c r="AB62" s="155"/>
+      <c r="AC62" s="155"/>
+      <c r="AD62" s="155"/>
+      <c r="AE62" s="155"/>
+      <c r="AF62" s="155"/>
+      <c r="AG62" s="155"/>
+      <c r="AH62" s="155"/>
+      <c r="AI62" s="155"/>
+      <c r="AJ62" s="155"/>
+      <c r="AK62" s="155"/>
+      <c r="AL62" s="155"/>
+      <c r="AM62" s="155"/>
+      <c r="AN62" s="155"/>
+      <c r="AO62" s="155"/>
+      <c r="AP62" s="155"/>
+      <c r="AQ62" s="156"/>
     </row>
     <row r="63" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="328"/>
+      <c r="B63" s="158"/>
       <c r="C63" s="66"/>
       <c r="D63" s="66"/>
       <c r="E63" s="66"/>
@@ -5510,7 +5504,7 @@
       <c r="AN63" s="66"/>
       <c r="AO63" s="66"/>
       <c r="AP63" s="66"/>
-      <c r="AQ63" s="329"/>
+      <c r="AQ63" s="159"/>
     </row>
     <row r="64" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
@@ -5554,184 +5548,184 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="250" t="s">
+      <c r="F66" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="250"/>
-      <c r="H66" s="250"/>
-      <c r="I66" s="250"/>
-      <c r="J66" s="250"/>
-      <c r="K66" s="250"/>
-      <c r="L66" s="250"/>
-      <c r="M66" s="250"/>
-      <c r="N66" s="250"/>
-      <c r="O66" s="250"/>
+      <c r="G66" s="314"/>
+      <c r="H66" s="314"/>
+      <c r="I66" s="314"/>
+      <c r="J66" s="314"/>
+      <c r="K66" s="314"/>
+      <c r="L66" s="314"/>
+      <c r="M66" s="314"/>
+      <c r="N66" s="314"/>
+      <c r="O66" s="314"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="251" t="s">
+      <c r="R66" s="315" t="s">
         <v>1</v>
       </c>
-      <c r="S66" s="252"/>
-      <c r="T66" s="252"/>
-      <c r="U66" s="252"/>
-      <c r="V66" s="252"/>
-      <c r="W66" s="252"/>
-      <c r="X66" s="252"/>
-      <c r="Y66" s="252"/>
-      <c r="Z66" s="252"/>
-      <c r="AA66" s="252"/>
-      <c r="AB66" s="252"/>
-      <c r="AC66" s="252"/>
-      <c r="AD66" s="252"/>
-      <c r="AE66" s="252"/>
-      <c r="AF66" s="252"/>
-      <c r="AG66" s="252"/>
-      <c r="AH66" s="252"/>
-      <c r="AI66" s="252"/>
-      <c r="AJ66" s="252"/>
-      <c r="AK66" s="252"/>
-      <c r="AL66" s="252"/>
-      <c r="AM66" s="252"/>
-      <c r="AN66" s="252"/>
-      <c r="AO66" s="252"/>
-      <c r="AP66" s="252"/>
-      <c r="AQ66" s="253"/>
+      <c r="S66" s="316"/>
+      <c r="T66" s="316"/>
+      <c r="U66" s="316"/>
+      <c r="V66" s="316"/>
+      <c r="W66" s="316"/>
+      <c r="X66" s="316"/>
+      <c r="Y66" s="316"/>
+      <c r="Z66" s="316"/>
+      <c r="AA66" s="316"/>
+      <c r="AB66" s="316"/>
+      <c r="AC66" s="316"/>
+      <c r="AD66" s="316"/>
+      <c r="AE66" s="316"/>
+      <c r="AF66" s="316"/>
+      <c r="AG66" s="316"/>
+      <c r="AH66" s="316"/>
+      <c r="AI66" s="316"/>
+      <c r="AJ66" s="316"/>
+      <c r="AK66" s="316"/>
+      <c r="AL66" s="316"/>
+      <c r="AM66" s="316"/>
+      <c r="AN66" s="316"/>
+      <c r="AO66" s="316"/>
+      <c r="AP66" s="316"/>
+      <c r="AQ66" s="317"/>
     </row>
     <row r="67" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="250"/>
-      <c r="G67" s="250"/>
-      <c r="H67" s="250"/>
-      <c r="I67" s="250"/>
-      <c r="J67" s="250"/>
-      <c r="K67" s="250"/>
-      <c r="L67" s="250"/>
-      <c r="M67" s="250"/>
-      <c r="N67" s="250"/>
-      <c r="O67" s="250"/>
+      <c r="F67" s="314"/>
+      <c r="G67" s="314"/>
+      <c r="H67" s="314"/>
+      <c r="I67" s="314"/>
+      <c r="J67" s="314"/>
+      <c r="K67" s="314"/>
+      <c r="L67" s="314"/>
+      <c r="M67" s="314"/>
+      <c r="N67" s="314"/>
+      <c r="O67" s="314"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="254" t="s">
+      <c r="R67" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="255"/>
-      <c r="T67" s="255"/>
-      <c r="U67" s="255"/>
-      <c r="V67" s="256"/>
-      <c r="W67" s="254" t="s">
+      <c r="S67" s="319"/>
+      <c r="T67" s="319"/>
+      <c r="U67" s="319"/>
+      <c r="V67" s="320"/>
+      <c r="W67" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="X67" s="255"/>
-      <c r="Y67" s="255"/>
-      <c r="Z67" s="255"/>
-      <c r="AA67" s="255"/>
-      <c r="AB67" s="255"/>
-      <c r="AC67" s="255"/>
-      <c r="AD67" s="255"/>
-      <c r="AE67" s="255"/>
-      <c r="AF67" s="255"/>
-      <c r="AG67" s="255"/>
-      <c r="AH67" s="256"/>
-      <c r="AI67" s="254" t="s">
+      <c r="X67" s="319"/>
+      <c r="Y67" s="319"/>
+      <c r="Z67" s="319"/>
+      <c r="AA67" s="319"/>
+      <c r="AB67" s="319"/>
+      <c r="AC67" s="319"/>
+      <c r="AD67" s="319"/>
+      <c r="AE67" s="319"/>
+      <c r="AF67" s="319"/>
+      <c r="AG67" s="319"/>
+      <c r="AH67" s="320"/>
+      <c r="AI67" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="AJ67" s="255"/>
-      <c r="AK67" s="255"/>
-      <c r="AL67" s="255"/>
-      <c r="AM67" s="255"/>
-      <c r="AN67" s="255"/>
-      <c r="AO67" s="255"/>
-      <c r="AP67" s="255"/>
-      <c r="AQ67" s="256"/>
+      <c r="AJ67" s="319"/>
+      <c r="AK67" s="319"/>
+      <c r="AL67" s="319"/>
+      <c r="AM67" s="319"/>
+      <c r="AN67" s="319"/>
+      <c r="AO67" s="319"/>
+      <c r="AP67" s="319"/>
+      <c r="AQ67" s="320"/>
     </row>
     <row r="68" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="250"/>
-      <c r="G68" s="250"/>
-      <c r="H68" s="250"/>
-      <c r="I68" s="250"/>
-      <c r="J68" s="250"/>
-      <c r="K68" s="250"/>
-      <c r="L68" s="250"/>
-      <c r="M68" s="250"/>
-      <c r="N68" s="250"/>
-      <c r="O68" s="250"/>
+      <c r="F68" s="314"/>
+      <c r="G68" s="314"/>
+      <c r="H68" s="314"/>
+      <c r="I68" s="314"/>
+      <c r="J68" s="314"/>
+      <c r="K68" s="314"/>
+      <c r="L68" s="314"/>
+      <c r="M68" s="314"/>
+      <c r="N68" s="314"/>
+      <c r="O68" s="314"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="257"/>
-      <c r="S68" s="258"/>
-      <c r="T68" s="258"/>
-      <c r="U68" s="258"/>
-      <c r="V68" s="259"/>
-      <c r="W68" s="263"/>
-      <c r="X68" s="264"/>
-      <c r="Y68" s="264"/>
-      <c r="Z68" s="264"/>
-      <c r="AA68" s="264"/>
-      <c r="AB68" s="264"/>
-      <c r="AC68" s="264"/>
-      <c r="AD68" s="264"/>
-      <c r="AE68" s="264"/>
-      <c r="AF68" s="264"/>
-      <c r="AG68" s="264"/>
-      <c r="AH68" s="265"/>
-      <c r="AI68" s="231" t="s">
+      <c r="R68" s="321"/>
+      <c r="S68" s="322"/>
+      <c r="T68" s="322"/>
+      <c r="U68" s="322"/>
+      <c r="V68" s="323"/>
+      <c r="W68" s="327"/>
+      <c r="X68" s="328"/>
+      <c r="Y68" s="328"/>
+      <c r="Z68" s="328"/>
+      <c r="AA68" s="328"/>
+      <c r="AB68" s="328"/>
+      <c r="AC68" s="328"/>
+      <c r="AD68" s="328"/>
+      <c r="AE68" s="328"/>
+      <c r="AF68" s="328"/>
+      <c r="AG68" s="328"/>
+      <c r="AH68" s="329"/>
+      <c r="AI68" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="AJ68" s="232"/>
-      <c r="AK68" s="232"/>
-      <c r="AL68" s="232"/>
-      <c r="AM68" s="232"/>
-      <c r="AN68" s="232"/>
-      <c r="AO68" s="232"/>
-      <c r="AP68" s="232"/>
-      <c r="AQ68" s="235"/>
+      <c r="AJ68" s="283"/>
+      <c r="AK68" s="283"/>
+      <c r="AL68" s="283"/>
+      <c r="AM68" s="283"/>
+      <c r="AN68" s="283"/>
+      <c r="AO68" s="283"/>
+      <c r="AP68" s="283"/>
+      <c r="AQ68" s="286"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="250"/>
-      <c r="G69" s="250"/>
-      <c r="H69" s="250"/>
-      <c r="I69" s="250"/>
-      <c r="J69" s="250"/>
-      <c r="K69" s="250"/>
-      <c r="L69" s="250"/>
-      <c r="M69" s="250"/>
-      <c r="N69" s="250"/>
-      <c r="O69" s="250"/>
+      <c r="F69" s="314"/>
+      <c r="G69" s="314"/>
+      <c r="H69" s="314"/>
+      <c r="I69" s="314"/>
+      <c r="J69" s="314"/>
+      <c r="K69" s="314"/>
+      <c r="L69" s="314"/>
+      <c r="M69" s="314"/>
+      <c r="N69" s="314"/>
+      <c r="O69" s="314"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="260"/>
-      <c r="S69" s="261"/>
-      <c r="T69" s="261"/>
-      <c r="U69" s="261"/>
-      <c r="V69" s="262"/>
-      <c r="W69" s="260"/>
-      <c r="X69" s="261"/>
-      <c r="Y69" s="261"/>
-      <c r="Z69" s="261"/>
-      <c r="AA69" s="261"/>
-      <c r="AB69" s="261"/>
-      <c r="AC69" s="261"/>
-      <c r="AD69" s="261"/>
-      <c r="AE69" s="261"/>
-      <c r="AF69" s="261"/>
-      <c r="AG69" s="261"/>
-      <c r="AH69" s="262"/>
-      <c r="AI69" s="266"/>
-      <c r="AJ69" s="267"/>
-      <c r="AK69" s="267"/>
-      <c r="AL69" s="267"/>
-      <c r="AM69" s="267"/>
-      <c r="AN69" s="267"/>
-      <c r="AO69" s="267"/>
-      <c r="AP69" s="267"/>
-      <c r="AQ69" s="268"/>
+      <c r="R69" s="324"/>
+      <c r="S69" s="325"/>
+      <c r="T69" s="325"/>
+      <c r="U69" s="325"/>
+      <c r="V69" s="326"/>
+      <c r="W69" s="324"/>
+      <c r="X69" s="325"/>
+      <c r="Y69" s="325"/>
+      <c r="Z69" s="325"/>
+      <c r="AA69" s="325"/>
+      <c r="AB69" s="325"/>
+      <c r="AC69" s="325"/>
+      <c r="AD69" s="325"/>
+      <c r="AE69" s="325"/>
+      <c r="AF69" s="325"/>
+      <c r="AG69" s="325"/>
+      <c r="AH69" s="326"/>
+      <c r="AI69" s="330"/>
+      <c r="AJ69" s="331"/>
+      <c r="AK69" s="331"/>
+      <c r="AL69" s="331"/>
+      <c r="AM69" s="331"/>
+      <c r="AN69" s="331"/>
+      <c r="AO69" s="331"/>
+      <c r="AP69" s="331"/>
+      <c r="AQ69" s="332"/>
     </row>
     <row r="70" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="56"/>
@@ -5878,19 +5872,19 @@
       <c r="D73" s="86"/>
       <c r="E73" s="87"/>
       <c r="F73" s="87"/>
-      <c r="G73" s="160" t="s">
+      <c r="G73" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="160"/>
-      <c r="I73" s="160"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="245" t="s">
+      <c r="K73" s="302" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="245"/>
-      <c r="M73" s="245"/>
-      <c r="N73" s="245"/>
-      <c r="O73" s="245"/>
+      <c r="L73" s="302"/>
+      <c r="M73" s="302"/>
+      <c r="N73" s="302"/>
+      <c r="O73" s="302"/>
       <c r="P73" s="86"/>
       <c r="Q73" s="86"/>
       <c r="R73" s="86"/>
@@ -5910,15 +5904,15 @@
       <c r="AF73" s="86"/>
       <c r="AG73" s="88"/>
       <c r="AH73" s="88"/>
-      <c r="AI73" s="247" t="s">
+      <c r="AI73" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="AJ73" s="247"/>
-      <c r="AK73" s="247"/>
-      <c r="AL73" s="247"/>
-      <c r="AM73" s="247"/>
-      <c r="AN73" s="247"/>
-      <c r="AO73" s="247"/>
+      <c r="AJ73" s="308"/>
+      <c r="AK73" s="308"/>
+      <c r="AL73" s="308"/>
+      <c r="AM73" s="308"/>
+      <c r="AN73" s="308"/>
+      <c r="AO73" s="308"/>
       <c r="AP73" s="82"/>
       <c r="AQ73" s="84"/>
     </row>
@@ -5933,32 +5927,32 @@
       <c r="F74" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="289"/>
-      <c r="H74" s="289"/>
-      <c r="I74" s="289"/>
+      <c r="G74" s="298"/>
+      <c r="H74" s="298"/>
+      <c r="I74" s="298"/>
       <c r="J74" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="K74" s="295"/>
-      <c r="L74" s="295"/>
-      <c r="M74" s="295"/>
-      <c r="N74" s="295"/>
-      <c r="O74" s="295"/>
+      <c r="K74" s="309"/>
+      <c r="L74" s="309"/>
+      <c r="M74" s="309"/>
+      <c r="N74" s="309"/>
+      <c r="O74" s="309"/>
       <c r="P74" s="82" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R74" s="293">
+      <c r="R74" s="306">
         <f>G74*K74</f>
         <v>0</v>
       </c>
-      <c r="S74" s="293"/>
-      <c r="T74" s="293"/>
-      <c r="U74" s="293"/>
-      <c r="V74" s="293"/>
-      <c r="W74" s="293"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
+      <c r="U74" s="306"/>
+      <c r="V74" s="306"/>
+      <c r="W74" s="306"/>
       <c r="X74" s="82"/>
       <c r="Y74" s="82"/>
       <c r="Z74" s="82"/>
@@ -5975,15 +5969,15 @@
       <c r="AI74" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ74" s="290">
+      <c r="AJ74" s="294">
         <f>+R74</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="290"/>
-      <c r="AL74" s="290"/>
-      <c r="AM74" s="290"/>
-      <c r="AN74" s="290"/>
-      <c r="AO74" s="290"/>
+      <c r="AK74" s="294"/>
+      <c r="AL74" s="294"/>
+      <c r="AM74" s="294"/>
+      <c r="AN74" s="294"/>
+      <c r="AO74" s="294"/>
       <c r="AP74" s="83"/>
       <c r="AQ74" s="84"/>
     </row>
@@ -5994,19 +5988,19 @@
       <c r="D75" s="82"/>
       <c r="E75" s="55"/>
       <c r="F75" s="55"/>
-      <c r="G75" s="248" t="s">
+      <c r="G75" s="310" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="248"/>
-      <c r="I75" s="248"/>
+      <c r="H75" s="310"/>
+      <c r="I75" s="310"/>
       <c r="J75" s="89"/>
-      <c r="K75" s="241" t="s">
+      <c r="K75" s="296" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="241"/>
-      <c r="M75" s="241"/>
-      <c r="N75" s="241"/>
-      <c r="O75" s="241"/>
+      <c r="L75" s="296"/>
+      <c r="M75" s="296"/>
+      <c r="N75" s="296"/>
+      <c r="O75" s="296"/>
       <c r="P75" s="82"/>
       <c r="Q75" s="82"/>
       <c r="R75" s="82"/>
@@ -6047,32 +6041,32 @@
       <c r="F76" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="291"/>
-      <c r="H76" s="291"/>
-      <c r="I76" s="291"/>
+      <c r="G76" s="304"/>
+      <c r="H76" s="304"/>
+      <c r="I76" s="304"/>
       <c r="J76" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="294"/>
-      <c r="L76" s="294"/>
-      <c r="M76" s="294"/>
-      <c r="N76" s="294"/>
-      <c r="O76" s="294"/>
+      <c r="K76" s="305"/>
+      <c r="L76" s="305"/>
+      <c r="M76" s="305"/>
+      <c r="N76" s="305"/>
+      <c r="O76" s="305"/>
       <c r="P76" s="82" t="s">
         <v>50</v>
       </c>
       <c r="Q76" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="293">
+      <c r="R76" s="306">
         <f>G76*K76</f>
         <v>0</v>
       </c>
-      <c r="S76" s="293"/>
-      <c r="T76" s="293"/>
-      <c r="U76" s="293"/>
-      <c r="V76" s="293"/>
-      <c r="W76" s="293"/>
+      <c r="S76" s="306"/>
+      <c r="T76" s="306"/>
+      <c r="U76" s="306"/>
+      <c r="V76" s="306"/>
+      <c r="W76" s="306"/>
       <c r="X76" s="82"/>
       <c r="Y76" s="82"/>
       <c r="Z76" s="82"/>
@@ -6089,15 +6083,15 @@
       <c r="AI76" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ76" s="290">
+      <c r="AJ76" s="294">
         <f>+R76</f>
         <v>0</v>
       </c>
-      <c r="AK76" s="290"/>
-      <c r="AL76" s="290"/>
-      <c r="AM76" s="290"/>
-      <c r="AN76" s="290"/>
-      <c r="AO76" s="290"/>
+      <c r="AK76" s="294"/>
+      <c r="AL76" s="294"/>
+      <c r="AM76" s="294"/>
+      <c r="AN76" s="294"/>
+      <c r="AO76" s="294"/>
       <c r="AP76" s="83"/>
       <c r="AQ76" s="84"/>
     </row>
@@ -6188,15 +6182,15 @@
       <c r="AI78" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ78" s="290">
+      <c r="AJ78" s="294">
         <f>+AJ74+AJ76</f>
         <v>0</v>
       </c>
-      <c r="AK78" s="290"/>
-      <c r="AL78" s="290"/>
-      <c r="AM78" s="290"/>
-      <c r="AN78" s="290"/>
-      <c r="AO78" s="290"/>
+      <c r="AK78" s="294"/>
+      <c r="AL78" s="294"/>
+      <c r="AM78" s="294"/>
+      <c r="AN78" s="294"/>
+      <c r="AO78" s="294"/>
       <c r="AP78" s="83"/>
       <c r="AQ78" s="84"/>
     </row>
@@ -6213,23 +6207,23 @@
         <v>53</v>
       </c>
       <c r="J79" s="82"/>
-      <c r="K79" s="292"/>
-      <c r="L79" s="292"/>
-      <c r="M79" s="292"/>
-      <c r="N79" s="292"/>
-      <c r="O79" s="292"/>
-      <c r="P79" s="292"/>
-      <c r="Q79" s="292"/>
-      <c r="R79" s="292"/>
-      <c r="S79" s="157">
+      <c r="K79" s="307"/>
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="307"/>
+      <c r="O79" s="307"/>
+      <c r="P79" s="307"/>
+      <c r="Q79" s="307"/>
+      <c r="R79" s="307"/>
+      <c r="S79" s="175">
         <v>0</v>
       </c>
-      <c r="T79" s="157"/>
-      <c r="U79" s="158" t="s">
-        <v>109</v>
-      </c>
-      <c r="V79" s="159"/>
-      <c r="W79" s="159"/>
+      <c r="T79" s="175"/>
+      <c r="U79" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="V79" s="177"/>
+      <c r="W79" s="177"/>
       <c r="X79" s="82"/>
       <c r="Y79" s="82"/>
       <c r="Z79" s="82"/>
@@ -6248,15 +6242,15 @@
       <c r="AI79" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ79" s="296">
+      <c r="AJ79" s="295">
         <f>AJ78*S79</f>
         <v>0</v>
       </c>
-      <c r="AK79" s="296"/>
-      <c r="AL79" s="296"/>
-      <c r="AM79" s="296"/>
-      <c r="AN79" s="296"/>
-      <c r="AO79" s="296"/>
+      <c r="AK79" s="295"/>
+      <c r="AL79" s="295"/>
+      <c r="AM79" s="295"/>
+      <c r="AN79" s="295"/>
+      <c r="AO79" s="295"/>
       <c r="AP79" s="83"/>
       <c r="AQ79" s="84"/>
     </row>
@@ -6302,15 +6296,15 @@
       <c r="AI80" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ80" s="296">
+      <c r="AJ80" s="295">
         <f xml:space="preserve"> AJ78+ AJ79</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="296"/>
-      <c r="AL80" s="296"/>
-      <c r="AM80" s="296"/>
-      <c r="AN80" s="296"/>
-      <c r="AO80" s="296"/>
+      <c r="AK80" s="295"/>
+      <c r="AL80" s="295"/>
+      <c r="AM80" s="295"/>
+      <c r="AN80" s="295"/>
+      <c r="AO80" s="295"/>
       <c r="AP80" s="83"/>
       <c r="AQ80" s="84"/>
     </row>
@@ -6378,27 +6372,27 @@
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="245" t="s">
+      <c r="M82" s="302" t="s">
         <v>57</v>
       </c>
-      <c r="N82" s="245"/>
-      <c r="O82" s="245"/>
-      <c r="P82" s="245"/>
+      <c r="N82" s="302"/>
+      <c r="O82" s="302"/>
+      <c r="P82" s="302"/>
       <c r="Q82" s="43"/>
-      <c r="R82" s="245"/>
-      <c r="S82" s="245"/>
-      <c r="T82" s="245"/>
-      <c r="U82" s="245"/>
+      <c r="R82" s="302"/>
+      <c r="S82" s="302"/>
+      <c r="T82" s="302"/>
+      <c r="U82" s="302"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="245" t="s">
+      <c r="X82" s="302" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="245"/>
-      <c r="Z82" s="245"/>
-      <c r="AA82" s="245"/>
-      <c r="AB82" s="245"/>
-      <c r="AC82" s="245"/>
+      <c r="Y82" s="302"/>
+      <c r="Z82" s="302"/>
+      <c r="AA82" s="302"/>
+      <c r="AB82" s="302"/>
+      <c r="AC82" s="302"/>
       <c r="AD82" s="43"/>
       <c r="AE82" s="43"/>
       <c r="AF82" s="44"/>
@@ -6419,11 +6413,11 @@
     <row r="83" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="242" t="s">
+      <c r="C83" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="242"/>
-      <c r="E83" s="242"/>
+      <c r="D83" s="297"/>
+      <c r="E83" s="297"/>
       <c r="F83" s="13" t="s">
         <v>48</v>
       </c>
@@ -6441,33 +6435,33 @@
       <c r="L83" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M83" s="290">
+      <c r="M83" s="294">
         <f>+J83*G83</f>
         <v>0</v>
       </c>
-      <c r="N83" s="290"/>
-      <c r="O83" s="290"/>
-      <c r="P83" s="290"/>
+      <c r="N83" s="294"/>
+      <c r="O83" s="294"/>
+      <c r="P83" s="294"/>
       <c r="Q83" s="103"/>
-      <c r="R83" s="246"/>
-      <c r="S83" s="246"/>
-      <c r="T83" s="246"/>
-      <c r="U83" s="246"/>
+      <c r="R83" s="303"/>
+      <c r="S83" s="303"/>
+      <c r="T83" s="303"/>
+      <c r="U83" s="303"/>
       <c r="V83" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W83" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X83" s="290">
+      <c r="X83" s="294">
         <f>+M83+R83</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="290"/>
-      <c r="Z83" s="290"/>
-      <c r="AA83" s="290"/>
-      <c r="AB83" s="290"/>
-      <c r="AC83" s="290"/>
+      <c r="Y83" s="294"/>
+      <c r="Z83" s="294"/>
+      <c r="AA83" s="294"/>
+      <c r="AB83" s="294"/>
+      <c r="AC83" s="294"/>
       <c r="AD83" s="104"/>
       <c r="AE83" s="104"/>
       <c r="AF83" s="105"/>
@@ -6476,15 +6470,15 @@
       <c r="AI83" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ83" s="290">
+      <c r="AJ83" s="294">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="AK83" s="290"/>
-      <c r="AL83" s="290"/>
-      <c r="AM83" s="290"/>
-      <c r="AN83" s="290"/>
-      <c r="AO83" s="290"/>
+      <c r="AK83" s="294"/>
+      <c r="AL83" s="294"/>
+      <c r="AM83" s="294"/>
+      <c r="AN83" s="294"/>
+      <c r="AO83" s="294"/>
       <c r="AP83" s="106"/>
       <c r="AQ83" s="107"/>
     </row>
@@ -6505,27 +6499,27 @@
       </c>
       <c r="K84" s="43"/>
       <c r="L84" s="43"/>
-      <c r="M84" s="241" t="s">
+      <c r="M84" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="241"/>
-      <c r="O84" s="241"/>
-      <c r="P84" s="241"/>
+      <c r="N84" s="296"/>
+      <c r="O84" s="296"/>
+      <c r="P84" s="296"/>
       <c r="Q84" s="43"/>
-      <c r="R84" s="245"/>
-      <c r="S84" s="245"/>
-      <c r="T84" s="245"/>
-      <c r="U84" s="245"/>
+      <c r="R84" s="302"/>
+      <c r="S84" s="302"/>
+      <c r="T84" s="302"/>
+      <c r="U84" s="302"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="241" t="s">
+      <c r="X84" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="241"/>
-      <c r="Z84" s="241"/>
-      <c r="AA84" s="241"/>
-      <c r="AB84" s="241"/>
-      <c r="AC84" s="241"/>
+      <c r="Y84" s="296"/>
+      <c r="Z84" s="296"/>
+      <c r="AA84" s="296"/>
+      <c r="AB84" s="296"/>
+      <c r="AC84" s="296"/>
       <c r="AD84" s="43"/>
       <c r="AE84" s="43"/>
       <c r="AF84" s="44"/>
@@ -6543,11 +6537,11 @@
     </row>
     <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
-      <c r="C85" s="242" t="s">
+      <c r="C85" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="242"/>
-      <c r="E85" s="242"/>
+      <c r="D85" s="297"/>
+      <c r="E85" s="297"/>
       <c r="F85" s="13" t="s">
         <v>48</v>
       </c>
@@ -6565,33 +6559,33 @@
       <c r="L85" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M85" s="290">
+      <c r="M85" s="294">
         <f>+J85*G85</f>
         <v>0</v>
       </c>
-      <c r="N85" s="290"/>
-      <c r="O85" s="290"/>
-      <c r="P85" s="290"/>
+      <c r="N85" s="294"/>
+      <c r="O85" s="294"/>
+      <c r="P85" s="294"/>
       <c r="Q85" s="103"/>
-      <c r="R85" s="246"/>
-      <c r="S85" s="246"/>
-      <c r="T85" s="246"/>
-      <c r="U85" s="246"/>
+      <c r="R85" s="303"/>
+      <c r="S85" s="303"/>
+      <c r="T85" s="303"/>
+      <c r="U85" s="303"/>
       <c r="V85" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W85" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X85" s="290">
+      <c r="X85" s="294">
         <f>+M85+R85</f>
         <v>0</v>
       </c>
-      <c r="Y85" s="290"/>
-      <c r="Z85" s="290"/>
-      <c r="AA85" s="290"/>
-      <c r="AB85" s="290"/>
-      <c r="AC85" s="290"/>
+      <c r="Y85" s="294"/>
+      <c r="Z85" s="294"/>
+      <c r="AA85" s="294"/>
+      <c r="AB85" s="294"/>
+      <c r="AC85" s="294"/>
       <c r="AD85" s="104"/>
       <c r="AE85" s="104"/>
       <c r="AF85" s="105"/>
@@ -6624,27 +6618,27 @@
       </c>
       <c r="K86" s="43"/>
       <c r="L86" s="43"/>
-      <c r="M86" s="241" t="s">
+      <c r="M86" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="241"/>
-      <c r="O86" s="241"/>
-      <c r="P86" s="241"/>
+      <c r="N86" s="296"/>
+      <c r="O86" s="296"/>
+      <c r="P86" s="296"/>
       <c r="Q86" s="43"/>
-      <c r="R86" s="245"/>
-      <c r="S86" s="245"/>
-      <c r="T86" s="245"/>
-      <c r="U86" s="245"/>
+      <c r="R86" s="302"/>
+      <c r="S86" s="302"/>
+      <c r="T86" s="302"/>
+      <c r="U86" s="302"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="241" t="s">
+      <c r="X86" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="241"/>
-      <c r="Z86" s="241"/>
-      <c r="AA86" s="241"/>
-      <c r="AB86" s="241"/>
-      <c r="AC86" s="241"/>
+      <c r="Y86" s="296"/>
+      <c r="Z86" s="296"/>
+      <c r="AA86" s="296"/>
+      <c r="AB86" s="296"/>
+      <c r="AC86" s="296"/>
       <c r="AD86" s="43"/>
       <c r="AE86" s="43"/>
       <c r="AF86" s="44"/>
@@ -6665,11 +6659,11 @@
     <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="242" t="s">
+      <c r="C87" s="297" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="242"/>
-      <c r="E87" s="242"/>
+      <c r="D87" s="297"/>
+      <c r="E87" s="297"/>
       <c r="F87" s="13" t="s">
         <v>48</v>
       </c>
@@ -6687,33 +6681,33 @@
       <c r="L87" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M87" s="290">
+      <c r="M87" s="294">
         <f>+J87*G87</f>
         <v>0</v>
       </c>
-      <c r="N87" s="290"/>
-      <c r="O87" s="290"/>
-      <c r="P87" s="290"/>
+      <c r="N87" s="294"/>
+      <c r="O87" s="294"/>
+      <c r="P87" s="294"/>
       <c r="Q87" s="103"/>
-      <c r="R87" s="246"/>
-      <c r="S87" s="246"/>
-      <c r="T87" s="246"/>
-      <c r="U87" s="246"/>
+      <c r="R87" s="303"/>
+      <c r="S87" s="303"/>
+      <c r="T87" s="303"/>
+      <c r="U87" s="303"/>
       <c r="V87" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W87" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X87" s="290">
+      <c r="X87" s="294">
         <f>+M87+R87</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="290"/>
-      <c r="Z87" s="290"/>
-      <c r="AA87" s="290"/>
-      <c r="AB87" s="290"/>
-      <c r="AC87" s="290"/>
+      <c r="Y87" s="294"/>
+      <c r="Z87" s="294"/>
+      <c r="AA87" s="294"/>
+      <c r="AB87" s="294"/>
+      <c r="AC87" s="294"/>
       <c r="AD87" s="104"/>
       <c r="AE87" s="104"/>
       <c r="AF87" s="105"/>
@@ -6722,15 +6716,15 @@
       <c r="AI87" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ87" s="290">
+      <c r="AJ87" s="294">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="AK87" s="290"/>
-      <c r="AL87" s="290"/>
-      <c r="AM87" s="290"/>
-      <c r="AN87" s="290"/>
-      <c r="AO87" s="290"/>
+      <c r="AK87" s="294"/>
+      <c r="AL87" s="294"/>
+      <c r="AM87" s="294"/>
+      <c r="AN87" s="294"/>
+      <c r="AO87" s="294"/>
       <c r="AP87" s="106"/>
       <c r="AQ87" s="107"/>
     </row>
@@ -6751,27 +6745,27 @@
       </c>
       <c r="K88" s="43"/>
       <c r="L88" s="43"/>
-      <c r="M88" s="241" t="s">
+      <c r="M88" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N88" s="241"/>
-      <c r="O88" s="241"/>
-      <c r="P88" s="241"/>
+      <c r="N88" s="296"/>
+      <c r="O88" s="296"/>
+      <c r="P88" s="296"/>
       <c r="Q88" s="43"/>
-      <c r="R88" s="245"/>
-      <c r="S88" s="245"/>
-      <c r="T88" s="245"/>
-      <c r="U88" s="245"/>
+      <c r="R88" s="302"/>
+      <c r="S88" s="302"/>
+      <c r="T88" s="302"/>
+      <c r="U88" s="302"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="241" t="s">
+      <c r="X88" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="241"/>
-      <c r="Z88" s="241"/>
-      <c r="AA88" s="241"/>
-      <c r="AB88" s="241"/>
-      <c r="AC88" s="241"/>
+      <c r="Y88" s="296"/>
+      <c r="Z88" s="296"/>
+      <c r="AA88" s="296"/>
+      <c r="AB88" s="296"/>
+      <c r="AC88" s="296"/>
       <c r="AD88" s="43"/>
       <c r="AE88" s="43"/>
       <c r="AF88" s="44"/>
@@ -6790,11 +6784,11 @@
     <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="108"/>
-      <c r="C89" s="242" t="s">
+      <c r="C89" s="297" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="242"/>
-      <c r="E89" s="242"/>
+      <c r="D89" s="297"/>
+      <c r="E89" s="297"/>
       <c r="F89" s="13" t="s">
         <v>48</v>
       </c>
@@ -6812,33 +6806,33 @@
       <c r="L89" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M89" s="290">
+      <c r="M89" s="294">
         <f>+J89*G89</f>
         <v>0</v>
       </c>
-      <c r="N89" s="290"/>
-      <c r="O89" s="290"/>
-      <c r="P89" s="290"/>
+      <c r="N89" s="294"/>
+      <c r="O89" s="294"/>
+      <c r="P89" s="294"/>
       <c r="Q89" s="103"/>
-      <c r="R89" s="243"/>
-      <c r="S89" s="243"/>
-      <c r="T89" s="243"/>
-      <c r="U89" s="243"/>
+      <c r="R89" s="300"/>
+      <c r="S89" s="300"/>
+      <c r="T89" s="300"/>
+      <c r="U89" s="300"/>
       <c r="V89" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W89" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X89" s="290">
+      <c r="X89" s="294">
         <f>M89</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="290"/>
-      <c r="Z89" s="290"/>
-      <c r="AA89" s="290"/>
-      <c r="AB89" s="290"/>
-      <c r="AC89" s="290"/>
+      <c r="Y89" s="294"/>
+      <c r="Z89" s="294"/>
+      <c r="AA89" s="294"/>
+      <c r="AB89" s="294"/>
+      <c r="AC89" s="294"/>
       <c r="AD89" s="104"/>
       <c r="AE89" s="104"/>
       <c r="AF89" s="105"/>
@@ -6871,29 +6865,29 @@
       </c>
       <c r="K90" s="43"/>
       <c r="L90" s="43"/>
-      <c r="M90" s="241" t="s">
+      <c r="M90" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N90" s="241"/>
-      <c r="O90" s="241"/>
-      <c r="P90" s="241"/>
+      <c r="N90" s="296"/>
+      <c r="O90" s="296"/>
+      <c r="P90" s="296"/>
       <c r="Q90" s="43"/>
-      <c r="R90" s="244" t="s">
+      <c r="R90" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="S90" s="244"/>
-      <c r="T90" s="244"/>
-      <c r="U90" s="244"/>
+      <c r="S90" s="301"/>
+      <c r="T90" s="301"/>
+      <c r="U90" s="301"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="241" t="s">
+      <c r="X90" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="241"/>
-      <c r="Z90" s="241"/>
-      <c r="AA90" s="241"/>
-      <c r="AB90" s="241"/>
-      <c r="AC90" s="241"/>
+      <c r="Y90" s="296"/>
+      <c r="Z90" s="296"/>
+      <c r="AA90" s="296"/>
+      <c r="AB90" s="296"/>
+      <c r="AC90" s="296"/>
       <c r="AD90" s="43"/>
       <c r="AE90" s="43"/>
       <c r="AF90" s="44"/>
@@ -6914,15 +6908,15 @@
     <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="108"/>
-      <c r="C91" s="242" t="s">
+      <c r="C91" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="242"/>
-      <c r="E91" s="242"/>
+      <c r="D91" s="297"/>
+      <c r="E91" s="297"/>
       <c r="F91" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G91" s="288"/>
+      <c r="G91" s="151"/>
       <c r="H91" s="112"/>
       <c r="I91" s="101" t="s">
         <v>49</v>
@@ -6934,38 +6928,38 @@
       <c r="L91" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M91" s="290">
+      <c r="M91" s="294">
         <f>+J91*G91</f>
         <v>0</v>
       </c>
-      <c r="N91" s="290"/>
-      <c r="O91" s="290"/>
-      <c r="P91" s="290"/>
+      <c r="N91" s="294"/>
+      <c r="O91" s="294"/>
+      <c r="P91" s="294"/>
       <c r="Q91" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R91" s="290">
+      <c r="R91" s="294">
         <f>PRODUCT(M91, S79)</f>
         <v>0</v>
       </c>
-      <c r="S91" s="290"/>
-      <c r="T91" s="290"/>
-      <c r="U91" s="290"/>
+      <c r="S91" s="294"/>
+      <c r="T91" s="294"/>
+      <c r="U91" s="294"/>
       <c r="V91" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W91" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X91" s="290">
+      <c r="X91" s="294">
         <f>+M91+R91</f>
         <v>0</v>
       </c>
-      <c r="Y91" s="290"/>
-      <c r="Z91" s="290"/>
-      <c r="AA91" s="290"/>
-      <c r="AB91" s="290"/>
-      <c r="AC91" s="290"/>
+      <c r="Y91" s="294"/>
+      <c r="Z91" s="294"/>
+      <c r="AA91" s="294"/>
+      <c r="AB91" s="294"/>
+      <c r="AC91" s="294"/>
       <c r="AD91" s="104"/>
       <c r="AE91" s="104"/>
       <c r="AF91" s="105"/>
@@ -6974,15 +6968,15 @@
       <c r="AI91" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ91" s="290">
+      <c r="AJ91" s="294">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="AK91" s="290"/>
-      <c r="AL91" s="290"/>
-      <c r="AM91" s="290"/>
-      <c r="AN91" s="290"/>
-      <c r="AO91" s="290"/>
+      <c r="AK91" s="294"/>
+      <c r="AL91" s="294"/>
+      <c r="AM91" s="294"/>
+      <c r="AN91" s="294"/>
+      <c r="AO91" s="294"/>
       <c r="AP91" s="106"/>
       <c r="AQ91" s="109"/>
     </row>
@@ -6999,29 +6993,29 @@
       <c r="J92" s="43"/>
       <c r="K92" s="43"/>
       <c r="L92" s="43"/>
-      <c r="M92" s="241" t="s">
+      <c r="M92" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N92" s="241"/>
-      <c r="O92" s="241"/>
-      <c r="P92" s="241"/>
+      <c r="N92" s="296"/>
+      <c r="O92" s="296"/>
+      <c r="P92" s="296"/>
       <c r="Q92" s="43"/>
-      <c r="R92" s="241" t="s">
+      <c r="R92" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="S92" s="241"/>
-      <c r="T92" s="241"/>
-      <c r="U92" s="241"/>
+      <c r="S92" s="296"/>
+      <c r="T92" s="296"/>
+      <c r="U92" s="296"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="241" t="s">
+      <c r="X92" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="241"/>
-      <c r="Z92" s="241"/>
-      <c r="AA92" s="241"/>
-      <c r="AB92" s="241"/>
-      <c r="AC92" s="241"/>
+      <c r="Y92" s="296"/>
+      <c r="Z92" s="296"/>
+      <c r="AA92" s="296"/>
+      <c r="AB92" s="296"/>
+      <c r="AC92" s="296"/>
       <c r="AD92" s="43"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="114"/>
@@ -7040,56 +7034,56 @@
     <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="108"/>
-      <c r="C93" s="242" t="s">
+      <c r="C93" s="297" t="s">
         <v>69</v>
       </c>
-      <c r="D93" s="242"/>
-      <c r="E93" s="242"/>
+      <c r="D93" s="297"/>
+      <c r="E93" s="297"/>
       <c r="F93" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="289"/>
-      <c r="H93" s="289"/>
-      <c r="I93" s="289"/>
-      <c r="J93" s="289"/>
+      <c r="G93" s="298"/>
+      <c r="H93" s="298"/>
+      <c r="I93" s="298"/>
+      <c r="J93" s="298"/>
       <c r="K93" s="103" t="s">
         <v>50</v>
       </c>
       <c r="L93" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M93" s="290">
+      <c r="M93" s="294">
         <f>+G93</f>
         <v>0</v>
       </c>
-      <c r="N93" s="290"/>
-      <c r="O93" s="290"/>
-      <c r="P93" s="290"/>
+      <c r="N93" s="294"/>
+      <c r="O93" s="294"/>
+      <c r="P93" s="294"/>
       <c r="Q93" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R93" s="290">
+      <c r="R93" s="294">
         <f>PRODUCT(M93, S83)</f>
         <v>0</v>
       </c>
-      <c r="S93" s="290"/>
-      <c r="T93" s="290"/>
-      <c r="U93" s="290"/>
+      <c r="S93" s="294"/>
+      <c r="T93" s="294"/>
+      <c r="U93" s="294"/>
       <c r="V93" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W93" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X93" s="290">
+      <c r="X93" s="294">
         <f>+M93+R93</f>
         <v>0</v>
       </c>
-      <c r="Y93" s="290"/>
-      <c r="Z93" s="290"/>
-      <c r="AA93" s="290"/>
-      <c r="AB93" s="290"/>
-      <c r="AC93" s="290"/>
+      <c r="Y93" s="294"/>
+      <c r="Z93" s="294"/>
+      <c r="AA93" s="294"/>
+      <c r="AB93" s="294"/>
+      <c r="AC93" s="294"/>
       <c r="AD93" s="104"/>
       <c r="AE93" s="104"/>
       <c r="AF93" s="27"/>
@@ -7118,29 +7112,29 @@
       <c r="J94" s="43"/>
       <c r="K94" s="43"/>
       <c r="L94" s="43"/>
-      <c r="M94" s="241" t="s">
+      <c r="M94" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="N94" s="241"/>
-      <c r="O94" s="241"/>
-      <c r="P94" s="241"/>
+      <c r="N94" s="296"/>
+      <c r="O94" s="296"/>
+      <c r="P94" s="296"/>
       <c r="Q94" s="43"/>
-      <c r="R94" s="241" t="s">
+      <c r="R94" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="S94" s="241"/>
-      <c r="T94" s="241"/>
-      <c r="U94" s="241"/>
+      <c r="S94" s="296"/>
+      <c r="T94" s="296"/>
+      <c r="U94" s="296"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="241" t="s">
+      <c r="X94" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="241"/>
-      <c r="Z94" s="241"/>
-      <c r="AA94" s="241"/>
-      <c r="AB94" s="241"/>
-      <c r="AC94" s="241"/>
+      <c r="Y94" s="296"/>
+      <c r="Z94" s="296"/>
+      <c r="AA94" s="296"/>
+      <c r="AB94" s="296"/>
+      <c r="AC94" s="296"/>
       <c r="AD94" s="43"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="116"/>
@@ -7161,56 +7155,56 @@
     <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="108"/>
-      <c r="C95" s="242" t="s">
+      <c r="C95" s="297" t="s">
         <v>71</v>
       </c>
-      <c r="D95" s="242"/>
-      <c r="E95" s="242"/>
+      <c r="D95" s="297"/>
+      <c r="E95" s="297"/>
       <c r="F95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="289"/>
-      <c r="H95" s="289"/>
-      <c r="I95" s="289"/>
-      <c r="J95" s="289"/>
+      <c r="G95" s="298"/>
+      <c r="H95" s="298"/>
+      <c r="I95" s="298"/>
+      <c r="J95" s="298"/>
       <c r="K95" s="103" t="s">
         <v>50</v>
       </c>
       <c r="L95" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M95" s="290">
+      <c r="M95" s="294">
         <f>+G95</f>
         <v>0</v>
       </c>
-      <c r="N95" s="290"/>
-      <c r="O95" s="290"/>
-      <c r="P95" s="290"/>
+      <c r="N95" s="294"/>
+      <c r="O95" s="294"/>
+      <c r="P95" s="294"/>
       <c r="Q95" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R95" s="290">
+      <c r="R95" s="294">
         <f>PRODUCT(M95, S79)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="290"/>
-      <c r="T95" s="290"/>
-      <c r="U95" s="290"/>
+      <c r="S95" s="294"/>
+      <c r="T95" s="294"/>
+      <c r="U95" s="294"/>
       <c r="V95" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W95" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X95" s="290">
+      <c r="X95" s="294">
         <f>+M95+R95</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="290"/>
-      <c r="Z95" s="290"/>
-      <c r="AA95" s="290"/>
-      <c r="AB95" s="290"/>
-      <c r="AC95" s="290"/>
+      <c r="Y95" s="294"/>
+      <c r="Z95" s="294"/>
+      <c r="AA95" s="294"/>
+      <c r="AB95" s="294"/>
+      <c r="AC95" s="294"/>
       <c r="AD95" s="104"/>
       <c r="AE95" s="104"/>
       <c r="AF95" s="27"/>
@@ -7219,15 +7213,15 @@
       <c r="AI95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ95" s="297">
+      <c r="AJ95" s="299">
         <f>AJ80+AJ91</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="297"/>
-      <c r="AL95" s="297"/>
-      <c r="AM95" s="297"/>
-      <c r="AN95" s="297"/>
-      <c r="AO95" s="297"/>
+      <c r="AK95" s="299"/>
+      <c r="AL95" s="299"/>
+      <c r="AM95" s="299"/>
+      <c r="AN95" s="299"/>
+      <c r="AO95" s="299"/>
       <c r="AP95" s="106"/>
       <c r="AQ95" s="109"/>
     </row>
@@ -7287,30 +7281,30 @@
       <c r="I97" s="55"/>
       <c r="J97" s="55"/>
       <c r="K97" s="55"/>
-      <c r="L97" s="160" t="s">
+      <c r="L97" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="M97" s="160"/>
-      <c r="N97" s="160"/>
-      <c r="O97" s="160"/>
-      <c r="P97" s="160"/>
-      <c r="Q97" s="160"/>
-      <c r="R97" s="160" t="s">
+      <c r="M97" s="178"/>
+      <c r="N97" s="178"/>
+      <c r="O97" s="178"/>
+      <c r="P97" s="178"/>
+      <c r="Q97" s="178"/>
+      <c r="R97" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="S97" s="160"/>
-      <c r="T97" s="160"/>
-      <c r="U97" s="160"/>
+      <c r="S97" s="178"/>
+      <c r="T97" s="178"/>
+      <c r="U97" s="178"/>
       <c r="V97" s="43"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="160" t="s">
+      <c r="X97" s="178" t="s">
         <v>66</v>
       </c>
-      <c r="Y97" s="160"/>
-      <c r="Z97" s="160"/>
-      <c r="AA97" s="160"/>
-      <c r="AB97" s="160"/>
-      <c r="AC97" s="160"/>
+      <c r="Y97" s="178"/>
+      <c r="Z97" s="178"/>
+      <c r="AA97" s="178"/>
+      <c r="AB97" s="178"/>
+      <c r="AC97" s="178"/>
       <c r="AD97" s="41"/>
       <c r="AE97" s="41"/>
       <c r="AF97" s="55"/>
@@ -7335,39 +7329,39 @@
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="240" t="s">
+      <c r="J98" s="293" t="s">
         <v>74</v>
       </c>
-      <c r="K98" s="240"/>
-      <c r="L98" s="240"/>
-      <c r="M98" s="290">
+      <c r="K98" s="293"/>
+      <c r="L98" s="293"/>
+      <c r="M98" s="294">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="N98" s="290"/>
-      <c r="O98" s="290"/>
-      <c r="P98" s="290"/>
+      <c r="N98" s="294"/>
+      <c r="O98" s="294"/>
+      <c r="P98" s="294"/>
       <c r="Q98" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R98" s="290">
+      <c r="R98" s="294">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="S98" s="290"/>
-      <c r="T98" s="290"/>
-      <c r="U98" s="290"/>
+      <c r="S98" s="294"/>
+      <c r="T98" s="294"/>
+      <c r="U98" s="294"/>
       <c r="V98" s="13"/>
       <c r="W98" s="13"/>
-      <c r="X98" s="290">
+      <c r="X98" s="294">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="Y98" s="290"/>
-      <c r="Z98" s="290"/>
-      <c r="AA98" s="290"/>
-      <c r="AB98" s="290"/>
-      <c r="AC98" s="290"/>
+      <c r="Y98" s="294"/>
+      <c r="Z98" s="294"/>
+      <c r="AA98" s="294"/>
+      <c r="AB98" s="294"/>
+      <c r="AC98" s="294"/>
       <c r="AD98" s="101"/>
       <c r="AE98" s="101"/>
       <c r="AF98" s="55"/>
@@ -7466,12 +7460,12 @@
       <c r="AI100" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AJ100" s="290"/>
-      <c r="AK100" s="290"/>
-      <c r="AL100" s="290"/>
-      <c r="AM100" s="290"/>
-      <c r="AN100" s="290"/>
-      <c r="AO100" s="290"/>
+      <c r="AJ100" s="294"/>
+      <c r="AK100" s="294"/>
+      <c r="AL100" s="294"/>
+      <c r="AM100" s="294"/>
+      <c r="AN100" s="294"/>
+      <c r="AO100" s="294"/>
       <c r="AP100" s="83"/>
       <c r="AQ100" s="122"/>
     </row>
@@ -7516,12 +7510,12 @@
       <c r="AI101" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AJ101" s="296"/>
-      <c r="AK101" s="296"/>
-      <c r="AL101" s="296"/>
-      <c r="AM101" s="296"/>
-      <c r="AN101" s="296"/>
-      <c r="AO101" s="296"/>
+      <c r="AJ101" s="295"/>
+      <c r="AK101" s="295"/>
+      <c r="AL101" s="295"/>
+      <c r="AM101" s="295"/>
+      <c r="AN101" s="295"/>
+      <c r="AO101" s="295"/>
       <c r="AP101" s="83"/>
       <c r="AQ101" s="122"/>
     </row>
@@ -7616,241 +7610,241 @@
       <c r="AQ103" s="126"/>
     </row>
     <row r="104" spans="2:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="225"/>
-      <c r="C104" s="226"/>
-      <c r="D104" s="226"/>
-      <c r="E104" s="226"/>
-      <c r="F104" s="226"/>
-      <c r="G104" s="226"/>
-      <c r="H104" s="226"/>
-      <c r="I104" s="226"/>
-      <c r="J104" s="226"/>
-      <c r="K104" s="226"/>
-      <c r="L104" s="227"/>
-      <c r="M104" s="231" t="s">
+      <c r="B104" s="276"/>
+      <c r="C104" s="277"/>
+      <c r="D104" s="277"/>
+      <c r="E104" s="277"/>
+      <c r="F104" s="277"/>
+      <c r="G104" s="277"/>
+      <c r="H104" s="277"/>
+      <c r="I104" s="277"/>
+      <c r="J104" s="277"/>
+      <c r="K104" s="277"/>
+      <c r="L104" s="278"/>
+      <c r="M104" s="282" t="s">
         <v>79</v>
       </c>
-      <c r="N104" s="232"/>
-      <c r="O104" s="232" t="s">
+      <c r="N104" s="283"/>
+      <c r="O104" s="283" t="s">
         <v>80</v>
       </c>
-      <c r="P104" s="232"/>
+      <c r="P104" s="283"/>
       <c r="Q104" s="4" t="s">
         <v>81</v>
       </c>
       <c r="R104" s="127"/>
-      <c r="S104" s="233"/>
-      <c r="T104" s="233"/>
-      <c r="U104" s="233"/>
-      <c r="V104" s="233"/>
-      <c r="W104" s="233"/>
-      <c r="X104" s="233"/>
-      <c r="Y104" s="233"/>
-      <c r="Z104" s="233"/>
-      <c r="AA104" s="233"/>
-      <c r="AB104" s="233"/>
-      <c r="AC104" s="233"/>
-      <c r="AD104" s="233"/>
-      <c r="AE104" s="233"/>
-      <c r="AF104" s="233"/>
-      <c r="AG104" s="233"/>
-      <c r="AH104" s="233"/>
-      <c r="AI104" s="233"/>
-      <c r="AJ104" s="232"/>
-      <c r="AK104" s="232"/>
-      <c r="AL104" s="235"/>
-      <c r="AM104" s="231" t="s">
+      <c r="S104" s="284"/>
+      <c r="T104" s="284"/>
+      <c r="U104" s="284"/>
+      <c r="V104" s="284"/>
+      <c r="W104" s="284"/>
+      <c r="X104" s="284"/>
+      <c r="Y104" s="284"/>
+      <c r="Z104" s="284"/>
+      <c r="AA104" s="284"/>
+      <c r="AB104" s="284"/>
+      <c r="AC104" s="284"/>
+      <c r="AD104" s="284"/>
+      <c r="AE104" s="284"/>
+      <c r="AF104" s="284"/>
+      <c r="AG104" s="284"/>
+      <c r="AH104" s="284"/>
+      <c r="AI104" s="284"/>
+      <c r="AJ104" s="283"/>
+      <c r="AK104" s="283"/>
+      <c r="AL104" s="286"/>
+      <c r="AM104" s="282" t="s">
         <v>79</v>
       </c>
-      <c r="AN104" s="232"/>
-      <c r="AO104" s="232" t="s">
+      <c r="AN104" s="283"/>
+      <c r="AO104" s="283" t="s">
         <v>80</v>
       </c>
-      <c r="AP104" s="232"/>
+      <c r="AP104" s="283"/>
       <c r="AQ104" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="228"/>
-      <c r="C105" s="229"/>
-      <c r="D105" s="229"/>
-      <c r="E105" s="229"/>
-      <c r="F105" s="229"/>
-      <c r="G105" s="229"/>
-      <c r="H105" s="229"/>
-      <c r="I105" s="229"/>
-      <c r="J105" s="229"/>
-      <c r="K105" s="229"/>
-      <c r="L105" s="230"/>
-      <c r="M105" s="236"/>
-      <c r="N105" s="237"/>
-      <c r="O105" s="330"/>
-      <c r="P105" s="331"/>
-      <c r="Q105" s="332"/>
-      <c r="R105" s="333"/>
-      <c r="S105" s="234"/>
-      <c r="T105" s="234"/>
-      <c r="U105" s="234"/>
-      <c r="V105" s="234"/>
-      <c r="W105" s="234"/>
-      <c r="X105" s="234"/>
-      <c r="Y105" s="234"/>
-      <c r="Z105" s="234"/>
-      <c r="AA105" s="234"/>
-      <c r="AB105" s="234"/>
-      <c r="AC105" s="234"/>
-      <c r="AD105" s="234"/>
-      <c r="AE105" s="234"/>
-      <c r="AF105" s="234"/>
-      <c r="AG105" s="234"/>
-      <c r="AH105" s="234"/>
-      <c r="AI105" s="234"/>
-      <c r="AJ105" s="238"/>
-      <c r="AK105" s="238"/>
-      <c r="AL105" s="239"/>
-      <c r="AM105" s="236"/>
-      <c r="AN105" s="237"/>
-      <c r="AO105" s="236"/>
-      <c r="AP105" s="237"/>
-      <c r="AQ105" s="334"/>
+      <c r="B105" s="279"/>
+      <c r="C105" s="280"/>
+      <c r="D105" s="280"/>
+      <c r="E105" s="280"/>
+      <c r="F105" s="280"/>
+      <c r="G105" s="280"/>
+      <c r="H105" s="280"/>
+      <c r="I105" s="280"/>
+      <c r="J105" s="280"/>
+      <c r="K105" s="280"/>
+      <c r="L105" s="281"/>
+      <c r="M105" s="287"/>
+      <c r="N105" s="288"/>
+      <c r="O105" s="289"/>
+      <c r="P105" s="290"/>
+      <c r="Q105" s="160"/>
+      <c r="R105" s="161"/>
+      <c r="S105" s="285"/>
+      <c r="T105" s="285"/>
+      <c r="U105" s="285"/>
+      <c r="V105" s="285"/>
+      <c r="W105" s="285"/>
+      <c r="X105" s="285"/>
+      <c r="Y105" s="285"/>
+      <c r="Z105" s="285"/>
+      <c r="AA105" s="285"/>
+      <c r="AB105" s="285"/>
+      <c r="AC105" s="285"/>
+      <c r="AD105" s="285"/>
+      <c r="AE105" s="285"/>
+      <c r="AF105" s="285"/>
+      <c r="AG105" s="285"/>
+      <c r="AH105" s="285"/>
+      <c r="AI105" s="285"/>
+      <c r="AJ105" s="291"/>
+      <c r="AK105" s="291"/>
+      <c r="AL105" s="292"/>
+      <c r="AM105" s="287"/>
+      <c r="AN105" s="288"/>
+      <c r="AO105" s="287"/>
+      <c r="AP105" s="288"/>
+      <c r="AQ105" s="162"/>
     </row>
     <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="197" t="s">
+      <c r="B106" s="248" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="198"/>
-      <c r="D106" s="198"/>
-      <c r="E106" s="198"/>
-      <c r="F106" s="198"/>
-      <c r="G106" s="198"/>
-      <c r="H106" s="198"/>
-      <c r="I106" s="198"/>
-      <c r="J106" s="198"/>
-      <c r="K106" s="198"/>
-      <c r="L106" s="199"/>
-      <c r="M106" s="203"/>
-      <c r="N106" s="204"/>
-      <c r="O106" s="203"/>
-      <c r="P106" s="204"/>
-      <c r="Q106" s="216"/>
+      <c r="C106" s="249"/>
+      <c r="D106" s="249"/>
+      <c r="E106" s="249"/>
+      <c r="F106" s="249"/>
+      <c r="G106" s="249"/>
+      <c r="H106" s="249"/>
+      <c r="I106" s="249"/>
+      <c r="J106" s="249"/>
+      <c r="K106" s="249"/>
+      <c r="L106" s="250"/>
+      <c r="M106" s="254"/>
+      <c r="N106" s="255"/>
+      <c r="O106" s="254"/>
+      <c r="P106" s="255"/>
+      <c r="Q106" s="267"/>
       <c r="R106" s="128"/>
-      <c r="S106" s="209" t="s">
+      <c r="S106" s="260" t="s">
         <v>83</v>
       </c>
-      <c r="T106" s="209"/>
-      <c r="U106" s="209"/>
-      <c r="V106" s="209"/>
-      <c r="W106" s="209"/>
-      <c r="X106" s="209"/>
-      <c r="Y106" s="209"/>
-      <c r="Z106" s="209"/>
-      <c r="AA106" s="209"/>
-      <c r="AB106" s="209"/>
-      <c r="AC106" s="209"/>
-      <c r="AD106" s="209"/>
-      <c r="AE106" s="209"/>
-      <c r="AF106" s="209"/>
-      <c r="AG106" s="209"/>
-      <c r="AH106" s="209"/>
-      <c r="AI106" s="209"/>
+      <c r="T106" s="260"/>
+      <c r="U106" s="260"/>
+      <c r="V106" s="260"/>
+      <c r="W106" s="260"/>
+      <c r="X106" s="260"/>
+      <c r="Y106" s="260"/>
+      <c r="Z106" s="260"/>
+      <c r="AA106" s="260"/>
+      <c r="AB106" s="260"/>
+      <c r="AC106" s="260"/>
+      <c r="AD106" s="260"/>
+      <c r="AE106" s="260"/>
+      <c r="AF106" s="260"/>
+      <c r="AG106" s="260"/>
+      <c r="AH106" s="260"/>
+      <c r="AI106" s="260"/>
       <c r="AJ106" s="129"/>
       <c r="AK106" s="129"/>
       <c r="AL106" s="130"/>
-      <c r="AM106" s="210"/>
-      <c r="AN106" s="211"/>
-      <c r="AO106" s="210"/>
-      <c r="AP106" s="211"/>
-      <c r="AQ106" s="220"/>
+      <c r="AM106" s="261"/>
+      <c r="AN106" s="262"/>
+      <c r="AO106" s="261"/>
+      <c r="AP106" s="262"/>
+      <c r="AQ106" s="271"/>
     </row>
     <row r="107" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="200"/>
-      <c r="C107" s="201"/>
-      <c r="D107" s="201"/>
-      <c r="E107" s="201"/>
-      <c r="F107" s="201"/>
-      <c r="G107" s="201"/>
-      <c r="H107" s="201"/>
-      <c r="I107" s="201"/>
-      <c r="J107" s="201"/>
-      <c r="K107" s="201"/>
-      <c r="L107" s="202"/>
-      <c r="M107" s="205"/>
-      <c r="N107" s="206"/>
-      <c r="O107" s="205"/>
-      <c r="P107" s="206"/>
-      <c r="Q107" s="217"/>
-      <c r="S107" s="219"/>
-      <c r="T107" s="219"/>
-      <c r="U107" s="219"/>
-      <c r="V107" s="219"/>
-      <c r="W107" s="219"/>
-      <c r="X107" s="219"/>
-      <c r="Y107" s="219"/>
-      <c r="Z107" s="219"/>
-      <c r="AA107" s="219"/>
-      <c r="AB107" s="219"/>
-      <c r="AC107" s="219"/>
-      <c r="AD107" s="219"/>
-      <c r="AE107" s="219"/>
-      <c r="AF107" s="219"/>
-      <c r="AG107" s="219"/>
-      <c r="AH107" s="219"/>
-      <c r="AI107" s="219"/>
-      <c r="AJ107" s="219"/>
-      <c r="AK107" s="219"/>
+      <c r="B107" s="251"/>
+      <c r="C107" s="252"/>
+      <c r="D107" s="252"/>
+      <c r="E107" s="252"/>
+      <c r="F107" s="252"/>
+      <c r="G107" s="252"/>
+      <c r="H107" s="252"/>
+      <c r="I107" s="252"/>
+      <c r="J107" s="252"/>
+      <c r="K107" s="252"/>
+      <c r="L107" s="253"/>
+      <c r="M107" s="256"/>
+      <c r="N107" s="257"/>
+      <c r="O107" s="256"/>
+      <c r="P107" s="257"/>
+      <c r="Q107" s="268"/>
+      <c r="S107" s="270"/>
+      <c r="T107" s="270"/>
+      <c r="U107" s="270"/>
+      <c r="V107" s="270"/>
+      <c r="W107" s="270"/>
+      <c r="X107" s="270"/>
+      <c r="Y107" s="270"/>
+      <c r="Z107" s="270"/>
+      <c r="AA107" s="270"/>
+      <c r="AB107" s="270"/>
+      <c r="AC107" s="270"/>
+      <c r="AD107" s="270"/>
+      <c r="AE107" s="270"/>
+      <c r="AF107" s="270"/>
+      <c r="AG107" s="270"/>
+      <c r="AH107" s="270"/>
+      <c r="AI107" s="270"/>
+      <c r="AJ107" s="270"/>
+      <c r="AK107" s="270"/>
       <c r="AL107" s="131"/>
-      <c r="AM107" s="212"/>
-      <c r="AN107" s="213"/>
-      <c r="AO107" s="212"/>
-      <c r="AP107" s="213"/>
-      <c r="AQ107" s="221"/>
+      <c r="AM107" s="263"/>
+      <c r="AN107" s="264"/>
+      <c r="AO107" s="263"/>
+      <c r="AP107" s="264"/>
+      <c r="AQ107" s="272"/>
     </row>
     <row r="108" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="223"/>
-      <c r="C108" s="224"/>
-      <c r="D108" s="224"/>
-      <c r="E108" s="224"/>
-      <c r="F108" s="224"/>
-      <c r="G108" s="224"/>
-      <c r="H108" s="224"/>
-      <c r="I108" s="224"/>
-      <c r="J108" s="224"/>
-      <c r="K108" s="224"/>
+      <c r="B108" s="274"/>
+      <c r="C108" s="275"/>
+      <c r="D108" s="275"/>
+      <c r="E108" s="275"/>
+      <c r="F108" s="275"/>
+      <c r="G108" s="275"/>
+      <c r="H108" s="275"/>
+      <c r="I108" s="275"/>
+      <c r="J108" s="275"/>
+      <c r="K108" s="275"/>
       <c r="L108" s="132"/>
-      <c r="M108" s="207"/>
-      <c r="N108" s="208"/>
-      <c r="O108" s="207"/>
-      <c r="P108" s="208"/>
-      <c r="Q108" s="218"/>
+      <c r="M108" s="258"/>
+      <c r="N108" s="259"/>
+      <c r="O108" s="258"/>
+      <c r="P108" s="259"/>
+      <c r="Q108" s="269"/>
       <c r="R108" s="64"/>
-      <c r="S108" s="191" t="s">
+      <c r="S108" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="T108" s="191"/>
-      <c r="U108" s="191"/>
-      <c r="V108" s="191"/>
-      <c r="W108" s="191"/>
-      <c r="X108" s="191"/>
-      <c r="Y108" s="191"/>
-      <c r="Z108" s="191"/>
-      <c r="AA108" s="191"/>
-      <c r="AB108" s="191"/>
-      <c r="AC108" s="191"/>
-      <c r="AD108" s="191"/>
-      <c r="AE108" s="191"/>
-      <c r="AF108" s="191"/>
-      <c r="AG108" s="191"/>
-      <c r="AH108" s="191"/>
-      <c r="AI108" s="191"/>
+      <c r="T108" s="234"/>
+      <c r="U108" s="234"/>
+      <c r="V108" s="234"/>
+      <c r="W108" s="234"/>
+      <c r="X108" s="234"/>
+      <c r="Y108" s="234"/>
+      <c r="Z108" s="234"/>
+      <c r="AA108" s="234"/>
+      <c r="AB108" s="234"/>
+      <c r="AC108" s="234"/>
+      <c r="AD108" s="234"/>
+      <c r="AE108" s="234"/>
+      <c r="AF108" s="234"/>
+      <c r="AG108" s="234"/>
+      <c r="AH108" s="234"/>
+      <c r="AI108" s="234"/>
       <c r="AJ108" s="133"/>
       <c r="AK108" s="133"/>
       <c r="AL108" s="134"/>
-      <c r="AM108" s="214"/>
-      <c r="AN108" s="215"/>
-      <c r="AO108" s="214"/>
-      <c r="AP108" s="215"/>
-      <c r="AQ108" s="222"/>
+      <c r="AM108" s="265"/>
+      <c r="AN108" s="266"/>
+      <c r="AO108" s="265"/>
+      <c r="AP108" s="266"/>
+      <c r="AQ108" s="273"/>
     </row>
     <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="135"/>
@@ -7870,23 +7864,23 @@
       <c r="P109" s="136"/>
       <c r="Q109" s="136"/>
       <c r="R109" s="22"/>
-      <c r="S109" s="191"/>
-      <c r="T109" s="191"/>
-      <c r="U109" s="191"/>
-      <c r="V109" s="191"/>
-      <c r="W109" s="191"/>
-      <c r="X109" s="191"/>
-      <c r="Y109" s="191"/>
-      <c r="Z109" s="191"/>
-      <c r="AA109" s="191"/>
-      <c r="AB109" s="191"/>
-      <c r="AC109" s="191"/>
-      <c r="AD109" s="191"/>
-      <c r="AE109" s="191"/>
-      <c r="AF109" s="191"/>
-      <c r="AG109" s="191"/>
-      <c r="AH109" s="191"/>
-      <c r="AI109" s="191"/>
+      <c r="S109" s="234"/>
+      <c r="T109" s="234"/>
+      <c r="U109" s="234"/>
+      <c r="V109" s="234"/>
+      <c r="W109" s="234"/>
+      <c r="X109" s="234"/>
+      <c r="Y109" s="234"/>
+      <c r="Z109" s="234"/>
+      <c r="AA109" s="234"/>
+      <c r="AB109" s="234"/>
+      <c r="AC109" s="234"/>
+      <c r="AD109" s="234"/>
+      <c r="AE109" s="234"/>
+      <c r="AF109" s="234"/>
+      <c r="AG109" s="234"/>
+      <c r="AH109" s="234"/>
+      <c r="AI109" s="234"/>
       <c r="AJ109" s="22"/>
       <c r="AK109" s="137"/>
       <c r="AL109" s="137"/>
@@ -7943,340 +7937,340 @@
       <c r="AQ110" s="140"/>
     </row>
     <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="161" t="s">
+      <c r="B111" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="162"/>
-      <c r="D111" s="162"/>
-      <c r="E111" s="163"/>
-      <c r="F111" s="338" t="str">
+      <c r="C111" s="188"/>
+      <c r="D111" s="188"/>
+      <c r="E111" s="189"/>
+      <c r="F111" s="218" t="str">
         <f>IF(B9="","",B9)</f>
         <v/>
       </c>
-      <c r="G111" s="339"/>
-      <c r="H111" s="339"/>
-      <c r="I111" s="339"/>
-      <c r="J111" s="339"/>
-      <c r="K111" s="339"/>
-      <c r="L111" s="340"/>
-      <c r="M111" s="341"/>
-      <c r="N111" s="192" t="s">
+      <c r="G111" s="219"/>
+      <c r="H111" s="219"/>
+      <c r="I111" s="219"/>
+      <c r="J111" s="219"/>
+      <c r="K111" s="219"/>
+      <c r="L111" s="219"/>
+      <c r="M111" s="220"/>
+      <c r="N111" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="O111" s="193"/>
-      <c r="P111" s="193"/>
-      <c r="Q111" s="193"/>
-      <c r="R111" s="193"/>
-      <c r="S111" s="193"/>
-      <c r="T111" s="194"/>
+      <c r="O111" s="236"/>
+      <c r="P111" s="236"/>
+      <c r="Q111" s="236"/>
+      <c r="R111" s="236"/>
+      <c r="S111" s="236"/>
+      <c r="T111" s="237"/>
       <c r="U111" s="141"/>
-      <c r="V111" s="357"/>
-      <c r="W111" s="357"/>
-      <c r="X111" s="357"/>
-      <c r="Y111" s="357"/>
-      <c r="Z111" s="357"/>
-      <c r="AA111" s="357"/>
-      <c r="AB111" s="357"/>
-      <c r="AC111" s="357"/>
-      <c r="AD111" s="357"/>
-      <c r="AE111" s="357"/>
-      <c r="AF111" s="357"/>
-      <c r="AG111" s="357"/>
-      <c r="AH111" s="357"/>
-      <c r="AI111" s="357"/>
-      <c r="AJ111" s="357"/>
-      <c r="AK111" s="357"/>
-      <c r="AL111" s="357"/>
-      <c r="AM111" s="357"/>
-      <c r="AN111" s="357"/>
-      <c r="AO111" s="357"/>
-      <c r="AP111" s="357"/>
-      <c r="AQ111" s="358"/>
+      <c r="V111" s="238"/>
+      <c r="W111" s="238"/>
+      <c r="X111" s="238"/>
+      <c r="Y111" s="238"/>
+      <c r="Z111" s="238"/>
+      <c r="AA111" s="238"/>
+      <c r="AB111" s="238"/>
+      <c r="AC111" s="238"/>
+      <c r="AD111" s="238"/>
+      <c r="AE111" s="238"/>
+      <c r="AF111" s="238"/>
+      <c r="AG111" s="238"/>
+      <c r="AH111" s="238"/>
+      <c r="AI111" s="238"/>
+      <c r="AJ111" s="238"/>
+      <c r="AK111" s="238"/>
+      <c r="AL111" s="238"/>
+      <c r="AM111" s="238"/>
+      <c r="AN111" s="238"/>
+      <c r="AO111" s="238"/>
+      <c r="AP111" s="238"/>
+      <c r="AQ111" s="239"/>
     </row>
     <row r="112" spans="2:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="161" t="s">
+      <c r="B112" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="162"/>
-      <c r="D112" s="162"/>
-      <c r="E112" s="163"/>
-      <c r="F112" s="342"/>
-      <c r="G112" s="343"/>
-      <c r="H112" s="343"/>
-      <c r="I112" s="343"/>
-      <c r="J112" s="343"/>
-      <c r="K112" s="343"/>
-      <c r="L112" s="343"/>
-      <c r="M112" s="344"/>
-      <c r="N112" s="161" t="s">
+      <c r="C112" s="188"/>
+      <c r="D112" s="188"/>
+      <c r="E112" s="189"/>
+      <c r="F112" s="240"/>
+      <c r="G112" s="241"/>
+      <c r="H112" s="241"/>
+      <c r="I112" s="241"/>
+      <c r="J112" s="241"/>
+      <c r="K112" s="241"/>
+      <c r="L112" s="241"/>
+      <c r="M112" s="242"/>
+      <c r="N112" s="187" t="s">
         <v>89</v>
       </c>
-      <c r="O112" s="162"/>
-      <c r="P112" s="162"/>
-      <c r="Q112" s="162"/>
-      <c r="R112" s="162"/>
-      <c r="S112" s="162"/>
-      <c r="T112" s="163"/>
-      <c r="U112" s="195" t="s">
+      <c r="O112" s="188"/>
+      <c r="P112" s="188"/>
+      <c r="Q112" s="188"/>
+      <c r="R112" s="188"/>
+      <c r="S112" s="188"/>
+      <c r="T112" s="189"/>
+      <c r="U112" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="V112" s="196"/>
-      <c r="W112" s="195" t="s">
+      <c r="V112" s="244"/>
+      <c r="W112" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="X112" s="196"/>
-      <c r="Y112" s="354" t="s">
+      <c r="X112" s="244"/>
+      <c r="Y112" s="245" t="s">
         <v>92</v>
       </c>
-      <c r="Z112" s="355"/>
-      <c r="AA112" s="355"/>
-      <c r="AB112" s="355"/>
-      <c r="AC112" s="355"/>
-      <c r="AD112" s="355"/>
-      <c r="AE112" s="355"/>
-      <c r="AF112" s="355"/>
-      <c r="AG112" s="355"/>
-      <c r="AH112" s="355"/>
-      <c r="AI112" s="355"/>
-      <c r="AJ112" s="355"/>
-      <c r="AK112" s="355"/>
-      <c r="AL112" s="355"/>
-      <c r="AM112" s="355"/>
-      <c r="AN112" s="355"/>
-      <c r="AO112" s="355"/>
-      <c r="AP112" s="355"/>
-      <c r="AQ112" s="356"/>
+      <c r="Z112" s="246"/>
+      <c r="AA112" s="246"/>
+      <c r="AB112" s="246"/>
+      <c r="AC112" s="246"/>
+      <c r="AD112" s="246"/>
+      <c r="AE112" s="246"/>
+      <c r="AF112" s="246"/>
+      <c r="AG112" s="246"/>
+      <c r="AH112" s="246"/>
+      <c r="AI112" s="246"/>
+      <c r="AJ112" s="246"/>
+      <c r="AK112" s="246"/>
+      <c r="AL112" s="246"/>
+      <c r="AM112" s="246"/>
+      <c r="AN112" s="246"/>
+      <c r="AO112" s="246"/>
+      <c r="AP112" s="246"/>
+      <c r="AQ112" s="247"/>
     </row>
     <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="161" t="s">
+      <c r="B113" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="162"/>
-      <c r="D113" s="162"/>
-      <c r="E113" s="163"/>
-      <c r="F113" s="338"/>
-      <c r="G113" s="339"/>
-      <c r="H113" s="339"/>
-      <c r="I113" s="339"/>
-      <c r="J113" s="339"/>
-      <c r="K113" s="339"/>
-      <c r="L113" s="339"/>
-      <c r="M113" s="345"/>
-      <c r="N113" s="161" t="s">
+      <c r="C113" s="188"/>
+      <c r="D113" s="188"/>
+      <c r="E113" s="189"/>
+      <c r="F113" s="218"/>
+      <c r="G113" s="219"/>
+      <c r="H113" s="219"/>
+      <c r="I113" s="219"/>
+      <c r="J113" s="219"/>
+      <c r="K113" s="219"/>
+      <c r="L113" s="219"/>
+      <c r="M113" s="220"/>
+      <c r="N113" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="O113" s="162"/>
-      <c r="P113" s="162"/>
-      <c r="Q113" s="162"/>
-      <c r="R113" s="162"/>
-      <c r="S113" s="162"/>
-      <c r="T113" s="163"/>
-      <c r="U113" s="335"/>
-      <c r="V113" s="336"/>
-      <c r="W113" s="336"/>
-      <c r="X113" s="336"/>
-      <c r="Y113" s="336"/>
-      <c r="Z113" s="336"/>
-      <c r="AA113" s="336"/>
-      <c r="AB113" s="336"/>
-      <c r="AC113" s="336"/>
-      <c r="AD113" s="336"/>
-      <c r="AE113" s="336"/>
-      <c r="AF113" s="336"/>
-      <c r="AG113" s="336"/>
-      <c r="AH113" s="336"/>
-      <c r="AI113" s="336"/>
-      <c r="AJ113" s="336"/>
-      <c r="AK113" s="336"/>
-      <c r="AL113" s="336"/>
-      <c r="AM113" s="336"/>
-      <c r="AN113" s="336"/>
-      <c r="AO113" s="336"/>
-      <c r="AP113" s="336"/>
-      <c r="AQ113" s="337"/>
+      <c r="O113" s="188"/>
+      <c r="P113" s="188"/>
+      <c r="Q113" s="188"/>
+      <c r="R113" s="188"/>
+      <c r="S113" s="188"/>
+      <c r="T113" s="189"/>
+      <c r="U113" s="221"/>
+      <c r="V113" s="222"/>
+      <c r="W113" s="222"/>
+      <c r="X113" s="222"/>
+      <c r="Y113" s="222"/>
+      <c r="Z113" s="222"/>
+      <c r="AA113" s="222"/>
+      <c r="AB113" s="222"/>
+      <c r="AC113" s="222"/>
+      <c r="AD113" s="222"/>
+      <c r="AE113" s="222"/>
+      <c r="AF113" s="222"/>
+      <c r="AG113" s="222"/>
+      <c r="AH113" s="222"/>
+      <c r="AI113" s="222"/>
+      <c r="AJ113" s="222"/>
+      <c r="AK113" s="222"/>
+      <c r="AL113" s="222"/>
+      <c r="AM113" s="222"/>
+      <c r="AN113" s="222"/>
+      <c r="AO113" s="222"/>
+      <c r="AP113" s="222"/>
+      <c r="AQ113" s="223"/>
     </row>
     <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="373" t="s">
+      <c r="B114" s="224" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="374"/>
-      <c r="D114" s="374"/>
-      <c r="E114" s="375"/>
-      <c r="F114" s="186"/>
-      <c r="G114" s="187"/>
-      <c r="H114" s="187"/>
-      <c r="I114" s="187"/>
-      <c r="J114" s="187"/>
-      <c r="K114" s="187"/>
-      <c r="L114" s="187"/>
-      <c r="M114" s="188"/>
-      <c r="N114" s="161" t="s">
+      <c r="C114" s="225"/>
+      <c r="D114" s="225"/>
+      <c r="E114" s="226"/>
+      <c r="F114" s="227"/>
+      <c r="G114" s="228"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="228"/>
+      <c r="J114" s="228"/>
+      <c r="K114" s="228"/>
+      <c r="L114" s="228"/>
+      <c r="M114" s="229"/>
+      <c r="N114" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="O114" s="162"/>
-      <c r="P114" s="162"/>
-      <c r="Q114" s="162"/>
-      <c r="R114" s="162"/>
-      <c r="S114" s="162"/>
-      <c r="T114" s="163"/>
-      <c r="U114" s="352"/>
-      <c r="V114" s="353"/>
-      <c r="W114" s="353"/>
-      <c r="X114" s="353"/>
-      <c r="Y114" s="353"/>
-      <c r="Z114" s="353"/>
-      <c r="AA114" s="353"/>
-      <c r="AB114" s="353"/>
-      <c r="AC114" s="353"/>
-      <c r="AD114" s="353"/>
-      <c r="AE114" s="353"/>
-      <c r="AF114" s="189"/>
-      <c r="AG114" s="189"/>
-      <c r="AH114" s="189"/>
-      <c r="AI114" s="189"/>
-      <c r="AJ114" s="189"/>
-      <c r="AK114" s="189"/>
-      <c r="AL114" s="189"/>
-      <c r="AM114" s="189"/>
-      <c r="AN114" s="189"/>
-      <c r="AO114" s="189"/>
-      <c r="AP114" s="189"/>
-      <c r="AQ114" s="190"/>
+      <c r="O114" s="188"/>
+      <c r="P114" s="188"/>
+      <c r="Q114" s="188"/>
+      <c r="R114" s="188"/>
+      <c r="S114" s="188"/>
+      <c r="T114" s="189"/>
+      <c r="U114" s="230"/>
+      <c r="V114" s="231"/>
+      <c r="W114" s="231"/>
+      <c r="X114" s="231"/>
+      <c r="Y114" s="231"/>
+      <c r="Z114" s="231"/>
+      <c r="AA114" s="231"/>
+      <c r="AB114" s="231"/>
+      <c r="AC114" s="231"/>
+      <c r="AD114" s="231"/>
+      <c r="AE114" s="231"/>
+      <c r="AF114" s="232"/>
+      <c r="AG114" s="232"/>
+      <c r="AH114" s="232"/>
+      <c r="AI114" s="232"/>
+      <c r="AJ114" s="232"/>
+      <c r="AK114" s="232"/>
+      <c r="AL114" s="232"/>
+      <c r="AM114" s="232"/>
+      <c r="AN114" s="232"/>
+      <c r="AO114" s="232"/>
+      <c r="AP114" s="232"/>
+      <c r="AQ114" s="233"/>
     </row>
     <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="161" t="s">
+      <c r="B115" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="162"/>
-      <c r="D115" s="162"/>
-      <c r="E115" s="163"/>
-      <c r="F115" s="346"/>
-      <c r="G115" s="347"/>
-      <c r="H115" s="347"/>
-      <c r="I115" s="347"/>
-      <c r="J115" s="347"/>
-      <c r="K115" s="347"/>
-      <c r="L115" s="347"/>
-      <c r="M115" s="348"/>
-      <c r="N115" s="164" t="s">
+      <c r="C115" s="188"/>
+      <c r="D115" s="188"/>
+      <c r="E115" s="189"/>
+      <c r="F115" s="190"/>
+      <c r="G115" s="191"/>
+      <c r="H115" s="191"/>
+      <c r="I115" s="191"/>
+      <c r="J115" s="191"/>
+      <c r="K115" s="191"/>
+      <c r="L115" s="191"/>
+      <c r="M115" s="192"/>
+      <c r="N115" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="O115" s="194"/>
+      <c r="P115" s="194"/>
+      <c r="Q115" s="194"/>
+      <c r="R115" s="194"/>
+      <c r="S115" s="194"/>
+      <c r="T115" s="195"/>
+      <c r="U115" s="196"/>
+      <c r="V115" s="197"/>
+      <c r="W115" s="197"/>
+      <c r="X115" s="197"/>
+      <c r="Y115" s="197"/>
+      <c r="Z115" s="197"/>
+      <c r="AA115" s="197"/>
+      <c r="AB115" s="197"/>
+      <c r="AC115" s="197"/>
+      <c r="AD115" s="197"/>
+      <c r="AE115" s="197"/>
+      <c r="AF115" s="197"/>
+      <c r="AG115" s="197"/>
+      <c r="AH115" s="197"/>
+      <c r="AI115" s="197"/>
+      <c r="AJ115" s="197"/>
+      <c r="AK115" s="197"/>
+      <c r="AL115" s="197"/>
+      <c r="AM115" s="197"/>
+      <c r="AN115" s="197"/>
+      <c r="AO115" s="197"/>
+      <c r="AP115" s="197"/>
+      <c r="AQ115" s="198"/>
+    </row>
+    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="200"/>
+      <c r="D116" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" s="204"/>
+      <c r="F116" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="O115" s="165"/>
-      <c r="P115" s="165"/>
-      <c r="Q115" s="165"/>
-      <c r="R115" s="165"/>
-      <c r="S115" s="165"/>
-      <c r="T115" s="166"/>
-      <c r="U115" s="349"/>
-      <c r="V115" s="350"/>
-      <c r="W115" s="350"/>
-      <c r="X115" s="350"/>
-      <c r="Y115" s="350"/>
-      <c r="Z115" s="350"/>
-      <c r="AA115" s="350"/>
-      <c r="AB115" s="350"/>
-      <c r="AC115" s="350"/>
-      <c r="AD115" s="350"/>
-      <c r="AE115" s="350"/>
-      <c r="AF115" s="350"/>
-      <c r="AG115" s="350"/>
-      <c r="AH115" s="350"/>
-      <c r="AI115" s="350"/>
-      <c r="AJ115" s="350"/>
-      <c r="AK115" s="350"/>
-      <c r="AL115" s="350"/>
-      <c r="AM115" s="350"/>
-      <c r="AN115" s="350"/>
-      <c r="AO115" s="350"/>
-      <c r="AP115" s="350"/>
-      <c r="AQ115" s="351"/>
-    </row>
-    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="167" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="168"/>
-      <c r="D116" s="171" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="172"/>
-      <c r="F116" s="171" t="s">
+      <c r="G116" s="204"/>
+      <c r="H116" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="G116" s="172"/>
-      <c r="H116" s="184" t="s">
+      <c r="I116" s="207" t="s">
         <v>100</v>
       </c>
-      <c r="I116" s="175" t="s">
+      <c r="J116" s="208"/>
+      <c r="K116" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="J116" s="176"/>
-      <c r="K116" s="171" t="s">
+      <c r="L116" s="142"/>
+      <c r="M116" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="L116" s="142"/>
-      <c r="M116" s="171" t="s">
+      <c r="N116" s="211"/>
+      <c r="O116" s="211"/>
+      <c r="P116" s="204"/>
+      <c r="Q116" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="N116" s="179"/>
-      <c r="O116" s="179"/>
-      <c r="P116" s="172"/>
-      <c r="Q116" s="171" t="s">
+      <c r="R116" s="211"/>
+      <c r="S116" s="211"/>
+      <c r="T116" s="211"/>
+      <c r="U116" s="211"/>
+      <c r="V116" s="204"/>
+      <c r="W116" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="R116" s="179"/>
-      <c r="S116" s="179"/>
-      <c r="T116" s="179"/>
-      <c r="U116" s="179"/>
-      <c r="V116" s="172"/>
-      <c r="W116" s="181" t="s">
+      <c r="X116" s="214"/>
+      <c r="Y116" s="214"/>
+      <c r="Z116" s="214"/>
+      <c r="AA116" s="214"/>
+      <c r="AB116" s="214"/>
+      <c r="AC116" s="214"/>
+      <c r="AD116" s="214"/>
+      <c r="AE116" s="214"/>
+      <c r="AF116" s="214"/>
+      <c r="AG116" s="214"/>
+      <c r="AH116" s="214"/>
+      <c r="AI116" s="214"/>
+      <c r="AJ116" s="214"/>
+      <c r="AK116" s="214"/>
+      <c r="AL116" s="214"/>
+      <c r="AM116" s="214"/>
+      <c r="AN116" s="214"/>
+      <c r="AO116" s="214"/>
+      <c r="AP116" s="214"/>
+      <c r="AQ116" s="215"/>
+    </row>
+    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="201"/>
+      <c r="C117" s="202"/>
+      <c r="D117" s="205"/>
+      <c r="E117" s="206"/>
+      <c r="F117" s="205"/>
+      <c r="G117" s="206"/>
+      <c r="H117" s="217"/>
+      <c r="I117" s="209"/>
+      <c r="J117" s="210"/>
+      <c r="K117" s="205"/>
+      <c r="L117" s="143"/>
+      <c r="M117" s="205"/>
+      <c r="N117" s="212"/>
+      <c r="O117" s="212"/>
+      <c r="P117" s="206"/>
+      <c r="Q117" s="205"/>
+      <c r="R117" s="212"/>
+      <c r="S117" s="212"/>
+      <c r="T117" s="212"/>
+      <c r="U117" s="212"/>
+      <c r="V117" s="206"/>
+      <c r="W117" s="144" t="s">
         <v>105</v>
-      </c>
-      <c r="X116" s="182"/>
-      <c r="Y116" s="182"/>
-      <c r="Z116" s="182"/>
-      <c r="AA116" s="182"/>
-      <c r="AB116" s="182"/>
-      <c r="AC116" s="182"/>
-      <c r="AD116" s="182"/>
-      <c r="AE116" s="182"/>
-      <c r="AF116" s="182"/>
-      <c r="AG116" s="182"/>
-      <c r="AH116" s="182"/>
-      <c r="AI116" s="182"/>
-      <c r="AJ116" s="182"/>
-      <c r="AK116" s="182"/>
-      <c r="AL116" s="182"/>
-      <c r="AM116" s="182"/>
-      <c r="AN116" s="182"/>
-      <c r="AO116" s="182"/>
-      <c r="AP116" s="182"/>
-      <c r="AQ116" s="183"/>
-    </row>
-    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="169"/>
-      <c r="C117" s="170"/>
-      <c r="D117" s="173"/>
-      <c r="E117" s="174"/>
-      <c r="F117" s="173"/>
-      <c r="G117" s="174"/>
-      <c r="H117" s="185"/>
-      <c r="I117" s="177"/>
-      <c r="J117" s="178"/>
-      <c r="K117" s="173"/>
-      <c r="L117" s="143"/>
-      <c r="M117" s="173"/>
-      <c r="N117" s="180"/>
-      <c r="O117" s="180"/>
-      <c r="P117" s="174"/>
-      <c r="Q117" s="173"/>
-      <c r="R117" s="180"/>
-      <c r="S117" s="180"/>
-      <c r="T117" s="180"/>
-      <c r="U117" s="180"/>
-      <c r="V117" s="174"/>
-      <c r="W117" s="144" t="s">
-        <v>106</v>
       </c>
       <c r="X117" s="145"/>
       <c r="Y117" s="145"/>
@@ -8300,198 +8294,198 @@
       <c r="AQ117" s="148"/>
     </row>
     <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="359">
+      <c r="B118" s="179">
         <f>+AJ78</f>
         <v>0</v>
       </c>
-      <c r="C118" s="360"/>
-      <c r="D118" s="359">
+      <c r="C118" s="180"/>
+      <c r="D118" s="179">
         <f>+AJ79</f>
         <v>0</v>
       </c>
-      <c r="E118" s="360"/>
-      <c r="F118" s="359" t="s">
-        <v>107</v>
-      </c>
-      <c r="G118" s="360"/>
-      <c r="H118" s="361"/>
-      <c r="I118" s="362"/>
-      <c r="J118" s="363"/>
-      <c r="K118" s="362"/>
-      <c r="L118" s="363"/>
-      <c r="M118" s="364"/>
-      <c r="N118" s="365"/>
-      <c r="O118" s="365"/>
-      <c r="P118" s="365"/>
-      <c r="Q118" s="362"/>
-      <c r="R118" s="366"/>
-      <c r="S118" s="366"/>
-      <c r="T118" s="366"/>
-      <c r="U118" s="366"/>
-      <c r="V118" s="363"/>
-      <c r="W118" s="367"/>
-      <c r="X118" s="368"/>
-      <c r="Y118" s="368"/>
-      <c r="Z118" s="368"/>
-      <c r="AA118" s="368"/>
-      <c r="AB118" s="368"/>
-      <c r="AC118" s="368"/>
-      <c r="AD118" s="368"/>
-      <c r="AE118" s="368"/>
-      <c r="AF118" s="369"/>
-      <c r="AG118" s="367"/>
-      <c r="AH118" s="368"/>
-      <c r="AI118" s="368"/>
-      <c r="AJ118" s="368"/>
-      <c r="AK118" s="368"/>
-      <c r="AL118" s="368"/>
-      <c r="AM118" s="368"/>
-      <c r="AN118" s="368"/>
-      <c r="AO118" s="368"/>
-      <c r="AP118" s="368"/>
-      <c r="AQ118" s="369"/>
+      <c r="E118" s="180"/>
+      <c r="F118" s="179" t="s">
+        <v>106</v>
+      </c>
+      <c r="G118" s="180"/>
+      <c r="H118" s="163"/>
+      <c r="I118" s="181"/>
+      <c r="J118" s="182"/>
+      <c r="K118" s="181"/>
+      <c r="L118" s="182"/>
+      <c r="M118" s="164"/>
+      <c r="N118" s="165"/>
+      <c r="O118" s="165"/>
+      <c r="P118" s="165"/>
+      <c r="Q118" s="181"/>
+      <c r="R118" s="183"/>
+      <c r="S118" s="183"/>
+      <c r="T118" s="183"/>
+      <c r="U118" s="183"/>
+      <c r="V118" s="182"/>
+      <c r="W118" s="184"/>
+      <c r="X118" s="185"/>
+      <c r="Y118" s="185"/>
+      <c r="Z118" s="185"/>
+      <c r="AA118" s="185"/>
+      <c r="AB118" s="185"/>
+      <c r="AC118" s="185"/>
+      <c r="AD118" s="185"/>
+      <c r="AE118" s="185"/>
+      <c r="AF118" s="186"/>
+      <c r="AG118" s="184"/>
+      <c r="AH118" s="185"/>
+      <c r="AI118" s="185"/>
+      <c r="AJ118" s="185"/>
+      <c r="AK118" s="185"/>
+      <c r="AL118" s="185"/>
+      <c r="AM118" s="185"/>
+      <c r="AN118" s="185"/>
+      <c r="AO118" s="185"/>
+      <c r="AP118" s="185"/>
+      <c r="AQ118" s="186"/>
     </row>
     <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="359">
+      <c r="B119" s="179">
         <f>+AJ83</f>
         <v>0</v>
       </c>
-      <c r="C119" s="360"/>
-      <c r="D119" s="359">
+      <c r="C119" s="180"/>
+      <c r="D119" s="179">
         <f>+AJ87</f>
         <v>0</v>
       </c>
-      <c r="E119" s="360"/>
-      <c r="F119" s="359" t="s">
+      <c r="E119" s="180"/>
+      <c r="F119" s="179" t="s">
+        <v>106</v>
+      </c>
+      <c r="G119" s="180"/>
+      <c r="H119" s="166"/>
+      <c r="I119" s="181"/>
+      <c r="J119" s="182"/>
+      <c r="K119" s="167"/>
+      <c r="L119" s="168"/>
+      <c r="M119" s="164"/>
+      <c r="N119" s="165"/>
+      <c r="O119" s="165"/>
+      <c r="P119" s="165"/>
+      <c r="Q119" s="181"/>
+      <c r="R119" s="183"/>
+      <c r="S119" s="183"/>
+      <c r="T119" s="183"/>
+      <c r="U119" s="183"/>
+      <c r="V119" s="182"/>
+      <c r="W119" s="184"/>
+      <c r="X119" s="185"/>
+      <c r="Y119" s="185"/>
+      <c r="Z119" s="185"/>
+      <c r="AA119" s="185"/>
+      <c r="AB119" s="185"/>
+      <c r="AC119" s="185"/>
+      <c r="AD119" s="185"/>
+      <c r="AE119" s="185"/>
+      <c r="AF119" s="186"/>
+      <c r="AG119" s="184"/>
+      <c r="AH119" s="185"/>
+      <c r="AI119" s="185"/>
+      <c r="AJ119" s="185"/>
+      <c r="AK119" s="185"/>
+      <c r="AL119" s="185"/>
+      <c r="AM119" s="185"/>
+      <c r="AN119" s="185"/>
+      <c r="AO119" s="185"/>
+      <c r="AP119" s="185"/>
+      <c r="AQ119" s="186"/>
+    </row>
+    <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="169" t="s">
         <v>107</v>
       </c>
-      <c r="G119" s="360"/>
-      <c r="H119" s="370"/>
-      <c r="I119" s="362"/>
-      <c r="J119" s="363"/>
-      <c r="K119" s="371"/>
-      <c r="L119" s="372"/>
-      <c r="M119" s="364"/>
-      <c r="N119" s="365"/>
-      <c r="O119" s="365"/>
-      <c r="P119" s="365"/>
-      <c r="Q119" s="362"/>
-      <c r="R119" s="366"/>
-      <c r="S119" s="366"/>
-      <c r="T119" s="366"/>
-      <c r="U119" s="366"/>
-      <c r="V119" s="363"/>
-      <c r="W119" s="367"/>
-      <c r="X119" s="368"/>
-      <c r="Y119" s="368"/>
-      <c r="Z119" s="368"/>
-      <c r="AA119" s="368"/>
-      <c r="AB119" s="368"/>
-      <c r="AC119" s="368"/>
-      <c r="AD119" s="368"/>
-      <c r="AE119" s="368"/>
-      <c r="AF119" s="369"/>
-      <c r="AG119" s="367"/>
-      <c r="AH119" s="368"/>
-      <c r="AI119" s="368"/>
-      <c r="AJ119" s="368"/>
-      <c r="AK119" s="368"/>
-      <c r="AL119" s="368"/>
-      <c r="AM119" s="368"/>
-      <c r="AN119" s="368"/>
-      <c r="AO119" s="368"/>
-      <c r="AP119" s="368"/>
-      <c r="AQ119" s="369"/>
-    </row>
-    <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="151" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="152"/>
-      <c r="D120" s="152"/>
-      <c r="E120" s="153"/>
-      <c r="F120" s="151"/>
-      <c r="G120" s="152"/>
-      <c r="H120" s="152"/>
-      <c r="I120" s="152"/>
-      <c r="J120" s="152"/>
-      <c r="K120" s="152"/>
-      <c r="L120" s="152"/>
-      <c r="M120" s="152"/>
-      <c r="N120" s="152"/>
-      <c r="O120" s="152"/>
-      <c r="P120" s="152"/>
-      <c r="Q120" s="152"/>
-      <c r="R120" s="152"/>
-      <c r="S120" s="152"/>
-      <c r="T120" s="152"/>
-      <c r="U120" s="152"/>
-      <c r="V120" s="152"/>
-      <c r="W120" s="152"/>
-      <c r="X120" s="152"/>
-      <c r="Y120" s="152"/>
-      <c r="Z120" s="152"/>
-      <c r="AA120" s="152"/>
-      <c r="AB120" s="152"/>
-      <c r="AC120" s="152"/>
-      <c r="AD120" s="152"/>
-      <c r="AE120" s="152"/>
-      <c r="AF120" s="152"/>
-      <c r="AG120" s="152"/>
-      <c r="AH120" s="152"/>
-      <c r="AI120" s="152"/>
-      <c r="AJ120" s="152"/>
-      <c r="AK120" s="152"/>
-      <c r="AL120" s="152"/>
-      <c r="AM120" s="152"/>
-      <c r="AN120" s="152"/>
-      <c r="AO120" s="152"/>
-      <c r="AP120" s="152"/>
-      <c r="AQ120" s="153"/>
+      <c r="C120" s="170"/>
+      <c r="D120" s="170"/>
+      <c r="E120" s="171"/>
+      <c r="F120" s="169"/>
+      <c r="G120" s="170"/>
+      <c r="H120" s="170"/>
+      <c r="I120" s="170"/>
+      <c r="J120" s="170"/>
+      <c r="K120" s="170"/>
+      <c r="L120" s="170"/>
+      <c r="M120" s="170"/>
+      <c r="N120" s="170"/>
+      <c r="O120" s="170"/>
+      <c r="P120" s="170"/>
+      <c r="Q120" s="170"/>
+      <c r="R120" s="170"/>
+      <c r="S120" s="170"/>
+      <c r="T120" s="170"/>
+      <c r="U120" s="170"/>
+      <c r="V120" s="170"/>
+      <c r="W120" s="170"/>
+      <c r="X120" s="170"/>
+      <c r="Y120" s="170"/>
+      <c r="Z120" s="170"/>
+      <c r="AA120" s="170"/>
+      <c r="AB120" s="170"/>
+      <c r="AC120" s="170"/>
+      <c r="AD120" s="170"/>
+      <c r="AE120" s="170"/>
+      <c r="AF120" s="170"/>
+      <c r="AG120" s="170"/>
+      <c r="AH120" s="170"/>
+      <c r="AI120" s="170"/>
+      <c r="AJ120" s="170"/>
+      <c r="AK120" s="170"/>
+      <c r="AL120" s="170"/>
+      <c r="AM120" s="170"/>
+      <c r="AN120" s="170"/>
+      <c r="AO120" s="170"/>
+      <c r="AP120" s="170"/>
+      <c r="AQ120" s="171"/>
     </row>
     <row r="121" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="154"/>
-      <c r="C121" s="155"/>
-      <c r="D121" s="155"/>
-      <c r="E121" s="156"/>
-      <c r="F121" s="154"/>
-      <c r="G121" s="155"/>
-      <c r="H121" s="155"/>
-      <c r="I121" s="155"/>
-      <c r="J121" s="155"/>
-      <c r="K121" s="155"/>
-      <c r="L121" s="155"/>
-      <c r="M121" s="155"/>
-      <c r="N121" s="155"/>
-      <c r="O121" s="155"/>
-      <c r="P121" s="155"/>
-      <c r="Q121" s="155"/>
-      <c r="R121" s="155"/>
-      <c r="S121" s="155"/>
-      <c r="T121" s="155"/>
-      <c r="U121" s="155"/>
-      <c r="V121" s="155"/>
-      <c r="W121" s="155"/>
-      <c r="X121" s="155"/>
-      <c r="Y121" s="155"/>
-      <c r="Z121" s="155"/>
-      <c r="AA121" s="155"/>
-      <c r="AB121" s="155"/>
-      <c r="AC121" s="155"/>
-      <c r="AD121" s="155"/>
-      <c r="AE121" s="155"/>
-      <c r="AF121" s="155"/>
-      <c r="AG121" s="155"/>
-      <c r="AH121" s="155"/>
-      <c r="AI121" s="155"/>
-      <c r="AJ121" s="155"/>
-      <c r="AK121" s="155"/>
-      <c r="AL121" s="155"/>
-      <c r="AM121" s="155"/>
-      <c r="AN121" s="155"/>
-      <c r="AO121" s="155"/>
-      <c r="AP121" s="155"/>
-      <c r="AQ121" s="156"/>
+      <c r="B121" s="172"/>
+      <c r="C121" s="173"/>
+      <c r="D121" s="173"/>
+      <c r="E121" s="174"/>
+      <c r="F121" s="172"/>
+      <c r="G121" s="173"/>
+      <c r="H121" s="173"/>
+      <c r="I121" s="173"/>
+      <c r="J121" s="173"/>
+      <c r="K121" s="173"/>
+      <c r="L121" s="173"/>
+      <c r="M121" s="173"/>
+      <c r="N121" s="173"/>
+      <c r="O121" s="173"/>
+      <c r="P121" s="173"/>
+      <c r="Q121" s="173"/>
+      <c r="R121" s="173"/>
+      <c r="S121" s="173"/>
+      <c r="T121" s="173"/>
+      <c r="U121" s="173"/>
+      <c r="V121" s="173"/>
+      <c r="W121" s="173"/>
+      <c r="X121" s="173"/>
+      <c r="Y121" s="173"/>
+      <c r="Z121" s="173"/>
+      <c r="AA121" s="173"/>
+      <c r="AB121" s="173"/>
+      <c r="AC121" s="173"/>
+      <c r="AD121" s="173"/>
+      <c r="AE121" s="173"/>
+      <c r="AF121" s="173"/>
+      <c r="AG121" s="173"/>
+      <c r="AH121" s="173"/>
+      <c r="AI121" s="173"/>
+      <c r="AJ121" s="173"/>
+      <c r="AK121" s="173"/>
+      <c r="AL121" s="173"/>
+      <c r="AM121" s="173"/>
+      <c r="AN121" s="173"/>
+      <c r="AO121" s="173"/>
+      <c r="AP121" s="173"/>
+      <c r="AQ121" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="334">
@@ -8777,7 +8771,6 @@
     <mergeCell ref="S108:AI108"/>
     <mergeCell ref="S109:AI109"/>
     <mergeCell ref="B111:E111"/>
-    <mergeCell ref="F111:K111"/>
     <mergeCell ref="N111:T111"/>
     <mergeCell ref="V111:AE111"/>
     <mergeCell ref="AF111:AQ111"/>
@@ -8787,6 +8780,7 @@
     <mergeCell ref="U112:V112"/>
     <mergeCell ref="W112:X112"/>
     <mergeCell ref="Y112:AQ112"/>
+    <mergeCell ref="F111:M111"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="F113:M113"/>
     <mergeCell ref="N113:T113"/>

--- a/api/assets/adm322.xlsx
+++ b/api/assets/adm322.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graemeclarke/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_6A73AFD9E9B40C13B7490A1568F76A635B2C894B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3653BF6-CB87-49FB-BC62-1CB1A1A96895}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_6A73AFD9E9B40C13B7490A1568F76A635B2C894B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED4659BC-6933-4E36-9170-1E6780AEC9D0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1095,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1581,59 +1581,403 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1643,141 +1987,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,397 +2030,191 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="24" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2610,8 +2613,8 @@
   </sheetPr>
   <dimension ref="A1:BI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScale="178" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113:M113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="178" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2659,98 +2662,98 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="314" t="s">
+      <c r="F2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="315" t="s">
+      <c r="R2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="316"/>
-      <c r="AC2" s="316"/>
-      <c r="AD2" s="316"/>
-      <c r="AE2" s="316"/>
-      <c r="AF2" s="316"/>
-      <c r="AG2" s="316"/>
-      <c r="AH2" s="316"/>
-      <c r="AI2" s="316"/>
-      <c r="AJ2" s="316"/>
-      <c r="AK2" s="316"/>
-      <c r="AL2" s="316"/>
-      <c r="AM2" s="316"/>
-      <c r="AN2" s="316"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="316"/>
-      <c r="AQ2" s="317"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="172"/>
     </row>
     <row r="3" spans="1:60" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="318" t="s">
+      <c r="R3" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="319"/>
-      <c r="T3" s="319"/>
-      <c r="U3" s="319"/>
-      <c r="V3" s="320"/>
-      <c r="W3" s="318" t="s">
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
-      <c r="Z3" s="319"/>
-      <c r="AA3" s="319"/>
-      <c r="AB3" s="319"/>
-      <c r="AC3" s="319"/>
-      <c r="AD3" s="319"/>
-      <c r="AE3" s="319"/>
-      <c r="AF3" s="319"/>
-      <c r="AG3" s="319"/>
-      <c r="AH3" s="320"/>
-      <c r="AI3" s="318" t="s">
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="319"/>
-      <c r="AK3" s="319"/>
-      <c r="AL3" s="319"/>
-      <c r="AM3" s="319"/>
-      <c r="AN3" s="319"/>
-      <c r="AO3" s="319"/>
-      <c r="AP3" s="319"/>
-      <c r="AQ3" s="320"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="175"/>
       <c r="AR3" s="1"/>
     </row>
     <row r="4" spans="1:60" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2758,87 +2761,87 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="314"/>
-      <c r="L4" s="314"/>
-      <c r="M4" s="314"/>
-      <c r="N4" s="314"/>
-      <c r="O4" s="314"/>
-      <c r="P4" s="314"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="321"/>
-      <c r="S4" s="322"/>
-      <c r="T4" s="322"/>
-      <c r="U4" s="322"/>
-      <c r="V4" s="323"/>
-      <c r="W4" s="327"/>
-      <c r="X4" s="328"/>
-      <c r="Y4" s="328"/>
-      <c r="Z4" s="328"/>
-      <c r="AA4" s="328"/>
-      <c r="AB4" s="328"/>
-      <c r="AC4" s="328"/>
-      <c r="AD4" s="328"/>
-      <c r="AE4" s="328"/>
-      <c r="AF4" s="328"/>
-      <c r="AG4" s="328"/>
-      <c r="AH4" s="329"/>
-      <c r="AI4" s="282" t="s">
+      <c r="R4" s="176"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+      <c r="AD4" s="183"/>
+      <c r="AE4" s="183"/>
+      <c r="AF4" s="183"/>
+      <c r="AG4" s="183"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="283"/>
-      <c r="AK4" s="283"/>
-      <c r="AL4" s="283"/>
-      <c r="AM4" s="283"/>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="286"/>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="186"/>
+      <c r="AL4" s="186"/>
+      <c r="AM4" s="186"/>
+      <c r="AN4" s="186"/>
+      <c r="AO4" s="186"/>
+      <c r="AP4" s="186"/>
+      <c r="AQ4" s="187"/>
       <c r="AR4" s="1"/>
     </row>
     <row r="5" spans="1:60" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
-      <c r="K5" s="314"/>
-      <c r="L5" s="314"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314"/>
-      <c r="O5" s="314"/>
-      <c r="P5" s="314"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="324"/>
-      <c r="S5" s="325"/>
-      <c r="T5" s="325"/>
-      <c r="U5" s="325"/>
-      <c r="V5" s="326"/>
-      <c r="W5" s="324"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
-      <c r="AA5" s="325"/>
-      <c r="AB5" s="325"/>
-      <c r="AC5" s="325"/>
-      <c r="AD5" s="325"/>
-      <c r="AE5" s="325"/>
-      <c r="AF5" s="325"/>
-      <c r="AG5" s="325"/>
-      <c r="AH5" s="326"/>
-      <c r="AI5" s="371"/>
-      <c r="AJ5" s="372"/>
-      <c r="AK5" s="372"/>
-      <c r="AL5" s="372"/>
-      <c r="AM5" s="372"/>
-      <c r="AN5" s="372"/>
-      <c r="AO5" s="372"/>
-      <c r="AP5" s="372"/>
-      <c r="AQ5" s="373"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="189"/>
+      <c r="AK5" s="189"/>
+      <c r="AL5" s="189"/>
+      <c r="AM5" s="189"/>
+      <c r="AN5" s="189"/>
+      <c r="AO5" s="189"/>
+      <c r="AP5" s="189"/>
+      <c r="AQ5" s="190"/>
       <c r="AR5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
@@ -2966,46 +2969,46 @@
       <c r="BH8" s="1"/>
     </row>
     <row r="9" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="364"/>
-      <c r="C9" s="353"/>
-      <c r="D9" s="353"/>
-      <c r="E9" s="353"/>
-      <c r="F9" s="353"/>
-      <c r="G9" s="353"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="353"/>
-      <c r="J9" s="353"/>
-      <c r="K9" s="353"/>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="353"/>
-      <c r="O9" s="353"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
       <c r="P9" s="14"/>
       <c r="R9" s="18"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="356"/>
-      <c r="V9" s="356"/>
-      <c r="W9" s="356"/>
-      <c r="X9" s="356"/>
-      <c r="Y9" s="356"/>
-      <c r="Z9" s="356"/>
-      <c r="AA9" s="356"/>
-      <c r="AB9" s="356"/>
-      <c r="AC9" s="356"/>
-      <c r="AD9" s="356"/>
-      <c r="AE9" s="356"/>
-      <c r="AF9" s="356"/>
-      <c r="AG9" s="356"/>
-      <c r="AH9" s="356"/>
-      <c r="AI9" s="356"/>
-      <c r="AJ9" s="356"/>
-      <c r="AK9" s="356"/>
-      <c r="AL9" s="356"/>
-      <c r="AM9" s="356"/>
-      <c r="AN9" s="356"/>
-      <c r="AO9" s="356"/>
-      <c r="AP9" s="356"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="193"/>
+      <c r="AK9" s="193"/>
+      <c r="AL9" s="193"/>
+      <c r="AM9" s="193"/>
+      <c r="AN9" s="193"/>
+      <c r="AO9" s="193"/>
+      <c r="AP9" s="193"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3014,22 +3017,22 @@
       <c r="BH9" s="1"/>
     </row>
     <row r="10" spans="1:60" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="365" t="s">
+      <c r="B10" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="366"/>
-      <c r="D10" s="366"/>
-      <c r="E10" s="367"/>
-      <c r="F10" s="367"/>
-      <c r="G10" s="367"/>
-      <c r="H10" s="368"/>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="368"/>
-      <c r="N10" s="368"/>
-      <c r="O10" s="368"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -3063,47 +3066,47 @@
       <c r="BH10" s="1"/>
     </row>
     <row r="11" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="369"/>
-      <c r="C11" s="370"/>
-      <c r="D11" s="370"/>
-      <c r="E11" s="370"/>
-      <c r="F11" s="370"/>
-      <c r="G11" s="370"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="370"/>
-      <c r="L11" s="370"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="370"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
+      <c r="O11" s="199"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="356"/>
-      <c r="V11" s="356"/>
-      <c r="W11" s="356"/>
-      <c r="X11" s="356"/>
-      <c r="Y11" s="356"/>
-      <c r="Z11" s="356"/>
-      <c r="AA11" s="356"/>
-      <c r="AB11" s="356"/>
-      <c r="AC11" s="356"/>
-      <c r="AD11" s="356"/>
-      <c r="AE11" s="356"/>
-      <c r="AF11" s="356"/>
-      <c r="AG11" s="356"/>
-      <c r="AH11" s="356"/>
-      <c r="AI11" s="356"/>
-      <c r="AJ11" s="356"/>
-      <c r="AK11" s="356"/>
-      <c r="AL11" s="356"/>
-      <c r="AM11" s="356"/>
-      <c r="AN11" s="356"/>
-      <c r="AO11" s="356"/>
-      <c r="AP11" s="356"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="193"/>
+      <c r="AE11" s="193"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="193"/>
+      <c r="AH11" s="193"/>
+      <c r="AI11" s="193"/>
+      <c r="AJ11" s="193"/>
+      <c r="AK11" s="193"/>
+      <c r="AL11" s="193"/>
+      <c r="AM11" s="193"/>
+      <c r="AN11" s="193"/>
+      <c r="AO11" s="193"/>
+      <c r="AP11" s="193"/>
       <c r="AQ11" s="23"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -3249,33 +3252,33 @@
       <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="364"/>
-      <c r="C15" s="353"/>
-      <c r="D15" s="353"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="353"/>
-      <c r="G15" s="353"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="353"/>
-      <c r="J15" s="353"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="353"/>
-      <c r="M15" s="353"/>
-      <c r="N15" s="353"/>
-      <c r="O15" s="353"/>
-      <c r="P15" s="353"/>
-      <c r="Q15" s="353"/>
-      <c r="R15" s="353"/>
-      <c r="S15" s="353"/>
-      <c r="T15" s="353"/>
-      <c r="U15" s="353"/>
-      <c r="V15" s="353"/>
-      <c r="W15" s="353"/>
-      <c r="X15" s="353"/>
-      <c r="Y15" s="353"/>
-      <c r="Z15" s="353"/>
-      <c r="AA15" s="353"/>
-      <c r="AB15" s="353"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="192"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="192"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="1"/>
@@ -3365,33 +3368,33 @@
     </row>
     <row r="17" spans="1:61" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="351"/>
-      <c r="C17" s="352"/>
-      <c r="D17" s="352"/>
-      <c r="E17" s="352"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="352"/>
-      <c r="H17" s="352"/>
-      <c r="I17" s="352"/>
-      <c r="J17" s="352"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353"/>
-      <c r="P17" s="353"/>
-      <c r="Q17" s="353"/>
-      <c r="R17" s="353"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="353"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="353"/>
-      <c r="X17" s="353"/>
-      <c r="Y17" s="353"/>
-      <c r="Z17" s="353"/>
-      <c r="AA17" s="353"/>
-      <c r="AB17" s="353"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
       <c r="AC17" s="28"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="1"/>
@@ -3438,24 +3441,24 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="354" t="s">
+      <c r="L18" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="354"/>
-      <c r="N18" s="354"/>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="354"/>
-      <c r="S18" s="354"/>
-      <c r="T18" s="354"/>
-      <c r="U18" s="354"/>
-      <c r="V18" s="354"/>
-      <c r="W18" s="354"/>
-      <c r="X18" s="354"/>
-      <c r="Y18" s="354"/>
-      <c r="Z18" s="354"/>
-      <c r="AA18" s="354"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="202"/>
+      <c r="R18" s="202"/>
+      <c r="S18" s="202"/>
+      <c r="T18" s="202"/>
+      <c r="U18" s="202"/>
+      <c r="V18" s="202"/>
+      <c r="W18" s="202"/>
+      <c r="X18" s="202"/>
+      <c r="Y18" s="202"/>
+      <c r="Z18" s="202"/>
+      <c r="AA18" s="202"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -3492,33 +3495,33 @@
       <c r="BI18" s="1"/>
     </row>
     <row r="19" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="355"/>
-      <c r="C19" s="356"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="356"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="356"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="356"/>
-      <c r="J19" s="356"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="353"/>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="353"/>
-      <c r="V19" s="353"/>
-      <c r="W19" s="353"/>
-      <c r="X19" s="353"/>
-      <c r="Y19" s="353"/>
-      <c r="Z19" s="353"/>
-      <c r="AA19" s="353"/>
-      <c r="AB19" s="353"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -3574,33 +3577,33 @@
       <c r="AQ20" s="17"/>
     </row>
     <row r="21" spans="1:61" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="357"/>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="358"/>
-      <c r="H21" s="358"/>
-      <c r="I21" s="358"/>
-      <c r="J21" s="358"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="359"/>
-      <c r="M21" s="359"/>
-      <c r="N21" s="359"/>
-      <c r="O21" s="359"/>
-      <c r="P21" s="359"/>
-      <c r="Q21" s="359"/>
-      <c r="R21" s="359"/>
-      <c r="S21" s="359"/>
-      <c r="T21" s="359"/>
-      <c r="U21" s="359"/>
-      <c r="V21" s="359"/>
-      <c r="W21" s="359"/>
-      <c r="X21" s="359"/>
-      <c r="Y21" s="359"/>
-      <c r="Z21" s="359"/>
-      <c r="AA21" s="359"/>
-      <c r="AB21" s="359"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="206"/>
+      <c r="O21" s="206"/>
+      <c r="P21" s="206"/>
+      <c r="Q21" s="206"/>
+      <c r="R21" s="206"/>
+      <c r="S21" s="206"/>
+      <c r="T21" s="206"/>
+      <c r="U21" s="206"/>
+      <c r="V21" s="206"/>
+      <c r="W21" s="206"/>
+      <c r="X21" s="206"/>
+      <c r="Y21" s="206"/>
+      <c r="Z21" s="206"/>
+      <c r="AA21" s="206"/>
+      <c r="AB21" s="206"/>
       <c r="AC21" s="33"/>
       <c r="AD21" s="33"/>
       <c r="AE21" s="33"/>
@@ -3620,138 +3623,138 @@
       <c r="AW21" s="36"/>
     </row>
     <row r="22" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="360" t="s">
+      <c r="B22" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="361"/>
-      <c r="D22" s="361"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="362"/>
-      <c r="H22" s="362"/>
-      <c r="I22" s="362"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="362"/>
-      <c r="L22" s="362"/>
-      <c r="M22" s="362"/>
-      <c r="N22" s="362"/>
-      <c r="O22" s="362"/>
-      <c r="P22" s="362"/>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="362"/>
-      <c r="T22" s="362"/>
-      <c r="U22" s="362"/>
-      <c r="V22" s="362"/>
-      <c r="W22" s="362"/>
-      <c r="X22" s="362"/>
-      <c r="Y22" s="362"/>
-      <c r="Z22" s="362"/>
-      <c r="AA22" s="362"/>
-      <c r="AB22" s="362"/>
-      <c r="AC22" s="362"/>
-      <c r="AD22" s="362"/>
-      <c r="AE22" s="362"/>
-      <c r="AF22" s="362"/>
-      <c r="AG22" s="362"/>
-      <c r="AH22" s="362"/>
-      <c r="AI22" s="362"/>
-      <c r="AJ22" s="362"/>
-      <c r="AK22" s="362"/>
-      <c r="AL22" s="362"/>
-      <c r="AM22" s="362"/>
-      <c r="AN22" s="362"/>
-      <c r="AO22" s="362"/>
-      <c r="AP22" s="362"/>
-      <c r="AQ22" s="363"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="209"/>
+      <c r="P22" s="209"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="209"/>
+      <c r="S22" s="209"/>
+      <c r="T22" s="209"/>
+      <c r="U22" s="209"/>
+      <c r="V22" s="209"/>
+      <c r="W22" s="209"/>
+      <c r="X22" s="209"/>
+      <c r="Y22" s="209"/>
+      <c r="Z22" s="209"/>
+      <c r="AA22" s="209"/>
+      <c r="AB22" s="209"/>
+      <c r="AC22" s="209"/>
+      <c r="AD22" s="209"/>
+      <c r="AE22" s="209"/>
+      <c r="AF22" s="209"/>
+      <c r="AG22" s="209"/>
+      <c r="AH22" s="209"/>
+      <c r="AI22" s="209"/>
+      <c r="AJ22" s="209"/>
+      <c r="AK22" s="209"/>
+      <c r="AL22" s="209"/>
+      <c r="AM22" s="209"/>
+      <c r="AN22" s="209"/>
+      <c r="AO22" s="209"/>
+      <c r="AP22" s="209"/>
+      <c r="AQ22" s="210"/>
     </row>
     <row r="23" spans="1:61" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="346"/>
-      <c r="C23" s="347"/>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="347"/>
-      <c r="H23" s="347"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
-      <c r="K23" s="347"/>
-      <c r="L23" s="347"/>
-      <c r="M23" s="347"/>
-      <c r="N23" s="347"/>
-      <c r="O23" s="347"/>
-      <c r="P23" s="347"/>
-      <c r="Q23" s="347"/>
-      <c r="R23" s="347"/>
-      <c r="S23" s="347"/>
-      <c r="T23" s="347"/>
-      <c r="U23" s="347"/>
-      <c r="V23" s="347"/>
-      <c r="W23" s="347"/>
-      <c r="X23" s="347"/>
-      <c r="Y23" s="347"/>
-      <c r="Z23" s="347"/>
-      <c r="AA23" s="347"/>
-      <c r="AB23" s="347"/>
-      <c r="AC23" s="347"/>
-      <c r="AD23" s="347"/>
-      <c r="AE23" s="347"/>
-      <c r="AF23" s="347"/>
-      <c r="AG23" s="347"/>
-      <c r="AH23" s="347"/>
-      <c r="AI23" s="347"/>
-      <c r="AJ23" s="347"/>
-      <c r="AK23" s="347"/>
-      <c r="AL23" s="347"/>
-      <c r="AM23" s="347"/>
-      <c r="AN23" s="347"/>
-      <c r="AO23" s="347"/>
-      <c r="AP23" s="347"/>
-      <c r="AQ23" s="348"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="212"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="212"/>
+      <c r="T23" s="212"/>
+      <c r="U23" s="212"/>
+      <c r="V23" s="212"/>
+      <c r="W23" s="212"/>
+      <c r="X23" s="212"/>
+      <c r="Y23" s="212"/>
+      <c r="Z23" s="212"/>
+      <c r="AA23" s="212"/>
+      <c r="AB23" s="212"/>
+      <c r="AC23" s="212"/>
+      <c r="AD23" s="212"/>
+      <c r="AE23" s="212"/>
+      <c r="AF23" s="212"/>
+      <c r="AG23" s="212"/>
+      <c r="AH23" s="212"/>
+      <c r="AI23" s="212"/>
+      <c r="AJ23" s="212"/>
+      <c r="AK23" s="212"/>
+      <c r="AL23" s="212"/>
+      <c r="AM23" s="212"/>
+      <c r="AN23" s="212"/>
+      <c r="AO23" s="212"/>
+      <c r="AP23" s="212"/>
+      <c r="AQ23" s="213"/>
     </row>
     <row r="24" spans="1:61" s="6" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="349"/>
-      <c r="C24" s="349"/>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="349"/>
-      <c r="G24" s="349"/>
-      <c r="H24" s="349"/>
-      <c r="I24" s="349"/>
-      <c r="J24" s="349"/>
-      <c r="K24" s="349"/>
-      <c r="L24" s="349"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="349"/>
-      <c r="O24" s="349"/>
-      <c r="P24" s="349"/>
-      <c r="Q24" s="349"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="349"/>
-      <c r="U24" s="349"/>
-      <c r="V24" s="349"/>
-      <c r="W24" s="349"/>
-      <c r="X24" s="349"/>
-      <c r="Y24" s="349"/>
-      <c r="Z24" s="349"/>
-      <c r="AA24" s="349"/>
-      <c r="AB24" s="349"/>
-      <c r="AC24" s="349"/>
-      <c r="AD24" s="349"/>
-      <c r="AE24" s="349"/>
-      <c r="AF24" s="349"/>
-      <c r="AG24" s="349"/>
-      <c r="AH24" s="349"/>
-      <c r="AI24" s="349"/>
-      <c r="AJ24" s="349"/>
-      <c r="AK24" s="349"/>
-      <c r="AL24" s="349"/>
-      <c r="AM24" s="349"/>
-      <c r="AN24" s="349"/>
-      <c r="AO24" s="349"/>
-      <c r="AP24" s="349"/>
-      <c r="AQ24" s="349"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="214"/>
+      <c r="Q24" s="214"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="214"/>
+      <c r="W24" s="214"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="214"/>
+      <c r="AA24" s="214"/>
+      <c r="AB24" s="214"/>
+      <c r="AC24" s="214"/>
+      <c r="AD24" s="214"/>
+      <c r="AE24" s="214"/>
+      <c r="AF24" s="214"/>
+      <c r="AG24" s="214"/>
+      <c r="AH24" s="214"/>
+      <c r="AI24" s="214"/>
+      <c r="AJ24" s="214"/>
+      <c r="AK24" s="214"/>
+      <c r="AL24" s="214"/>
+      <c r="AM24" s="214"/>
+      <c r="AN24" s="214"/>
+      <c r="AO24" s="214"/>
+      <c r="AP24" s="214"/>
+      <c r="AQ24" s="214"/>
     </row>
     <row r="25" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
@@ -3804,64 +3807,64 @@
         <v>23</v>
       </c>
       <c r="C26" s="40"/>
-      <c r="D26" s="178" t="s">
+      <c r="D26" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="302" t="s">
+      <c r="H26" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="302"/>
-      <c r="J26" s="302"/>
-      <c r="K26" s="302"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="302" t="s">
+      <c r="M26" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="302"/>
-      <c r="O26" s="302"/>
+      <c r="N26" s="216"/>
+      <c r="O26" s="216"/>
       <c r="P26" s="40"/>
-      <c r="Q26" s="302" t="s">
+      <c r="Q26" s="216" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="302"/>
+      <c r="R26" s="216"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="302" t="s">
+      <c r="T26" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="302"/>
+      <c r="U26" s="216"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="178" t="s">
+      <c r="W26" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="X26" s="178"/>
-      <c r="Y26" s="178"/>
-      <c r="Z26" s="178"/>
-      <c r="AA26" s="178"/>
+      <c r="X26" s="215"/>
+      <c r="Y26" s="215"/>
+      <c r="Z26" s="215"/>
+      <c r="AA26" s="215"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="178" t="s">
+      <c r="AC26" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="AD26" s="178"/>
-      <c r="AE26" s="178"/>
-      <c r="AF26" s="178"/>
-      <c r="AG26" s="178"/>
+      <c r="AD26" s="215"/>
+      <c r="AE26" s="215"/>
+      <c r="AF26" s="215"/>
+      <c r="AG26" s="215"/>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="178" t="s">
+      <c r="AI26" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="AJ26" s="178"/>
-      <c r="AK26" s="178"/>
-      <c r="AL26" s="178"/>
-      <c r="AM26" s="178"/>
+      <c r="AJ26" s="215"/>
+      <c r="AK26" s="215"/>
+      <c r="AL26" s="215"/>
+      <c r="AM26" s="215"/>
       <c r="AN26" s="1"/>
-      <c r="AO26" s="178" t="s">
+      <c r="AO26" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="178"/>
-      <c r="AQ26" s="350"/>
+      <c r="AP26" s="215"/>
+      <c r="AQ26" s="217"/>
     </row>
     <row r="27" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="45" t="s">
@@ -3912,69 +3915,69 @@
     <row r="28" spans="1:61" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="152"/>
       <c r="C28" s="153"/>
-      <c r="D28" s="343"/>
-      <c r="E28" s="343"/>
-      <c r="F28" s="343"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
       <c r="G28" s="153"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="343"/>
-      <c r="J28" s="343"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
       <c r="K28" s="153"/>
-      <c r="L28" s="343"/>
-      <c r="M28" s="343"/>
-      <c r="N28" s="343"/>
-      <c r="O28" s="343"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
       <c r="P28" s="153"/>
-      <c r="Q28" s="343" t="s">
+      <c r="Q28" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="343"/>
+      <c r="R28" s="218"/>
       <c r="S28" s="153"/>
       <c r="T28" s="153"/>
       <c r="U28" s="153"/>
       <c r="V28" s="153"/>
-      <c r="W28" s="343"/>
-      <c r="X28" s="343"/>
-      <c r="Y28" s="343"/>
-      <c r="Z28" s="343"/>
-      <c r="AA28" s="343"/>
+      <c r="W28" s="218"/>
+      <c r="X28" s="218"/>
+      <c r="Y28" s="218"/>
+      <c r="Z28" s="218"/>
+      <c r="AA28" s="218"/>
       <c r="AB28" s="153"/>
-      <c r="AC28" s="343"/>
-      <c r="AD28" s="343"/>
-      <c r="AE28" s="343"/>
-      <c r="AF28" s="343"/>
-      <c r="AG28" s="343"/>
+      <c r="AC28" s="218"/>
+      <c r="AD28" s="218"/>
+      <c r="AE28" s="218"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="218"/>
       <c r="AH28" s="150"/>
-      <c r="AI28" s="343"/>
-      <c r="AJ28" s="343"/>
-      <c r="AK28" s="343"/>
-      <c r="AL28" s="343"/>
-      <c r="AM28" s="343"/>
+      <c r="AI28" s="218"/>
+      <c r="AJ28" s="218"/>
+      <c r="AK28" s="218"/>
+      <c r="AL28" s="218"/>
+      <c r="AM28" s="218"/>
       <c r="AN28" s="150"/>
-      <c r="AO28" s="343"/>
-      <c r="AP28" s="343"/>
-      <c r="AQ28" s="344"/>
+      <c r="AO28" s="218"/>
+      <c r="AP28" s="218"/>
+      <c r="AQ28" s="219"/>
     </row>
     <row r="29" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
-      <c r="H29" s="334"/>
-      <c r="I29" s="334"/>
-      <c r="J29" s="334"/>
-      <c r="K29" s="334"/>
-      <c r="L29" s="334"/>
-      <c r="M29" s="334"/>
-      <c r="N29" s="334"/>
-      <c r="O29" s="334"/>
-      <c r="P29" s="334"/>
-      <c r="Q29" s="334"/>
-      <c r="R29" s="334"/>
+      <c r="H29" s="374"/>
+      <c r="I29" s="374"/>
+      <c r="J29" s="374"/>
+      <c r="K29" s="374"/>
+      <c r="L29" s="374"/>
+      <c r="M29" s="374"/>
+      <c r="N29" s="374"/>
+      <c r="O29" s="374"/>
+      <c r="P29" s="374"/>
+      <c r="Q29" s="374"/>
+      <c r="R29" s="374"/>
       <c r="S29" s="53"/>
       <c r="T29" s="53"/>
       <c r="U29" s="53"/>
@@ -3984,16 +3987,16 @@
       <c r="Z29" s="55"/>
       <c r="AA29" s="55"/>
       <c r="AB29" s="55"/>
-      <c r="AC29" s="345"/>
-      <c r="AD29" s="345"/>
-      <c r="AE29" s="345"/>
-      <c r="AF29" s="345"/>
-      <c r="AG29" s="345"/>
-      <c r="AI29" s="345"/>
-      <c r="AJ29" s="345"/>
-      <c r="AK29" s="345"/>
-      <c r="AL29" s="345"/>
-      <c r="AM29" s="345"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="221"/>
+      <c r="AF29" s="221"/>
+      <c r="AG29" s="221"/>
+      <c r="AI29" s="221"/>
+      <c r="AJ29" s="221"/>
+      <c r="AK29" s="221"/>
+      <c r="AL29" s="221"/>
+      <c r="AM29" s="221"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="57"/>
@@ -4045,69 +4048,69 @@
     <row r="31" spans="1:61" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B31" s="152"/>
       <c r="C31" s="153"/>
-      <c r="D31" s="343"/>
-      <c r="E31" s="343"/>
-      <c r="F31" s="343"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
       <c r="G31" s="153"/>
-      <c r="H31" s="343"/>
-      <c r="I31" s="343"/>
-      <c r="J31" s="343"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="153"/>
-      <c r="L31" s="343"/>
-      <c r="M31" s="343"/>
-      <c r="N31" s="343"/>
-      <c r="O31" s="343"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
       <c r="P31" s="153"/>
-      <c r="Q31" s="343" t="s">
+      <c r="Q31" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="343"/>
+      <c r="R31" s="218"/>
       <c r="S31" s="153"/>
       <c r="T31" s="153"/>
       <c r="U31" s="153"/>
       <c r="V31" s="153"/>
-      <c r="W31" s="343"/>
-      <c r="X31" s="343"/>
-      <c r="Y31" s="343"/>
-      <c r="Z31" s="343"/>
-      <c r="AA31" s="343"/>
+      <c r="W31" s="218"/>
+      <c r="X31" s="218"/>
+      <c r="Y31" s="218"/>
+      <c r="Z31" s="218"/>
+      <c r="AA31" s="218"/>
       <c r="AB31" s="153"/>
-      <c r="AC31" s="343"/>
-      <c r="AD31" s="343"/>
-      <c r="AE31" s="343"/>
-      <c r="AF31" s="343"/>
-      <c r="AG31" s="343"/>
+      <c r="AC31" s="218"/>
+      <c r="AD31" s="218"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="218"/>
       <c r="AH31" s="150"/>
-      <c r="AI31" s="343"/>
-      <c r="AJ31" s="343"/>
-      <c r="AK31" s="343"/>
-      <c r="AL31" s="343"/>
-      <c r="AM31" s="343"/>
+      <c r="AI31" s="218"/>
+      <c r="AJ31" s="218"/>
+      <c r="AK31" s="218"/>
+      <c r="AL31" s="218"/>
+      <c r="AM31" s="218"/>
       <c r="AN31" s="150"/>
-      <c r="AO31" s="343"/>
-      <c r="AP31" s="343"/>
-      <c r="AQ31" s="344"/>
+      <c r="AO31" s="218"/>
+      <c r="AP31" s="218"/>
+      <c r="AQ31" s="219"/>
     </row>
     <row r="32" spans="1:61" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
-      <c r="H32" s="334"/>
-      <c r="I32" s="334"/>
-      <c r="J32" s="334"/>
-      <c r="K32" s="334"/>
-      <c r="L32" s="334"/>
-      <c r="M32" s="334"/>
-      <c r="N32" s="334"/>
-      <c r="O32" s="334"/>
-      <c r="P32" s="334"/>
-      <c r="Q32" s="334"/>
-      <c r="R32" s="334"/>
+      <c r="H32" s="374"/>
+      <c r="I32" s="374"/>
+      <c r="J32" s="374"/>
+      <c r="K32" s="374"/>
+      <c r="L32" s="374"/>
+      <c r="M32" s="374"/>
+      <c r="N32" s="374"/>
+      <c r="O32" s="374"/>
+      <c r="P32" s="374"/>
+      <c r="Q32" s="374"/>
+      <c r="R32" s="374"/>
       <c r="S32" s="53"/>
       <c r="T32" s="53"/>
       <c r="U32" s="53"/>
@@ -4117,16 +4120,16 @@
       <c r="Z32" s="55"/>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55"/>
-      <c r="AC32" s="345"/>
-      <c r="AD32" s="345"/>
-      <c r="AE32" s="345"/>
-      <c r="AF32" s="345"/>
-      <c r="AG32" s="345"/>
-      <c r="AI32" s="345"/>
-      <c r="AJ32" s="345"/>
-      <c r="AK32" s="345"/>
-      <c r="AL32" s="345"/>
-      <c r="AM32" s="345"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="221"/>
+      <c r="AF32" s="221"/>
+      <c r="AG32" s="221"/>
+      <c r="AI32" s="221"/>
+      <c r="AJ32" s="221"/>
+      <c r="AK32" s="221"/>
+      <c r="AL32" s="221"/>
+      <c r="AM32" s="221"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="57"/>
@@ -4178,69 +4181,69 @@
     <row r="34" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B34" s="152"/>
       <c r="C34" s="153"/>
-      <c r="D34" s="343"/>
-      <c r="E34" s="343"/>
-      <c r="F34" s="343"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="153"/>
-      <c r="H34" s="343"/>
-      <c r="I34" s="343"/>
-      <c r="J34" s="343"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
       <c r="K34" s="153"/>
-      <c r="L34" s="343"/>
-      <c r="M34" s="343"/>
-      <c r="N34" s="343"/>
-      <c r="O34" s="343"/>
+      <c r="L34" s="218"/>
+      <c r="M34" s="218"/>
+      <c r="N34" s="218"/>
+      <c r="O34" s="218"/>
       <c r="P34" s="153"/>
-      <c r="Q34" s="343" t="s">
+      <c r="Q34" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="343"/>
+      <c r="R34" s="218"/>
       <c r="S34" s="153"/>
       <c r="T34" s="153"/>
       <c r="U34" s="153"/>
       <c r="V34" s="153"/>
-      <c r="W34" s="343"/>
-      <c r="X34" s="343"/>
-      <c r="Y34" s="343"/>
-      <c r="Z34" s="343"/>
-      <c r="AA34" s="343"/>
+      <c r="W34" s="218"/>
+      <c r="X34" s="218"/>
+      <c r="Y34" s="218"/>
+      <c r="Z34" s="218"/>
+      <c r="AA34" s="218"/>
       <c r="AB34" s="153"/>
-      <c r="AC34" s="343"/>
-      <c r="AD34" s="343"/>
-      <c r="AE34" s="343"/>
-      <c r="AF34" s="343"/>
-      <c r="AG34" s="343"/>
+      <c r="AC34" s="218"/>
+      <c r="AD34" s="218"/>
+      <c r="AE34" s="218"/>
+      <c r="AF34" s="218"/>
+      <c r="AG34" s="218"/>
       <c r="AH34" s="150"/>
-      <c r="AI34" s="343"/>
-      <c r="AJ34" s="343"/>
-      <c r="AK34" s="343"/>
-      <c r="AL34" s="343"/>
-      <c r="AM34" s="343"/>
+      <c r="AI34" s="218"/>
+      <c r="AJ34" s="218"/>
+      <c r="AK34" s="218"/>
+      <c r="AL34" s="218"/>
+      <c r="AM34" s="218"/>
       <c r="AN34" s="150"/>
-      <c r="AO34" s="343"/>
-      <c r="AP34" s="343"/>
-      <c r="AQ34" s="344"/>
+      <c r="AO34" s="218"/>
+      <c r="AP34" s="218"/>
+      <c r="AQ34" s="219"/>
     </row>
     <row r="35" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B35" s="54"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="55"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="334"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="334"/>
-      <c r="K35" s="334"/>
-      <c r="L35" s="334"/>
-      <c r="M35" s="334"/>
-      <c r="N35" s="334"/>
-      <c r="O35" s="334"/>
-      <c r="P35" s="334"/>
-      <c r="Q35" s="334"/>
-      <c r="R35" s="334"/>
+      <c r="H35" s="374"/>
+      <c r="I35" s="374"/>
+      <c r="J35" s="374"/>
+      <c r="K35" s="374"/>
+      <c r="L35" s="374"/>
+      <c r="M35" s="374"/>
+      <c r="N35" s="374"/>
+      <c r="O35" s="374"/>
+      <c r="P35" s="374"/>
+      <c r="Q35" s="374"/>
+      <c r="R35" s="374"/>
       <c r="S35" s="53"/>
       <c r="T35" s="53"/>
       <c r="U35" s="53"/>
@@ -4250,16 +4253,16 @@
       <c r="Z35" s="55"/>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55"/>
-      <c r="AC35" s="345"/>
-      <c r="AD35" s="345"/>
-      <c r="AE35" s="345"/>
-      <c r="AF35" s="345"/>
-      <c r="AG35" s="345"/>
-      <c r="AI35" s="345"/>
-      <c r="AJ35" s="345"/>
-      <c r="AK35" s="345"/>
-      <c r="AL35" s="345"/>
-      <c r="AM35" s="345"/>
+      <c r="AC35" s="221"/>
+      <c r="AD35" s="221"/>
+      <c r="AE35" s="221"/>
+      <c r="AF35" s="221"/>
+      <c r="AG35" s="221"/>
+      <c r="AI35" s="221"/>
+      <c r="AJ35" s="221"/>
+      <c r="AK35" s="221"/>
+      <c r="AL35" s="221"/>
+      <c r="AM35" s="221"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="57"/>
@@ -4311,69 +4314,69 @@
     <row r="37" spans="2:43" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="152"/>
       <c r="C37" s="153"/>
-      <c r="D37" s="343"/>
-      <c r="E37" s="343"/>
-      <c r="F37" s="343"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
       <c r="G37" s="153"/>
-      <c r="H37" s="343"/>
-      <c r="I37" s="343"/>
-      <c r="J37" s="343"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
       <c r="K37" s="153"/>
-      <c r="L37" s="343"/>
-      <c r="M37" s="343"/>
-      <c r="N37" s="343"/>
-      <c r="O37" s="343"/>
+      <c r="L37" s="218"/>
+      <c r="M37" s="218"/>
+      <c r="N37" s="218"/>
+      <c r="O37" s="218"/>
       <c r="P37" s="153"/>
-      <c r="Q37" s="343" t="s">
+      <c r="Q37" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R37" s="343"/>
+      <c r="R37" s="218"/>
       <c r="S37" s="153"/>
       <c r="T37" s="153"/>
       <c r="U37" s="153"/>
       <c r="V37" s="153"/>
-      <c r="W37" s="343"/>
-      <c r="X37" s="343"/>
-      <c r="Y37" s="343"/>
-      <c r="Z37" s="343"/>
-      <c r="AA37" s="343"/>
+      <c r="W37" s="218"/>
+      <c r="X37" s="218"/>
+      <c r="Y37" s="218"/>
+      <c r="Z37" s="218"/>
+      <c r="AA37" s="218"/>
       <c r="AB37" s="153"/>
-      <c r="AC37" s="343"/>
-      <c r="AD37" s="343"/>
-      <c r="AE37" s="343"/>
-      <c r="AF37" s="343"/>
-      <c r="AG37" s="343"/>
+      <c r="AC37" s="218"/>
+      <c r="AD37" s="218"/>
+      <c r="AE37" s="218"/>
+      <c r="AF37" s="218"/>
+      <c r="AG37" s="218"/>
       <c r="AH37" s="150"/>
-      <c r="AI37" s="343"/>
-      <c r="AJ37" s="343"/>
-      <c r="AK37" s="343"/>
-      <c r="AL37" s="343"/>
-      <c r="AM37" s="343"/>
+      <c r="AI37" s="218"/>
+      <c r="AJ37" s="218"/>
+      <c r="AK37" s="218"/>
+      <c r="AL37" s="218"/>
+      <c r="AM37" s="218"/>
       <c r="AN37" s="150"/>
-      <c r="AO37" s="343"/>
-      <c r="AP37" s="343"/>
-      <c r="AQ37" s="344"/>
+      <c r="AO37" s="218"/>
+      <c r="AP37" s="218"/>
+      <c r="AQ37" s="219"/>
     </row>
     <row r="38" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B38" s="54"/>
       <c r="C38" s="55"/>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
-      <c r="H38" s="334"/>
-      <c r="I38" s="334"/>
-      <c r="J38" s="334"/>
-      <c r="K38" s="334"/>
-      <c r="L38" s="334"/>
-      <c r="M38" s="334"/>
-      <c r="N38" s="334"/>
-      <c r="O38" s="334"/>
-      <c r="P38" s="334"/>
-      <c r="Q38" s="334"/>
-      <c r="R38" s="334"/>
+      <c r="H38" s="374"/>
+      <c r="I38" s="374"/>
+      <c r="J38" s="374"/>
+      <c r="K38" s="374"/>
+      <c r="L38" s="374"/>
+      <c r="M38" s="374"/>
+      <c r="N38" s="374"/>
+      <c r="O38" s="374"/>
+      <c r="P38" s="374"/>
+      <c r="Q38" s="374"/>
+      <c r="R38" s="374"/>
       <c r="S38" s="53"/>
       <c r="T38" s="53"/>
       <c r="U38" s="53"/>
@@ -4383,16 +4386,16 @@
       <c r="Z38" s="55"/>
       <c r="AA38" s="55"/>
       <c r="AB38" s="55"/>
-      <c r="AC38" s="345"/>
-      <c r="AD38" s="345"/>
-      <c r="AE38" s="345"/>
-      <c r="AF38" s="345"/>
-      <c r="AG38" s="345"/>
-      <c r="AI38" s="345"/>
-      <c r="AJ38" s="345"/>
-      <c r="AK38" s="345"/>
-      <c r="AL38" s="345"/>
-      <c r="AM38" s="345"/>
+      <c r="AC38" s="221"/>
+      <c r="AD38" s="221"/>
+      <c r="AE38" s="221"/>
+      <c r="AF38" s="221"/>
+      <c r="AG38" s="221"/>
+      <c r="AI38" s="221"/>
+      <c r="AJ38" s="221"/>
+      <c r="AK38" s="221"/>
+      <c r="AL38" s="221"/>
+      <c r="AM38" s="221"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="57"/>
@@ -4444,69 +4447,69 @@
     <row r="40" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
       <c r="B40" s="152"/>
       <c r="C40" s="153"/>
-      <c r="D40" s="343"/>
-      <c r="E40" s="343"/>
-      <c r="F40" s="343"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
       <c r="G40" s="153"/>
-      <c r="H40" s="343"/>
-      <c r="I40" s="343"/>
-      <c r="J40" s="343"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
       <c r="K40" s="153"/>
-      <c r="L40" s="343"/>
-      <c r="M40" s="343"/>
-      <c r="N40" s="343"/>
-      <c r="O40" s="343"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="218"/>
       <c r="P40" s="153"/>
-      <c r="Q40" s="343" t="s">
+      <c r="Q40" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R40" s="343"/>
+      <c r="R40" s="218"/>
       <c r="S40" s="153"/>
       <c r="T40" s="153"/>
       <c r="U40" s="153"/>
       <c r="V40" s="153"/>
-      <c r="W40" s="343"/>
-      <c r="X40" s="343"/>
-      <c r="Y40" s="343"/>
-      <c r="Z40" s="343"/>
-      <c r="AA40" s="343"/>
+      <c r="W40" s="218"/>
+      <c r="X40" s="218"/>
+      <c r="Y40" s="218"/>
+      <c r="Z40" s="218"/>
+      <c r="AA40" s="218"/>
       <c r="AB40" s="153"/>
-      <c r="AC40" s="343"/>
-      <c r="AD40" s="343"/>
-      <c r="AE40" s="343"/>
-      <c r="AF40" s="343"/>
-      <c r="AG40" s="343"/>
+      <c r="AC40" s="218"/>
+      <c r="AD40" s="218"/>
+      <c r="AE40" s="218"/>
+      <c r="AF40" s="218"/>
+      <c r="AG40" s="218"/>
       <c r="AH40" s="150"/>
-      <c r="AI40" s="343"/>
-      <c r="AJ40" s="343"/>
-      <c r="AK40" s="343"/>
-      <c r="AL40" s="343"/>
-      <c r="AM40" s="343"/>
+      <c r="AI40" s="218"/>
+      <c r="AJ40" s="218"/>
+      <c r="AK40" s="218"/>
+      <c r="AL40" s="218"/>
+      <c r="AM40" s="218"/>
       <c r="AN40" s="150"/>
-      <c r="AO40" s="343"/>
-      <c r="AP40" s="343"/>
-      <c r="AQ40" s="344"/>
+      <c r="AO40" s="218"/>
+      <c r="AP40" s="218"/>
+      <c r="AQ40" s="219"/>
     </row>
     <row r="41" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B41" s="54"/>
       <c r="C41" s="55"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
-      <c r="H41" s="334"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="334"/>
-      <c r="K41" s="334"/>
-      <c r="L41" s="334"/>
-      <c r="M41" s="334"/>
-      <c r="N41" s="334"/>
-      <c r="O41" s="334"/>
-      <c r="P41" s="334"/>
-      <c r="Q41" s="334"/>
-      <c r="R41" s="334"/>
+      <c r="H41" s="374"/>
+      <c r="I41" s="374"/>
+      <c r="J41" s="374"/>
+      <c r="K41" s="374"/>
+      <c r="L41" s="374"/>
+      <c r="M41" s="374"/>
+      <c r="N41" s="374"/>
+      <c r="O41" s="374"/>
+      <c r="P41" s="374"/>
+      <c r="Q41" s="374"/>
+      <c r="R41" s="374"/>
       <c r="S41" s="53"/>
       <c r="T41" s="53"/>
       <c r="U41" s="53"/>
@@ -4516,16 +4519,16 @@
       <c r="Z41" s="55"/>
       <c r="AA41" s="55"/>
       <c r="AB41" s="55"/>
-      <c r="AC41" s="345"/>
-      <c r="AD41" s="345"/>
-      <c r="AE41" s="345"/>
-      <c r="AF41" s="345"/>
-      <c r="AG41" s="345"/>
-      <c r="AI41" s="345"/>
-      <c r="AJ41" s="345"/>
-      <c r="AK41" s="345"/>
-      <c r="AL41" s="345"/>
-      <c r="AM41" s="345"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
+      <c r="AI41" s="221"/>
+      <c r="AJ41" s="221"/>
+      <c r="AK41" s="221"/>
+      <c r="AL41" s="221"/>
+      <c r="AM41" s="221"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
       <c r="AQ41" s="57"/>
@@ -4577,69 +4580,69 @@
     <row r="43" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
       <c r="B43" s="152"/>
       <c r="C43" s="153"/>
-      <c r="D43" s="343"/>
-      <c r="E43" s="343"/>
-      <c r="F43" s="343"/>
+      <c r="D43" s="218"/>
+      <c r="E43" s="218"/>
+      <c r="F43" s="218"/>
       <c r="G43" s="153"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
+      <c r="H43" s="218"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="153"/>
-      <c r="L43" s="343"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="343"/>
-      <c r="O43" s="343"/>
+      <c r="L43" s="218"/>
+      <c r="M43" s="218"/>
+      <c r="N43" s="218"/>
+      <c r="O43" s="218"/>
       <c r="P43" s="153"/>
-      <c r="Q43" s="343" t="s">
+      <c r="Q43" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="343"/>
+      <c r="R43" s="218"/>
       <c r="S43" s="153"/>
       <c r="T43" s="153"/>
       <c r="U43" s="153"/>
       <c r="V43" s="153"/>
-      <c r="W43" s="343"/>
-      <c r="X43" s="343"/>
-      <c r="Y43" s="343"/>
-      <c r="Z43" s="343"/>
-      <c r="AA43" s="343"/>
+      <c r="W43" s="218"/>
+      <c r="X43" s="218"/>
+      <c r="Y43" s="218"/>
+      <c r="Z43" s="218"/>
+      <c r="AA43" s="218"/>
       <c r="AB43" s="153"/>
-      <c r="AC43" s="343"/>
-      <c r="AD43" s="343"/>
-      <c r="AE43" s="343"/>
-      <c r="AF43" s="343"/>
-      <c r="AG43" s="343"/>
+      <c r="AC43" s="218"/>
+      <c r="AD43" s="218"/>
+      <c r="AE43" s="218"/>
+      <c r="AF43" s="218"/>
+      <c r="AG43" s="218"/>
       <c r="AH43" s="150"/>
-      <c r="AI43" s="343"/>
-      <c r="AJ43" s="343"/>
-      <c r="AK43" s="343"/>
-      <c r="AL43" s="343"/>
-      <c r="AM43" s="343"/>
+      <c r="AI43" s="218"/>
+      <c r="AJ43" s="218"/>
+      <c r="AK43" s="218"/>
+      <c r="AL43" s="218"/>
+      <c r="AM43" s="218"/>
       <c r="AN43" s="150"/>
-      <c r="AO43" s="343"/>
-      <c r="AP43" s="343"/>
-      <c r="AQ43" s="344"/>
+      <c r="AO43" s="218"/>
+      <c r="AP43" s="218"/>
+      <c r="AQ43" s="219"/>
     </row>
     <row r="44" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B44" s="54"/>
       <c r="C44" s="55"/>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="334"/>
-      <c r="O44" s="334"/>
-      <c r="P44" s="334"/>
-      <c r="Q44" s="334"/>
-      <c r="R44" s="334"/>
+      <c r="H44" s="374"/>
+      <c r="I44" s="374"/>
+      <c r="J44" s="374"/>
+      <c r="K44" s="374"/>
+      <c r="L44" s="374"/>
+      <c r="M44" s="374"/>
+      <c r="N44" s="374"/>
+      <c r="O44" s="374"/>
+      <c r="P44" s="374"/>
+      <c r="Q44" s="374"/>
+      <c r="R44" s="374"/>
       <c r="S44" s="53"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -4649,16 +4652,16 @@
       <c r="Z44" s="55"/>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
-      <c r="AC44" s="345"/>
-      <c r="AD44" s="345"/>
-      <c r="AE44" s="345"/>
-      <c r="AF44" s="345"/>
-      <c r="AG44" s="345"/>
-      <c r="AI44" s="345"/>
-      <c r="AJ44" s="345"/>
-      <c r="AK44" s="345"/>
-      <c r="AL44" s="345"/>
-      <c r="AM44" s="345"/>
+      <c r="AC44" s="221"/>
+      <c r="AD44" s="221"/>
+      <c r="AE44" s="221"/>
+      <c r="AF44" s="221"/>
+      <c r="AG44" s="221"/>
+      <c r="AI44" s="221"/>
+      <c r="AJ44" s="221"/>
+      <c r="AK44" s="221"/>
+      <c r="AL44" s="221"/>
+      <c r="AM44" s="221"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="57"/>
@@ -4710,69 +4713,69 @@
     <row r="46" spans="2:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
       <c r="B46" s="152"/>
       <c r="C46" s="153"/>
-      <c r="D46" s="343"/>
-      <c r="E46" s="343"/>
-      <c r="F46" s="343"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
+      <c r="F46" s="218"/>
       <c r="G46" s="153"/>
-      <c r="H46" s="343"/>
-      <c r="I46" s="343"/>
-      <c r="J46" s="343"/>
+      <c r="H46" s="218"/>
+      <c r="I46" s="218"/>
+      <c r="J46" s="218"/>
       <c r="K46" s="153"/>
-      <c r="L46" s="343"/>
-      <c r="M46" s="343"/>
-      <c r="N46" s="343"/>
-      <c r="O46" s="343"/>
+      <c r="L46" s="218"/>
+      <c r="M46" s="218"/>
+      <c r="N46" s="218"/>
+      <c r="O46" s="218"/>
       <c r="P46" s="153"/>
-      <c r="Q46" s="343" t="s">
+      <c r="Q46" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R46" s="343"/>
+      <c r="R46" s="218"/>
       <c r="S46" s="153"/>
       <c r="T46" s="153"/>
       <c r="U46" s="153"/>
       <c r="V46" s="153"/>
-      <c r="W46" s="343"/>
-      <c r="X46" s="343"/>
-      <c r="Y46" s="343"/>
-      <c r="Z46" s="343"/>
-      <c r="AA46" s="343"/>
+      <c r="W46" s="218"/>
+      <c r="X46" s="218"/>
+      <c r="Y46" s="218"/>
+      <c r="Z46" s="218"/>
+      <c r="AA46" s="218"/>
       <c r="AB46" s="153"/>
-      <c r="AC46" s="343"/>
-      <c r="AD46" s="343"/>
-      <c r="AE46" s="343"/>
-      <c r="AF46" s="343"/>
-      <c r="AG46" s="343"/>
+      <c r="AC46" s="218"/>
+      <c r="AD46" s="218"/>
+      <c r="AE46" s="218"/>
+      <c r="AF46" s="218"/>
+      <c r="AG46" s="218"/>
       <c r="AH46" s="150"/>
-      <c r="AI46" s="343"/>
-      <c r="AJ46" s="343"/>
-      <c r="AK46" s="343"/>
-      <c r="AL46" s="343"/>
-      <c r="AM46" s="343"/>
+      <c r="AI46" s="218"/>
+      <c r="AJ46" s="218"/>
+      <c r="AK46" s="218"/>
+      <c r="AL46" s="218"/>
+      <c r="AM46" s="218"/>
       <c r="AN46" s="150"/>
-      <c r="AO46" s="343"/>
-      <c r="AP46" s="343"/>
-      <c r="AQ46" s="344"/>
+      <c r="AO46" s="218"/>
+      <c r="AP46" s="218"/>
+      <c r="AQ46" s="219"/>
     </row>
     <row r="47" spans="2:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B47" s="54"/>
       <c r="C47" s="55"/>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="55"/>
       <c r="F47" s="55"/>
       <c r="G47" s="55"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
-      <c r="M47" s="334"/>
-      <c r="N47" s="334"/>
-      <c r="O47" s="334"/>
-      <c r="P47" s="334"/>
-      <c r="Q47" s="334"/>
-      <c r="R47" s="334"/>
+      <c r="H47" s="374"/>
+      <c r="I47" s="374"/>
+      <c r="J47" s="374"/>
+      <c r="K47" s="374"/>
+      <c r="L47" s="374"/>
+      <c r="M47" s="374"/>
+      <c r="N47" s="374"/>
+      <c r="O47" s="374"/>
+      <c r="P47" s="374"/>
+      <c r="Q47" s="374"/>
+      <c r="R47" s="374"/>
       <c r="S47" s="53"/>
       <c r="T47" s="53"/>
       <c r="U47" s="53"/>
@@ -4782,16 +4785,16 @@
       <c r="Z47" s="55"/>
       <c r="AA47" s="55"/>
       <c r="AB47" s="55"/>
-      <c r="AC47" s="345"/>
-      <c r="AD47" s="345"/>
-      <c r="AE47" s="345"/>
-      <c r="AF47" s="345"/>
-      <c r="AG47" s="345"/>
-      <c r="AI47" s="345"/>
-      <c r="AJ47" s="345"/>
-      <c r="AK47" s="345"/>
-      <c r="AL47" s="345"/>
-      <c r="AM47" s="345"/>
+      <c r="AC47" s="221"/>
+      <c r="AD47" s="221"/>
+      <c r="AE47" s="221"/>
+      <c r="AF47" s="221"/>
+      <c r="AG47" s="221"/>
+      <c r="AI47" s="221"/>
+      <c r="AJ47" s="221"/>
+      <c r="AK47" s="221"/>
+      <c r="AL47" s="221"/>
+      <c r="AM47" s="221"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="57"/>
@@ -4843,69 +4846,69 @@
     <row r="49" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
       <c r="B49" s="152"/>
       <c r="C49" s="153"/>
-      <c r="D49" s="343"/>
-      <c r="E49" s="343"/>
-      <c r="F49" s="343"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="218"/>
+      <c r="F49" s="218"/>
       <c r="G49" s="153"/>
-      <c r="H49" s="343"/>
-      <c r="I49" s="343"/>
-      <c r="J49" s="343"/>
+      <c r="H49" s="218"/>
+      <c r="I49" s="218"/>
+      <c r="J49" s="218"/>
       <c r="K49" s="153"/>
-      <c r="L49" s="343"/>
-      <c r="M49" s="343"/>
-      <c r="N49" s="343"/>
-      <c r="O49" s="343"/>
+      <c r="L49" s="218"/>
+      <c r="M49" s="218"/>
+      <c r="N49" s="218"/>
+      <c r="O49" s="218"/>
       <c r="P49" s="153"/>
-      <c r="Q49" s="343" t="s">
+      <c r="Q49" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R49" s="343"/>
+      <c r="R49" s="218"/>
       <c r="S49" s="153"/>
       <c r="T49" s="153"/>
       <c r="U49" s="153"/>
       <c r="V49" s="153"/>
-      <c r="W49" s="343"/>
-      <c r="X49" s="343"/>
-      <c r="Y49" s="343"/>
-      <c r="Z49" s="343"/>
-      <c r="AA49" s="343"/>
+      <c r="W49" s="218"/>
+      <c r="X49" s="218"/>
+      <c r="Y49" s="218"/>
+      <c r="Z49" s="218"/>
+      <c r="AA49" s="218"/>
       <c r="AB49" s="153"/>
-      <c r="AC49" s="343"/>
-      <c r="AD49" s="343"/>
-      <c r="AE49" s="343"/>
-      <c r="AF49" s="343"/>
-      <c r="AG49" s="343"/>
+      <c r="AC49" s="218"/>
+      <c r="AD49" s="218"/>
+      <c r="AE49" s="218"/>
+      <c r="AF49" s="218"/>
+      <c r="AG49" s="218"/>
       <c r="AH49" s="150"/>
-      <c r="AI49" s="343"/>
-      <c r="AJ49" s="343"/>
-      <c r="AK49" s="343"/>
-      <c r="AL49" s="343"/>
-      <c r="AM49" s="343"/>
+      <c r="AI49" s="218"/>
+      <c r="AJ49" s="218"/>
+      <c r="AK49" s="218"/>
+      <c r="AL49" s="218"/>
+      <c r="AM49" s="218"/>
       <c r="AN49" s="150"/>
-      <c r="AO49" s="343"/>
-      <c r="AP49" s="343"/>
-      <c r="AQ49" s="344"/>
+      <c r="AO49" s="218"/>
+      <c r="AP49" s="218"/>
+      <c r="AQ49" s="219"/>
     </row>
     <row r="50" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B50" s="54"/>
       <c r="C50" s="55"/>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="334"/>
-      <c r="I50" s="334"/>
-      <c r="J50" s="334"/>
-      <c r="K50" s="334"/>
-      <c r="L50" s="334"/>
-      <c r="M50" s="334"/>
-      <c r="N50" s="334"/>
-      <c r="O50" s="334"/>
-      <c r="P50" s="334"/>
-      <c r="Q50" s="334"/>
-      <c r="R50" s="334"/>
+      <c r="H50" s="374"/>
+      <c r="I50" s="374"/>
+      <c r="J50" s="374"/>
+      <c r="K50" s="374"/>
+      <c r="L50" s="374"/>
+      <c r="M50" s="374"/>
+      <c r="N50" s="374"/>
+      <c r="O50" s="374"/>
+      <c r="P50" s="374"/>
+      <c r="Q50" s="374"/>
+      <c r="R50" s="374"/>
       <c r="S50" s="53"/>
       <c r="T50" s="53"/>
       <c r="U50" s="53"/>
@@ -4915,16 +4918,16 @@
       <c r="Z50" s="55"/>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55"/>
-      <c r="AC50" s="345"/>
-      <c r="AD50" s="345"/>
-      <c r="AE50" s="345"/>
-      <c r="AF50" s="345"/>
-      <c r="AG50" s="345"/>
-      <c r="AI50" s="345"/>
-      <c r="AJ50" s="345"/>
-      <c r="AK50" s="345"/>
-      <c r="AL50" s="345"/>
-      <c r="AM50" s="345"/>
+      <c r="AC50" s="221"/>
+      <c r="AD50" s="221"/>
+      <c r="AE50" s="221"/>
+      <c r="AF50" s="221"/>
+      <c r="AG50" s="221"/>
+      <c r="AI50" s="221"/>
+      <c r="AJ50" s="221"/>
+      <c r="AK50" s="221"/>
+      <c r="AL50" s="221"/>
+      <c r="AM50" s="221"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="57"/>
@@ -4976,69 +4979,69 @@
     <row r="52" spans="1:43" s="6" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.1">
       <c r="B52" s="152"/>
       <c r="C52" s="153"/>
-      <c r="D52" s="343"/>
-      <c r="E52" s="343"/>
-      <c r="F52" s="343"/>
+      <c r="D52" s="218"/>
+      <c r="E52" s="218"/>
+      <c r="F52" s="218"/>
       <c r="G52" s="153"/>
-      <c r="H52" s="343"/>
-      <c r="I52" s="343"/>
-      <c r="J52" s="343"/>
+      <c r="H52" s="218"/>
+      <c r="I52" s="218"/>
+      <c r="J52" s="218"/>
       <c r="K52" s="153"/>
-      <c r="L52" s="343"/>
-      <c r="M52" s="343"/>
-      <c r="N52" s="343"/>
-      <c r="O52" s="343"/>
+      <c r="L52" s="218"/>
+      <c r="M52" s="218"/>
+      <c r="N52" s="218"/>
+      <c r="O52" s="218"/>
       <c r="P52" s="153"/>
-      <c r="Q52" s="343" t="s">
+      <c r="Q52" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="343"/>
+      <c r="R52" s="218"/>
       <c r="S52" s="153"/>
       <c r="T52" s="153"/>
       <c r="U52" s="153"/>
       <c r="V52" s="153"/>
-      <c r="W52" s="343"/>
-      <c r="X52" s="343"/>
-      <c r="Y52" s="343"/>
-      <c r="Z52" s="343"/>
-      <c r="AA52" s="343"/>
+      <c r="W52" s="218"/>
+      <c r="X52" s="218"/>
+      <c r="Y52" s="218"/>
+      <c r="Z52" s="218"/>
+      <c r="AA52" s="218"/>
       <c r="AB52" s="153"/>
-      <c r="AC52" s="343"/>
-      <c r="AD52" s="343"/>
-      <c r="AE52" s="343"/>
-      <c r="AF52" s="343"/>
-      <c r="AG52" s="343"/>
+      <c r="AC52" s="218"/>
+      <c r="AD52" s="218"/>
+      <c r="AE52" s="218"/>
+      <c r="AF52" s="218"/>
+      <c r="AG52" s="218"/>
       <c r="AH52" s="150"/>
-      <c r="AI52" s="343"/>
-      <c r="AJ52" s="343"/>
-      <c r="AK52" s="343"/>
-      <c r="AL52" s="343"/>
-      <c r="AM52" s="343"/>
+      <c r="AI52" s="218"/>
+      <c r="AJ52" s="218"/>
+      <c r="AK52" s="218"/>
+      <c r="AL52" s="218"/>
+      <c r="AM52" s="218"/>
       <c r="AN52" s="150"/>
-      <c r="AO52" s="343"/>
-      <c r="AP52" s="343"/>
-      <c r="AQ52" s="344"/>
+      <c r="AO52" s="218"/>
+      <c r="AP52" s="218"/>
+      <c r="AQ52" s="219"/>
     </row>
     <row r="53" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.1">
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="55"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
-      <c r="H53" s="334"/>
-      <c r="I53" s="334"/>
-      <c r="J53" s="334"/>
-      <c r="K53" s="334"/>
-      <c r="L53" s="334"/>
-      <c r="M53" s="334"/>
-      <c r="N53" s="334"/>
-      <c r="O53" s="334"/>
-      <c r="P53" s="334"/>
-      <c r="Q53" s="334"/>
-      <c r="R53" s="334"/>
+      <c r="H53" s="374"/>
+      <c r="I53" s="374"/>
+      <c r="J53" s="374"/>
+      <c r="K53" s="374"/>
+      <c r="L53" s="374"/>
+      <c r="M53" s="374"/>
+      <c r="N53" s="374"/>
+      <c r="O53" s="374"/>
+      <c r="P53" s="374"/>
+      <c r="Q53" s="374"/>
+      <c r="R53" s="374"/>
       <c r="S53" s="53"/>
       <c r="T53" s="53"/>
       <c r="U53" s="53"/>
@@ -5048,16 +5051,16 @@
       <c r="Z53" s="55"/>
       <c r="AA53" s="55"/>
       <c r="AB53" s="55"/>
-      <c r="AC53" s="345"/>
-      <c r="AD53" s="345"/>
-      <c r="AE53" s="345"/>
-      <c r="AF53" s="345"/>
-      <c r="AG53" s="345"/>
-      <c r="AI53" s="345"/>
-      <c r="AJ53" s="345"/>
-      <c r="AK53" s="345"/>
-      <c r="AL53" s="345"/>
-      <c r="AM53" s="345"/>
+      <c r="AC53" s="221"/>
+      <c r="AD53" s="221"/>
+      <c r="AE53" s="221"/>
+      <c r="AF53" s="221"/>
+      <c r="AG53" s="221"/>
+      <c r="AI53" s="221"/>
+      <c r="AJ53" s="221"/>
+      <c r="AK53" s="221"/>
+      <c r="AL53" s="221"/>
+      <c r="AM53" s="221"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="57"/>
@@ -5187,192 +5190,192 @@
       <c r="AQ56" s="70"/>
     </row>
     <row r="57" spans="1:43" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="333" t="s">
+      <c r="B57" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="334"/>
-      <c r="D57" s="334"/>
-      <c r="E57" s="334"/>
-      <c r="F57" s="334"/>
-      <c r="G57" s="334"/>
-      <c r="H57" s="334"/>
-      <c r="I57" s="334"/>
-      <c r="J57" s="334"/>
-      <c r="K57" s="335" t="s">
+      <c r="C57" s="220"/>
+      <c r="D57" s="220"/>
+      <c r="E57" s="220"/>
+      <c r="F57" s="220"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="220"/>
+      <c r="J57" s="220"/>
+      <c r="K57" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="L57" s="335"/>
-      <c r="M57" s="335" t="s">
+      <c r="L57" s="223"/>
+      <c r="M57" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="N57" s="335"/>
-      <c r="O57" s="335"/>
-      <c r="P57" s="335"/>
-      <c r="Q57" s="334" t="s">
+      <c r="N57" s="223"/>
+      <c r="O57" s="223"/>
+      <c r="P57" s="223"/>
+      <c r="Q57" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="R57" s="334"/>
-      <c r="S57" s="334"/>
-      <c r="T57" s="334"/>
-      <c r="U57" s="334"/>
-      <c r="V57" s="334"/>
-      <c r="W57" s="334"/>
-      <c r="X57" s="334"/>
-      <c r="Y57" s="334"/>
-      <c r="Z57" s="334"/>
-      <c r="AA57" s="334"/>
-      <c r="AB57" s="334" t="s">
+      <c r="R57" s="220"/>
+      <c r="S57" s="220"/>
+      <c r="T57" s="220"/>
+      <c r="U57" s="220"/>
+      <c r="V57" s="220"/>
+      <c r="W57" s="220"/>
+      <c r="X57" s="220"/>
+      <c r="Y57" s="220"/>
+      <c r="Z57" s="220"/>
+      <c r="AA57" s="220"/>
+      <c r="AB57" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="AC57" s="334"/>
-      <c r="AD57" s="334"/>
-      <c r="AE57" s="334"/>
-      <c r="AF57" s="334"/>
-      <c r="AG57" s="334"/>
-      <c r="AH57" s="334"/>
-      <c r="AI57" s="334"/>
-      <c r="AJ57" s="334"/>
-      <c r="AK57" s="334"/>
-      <c r="AL57" s="334"/>
-      <c r="AM57" s="334"/>
-      <c r="AN57" s="334"/>
-      <c r="AO57" s="334"/>
-      <c r="AP57" s="334"/>
-      <c r="AQ57" s="336"/>
+      <c r="AC57" s="220"/>
+      <c r="AD57" s="220"/>
+      <c r="AE57" s="220"/>
+      <c r="AF57" s="220"/>
+      <c r="AG57" s="220"/>
+      <c r="AH57" s="220"/>
+      <c r="AI57" s="220"/>
+      <c r="AJ57" s="220"/>
+      <c r="AK57" s="220"/>
+      <c r="AL57" s="220"/>
+      <c r="AM57" s="220"/>
+      <c r="AN57" s="220"/>
+      <c r="AO57" s="220"/>
+      <c r="AP57" s="220"/>
+      <c r="AQ57" s="224"/>
     </row>
     <row r="58" spans="1:43" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="337"/>
-      <c r="C58" s="338"/>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="338"/>
-      <c r="G58" s="338"/>
-      <c r="H58" s="338"/>
-      <c r="I58" s="338"/>
-      <c r="J58" s="339"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="341"/>
-      <c r="M58" s="340"/>
-      <c r="N58" s="342"/>
-      <c r="O58" s="342"/>
-      <c r="P58" s="341"/>
-      <c r="Q58" s="340"/>
-      <c r="R58" s="342"/>
-      <c r="S58" s="342"/>
-      <c r="T58" s="342"/>
-      <c r="U58" s="342"/>
-      <c r="V58" s="342"/>
-      <c r="W58" s="342"/>
-      <c r="X58" s="342"/>
-      <c r="Y58" s="342"/>
-      <c r="Z58" s="342"/>
-      <c r="AA58" s="341"/>
-      <c r="AB58" s="340"/>
-      <c r="AC58" s="342"/>
-      <c r="AD58" s="342"/>
-      <c r="AE58" s="342"/>
-      <c r="AF58" s="342"/>
-      <c r="AG58" s="342"/>
-      <c r="AH58" s="342"/>
-      <c r="AI58" s="342"/>
-      <c r="AJ58" s="342"/>
-      <c r="AK58" s="342"/>
-      <c r="AL58" s="342"/>
-      <c r="AM58" s="342"/>
-      <c r="AN58" s="342"/>
-      <c r="AO58" s="342"/>
-      <c r="AP58" s="342"/>
-      <c r="AQ58" s="341"/>
+      <c r="B58" s="225"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="226"/>
+      <c r="J58" s="227"/>
+      <c r="K58" s="228"/>
+      <c r="L58" s="229"/>
+      <c r="M58" s="228"/>
+      <c r="N58" s="230"/>
+      <c r="O58" s="230"/>
+      <c r="P58" s="229"/>
+      <c r="Q58" s="228"/>
+      <c r="R58" s="230"/>
+      <c r="S58" s="230"/>
+      <c r="T58" s="230"/>
+      <c r="U58" s="230"/>
+      <c r="V58" s="230"/>
+      <c r="W58" s="230"/>
+      <c r="X58" s="230"/>
+      <c r="Y58" s="230"/>
+      <c r="Z58" s="230"/>
+      <c r="AA58" s="229"/>
+      <c r="AB58" s="228"/>
+      <c r="AC58" s="230"/>
+      <c r="AD58" s="230"/>
+      <c r="AE58" s="230"/>
+      <c r="AF58" s="230"/>
+      <c r="AG58" s="230"/>
+      <c r="AH58" s="230"/>
+      <c r="AI58" s="230"/>
+      <c r="AJ58" s="230"/>
+      <c r="AK58" s="230"/>
+      <c r="AL58" s="230"/>
+      <c r="AM58" s="230"/>
+      <c r="AN58" s="230"/>
+      <c r="AO58" s="230"/>
+      <c r="AP58" s="230"/>
+      <c r="AQ58" s="229"/>
     </row>
     <row r="59" spans="1:43" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
-      <c r="C59" s="311"/>
-      <c r="D59" s="311"/>
-      <c r="E59" s="311"/>
-      <c r="F59" s="311"/>
-      <c r="G59" s="311"/>
-      <c r="H59" s="311"/>
-      <c r="I59" s="311"/>
-      <c r="J59" s="311"/>
-      <c r="K59" s="311"/>
-      <c r="L59" s="311"/>
-      <c r="M59" s="311"/>
-      <c r="N59" s="311"/>
-      <c r="O59" s="311"/>
-      <c r="P59" s="311"/>
-      <c r="Q59" s="311"/>
-      <c r="R59" s="311"/>
-      <c r="S59" s="311"/>
-      <c r="T59" s="311"/>
-      <c r="U59" s="311"/>
-      <c r="V59" s="311"/>
-      <c r="W59" s="311"/>
-      <c r="X59" s="311"/>
-      <c r="Y59" s="311"/>
-      <c r="Z59" s="311"/>
-      <c r="AA59" s="311"/>
-      <c r="AB59" s="311"/>
-      <c r="AC59" s="311"/>
-      <c r="AD59" s="311"/>
-      <c r="AE59" s="311"/>
-      <c r="AF59" s="311"/>
-      <c r="AG59" s="311"/>
-      <c r="AH59" s="311"/>
-      <c r="AI59" s="311"/>
-      <c r="AJ59" s="311"/>
-      <c r="AK59" s="311"/>
-      <c r="AL59" s="311"/>
-      <c r="AM59" s="311"/>
-      <c r="AN59" s="311"/>
-      <c r="AO59" s="311"/>
-      <c r="AP59" s="311"/>
-      <c r="AQ59" s="311"/>
+      <c r="C59" s="231"/>
+      <c r="D59" s="231"/>
+      <c r="E59" s="231"/>
+      <c r="F59" s="231"/>
+      <c r="G59" s="231"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="231"/>
+      <c r="J59" s="231"/>
+      <c r="K59" s="231"/>
+      <c r="L59" s="231"/>
+      <c r="M59" s="231"/>
+      <c r="N59" s="231"/>
+      <c r="O59" s="231"/>
+      <c r="P59" s="231"/>
+      <c r="Q59" s="231"/>
+      <c r="R59" s="231"/>
+      <c r="S59" s="231"/>
+      <c r="T59" s="231"/>
+      <c r="U59" s="231"/>
+      <c r="V59" s="231"/>
+      <c r="W59" s="231"/>
+      <c r="X59" s="231"/>
+      <c r="Y59" s="231"/>
+      <c r="Z59" s="231"/>
+      <c r="AA59" s="231"/>
+      <c r="AB59" s="231"/>
+      <c r="AC59" s="231"/>
+      <c r="AD59" s="231"/>
+      <c r="AE59" s="231"/>
+      <c r="AF59" s="231"/>
+      <c r="AG59" s="231"/>
+      <c r="AH59" s="231"/>
+      <c r="AI59" s="231"/>
+      <c r="AJ59" s="231"/>
+      <c r="AK59" s="231"/>
+      <c r="AL59" s="231"/>
+      <c r="AM59" s="231"/>
+      <c r="AN59" s="231"/>
+      <c r="AO59" s="231"/>
+      <c r="AP59" s="231"/>
+      <c r="AQ59" s="231"/>
     </row>
     <row r="60" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="312"/>
-      <c r="D60" s="312"/>
-      <c r="E60" s="312"/>
-      <c r="F60" s="312"/>
-      <c r="G60" s="312"/>
-      <c r="H60" s="312"/>
-      <c r="I60" s="312"/>
-      <c r="J60" s="312"/>
-      <c r="K60" s="312"/>
-      <c r="L60" s="312"/>
-      <c r="M60" s="312"/>
-      <c r="N60" s="312"/>
-      <c r="O60" s="312"/>
-      <c r="P60" s="312"/>
-      <c r="Q60" s="312"/>
-      <c r="R60" s="312"/>
-      <c r="S60" s="312"/>
-      <c r="T60" s="312"/>
-      <c r="U60" s="312"/>
-      <c r="V60" s="312"/>
-      <c r="W60" s="312"/>
-      <c r="X60" s="312"/>
-      <c r="Y60" s="312"/>
-      <c r="Z60" s="312"/>
-      <c r="AA60" s="312"/>
-      <c r="AB60" s="312"/>
-      <c r="AC60" s="312"/>
-      <c r="AD60" s="312"/>
-      <c r="AE60" s="312"/>
-      <c r="AF60" s="312"/>
-      <c r="AG60" s="312"/>
-      <c r="AH60" s="312"/>
-      <c r="AI60" s="312"/>
-      <c r="AJ60" s="312"/>
-      <c r="AK60" s="312"/>
-      <c r="AL60" s="312"/>
-      <c r="AM60" s="312"/>
-      <c r="AN60" s="312"/>
-      <c r="AO60" s="312"/>
-      <c r="AP60" s="312"/>
-      <c r="AQ60" s="313"/>
+      <c r="C60" s="232"/>
+      <c r="D60" s="232"/>
+      <c r="E60" s="232"/>
+      <c r="F60" s="232"/>
+      <c r="G60" s="232"/>
+      <c r="H60" s="232"/>
+      <c r="I60" s="232"/>
+      <c r="J60" s="232"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="232"/>
+      <c r="M60" s="232"/>
+      <c r="N60" s="232"/>
+      <c r="O60" s="232"/>
+      <c r="P60" s="232"/>
+      <c r="Q60" s="232"/>
+      <c r="R60" s="232"/>
+      <c r="S60" s="232"/>
+      <c r="T60" s="232"/>
+      <c r="U60" s="232"/>
+      <c r="V60" s="232"/>
+      <c r="W60" s="232"/>
+      <c r="X60" s="232"/>
+      <c r="Y60" s="232"/>
+      <c r="Z60" s="232"/>
+      <c r="AA60" s="232"/>
+      <c r="AB60" s="232"/>
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="232"/>
+      <c r="AE60" s="232"/>
+      <c r="AF60" s="232"/>
+      <c r="AG60" s="232"/>
+      <c r="AH60" s="232"/>
+      <c r="AI60" s="232"/>
+      <c r="AJ60" s="232"/>
+      <c r="AK60" s="232"/>
+      <c r="AL60" s="232"/>
+      <c r="AM60" s="232"/>
+      <c r="AN60" s="232"/>
+      <c r="AO60" s="232"/>
+      <c r="AP60" s="232"/>
+      <c r="AQ60" s="233"/>
     </row>
     <row r="61" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="154"/>
@@ -5548,184 +5551,184 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="314" t="s">
+      <c r="F66" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="314"/>
-      <c r="H66" s="314"/>
-      <c r="I66" s="314"/>
-      <c r="J66" s="314"/>
-      <c r="K66" s="314"/>
-      <c r="L66" s="314"/>
-      <c r="M66" s="314"/>
-      <c r="N66" s="314"/>
-      <c r="O66" s="314"/>
+      <c r="G66" s="169"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="169"/>
+      <c r="K66" s="169"/>
+      <c r="L66" s="169"/>
+      <c r="M66" s="169"/>
+      <c r="N66" s="169"/>
+      <c r="O66" s="169"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="315" t="s">
+      <c r="R66" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="S66" s="316"/>
-      <c r="T66" s="316"/>
-      <c r="U66" s="316"/>
-      <c r="V66" s="316"/>
-      <c r="W66" s="316"/>
-      <c r="X66" s="316"/>
-      <c r="Y66" s="316"/>
-      <c r="Z66" s="316"/>
-      <c r="AA66" s="316"/>
-      <c r="AB66" s="316"/>
-      <c r="AC66" s="316"/>
-      <c r="AD66" s="316"/>
-      <c r="AE66" s="316"/>
-      <c r="AF66" s="316"/>
-      <c r="AG66" s="316"/>
-      <c r="AH66" s="316"/>
-      <c r="AI66" s="316"/>
-      <c r="AJ66" s="316"/>
-      <c r="AK66" s="316"/>
-      <c r="AL66" s="316"/>
-      <c r="AM66" s="316"/>
-      <c r="AN66" s="316"/>
-      <c r="AO66" s="316"/>
-      <c r="AP66" s="316"/>
-      <c r="AQ66" s="317"/>
+      <c r="S66" s="171"/>
+      <c r="T66" s="171"/>
+      <c r="U66" s="171"/>
+      <c r="V66" s="171"/>
+      <c r="W66" s="171"/>
+      <c r="X66" s="171"/>
+      <c r="Y66" s="171"/>
+      <c r="Z66" s="171"/>
+      <c r="AA66" s="171"/>
+      <c r="AB66" s="171"/>
+      <c r="AC66" s="171"/>
+      <c r="AD66" s="171"/>
+      <c r="AE66" s="171"/>
+      <c r="AF66" s="171"/>
+      <c r="AG66" s="171"/>
+      <c r="AH66" s="171"/>
+      <c r="AI66" s="171"/>
+      <c r="AJ66" s="171"/>
+      <c r="AK66" s="171"/>
+      <c r="AL66" s="171"/>
+      <c r="AM66" s="171"/>
+      <c r="AN66" s="171"/>
+      <c r="AO66" s="171"/>
+      <c r="AP66" s="171"/>
+      <c r="AQ66" s="172"/>
     </row>
     <row r="67" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="314"/>
-      <c r="G67" s="314"/>
-      <c r="H67" s="314"/>
-      <c r="I67" s="314"/>
-      <c r="J67" s="314"/>
-      <c r="K67" s="314"/>
-      <c r="L67" s="314"/>
-      <c r="M67" s="314"/>
-      <c r="N67" s="314"/>
-      <c r="O67" s="314"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="169"/>
+      <c r="K67" s="169"/>
+      <c r="L67" s="169"/>
+      <c r="M67" s="169"/>
+      <c r="N67" s="169"/>
+      <c r="O67" s="169"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="318" t="s">
+      <c r="R67" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="319"/>
-      <c r="T67" s="319"/>
-      <c r="U67" s="319"/>
-      <c r="V67" s="320"/>
-      <c r="W67" s="318" t="s">
+      <c r="S67" s="174"/>
+      <c r="T67" s="174"/>
+      <c r="U67" s="174"/>
+      <c r="V67" s="175"/>
+      <c r="W67" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="X67" s="319"/>
-      <c r="Y67" s="319"/>
-      <c r="Z67" s="319"/>
-      <c r="AA67" s="319"/>
-      <c r="AB67" s="319"/>
-      <c r="AC67" s="319"/>
-      <c r="AD67" s="319"/>
-      <c r="AE67" s="319"/>
-      <c r="AF67" s="319"/>
-      <c r="AG67" s="319"/>
-      <c r="AH67" s="320"/>
-      <c r="AI67" s="318" t="s">
+      <c r="X67" s="174"/>
+      <c r="Y67" s="174"/>
+      <c r="Z67" s="174"/>
+      <c r="AA67" s="174"/>
+      <c r="AB67" s="174"/>
+      <c r="AC67" s="174"/>
+      <c r="AD67" s="174"/>
+      <c r="AE67" s="174"/>
+      <c r="AF67" s="174"/>
+      <c r="AG67" s="174"/>
+      <c r="AH67" s="175"/>
+      <c r="AI67" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AJ67" s="319"/>
-      <c r="AK67" s="319"/>
-      <c r="AL67" s="319"/>
-      <c r="AM67" s="319"/>
-      <c r="AN67" s="319"/>
-      <c r="AO67" s="319"/>
-      <c r="AP67" s="319"/>
-      <c r="AQ67" s="320"/>
+      <c r="AJ67" s="174"/>
+      <c r="AK67" s="174"/>
+      <c r="AL67" s="174"/>
+      <c r="AM67" s="174"/>
+      <c r="AN67" s="174"/>
+      <c r="AO67" s="174"/>
+      <c r="AP67" s="174"/>
+      <c r="AQ67" s="175"/>
     </row>
     <row r="68" spans="1:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="314"/>
-      <c r="G68" s="314"/>
-      <c r="H68" s="314"/>
-      <c r="I68" s="314"/>
-      <c r="J68" s="314"/>
-      <c r="K68" s="314"/>
-      <c r="L68" s="314"/>
-      <c r="M68" s="314"/>
-      <c r="N68" s="314"/>
-      <c r="O68" s="314"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="169"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="169"/>
+      <c r="K68" s="169"/>
+      <c r="L68" s="169"/>
+      <c r="M68" s="169"/>
+      <c r="N68" s="169"/>
+      <c r="O68" s="169"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="321"/>
-      <c r="S68" s="322"/>
-      <c r="T68" s="322"/>
-      <c r="U68" s="322"/>
-      <c r="V68" s="323"/>
-      <c r="W68" s="327"/>
-      <c r="X68" s="328"/>
-      <c r="Y68" s="328"/>
-      <c r="Z68" s="328"/>
-      <c r="AA68" s="328"/>
-      <c r="AB68" s="328"/>
-      <c r="AC68" s="328"/>
-      <c r="AD68" s="328"/>
-      <c r="AE68" s="328"/>
-      <c r="AF68" s="328"/>
-      <c r="AG68" s="328"/>
-      <c r="AH68" s="329"/>
-      <c r="AI68" s="282" t="s">
+      <c r="R68" s="176"/>
+      <c r="S68" s="177"/>
+      <c r="T68" s="177"/>
+      <c r="U68" s="177"/>
+      <c r="V68" s="178"/>
+      <c r="W68" s="182"/>
+      <c r="X68" s="183"/>
+      <c r="Y68" s="183"/>
+      <c r="Z68" s="183"/>
+      <c r="AA68" s="183"/>
+      <c r="AB68" s="183"/>
+      <c r="AC68" s="183"/>
+      <c r="AD68" s="183"/>
+      <c r="AE68" s="183"/>
+      <c r="AF68" s="183"/>
+      <c r="AG68" s="183"/>
+      <c r="AH68" s="184"/>
+      <c r="AI68" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="AJ68" s="283"/>
-      <c r="AK68" s="283"/>
-      <c r="AL68" s="283"/>
-      <c r="AM68" s="283"/>
-      <c r="AN68" s="283"/>
-      <c r="AO68" s="283"/>
-      <c r="AP68" s="283"/>
-      <c r="AQ68" s="286"/>
+      <c r="AJ68" s="186"/>
+      <c r="AK68" s="186"/>
+      <c r="AL68" s="186"/>
+      <c r="AM68" s="186"/>
+      <c r="AN68" s="186"/>
+      <c r="AO68" s="186"/>
+      <c r="AP68" s="186"/>
+      <c r="AQ68" s="187"/>
     </row>
     <row r="69" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="314"/>
-      <c r="G69" s="314"/>
-      <c r="H69" s="314"/>
-      <c r="I69" s="314"/>
-      <c r="J69" s="314"/>
-      <c r="K69" s="314"/>
-      <c r="L69" s="314"/>
-      <c r="M69" s="314"/>
-      <c r="N69" s="314"/>
-      <c r="O69" s="314"/>
+      <c r="F69" s="169"/>
+      <c r="G69" s="169"/>
+      <c r="H69" s="169"/>
+      <c r="I69" s="169"/>
+      <c r="J69" s="169"/>
+      <c r="K69" s="169"/>
+      <c r="L69" s="169"/>
+      <c r="M69" s="169"/>
+      <c r="N69" s="169"/>
+      <c r="O69" s="169"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="324"/>
-      <c r="S69" s="325"/>
-      <c r="T69" s="325"/>
-      <c r="U69" s="325"/>
-      <c r="V69" s="326"/>
-      <c r="W69" s="324"/>
-      <c r="X69" s="325"/>
-      <c r="Y69" s="325"/>
-      <c r="Z69" s="325"/>
-      <c r="AA69" s="325"/>
-      <c r="AB69" s="325"/>
-      <c r="AC69" s="325"/>
-      <c r="AD69" s="325"/>
-      <c r="AE69" s="325"/>
-      <c r="AF69" s="325"/>
-      <c r="AG69" s="325"/>
-      <c r="AH69" s="326"/>
-      <c r="AI69" s="330"/>
-      <c r="AJ69" s="331"/>
-      <c r="AK69" s="331"/>
-      <c r="AL69" s="331"/>
-      <c r="AM69" s="331"/>
-      <c r="AN69" s="331"/>
-      <c r="AO69" s="331"/>
-      <c r="AP69" s="331"/>
-      <c r="AQ69" s="332"/>
+      <c r="R69" s="179"/>
+      <c r="S69" s="180"/>
+      <c r="T69" s="180"/>
+      <c r="U69" s="180"/>
+      <c r="V69" s="181"/>
+      <c r="W69" s="179"/>
+      <c r="X69" s="180"/>
+      <c r="Y69" s="180"/>
+      <c r="Z69" s="180"/>
+      <c r="AA69" s="180"/>
+      <c r="AB69" s="180"/>
+      <c r="AC69" s="180"/>
+      <c r="AD69" s="180"/>
+      <c r="AE69" s="180"/>
+      <c r="AF69" s="180"/>
+      <c r="AG69" s="180"/>
+      <c r="AH69" s="181"/>
+      <c r="AI69" s="234"/>
+      <c r="AJ69" s="235"/>
+      <c r="AK69" s="235"/>
+      <c r="AL69" s="235"/>
+      <c r="AM69" s="235"/>
+      <c r="AN69" s="235"/>
+      <c r="AO69" s="235"/>
+      <c r="AP69" s="235"/>
+      <c r="AQ69" s="236"/>
     </row>
     <row r="70" spans="1:43" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="56"/>
@@ -5872,19 +5875,19 @@
       <c r="D73" s="86"/>
       <c r="E73" s="87"/>
       <c r="F73" s="87"/>
-      <c r="G73" s="178" t="s">
+      <c r="G73" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
       <c r="J73" s="41"/>
-      <c r="K73" s="302" t="s">
+      <c r="K73" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="L73" s="302"/>
-      <c r="M73" s="302"/>
-      <c r="N73" s="302"/>
-      <c r="O73" s="302"/>
+      <c r="L73" s="216"/>
+      <c r="M73" s="216"/>
+      <c r="N73" s="216"/>
+      <c r="O73" s="216"/>
       <c r="P73" s="86"/>
       <c r="Q73" s="86"/>
       <c r="R73" s="86"/>
@@ -5904,15 +5907,15 @@
       <c r="AF73" s="86"/>
       <c r="AG73" s="88"/>
       <c r="AH73" s="88"/>
-      <c r="AI73" s="308" t="s">
+      <c r="AI73" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="AJ73" s="308"/>
-      <c r="AK73" s="308"/>
-      <c r="AL73" s="308"/>
-      <c r="AM73" s="308"/>
-      <c r="AN73" s="308"/>
-      <c r="AO73" s="308"/>
+      <c r="AJ73" s="237"/>
+      <c r="AK73" s="237"/>
+      <c r="AL73" s="237"/>
+      <c r="AM73" s="237"/>
+      <c r="AN73" s="237"/>
+      <c r="AO73" s="237"/>
       <c r="AP73" s="82"/>
       <c r="AQ73" s="84"/>
     </row>
@@ -5927,32 +5930,32 @@
       <c r="F74" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="298"/>
-      <c r="H74" s="298"/>
-      <c r="I74" s="298"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="238"/>
+      <c r="I74" s="238"/>
       <c r="J74" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="K74" s="309"/>
-      <c r="L74" s="309"/>
-      <c r="M74" s="309"/>
-      <c r="N74" s="309"/>
-      <c r="O74" s="309"/>
+      <c r="K74" s="239"/>
+      <c r="L74" s="239"/>
+      <c r="M74" s="239"/>
+      <c r="N74" s="239"/>
+      <c r="O74" s="239"/>
       <c r="P74" s="82" t="s">
         <v>50</v>
       </c>
       <c r="Q74" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R74" s="306">
+      <c r="R74" s="240">
         <f>G74*K74</f>
         <v>0</v>
       </c>
-      <c r="S74" s="306"/>
-      <c r="T74" s="306"/>
-      <c r="U74" s="306"/>
-      <c r="V74" s="306"/>
-      <c r="W74" s="306"/>
+      <c r="S74" s="240"/>
+      <c r="T74" s="240"/>
+      <c r="U74" s="240"/>
+      <c r="V74" s="240"/>
+      <c r="W74" s="240"/>
       <c r="X74" s="82"/>
       <c r="Y74" s="82"/>
       <c r="Z74" s="82"/>
@@ -5969,15 +5972,15 @@
       <c r="AI74" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ74" s="294">
+      <c r="AJ74" s="241">
         <f>+R74</f>
         <v>0</v>
       </c>
-      <c r="AK74" s="294"/>
-      <c r="AL74" s="294"/>
-      <c r="AM74" s="294"/>
-      <c r="AN74" s="294"/>
-      <c r="AO74" s="294"/>
+      <c r="AK74" s="241"/>
+      <c r="AL74" s="241"/>
+      <c r="AM74" s="241"/>
+      <c r="AN74" s="241"/>
+      <c r="AO74" s="241"/>
       <c r="AP74" s="83"/>
       <c r="AQ74" s="84"/>
     </row>
@@ -5988,19 +5991,19 @@
       <c r="D75" s="82"/>
       <c r="E75" s="55"/>
       <c r="F75" s="55"/>
-      <c r="G75" s="310" t="s">
+      <c r="G75" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="310"/>
-      <c r="I75" s="310"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
       <c r="J75" s="89"/>
-      <c r="K75" s="296" t="s">
+      <c r="K75" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="296"/>
-      <c r="M75" s="296"/>
-      <c r="N75" s="296"/>
-      <c r="O75" s="296"/>
+      <c r="L75" s="243"/>
+      <c r="M75" s="243"/>
+      <c r="N75" s="243"/>
+      <c r="O75" s="243"/>
       <c r="P75" s="82"/>
       <c r="Q75" s="82"/>
       <c r="R75" s="82"/>
@@ -6041,32 +6044,32 @@
       <c r="F76" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="304"/>
-      <c r="H76" s="304"/>
-      <c r="I76" s="304"/>
+      <c r="G76" s="244"/>
+      <c r="H76" s="244"/>
+      <c r="I76" s="244"/>
       <c r="J76" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="305"/>
-      <c r="L76" s="305"/>
-      <c r="M76" s="305"/>
-      <c r="N76" s="305"/>
-      <c r="O76" s="305"/>
+      <c r="K76" s="245"/>
+      <c r="L76" s="245"/>
+      <c r="M76" s="245"/>
+      <c r="N76" s="245"/>
+      <c r="O76" s="245"/>
       <c r="P76" s="82" t="s">
         <v>50</v>
       </c>
       <c r="Q76" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="306">
+      <c r="R76" s="240">
         <f>G76*K76</f>
         <v>0</v>
       </c>
-      <c r="S76" s="306"/>
-      <c r="T76" s="306"/>
-      <c r="U76" s="306"/>
-      <c r="V76" s="306"/>
-      <c r="W76" s="306"/>
+      <c r="S76" s="240"/>
+      <c r="T76" s="240"/>
+      <c r="U76" s="240"/>
+      <c r="V76" s="240"/>
+      <c r="W76" s="240"/>
       <c r="X76" s="82"/>
       <c r="Y76" s="82"/>
       <c r="Z76" s="82"/>
@@ -6083,15 +6086,15 @@
       <c r="AI76" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ76" s="294">
+      <c r="AJ76" s="241">
         <f>+R76</f>
         <v>0</v>
       </c>
-      <c r="AK76" s="294"/>
-      <c r="AL76" s="294"/>
-      <c r="AM76" s="294"/>
-      <c r="AN76" s="294"/>
-      <c r="AO76" s="294"/>
+      <c r="AK76" s="241"/>
+      <c r="AL76" s="241"/>
+      <c r="AM76" s="241"/>
+      <c r="AN76" s="241"/>
+      <c r="AO76" s="241"/>
       <c r="AP76" s="83"/>
       <c r="AQ76" s="84"/>
     </row>
@@ -6182,15 +6185,15 @@
       <c r="AI78" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ78" s="294">
+      <c r="AJ78" s="241">
         <f>+AJ74+AJ76</f>
         <v>0</v>
       </c>
-      <c r="AK78" s="294"/>
-      <c r="AL78" s="294"/>
-      <c r="AM78" s="294"/>
-      <c r="AN78" s="294"/>
-      <c r="AO78" s="294"/>
+      <c r="AK78" s="241"/>
+      <c r="AL78" s="241"/>
+      <c r="AM78" s="241"/>
+      <c r="AN78" s="241"/>
+      <c r="AO78" s="241"/>
       <c r="AP78" s="83"/>
       <c r="AQ78" s="84"/>
     </row>
@@ -6207,23 +6210,23 @@
         <v>53</v>
       </c>
       <c r="J79" s="82"/>
-      <c r="K79" s="307"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="307"/>
-      <c r="O79" s="307"/>
-      <c r="P79" s="307"/>
-      <c r="Q79" s="307"/>
-      <c r="R79" s="307"/>
-      <c r="S79" s="175">
+      <c r="K79" s="246"/>
+      <c r="L79" s="246"/>
+      <c r="M79" s="246"/>
+      <c r="N79" s="246"/>
+      <c r="O79" s="246"/>
+      <c r="P79" s="246"/>
+      <c r="Q79" s="246"/>
+      <c r="R79" s="246"/>
+      <c r="S79" s="354">
         <v>0</v>
       </c>
-      <c r="T79" s="175"/>
-      <c r="U79" s="176" t="s">
+      <c r="T79" s="354"/>
+      <c r="U79" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="V79" s="177"/>
-      <c r="W79" s="177"/>
+      <c r="V79" s="356"/>
+      <c r="W79" s="356"/>
       <c r="X79" s="82"/>
       <c r="Y79" s="82"/>
       <c r="Z79" s="82"/>
@@ -6242,15 +6245,15 @@
       <c r="AI79" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ79" s="295">
+      <c r="AJ79" s="247">
         <f>AJ78*S79</f>
         <v>0</v>
       </c>
-      <c r="AK79" s="295"/>
-      <c r="AL79" s="295"/>
-      <c r="AM79" s="295"/>
-      <c r="AN79" s="295"/>
-      <c r="AO79" s="295"/>
+      <c r="AK79" s="247"/>
+      <c r="AL79" s="247"/>
+      <c r="AM79" s="247"/>
+      <c r="AN79" s="247"/>
+      <c r="AO79" s="247"/>
       <c r="AP79" s="83"/>
       <c r="AQ79" s="84"/>
     </row>
@@ -6296,15 +6299,15 @@
       <c r="AI80" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AJ80" s="295">
+      <c r="AJ80" s="247">
         <f xml:space="preserve"> AJ78+ AJ79</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="295"/>
-      <c r="AL80" s="295"/>
-      <c r="AM80" s="295"/>
-      <c r="AN80" s="295"/>
-      <c r="AO80" s="295"/>
+      <c r="AK80" s="247"/>
+      <c r="AL80" s="247"/>
+      <c r="AM80" s="247"/>
+      <c r="AN80" s="247"/>
+      <c r="AO80" s="247"/>
       <c r="AP80" s="83"/>
       <c r="AQ80" s="84"/>
     </row>
@@ -6372,27 +6375,27 @@
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="302" t="s">
+      <c r="M82" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="N82" s="302"/>
-      <c r="O82" s="302"/>
-      <c r="P82" s="302"/>
+      <c r="N82" s="216"/>
+      <c r="O82" s="216"/>
+      <c r="P82" s="216"/>
       <c r="Q82" s="43"/>
-      <c r="R82" s="302"/>
-      <c r="S82" s="302"/>
-      <c r="T82" s="302"/>
-      <c r="U82" s="302"/>
+      <c r="R82" s="216"/>
+      <c r="S82" s="216"/>
+      <c r="T82" s="216"/>
+      <c r="U82" s="216"/>
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
-      <c r="X82" s="302" t="s">
+      <c r="X82" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="302"/>
-      <c r="Z82" s="302"/>
-      <c r="AA82" s="302"/>
-      <c r="AB82" s="302"/>
-      <c r="AC82" s="302"/>
+      <c r="Y82" s="216"/>
+      <c r="Z82" s="216"/>
+      <c r="AA82" s="216"/>
+      <c r="AB82" s="216"/>
+      <c r="AC82" s="216"/>
       <c r="AD82" s="43"/>
       <c r="AE82" s="43"/>
       <c r="AF82" s="44"/>
@@ -6413,11 +6416,11 @@
     <row r="83" spans="1:43" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="297" t="s">
+      <c r="C83" s="248" t="s">
         <v>60</v>
       </c>
-      <c r="D83" s="297"/>
-      <c r="E83" s="297"/>
+      <c r="D83" s="248"/>
+      <c r="E83" s="248"/>
       <c r="F83" s="13" t="s">
         <v>48</v>
       </c>
@@ -6435,33 +6438,33 @@
       <c r="L83" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M83" s="294">
+      <c r="M83" s="241">
         <f>+J83*G83</f>
         <v>0</v>
       </c>
-      <c r="N83" s="294"/>
-      <c r="O83" s="294"/>
-      <c r="P83" s="294"/>
+      <c r="N83" s="241"/>
+      <c r="O83" s="241"/>
+      <c r="P83" s="241"/>
       <c r="Q83" s="103"/>
-      <c r="R83" s="303"/>
-      <c r="S83" s="303"/>
-      <c r="T83" s="303"/>
-      <c r="U83" s="303"/>
+      <c r="R83" s="249"/>
+      <c r="S83" s="249"/>
+      <c r="T83" s="249"/>
+      <c r="U83" s="249"/>
       <c r="V83" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W83" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X83" s="294">
+      <c r="X83" s="241">
         <f>+M83+R83</f>
         <v>0</v>
       </c>
-      <c r="Y83" s="294"/>
-      <c r="Z83" s="294"/>
-      <c r="AA83" s="294"/>
-      <c r="AB83" s="294"/>
-      <c r="AC83" s="294"/>
+      <c r="Y83" s="241"/>
+      <c r="Z83" s="241"/>
+      <c r="AA83" s="241"/>
+      <c r="AB83" s="241"/>
+      <c r="AC83" s="241"/>
       <c r="AD83" s="104"/>
       <c r="AE83" s="104"/>
       <c r="AF83" s="105"/>
@@ -6470,15 +6473,15 @@
       <c r="AI83" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ83" s="294">
+      <c r="AJ83" s="241">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="AK83" s="294"/>
-      <c r="AL83" s="294"/>
-      <c r="AM83" s="294"/>
-      <c r="AN83" s="294"/>
-      <c r="AO83" s="294"/>
+      <c r="AK83" s="241"/>
+      <c r="AL83" s="241"/>
+      <c r="AM83" s="241"/>
+      <c r="AN83" s="241"/>
+      <c r="AO83" s="241"/>
       <c r="AP83" s="106"/>
       <c r="AQ83" s="107"/>
     </row>
@@ -6499,27 +6502,27 @@
       </c>
       <c r="K84" s="43"/>
       <c r="L84" s="43"/>
-      <c r="M84" s="296" t="s">
+      <c r="M84" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N84" s="296"/>
-      <c r="O84" s="296"/>
-      <c r="P84" s="296"/>
+      <c r="N84" s="243"/>
+      <c r="O84" s="243"/>
+      <c r="P84" s="243"/>
       <c r="Q84" s="43"/>
-      <c r="R84" s="302"/>
-      <c r="S84" s="302"/>
-      <c r="T84" s="302"/>
-      <c r="U84" s="302"/>
+      <c r="R84" s="216"/>
+      <c r="S84" s="216"/>
+      <c r="T84" s="216"/>
+      <c r="U84" s="216"/>
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
-      <c r="X84" s="296" t="s">
+      <c r="X84" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="296"/>
-      <c r="Z84" s="296"/>
-      <c r="AA84" s="296"/>
-      <c r="AB84" s="296"/>
-      <c r="AC84" s="296"/>
+      <c r="Y84" s="243"/>
+      <c r="Z84" s="243"/>
+      <c r="AA84" s="243"/>
+      <c r="AB84" s="243"/>
+      <c r="AC84" s="243"/>
       <c r="AD84" s="43"/>
       <c r="AE84" s="43"/>
       <c r="AF84" s="44"/>
@@ -6537,11 +6540,11 @@
     </row>
     <row r="85" spans="1:43" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="12"/>
-      <c r="C85" s="297" t="s">
+      <c r="C85" s="248" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="297"/>
-      <c r="E85" s="297"/>
+      <c r="D85" s="248"/>
+      <c r="E85" s="248"/>
       <c r="F85" s="13" t="s">
         <v>48</v>
       </c>
@@ -6559,33 +6562,33 @@
       <c r="L85" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M85" s="294">
+      <c r="M85" s="241">
         <f>+J85*G85</f>
         <v>0</v>
       </c>
-      <c r="N85" s="294"/>
-      <c r="O85" s="294"/>
-      <c r="P85" s="294"/>
+      <c r="N85" s="241"/>
+      <c r="O85" s="241"/>
+      <c r="P85" s="241"/>
       <c r="Q85" s="103"/>
-      <c r="R85" s="303"/>
-      <c r="S85" s="303"/>
-      <c r="T85" s="303"/>
-      <c r="U85" s="303"/>
+      <c r="R85" s="249"/>
+      <c r="S85" s="249"/>
+      <c r="T85" s="249"/>
+      <c r="U85" s="249"/>
       <c r="V85" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W85" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X85" s="294">
+      <c r="X85" s="241">
         <f>+M85+R85</f>
         <v>0</v>
       </c>
-      <c r="Y85" s="294"/>
-      <c r="Z85" s="294"/>
-      <c r="AA85" s="294"/>
-      <c r="AB85" s="294"/>
-      <c r="AC85" s="294"/>
+      <c r="Y85" s="241"/>
+      <c r="Z85" s="241"/>
+      <c r="AA85" s="241"/>
+      <c r="AB85" s="241"/>
+      <c r="AC85" s="241"/>
       <c r="AD85" s="104"/>
       <c r="AE85" s="104"/>
       <c r="AF85" s="105"/>
@@ -6618,27 +6621,27 @@
       </c>
       <c r="K86" s="43"/>
       <c r="L86" s="43"/>
-      <c r="M86" s="296" t="s">
+      <c r="M86" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N86" s="296"/>
-      <c r="O86" s="296"/>
-      <c r="P86" s="296"/>
+      <c r="N86" s="243"/>
+      <c r="O86" s="243"/>
+      <c r="P86" s="243"/>
       <c r="Q86" s="43"/>
-      <c r="R86" s="302"/>
-      <c r="S86" s="302"/>
-      <c r="T86" s="302"/>
-      <c r="U86" s="302"/>
+      <c r="R86" s="216"/>
+      <c r="S86" s="216"/>
+      <c r="T86" s="216"/>
+      <c r="U86" s="216"/>
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
-      <c r="X86" s="296" t="s">
+      <c r="X86" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="296"/>
-      <c r="Z86" s="296"/>
-      <c r="AA86" s="296"/>
-      <c r="AB86" s="296"/>
-      <c r="AC86" s="296"/>
+      <c r="Y86" s="243"/>
+      <c r="Z86" s="243"/>
+      <c r="AA86" s="243"/>
+      <c r="AB86" s="243"/>
+      <c r="AC86" s="243"/>
       <c r="AD86" s="43"/>
       <c r="AE86" s="43"/>
       <c r="AF86" s="44"/>
@@ -6659,11 +6662,11 @@
     <row r="87" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="297" t="s">
+      <c r="C87" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="297"/>
-      <c r="E87" s="297"/>
+      <c r="D87" s="248"/>
+      <c r="E87" s="248"/>
       <c r="F87" s="13" t="s">
         <v>48</v>
       </c>
@@ -6681,33 +6684,33 @@
       <c r="L87" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M87" s="294">
+      <c r="M87" s="241">
         <f>+J87*G87</f>
         <v>0</v>
       </c>
-      <c r="N87" s="294"/>
-      <c r="O87" s="294"/>
-      <c r="P87" s="294"/>
+      <c r="N87" s="241"/>
+      <c r="O87" s="241"/>
+      <c r="P87" s="241"/>
       <c r="Q87" s="103"/>
-      <c r="R87" s="303"/>
-      <c r="S87" s="303"/>
-      <c r="T87" s="303"/>
-      <c r="U87" s="303"/>
+      <c r="R87" s="249"/>
+      <c r="S87" s="249"/>
+      <c r="T87" s="249"/>
+      <c r="U87" s="249"/>
       <c r="V87" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W87" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X87" s="294">
+      <c r="X87" s="241">
         <f>+M87+R87</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="294"/>
-      <c r="Z87" s="294"/>
-      <c r="AA87" s="294"/>
-      <c r="AB87" s="294"/>
-      <c r="AC87" s="294"/>
+      <c r="Y87" s="241"/>
+      <c r="Z87" s="241"/>
+      <c r="AA87" s="241"/>
+      <c r="AB87" s="241"/>
+      <c r="AC87" s="241"/>
       <c r="AD87" s="104"/>
       <c r="AE87" s="104"/>
       <c r="AF87" s="105"/>
@@ -6716,15 +6719,15 @@
       <c r="AI87" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ87" s="294">
+      <c r="AJ87" s="241">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="AK87" s="294"/>
-      <c r="AL87" s="294"/>
-      <c r="AM87" s="294"/>
-      <c r="AN87" s="294"/>
-      <c r="AO87" s="294"/>
+      <c r="AK87" s="241"/>
+      <c r="AL87" s="241"/>
+      <c r="AM87" s="241"/>
+      <c r="AN87" s="241"/>
+      <c r="AO87" s="241"/>
       <c r="AP87" s="106"/>
       <c r="AQ87" s="107"/>
     </row>
@@ -6745,27 +6748,27 @@
       </c>
       <c r="K88" s="43"/>
       <c r="L88" s="43"/>
-      <c r="M88" s="296" t="s">
+      <c r="M88" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N88" s="296"/>
-      <c r="O88" s="296"/>
-      <c r="P88" s="296"/>
+      <c r="N88" s="243"/>
+      <c r="O88" s="243"/>
+      <c r="P88" s="243"/>
       <c r="Q88" s="43"/>
-      <c r="R88" s="302"/>
-      <c r="S88" s="302"/>
-      <c r="T88" s="302"/>
-      <c r="U88" s="302"/>
+      <c r="R88" s="216"/>
+      <c r="S88" s="216"/>
+      <c r="T88" s="216"/>
+      <c r="U88" s="216"/>
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
-      <c r="X88" s="296" t="s">
+      <c r="X88" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="296"/>
-      <c r="Z88" s="296"/>
-      <c r="AA88" s="296"/>
-      <c r="AB88" s="296"/>
-      <c r="AC88" s="296"/>
+      <c r="Y88" s="243"/>
+      <c r="Z88" s="243"/>
+      <c r="AA88" s="243"/>
+      <c r="AB88" s="243"/>
+      <c r="AC88" s="243"/>
       <c r="AD88" s="43"/>
       <c r="AE88" s="43"/>
       <c r="AF88" s="44"/>
@@ -6784,11 +6787,11 @@
     <row r="89" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14"/>
       <c r="B89" s="108"/>
-      <c r="C89" s="297" t="s">
+      <c r="C89" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="297"/>
-      <c r="E89" s="297"/>
+      <c r="D89" s="248"/>
+      <c r="E89" s="248"/>
       <c r="F89" s="13" t="s">
         <v>48</v>
       </c>
@@ -6806,33 +6809,33 @@
       <c r="L89" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M89" s="294">
+      <c r="M89" s="241">
         <f>+J89*G89</f>
         <v>0</v>
       </c>
-      <c r="N89" s="294"/>
-      <c r="O89" s="294"/>
-      <c r="P89" s="294"/>
+      <c r="N89" s="241"/>
+      <c r="O89" s="241"/>
+      <c r="P89" s="241"/>
       <c r="Q89" s="103"/>
-      <c r="R89" s="300"/>
-      <c r="S89" s="300"/>
-      <c r="T89" s="300"/>
-      <c r="U89" s="300"/>
+      <c r="R89" s="250"/>
+      <c r="S89" s="250"/>
+      <c r="T89" s="250"/>
+      <c r="U89" s="250"/>
       <c r="V89" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W89" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X89" s="294">
+      <c r="X89" s="241">
         <f>M89</f>
         <v>0</v>
       </c>
-      <c r="Y89" s="294"/>
-      <c r="Z89" s="294"/>
-      <c r="AA89" s="294"/>
-      <c r="AB89" s="294"/>
-      <c r="AC89" s="294"/>
+      <c r="Y89" s="241"/>
+      <c r="Z89" s="241"/>
+      <c r="AA89" s="241"/>
+      <c r="AB89" s="241"/>
+      <c r="AC89" s="241"/>
       <c r="AD89" s="104"/>
       <c r="AE89" s="104"/>
       <c r="AF89" s="105"/>
@@ -6865,29 +6868,29 @@
       </c>
       <c r="K90" s="43"/>
       <c r="L90" s="43"/>
-      <c r="M90" s="296" t="s">
+      <c r="M90" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N90" s="296"/>
-      <c r="O90" s="296"/>
-      <c r="P90" s="296"/>
+      <c r="N90" s="243"/>
+      <c r="O90" s="243"/>
+      <c r="P90" s="243"/>
       <c r="Q90" s="43"/>
-      <c r="R90" s="301" t="s">
+      <c r="R90" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="S90" s="301"/>
-      <c r="T90" s="301"/>
-      <c r="U90" s="301"/>
+      <c r="S90" s="251"/>
+      <c r="T90" s="251"/>
+      <c r="U90" s="251"/>
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="296" t="s">
+      <c r="X90" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="296"/>
-      <c r="Z90" s="296"/>
-      <c r="AA90" s="296"/>
-      <c r="AB90" s="296"/>
-      <c r="AC90" s="296"/>
+      <c r="Y90" s="243"/>
+      <c r="Z90" s="243"/>
+      <c r="AA90" s="243"/>
+      <c r="AB90" s="243"/>
+      <c r="AC90" s="243"/>
       <c r="AD90" s="43"/>
       <c r="AE90" s="43"/>
       <c r="AF90" s="44"/>
@@ -6908,11 +6911,11 @@
     <row r="91" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="108"/>
-      <c r="C91" s="297" t="s">
+      <c r="C91" s="248" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="297"/>
-      <c r="E91" s="297"/>
+      <c r="D91" s="248"/>
+      <c r="E91" s="248"/>
       <c r="F91" s="13" t="s">
         <v>48</v>
       </c>
@@ -6928,38 +6931,38 @@
       <c r="L91" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M91" s="294">
+      <c r="M91" s="241">
         <f>+J91*G91</f>
         <v>0</v>
       </c>
-      <c r="N91" s="294"/>
-      <c r="O91" s="294"/>
-      <c r="P91" s="294"/>
+      <c r="N91" s="241"/>
+      <c r="O91" s="241"/>
+      <c r="P91" s="241"/>
       <c r="Q91" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R91" s="294">
+      <c r="R91" s="241">
         <f>PRODUCT(M91, S79)</f>
         <v>0</v>
       </c>
-      <c r="S91" s="294"/>
-      <c r="T91" s="294"/>
-      <c r="U91" s="294"/>
+      <c r="S91" s="241"/>
+      <c r="T91" s="241"/>
+      <c r="U91" s="241"/>
       <c r="V91" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W91" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X91" s="294">
+      <c r="X91" s="241">
         <f>+M91+R91</f>
         <v>0</v>
       </c>
-      <c r="Y91" s="294"/>
-      <c r="Z91" s="294"/>
-      <c r="AA91" s="294"/>
-      <c r="AB91" s="294"/>
-      <c r="AC91" s="294"/>
+      <c r="Y91" s="241"/>
+      <c r="Z91" s="241"/>
+      <c r="AA91" s="241"/>
+      <c r="AB91" s="241"/>
+      <c r="AC91" s="241"/>
       <c r="AD91" s="104"/>
       <c r="AE91" s="104"/>
       <c r="AF91" s="105"/>
@@ -6968,15 +6971,15 @@
       <c r="AI91" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AJ91" s="294">
+      <c r="AJ91" s="241">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="AK91" s="294"/>
-      <c r="AL91" s="294"/>
-      <c r="AM91" s="294"/>
-      <c r="AN91" s="294"/>
-      <c r="AO91" s="294"/>
+      <c r="AK91" s="241"/>
+      <c r="AL91" s="241"/>
+      <c r="AM91" s="241"/>
+      <c r="AN91" s="241"/>
+      <c r="AO91" s="241"/>
       <c r="AP91" s="106"/>
       <c r="AQ91" s="109"/>
     </row>
@@ -6993,29 +6996,29 @@
       <c r="J92" s="43"/>
       <c r="K92" s="43"/>
       <c r="L92" s="43"/>
-      <c r="M92" s="296" t="s">
+      <c r="M92" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N92" s="296"/>
-      <c r="O92" s="296"/>
-      <c r="P92" s="296"/>
+      <c r="N92" s="243"/>
+      <c r="O92" s="243"/>
+      <c r="P92" s="243"/>
       <c r="Q92" s="43"/>
-      <c r="R92" s="296" t="s">
+      <c r="R92" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="S92" s="296"/>
-      <c r="T92" s="296"/>
-      <c r="U92" s="296"/>
+      <c r="S92" s="243"/>
+      <c r="T92" s="243"/>
+      <c r="U92" s="243"/>
       <c r="V92" s="43"/>
       <c r="W92" s="43"/>
-      <c r="X92" s="296" t="s">
+      <c r="X92" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="296"/>
-      <c r="Z92" s="296"/>
-      <c r="AA92" s="296"/>
-      <c r="AB92" s="296"/>
-      <c r="AC92" s="296"/>
+      <c r="Y92" s="243"/>
+      <c r="Z92" s="243"/>
+      <c r="AA92" s="243"/>
+      <c r="AB92" s="243"/>
+      <c r="AC92" s="243"/>
       <c r="AD92" s="43"/>
       <c r="AE92" s="43"/>
       <c r="AF92" s="114"/>
@@ -7034,56 +7037,56 @@
     <row r="93" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14"/>
       <c r="B93" s="108"/>
-      <c r="C93" s="297" t="s">
+      <c r="C93" s="248" t="s">
         <v>69</v>
       </c>
-      <c r="D93" s="297"/>
-      <c r="E93" s="297"/>
+      <c r="D93" s="248"/>
+      <c r="E93" s="248"/>
       <c r="F93" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="298"/>
-      <c r="H93" s="298"/>
-      <c r="I93" s="298"/>
-      <c r="J93" s="298"/>
+      <c r="G93" s="238"/>
+      <c r="H93" s="238"/>
+      <c r="I93" s="238"/>
+      <c r="J93" s="238"/>
       <c r="K93" s="103" t="s">
         <v>50</v>
       </c>
       <c r="L93" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M93" s="294">
+      <c r="M93" s="241">
         <f>+G93</f>
         <v>0</v>
       </c>
-      <c r="N93" s="294"/>
-      <c r="O93" s="294"/>
-      <c r="P93" s="294"/>
+      <c r="N93" s="241"/>
+      <c r="O93" s="241"/>
+      <c r="P93" s="241"/>
       <c r="Q93" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R93" s="294">
+      <c r="R93" s="241">
         <f>PRODUCT(M93, S83)</f>
         <v>0</v>
       </c>
-      <c r="S93" s="294"/>
-      <c r="T93" s="294"/>
-      <c r="U93" s="294"/>
+      <c r="S93" s="241"/>
+      <c r="T93" s="241"/>
+      <c r="U93" s="241"/>
       <c r="V93" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W93" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X93" s="294">
+      <c r="X93" s="241">
         <f>+M93+R93</f>
         <v>0</v>
       </c>
-      <c r="Y93" s="294"/>
-      <c r="Z93" s="294"/>
-      <c r="AA93" s="294"/>
-      <c r="AB93" s="294"/>
-      <c r="AC93" s="294"/>
+      <c r="Y93" s="241"/>
+      <c r="Z93" s="241"/>
+      <c r="AA93" s="241"/>
+      <c r="AB93" s="241"/>
+      <c r="AC93" s="241"/>
       <c r="AD93" s="104"/>
       <c r="AE93" s="104"/>
       <c r="AF93" s="27"/>
@@ -7112,29 +7115,29 @@
       <c r="J94" s="43"/>
       <c r="K94" s="43"/>
       <c r="L94" s="43"/>
-      <c r="M94" s="296" t="s">
+      <c r="M94" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N94" s="296"/>
-      <c r="O94" s="296"/>
-      <c r="P94" s="296"/>
+      <c r="N94" s="243"/>
+      <c r="O94" s="243"/>
+      <c r="P94" s="243"/>
       <c r="Q94" s="43"/>
-      <c r="R94" s="296" t="s">
+      <c r="R94" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="S94" s="296"/>
-      <c r="T94" s="296"/>
-      <c r="U94" s="296"/>
+      <c r="S94" s="243"/>
+      <c r="T94" s="243"/>
+      <c r="U94" s="243"/>
       <c r="V94" s="43"/>
       <c r="W94" s="43"/>
-      <c r="X94" s="296" t="s">
+      <c r="X94" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="296"/>
-      <c r="Z94" s="296"/>
-      <c r="AA94" s="296"/>
-      <c r="AB94" s="296"/>
-      <c r="AC94" s="296"/>
+      <c r="Y94" s="243"/>
+      <c r="Z94" s="243"/>
+      <c r="AA94" s="243"/>
+      <c r="AB94" s="243"/>
+      <c r="AC94" s="243"/>
       <c r="AD94" s="43"/>
       <c r="AE94" s="43"/>
       <c r="AF94" s="116"/>
@@ -7155,56 +7158,56 @@
     <row r="95" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="B95" s="108"/>
-      <c r="C95" s="297" t="s">
+      <c r="C95" s="248" t="s">
         <v>71</v>
       </c>
-      <c r="D95" s="297"/>
-      <c r="E95" s="297"/>
+      <c r="D95" s="248"/>
+      <c r="E95" s="248"/>
       <c r="F95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="298"/>
-      <c r="H95" s="298"/>
-      <c r="I95" s="298"/>
-      <c r="J95" s="298"/>
+      <c r="G95" s="238"/>
+      <c r="H95" s="238"/>
+      <c r="I95" s="238"/>
+      <c r="J95" s="238"/>
       <c r="K95" s="103" t="s">
         <v>50</v>
       </c>
       <c r="L95" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="M95" s="294">
+      <c r="M95" s="241">
         <f>+G95</f>
         <v>0</v>
       </c>
-      <c r="N95" s="294"/>
-      <c r="O95" s="294"/>
-      <c r="P95" s="294"/>
+      <c r="N95" s="241"/>
+      <c r="O95" s="241"/>
+      <c r="P95" s="241"/>
       <c r="Q95" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="R95" s="294">
+      <c r="R95" s="241">
         <f>PRODUCT(M95, S79)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="294"/>
-      <c r="T95" s="294"/>
-      <c r="U95" s="294"/>
+      <c r="S95" s="241"/>
+      <c r="T95" s="241"/>
+      <c r="U95" s="241"/>
       <c r="V95" s="101" t="s">
         <v>50</v>
       </c>
       <c r="W95" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="X95" s="294">
+      <c r="X95" s="241">
         <f>+M95+R95</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="294"/>
-      <c r="Z95" s="294"/>
-      <c r="AA95" s="294"/>
-      <c r="AB95" s="294"/>
-      <c r="AC95" s="294"/>
+      <c r="Y95" s="241"/>
+      <c r="Z95" s="241"/>
+      <c r="AA95" s="241"/>
+      <c r="AB95" s="241"/>
+      <c r="AC95" s="241"/>
       <c r="AD95" s="104"/>
       <c r="AE95" s="104"/>
       <c r="AF95" s="27"/>
@@ -7213,15 +7216,15 @@
       <c r="AI95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AJ95" s="299">
+      <c r="AJ95" s="252">
         <f>AJ80+AJ91</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="299"/>
-      <c r="AL95" s="299"/>
-      <c r="AM95" s="299"/>
-      <c r="AN95" s="299"/>
-      <c r="AO95" s="299"/>
+      <c r="AK95" s="252"/>
+      <c r="AL95" s="252"/>
+      <c r="AM95" s="252"/>
+      <c r="AN95" s="252"/>
+      <c r="AO95" s="252"/>
       <c r="AP95" s="106"/>
       <c r="AQ95" s="109"/>
     </row>
@@ -7281,30 +7284,30 @@
       <c r="I97" s="55"/>
       <c r="J97" s="55"/>
       <c r="K97" s="55"/>
-      <c r="L97" s="178" t="s">
+      <c r="L97" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="M97" s="178"/>
-      <c r="N97" s="178"/>
-      <c r="O97" s="178"/>
-      <c r="P97" s="178"/>
-      <c r="Q97" s="178"/>
-      <c r="R97" s="178" t="s">
+      <c r="M97" s="215"/>
+      <c r="N97" s="215"/>
+      <c r="O97" s="215"/>
+      <c r="P97" s="215"/>
+      <c r="Q97" s="215"/>
+      <c r="R97" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="S97" s="178"/>
-      <c r="T97" s="178"/>
-      <c r="U97" s="178"/>
+      <c r="S97" s="215"/>
+      <c r="T97" s="215"/>
+      <c r="U97" s="215"/>
       <c r="V97" s="43"/>
       <c r="W97" s="43"/>
-      <c r="X97" s="178" t="s">
+      <c r="X97" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="Y97" s="178"/>
-      <c r="Z97" s="178"/>
-      <c r="AA97" s="178"/>
-      <c r="AB97" s="178"/>
-      <c r="AC97" s="178"/>
+      <c r="Y97" s="215"/>
+      <c r="Z97" s="215"/>
+      <c r="AA97" s="215"/>
+      <c r="AB97" s="215"/>
+      <c r="AC97" s="215"/>
       <c r="AD97" s="41"/>
       <c r="AE97" s="41"/>
       <c r="AF97" s="55"/>
@@ -7329,39 +7332,39 @@
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="293" t="s">
+      <c r="J98" s="253" t="s">
         <v>74</v>
       </c>
-      <c r="K98" s="293"/>
-      <c r="L98" s="293"/>
-      <c r="M98" s="294">
+      <c r="K98" s="253"/>
+      <c r="L98" s="253"/>
+      <c r="M98" s="241">
         <f>+M83+M85+M87+M89+M91+M93+M95</f>
         <v>0</v>
       </c>
-      <c r="N98" s="294"/>
-      <c r="O98" s="294"/>
-      <c r="P98" s="294"/>
+      <c r="N98" s="241"/>
+      <c r="O98" s="241"/>
+      <c r="P98" s="241"/>
       <c r="Q98" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R98" s="294">
+      <c r="R98" s="241">
         <f>+R91+R93+R95+R89</f>
         <v>0</v>
       </c>
-      <c r="S98" s="294"/>
-      <c r="T98" s="294"/>
-      <c r="U98" s="294"/>
+      <c r="S98" s="241"/>
+      <c r="T98" s="241"/>
+      <c r="U98" s="241"/>
       <c r="V98" s="13"/>
       <c r="W98" s="13"/>
-      <c r="X98" s="294">
+      <c r="X98" s="241">
         <f>+X83+X85+X87+X89+X91+X93+X95</f>
         <v>0</v>
       </c>
-      <c r="Y98" s="294"/>
-      <c r="Z98" s="294"/>
-      <c r="AA98" s="294"/>
-      <c r="AB98" s="294"/>
-      <c r="AC98" s="294"/>
+      <c r="Y98" s="241"/>
+      <c r="Z98" s="241"/>
+      <c r="AA98" s="241"/>
+      <c r="AB98" s="241"/>
+      <c r="AC98" s="241"/>
       <c r="AD98" s="101"/>
       <c r="AE98" s="101"/>
       <c r="AF98" s="55"/>
@@ -7460,12 +7463,12 @@
       <c r="AI100" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AJ100" s="294"/>
-      <c r="AK100" s="294"/>
-      <c r="AL100" s="294"/>
-      <c r="AM100" s="294"/>
-      <c r="AN100" s="294"/>
-      <c r="AO100" s="294"/>
+      <c r="AJ100" s="241"/>
+      <c r="AK100" s="241"/>
+      <c r="AL100" s="241"/>
+      <c r="AM100" s="241"/>
+      <c r="AN100" s="241"/>
+      <c r="AO100" s="241"/>
       <c r="AP100" s="83"/>
       <c r="AQ100" s="122"/>
     </row>
@@ -7510,12 +7513,12 @@
       <c r="AI101" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AJ101" s="295"/>
-      <c r="AK101" s="295"/>
-      <c r="AL101" s="295"/>
-      <c r="AM101" s="295"/>
-      <c r="AN101" s="295"/>
-      <c r="AO101" s="295"/>
+      <c r="AJ101" s="247"/>
+      <c r="AK101" s="247"/>
+      <c r="AL101" s="247"/>
+      <c r="AM101" s="247"/>
+      <c r="AN101" s="247"/>
+      <c r="AO101" s="247"/>
       <c r="AP101" s="83"/>
       <c r="AQ101" s="122"/>
     </row>
@@ -7610,241 +7613,241 @@
       <c r="AQ103" s="126"/>
     </row>
     <row r="104" spans="2:43" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="276"/>
-      <c r="C104" s="277"/>
-      <c r="D104" s="277"/>
-      <c r="E104" s="277"/>
-      <c r="F104" s="277"/>
-      <c r="G104" s="277"/>
-      <c r="H104" s="277"/>
-      <c r="I104" s="277"/>
-      <c r="J104" s="277"/>
-      <c r="K104" s="277"/>
-      <c r="L104" s="278"/>
-      <c r="M104" s="282" t="s">
+      <c r="B104" s="254"/>
+      <c r="C104" s="255"/>
+      <c r="D104" s="255"/>
+      <c r="E104" s="255"/>
+      <c r="F104" s="255"/>
+      <c r="G104" s="255"/>
+      <c r="H104" s="255"/>
+      <c r="I104" s="255"/>
+      <c r="J104" s="255"/>
+      <c r="K104" s="255"/>
+      <c r="L104" s="256"/>
+      <c r="M104" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="N104" s="283"/>
-      <c r="O104" s="283" t="s">
+      <c r="N104" s="186"/>
+      <c r="O104" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="P104" s="283"/>
+      <c r="P104" s="186"/>
       <c r="Q104" s="4" t="s">
         <v>81</v>
       </c>
       <c r="R104" s="127"/>
-      <c r="S104" s="284"/>
-      <c r="T104" s="284"/>
-      <c r="U104" s="284"/>
-      <c r="V104" s="284"/>
-      <c r="W104" s="284"/>
-      <c r="X104" s="284"/>
-      <c r="Y104" s="284"/>
-      <c r="Z104" s="284"/>
-      <c r="AA104" s="284"/>
-      <c r="AB104" s="284"/>
-      <c r="AC104" s="284"/>
-      <c r="AD104" s="284"/>
-      <c r="AE104" s="284"/>
-      <c r="AF104" s="284"/>
-      <c r="AG104" s="284"/>
-      <c r="AH104" s="284"/>
-      <c r="AI104" s="284"/>
-      <c r="AJ104" s="283"/>
-      <c r="AK104" s="283"/>
-      <c r="AL104" s="286"/>
-      <c r="AM104" s="282" t="s">
+      <c r="S104" s="260"/>
+      <c r="T104" s="260"/>
+      <c r="U104" s="260"/>
+      <c r="V104" s="260"/>
+      <c r="W104" s="260"/>
+      <c r="X104" s="260"/>
+      <c r="Y104" s="260"/>
+      <c r="Z104" s="260"/>
+      <c r="AA104" s="260"/>
+      <c r="AB104" s="260"/>
+      <c r="AC104" s="260"/>
+      <c r="AD104" s="260"/>
+      <c r="AE104" s="260"/>
+      <c r="AF104" s="260"/>
+      <c r="AG104" s="260"/>
+      <c r="AH104" s="260"/>
+      <c r="AI104" s="260"/>
+      <c r="AJ104" s="186"/>
+      <c r="AK104" s="186"/>
+      <c r="AL104" s="187"/>
+      <c r="AM104" s="185" t="s">
         <v>79</v>
       </c>
-      <c r="AN104" s="283"/>
-      <c r="AO104" s="283" t="s">
+      <c r="AN104" s="186"/>
+      <c r="AO104" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="AP104" s="283"/>
+      <c r="AP104" s="186"/>
       <c r="AQ104" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="105" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="279"/>
-      <c r="C105" s="280"/>
-      <c r="D105" s="280"/>
-      <c r="E105" s="280"/>
-      <c r="F105" s="280"/>
-      <c r="G105" s="280"/>
-      <c r="H105" s="280"/>
-      <c r="I105" s="280"/>
-      <c r="J105" s="280"/>
-      <c r="K105" s="280"/>
-      <c r="L105" s="281"/>
-      <c r="M105" s="287"/>
-      <c r="N105" s="288"/>
-      <c r="O105" s="289"/>
-      <c r="P105" s="290"/>
+      <c r="B105" s="257"/>
+      <c r="C105" s="258"/>
+      <c r="D105" s="258"/>
+      <c r="E105" s="258"/>
+      <c r="F105" s="258"/>
+      <c r="G105" s="258"/>
+      <c r="H105" s="258"/>
+      <c r="I105" s="258"/>
+      <c r="J105" s="258"/>
+      <c r="K105" s="258"/>
+      <c r="L105" s="259"/>
+      <c r="M105" s="262"/>
+      <c r="N105" s="263"/>
+      <c r="O105" s="264"/>
+      <c r="P105" s="265"/>
       <c r="Q105" s="160"/>
       <c r="R105" s="161"/>
-      <c r="S105" s="285"/>
-      <c r="T105" s="285"/>
-      <c r="U105" s="285"/>
-      <c r="V105" s="285"/>
-      <c r="W105" s="285"/>
-      <c r="X105" s="285"/>
-      <c r="Y105" s="285"/>
-      <c r="Z105" s="285"/>
-      <c r="AA105" s="285"/>
-      <c r="AB105" s="285"/>
-      <c r="AC105" s="285"/>
-      <c r="AD105" s="285"/>
-      <c r="AE105" s="285"/>
-      <c r="AF105" s="285"/>
-      <c r="AG105" s="285"/>
-      <c r="AH105" s="285"/>
-      <c r="AI105" s="285"/>
-      <c r="AJ105" s="291"/>
-      <c r="AK105" s="291"/>
-      <c r="AL105" s="292"/>
-      <c r="AM105" s="287"/>
-      <c r="AN105" s="288"/>
-      <c r="AO105" s="287"/>
-      <c r="AP105" s="288"/>
+      <c r="S105" s="261"/>
+      <c r="T105" s="261"/>
+      <c r="U105" s="261"/>
+      <c r="V105" s="261"/>
+      <c r="W105" s="261"/>
+      <c r="X105" s="261"/>
+      <c r="Y105" s="261"/>
+      <c r="Z105" s="261"/>
+      <c r="AA105" s="261"/>
+      <c r="AB105" s="261"/>
+      <c r="AC105" s="261"/>
+      <c r="AD105" s="261"/>
+      <c r="AE105" s="261"/>
+      <c r="AF105" s="261"/>
+      <c r="AG105" s="261"/>
+      <c r="AH105" s="261"/>
+      <c r="AI105" s="261"/>
+      <c r="AJ105" s="266"/>
+      <c r="AK105" s="266"/>
+      <c r="AL105" s="267"/>
+      <c r="AM105" s="262"/>
+      <c r="AN105" s="263"/>
+      <c r="AO105" s="262"/>
+      <c r="AP105" s="263"/>
       <c r="AQ105" s="162"/>
     </row>
     <row r="106" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="248" t="s">
+      <c r="B106" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="249"/>
-      <c r="D106" s="249"/>
-      <c r="E106" s="249"/>
-      <c r="F106" s="249"/>
-      <c r="G106" s="249"/>
-      <c r="H106" s="249"/>
-      <c r="I106" s="249"/>
-      <c r="J106" s="249"/>
-      <c r="K106" s="249"/>
-      <c r="L106" s="250"/>
-      <c r="M106" s="254"/>
-      <c r="N106" s="255"/>
-      <c r="O106" s="254"/>
-      <c r="P106" s="255"/>
-      <c r="Q106" s="267"/>
+      <c r="C106" s="269"/>
+      <c r="D106" s="269"/>
+      <c r="E106" s="269"/>
+      <c r="F106" s="269"/>
+      <c r="G106" s="269"/>
+      <c r="H106" s="269"/>
+      <c r="I106" s="269"/>
+      <c r="J106" s="269"/>
+      <c r="K106" s="269"/>
+      <c r="L106" s="270"/>
+      <c r="M106" s="274"/>
+      <c r="N106" s="275"/>
+      <c r="O106" s="274"/>
+      <c r="P106" s="275"/>
+      <c r="Q106" s="287"/>
       <c r="R106" s="128"/>
-      <c r="S106" s="260" t="s">
+      <c r="S106" s="280" t="s">
         <v>83</v>
       </c>
-      <c r="T106" s="260"/>
-      <c r="U106" s="260"/>
-      <c r="V106" s="260"/>
-      <c r="W106" s="260"/>
-      <c r="X106" s="260"/>
-      <c r="Y106" s="260"/>
-      <c r="Z106" s="260"/>
-      <c r="AA106" s="260"/>
-      <c r="AB106" s="260"/>
-      <c r="AC106" s="260"/>
-      <c r="AD106" s="260"/>
-      <c r="AE106" s="260"/>
-      <c r="AF106" s="260"/>
-      <c r="AG106" s="260"/>
-      <c r="AH106" s="260"/>
-      <c r="AI106" s="260"/>
+      <c r="T106" s="280"/>
+      <c r="U106" s="280"/>
+      <c r="V106" s="280"/>
+      <c r="W106" s="280"/>
+      <c r="X106" s="280"/>
+      <c r="Y106" s="280"/>
+      <c r="Z106" s="280"/>
+      <c r="AA106" s="280"/>
+      <c r="AB106" s="280"/>
+      <c r="AC106" s="280"/>
+      <c r="AD106" s="280"/>
+      <c r="AE106" s="280"/>
+      <c r="AF106" s="280"/>
+      <c r="AG106" s="280"/>
+      <c r="AH106" s="280"/>
+      <c r="AI106" s="280"/>
       <c r="AJ106" s="129"/>
       <c r="AK106" s="129"/>
       <c r="AL106" s="130"/>
-      <c r="AM106" s="261"/>
-      <c r="AN106" s="262"/>
-      <c r="AO106" s="261"/>
-      <c r="AP106" s="262"/>
-      <c r="AQ106" s="271"/>
+      <c r="AM106" s="281"/>
+      <c r="AN106" s="282"/>
+      <c r="AO106" s="281"/>
+      <c r="AP106" s="282"/>
+      <c r="AQ106" s="291"/>
     </row>
     <row r="107" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="251"/>
-      <c r="C107" s="252"/>
-      <c r="D107" s="252"/>
-      <c r="E107" s="252"/>
-      <c r="F107" s="252"/>
-      <c r="G107" s="252"/>
-      <c r="H107" s="252"/>
-      <c r="I107" s="252"/>
-      <c r="J107" s="252"/>
-      <c r="K107" s="252"/>
-      <c r="L107" s="253"/>
-      <c r="M107" s="256"/>
-      <c r="N107" s="257"/>
-      <c r="O107" s="256"/>
-      <c r="P107" s="257"/>
-      <c r="Q107" s="268"/>
-      <c r="S107" s="270"/>
-      <c r="T107" s="270"/>
-      <c r="U107" s="270"/>
-      <c r="V107" s="270"/>
-      <c r="W107" s="270"/>
-      <c r="X107" s="270"/>
-      <c r="Y107" s="270"/>
-      <c r="Z107" s="270"/>
-      <c r="AA107" s="270"/>
-      <c r="AB107" s="270"/>
-      <c r="AC107" s="270"/>
-      <c r="AD107" s="270"/>
-      <c r="AE107" s="270"/>
-      <c r="AF107" s="270"/>
-      <c r="AG107" s="270"/>
-      <c r="AH107" s="270"/>
-      <c r="AI107" s="270"/>
-      <c r="AJ107" s="270"/>
-      <c r="AK107" s="270"/>
+      <c r="B107" s="271"/>
+      <c r="C107" s="272"/>
+      <c r="D107" s="272"/>
+      <c r="E107" s="272"/>
+      <c r="F107" s="272"/>
+      <c r="G107" s="272"/>
+      <c r="H107" s="272"/>
+      <c r="I107" s="272"/>
+      <c r="J107" s="272"/>
+      <c r="K107" s="272"/>
+      <c r="L107" s="273"/>
+      <c r="M107" s="276"/>
+      <c r="N107" s="277"/>
+      <c r="O107" s="276"/>
+      <c r="P107" s="277"/>
+      <c r="Q107" s="288"/>
+      <c r="S107" s="290"/>
+      <c r="T107" s="290"/>
+      <c r="U107" s="290"/>
+      <c r="V107" s="290"/>
+      <c r="W107" s="290"/>
+      <c r="X107" s="290"/>
+      <c r="Y107" s="290"/>
+      <c r="Z107" s="290"/>
+      <c r="AA107" s="290"/>
+      <c r="AB107" s="290"/>
+      <c r="AC107" s="290"/>
+      <c r="AD107" s="290"/>
+      <c r="AE107" s="290"/>
+      <c r="AF107" s="290"/>
+      <c r="AG107" s="290"/>
+      <c r="AH107" s="290"/>
+      <c r="AI107" s="290"/>
+      <c r="AJ107" s="290"/>
+      <c r="AK107" s="290"/>
       <c r="AL107" s="131"/>
-      <c r="AM107" s="263"/>
-      <c r="AN107" s="264"/>
-      <c r="AO107" s="263"/>
-      <c r="AP107" s="264"/>
-      <c r="AQ107" s="272"/>
+      <c r="AM107" s="283"/>
+      <c r="AN107" s="284"/>
+      <c r="AO107" s="283"/>
+      <c r="AP107" s="284"/>
+      <c r="AQ107" s="292"/>
     </row>
     <row r="108" spans="2:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="274"/>
-      <c r="C108" s="275"/>
-      <c r="D108" s="275"/>
-      <c r="E108" s="275"/>
-      <c r="F108" s="275"/>
-      <c r="G108" s="275"/>
-      <c r="H108" s="275"/>
-      <c r="I108" s="275"/>
-      <c r="J108" s="275"/>
-      <c r="K108" s="275"/>
+      <c r="B108" s="294"/>
+      <c r="C108" s="295"/>
+      <c r="D108" s="295"/>
+      <c r="E108" s="295"/>
+      <c r="F108" s="295"/>
+      <c r="G108" s="295"/>
+      <c r="H108" s="295"/>
+      <c r="I108" s="295"/>
+      <c r="J108" s="295"/>
+      <c r="K108" s="295"/>
       <c r="L108" s="132"/>
-      <c r="M108" s="258"/>
-      <c r="N108" s="259"/>
-      <c r="O108" s="258"/>
-      <c r="P108" s="259"/>
-      <c r="Q108" s="269"/>
+      <c r="M108" s="278"/>
+      <c r="N108" s="279"/>
+      <c r="O108" s="278"/>
+      <c r="P108" s="279"/>
+      <c r="Q108" s="289"/>
       <c r="R108" s="64"/>
-      <c r="S108" s="234" t="s">
+      <c r="S108" s="296" t="s">
         <v>84</v>
       </c>
-      <c r="T108" s="234"/>
-      <c r="U108" s="234"/>
-      <c r="V108" s="234"/>
-      <c r="W108" s="234"/>
-      <c r="X108" s="234"/>
-      <c r="Y108" s="234"/>
-      <c r="Z108" s="234"/>
-      <c r="AA108" s="234"/>
-      <c r="AB108" s="234"/>
-      <c r="AC108" s="234"/>
-      <c r="AD108" s="234"/>
-      <c r="AE108" s="234"/>
-      <c r="AF108" s="234"/>
-      <c r="AG108" s="234"/>
-      <c r="AH108" s="234"/>
-      <c r="AI108" s="234"/>
+      <c r="T108" s="296"/>
+      <c r="U108" s="296"/>
+      <c r="V108" s="296"/>
+      <c r="W108" s="296"/>
+      <c r="X108" s="296"/>
+      <c r="Y108" s="296"/>
+      <c r="Z108" s="296"/>
+      <c r="AA108" s="296"/>
+      <c r="AB108" s="296"/>
+      <c r="AC108" s="296"/>
+      <c r="AD108" s="296"/>
+      <c r="AE108" s="296"/>
+      <c r="AF108" s="296"/>
+      <c r="AG108" s="296"/>
+      <c r="AH108" s="296"/>
+      <c r="AI108" s="296"/>
       <c r="AJ108" s="133"/>
       <c r="AK108" s="133"/>
       <c r="AL108" s="134"/>
-      <c r="AM108" s="265"/>
-      <c r="AN108" s="266"/>
-      <c r="AO108" s="265"/>
-      <c r="AP108" s="266"/>
-      <c r="AQ108" s="273"/>
+      <c r="AM108" s="285"/>
+      <c r="AN108" s="286"/>
+      <c r="AO108" s="285"/>
+      <c r="AP108" s="286"/>
+      <c r="AQ108" s="293"/>
     </row>
     <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="135"/>
@@ -7864,23 +7867,23 @@
       <c r="P109" s="136"/>
       <c r="Q109" s="136"/>
       <c r="R109" s="22"/>
-      <c r="S109" s="234"/>
-      <c r="T109" s="234"/>
-      <c r="U109" s="234"/>
-      <c r="V109" s="234"/>
-      <c r="W109" s="234"/>
-      <c r="X109" s="234"/>
-      <c r="Y109" s="234"/>
-      <c r="Z109" s="234"/>
-      <c r="AA109" s="234"/>
-      <c r="AB109" s="234"/>
-      <c r="AC109" s="234"/>
-      <c r="AD109" s="234"/>
-      <c r="AE109" s="234"/>
-      <c r="AF109" s="234"/>
-      <c r="AG109" s="234"/>
-      <c r="AH109" s="234"/>
-      <c r="AI109" s="234"/>
+      <c r="S109" s="296"/>
+      <c r="T109" s="296"/>
+      <c r="U109" s="296"/>
+      <c r="V109" s="296"/>
+      <c r="W109" s="296"/>
+      <c r="X109" s="296"/>
+      <c r="Y109" s="296"/>
+      <c r="Z109" s="296"/>
+      <c r="AA109" s="296"/>
+      <c r="AB109" s="296"/>
+      <c r="AC109" s="296"/>
+      <c r="AD109" s="296"/>
+      <c r="AE109" s="296"/>
+      <c r="AF109" s="296"/>
+      <c r="AG109" s="296"/>
+      <c r="AH109" s="296"/>
+      <c r="AI109" s="296"/>
       <c r="AJ109" s="22"/>
       <c r="AK109" s="137"/>
       <c r="AL109" s="137"/>
@@ -7937,338 +7940,338 @@
       <c r="AQ110" s="140"/>
     </row>
     <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="187" t="s">
+      <c r="B111" s="297" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="188"/>
-      <c r="D111" s="188"/>
-      <c r="E111" s="189"/>
-      <c r="F111" s="218" t="str">
+      <c r="C111" s="298"/>
+      <c r="D111" s="298"/>
+      <c r="E111" s="299"/>
+      <c r="F111" s="313" t="str">
         <f>IF(B9="","",B9)</f>
         <v/>
       </c>
-      <c r="G111" s="219"/>
-      <c r="H111" s="219"/>
-      <c r="I111" s="219"/>
-      <c r="J111" s="219"/>
-      <c r="K111" s="219"/>
-      <c r="L111" s="219"/>
-      <c r="M111" s="220"/>
-      <c r="N111" s="235" t="s">
+      <c r="G111" s="314"/>
+      <c r="H111" s="314"/>
+      <c r="I111" s="314"/>
+      <c r="J111" s="314"/>
+      <c r="K111" s="314"/>
+      <c r="L111" s="314"/>
+      <c r="M111" s="315"/>
+      <c r="N111" s="300" t="s">
         <v>87</v>
       </c>
-      <c r="O111" s="236"/>
-      <c r="P111" s="236"/>
-      <c r="Q111" s="236"/>
-      <c r="R111" s="236"/>
-      <c r="S111" s="236"/>
-      <c r="T111" s="237"/>
+      <c r="O111" s="301"/>
+      <c r="P111" s="301"/>
+      <c r="Q111" s="301"/>
+      <c r="R111" s="301"/>
+      <c r="S111" s="301"/>
+      <c r="T111" s="302"/>
       <c r="U111" s="141"/>
-      <c r="V111" s="238"/>
-      <c r="W111" s="238"/>
-      <c r="X111" s="238"/>
-      <c r="Y111" s="238"/>
-      <c r="Z111" s="238"/>
-      <c r="AA111" s="238"/>
-      <c r="AB111" s="238"/>
-      <c r="AC111" s="238"/>
-      <c r="AD111" s="238"/>
-      <c r="AE111" s="238"/>
-      <c r="AF111" s="238"/>
-      <c r="AG111" s="238"/>
-      <c r="AH111" s="238"/>
-      <c r="AI111" s="238"/>
-      <c r="AJ111" s="238"/>
-      <c r="AK111" s="238"/>
-      <c r="AL111" s="238"/>
-      <c r="AM111" s="238"/>
-      <c r="AN111" s="238"/>
-      <c r="AO111" s="238"/>
-      <c r="AP111" s="238"/>
-      <c r="AQ111" s="239"/>
+      <c r="V111" s="303"/>
+      <c r="W111" s="303"/>
+      <c r="X111" s="303"/>
+      <c r="Y111" s="303"/>
+      <c r="Z111" s="303"/>
+      <c r="AA111" s="303"/>
+      <c r="AB111" s="303"/>
+      <c r="AC111" s="303"/>
+      <c r="AD111" s="303"/>
+      <c r="AE111" s="303"/>
+      <c r="AF111" s="303"/>
+      <c r="AG111" s="303"/>
+      <c r="AH111" s="303"/>
+      <c r="AI111" s="303"/>
+      <c r="AJ111" s="303"/>
+      <c r="AK111" s="303"/>
+      <c r="AL111" s="303"/>
+      <c r="AM111" s="303"/>
+      <c r="AN111" s="303"/>
+      <c r="AO111" s="303"/>
+      <c r="AP111" s="303"/>
+      <c r="AQ111" s="304"/>
     </row>
     <row r="112" spans="2:43" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="187" t="s">
+      <c r="B112" s="297" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="188"/>
-      <c r="D112" s="188"/>
-      <c r="E112" s="189"/>
-      <c r="F112" s="240"/>
-      <c r="G112" s="241"/>
-      <c r="H112" s="241"/>
-      <c r="I112" s="241"/>
-      <c r="J112" s="241"/>
-      <c r="K112" s="241"/>
-      <c r="L112" s="241"/>
-      <c r="M112" s="242"/>
-      <c r="N112" s="187" t="s">
+      <c r="C112" s="298"/>
+      <c r="D112" s="298"/>
+      <c r="E112" s="299"/>
+      <c r="F112" s="305"/>
+      <c r="G112" s="306"/>
+      <c r="H112" s="306"/>
+      <c r="I112" s="306"/>
+      <c r="J112" s="306"/>
+      <c r="K112" s="306"/>
+      <c r="L112" s="306"/>
+      <c r="M112" s="307"/>
+      <c r="N112" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="O112" s="188"/>
-      <c r="P112" s="188"/>
-      <c r="Q112" s="188"/>
-      <c r="R112" s="188"/>
-      <c r="S112" s="188"/>
-      <c r="T112" s="189"/>
-      <c r="U112" s="243" t="s">
+      <c r="O112" s="298"/>
+      <c r="P112" s="298"/>
+      <c r="Q112" s="298"/>
+      <c r="R112" s="298"/>
+      <c r="S112" s="298"/>
+      <c r="T112" s="299"/>
+      <c r="U112" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="V112" s="244"/>
-      <c r="W112" s="243" t="s">
+      <c r="V112" s="309"/>
+      <c r="W112" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="X112" s="244"/>
-      <c r="Y112" s="245" t="s">
+      <c r="X112" s="309"/>
+      <c r="Y112" s="310" t="s">
         <v>92</v>
       </c>
-      <c r="Z112" s="246"/>
-      <c r="AA112" s="246"/>
-      <c r="AB112" s="246"/>
-      <c r="AC112" s="246"/>
-      <c r="AD112" s="246"/>
-      <c r="AE112" s="246"/>
-      <c r="AF112" s="246"/>
-      <c r="AG112" s="246"/>
-      <c r="AH112" s="246"/>
-      <c r="AI112" s="246"/>
-      <c r="AJ112" s="246"/>
-      <c r="AK112" s="246"/>
-      <c r="AL112" s="246"/>
-      <c r="AM112" s="246"/>
-      <c r="AN112" s="246"/>
-      <c r="AO112" s="246"/>
-      <c r="AP112" s="246"/>
-      <c r="AQ112" s="247"/>
+      <c r="Z112" s="311"/>
+      <c r="AA112" s="311"/>
+      <c r="AB112" s="311"/>
+      <c r="AC112" s="311"/>
+      <c r="AD112" s="311"/>
+      <c r="AE112" s="311"/>
+      <c r="AF112" s="311"/>
+      <c r="AG112" s="311"/>
+      <c r="AH112" s="311"/>
+      <c r="AI112" s="311"/>
+      <c r="AJ112" s="311"/>
+      <c r="AK112" s="311"/>
+      <c r="AL112" s="311"/>
+      <c r="AM112" s="311"/>
+      <c r="AN112" s="311"/>
+      <c r="AO112" s="311"/>
+      <c r="AP112" s="311"/>
+      <c r="AQ112" s="312"/>
     </row>
     <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="187" t="s">
+      <c r="B113" s="297" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="188"/>
-      <c r="D113" s="188"/>
-      <c r="E113" s="189"/>
-      <c r="F113" s="218"/>
-      <c r="G113" s="219"/>
-      <c r="H113" s="219"/>
-      <c r="I113" s="219"/>
-      <c r="J113" s="219"/>
-      <c r="K113" s="219"/>
-      <c r="L113" s="219"/>
-      <c r="M113" s="220"/>
-      <c r="N113" s="187" t="s">
+      <c r="C113" s="298"/>
+      <c r="D113" s="298"/>
+      <c r="E113" s="299"/>
+      <c r="F113" s="313"/>
+      <c r="G113" s="314"/>
+      <c r="H113" s="314"/>
+      <c r="I113" s="314"/>
+      <c r="J113" s="314"/>
+      <c r="K113" s="314"/>
+      <c r="L113" s="314"/>
+      <c r="M113" s="315"/>
+      <c r="N113" s="297" t="s">
         <v>94</v>
       </c>
-      <c r="O113" s="188"/>
-      <c r="P113" s="188"/>
-      <c r="Q113" s="188"/>
-      <c r="R113" s="188"/>
-      <c r="S113" s="188"/>
-      <c r="T113" s="189"/>
-      <c r="U113" s="221"/>
-      <c r="V113" s="222"/>
-      <c r="W113" s="222"/>
-      <c r="X113" s="222"/>
-      <c r="Y113" s="222"/>
-      <c r="Z113" s="222"/>
-      <c r="AA113" s="222"/>
-      <c r="AB113" s="222"/>
-      <c r="AC113" s="222"/>
-      <c r="AD113" s="222"/>
-      <c r="AE113" s="222"/>
-      <c r="AF113" s="222"/>
-      <c r="AG113" s="222"/>
-      <c r="AH113" s="222"/>
-      <c r="AI113" s="222"/>
-      <c r="AJ113" s="222"/>
-      <c r="AK113" s="222"/>
-      <c r="AL113" s="222"/>
-      <c r="AM113" s="222"/>
-      <c r="AN113" s="222"/>
-      <c r="AO113" s="222"/>
-      <c r="AP113" s="222"/>
-      <c r="AQ113" s="223"/>
+      <c r="O113" s="298"/>
+      <c r="P113" s="298"/>
+      <c r="Q113" s="298"/>
+      <c r="R113" s="298"/>
+      <c r="S113" s="298"/>
+      <c r="T113" s="299"/>
+      <c r="U113" s="316"/>
+      <c r="V113" s="317"/>
+      <c r="W113" s="317"/>
+      <c r="X113" s="317"/>
+      <c r="Y113" s="317"/>
+      <c r="Z113" s="317"/>
+      <c r="AA113" s="317"/>
+      <c r="AB113" s="317"/>
+      <c r="AC113" s="317"/>
+      <c r="AD113" s="317"/>
+      <c r="AE113" s="317"/>
+      <c r="AF113" s="317"/>
+      <c r="AG113" s="317"/>
+      <c r="AH113" s="317"/>
+      <c r="AI113" s="317"/>
+      <c r="AJ113" s="317"/>
+      <c r="AK113" s="317"/>
+      <c r="AL113" s="317"/>
+      <c r="AM113" s="317"/>
+      <c r="AN113" s="317"/>
+      <c r="AO113" s="317"/>
+      <c r="AP113" s="317"/>
+      <c r="AQ113" s="318"/>
     </row>
     <row r="114" spans="2:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="224" t="s">
+      <c r="B114" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="225"/>
-      <c r="D114" s="225"/>
-      <c r="E114" s="226"/>
-      <c r="F114" s="227"/>
-      <c r="G114" s="228"/>
-      <c r="H114" s="228"/>
-      <c r="I114" s="228"/>
-      <c r="J114" s="228"/>
-      <c r="K114" s="228"/>
-      <c r="L114" s="228"/>
-      <c r="M114" s="229"/>
-      <c r="N114" s="187" t="s">
+      <c r="C114" s="320"/>
+      <c r="D114" s="320"/>
+      <c r="E114" s="321"/>
+      <c r="F114" s="322"/>
+      <c r="G114" s="323"/>
+      <c r="H114" s="323"/>
+      <c r="I114" s="323"/>
+      <c r="J114" s="323"/>
+      <c r="K114" s="323"/>
+      <c r="L114" s="323"/>
+      <c r="M114" s="324"/>
+      <c r="N114" s="297" t="s">
         <v>96</v>
       </c>
-      <c r="O114" s="188"/>
-      <c r="P114" s="188"/>
-      <c r="Q114" s="188"/>
-      <c r="R114" s="188"/>
-      <c r="S114" s="188"/>
-      <c r="T114" s="189"/>
-      <c r="U114" s="230"/>
-      <c r="V114" s="231"/>
-      <c r="W114" s="231"/>
-      <c r="X114" s="231"/>
-      <c r="Y114" s="231"/>
-      <c r="Z114" s="231"/>
-      <c r="AA114" s="231"/>
-      <c r="AB114" s="231"/>
-      <c r="AC114" s="231"/>
-      <c r="AD114" s="231"/>
-      <c r="AE114" s="231"/>
-      <c r="AF114" s="232"/>
-      <c r="AG114" s="232"/>
-      <c r="AH114" s="232"/>
-      <c r="AI114" s="232"/>
-      <c r="AJ114" s="232"/>
-      <c r="AK114" s="232"/>
-      <c r="AL114" s="232"/>
-      <c r="AM114" s="232"/>
-      <c r="AN114" s="232"/>
-      <c r="AO114" s="232"/>
-      <c r="AP114" s="232"/>
-      <c r="AQ114" s="233"/>
+      <c r="O114" s="298"/>
+      <c r="P114" s="298"/>
+      <c r="Q114" s="298"/>
+      <c r="R114" s="298"/>
+      <c r="S114" s="298"/>
+      <c r="T114" s="299"/>
+      <c r="U114" s="325"/>
+      <c r="V114" s="326"/>
+      <c r="W114" s="326"/>
+      <c r="X114" s="326"/>
+      <c r="Y114" s="326"/>
+      <c r="Z114" s="326"/>
+      <c r="AA114" s="326"/>
+      <c r="AB114" s="326"/>
+      <c r="AC114" s="326"/>
+      <c r="AD114" s="326"/>
+      <c r="AE114" s="326"/>
+      <c r="AF114" s="327"/>
+      <c r="AG114" s="327"/>
+      <c r="AH114" s="327"/>
+      <c r="AI114" s="327"/>
+      <c r="AJ114" s="327"/>
+      <c r="AK114" s="327"/>
+      <c r="AL114" s="327"/>
+      <c r="AM114" s="327"/>
+      <c r="AN114" s="327"/>
+      <c r="AO114" s="327"/>
+      <c r="AP114" s="327"/>
+      <c r="AQ114" s="328"/>
     </row>
     <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="187" t="s">
+      <c r="B115" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="188"/>
-      <c r="D115" s="188"/>
-      <c r="E115" s="189"/>
-      <c r="F115" s="190"/>
-      <c r="G115" s="191"/>
-      <c r="H115" s="191"/>
-      <c r="I115" s="191"/>
-      <c r="J115" s="191"/>
-      <c r="K115" s="191"/>
-      <c r="L115" s="191"/>
-      <c r="M115" s="192"/>
-      <c r="N115" s="193" t="s">
+      <c r="C115" s="298"/>
+      <c r="D115" s="298"/>
+      <c r="E115" s="299"/>
+      <c r="F115" s="365"/>
+      <c r="G115" s="366"/>
+      <c r="H115" s="366"/>
+      <c r="I115" s="366"/>
+      <c r="J115" s="366"/>
+      <c r="K115" s="366"/>
+      <c r="L115" s="366"/>
+      <c r="M115" s="367"/>
+      <c r="N115" s="368" t="s">
         <v>109</v>
       </c>
-      <c r="O115" s="194"/>
-      <c r="P115" s="194"/>
-      <c r="Q115" s="194"/>
-      <c r="R115" s="194"/>
-      <c r="S115" s="194"/>
-      <c r="T115" s="195"/>
-      <c r="U115" s="196"/>
-      <c r="V115" s="197"/>
-      <c r="W115" s="197"/>
-      <c r="X115" s="197"/>
-      <c r="Y115" s="197"/>
-      <c r="Z115" s="197"/>
-      <c r="AA115" s="197"/>
-      <c r="AB115" s="197"/>
-      <c r="AC115" s="197"/>
-      <c r="AD115" s="197"/>
-      <c r="AE115" s="197"/>
-      <c r="AF115" s="197"/>
-      <c r="AG115" s="197"/>
-      <c r="AH115" s="197"/>
-      <c r="AI115" s="197"/>
-      <c r="AJ115" s="197"/>
-      <c r="AK115" s="197"/>
-      <c r="AL115" s="197"/>
-      <c r="AM115" s="197"/>
-      <c r="AN115" s="197"/>
-      <c r="AO115" s="197"/>
-      <c r="AP115" s="197"/>
-      <c r="AQ115" s="198"/>
+      <c r="O115" s="369"/>
+      <c r="P115" s="369"/>
+      <c r="Q115" s="369"/>
+      <c r="R115" s="369"/>
+      <c r="S115" s="369"/>
+      <c r="T115" s="370"/>
+      <c r="U115" s="371"/>
+      <c r="V115" s="372"/>
+      <c r="W115" s="372"/>
+      <c r="X115" s="372"/>
+      <c r="Y115" s="372"/>
+      <c r="Z115" s="372"/>
+      <c r="AA115" s="372"/>
+      <c r="AB115" s="372"/>
+      <c r="AC115" s="372"/>
+      <c r="AD115" s="372"/>
+      <c r="AE115" s="372"/>
+      <c r="AF115" s="372"/>
+      <c r="AG115" s="372"/>
+      <c r="AH115" s="372"/>
+      <c r="AI115" s="372"/>
+      <c r="AJ115" s="372"/>
+      <c r="AK115" s="372"/>
+      <c r="AL115" s="372"/>
+      <c r="AM115" s="372"/>
+      <c r="AN115" s="372"/>
+      <c r="AO115" s="372"/>
+      <c r="AP115" s="372"/>
+      <c r="AQ115" s="373"/>
     </row>
     <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="199" t="s">
+      <c r="B116" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="200"/>
-      <c r="D116" s="203" t="s">
+      <c r="C116" s="330"/>
+      <c r="D116" s="333" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="204"/>
-      <c r="F116" s="203" t="s">
+      <c r="E116" s="334"/>
+      <c r="F116" s="333" t="s">
         <v>98</v>
       </c>
-      <c r="G116" s="204"/>
-      <c r="H116" s="216" t="s">
+      <c r="G116" s="334"/>
+      <c r="H116" s="346" t="s">
         <v>99</v>
       </c>
-      <c r="I116" s="207" t="s">
+      <c r="I116" s="337" t="s">
         <v>100</v>
       </c>
-      <c r="J116" s="208"/>
-      <c r="K116" s="203" t="s">
+      <c r="J116" s="338"/>
+      <c r="K116" s="333" t="s">
         <v>101</v>
       </c>
       <c r="L116" s="142"/>
-      <c r="M116" s="203" t="s">
+      <c r="M116" s="333" t="s">
         <v>102</v>
       </c>
-      <c r="N116" s="211"/>
-      <c r="O116" s="211"/>
-      <c r="P116" s="204"/>
-      <c r="Q116" s="203" t="s">
+      <c r="N116" s="341"/>
+      <c r="O116" s="341"/>
+      <c r="P116" s="334"/>
+      <c r="Q116" s="333" t="s">
         <v>103</v>
       </c>
-      <c r="R116" s="211"/>
-      <c r="S116" s="211"/>
-      <c r="T116" s="211"/>
-      <c r="U116" s="211"/>
-      <c r="V116" s="204"/>
-      <c r="W116" s="213" t="s">
+      <c r="R116" s="341"/>
+      <c r="S116" s="341"/>
+      <c r="T116" s="341"/>
+      <c r="U116" s="341"/>
+      <c r="V116" s="334"/>
+      <c r="W116" s="343" t="s">
         <v>104</v>
       </c>
-      <c r="X116" s="214"/>
-      <c r="Y116" s="214"/>
-      <c r="Z116" s="214"/>
-      <c r="AA116" s="214"/>
-      <c r="AB116" s="214"/>
-      <c r="AC116" s="214"/>
-      <c r="AD116" s="214"/>
-      <c r="AE116" s="214"/>
-      <c r="AF116" s="214"/>
-      <c r="AG116" s="214"/>
-      <c r="AH116" s="214"/>
-      <c r="AI116" s="214"/>
-      <c r="AJ116" s="214"/>
-      <c r="AK116" s="214"/>
-      <c r="AL116" s="214"/>
-      <c r="AM116" s="214"/>
-      <c r="AN116" s="214"/>
-      <c r="AO116" s="214"/>
-      <c r="AP116" s="214"/>
-      <c r="AQ116" s="215"/>
+      <c r="X116" s="344"/>
+      <c r="Y116" s="344"/>
+      <c r="Z116" s="344"/>
+      <c r="AA116" s="344"/>
+      <c r="AB116" s="344"/>
+      <c r="AC116" s="344"/>
+      <c r="AD116" s="344"/>
+      <c r="AE116" s="344"/>
+      <c r="AF116" s="344"/>
+      <c r="AG116" s="344"/>
+      <c r="AH116" s="344"/>
+      <c r="AI116" s="344"/>
+      <c r="AJ116" s="344"/>
+      <c r="AK116" s="344"/>
+      <c r="AL116" s="344"/>
+      <c r="AM116" s="344"/>
+      <c r="AN116" s="344"/>
+      <c r="AO116" s="344"/>
+      <c r="AP116" s="344"/>
+      <c r="AQ116" s="345"/>
     </row>
     <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="201"/>
-      <c r="C117" s="202"/>
-      <c r="D117" s="205"/>
-      <c r="E117" s="206"/>
-      <c r="F117" s="205"/>
-      <c r="G117" s="206"/>
-      <c r="H117" s="217"/>
-      <c r="I117" s="209"/>
-      <c r="J117" s="210"/>
-      <c r="K117" s="205"/>
+      <c r="B117" s="331"/>
+      <c r="C117" s="332"/>
+      <c r="D117" s="335"/>
+      <c r="E117" s="336"/>
+      <c r="F117" s="335"/>
+      <c r="G117" s="336"/>
+      <c r="H117" s="347"/>
+      <c r="I117" s="339"/>
+      <c r="J117" s="340"/>
+      <c r="K117" s="335"/>
       <c r="L117" s="143"/>
-      <c r="M117" s="205"/>
-      <c r="N117" s="212"/>
-      <c r="O117" s="212"/>
-      <c r="P117" s="206"/>
-      <c r="Q117" s="205"/>
-      <c r="R117" s="212"/>
-      <c r="S117" s="212"/>
-      <c r="T117" s="212"/>
-      <c r="U117" s="212"/>
-      <c r="V117" s="206"/>
+      <c r="M117" s="335"/>
+      <c r="N117" s="342"/>
+      <c r="O117" s="342"/>
+      <c r="P117" s="336"/>
+      <c r="Q117" s="335"/>
+      <c r="R117" s="342"/>
+      <c r="S117" s="342"/>
+      <c r="T117" s="342"/>
+      <c r="U117" s="342"/>
+      <c r="V117" s="336"/>
       <c r="W117" s="144" t="s">
         <v>105</v>
       </c>
@@ -8294,511 +8297,201 @@
       <c r="AQ117" s="148"/>
     </row>
     <row r="118" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="179">
+      <c r="B118" s="357">
         <f>+AJ78</f>
         <v>0</v>
       </c>
-      <c r="C118" s="180"/>
-      <c r="D118" s="179">
+      <c r="C118" s="358"/>
+      <c r="D118" s="357">
         <f>+AJ79</f>
         <v>0</v>
       </c>
-      <c r="E118" s="180"/>
-      <c r="F118" s="179" t="s">
+      <c r="E118" s="358"/>
+      <c r="F118" s="357" t="s">
         <v>106</v>
       </c>
-      <c r="G118" s="180"/>
+      <c r="G118" s="358"/>
       <c r="H118" s="163"/>
-      <c r="I118" s="181"/>
-      <c r="J118" s="182"/>
-      <c r="K118" s="181"/>
-      <c r="L118" s="182"/>
+      <c r="I118" s="359"/>
+      <c r="J118" s="360"/>
+      <c r="K118" s="359"/>
+      <c r="L118" s="360"/>
       <c r="M118" s="164"/>
       <c r="N118" s="165"/>
       <c r="O118" s="165"/>
       <c r="P118" s="165"/>
-      <c r="Q118" s="181"/>
-      <c r="R118" s="183"/>
-      <c r="S118" s="183"/>
-      <c r="T118" s="183"/>
-      <c r="U118" s="183"/>
-      <c r="V118" s="182"/>
-      <c r="W118" s="184"/>
-      <c r="X118" s="185"/>
-      <c r="Y118" s="185"/>
-      <c r="Z118" s="185"/>
-      <c r="AA118" s="185"/>
-      <c r="AB118" s="185"/>
-      <c r="AC118" s="185"/>
-      <c r="AD118" s="185"/>
-      <c r="AE118" s="185"/>
-      <c r="AF118" s="186"/>
-      <c r="AG118" s="184"/>
-      <c r="AH118" s="185"/>
-      <c r="AI118" s="185"/>
-      <c r="AJ118" s="185"/>
-      <c r="AK118" s="185"/>
-      <c r="AL118" s="185"/>
-      <c r="AM118" s="185"/>
-      <c r="AN118" s="185"/>
-      <c r="AO118" s="185"/>
-      <c r="AP118" s="185"/>
-      <c r="AQ118" s="186"/>
+      <c r="Q118" s="359"/>
+      <c r="R118" s="361"/>
+      <c r="S118" s="361"/>
+      <c r="T118" s="361"/>
+      <c r="U118" s="361"/>
+      <c r="V118" s="360"/>
+      <c r="W118" s="362"/>
+      <c r="X118" s="363"/>
+      <c r="Y118" s="363"/>
+      <c r="Z118" s="363"/>
+      <c r="AA118" s="363"/>
+      <c r="AB118" s="363"/>
+      <c r="AC118" s="363"/>
+      <c r="AD118" s="363"/>
+      <c r="AE118" s="363"/>
+      <c r="AF118" s="364"/>
+      <c r="AG118" s="362"/>
+      <c r="AH118" s="363"/>
+      <c r="AI118" s="363"/>
+      <c r="AJ118" s="363"/>
+      <c r="AK118" s="363"/>
+      <c r="AL118" s="363"/>
+      <c r="AM118" s="363"/>
+      <c r="AN118" s="363"/>
+      <c r="AO118" s="363"/>
+      <c r="AP118" s="363"/>
+      <c r="AQ118" s="364"/>
     </row>
     <row r="119" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="179">
+      <c r="B119" s="357">
         <f>+AJ83</f>
         <v>0</v>
       </c>
-      <c r="C119" s="180"/>
-      <c r="D119" s="179">
+      <c r="C119" s="358"/>
+      <c r="D119" s="357">
         <f>+AJ87</f>
         <v>0</v>
       </c>
-      <c r="E119" s="180"/>
-      <c r="F119" s="179" t="s">
+      <c r="E119" s="358"/>
+      <c r="F119" s="357" t="s">
         <v>106</v>
       </c>
-      <c r="G119" s="180"/>
+      <c r="G119" s="358"/>
       <c r="H119" s="166"/>
-      <c r="I119" s="181"/>
-      <c r="J119" s="182"/>
+      <c r="I119" s="359"/>
+      <c r="J119" s="360"/>
       <c r="K119" s="167"/>
       <c r="L119" s="168"/>
       <c r="M119" s="164"/>
       <c r="N119" s="165"/>
       <c r="O119" s="165"/>
       <c r="P119" s="165"/>
-      <c r="Q119" s="181"/>
-      <c r="R119" s="183"/>
-      <c r="S119" s="183"/>
-      <c r="T119" s="183"/>
-      <c r="U119" s="183"/>
-      <c r="V119" s="182"/>
-      <c r="W119" s="184"/>
-      <c r="X119" s="185"/>
-      <c r="Y119" s="185"/>
-      <c r="Z119" s="185"/>
-      <c r="AA119" s="185"/>
-      <c r="AB119" s="185"/>
-      <c r="AC119" s="185"/>
-      <c r="AD119" s="185"/>
-      <c r="AE119" s="185"/>
-      <c r="AF119" s="186"/>
-      <c r="AG119" s="184"/>
-      <c r="AH119" s="185"/>
-      <c r="AI119" s="185"/>
-      <c r="AJ119" s="185"/>
-      <c r="AK119" s="185"/>
-      <c r="AL119" s="185"/>
-      <c r="AM119" s="185"/>
-      <c r="AN119" s="185"/>
-      <c r="AO119" s="185"/>
-      <c r="AP119" s="185"/>
-      <c r="AQ119" s="186"/>
+      <c r="Q119" s="359"/>
+      <c r="R119" s="361"/>
+      <c r="S119" s="361"/>
+      <c r="T119" s="361"/>
+      <c r="U119" s="361"/>
+      <c r="V119" s="360"/>
+      <c r="W119" s="362"/>
+      <c r="X119" s="363"/>
+      <c r="Y119" s="363"/>
+      <c r="Z119" s="363"/>
+      <c r="AA119" s="363"/>
+      <c r="AB119" s="363"/>
+      <c r="AC119" s="363"/>
+      <c r="AD119" s="363"/>
+      <c r="AE119" s="363"/>
+      <c r="AF119" s="364"/>
+      <c r="AG119" s="362"/>
+      <c r="AH119" s="363"/>
+      <c r="AI119" s="363"/>
+      <c r="AJ119" s="363"/>
+      <c r="AK119" s="363"/>
+      <c r="AL119" s="363"/>
+      <c r="AM119" s="363"/>
+      <c r="AN119" s="363"/>
+      <c r="AO119" s="363"/>
+      <c r="AP119" s="363"/>
+      <c r="AQ119" s="364"/>
     </row>
     <row r="120" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="169" t="s">
+      <c r="B120" s="348" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="170"/>
-      <c r="D120" s="170"/>
-      <c r="E120" s="171"/>
-      <c r="F120" s="169"/>
-      <c r="G120" s="170"/>
-      <c r="H120" s="170"/>
-      <c r="I120" s="170"/>
-      <c r="J120" s="170"/>
-      <c r="K120" s="170"/>
-      <c r="L120" s="170"/>
-      <c r="M120" s="170"/>
-      <c r="N120" s="170"/>
-      <c r="O120" s="170"/>
-      <c r="P120" s="170"/>
-      <c r="Q120" s="170"/>
-      <c r="R120" s="170"/>
-      <c r="S120" s="170"/>
-      <c r="T120" s="170"/>
-      <c r="U120" s="170"/>
-      <c r="V120" s="170"/>
-      <c r="W120" s="170"/>
-      <c r="X120" s="170"/>
-      <c r="Y120" s="170"/>
-      <c r="Z120" s="170"/>
-      <c r="AA120" s="170"/>
-      <c r="AB120" s="170"/>
-      <c r="AC120" s="170"/>
-      <c r="AD120" s="170"/>
-      <c r="AE120" s="170"/>
-      <c r="AF120" s="170"/>
-      <c r="AG120" s="170"/>
-      <c r="AH120" s="170"/>
-      <c r="AI120" s="170"/>
-      <c r="AJ120" s="170"/>
-      <c r="AK120" s="170"/>
-      <c r="AL120" s="170"/>
-      <c r="AM120" s="170"/>
-      <c r="AN120" s="170"/>
-      <c r="AO120" s="170"/>
-      <c r="AP120" s="170"/>
-      <c r="AQ120" s="171"/>
+      <c r="C120" s="349"/>
+      <c r="D120" s="349"/>
+      <c r="E120" s="350"/>
+      <c r="F120" s="348"/>
+      <c r="G120" s="349"/>
+      <c r="H120" s="349"/>
+      <c r="I120" s="349"/>
+      <c r="J120" s="349"/>
+      <c r="K120" s="349"/>
+      <c r="L120" s="349"/>
+      <c r="M120" s="349"/>
+      <c r="N120" s="349"/>
+      <c r="O120" s="349"/>
+      <c r="P120" s="349"/>
+      <c r="Q120" s="349"/>
+      <c r="R120" s="349"/>
+      <c r="S120" s="349"/>
+      <c r="T120" s="349"/>
+      <c r="U120" s="349"/>
+      <c r="V120" s="349"/>
+      <c r="W120" s="349"/>
+      <c r="X120" s="349"/>
+      <c r="Y120" s="349"/>
+      <c r="Z120" s="349"/>
+      <c r="AA120" s="349"/>
+      <c r="AB120" s="349"/>
+      <c r="AC120" s="349"/>
+      <c r="AD120" s="349"/>
+      <c r="AE120" s="349"/>
+      <c r="AF120" s="349"/>
+      <c r="AG120" s="349"/>
+      <c r="AH120" s="349"/>
+      <c r="AI120" s="349"/>
+      <c r="AJ120" s="349"/>
+      <c r="AK120" s="349"/>
+      <c r="AL120" s="349"/>
+      <c r="AM120" s="349"/>
+      <c r="AN120" s="349"/>
+      <c r="AO120" s="349"/>
+      <c r="AP120" s="349"/>
+      <c r="AQ120" s="350"/>
     </row>
     <row r="121" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="172"/>
-      <c r="C121" s="173"/>
-      <c r="D121" s="173"/>
-      <c r="E121" s="174"/>
-      <c r="F121" s="172"/>
-      <c r="G121" s="173"/>
-      <c r="H121" s="173"/>
-      <c r="I121" s="173"/>
-      <c r="J121" s="173"/>
-      <c r="K121" s="173"/>
-      <c r="L121" s="173"/>
-      <c r="M121" s="173"/>
-      <c r="N121" s="173"/>
-      <c r="O121" s="173"/>
-      <c r="P121" s="173"/>
-      <c r="Q121" s="173"/>
-      <c r="R121" s="173"/>
-      <c r="S121" s="173"/>
-      <c r="T121" s="173"/>
-      <c r="U121" s="173"/>
-      <c r="V121" s="173"/>
-      <c r="W121" s="173"/>
-      <c r="X121" s="173"/>
-      <c r="Y121" s="173"/>
-      <c r="Z121" s="173"/>
-      <c r="AA121" s="173"/>
-      <c r="AB121" s="173"/>
-      <c r="AC121" s="173"/>
-      <c r="AD121" s="173"/>
-      <c r="AE121" s="173"/>
-      <c r="AF121" s="173"/>
-      <c r="AG121" s="173"/>
-      <c r="AH121" s="173"/>
-      <c r="AI121" s="173"/>
-      <c r="AJ121" s="173"/>
-      <c r="AK121" s="173"/>
-      <c r="AL121" s="173"/>
-      <c r="AM121" s="173"/>
-      <c r="AN121" s="173"/>
-      <c r="AO121" s="173"/>
-      <c r="AP121" s="173"/>
-      <c r="AQ121" s="174"/>
+      <c r="B121" s="351"/>
+      <c r="C121" s="352"/>
+      <c r="D121" s="352"/>
+      <c r="E121" s="353"/>
+      <c r="F121" s="351"/>
+      <c r="G121" s="352"/>
+      <c r="H121" s="352"/>
+      <c r="I121" s="352"/>
+      <c r="J121" s="352"/>
+      <c r="K121" s="352"/>
+      <c r="L121" s="352"/>
+      <c r="M121" s="352"/>
+      <c r="N121" s="352"/>
+      <c r="O121" s="352"/>
+      <c r="P121" s="352"/>
+      <c r="Q121" s="352"/>
+      <c r="R121" s="352"/>
+      <c r="S121" s="352"/>
+      <c r="T121" s="352"/>
+      <c r="U121" s="352"/>
+      <c r="V121" s="352"/>
+      <c r="W121" s="352"/>
+      <c r="X121" s="352"/>
+      <c r="Y121" s="352"/>
+      <c r="Z121" s="352"/>
+      <c r="AA121" s="352"/>
+      <c r="AB121" s="352"/>
+      <c r="AC121" s="352"/>
+      <c r="AD121" s="352"/>
+      <c r="AE121" s="352"/>
+      <c r="AF121" s="352"/>
+      <c r="AG121" s="352"/>
+      <c r="AH121" s="352"/>
+      <c r="AI121" s="352"/>
+      <c r="AJ121" s="352"/>
+      <c r="AK121" s="352"/>
+      <c r="AL121" s="352"/>
+      <c r="AM121" s="352"/>
+      <c r="AN121" s="352"/>
+      <c r="AO121" s="352"/>
+      <c r="AP121" s="352"/>
+      <c r="AQ121" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="334">
-    <mergeCell ref="F2:P5"/>
-    <mergeCell ref="R2:AQ2"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AI3:AQ3"/>
-    <mergeCell ref="R4:V5"/>
-    <mergeCell ref="W4:AH5"/>
-    <mergeCell ref="AI4:AQ4"/>
-    <mergeCell ref="AI5:AQ5"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="U9:AP9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="U11:AP11"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="L15:AB15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="L18:AA18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="L21:AB21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:AQ22"/>
-    <mergeCell ref="B23:AQ23"/>
-    <mergeCell ref="B24:AQ24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:AA26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AI26:AM26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="H29:R29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AK29"/>
-    <mergeCell ref="AL29:AM29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="W31:AA31"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="H32:R32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AM32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="W34:AA34"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="AI34:AM34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="H35:R35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AM35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="W37:AA37"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AI37:AM37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AM38"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="W40:AA40"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="AI40:AM40"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="H41:R41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="W43:AA43"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="AI43:AM43"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="H44:R44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="AL44:AM44"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="W46:AA46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="AI46:AM46"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="H47:R47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="W49:AA49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AI49:AM49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="H50:R50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AI50:AK50"/>
-    <mergeCell ref="AL50:AM50"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="W52:AA52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="AI52:AM52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="H53:R53"/>
-    <mergeCell ref="AC53:AE53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AI53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="Q57:AA57"/>
-    <mergeCell ref="AB57:AQ57"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:AA58"/>
-    <mergeCell ref="AB58:AQ58"/>
-    <mergeCell ref="C59:AQ59"/>
-    <mergeCell ref="C60:AQ60"/>
-    <mergeCell ref="F66:O69"/>
-    <mergeCell ref="R66:AQ66"/>
-    <mergeCell ref="R67:V67"/>
-    <mergeCell ref="W67:AH67"/>
-    <mergeCell ref="AI67:AQ67"/>
-    <mergeCell ref="R68:V69"/>
-    <mergeCell ref="W68:AH69"/>
-    <mergeCell ref="AI68:AQ68"/>
-    <mergeCell ref="AI69:AQ69"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:O73"/>
-    <mergeCell ref="AI73:AO73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:O74"/>
-    <mergeCell ref="R74:W74"/>
-    <mergeCell ref="AJ74:AO74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="R76:W76"/>
-    <mergeCell ref="AJ76:AO76"/>
-    <mergeCell ref="AJ78:AO78"/>
-    <mergeCell ref="K79:R79"/>
-    <mergeCell ref="AJ79:AO79"/>
-    <mergeCell ref="AJ80:AO80"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="X82:AC82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="X83:AC83"/>
-    <mergeCell ref="AJ83:AO83"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="X84:AC84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="X85:AC85"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="X86:AC86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="X87:AC87"/>
-    <mergeCell ref="AJ87:AO87"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="X88:AC88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="X89:AC89"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="X90:AC90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="M91:P91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="X91:AC91"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="X95:AC95"/>
-    <mergeCell ref="AJ95:AO95"/>
-    <mergeCell ref="AJ91:AO91"/>
-    <mergeCell ref="M92:P92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="X92:AC92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:P93"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="X93:AC93"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="X97:AC97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="X98:AC98"/>
-    <mergeCell ref="AJ100:AO100"/>
-    <mergeCell ref="AJ101:AO101"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="X94:AC94"/>
-    <mergeCell ref="B104:L105"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="S104:AI105"/>
-    <mergeCell ref="AJ104:AL104"/>
-    <mergeCell ref="AM104:AN104"/>
-    <mergeCell ref="AO104:AP104"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="AJ105:AL105"/>
-    <mergeCell ref="AM105:AN105"/>
-    <mergeCell ref="AO105:AP105"/>
-    <mergeCell ref="B106:L107"/>
-    <mergeCell ref="M106:N108"/>
-    <mergeCell ref="O106:P108"/>
-    <mergeCell ref="S106:AI106"/>
-    <mergeCell ref="AM106:AN108"/>
-    <mergeCell ref="AO106:AP108"/>
-    <mergeCell ref="Q106:Q108"/>
-    <mergeCell ref="S107:AK107"/>
-    <mergeCell ref="AQ106:AQ108"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="S108:AI108"/>
-    <mergeCell ref="S109:AI109"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="N111:T111"/>
-    <mergeCell ref="V111:AE111"/>
-    <mergeCell ref="AF111:AQ111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="F112:M112"/>
-    <mergeCell ref="N112:T112"/>
-    <mergeCell ref="U112:V112"/>
-    <mergeCell ref="W112:X112"/>
-    <mergeCell ref="Y112:AQ112"/>
-    <mergeCell ref="F111:M111"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:M113"/>
-    <mergeCell ref="N113:T113"/>
-    <mergeCell ref="U113:AQ113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="F114:M114"/>
-    <mergeCell ref="N114:T114"/>
-    <mergeCell ref="U114:AE114"/>
-    <mergeCell ref="AF114:AQ114"/>
-    <mergeCell ref="B116:C117"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="F116:G117"/>
-    <mergeCell ref="I116:J117"/>
-    <mergeCell ref="M116:P117"/>
-    <mergeCell ref="Q116:V117"/>
-    <mergeCell ref="W116:AQ116"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="K116:K117"/>
     <mergeCell ref="B120:E121"/>
     <mergeCell ref="F120:AQ121"/>
     <mergeCell ref="S79:T79"/>
@@ -8823,6 +8516,316 @@
     <mergeCell ref="F115:M115"/>
     <mergeCell ref="N115:T115"/>
     <mergeCell ref="U115:AQ115"/>
+    <mergeCell ref="B116:C117"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="F116:G117"/>
+    <mergeCell ref="I116:J117"/>
+    <mergeCell ref="M116:P117"/>
+    <mergeCell ref="Q116:V117"/>
+    <mergeCell ref="W116:AQ116"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:M113"/>
+    <mergeCell ref="N113:T113"/>
+    <mergeCell ref="U113:AQ113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:M114"/>
+    <mergeCell ref="N114:T114"/>
+    <mergeCell ref="U114:AE114"/>
+    <mergeCell ref="AF114:AQ114"/>
+    <mergeCell ref="S109:AI109"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="N111:T111"/>
+    <mergeCell ref="V111:AE111"/>
+    <mergeCell ref="AF111:AQ111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:M112"/>
+    <mergeCell ref="N112:T112"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:AQ112"/>
+    <mergeCell ref="F111:M111"/>
+    <mergeCell ref="B106:L107"/>
+    <mergeCell ref="M106:N108"/>
+    <mergeCell ref="O106:P108"/>
+    <mergeCell ref="S106:AI106"/>
+    <mergeCell ref="AM106:AN108"/>
+    <mergeCell ref="AO106:AP108"/>
+    <mergeCell ref="Q106:Q108"/>
+    <mergeCell ref="S107:AK107"/>
+    <mergeCell ref="AQ106:AQ108"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="S108:AI108"/>
+    <mergeCell ref="B104:L105"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="S104:AI105"/>
+    <mergeCell ref="AJ104:AL104"/>
+    <mergeCell ref="AM104:AN104"/>
+    <mergeCell ref="AO104:AP104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="AJ105:AL105"/>
+    <mergeCell ref="AM105:AN105"/>
+    <mergeCell ref="AO105:AP105"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="X97:AC97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="X98:AC98"/>
+    <mergeCell ref="AJ100:AO100"/>
+    <mergeCell ref="AJ101:AO101"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="X94:AC94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="X95:AC95"/>
+    <mergeCell ref="AJ95:AO95"/>
+    <mergeCell ref="AJ91:AO91"/>
+    <mergeCell ref="M92:P92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="X92:AC92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:P93"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="X93:AC93"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="X89:AC89"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="X90:AC90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="X91:AC91"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="X86:AC86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="X87:AC87"/>
+    <mergeCell ref="AJ87:AO87"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="X88:AC88"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="X83:AC83"/>
+    <mergeCell ref="AJ83:AO83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="X84:AC84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="X85:AC85"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="R76:W76"/>
+    <mergeCell ref="AJ76:AO76"/>
+    <mergeCell ref="AJ78:AO78"/>
+    <mergeCell ref="K79:R79"/>
+    <mergeCell ref="AJ79:AO79"/>
+    <mergeCell ref="AJ80:AO80"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="X82:AC82"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="AI73:AO73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:O74"/>
+    <mergeCell ref="R74:W74"/>
+    <mergeCell ref="AJ74:AO74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="C59:AQ59"/>
+    <mergeCell ref="C60:AQ60"/>
+    <mergeCell ref="F66:O69"/>
+    <mergeCell ref="R66:AQ66"/>
+    <mergeCell ref="R67:V67"/>
+    <mergeCell ref="W67:AH67"/>
+    <mergeCell ref="AI67:AQ67"/>
+    <mergeCell ref="R68:V69"/>
+    <mergeCell ref="W68:AH69"/>
+    <mergeCell ref="AI68:AQ68"/>
+    <mergeCell ref="AI69:AQ69"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="Q57:AA57"/>
+    <mergeCell ref="AB57:AQ57"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:AA58"/>
+    <mergeCell ref="AB58:AQ58"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="W52:AA52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AI52:AM52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="H53:R53"/>
+    <mergeCell ref="AC53:AE53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AI53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AI49:AM49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="H50:R50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="AI50:AK50"/>
+    <mergeCell ref="AL50:AM50"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="W46:AA46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="AI46:AM46"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="H47:R47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="W43:AA43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="AI43:AM43"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="H44:R44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="AL44:AM44"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="AI40:AM40"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="H41:R41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="W37:AA37"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AI37:AM37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="H38:R38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AM38"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="W34:AA34"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="AI34:AM34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="H35:R35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="W31:AA31"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="H32:R32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AM32"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="H29:R29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="AL29:AM29"/>
+    <mergeCell ref="B23:AQ23"/>
+    <mergeCell ref="B24:AQ24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:AA26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AI26:AM26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="L18:AA18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:AQ22"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="U9:AP9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="U11:AP11"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="L15:AB15"/>
+    <mergeCell ref="F2:P5"/>
+    <mergeCell ref="R2:AQ2"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AI3:AQ3"/>
+    <mergeCell ref="R4:V5"/>
+    <mergeCell ref="W4:AH5"/>
+    <mergeCell ref="AI4:AQ4"/>
+    <mergeCell ref="AI5:AQ5"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
